--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -49,6 +49,11 @@
       <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,6 +72,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -144,6 +155,20 @@
         <color rgb="FFE7E6E6"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -168,6 +193,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -464,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -476,7 +505,7 @@
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="14.35546875"/>
-    <col customWidth="true" min="5" max="5" width="13.8359375"/>
+    <col customWidth="true" min="5" max="5" width="69.87109375"/>
     <col customWidth="true" min="6" max="6" width="64.3046875"/>
     <col customWidth="true" min="7" max="7" width="64.3046875"/>
     <col customWidth="true" min="8" max="8" width="64.3046875"/>
@@ -485,6 +514,7 @@
     <col customWidth="true" min="11" max="11" width="-47.9921875"/>
     <col customWidth="true" min="12" max="12" width="13.8359375"/>
     <col customWidth="true" min="13" max="13" width="13.8359375"/>
+    <col customWidth="true" min="14" max="14" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -551,6 +581,11 @@
       <c r="M1" s="2" t="inlineStr">
         <is>
           <t>SDG2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Indikator gesperrt?</t>
         </is>
       </c>
     </row>
@@ -647,6 +682,9 @@
           <t/>
         </is>
       </c>
+      <c r="N2" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -723,6 +761,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N3" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
@@ -805,6 +846,9 @@
           <t/>
         </is>
       </c>
+      <c r="N4" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -877,6 +921,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N5" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
@@ -957,6 +1004,9 @@
           <t/>
         </is>
       </c>
+      <c r="N6" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -1036,6 +1086,9 @@
           <t/>
         </is>
       </c>
+      <c r="N7" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -1110,6 +1163,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N8" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
@@ -1187,6 +1243,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N9" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
@@ -1269,6 +1328,9 @@
           <t/>
         </is>
       </c>
+      <c r="N10" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1344,6 +1406,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N11" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
@@ -1423,6 +1488,9 @@
           <t/>
         </is>
       </c>
+      <c r="N12" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -1502,6 +1570,9 @@
           <t/>
         </is>
       </c>
+      <c r="N13" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1581,6 +1652,9 @@
           <t/>
         </is>
       </c>
+      <c r="N14" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1660,6 +1734,9 @@
           <t/>
         </is>
       </c>
+      <c r="N15" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1738,6 +1815,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N16" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
@@ -1817,6 +1897,9 @@
           <t/>
         </is>
       </c>
+      <c r="N17" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1898,6 +1981,9 @@
           <t/>
         </is>
       </c>
+      <c r="N18" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1922,7 +2008,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Vocational qualification of women and girls through German development cooperation</t>
+          <t>Vocational qualification of women and girls through German development assistance</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
@@ -1970,6 +2056,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N19" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
@@ -2050,6 +2139,9 @@
           <t/>
         </is>
       </c>
+      <c r="N20" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -2127,6 +2219,9 @@
           <t/>
         </is>
       </c>
+      <c r="N21" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -2199,6 +2294,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N22" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
@@ -2278,6 +2376,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N23" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
@@ -2356,6 +2457,9 @@
           <t/>
         </is>
       </c>
+      <c r="N24" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -2432,6 +2536,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N25" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
@@ -2512,6 +2619,9 @@
           <t/>
         </is>
       </c>
+      <c r="N26" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2586,6 +2696,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N27" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
@@ -2666,6 +2779,9 @@
           <t/>
         </is>
       </c>
+      <c r="N28" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -2738,6 +2854,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N29" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="30">
@@ -2818,6 +2937,9 @@
           <t/>
         </is>
       </c>
+      <c r="N30" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2891,6 +3013,9 @@
           <t/>
         </is>
       </c>
+      <c r="N31" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -2961,6 +3086,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N32" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="33">
@@ -3039,6 +3167,9 @@
           <t/>
         </is>
       </c>
+      <c r="N33" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -3116,6 +3247,9 @@
           <t/>
         </is>
       </c>
+      <c r="N34" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -3191,6 +3325,9 @@
           <t/>
         </is>
       </c>
+      <c r="N35" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -3266,6 +3403,9 @@
           <t>10.4.2</t>
         </is>
       </c>
+      <c r="N36" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -3341,6 +3481,9 @@
           <t/>
         </is>
       </c>
+      <c r="N37" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -3415,6 +3558,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N38" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
@@ -3494,6 +3640,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N39" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">
@@ -3582,6 +3731,9 @@
           <t/>
         </is>
       </c>
+      <c r="N40" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -3665,6 +3817,9 @@
           <t/>
         </is>
       </c>
+      <c r="N41" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -3743,6 +3898,9 @@
           <t/>
         </is>
       </c>
+      <c r="N42" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -3820,6 +3978,9 @@
           <t/>
         </is>
       </c>
+      <c r="N43" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -3895,6 +4056,9 @@
           <t/>
         </is>
       </c>
+      <c r="N44" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -3967,6 +4131,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N45" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
@@ -4049,6 +4216,9 @@
           <t/>
         </is>
       </c>
+      <c r="N46" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -4125,6 +4295,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N47" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
@@ -4217,6 +4390,9 @@
           <t/>
         </is>
       </c>
+      <c r="N48" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -4298,6 +4474,9 @@
           <t/>
         </is>
       </c>
+      <c r="N49" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -4369,6 +4548,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N50" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
@@ -4445,6 +4627,9 @@
           <t/>
         </is>
       </c>
+      <c r="N51" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -4517,6 +4702,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N52" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="53">
@@ -4597,6 +4785,9 @@
           <t/>
         </is>
       </c>
+      <c r="N53" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -4674,6 +4865,9 @@
           <t/>
         </is>
       </c>
+      <c r="N54" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -4750,6 +4944,9 @@
         <is>
           <t>15.b.1</t>
         </is>
+      </c>
+      <c r="N55" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="56">
@@ -4830,6 +5027,9 @@
           <t/>
         </is>
       </c>
+      <c r="N56" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -4902,6 +5102,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N57" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="58">
@@ -4978,6 +5181,9 @@
           <t>16.5.2</t>
         </is>
       </c>
+      <c r="N58" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -5054,6 +5260,9 @@
         <is>
           <t/>
         </is>
+      </c>
+      <c r="N59" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
@@ -5134,6 +5343,9 @@
           <t/>
         </is>
       </c>
+      <c r="N60" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -5209,6 +5421,9 @@
           <t/>
         </is>
       </c>
+      <c r="N61" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -505,7 +505,7 @@
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="14.35546875"/>
-    <col customWidth="true" min="5" max="5" width="69.87109375"/>
+    <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="64.3046875"/>
     <col customWidth="true" min="7" max="7" width="64.3046875"/>
     <col customWidth="true" min="8" max="8" width="64.3046875"/>

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="N38" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="N39" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="N53" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="54">

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -514,7 +514,7 @@
     <col customWidth="true" min="11" max="11" width="-47.9921875"/>
     <col customWidth="true" min="12" max="12" width="13.8359375"/>
     <col customWidth="true" min="13" max="13" width="13.8359375"/>
-    <col customWidth="true" min="14" max="14" width="13.8359375"/>
+    <col customWidth="true" min="14" max="14" width="32.8125"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="N4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="N38" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="N39" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="N4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="N4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="N37" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="N37" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -4669,7 +4669,7 @@
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>Die biologische Vielfalt ist die Grundlage für das Leben der Menschen. Nur wenn das Naturkapital – etwa in Form von Fischbeständen in Nord- und Ostsee – geschützt und erhalten wird, kann es auch künftigen Generationen lebenswichtige Ökosystemleistungen erbringen.&lt;br&gt;Das Ziel des Indikators ist es, den Erreichungsgrad des in der Verordnung über die Gemeinsame Fischereipolitik festgelegten Ziels zu beschreiben, nach dem bis 2020 alle wirtschaftlich genutzten Fischbestände nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz) nachhaltig zu bewirtschaften sind</t>
+          <t>Die biologische Vielfalt ist die Grundlage für das Leben der Menschen. Nur wenn das Naturkapital – etwa in Form von Fischbeständen in Nord- und Ostsee – geschützt und erhalten wird, kann es auch künftigen Generationen lebenswichtige Ökosystemleistungen erbringen.&lt;br&gt;Das Ziel des Indikators ist es, den Erreichungsgrad des in der Verordnung über die Gemeinsame Fischereipolitik festgelegten Ziels zu beschreiben, nach dem bis 2020 alle wirtschaftlich genutzten Fischbestände nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz) nachhaltig zu bewirtschaften sind.</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -30,6 +33,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
@@ -72,6 +80,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -169,6 +183,20 @@
         <color rgb="FFE7E6E6"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -196,6 +224,10 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="6" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyNumberFormat="1" applyFont="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="right"/>
       <protection locked="1" hidden="0"/>
     </xf>
@@ -493,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -515,6 +547,7 @@
     <col customWidth="true" min="12" max="12" width="13.8359375"/>
     <col customWidth="true" min="13" max="13" width="13.8359375"/>
     <col customWidth="true" min="14" max="14" width="32.8125"/>
+    <col customWidth="true" min="15" max="15" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -588,6 +621,11 @@
           <t>Indikator gesperrt?</t>
         </is>
       </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Datenstand</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -607,7 +645,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Materielle Deprivation sowie erhebliche materielle Deprivation</t>
+          <t>Materielle und soziale Deprivation sowie erhebliche materielle und soziale Deprivation</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -765,6 +803,9 @@
       <c r="N3" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O3" s="7">
+        <v>45562</v>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -925,6 +966,9 @@
       <c r="N5" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O5" s="7">
+        <v>45637</v>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -939,12 +983,12 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>03.1.a,b</t>
+          <t>03.1.a</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Vorzeitige Sterblichkeit</t>
+          <t>Durch Prävention und Behandlung vermeidbare Sterblichkeit</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1006,6 +1050,9 @@
       </c>
       <c r="N6" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>45538</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
@@ -1463,8 +1510,7 @@
 Zusätzlich wurden Programme betrachtet, die als Reaktion auf die COVID-19-Pandemie gestartet wurden, wie u. a. Programme und Aktivitäten der WHO, humanitäre Hilfe, Impfstoffentwicklung, Krisenreaktion sowie Soforthilfen und -kredite für die Reaktion des Gesundheitssektors in Ländern des Globalen Südens.
 Bei den Zahlen ist zu beachten, dass eine genaue inhaltliche Abgrenzung von Programmen nicht vollständig möglich ist, da das Themenfeld umfassende Querverbindungen zu einer Vielzahl von weiteren Gesundheitsbereichen besitzt. Somit wird eine Bandbreite an Programmen berücksichtigt, wie z. B. der Beitrag Deutschlands an die WHO für dessen Notfallprogramm bzw. zur flexiblen Anschubfinanzierung von Krisenreaktionen in akuten Gesundheitsnotlagen (Contingency Fund for Emergencies), eine Impfprogrammförderung zur Reduktion von Kindersterblichkeit in der ostafrikanischen Gemeinschaft, die Verbesserung der Trinkwasser- und Sanitärversorgung in Burkina Faso sowie eine Sicherheitskooperation für biologische Bedrohungen. Neben der inhaltlichen Schwerpunktsetzung ist zu beachten, dass ein Teil der Programme allgemein auf die Stärkung globaler Koordinierungs- und Organisationskapazitäten abzielt und damit nicht ausschließlich Ländern des Globalen Südens zukommt.
 Des Weiteren können präventive und reaktive Maßnahmen nicht genau abgegrenzt werden. So können einerseits präventive Kapazitätsstärkung die Reaktion auf eine pandemische Lage unterstützen und andererseits reaktive Maßnahmen einen Beitrag zur langfristigen Kapazitätsstärkung leisten. Um einen Ausreißer in den Zahlen zu vermeiden, der sich aus der Reaktion auf die COVID-19-Pandemie ergibt, sind diese Ausgaben bzw. Zusagen nicht Teil des Indikators, sondern getrennt als Information in der Grafik ausgewiesen.
-Die dargestellten Ausgaben bzw. Zusagen sagen zudem nichts über den Erfolg der Programme aus. Der Indikator stellt einen monetären Beitrag Deutschlands zur Pandemieprävention und 
--reaktion dar. Zur Wirkung der Beiträge wäre eine weitergehende Evaluierung notwendig. Unter Berücksichtigung der oben genannten Einschränkungen bilden die ermittelten Zahlen daher keinesfalls die deutschen Ausgaben bzw. Zusagen vollständig ab, welche einen gegebenenfalls mittelbaren Einfluss auf das Themenfeld haben.
+Die dargestellten Ausgaben bzw. Zusagen sagen zudem nichts über den Erfolg der Programme aus. Der Indikator stellt einen monetären Beitrag Deutschlands zur Pandemieprävention und -reaktion dar. Zur Wirkung der Beiträge wäre eine weitergehende Evaluierung notwendig. Unter Berücksichtigung der oben genannten Einschränkungen bilden die ermittelten Zahlen daher keinesfalls die deutschen Ausgaben bzw. Zusagen vollständig ab, welche einen gegebenenfalls mittelbaren Einfluss auf das Themenfeld haben.
 Zwischen 2015 bis 2021 stiegen die Ausgaben bzw. Zusagen zur Pandemieprävention und -reaktion von 147,9 Millionen Euro auf 396,7 Millionen Euro (vorläufige Daten) an. Sie lagen damit – entsprechend dem Ziel der Bundesregierung – deutlich über dem Wert von 2019. Die gesondert ausgewiesenen Ausgaben zur Eindämmung der COVID-19-Pandemie lagen in 2021 bei 842,7 Millionen Euro und damit höher als im ersten Jahr der Pandemie (743,7 Millionen Euro).</t>
         </is>
       </c>
@@ -1573,6 +1619,9 @@
       <c r="N13" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O13" s="7">
+        <v>45611</v>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1655,6 +1704,9 @@
       <c r="N14" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O14" s="7">
+        <v>45672</v>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1737,6 +1789,9 @@
       <c r="N15" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O15" s="7">
+        <v>45561</v>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1786,7 +1841,7 @@
       </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Im unbereinigten Gender Pay Gap (GBG) enthalten ist auch der Lohnabstand, der beispielsweise auf unterschiedliche Berufe, Branchen, Qualifikationen oder Erwerbsbiografien von Frauen und Männern zurückzuführen ist.
+          <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Im unbereinigten Gender Pay Gap (GPG) enthalten ist auch der Lohnabstand, der beispielsweise auf unterschiedliche Berufe, Branchen, Qualifikationen oder Erwerbsbiografien von Frauen und Männern zurückzuführen ist.
 Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen (Untergliederung in fünf Gruppen von ungelernt bis Arbeitnehmerinnen und Arbeitnehmer in leitender Stellung), Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap bestimmt. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten sowie den unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der Land- und Forstwirtschaft, Fischerei, der öffentlichen Verwaltung, Verteidigung, Sozialversicherung sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.
 Nach vorläufigen Zahlen verdienten Frauen in den Jahren 2020 und 2021 durchschnittlich 18 % weniger pro Stunde als Männer. Das Ziel, den unbereinigten GPG bis 2020 auf 10 % zu verringern, wurde damit nicht erreicht. Bei Fortsetzung der Entwicklung der letzten fünf Jahre ist zu erwarten, dass das angestrebte Ziel auch bis zum Jahr 2030 nicht erreicht wird.
 Über einen längeren Zeitraum betrachtet, zeigt sich für Deutschland ein langsamer, aber stetiger Rückgang des unbereinigten GPG. Dieser hatte 2012 mit 23 % noch um 5 Prozentpunkte höher gelegen als 2021. Bei Betrachtung der Ergebnisse nach Bundesländern zeigen sich erhebliche Unterschiede: Am höchsten lag der unbereinigte GPG im Jahr 2021 mit 22 % in Baden-Württemberg und Bremen, während er in Brandenburg, Mecklenburg-Vorpommern und Thüringen 5 % betrug.
@@ -1900,6 +1955,9 @@
       <c r="N17" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O17" s="7">
+        <v>45601</v>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -2298,6 +2356,9 @@
       <c r="N22" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O22" s="7">
+        <v>45674</v>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -2379,6 +2440,9 @@
       </c>
       <c r="N23" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>45674</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
@@ -2460,6 +2524,9 @@
       <c r="N24" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O24" s="7">
+        <v>45506</v>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -2539,6 +2606,9 @@
       </c>
       <c r="N25" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>45601</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
@@ -2699,6 +2769,9 @@
       </c>
       <c r="N27" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>45674</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
@@ -2858,6 +2931,9 @@
       <c r="N29" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O29" s="7">
+        <v>45674</v>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2940,6 +3016,9 @@
       <c r="N30" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O30" s="7">
+        <v>45539</v>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -3015,6 +3094,9 @@
       </c>
       <c r="N31" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>45672</v>
       </c>
     </row>
     <row outlineLevel="0" r="32">
@@ -3170,6 +3252,9 @@
       <c r="N33" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O33" s="7">
+        <v>45537</v>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -3250,6 +3335,9 @@
       <c r="N34" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O34" s="7">
+        <v>45672</v>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -3327,6 +3415,9 @@
       </c>
       <c r="N35" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>45601</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
@@ -4218,6 +4309,9 @@
       </c>
       <c r="N46" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>45565</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
@@ -4477,6 +4571,9 @@
       <c r="N49" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O49" s="7">
+        <v>45603</v>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -4551,6 +4648,9 @@
       </c>
       <c r="N50" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>45562</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
@@ -4786,7 +4886,10 @@
         </is>
       </c>
       <c r="N53" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>45548</v>
       </c>
     </row>
     <row outlineLevel="0" r="54">
@@ -5156,7 +5259,7 @@
       <c r="J58" s="5" t="inlineStr">
         <is>
           <t>Die Studie zum Corruption Perception Index (CPI) von Transparency International ist die die meisten Länder umfassende Übersichtsstudie zur wahrgenommenen Korruption im öffentlichen Sektor. Bei dem CPI handelt es sich um einen Kompositindikator, der je Land unterschiedliche Experten- sowie Unternehmensbefragungen zur Wahrnehmung von Korruption im öffentlichen Sektor zusammenführt. Abhängig von den jeweiligen Befragungen können dabei unterschiedliche Verständnisse von Korruption zugrunde liegen. Die Ergebnisse dieser Befragungen können auch von den Kenntnissen des Wertes des CPI oder anderer ihm zugrunde liegender Teilstudien der vorherigen Jahre selbst beeinflusst werden. Zudem wechseln die Quellen für die Berechnung des CPI im Zeitablauf. In den Index werden Länder mit einbezogen, zu denen mindestens drei ausgewählte Befragungen vorliegen. Das Joint Research Centre (JRC) der Europäischen Kommission weist in seiner Analyse des CPI darauf hin, dass bei der Interpretation der Ergebnisse die jeweilige statistische Signifikanz der Veränderung mitbetrachtet werden sollte und selbst bei statistisch signifikanten Unterschieden die Ergebnisse dieses Indikators mit Vorsicht zu interpretieren seien. Seine Vergleichbarkeit ist somit sowohl über die Zeit als auch zwischen den Ländern stark eingeschränkt.
-Deutschland hat sich im Vergleich von 79Punkten im Jahr 2012 auf 80 Punkte im Jahr 2021 verbessert. Dieser Wert hat sich gegenüber 2017 um einen Punkt verschlechtert, sodass Deutschland auf dem zehnten Platz des Rankings steht. Dabei ist diese Veränderung gegenüber 2012 nicht als statistisch signifikant (bei einem Signifikanzniveau von 5 %) anzusehen.
+Deutschland hat sich im Vergleich von 79 Punkten im Jahr 2012 auf 80 Punkte im Jahr 2021 verbessert. Dieser Wert hat sich gegenüber 2017 um einen Punkt verschlechtert, sodass Deutschland auf dem zehnten Platz des Rankings steht. Dabei ist diese Veränderung gegenüber 2012 nicht als statistisch signifikant (bei einem Signifikanzniveau von 5 %) anzusehen.
 Auch das Statistische Bundesamt erhebt im Rahmen der Zufriedenheitsbefragung zu behördlichen Dienstleistungen Daten zum Thema Korruption. Nach dieser Befragung hatten im Jahr 2021 3,9 % der Bevölkerung während ihres Kontakts mit öffentlichen Einrichtungen den Eindruck, dass Beschäftigte des öffentlichen Dienstes bestechlich wären. Bei der entsprechenden Umfrage unter Unternehmen hatten 4,0 % der Unternehmen diesen Eindruck.
 Die Polizeiliche Kriminalstatistik (PKS) erfasst alle der Polizei bekannt gewordenen strafrechtlichen Sachverhalte. Im Jahr 2021 wurden 712 Fälle von Vorteilsannahme, Vorteilsgewährung sowie Bestechlichkeit und Bestechung im öffentlichen Sektor erfasst. Zudem werden in der PKS auch Fälle von Bestechlichkeit und Bestechung im geschäftlichen Verkehr sowie sogenannte Begleitdelikte der Korruption wie zum Beispiel Betrugs- und Untreuehandlungen, Urkundenfälschung, wettbewerbsbeschränkende Absprachen bei Ausschreibungen, Strafvereitelung, Falschbeurkundung im Amt und Verletzung des Dienstgeheimnisses ausgewiesen.
 In Bezug auf die deutsche Entwicklungszusammenarbeit haben sich im Jahr 2021 im Vergleich zum Jahr 2012 insgesamt 48 der 87 durch den CPI bewerteten Partnerländer verbessert. Die Anzahl der sich positiv entwickelnden Partnerländer ist im betrachteten Zeitraum bis 2016 jedes Jahr gestiegen. Im Jahr 2018 ist die Anzahl leicht zurückgegangen und stieg in den Folgejahren wieder an. Eine statistisch signifikante Verbesserung (bei einem Signifikanzniveau von 5 %) wiesen in 2021 gegenüber 2012 31 Partnerländer der deutschen Entwicklungszusammenarbeit auf, im Vergleich dazu waren es 2014 sechs Partnerländer.</t>
@@ -5263,6 +5366,9 @@
       </c>
       <c r="N59" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="O59" s="7">
+        <v>45672</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
@@ -5346,6 +5452,9 @@
       <c r="N60" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O60" s="7">
+        <v>45548</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -5424,6 +5533,9 @@
       <c r="N61" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="O61" s="7">
+        <v>45593</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -536,7 +536,7 @@
     <col customWidth="true" min="1" max="1" width="17.72265625"/>
     <col customWidth="true" min="2" max="2" width="13.8359375"/>
     <col customWidth="true" min="3" max="3" width="13.8359375"/>
-    <col customWidth="true" min="4" max="4" width="14.35546875"/>
+    <col customWidth="true" min="4" max="4" width="20.80078125"/>
     <col customWidth="true" min="5" max="5" width="13.8359375"/>
     <col customWidth="true" min="6" max="6" width="64.3046875"/>
     <col customWidth="true" min="7" max="7" width="64.3046875"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>Anteil der Bevölkerung mit erhöhter PM10-Feinstaubexposition</t>
+          <t>Anteil der Bevölkerung mit erhöhter PM2,5-Feinstaubexposition</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>03.3</t>
+          <t>03.3.a</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1541,50 +1541,120 @@
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
+          <t>Z03_B03_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>03.3.a</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
           <t>Z04_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Z04_B01_P01</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>04.1.a</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>Frühe Schulabgängerinnen und Schulabgänger</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Early school leavers</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil derjenigen 18- bis 24-Jährigen an allen Personen derselben Altersgruppe an, die weder über eine Hochschulzugangsberechtigung wie Abitur oder die Fachhochschulreife noch über eine abgeschlossene Berufsausbildung verfügen und die derzeit nicht an Aus- und Weiterbildungsmaßnahmen teilnehmen.</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the percentage of all people in the 18 to 24 age group who neither possess a university entrance qualification, such as an Abitur or Fachhochschulreife (entrance qualification for universities of applied sciences), nor have completed a course of vocational training and who are not currently undergoing training or continuing education.</t>
         </is>
       </c>
-      <c r="H13" s="5" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>Das staatliche Bildungssystem und das duale System der Berufsausbildung sind die Eckpfeiler einer zukunftsorientierten Qualifikation für junge Menschen in Deutschland. Fehlende Schul- und Berufsabschlüsse bedeuten ein erhöhtes Armutsrisiko und eine daraus resultierende stärkere Belastung der Sozialsysteme. Für das Jahr 2030 ist das Ziel, diesen Anteil auf 9,5 % zu senken.</t>
         </is>
       </c>
-      <c r="I13" s="5" t="inlineStr">
+      <c r="I14" s="5" t="inlineStr">
         <is>
           <t>The federal educational system and the dual system of vocational training are the cornerstones of future-orientated qualifications for young people in Germany. Failure to complete school or vocational training poses a risk of poverty and places a strain on the social welfare systems. The target for 2030 is to lower the percentage of early school leavers to 9.5 %.</t>
         </is>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>Hinter dem Begriff „frühe Schulabgängerinnen und Schulabgänger“ verbergen sich nicht die jungen „Überfliegerinnen und Überflieger“, die vor Ende der Regelschulzeit einen Schulabschluss erlangen. Auch ist der Begriff nicht mit Schulabbrecherinnen bzw. Schulabbrechern zu verwechseln. Vielmehr handelt es sich hierbei um Personen im Alter zwischen 18 und 24 Jahren, die weder über eine Hochschulzugangsberechtigung wie Abitur oder die Fachhochschulreife noch über eine abgeschlossene Berufsausbildung verfügen und die derzeit nicht an Aus- und Weiterbildungsmaßnahmen teilnehmen. Das bedeutet, dass auch junge Menschen, die beispielsweise die Haupt- oder die Realschule erfolgreich abgeschlossen haben, sich aber nicht mehr im Bildungsprozess befinden, als frühe Schulabgängerinnen bzw. Schulabgänger gezählt werden.
 Die Angaben stammen aus dem Mikrozensus, dessen jährliche Stichprobenerhebung 1 % der Bevölkerung in Deutschland umfasst. Aufgrund einer umfassenden Neugestaltung des Mikrozensus in 2020 sind die Daten ab diesem Berichtsjahr nur eingeschränkt mit den Daten aus den vorangegangenen Jahren vergleichbar.
@@ -1595,7 +1665,7 @@
 Dagegen erreichten im Jahr 2021 16,1 % (122 282) der gleichaltrigen Wohnbevölkerung einen Hauptschulabschluss, 44,1 % (334 137) einen mittleren Abschluss, 33,0 % (263 428) die allgemeine Hochschulreife und 0,1 % (849) die Fachhochschulreife. Im Zeitverlauf seit 1999 zeigen sich bei zwei Abschlussarten besonders starke Veränderungen. So nahm der Anteil der Personen mit Hauptschulabschluss um 10,0 Prozentpunkte ab, während der Anteil der Personen mit allgemeiner Hochschulreife um 8,2 Prozentpunkte anstieg (jeweils bezogen auf die gleichaltrige Bevölkerung).</t>
         </is>
       </c>
-      <c r="K13" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>The term “early school leavers” does not refer to the young “high achievers”, who obtain a school leaving certificate before the regular period of schooling ends. Nor should the term be confused with school drop-outs. On the contrary, it refers to people between 18 and 24 years of age who neither have obtained a higher education entrance qualification such as “Abitur” or “Fachhochschulreife” (for universities in general or universities of applied sciences), nor have completed vocational training and who are not attending initial and continuing education/ training programmes. This means that even those young people who, for example, have successfully completed “Hauptschule” or “Realschule” (lower secondary education, ISCED level 2) but are no longer participating in the education process are also counted as early school leavers.
 The information originates from the microcensus, whose annual sample survey covers 1 % of the population in Germany. In 2020, the microcensus had a comprehensive restructuring, such that data from 2020 on is conditionally comparable to preceding years.
@@ -1606,70 +1676,70 @@
 By contrast, 16.1 % (122,282) of the resident population of the same age obtained a certificate of lower secondary education from a Hauptschule in 2021, 44.1 % (334,137) obtained a certificate of intermediate secondary education, 33.0 % (263,428) obtained a general university entrance qualification, and 0.1 % (849) obtained a certificate qualifying them to enter a university of applied sciences. Since 1999, two types of certificates have seen particularly large changes over the course of time. Thus, the share of people with a secondary general school certificate fell by 10.0 percentage points, while the share of people with university entrance qualification rose by 8.2 percentage points (both as a proportion of the population of the same age).</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M13" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
         <v>45611</v>
       </c>
     </row>
-    <row outlineLevel="0" r="14">
-      <c r="A14" s="4" t="inlineStr">
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>Z04_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Z04_B01_P01</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>04.1.b</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Persons with an academic or higher vocational qualification</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil der 30- bis 34-Jährigen an, die über einen Abschluss des Tertiärbereichs (Stufen 5 bis 8 der Internationalen Standardklassifikation des Bildungswesens, ISCED 2011) oder einen postsekundaren nicht-tertiären Abschluss (Stufe 4 der ISCED) verfügen.</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>The indicator specifies the proportion of 30 to 34-year-olds who hold a certificate from the tertiary education sector (levels 5 to 8 of the International Standard Classification of Education, ISCED, 2011) or a postsecondary non-tertiary certificate (level 4 of the ISCED).</t>
         </is>
       </c>
-      <c r="H14" s="5" t="inlineStr">
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t>Eine hoch entwickelte Volkswirtschaft wie die deutsche, in der der Dienstleistungssektor und der Bedarf an Wissen und Expertise immer stärker in den Vordergrund rücken, benötigt hoch qualifizierte Arbeitskräfte. Im Rahmen der Fortschreibung der Nationalen Nachhaltigkeitsziele sollen als Zielquote bis 2030 55 % der 30- bis 34-Jährigen über einen tertiären oder postsekundaren nicht-tertiären Abschluss verfügen.</t>
         </is>
       </c>
-      <c r="I14" s="5" t="inlineStr">
+      <c r="I15" s="5" t="inlineStr">
         <is>
           <t>Developed economies like Germany’s, in which the service sector and the demand for knowledge and expertise are becoming increasingly important, requires highly qualified workers. According to the updated national sustainable development goals, 55 % of 30 to 34-year-olds are to possess a tertiary or other post-secondary qualification by 2030.</t>
         </is>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>Die Bezeichnung des Indikators hängt mit der Tradition der dualen Ausbildungssysteme in Deutschland zusammen. Neben den tertiären Abschlüssen an Hoch-, Fachhoch- und Verwaltungsfachhochschulen, Berufsakademien, Fachschulen und Fachakademien sowie den Meister- und Technikerabschlüssen gibt es bundesweit eine Vielzahl von postsekundaren nicht-tertiären Abschlüssen. Hierzu zählen generell alle abgeschlossenen Berufsausbildungen nach dem Abitur, aber auch Abschlüsse in Gesundheits- und Sozialberufen, wie beispielsweise die Ausbildung zur Medizinisch-technischen Assistenz.
 Die „International Standard Classification of Education (ISCED)“ ermöglicht es, Statistiken und Indikatoren zu Bildungsabschlüssen international zu vergleichen. Als gleichwertig angesehene Abschlüsse werden dabei den gleichen ISCED-Stufen zugeordnet. Der Indikator umfasst daher sowohl die tertiären Abschlüsse entsprechend den Stufen 5 bis 8 der ISCED als auch die postsekundaren nicht-tertiären Abschlüsse der Stufe 4 der ISCED.
@@ -1680,7 +1750,7 @@
 Die Gesamtzahl der Hochschulabsolventinnen und Hochschulabsolventen im Jahr 2021 betrug 517 944. Das sind mehr als doppelt so viele wie im Jahr 1999. Darunter waren 129 488 Absolventinnen und Absolventen der Ingenieurwissenschaften (dreimal so viele wie 1999) und 54 928 Absolventinnen und Absolventen der Mathematik und Naturwissenschaften (68,8 % mehr als 1999).</t>
         </is>
       </c>
-      <c r="K14" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>The name of the indicator is linked to the tradition of the dual education system in Germany. In addition to tertiary degrees from universities, universities of applied sciences, colleges of public administration, vocational and specialised academies as well as master craftsmen’s and technicians’ certificates, there are post-secondary non-tertiary degrees at upper secondary level which are obtained in parallel or consecutively. These include, for example, the “Abitur” (higher education entrance qualification) at evening schools or at two-year full-time vocational schools, the completion of vocational training after the “Abitur” or a previous vocational training.
 The “International Standard Classification of Education (ISCED)” enables international comparisons of statistics and indicators regarding certificates of education. Certificates that are regarded as equivalent are assigned to the same ISCED levels. Therefore, the indicator includes both the tertiary degrees corresponding to levels 5 to 8 of the ISCED as well as the post-secondary non-tertiary degrees corresponding to level 4 of the ISCED.
@@ -1691,70 +1761,70 @@
 The number of university graduates in Germany totalled 517,944 in 2021. This was more than twice as many as in 1999. These included 129,488 engineering graduates (three times as much than in 1999) and 54,928 graduates of mathematics and the natural sciences (68.8 % more than in 1999).</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M14" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
         <v>45672</v>
       </c>
     </row>
-    <row outlineLevel="0" r="15">
-      <c r="A15" s="4" t="inlineStr">
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Z04_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Z04_B02_P01</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>04.2.a,b</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Ganztagsbetreuung für Kinder</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>All-day care provision for children</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil der Kinder in Ganztagsbetreuung am Stichtag 1. März an allen Kindern der gleichen Altersgruppe am 31. Dezember des Vorjahres an. Ganztagsbetreuung entspricht dabei einer durchgehenden vertraglich vereinbarten Betreuungszeit von mehr als sieben Stunden pro Betreuungstag; Tagespflege sowie die Betreuung von Schulkindern sind nicht berücksichtigt. Indikator 4.2.a bezieht sich auf die Gruppe der 0- bis 2-jährigen, Indikator 4.2.b auf die der 3- bis 5-jährigen Kinder.</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>This indicator shows children in all-day care on the reference date of 1 March as a proportion of all children in the same age group on 31 December of the previous year. All-day childcare is provided for a contractually agreed, continuous care period of more than seven hours per day; day care in private homes and care of pupils are not included. Indicator 4.2.a refers to the group of 0 to 2-year-old children, indicator 4.2.b to the group of 3 to 5-year-old children.</t>
         </is>
       </c>
-      <c r="H15" s="5" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>Der Anteil der 0- bis 2-jährigen Kinder, die eine Ganztagsbetreuung besuchen, soll bis zum Jahr 2030 bei mindestens 35 % liegen (4.2.a). Für die 3- bis 5-Jährigen (4.2.b) soll der Anteil bis zum Jahr 2030 auf mindestens 70 % steigen. Eine Erhöhung des Anteils von Kindern in Ganztagsbetreuung ist wünschenswert, da bedarfsgerechte Betreuungsmöglichkeiten die Vereinbarkeit von Familie und Beruf verbessern. Zudem sind sie ein wichtiger Beitrag zur Chancengerechtigkeit, zur Gleichstellung von Frauen und Männern und zur Integration.</t>
         </is>
       </c>
-      <c r="I15" s="5" t="inlineStr">
+      <c r="I16" s="5" t="inlineStr">
         <is>
           <t>The proportion of 0 to 2-year-old children attending all-day care is to reach at least 35 % (4.2.a) by 2030. For 3 to 5-year-olds (4.2.b), the proportion is to increase to at least 70 % by 2030. An increase in the proportion of children attending all-day care is desirable because the availability of childcare options that meet the needs of today’s families improve the compatibility of family life and work. They also make an important contribution to equal opportunities, gender equality and integration.</t>
         </is>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren geben jeweils den Anteil der Kinder an, für die eine tägliche Betreuungszeit von mehr als sieben Stunden vereinbart wurde. Diese Zeitangabe kann von der tatsächlich in Anspruch genommenen Betreuungsdauer abweichen. Vertraglich vereinbarte Betreuungszeiten von sieben Stunden und weniger, die ebenfalls die Vereinbarkeit von Beruf und Familie verbessern können, sowie weitere Betreuungsformen, zum Beispiel Tagespflege, fließen nicht ein. Darüber hinaus sind für das Themengebiet auch Informationen zu Betreuungsangeboten für Kinder ab sechs Jahren relevant. Entsprechende ergänzende Informationen bieten beispielsweise Daten der Kultusministerkonferenz (siehe letzter Abschnitt).
 Die Angaben zum Indikator stammen aus der jährlichen Statistik über Kinder und tätige Personen in Kindertageseinrichtungen des Statistischen Bundesamtes. Im Jahr 2022 war für 16,8 % der unter 3-Jährigen (Krippenalter) und für 47,0 % der 3- bis 5-Jährigen (Kindergartenalter) eine Ganztagsbetreuung in Kindertageseinrichtungen vereinbart. Somit haben sich die Anteile der ganztags betreuten Kinder unter 3 Jahren seit 2006 fast verdreifacht und unter den 3- bis 5-Jährigen mehr als verdoppelt. Bei beiden Altersgruppen ist der Anstieg allerdings seit etwa 2014 deutlich schwächer ausgeprägt als in den Jahren zuvor, seit 2020 sind die Anteile sogar leicht rückläufig.
@@ -1765,7 +1835,7 @@
 Im Hinblick auf die Betreuungsmöglichkeiten für Schulkinder spielen auch Horte und Ganztagsschulen eine wichtige Rolle. 2021 wurden in Kindertageseinrichtungen (Horten) 18 967 Kinder von 5 bis 13 Jahren ganztags und 486 408 Kinder in Teilzeit betreut (die Unterrichtszeit gilt nicht als Betreuungszeit). Der Anteil der Ganztagsschülerinnen und Ganztagsschüler gemessen an allen Schülerinnen und Schülern an allgemeinbildenden Schulen lag im Schuljahr 2020/2021 bei 47,2 %. Hier sind jedoch alle Schulformen und somit auch Schülerinnen und Schüler über 13 Jahren einbezogen. An Grundschulen wurden im gleichen Schuljahr 46,5 % der Kinder ganztags betreut. Im Vergleich zum Jahr 2006 ist die Zahl der Ganztagsschülerinnen und Ganztagsschüler 2021 deutlich gestiegen, und zwar von knapp 1,5 Millionen auf 3,4 Millionen (allgemeinbildende Schulen insgesamt) und von 0,4 Millionen auf 1,</t>
         </is>
       </c>
-      <c r="K15" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>The indicators show the proportion of children for whom daily childcare of more than seven hours has been arranged, which may deviate from the actual time spent in childcare. Contractually agreed childcare provision of seven hours and less, which can also improve the compatibility of work and family life, and other types of care, e.g. day care in private homes, are not included. Furthermore, information on childcare services aimed at children aged 6 years and older is also relevant to this topic. Such supplementary information is included, for example, in the data of the Standing Conference of the Ministers of Education and Cultural Affairs of the Länder in the Federal Republic of Germany (see the last paragraph).
 The information of the indicator is provided by the annual statistics on children cared for and persons employed in day care centres, which is compiled by the Federal Statistical Office. In 2022, all-day care in day care centres was arranged for 47.0 % of the 3 to 5-year-old children (kindergarten age). For children under 3 years of age (nursery age) this figure was 16.8 %. As a result, the share of children in all-day care below the age of 3 almost tripled and have more than doubled for the 3 to 5-year-olds since 2006. However, the increase for both indicators is significantly reducing since 2014 and, furthermore, the share of children for both age groups in all-day care is diminishing since 2020.
@@ -1776,70 +1846,70 @@
 When it comes to opportunities of care for pupils, pre and after-school care programmes and all-day schools also play a significant role. In 2021, 18,967 children between 5 and 13 years of age were looked after on an all-day basis in care programmes and 486,408 children part-time (lessons are not regarded as childcare). The percentage of pupils attending all-day schools of all pupils in schools of general education was 47.2 % in the 2020/2021 school year. However, this figure includes pupils from all school types and hence includes also pupils who are older than 13 years. In primary schools, 46.5 % of children received all-day care in that school year. In comparison to 2006, the number of all-day school pupils has increased considerably in 2021, from almost 1.5 million to 3.4 million (in all schools of general education) and from 0.4 million to 1.3 million in the primary schools.</t>
         </is>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>4.2.2</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
         <v>45561</v>
       </c>
     </row>
-    <row outlineLevel="0" r="16">
-      <c r="A16" s="4" t="inlineStr">
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>05.1.a</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Gender pay gap</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer als Anteil an den durchschnittlichen Bruttostundenverdiensten der Männer.</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the difference between the average gross hourly earnings of women and men expressed as a percentage of the average gross hourly earnings of men.</t>
         </is>
       </c>
-      <c r="H16" s="5" t="inlineStr">
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgte daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
         </is>
       </c>
-      <c r="I16" s="5" t="inlineStr">
+      <c r="I17" s="5" t="inlineStr">
         <is>
           <t>Differences in pay between men and women in a modern business-oriented society are a sign of social inequality. A narrowing of pay disparities indicates progress on the road to equality. The Federal Government is therefore pursuing the goal of reducing the pay gap to 10 % by 2020 and to maintain the value until 2030.</t>
         </is>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Im unbereinigten Gender Pay Gap (GPG) enthalten ist auch der Lohnabstand, der beispielsweise auf unterschiedliche Berufe, Branchen, Qualifikationen oder Erwerbsbiografien von Frauen und Männern zurückzuführen ist.
 Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen (Untergliederung in fünf Gruppen von ungelernt bis Arbeitnehmerinnen und Arbeitnehmer in leitender Stellung), Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap bestimmt. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten sowie den unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der Land- und Forstwirtschaft, Fischerei, der öffentlichen Verwaltung, Verteidigung, Sozialversicherung sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.
@@ -1850,7 +1920,7 @@
 Im europäischen Vergleich liegen überwiegend vorläufige Ergebnisse bis zum Jahr 2020 vor. Der unbereinigte GPG lag in Deutschland seit 2010 durchgehend über dem Durchschnitt der Europäischen Union. Von 25 EU-Staaten, für die Daten für das Jahr 2020 vorliegen, weisen nur Lettland mit 22 %, Estland mit 21 % und Österreich mit 19 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %), Rumänien (2 %) und Slowenien (3 %).</t>
         </is>
       </c>
-      <c r="K16" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>The indicator presented here shows the unadjusted gender pay gap (GPG). Therefore, it only expresses the relative average gross hourly earnings as a ratio without considering the underlying causes, such as qualification, occupation or a different employment history.
 The data for the indicator is based on the four-yearly structure of earnings survey conducted by the statistical offices of the Länder as a representative sample survey covering a maximum of 60,000 businesses who are obliged to provide the requested information. Based on these data, results are provided by age, educational attainment, performance group, activity, collective agreement, company size class and economic sector, and the adjusted GPG is published. For the interim years, the unadjusted GPG is updated using the rates of change from the quarterly survey of earnings. In the following, the EU definition is used for the adjusted and unadjusted GPG; it excludes employees in “agriculture, forestry and fishing”, “public administration and defence; compulsory social security” and in micro-enterprises.
@@ -1861,67 +1931,67 @@
 Comparative data for the European Union with mostly provisional results is available until 2020. From 2010 on, the unadjusted GPG in Germany lay considerably above the provisional European Union average. Of the 25 EU states in 2020, only Latvia, with 22 %, Estonia, with 21 %, and Austria, with 19 %, had a higher GPG. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1 %, Romania, with 2 %, and Slovenia, with 3 %.</t>
         </is>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>8.5.1</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N16" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>05.1.b,c</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>Women in management positions in business and in the federal civil service</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes.</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>The indicator 5.1.b shows the share of women on supervisory boards of listed and fully co-determined companies. Indicator 5.1.c shows the percentage of women in management positions in the federal civil service.</t>
         </is>
       </c>
-      <c r="H17" s="5" t="inlineStr">
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>Frauen sind ebenso qualifiziert wie Männer und dennoch in Führungspositionen der deutschen Wirtschaft, vor allem im Top-Management, unterrepräsentiert. Gleiches gilt auch für den Anteil in Führungspositionen im öffentlichen Dienst des Bundes. Bis zum Jahr 2030 soll daher der Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen auf 30 % erhöht werden. Im öffentlichen Dienst des Bundes soll die gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen gemäß dem am 21. August 2021 in Kraft getretenen zweiten Führungspositionengesetz (FüPoG II) bis zum Jahr 2025 erreicht werden.</t>
         </is>
       </c>
-      <c r="I17" s="5" t="inlineStr">
+      <c r="I18" s="5" t="inlineStr">
         <is>
           <t>Women are as highly qualified as men, yet they are under-represented in management positions in German business, particularly at senior management level. The same applies to the percentage of women in management positions in the federal civil service. For this reason, the share of women on supervisory boards of listed and fully co-determined companies is to be increased to 30 % by 2030. Under the bill for a Second Gender Equality (Management Positions) Act, which became effective on 21 August 2021, equal representation of women and men in management positions in the civil service is to be achieved by 2025.</t>
         </is>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>&lt;b&gt;&lt;i&gt;Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen&lt;/i&gt;&lt;/b&gt;
 Der Indikator erfasst den Anteil von Frauen in Aufsichtsräten von Aktiengesellschaften und Kommanditgesellschaften auf Aktien mit mehr als 2 000 Beschäftigten sowie Europäischen Gesellschaften (SE) und börsennotierten Unternehmen, die paritätisch mitbestimmt sind. Die Veröffentlichungen der börsennotierten und paritätisch mitbestimmten Unternehmen, die vom Verein „Frauen in die Aufsichtsräte“ (FidAR) ausgewertet und in sogenannten Women-on-Board-Indizes (WOB-Indizes) veröffentlicht werden, dienen als Datengrundlage.
@@ -1933,7 +2003,7 @@
 Bislang dient eine Sonderauswertung der unveröffentlichten Gleichstellungsstatistik des Bundes nach Maßgabe des Bundesgleichstellungsgesetzes (BGleiG) als Datengrundlage für den Indikator. Das Statistische Bundesamt führt seit 2015 im Auftrag des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ) die Gleichstellungsstatistik alle zwei Jahre zum Stichtag 30. Juni des Berichtsjahres durch. Ein erweitertes Monitoring im Zusammenhang mit der Maßnahme IX 1. b der Deutschen Nachhaltigkeitsstrategie und dem zweiten Führungspositionengesetz (FüPoG II) zur Erhöhung der Transparenz wird künftig halbjährliche Daten auch aus den nachgeordneten Dienststellen der unmittelbaren Bundesverwaltung zur Anzahl von Frauen und Männern in Führungspositionen zur Bedienung des Indikators liefern. Der Fokus des Indikators richtet sich auf die Beschäftigten in Führungspositionen aller Dienststellen des Bundes. Einbezogen werden alle Voll- und Teilzeitbeschäftigten sowie</t>
         </is>
       </c>
-      <c r="K17" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;This indicator measures the proportion of women on the supervisory boards of listed companies and joint-stock companies with more than 2,000 employees as well as European Companies (SE) and listed companies that are subject to equal co-determination. The data is based on publications of the results of elections at general meetings of shareholders of listed and fully co-determined companies, which are evaluated by the association “Frauen in die Aufsichtsräte” (FidAR) and published in the form of a Women on Board Index (WOB-Index).
 In January 2022, the average proportion of women on the supervisory boards of these companies was 35.6 % (January 2015: 21.3 %). This means that the target share of 30 % was already reached in 2018 – twelve years before the deadline set in the German strategy for sustainable development. However, the share in 2022 slightly decreased for the first time since 2015.
@@ -1942,70 +2012,70 @@
 According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, control, coordinate and evaluate the overall activities of companies, governments and other organisations or internal organisational units and who review and evaluate guidelines, laws, rules and regulations. This definition includes the activities of supervisory boards. When the ISCO classification is applied, 22 % of the 882,000 management positions in the economy (all companies with more than one employee) were filled by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O “Public administration and defence; compulsory social security” and parts of sector P “Education”. Compared with 2014, the year of the previous structure of earnings survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June of the reporting year, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. For improved transparency, the indicator will receive biannual data from extended monitoring by the measure IX 1.b by the German strategy for sustainable development and the second managements position act (FüPoG II) provided by subordinated departments of the direct federal administration regarding the number of women and men in management positions. The indicator is focused on the employees in management positions in all departmen</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>16.7.1</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
         <v>45601</v>
       </c>
     </row>
-    <row outlineLevel="0" r="18">
-      <c r="A18" s="4" t="inlineStr">
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>05.1.d</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
         </is>
       </c>
-      <c r="G18" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the percentage of children whose fathers receiving parental allowance.</t>
         </is>
       </c>
-      <c r="H18" s="5" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>Das Elterngeld soll Familien bei einer partnerschaftlichen Aufgabenteilung unterstützen und eine gute Vereinbarkeit von Familie und Beruf für Mütter und Väter erreichen. Besonders mit der Einführung des ElterngeldPlus und des Partnerschaftsbonus soll der gesellschaftliche Wandel geschlechtsstereotyper Rollenbilder von Müttern und Vätern weiter vorangetrieben und letztendlich auch die Gleichstellung am Arbeitsmarkt befördert werden. Die Bundesregierung hat sich deshalb zum Ziel gesetzt den Anteil der Väter, die Elterngeld beziehen, zum Jahr 2030 auf 65 % zu steigern.</t>
         </is>
       </c>
-      <c r="I18" s="5" t="inlineStr">
+      <c r="I19" s="5" t="inlineStr">
         <is>
           <t>Parental allowance is intended to assist mothers and fathers in sharing their tasks in a spirit of partnership and in successfully reconciling work and family life. The introduction of parental allowance plus (ElterngeldPlus) and the partnership bonus (Partnerschaftsbonus) in particular are intended to keep driving social change in the stereotypical role models for mothers and fathers and ultimately to promote equality of opportunity in the labour market. For that reason, the German Federal Government has set itself the target of increasing the proportion of fathers receiving parental allowance to 65 % by 2030.</t>
         </is>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>Mit dem Bundeselterngeld- und Elternzeitgesetz (BEEG) wurde das Elterngeld als Familienleistung für ab dem 1. Januar 2007 geborene Kinder eingeführt. Anspruchsberechtigte müssen einen Wohnsitz oder gewöhnlichen Aufenthalt in Deutschland haben, mit ihrem Kind in einem Haushalt leben, dieses Kind selbst betreuen und erziehen und dürfen keine bzw. keine volle Erwerbstätigkeit ausüben. Mütter und Väter sind gleichermaßen berechtigt.
 Auch wenn es sich nicht um das leibliche Kind handelt, können Ehemann/Ehefrau bzw. Lebenspartner/Lebenspartnerin der leiblichen Mutter oder des leiblichen Vaters Elterngeld erhalten, wenn sie im gleichen Haushalt leben. In über 99 % der Fälle handelt es sich bei den Leistungsbeziehenden jedoch um die leiblichen Eltern, sodass im Folgenden vereinfacht von Müttern und Vätern die Rede ist.
@@ -2017,7 +2087,7 @@
 Die maximale Bezugsdauer des Elterngeldes für vor dem 1. Juli 2015 geborene Kinder betrug 14 Monate. Für Eltern, deren Kinder ab dem 1. Juli 2015 geboren wurden, besteht die Möglichkeit, zwischen dem Bezug von Basiselterngeld und dem Bezug von ElterngeldPlus zu wählen oder beides zu kombinieren und zusätzlich einen Partnerschaftsbonus in Form von zwei, drei oder vier zusätzlichen ElterngeldPlus-Monaten pro Elternteil in Anspruch zu nehmen. Die Bezugsdauer kann sich hierdurch erheblich verlängern.</t>
         </is>
       </c>
-      <c r="K18" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.
 Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99 % of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.
@@ -2029,143 +2099,143 @@
 For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
         </is>
       </c>
-      <c r="L18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M18" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N18" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P02</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>05.1.e</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Vocational qualification of women and girls through German development assistance</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden. Dabei wird in finanzielle (FZ) und technische Zusammenarbeit (TZ) unterschieden.
 Leistungen der TZ sind vor allem Beratung, in begrenztem Umfang auch die Lieferung von Sachgütern, das Erstellen von Anlagen sowie Studien und Gutachten. Zur FZ gehören günstige Kredite, Beteiligungskapital oder Zuschüsse, die nicht zurückgezahlt werden müssen.</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of women and girls in developing and emerging countries who were reached by vocational qualification measures through German development cooperation. The indicator is divided into financial (FZ) and technical cooperation (TZ).
 Services from TZ include consulting, to a limited degree the delivery of material goods, the production of facilities and the implementation of studies and reports. FZ provides favourable loans, venture capital or grants, that do not have to be repaid.</t>
         </is>
       </c>
-      <c r="H19" s="5" t="inlineStr">
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>Die wirtschaftliche Teilhabe von Frauen und Mädchen in Entwicklungs- und Schwellenländern soll gestärkt werden. Daher soll bis 2030 die Anzahl der durch deutsche Entwicklungszusammenarbeit beruflich qualifizierten Frauen und Mädchen in Entwicklungs- und Schwellenländern sukzessive um ein Drittel gegenüber dem Jahr 2015 erhöht werden. Dies entspricht der von der Bundesregierung im Rahmen des G7-Gipfels im Jahr 2015 eingegangenen Verpflichtung zur Mädchen- und Frauenbildung.</t>
         </is>
       </c>
-      <c r="I19" s="5" t="inlineStr">
+      <c r="I20" s="5" t="inlineStr">
         <is>
           <t>The economic participation of girls and women in developing and emerging countries is to be increased. To this end, the number of girls and women in developing and emerging countries who obtain vocational qualifications through German development cooperation is to be gradually increased by one third over the period from 2015 to 2030. The Federal Government as part of the G7 summit is obliged to support girl’s and women’s education since 2015.</t>
         </is>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>Als Datenquelle werden Informationen vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) zu geförderten Entwicklungsmaßnahmen verwendet, die sich im entsprechenden Berichtsjahr in der Durchführungsphase befanden. Zu diesen Maßnahmen zählen alle kurz-, mittel- und langfristigen formalen und nonformalen Berufsbildungsmaßnahmen in Entwicklungs- und Schwellenländern. Die Maßnahmen werden vollständig durch Mittel des Bundeshaushaltes sowie durch Marktmittel finanziert. Die Datenerhebung erfolgte erstmalig für das Jahr 2015 im Auftrag des BMZ durch die Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ) sowie das Centrum für Evaluation (CeVal GmbH). Die Erhebung wurde 2018 erneut durchgeführt. Ab dem Jahr 2021 werden die Daten alle drei Jahre aus der sogenannten aggregierten Ergebnisberichterstattung der GIZ und der Kreditanstalt für Wiederaufbau (KfW) abgeleitet.
 Im Jahr 2015 wurden rund 355 000 und im Jahr 2018 rund 863 000 Frauen und Mädchen durch berufliche Qualifizierungsmaßnahmen erreicht. Die hohe Anzahl an geförderten Frauen und Mädchen 2018 war vorwiegend durch die Zusammenarbeit mit China geprägt. Bedingt durch die ausgelaufene Zusammenarbeit mit China im Bereich Bildung lag die Anzahl der erreichten Frauen und Mädchen zuletzt bei etwa 80 000 (Jahr 2021). Gegenüber 2015 – dem ersten Jahr der Erhebung – war dies nur gut ein Fünftel an Frauen und Mädchen, die durch deutsche Entwicklungszusammenarbeit in Entwicklungs- und Schwellenländern beruflich qualifiziert wurden. Mit der Anzahl an erreichten Frauen und Mädchen wird jedoch keine Aussage zu Erfolg, Umfang und Qualität der Entwicklungsmaßnahmen getroffen.
 Von den etwa 80 000 Frauen und Mädchen wurden schätzungsweise 79,3 % über die technische Zusammenarbeit (TZ) erreicht; 20,7 % über die finanzielle Zusammenarbeit (FZ). Während die Anzahl der Frauen und Mädchen bei Maßnahmen der TZ ex post erfasst wird, muss die Anzahl bei der FZ im Voraus geschätzt werden. Dadurch kann es zu Überschätzungen und Mehrfachzählungen kommen.</t>
         </is>
       </c>
-      <c r="K19" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>Information provided by the Federal Ministry for Economic Cooperation and Development on supported projects that entered the implementation phase in the respective year served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds. The data was collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH (CeVal GmbH). The survey was renewed in 2018. From 2021 on, the data will be derived every three years from the aggregated results reporting provided by GIZ and Kreditanstalt für Wiederaufbau (KfW).
 In 2015 and 2018, 355,000 and 863,000 women and girls were reached by skill development measures, respectively. The high number of supported women and girls in 2018 was predominantly due to the collaboration with China. Expired collaboration in the education section with China caused a decline to 80,000 girls and women, who were reached by skill development measures in 2021. Only a fifth of women and girls were reached by German vocational qualification measures in developing and emerging countries compared to the first year of survey in 2015. However, the indicator does not provide any information on the success, scope and quality of the qualification measures.
 Of the 80,000 women and girls, about 79.3 % were reached by TZ and, accordingly, 20.7 % by FZ. While the number of women and girls are recorded ex-post for TZ measures, the number for FZ has to be estimated in advance. As a consequence, latter is prone to overestimation and multiple counting.</t>
         </is>
       </c>
-      <c r="L19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N19" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Z06_B01_P01</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>06.1.a</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Phosphorus in flowing waters</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil derjenigen Messstellen an, an denen die gewässertypischen Orientierungswerte des guten ökologischen Zustands für Phosphor in Fließgewässern eingehalten werden.</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>The indicator specifies the share of monitoring points at which the water-body typical benchmark values of good ecological status regarding phosphorus in flowing waters are not exceeded.</t>
         </is>
       </c>
-      <c r="H20" s="5" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>Phosphor gelangt in Deutschland heute etwa je zur Hälfte aus der Landwirtschaft und aus Städten (kommunale Kläranlagen und Regenwasserabläufe) in die Fließgewässer. Es ist neben der Belastung durch Nitrat einer der Gründe, warum es in Flüssen, Seen und Meeren zu einer Überversorgung mit Nährstoffen (Eutrophierung) kommt. Folgen davon sind Algenwachstum, Sauerstoffarmut bis hin zum Fischsterben oder zum Aufkommen giftiger Blaualgen. Daher wurde als Ziel für das Jahr 2030 festgelegt, dass die gewässertypischen Orientierungswerte, die in der Oberflächengewässerverordnung angegeben sind, an allen Messstellen eingehalten oder unterschritten werden.</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I21" s="5" t="inlineStr">
         <is>
           <t>Roughly half of the phosphorous entering flowing waters in Germany today originates from agriculture, and the other half comes from cities (municipal water treatment plants and rainwater run-offs). In addition to nitrate pollution, it is one of the causes of an oversupply of nutrients in rivers, lakes and seas (eutrophication). The consequences of this are algae growth, oxygen depletion all the way to fish kills or the growth of poisonous blue-green algae. For this reason, meeting benchmark values for specific types of water bodies, as specified in the Ordinance on the Protection of Surface Waters, at all monitoring points has been defined as a goal for 2030.</t>
         </is>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>Phosphor gelangt im Regelfall durch den Eintrag von Phosphaten in Gewässer. Die Phosphorbelastung der Flüsse wird von den Bundesländern im Rahmen der Überwachung zur EG-Wasserrahmenrichtlinie gemessen. Für den Indikator werden die Daten des Überblicksmessnetzes genutzt, das aus etwa 250 Messstellen besteht. Die Messstellen wurden meist in den Hauptströmen der großen Flüsse und an Einmündungen bedeutender Nebengewässer eingerichtet. Die Zusammenstellung der Daten erfolgt durch das Umweltbundesamt nach Angaben der Bund/Länder-Arbeitsgemeinschaft Wasser (LAWA).
 In den Indikator geht ein, ob der jeweils gültige Orientierungswert an einer gegebenen Messstelle im Jahresmittel eingehalten oder unterschritten, jedoch nicht wie weit dieser bei einer Überschreitung verfehlt wurde. Die Angaben zu den einzelnen Messstellen werden zusammengefasst dargestellt. Entsprechend hängt der Wert des Indikators von der Anzahl und der Repräsentativität der Verteilung der Messstellen ab. Seen und andere Stillgewässer sind durch den Indikator nicht abgedeckt.
@@ -2176,7 +2246,7 @@
 Die Indikatoren zu Phosphor- und Nitratgehalt (6.1.a und 6.1.b) decken zwei wesentliche Aspekte der Gewässerqualität ab. Daneben gibt es jedoch noch weitere Komponenten, wie zum Beispiel die Ausstattung der Gewässer mit naturnahen Lebensräumen und die Belastung mit Schadstoffen (wie Pflanzenschutzmittel, Metalle, Arzneimittel), die ebenfalls für die Gewässerqualität relevant sind.</t>
         </is>
       </c>
-      <c r="K20" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>Phosphorous generally enters a body of water through the input of phosphates. The phosphorous pollution of rivers is measured by the Länder as part of the monitoring conducted for the EU Water Framework Directive. The data for the indicator come from the monitoring network, which consists of about 250 monitoring points. In most cases, the monitoring points were installed in the main currents of the large rivers and at the junction of important confluents. The data are compiled by the German Environment Agency based on information from the German Working Group on Water Issues of the Länder and the Federal Government represented by the Federal Environment Ministry (LAWA).
 The indicator shows whether the annual average of the values measured at a particular monitoring point was equal to, or lower than, the benchmark value. However, it does not show by how far the target was surpassed if it was exceeded. The information about the individual monitoring points is presented in a summarised form. Accordingly, the value of the indicator is strongly dependent on the number of monitoring points and the representative status of their distribution. Lakes and other standing waters are not covered by the indicator.
@@ -2187,67 +2257,67 @@
 The indicators of phosphorous and nitrate levels (6.1.a and 6.1.b) cover two key aspects of water quality. However, there are other, additional components such as the existence of natural habitats around water bodies and the exposure to pollutants (such as pesticides, metals, medicines), all of which are also relevant to water quality.</t>
         </is>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>6.3.2</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Z06_B01_P01</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>06.1.b</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>Nitrat im Grundwasser</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Nitrate in groundwater</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil der Messstellen an, an denen der Grenzwert von 50 Milligramm pro Liter Nitrat im Grundwasser im Jahresmittel eingehalten wird.</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the share of monitoring points at which the threshold value of 50 mg/l of nitrate in the groundwater is not exceeded on an annual average.</t>
         </is>
       </c>
-      <c r="H21" s="5" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>Grundwasser ist ein wesentliches Element des Naturhaushaltes. Es ist Teil des Wasserkreislaufs und erfüllt wichtige ökologische Funktionen. Grundwasser ist auch die wichtigste Trinkwasserressource Deutschlands. Erhöhte Nitratgehalte beeinträchtigen jedoch die Ökologie der Gewässer. Der Schwellenwert von 50 Milligramm Nitrat pro Liter im Grundwasser, der in der Grundwasserverordnung sowie der Oberflächengewässerverordnung angegeben ist, soll daher an allen Messstellen bis 2030 eingehalten werden.</t>
         </is>
       </c>
-      <c r="I21" s="5" t="inlineStr">
+      <c r="I22" s="5" t="inlineStr">
         <is>
           <t>Groundwater is a key element of the ecosystem. It is part of the water cycle and performs important ecological functions. Groundwater is also Germany’s most important drinking water resource. However, elevated nitrate contents impair the ecology of water bodies. The threshold value of 50 mg/l of nitrate in groundwater, as specified in the Groundwater Ordinance and in the Ordinance on the Protection of Surface Waters, should therefore not be exceeded at any monitoring point by 2030.</t>
         </is>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>Der Nitratgehalt im Grundwasser wird von den Bundesländern für die Berichterstattung über den Zustand des Grundwassers in Deutschland an die Europäische Umweltagentur (EUA) erhoben. Die dazu verwendeten Messstellen ergeben zusammen das sogenannte EUA-Messnetz. Das EUA-Messstellennetz umfasst 1 214 Messstellen und bildet damit Deutschland repräsentativ ab. Die Daten werden vom Umweltbundesamt nach Angaben der Bund/Länder-Arbeitsgemeinschaft Wasser (LAWA) zusammengestellt.
 Wie auch der Indikator zum Phosphorgehalt in Fließgewässern gibt dieser Indikator keinen Hinweis auf den Umfang der Grenzwertüber- bzw. -unterschreitung. Der Indikator erfasst an wie vielen aller Messstellen der vorgegebene Schwellenwert eingehalten wurde. Die Nitratbelastung kann an einigen Messstellen stark zurückgegangen sein. Sollte sie jedoch weiterhin oberhalb des Schwellenwertes von 50 Milligramm pro Liter liegen, spiegelt sich die Reduktion nicht im Indikator wider. Gleiches gilt für steigende Nitratbelastungen, die jedoch weiterhin unter dem Grenzwert verbleiben. Ebenso muss bei der Interpretation berücksichtigt werden, dass Maßnahmen zur Verringerung der Nitratbelastung möglicherweise erst verzögert Wirkung zeigen, da die Sickerzeit von der Oberfläche bis in das Grundwasser mehrere Jahre betragen kann.
@@ -2257,7 +2327,7 @@
 Um den konkreten Einfluss der landwirtschaftlichen Nutzung auf die Nitratbelastung der Gewässer zu untersuchen, gibt es eine separate Nitrat-Berichterstattung an die Europäische Union (EU). Für diese Berichterstattung werden aus dem EUA-Messnetz diejenigen Messstellen ausgewählt, in deren Einzugsgebiet die landwirtschaftliche Nutzung dominiert. In diesem speziellen Messnetz liegt die Nitratbelastung dementsprechend über dem Durchschnittswert des Indikators 6.1.b.</t>
         </is>
       </c>
-      <c r="K21" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>The nitrate content of groundwater is recorded by the Länder for the purpose of reporting the condition of groundwater in Germany to the European Environment Agency (EEA). The monitoring points used for this purpose are combined in the “EEA monitoring network”. The EEA monitoring network comprises a total of 1,214 monitoring sites and provides a representative picture of Germany. The data are summarised by the German Environment Agency based on information from the German Working Group on Water Issues of the Länder and the Federal Government represented by the Federal Environment Ministry (LAWA).
 Like the indicator of phosphorus content in flowing waters, the nitrate indicator does not reveal how far above or below the threshold the readings have been. The indicator merely records how many of all the monitoring sites complied with the prescribed threshold. The nitrate load may have fallen sharply at some monitoring sites. Nevertheless, if the concentration remains above the maximum of 50 mg/l, the reduction will not be reflected in the indicator. The same applies to nitrate loads that have increased but are still below the threshold. The interpretation must also take into account that measures to reduce nitrate pollution may have a delayed effect, since the period of infiltration from the surface to the groundwater can take several years.
@@ -2267,67 +2337,67 @@
 In order to measure the actual influence of agricultural activity on the nitrate load of waters, there is a separate system of nitrate reporting to the EU. For this report, the monitoring sites for waters in predominantly agricultural catchment areas are selected from the EEA site network. The nitrate load in that specific part of the monitoring network is therefore above the average for indicator 6.1.b.</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr">
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>6.3.2</t>
         </is>
       </c>
-      <c r="M21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N21" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Z06_B02_P01</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>06.2.a,b</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>Entwicklungszusammenarbeit für Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Development cooperation for access to drinking water and sanitation</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren stellen die Anzahl der Menschen dar, die im jeweiligen Berichtsjahr direkt durch deutsche Unterstützung Neuzugang oder verbesserten Zugang zu Trinkwasser- (Indikator 6.2.a) und/oder Sanitärversorgung (Indikator 6.2.b) erhalten haben.</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of people in the relevant reference year who obtained first-time or improved access to drinking water (6.2.a) and/or sanitation (6.2.b) as a direct result of German support.</t>
         </is>
       </c>
-      <c r="H22" s="5" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t>Eine unzureichende Versorgung mit Trinkwasser und sanitären Einrichtungen hat weitreichende Auswirkungen auf die Ernährung und die Gesundheit des Menschen. Das Ziel der Bundesregierung ist daher, dass bis zum Jahr 2030 jährlich zehn Millionen Menschen weltweit mit deutscher Unterstützung Zugang zu Trinkwasser- und Sanitärversorgung erhalten. Dieses Ziel wurde ab dem Berichtsjahr 2019 weiter ausdifferenziert: so sollen bis 2030 jährlich sechs Millionen Menschen weltweit mit deutscher Unterstützung direkten Zugang zur Trinkwasserversorgung bzw. vier Millionen Menschen weltweit mit deutscher Unterstützung direkten Zugang zur Sanitärversorgung erhalten.</t>
         </is>
       </c>
-      <c r="I22" s="5" t="inlineStr">
+      <c r="I23" s="5" t="inlineStr">
         <is>
           <t>Inadequate provision of drinking water and sanitary facilities has far-reaching consequences for human nutrition and health. The target of the Federal Government is that ten million people worldwide should, with German support, obtain access to drinking water and sanitation each year up to 2030. This target has now been further refined, and now six million people worldwide are to obtain access to drinking water with German support each year until 2030, while four million people in the world are to obtain access to sanitation each year with German support.</t>
         </is>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren basieren auf Angaben der Kreditanstalt für Wiederaufbau (KfW) und erfassen nur die durch Förderung von ihr erreichten Menschen. Maßnahmen weiterer Akteure (zum Beispiel Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH, Bundesländer, private Akteure) werden nicht berücksichtigt. Die Indikatoren stützen sich ausschließlich auf Plangrößen für neue Finanzierungszusagen für Projekte im Bereich Trinkwasser- und Sanitärversorgung zum Zeitpunkt der Vorlage des Programmvorschlags an das Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ). Die KfW schätzt die Anzahl an Personen, die zukünftig, das heißt nach Fertigstellung der Bauvorhaben, einen neuen oder verbesserten Zugang zu Trinkwasser- und Sanitärversorgung erhalten haben werden oder von den bereitgestellten Kapazitäten profitieren können. Ob die Menschen tatsächlich erreicht werden, ist erst nach Inbetriebnahme der Infrastrukturen konkret abschätzbar, was hier nicht abgebildet wird. Da eine Person sowohl einen neuen oder verbesserten Zugang zur Trinkwasser- als auch zur Sanitärversorgung erhalten kann, sind Doppelzählungen zwischen beiden Indikatoren und im Zeitablauf möglich. Die von der KfW zugesagten Mittel sind Zuschüsse und Darlehen – finanziert aus dem Bundeshaushalt – sowie am Kapitalmarkt aufgenommene Mittel. Empfänger sind in der Regel Entwicklungs- und Schwellenländer, sodass dieser Indikator in Beziehung zum Indikator 17.1 „Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen“ steht.
 In 2019 wurde die Erhebungsmethodik überarbeitet. Während zuvor direkt (zum Beispiel mittels eines Hausanschlusses) als auch indirekt erreichte Menschen (zum Beispiel die gesamte Bevölkerung eines Landes, das durch ein Sektorreformprogramm unterstützt wird) gezählt wurden, werden seitdem nur direkt erreichte Personen erfasst. So wurden in 2017 19,1 Millionen Menschen (der insgesamt 28,6 Millionen erreichten Menschen) direkt erreicht; in 2018 waren es 15,2 Millionen Menschen (der insgesamt 60,3 Millionen erreichten Menschen). Eine weitere Veränderung liegt in der anteiligen Berücksichtigung der erreichten Menschen entsprechend dem deutschen Finanzierungsanteil von Maßnahmen. So werden Beiträge von anderen Gebern oder Eigenanstrengungen des Empfängerlandes nicht berücksichtigt. Auch werden zum Beispiel keine Energieeffizienzmaßnahmen, Verbesserungen von Betriebsabläufen oder Erneuerungen von Pumpstationen gezählt, da diese nicht unmittelbar zu einer Verbesserung der Versorgung der Zielgruppe führen.
@@ -2335,7 +2405,7 @@
 Die Zusagen durch die KfW im Bereich Wasser- und Sanitärversorgung sowie Abwassermanagement haben sich von 2012 bis 2018 um 26,0 % auf über eine Milliarde Euro erhöht. Diese sind jedoch 2019 und 2020 auf zuletzt 677,1 Millionen Euro zurückgegangen. Im Gegensatz zu den Zusagen verringerten sich die Auszahlungen, die durch die KfW erfolgten, seit 2015 kontinuierlich auf 432,1 Millionen Euro für das Jahr 2020. Ein Grund hierfür liegt im zeitlichen Verzug zwischen Zusagen und Auszahlungen.</t>
         </is>
       </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>The indicator is based on data from the Kreditanstalt für Wiederaufbau (KfW) and only measures the number of people reached through its support. Measures taken by other parties, such as the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ), Länder and private aid agencies, are not taken into account. The indicator is based exclusively on the planned scope of new funding commitments for drinking water and sanitation projects at the time of submission of the programme proposal to the Federal Ministry for Economic Cooperation and Development. The KfW assesses the number of people who, following completion of the construction projects, will have obtained first-time or improved access to drinking water and sanitation or will be able to benefit from the constructed facilities. Whether people are actually reached cannot be estimated in practice until the infrastructure has become operational, and this is not what the indicator shows. Since a person may obtain first-time or improved access to both drinking water and sanitation, double counting is possible between the two indicators and between two years. The funding granted by the KfW comprises grants and loans financed from the federal budget and funds raised in the financial markets. The recipients are generally developing and emerging countries, which means that this indicator is related to indicator 17.1 “Official development assistance as a proportion of gross national income”.
 In 2019 the data collection method was revised. Whereas the indicator previously counted people who were reached either directly, e.g. by domestic connections, or indirectly, e.g. the entire population of a country supported by a sectoral reform programme, it now covers only those people who are reached directly. In 2017, for instance, of the total of 28.6 million recorded beneficiaries, 19.1 million were reached directly. In 2018, 15.2 million out of a total of 60.3 million were direct beneficiaries. Another change lies in the fact that the figure is based only on the proportion of beneficiaries who have been reached by German-funded share of measures. Contributions made by other donors and the efforts of the host country itself are not counted. Similarly, no consideration is given to energy-efficiency measures, improvements to operational processes or renewals of pumping stations, since these do not lead directly to improved access for the target group.
@@ -2343,74 +2413,74 @@
 The commitments made by the KfW with regard to drinking water and sanitation rose by 26.0 % from 2012 to 2018 to more than 1 billion euros. In 2019 and 2020, these decreased to 677.1 million euros. By contrast with the commitments, disbursements have steadily declined since 2015 to the most recent figure of 432.1 million euros. One of the main reasons for this lies in the time lag between commitments and payments.</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr">
         <is>
           <t>6.a.1</t>
         </is>
       </c>
-      <c r="M22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N22" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
         <v>45674</v>
       </c>
     </row>
-    <row outlineLevel="0" r="23">
-      <c r="A23" s="4" t="inlineStr">
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>07.1.a,b</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>Endenergieproduktivität und Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Final energy productivity and primary energy consumption</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Der Indikator „Endenergieproduktivität“ stellt die Entwicklung der Wertschöpfung je eingesetzte Einheit Endenergie dar. Der Begriff „Endenergie“ bezieht sich dabei auf den Teil der Energie, der energetisch als thermische oder elektrische Energie zur Herstellung von Gütern oder zur Nutzung in den privaten Haushalten zur Verfügung steht.
 Der Indikator „Primärenergieverbrauch“ gibt an, wie viel Energie in einem Land einerseits in den Energiesektoren zur Umwandlung sowie andererseits in der Produktion, den privaten Haushalten und im Verkehr verbraucht wurde.</t>
         </is>
       </c>
-      <c r="G23" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>The indicator “Final energy productivity” shows the trend of value added per unit of final energy used. The concept of “final energy” refers to the part of the energy that is used energetically in terms of thermal or electric energy in the production sectors for the manufacturing of goods or by households.
 The indicator ”Primary energy consumption” specifies how much energy was consumed by a country in the energy sectors for conversion purposes on the one hand, and by production activities, transport and households on the other.</t>
         </is>
       </c>
-      <c r="H23" s="5" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>Die Senkung des Energieverbrauchs durch eine Steigerung der Energieeffizienz ist neben dem Ausbau erneuerbarer Energien die zweite tragende Säule der Energiewende. Ziel ist es, mit möglichst wenig Energie viel wirtschaftliche Leistung zu erreichen. Energieeinsparung schont Klima und Umwelt, trägt zur Verbesserung der Versorgungssicherheit und zur Wettbewerbsfähigkeit der Industrie bei.
 Dem Energiekonzept der Bundesregierung zufolge soll die Endenergieproduktivität in den Jahren 2008 bis 2050 jährlich um 2,1 % bzw. um insgesamt 139 % bis 2050 erhöht werden. Gleichzeitig soll sich der Primärenergieverbrauch bis 2020 um 20 %, bis 2030 um 30 % und bis 2050 um 50 % gegenüber dem Jahr 2008 verringern.</t>
         </is>
       </c>
-      <c r="I23" s="5" t="inlineStr">
+      <c r="I24" s="5" t="inlineStr">
         <is>
           <t>Along with the expansion of renewable energies, the reduction of energy consumption through increased energy efficiency represents the second supporting pillar of the energy transition. The goal is to achieve a high level of economic output while using as little energy as possible. Saving energy protects the climate and the environment, it helps to improve the security of supply and the industrial competitiveness.
 According to the Federal Government’s energy concept, final energy productivity is to be increased by 2.1 % annually or 139 % in total in the period 2008 to 2050. At the same time, primary energy consumption is to be reduced by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, compared with 2008.</t>
         </is>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>Endenergie- und Primärenergieverbrauch sind direkt miteinander verbunden. Der Endenergieverbrauch ergibt sich aus dem Primärenergieverbrauch abzüglich der Summe aus Umwandlungs-, Fackel- und Leitungsverlusten sowie der statistischen Differenz.
 Der Primärenergieverbrauch ist die Summe aus den im Inland gewonnenen Primärenergieträgern, Vorratsentnahmen und sämtlichen importierten Energieträgern abzüglich der Bevorratung, Energieexporte und Hochseebunkerungen. Wesentliche Grundlage für die Berechnung des Energieverbrauchs sind die Daten der Energiebilanzen der Arbeitsgemeinschaft Energiebilanzen (AGEB), welche um Daten aus weiteren Quellen ergänzt werden.
@@ -2419,7 +2489,7 @@
 Der Primärenergieverbrauch ist im Jahr 2020 auf 82,7 % gesunken und hat damit das Ziel einer Reduktion um 20 % bis zum Jahr 2020 nicht erreicht. Im Jahr 2021 stieg der Primärenergieverbrauch nach vorläufigen Ergebnissen erneut um 3,6 Prozentpunkte gegenüber 2020 an. Der gesamte Rückgang des Primärenergieverbrauchs im Jahr 2021 gegenüber 2008 beläuft sich somit nur noch auf 13,7 %. Bei einer Fortsetzung der Entwicklung würde die vorgesehene Reduktion des Primärenergieverbrauchs um 30 % bis 2030 nicht erreicht.</t>
         </is>
       </c>
-      <c r="K23" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>Final energy consumption and primary energy consumption are directly related to one another. Final energy consumption is primary energy consumption less total losses from transformation, flaring and distribution and the statistical difference.
 Primary energy consumption is the sum of domestically extracted primary energy sources, use of stocks and all imported energy sources minus storage, energy exports and marine bunkers. The main basis for the calculation of energy consumption comprises the data on energy balances from the Energy Balance Association (AGEB), which are supplemented with data from other sources.
@@ -2428,70 +2498,70 @@
 Primary energy consumption decreased to 82.7 % in 2020 and missed the reduction target of 20 % by 2020. According to preliminary results, the primary energy consumption increased in 2021 by 3.6 % percentage points in comparison to 2020. The total reduction of primary energy consumption fell by 13.7 % in the period from 2008 to 2021. If development remains the same as in the previous years, the target value of 30 % by 2030 will not be achieved.</t>
         </is>
       </c>
-      <c r="L23" s="4" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>7.3.1</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N23" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
         <v>45674</v>
       </c>
     </row>
-    <row outlineLevel="0" r="24">
-      <c r="A24" s="4" t="inlineStr">
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>07.2.a</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Der Indikator setzt die Erzeugung erneuerbarer Energien in Relation zum Brutto-Endenergieverbrauch. Der Brutto-Endenergieverbrauch umfasst den Energieverbrauch beim Letztverbraucher, die Übertragungsverluste sowie den Eigenverbrauch der Energiegewinnungsbereiche.</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>The indicator expresses the generation of renewable energies relative to gross final energy consumption. Gross final energy consumption covers energy consumption by end consumers and transmission losses as well as the self-consumption of the energy generation sector.</t>
         </is>
       </c>
-      <c r="H24" s="5" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t>Die Reserven fossiler Energieträger wie Öl und Gas sind begrenzt. Darüber hinaus ist ihre Nutzung mit der Emission von Treibhausgasen verbunden. Ein Umstieg auf erneuerbare Energien, die sich als natürliche Energiequellen ständig regenerieren, verringert die energetisch bedingten Emissionen und folglich das Ausmaß des Klimawandels. Zusätzlich werden die Abhängigkeit von Energieimporten und der Ressourcenverbrauch gemindert sowie technische Innovationen gefördert. Ziel der Bundesregierung ist es daher, den Anteil der erneuerbaren Energien am Brutto-Endenergieverbrauch bis zum Jahr 2020 auf 18 %, bis 2030 auf 30 %, bis 2040 auf 45 % und bis 2050 auf 60 % zu erhöhen.</t>
         </is>
       </c>
-      <c r="I24" s="5" t="inlineStr">
+      <c r="I25" s="5" t="inlineStr">
         <is>
           <t>The reserves of fossil fuels such as oil and gas are limited, and their use is associated with greenhouse gas emissions. Switching to renewable energies (natural energy sources that constantly regenerate) serves to reduce energy-related emissions and hence the extent of climate change. In addition, dependency on energy imports and the consumption of resources is reduced as well as technical innovations are promoted. For this reason, the goal of the Federal Government is to increase the share of renewable energy in gross final energy consumption to 18 % by 2020, to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050.</t>
         </is>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>Bei diesem Indikator werden der aus erneuerbaren Energiequellen erzeugte Strom (unter anderem aus Wasserkraft, Windkraft auf Land und auf See, Solarenergie) und die Wärme (unter anderem aus Geothermie, Biomasse oder biogenen Abfällen) sowie regenerative Kraftstoffe zu allen in Deutschland verbrauchten Energieträgern in Beziehung gesetzt. Dazu zählen neben den erneuerbaren Energien auch importierter Strom und fossile Energieträger wie Braun- und Steinkohle, Öl und Gas.
 Der Indikator wird von der Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat) berechnet. Im Unterschied zur Berichterstattung gemäß der Erneuerbare-Energien-Richtlinie (Richtlinie 2009/28/EG) der Europäischen Union (EU), die aufgrund des jährlich unterschiedlichen Dargebots bei Wasser- und Windkraft einen Durchschnittswert über mehrere Jahre vorsieht, werden für diesen Indikator die tatsächlich erzeugten Strommengen (Wind- und Wasserkraft) berücksichtigt (Energiekonzept der Bundesregierung).
@@ -2501,7 +2571,7 @@
 Der Indikator weist Querbezüge zu den Indikatoren 13.1.a „Treibhausgasemissionen“, 3.2.a „Emissionen von Luftschadstoffen“ und 7.2.b „Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch“ auf.</t>
         </is>
       </c>
-      <c r="K24" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>For this indicator, the electricity generated from renewable sources, which include hydro power, onshore and offshore wind power and solar power, the heat generated from sources such as geothermal energy, biomass and biogenic waste and the consumption of regenerative motor fuels are presented as a percentage of the energy generated from all sources that is consumed in Germany. Besides renewables, these sources also include imported electricity and fossil fuels such as coal and lignite, oil and gas.
 The indicator is calculated by AGEE-Stat, the Working Group on Renewable Energy Statistics. In contrast to the reporting under the Renewable Energy Directive of the European Union (Directive 2009/28/EC), uses an average value for hydro and wind power over several years to smoothen the effects of varying supply, this indicator takes account of the volumes of electricity actually generated from wind and hydro power (German Government Energy Concept).
@@ -2511,72 +2581,72 @@
 The indicator has cross-references to indicators 3.2.a “Emissions of air pollutants”, 7.2.b “Share of electricity from renewable sources in gross electricity consumption” and 13.1.a “Greenhouse gas emissions”.</t>
         </is>
       </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="L25" s="4" t="inlineStr">
         <is>
           <t>7.2.1</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
         <v>45506</v>
       </c>
     </row>
-    <row outlineLevel="0" r="25">
-      <c r="A25" s="4" t="inlineStr">
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>07.2.b</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch wieder.</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>The indicator reflects the share of electricity from renewable energy sources in gross electricity consumption.</t>
         </is>
       </c>
-      <c r="H25" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>Ein Umstieg auf erneuerbare Energien, die sich als natürliche Energiequellen ständig regenerieren, kann den Bedarf an fossilen Energieträgern verringern. Dadurch würde sowohl die Abhängigkeit von Importen konventioneller Energieträger reduziert als auch der Ausstoß energetisch bedingter Emissionen verringert und damit das Ausmaß des Klimawandels eingedämmt. Die Bundesregierung hatte sich daher als Ziel gesetzt, den Anteil des Stroms aus erneuerbaren Energiequellen gemessen am Bruttostromverbrauch bis zum Jahr 2020 auf mindestens 35 % und bis zum Jahr 2030 auf 80 %&lt;sup&gt;1&lt;/sup&gt; zu steigern. Vor dem Jahr 2050 soll der gesamte in Deutschland erzeugte und verbrauchte Strom treibhausgasneutral sein. Das Ziel für 2030 basiert auf der Novelle des Erneuerbare-Energien-Gesetzes (EEG) 2023, nach der das „Erneuerbaren-Ziel“ auf einen höheren Bruttostrombedarf von 680 bis 750 Terawattstunden (TWh) im Jahr 2030 auszurichten ist und wovon 80 % (vorher: 65 %) aus erneuerbaren Energien stammen sollen. Im Jahr 2021 wurden 234 TWh Strom aus erneuerbaren Energien erzeugt. Gemessen am neuen „Erneuerbaren-Ziel“ wurde 2021 somit etwa ein Drittel des Bruttostrombedarfs durch Stromproduktion aus erneuerbaren Energien gedeckt.
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung des Zielwertes von 65 % bis 2030 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="I25" s="5" t="inlineStr">
+      <c r="I26" s="5" t="inlineStr">
         <is>
           <t>Switching to renewable energies (natural energy sources that constantly regenerate) can reduce the demand for fossil fuels. As a result, the dependency on imports of conventional fuels would be reduced, as would energy-related emissions, and hence the extent of climate change would be mitigated. The Federal Government had therefore set itself the aim of increasing the share of electricity from renewable sources in gross electricity consumption to at least 35 % by 2020 and at least 80 %&lt;sup&gt;1&lt;/sup&gt; by 2030. Before 2050, all electricity generated and consumed in Germany is to be greenhouse gas neutral. The target for 2030 is based on the amendment of the Renewable Energy Sources Act (EEG) in 2023, whereby the “renewable target” was realigned to a higher gross electricity consumption from 680 to 750 terawatt hours (TWh) in 2030 and where 80 % (previously 65 %) has to be covered by electricity derived from renewable energy sources. In 2021, 234 TWh electricity was derived from renewable energy sources. According to the amended renewable energy target, a third of gross electricity consumption was covered by electricity from renewable energy in the same year.
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target value from 65 % by 2030 according to policy resolution in 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>Die Berechnung des Indikators erfolgt durch die Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat) auf Basis unterschiedlicher amtlicher und nicht amtlicher Quellen. Der Bruttostromverbrauch umfasst die gesamte erzeugte und importierte Strommenge abzüglich des exportierten Stroms. Er setzt sich somit aus der inländischen Stromerzeugung, dem Austauschsaldo über die Landesgrenzen, dem Eigenstromverbrauch der Kraftwerke als auch den Netzverlusten zusammen. Als erneuerbare Energiequellen gelten Windenergie, Wasserkraft, solare Strahlungsenergie, Geothermie und Biomasse einschließlich Biogas, Biomethan, Deponie- und Klärgas sowie der biologisch abbaubare Anteil von Abfällen aus Haushalten und Industrie.
 Das im Energiekonzept der Bundesregierung für 2020 angestrebte Ziel von mindestens 35 % Anteil erneuerbarer Energien am Stromverbrauch ist bereits im Jahr 2017 erreicht worden. Der Anteil ist auch in den Folgejahren bis 2020 weiterhin angestiegen und erreichte 2020 45,2 %. Diese Entwicklung wurde durch gesetzliche Maßnahmen, wie zum Beispiel das Erneuerbare-Energien-Gesetz (EEG), vorangetrieben. Das EEG verpflichtet die Netzbetreiber unter anderem, erneuerbaren Energien bei der Stromeinspeisung Vorrang zu gewähren. Im Jahr 2021 ging der Anteil der erneuerbaren Energien am Stromverbrauch auf 41,1 % zurück und bewegt sich somit kurzfristig nicht mehr auf den nächsten Zielwert für das Jahr 2030 zu. Diese kurzfristige Entwicklung ist durch eine Zunahme des Bruttostromverbrauchs und einen witterungsbedingten Rückgang der Stromerzeugung aus erneuerbaren Energien zu erklären. Allerdings würde auch eine Fortsetzung des bisherigen längerfristigen Trends der vergangenen Jahre nicht ausreichen, das Ziel für das Jahr 2030 zu erreichen. Auch das ehemalige Ziel der Regierung von 65 % Strom aus erneuerbaren Energien bis 2030 würde bei einer Fortschreibung des Trends nicht erreicht werden. Für die Zielerreichung von 80 % bis 2030 wäre ein deutlich höherer jährlicher Zuwachs als im bisherigen langfristigen Schnitt nötig. Ein zu erwartender höherer Strombedarf dürfte die Zielerreichung bis 2030 zusätzlich erschweren.
@@ -2585,7 +2655,7 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Dies ist ein rein mathematischer Effekt, der keine Korrelation zwischen Austauschsaldo und Bruttostromverbrauch darstellen soll.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="K25" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>The indicator is calculated by the Working Group on Renewable Energies Statistics (AGEE-Stat) based on different official and unofficial sources. Gross electricity consumption is the sum of all generated and imported electricity minus the amount of exported electricity. It therefore comprises the domestic electricity generation, the balance of exchanges across national borders, the self-consumption of power plants as well as transmission losses. The following are considered to be renewable energy sources: wind energy, hydropower, solar radiation energy, geothermal energy and biomass including biogas, biomethane, landfill gas and gas from purification plants as well as the bio-degradable proportion of waste from households and the industry.
 The target set by the German Government in its energy policy blueprint of at least 35 % share of renewable energies on gross electricity consumption by 2020 was already achieved in 2017. In subsequent years, the share maintained an increase up to 45.2 % by 2020. This development was supported by legal measures, for instance the EEG. The EEG requires, among other things, network operators to give priority feed-in to renewable energy. In 2021, the share of renewable energy on gross energy consumption decreased to 41.1 % and, thus, is not moving into the direction of the target value for 2030 in the short-run. This can be explained by an increment in gross electricity consumption and weather-related decline in electricity production from renewable energy sources. However, even if the past long-term trend of previous years continues, the target for 2030 would be missed. Moreover, the previous target of the Federal Government to derive 65 % of the electricity from renewable resources by 2030 would be missed, if the long-term trend continues. The target of 80 % by 2030 could only be achieved if the annual increment would be significantly higher than the previous long-term average. Further, an expected increase in electricity consumption exacerbates the achievement of the target value by 2030.
@@ -2594,72 +2664,72 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;This is a purely mathematical effect and does not refer to a correlation between the exchange balance and gross electricity consumption.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="L25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
         <v>45601</v>
       </c>
     </row>
-    <row outlineLevel="0" r="26">
-      <c r="A26" s="4" t="inlineStr">
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>Z08_B01_P01</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>08.1</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Raw material input productivity</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Der Indikator Gesamtrohstoffproduktivität setzt den Wert aller an die letzte Verwendung abgegebenen Güter (in Euro, preisbereinigt) in Relation zur Masse der für ihre Produktion im In- und Ausland eingesetzten Rohstoffe (in Tonnen). Die letzte Verwendung umfasst dabei sowohl inländischen Konsum und inländische Investitionen als auch den Export.
 Im Nenner des Indikators werden sowohl aus der Umwelt entnommene abiotische und biotische Rohstoffe berücksichtigt als auch Pflanzenmaterial, das durch die Land- und Forstwirtschaft produziert wurde. In der Grafik sind sowohl der Indikator selbst als auch Zähler und Nenner einzeln dargestellt.</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>The indicator of raw material input productivity compares the value of all goods provided for final use (in euros, price-adjusted) relative to the mass of the raw materials used domestically and abroad for their production (in tonnes). Final use covers domestic consumption and domestic investments as well as exports.
 The denominator of the indicator takes into account abiotic and biotic raw materials from the environment as well as plant materials produced by farming and forestry. In the graph, the development of the indicator itself and of both the numerator and the denominator are traced separately.</t>
         </is>
       </c>
-      <c r="H26" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>Die Entnahme von Rohstoffen ist immer mit einer Beeinträchtigung der Natur verbunden. Durch die steigende Nachfrage nach Rohstoffen werden weltweit zunehmend Rohstoffvorkommen in Gebieten erschlossen, die besonders sensibel auf menschliche Einflüsse reagieren. Daher hat sich die Bundesregierung bereits im Deutschen Ressourceneffizienzprogramm (ProgRess) II im Jahr 2016 das Ziel gesetzt, dass die Gesamtrohstoffproduktivität weiterhin steigen soll. In den Jahren 2000 bis 2010 nahm die Gesamtrohstoffproduktivität bereits um durchschnittlich rund 1,6 % jährlich zu. Ein solch positiver Trend soll bis zum Jahr 2030 fortgesetzt werden.</t>
         </is>
       </c>
-      <c r="I26" s="5" t="inlineStr">
+      <c r="I27" s="5" t="inlineStr">
         <is>
           <t>The extraction of raw materials always entails some impairment of the natural environment. Owing to the growing demand for raw materials, raw material deposits in all parts of the world are increasingly being extracted in areas that are particularly sensitive to human intervention. For this reason, back in 2016, in the German Resource Efficiency Programme (ProgRess) II, the Federal Government set itself the goal of ensuring a continuing rise in raw material input productivity. In the years 2000 to 2010, raw material input productivity was already increasing at an average rate of around 1.6 % annually. The aim is to maintain this kind of positive trend up to 2030.</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>Zur Berechnung dieses Indikators ist es unter anderem notwendig, die Masse aller Rohstoffe zu ermitteln, die für die Produktion der Importe benötigt wurden. Die Berechnung dieser als Importe in Rohstoffäquivalenten bezeichneten Größe basiert auf einem komplexen Modell, das Daten aus verschiedenen amtlichen und nicht amtlichen Quellen nutzt.
 Durch die monetäre sowie physische Einbeziehung der Importe berücksichtigt der Indikator Wertschöpfung und Rohstoffeinsatz über die gesamte in- und ausländische Produktionskette. Somit wird auch der wirtschaftlichen Verflechtung mit dem Ausland umfassend Rechnung getragen. Der im Indikator abgebildete Rohstoffeinsatz dient nicht allein der inländischen letzten Verwendung, sondern auch dem Export. Er darf daher nicht mit einem Rohstofffußabdruck Deutschlands verwechselt werden.
@@ -2669,7 +2739,7 @@
 Das Jahr 2009 ist durch die besondere wirtschaftliche Situation in der europäischen Finanzmarkt- und Wirtschaftskrise als Ausreißer zu betrachten. In den Jahren 2010 und 2011 nahmen Investitionen und Exporte sowie der damit verbundene Rohstoffeinsatz wieder merklich zu, sodass sich die Gesamtrohstoffproduktivität 2011 wieder auf dem Niveau von 2008 befand. Seitdem ist die Gesamtrohstoffproduktivität tendenziell gestiegen, wobei sie zwischenzeitlich auch stagnierte oder leichte Rückgänge verzeichnete. Am aktuellen Rand nahm der Wert des Indikators 2017 um 5 Prozentpunkte gegenüber dem Vorjahr zu, um 2018 einen leichten Rückgang von 1 Prozentpunkt zu registrieren. Insgesamt nahm die Gesamtrohstoffproduktivität im Zeitraum von 2010 bis 2018 um 9 Prozentpunkte zu. Damit lag ihr durchschnittliches jährliches Wachstum bei etwa 0,9 % und somit unter dem Zielpfad der Bundesregierung.</t>
         </is>
       </c>
-      <c r="K26" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>To calculate this indicator, it is necessary to determine the mass of all raw materials required to produce the imports. The calculation of this variable, referred to as imports in raw material equivalents, is based on a complex model that employs data from various official and unofficial sources.
 Due to the monetary and physical inclusion of imports, the indicator takes into account the value added and raw material use across the entire production chain both inside and outside of Germany. In this way, the economic interdependence with foreign countries is also taken into account comprehensively. The raw material use mapped in the indicator covers not only domestic final use but also exports. It should therefore not be confused with a resource footprint for Germany.
@@ -2679,69 +2749,69 @@
 The year 2009 should be considered an outlier due to the exceptional economic situation in the European financial market and economic crisis. In 2010 and 2011, investments and exports, as well as the associated input of raw materials, rose sharply again. This marked a resumption of the trend that had been seen in the period up to 2008. Although raw material input productivity slightly decreased or stagnated at some points in time, the general trend tended to improve. The indicator increased by 5 percentage points in 2017 compared to the preceding year, however, 2018 recorded a slight decline by 1 percentage point. In total, raw material input productivity increased from 2010 to 2018 by 9 percentage points with an average annual growth of 0.9 % and, thus, lies below the target of the Federal Government.</t>
         </is>
       </c>
-      <c r="L26" s="4" t="inlineStr">
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t>8.4.2</t>
         </is>
       </c>
-      <c r="M26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N26" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N27" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>08.2.a,b</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>Staatsdefizit und strukturelles Defizit</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Government deficit, structural deficit</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren 8.2.a und 8.2.b setzen den Finanzierungssaldo des Staates und den strukturellen Finanzierungssaldo in Relation zum Bruttoinlandsprodukt (BIP) in jeweiligen Preisen. Der Finanzierungssaldo des Staates berechnet sich aus Staatseinnahmen abzüglich Staatsausgaben in der Abgrenzung der Volkswirtschaftlichen Gesamtrechnungen (VGR). Beim jährlichen strukturellen Saldo handelt es sich um denjenigen Teil des Finanzierungssaldos, der nicht auf konjunkturelle Schwankungen und temporäre Effekte zurückzuführen ist. Ein negativer Finanzierungssaldo wird als Defizit bezeichnet; ein positiver als Überschuss.</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>The indicators 8.2.a and 8.2.b show the financial balance of general government (deficit or surplus) and the structural financial balance as a percentage of gross domestic product (GDP) at current prices. The public financial balance is calculated as government revenue minus government expenditure, measured on a national accounts basis. The annual structural balance refers to the part of the financial balance that is not attributable to cyclical fluctuations and temporary effects. A negative financial balance is known as a deficit; a positive as a surplus.</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>Solide Staatsfinanzen sind ein wichtiger Beitrag zu einer nachhaltigen Finanzpolitik. Eine Politik, die heutige Staatsausgaben übermäßig durch Neuverschuldung finanzieren würde und die Rückzahlung dieser Schulden allein zukünftigen Generationen überließe, wäre nicht tragfähig.
 Entsprechend den Konvergenzkriterien für die Europäische Union (sogenannte Maastricht-Kriterien) soll das jährliche Staatsdefizit weniger als 3 % des BIP betragen. Das strukturelle Defizit soll maximal 0,5 % des Bruttoinlandsprodukts (BIP) betragen. Dies entspricht den Vorgaben des europäischen Stabilitäts- und Wachstumspaktes. Der Grundsatz des strukturell ausgeglichenen Haushalts ist seit 2009 auch im Grundgesetz verankert (Artikel 109, sogenannte Schuldenbremse).</t>
         </is>
       </c>
-      <c r="I27" s="5" t="inlineStr">
+      <c r="I28" s="5" t="inlineStr">
         <is>
           <t>Sound public finances are an essential element of a sustainable fiscal policy. A policy that relies too heavily on borrowing to fund current public expenditure and then passes this debt on to future generations is simply not sustainable.
 According to the convergence criteria for the European Union, known as the Maastricht criteria, the annual government deficit should be less than 3 % of GDP. The structural deficit must not exceed 0.5 % of GDP. These are the stipulations of the European Stability and Growth Pact. The guiding principle of the structurally balanced budget has also been enshrined in Germany’s Basic Law since 2009 (Article 109, referred to as the debt brake).</t>
         </is>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>Die Berechnung von Bruttoinlandsprodukt (BIP) und Finanzierungssaldo des Staates ist durch das Europäische System Volkswirtschaftlicher Gesamtrechnungen (ESVG) vorgegeben und wird vom Statistischen Bundesamt durchgeführt. Der strukturelle Finanzierungssaldo wird hingegen vom Bundesministerium der Finanzen (BMF) ermittelt. Bei der Berechnung des Finanzierungssaldos werden die Finanzen der Gebietskörperschaften, also von Bund, Ländern und Gemeinden, sowie die Finanzen der Sozialversicherung berücksichtigt.
 Nach der Finanzmarkt- und Wirtschaftskrise 2008/2009 erzielte der Staat erstmals im Jahr 2012 mit 0,3 Milliarden Euro wieder einen Überschuss. Bis 2018 stieg der Finanzierungssaldo schließlich auf 65,6 Milliarden Euro bzw. 1,9 % des BIP an. Im Jahr 2019 betrug der Finanzierungsüberschuss noch 53,2 Milliarden Euro bzw. 1,5 % des BIP (vorläufige Daten). Aufgrund der Corona-Pandemie kam es 2020 und 2021 erneut zu einem Finanzierungsdefizit. Dabei betrug das Defizit 2020 147,6 Miliarden Euro. Seit 1991 entstand nur 1995 ein noch höheres Defizit (178,7 Milliarden Euro). Im europäischen Vergleich lag Deutschland 2021 mit einem Finanzierungsdefizit von 3,7 % des BIP noch unter dem EU-Durchschnitt von 4,6 %. Zwölf Länder wiesen eine geringere Defizitquote als Deutschland auf; 14 eine höhere. Dänemark (+ 3,6 %) und Luxemburg (+ 0,8 %) erwirtschafteten sogar einen Überschuss.
@@ -2749,7 +2819,7 @@
 Nachdem die Staatseinnahmen 2020 kurzzeitig sanken, stiegen diese 2021 und lagen schließlich 5,9 % höher als noch im Jahr 2019. Die Staatsausgaben stiegen im gleichen Zeitraum jedoch um 18,1 %. Die größte Position auf der Ausgabenseite des Staates umfassten 2021 die monetären Sozialleistungen mit 33,1 % der Ausgaben (610,9 Milliarden Euro). 17,9 % entfielen auf soziale Sachleistungen (330,0 Milliarden Euro). 70,4 % der monetären Sozialleistungen waren der Sozialversicherung zuzuordnen und dort überwiegend der Deutschen Rentenversicherung (340,0 Milliarden Euro); während die Ausgaben für soziale Sachleistungen vorwiegend in der Gesetzlichen Krankenversicherung anfielen (249,9 Milliarden Euro).</t>
         </is>
       </c>
-      <c r="K27" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>The method used to calculate GDP and the financial balance of general government is laid down in the European System of National and Regional Accounts (ESA) and is applied by the Federal Statistical Office. The structural financial balance, on the other hand, is determined by the Federal Ministry of Finance. The calculation of government net borrowing takes into account the finances of the public authorities, that is to say the Federal Government, the Länder and local government, and the finances of the social insurance system.
 In 2012, the Government achieved an overall surplus of 0.3 billion euros, which was the first positive balance since the financial and economic crisis of 2008/2009. Financial balance increased to 65.6 billion euros or 1.9 % of GDP until 2018. In 2019, the financial surplus amounted to 53.2 billion euros and 1.5 % of GDP (preliminary data). A financial deficit in 2020 and 2021 emerged in consequence of the COVID-19 pandemic. The deficit in 2020 amounted to 147.6 billion euros. Since 1991, only 1995 had a higher deficit (178.7 billion euros). A European comparison of financial deficits in 2021 reveals that Germany’s negative financial balance of 3.7 % of GDP was below European average of 4.6 %. Twelve countries had a lower deficit ratio than Germany; 14 countries were above. Denmark (+ 3.6 %) and Luxembourg (+ 0.8 %) even generated a financial surplus.
@@ -2757,70 +2827,70 @@
 In 2020, government revenues decreased for a short time, however, they increased again in 2021 and were 5.9 % above the value in 2019. Government spendings increased by 18.1 % in the same period. The largest item on the expenditure side of the national accounts are social benefits other than social transfers in kind. These accounted for 33.1 % of government spendings (610.9 billion euros). Social benefits in kind accounted for 17.9 % (330.0 billion euros). 70.4 % of social benefits other than social transfers in kind fall under the heading of social insurance, primarily in the form of pensions (340 billion euros); spendings on social benefits in kind predominantly incurred for statutory health insurance (249.9 billion euros).</t>
         </is>
       </c>
-      <c r="L27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N27" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
+      <c r="L28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
         <v>45674</v>
       </c>
     </row>
-    <row outlineLevel="0" r="28">
-      <c r="A28" s="4" t="inlineStr">
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>08.2.c</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>Schuldenstand</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Government debt</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den konsolidierten Bruttoschuldenstand des Staates, das heißt in der Abgrenzung des Maastricht-Vertrages, in Relation zum Bruttoinlandsprodukt (BIP) in jeweiligen Preisen an. Damit dient der Indikator als Maßzahl der Staatsverschuldung.</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the government debt defined in the Maastricht Treaty as a percentage of gross domestic product (GDP) at current prices. The indicator therefore serves as a measure of government debt.</t>
         </is>
       </c>
-      <c r="H28" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>Im Stabilitäts- und Wachstumspakt der Europäischen Union (EU) ist der Referenzwert für die maximale Schuldenstandsquote auf 60 % des Bruttoinlandsprodukts (BIP) festgelegt. Dies ist auch die für diesen Bericht relevante nationale Zielwertobergrenze des Indikators.</t>
         </is>
       </c>
-      <c r="I28" s="5" t="inlineStr">
+      <c r="I29" s="5" t="inlineStr">
         <is>
           <t>The European Union’s Stability and Growth Pact specifies a reference value of 60 % as the maximum debt-to-GDP ratio. This also is the upper limit of the national target value of the indicator which is relevant for this report.</t>
         </is>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>Die Schulden des Staates werden von der Bundesbank gemäß Vorgaben des Maastricht-Vertrages zweimal jährlich basierend auf Berechnungen des Statistischen Bundesamtes ermittelt. Das Bruttoinlandsprodukt (BIP) in jeweiligen Preisen wird im Rahmen der Volkswirtschaftlichen Gesamtrechnungen (VGR) im Statistischen Bundesamt berechnet.
 Die Schuldenstandsquote wird sowohl von der Situation der öffentlichen Haushalte als auch von der wirtschaftlichen Entwicklung beeinflusst. Bei gleichbleibenden öffentlichen Schulden sinkt die Schuldenstandsquote daher umso schneller, je stärker das BIP wächst. Andersrum kann die Schuldenstandsquote auch steigen, wenn sich die absoluten Schulden verringern, das BIP aber im gleichen Zeitraum einen stärkeren Rückgang aufweist. Unberücksichtigt ist hingegen die implizite Staatsverschuldung, das heißt die zukünftig zugesicherten, jedoch noch nicht geleisteten Zahlungsverpflichtungen des Staates.
@@ -2831,7 +2901,7 @@
 Den Schulden des Staates stehen auf der Aktivseite der Vermögensbilanz die Vermögensgüter (Sach- und Geldvermögen) gegenüber. Nach der Vermögensrechnung des Statistischen Bundesamtes hatten die Sachanlagen im Jahr 2020 einen Vermögenswert (nach Abschreibungen) von 1 509 Milliarden Euro. Die größte Vermögensposition des Staates waren die Bauten (Straßen, Schulen, öffentliche Gebäude) mit 1 284 Milliarden Euro, was über ein Drittel des gesamten Vermögens des Staates ausmachte (34,4 %). Das Geldvermögen betrug 1 555 Milliarden Euro (2020). Darunter bildeten die Wertpapiere den größten Vermögenswert (52,0 %).</t>
         </is>
       </c>
-      <c r="K28" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>The government debt is determined by the Bundesbank twice annually pursuant to the requirements of the Maastricht Treaty and based on calculations by the Federal Statistical Office. The GDP at current prices is determined by the Federal Statistical Office as part of the national accounts system.
 The debt-to-GDP ratio is influenced by the state of the public budgets and by economic development in general. According to the formula – assuming stable debt – the debt ratio falls faster the stronger GDP growth. On the other hand, the debt-to-GDP ratio can increase, if the GDP shows a stronger decline than the absolute debt in the same period of time. Furthermore, the indicator excludes implicit government debt, which refers to the government’s future payment obligations that are pledged but not yet due.
@@ -2842,67 +2912,67 @@
 In the national balance of assets, the government debt is balanced by its assets – both tangible and financial. According to the national wealth accounts compiled by the Federal Statistical Office, fixed assets were valued (after amortisation) at 1,509 billion euros in 2020. The biggest asset owned by the government is its buildings and structures (roads, schools, public buildings) at a value of 1,284 billion euros, accounting for more than a third of the total assets of the state (34.4 %). The financial assets were valued at 1,555 billion euros (2020). Among them, securities represent the most highly valued asset (52.0 %).</t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N28" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N29" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>Z08_B03_P01</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>08.3</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Anteil der Bruttoanlageinvestitionen am nominalen Bruttoinlandsprodukt, das heißt in jeweiligen Preisen. Dieser Anteil wird auch als Investitionsquote bezeichnet. Die Bruttoanlageinvestitionen umfassen den Zugang (also den Erwerb abzüglich der Veräußerungen ohne Berücksichtigung von Abschreibungen) von Anlagegütern durch gebietsansässige Wirtschaftseinheiten. Anlagegüter sind produzierte Vermögensgüter, die im Produktionsprozess wiederholt oder kontinuierlich länger als ein Jahr eingesetzt werden sollen. Hierzu zählen Bauten (Wohnbauten, Nichtwohnbauten), Ausrüstungen (Maschinen, Fahrzeuge, Geräte einschließlich militärische Waffensysteme) und sonstige Anlagen (Nutztiere und -pflanzungen sowie geistiges Eigentum, wie Investitionen in Forschung und Entwicklung, Software und Datenbanken, Urheberrechte und Suchbohrungen). Eingeschlossen sind auch wesentliche Verbesserungen an vorhandenem Anlagevermögen.</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the share of gross fixed capital formation relative to nominal gross domestic product (which means at current prices). This share is also referred to as the investment ratio. The level of gross fixed capital formation includes additions (that is, acquisitions less disposals without taking into account consumption of fixed capital) of fixed assets by resident economic units. Fixed assets are produced assets that are designed for repeated or continuous use in production processes for longer than a year. These include buildings and structures (dwellings, other buildings and structures), equipment (machinery, vehicles, tools including weapons systems) and other assets (intellectual property such as investments in research and development, computer software and databases, entertainment, literary or artistic originals, mineral exploration and evaluation as well as animal resources and tree, crop and plant resources). Also included are improvements on existing stocks of fixed assets that lead to a significant increase in the value of an asset and/or prolong its useful life.</t>
         </is>
       </c>
-      <c r="H29" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>Die zukünftige wirtschaftliche Leistungskraft und die Wettbewerbsfähigkeit einer Volkswirtschaft hängen entscheidend von den Investitionen der Unternehmen und des Staates ab. Daher ist das Ziel der Bundesregierung eine angemessene Entwicklung des Anteils der Bruttoanlageinvestitionen am Bruttoinlandsprodukt (BIP).</t>
         </is>
       </c>
-      <c r="I29" s="5" t="inlineStr">
+      <c r="I30" s="5" t="inlineStr">
         <is>
           <t>The future strength and competitiveness of an economy depend crucially on corporate and governmental investments. For this reason, the target of the Federal Government is to promote appropriate development of the ratio of gross fixed capital formation to gross domestic product (GDP).</t>
         </is>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>Die Bruttoanlageinvestitionen und das Bruttoinlandsprodukt (BIP) werden im Rahmen der Volkswirtschaftlichen Gesamtrechnungen (VGR) vom Statistischen Bundesamt ermittelt. Die Erstellung der VGR folgt international harmonisierten Regeln und Standards, wie dem Europäischen System Volkswirtschaftlicher Gesamtrechnungen (ESVG), und basiert auf allen verfügbaren, relevanten Datenquellen.
 Im Jahr 2021 lag der Anteil der Bruttoanlageinvestitionen am BIP für das gesamte Bundesgebiet bei 21,8 %, preisbereinigt bei 21,0 %. Der Indikator hat sich kurz- und mittelfristig betrachtet in die gewünschte Richtung entwickelt. Seit dem Jahr 2015 (20,0 %) ist ein leichter Anstieg der Quote zu verzeichnen. Mangels einer Definition, was als angemessene Entwicklung gilt, ergibt sich bei Betrachtung der letzten sechs Datenpunkte ein positives Bild. Gegenüber 1991 ist die Investitionsquote jedoch um 3,1 Prozentpunkte und gegenüber 2000 um 1,4 Prozentpunkte niedriger. Preisbereinigt liegt der Anteil der Bruttoanlageinvestitionen am BIP gegenüber 1991 um 1,1 Prozentpunkte zurück. Die Investitionsquote in Deutschland ist seit 1996 durchgehend unterhalb der Investitionsquote für den gesamten OECD-Raum (zuletzt 2020: 22,2 %). Betrug der Abstand zwischen 2001 und 2010 noch durchschnittlich –2,4 Prozentpunkte, so verringerte sich dieser im Zeitraum 2011 bis 2020 auf –1,0. In den Jahren 2015 bis 2021 stiegen die Bruttoanlageinvestitionen kräftig um 29,4 % und erreichten ein Niveau von 783,8 Milliarden Euro. Da der Anstieg des nominalen BIP im selben Zeitraum etwas geringer ausfiel (19,0 %), erhöhte sich die Investitionsquote nur leicht von 20,0 % auf 21,8 %. Das kräftigste nominale Wachstum ergab sich seit dem Jahr 2010 im Bereich der Wohnbauten (+92,6 %), während die Investitionen im Bereich der Nichtwohnbauten (sowohl im Hoch- als auch im Tiefbau) im selben Zeitraum weniger stark anstiegen (+52,7 %) und in den Jahren 2012 und 2015 sogar leicht rückläufig waren. Die Ausrüstungsinvestitionen erhöhten sich um 28,0 %. Im Vergleich zu 1991 verzeichneten demgegenüber die Investitionen in Forschung und Entwicklung sowie in Software und Datenbanken die stärksten Zuwächse. Ihr Volumen hat sich mehr als verdreifacht.
@@ -2910,7 +2980,7 @@
 Bei Betrachtung nach Bundesländern war für das zuletzt vorliegende Berichtsjahr 2019 die höchste Investitionsquote in Niedersachen mit 27,6 % und die niedrigsten Investitionsquoten in Bremen mit 15,7 % und Nordrhein-Westfalen mit 16,4 % zu verzeichnen.</t>
         </is>
       </c>
-      <c r="K29" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>The value of gross fixed capital formation and GDP is determined by the Federal Statistical Office as part of national accounts. National accounts are compiled in accordance with harmonised international rules and standards, that is, the European System of Accounts (ESVG), and are based on all available, relevant data sources.
 In 2021, the ratio of gross fixed capital formation to GDP was at 21.8 % for the entire federal territory, price adjusted at 21.0 %. The indicator has moved into the desired direction both in the short and medium term. Since 2015, the quota slightly increased (20.0 %). The lack of a definition for appropriate development causes a positive appearance when considering the last six data points. In comparison, the investment ratio was 3.1 percentage points below the initial value in 1991 as well as 1.4 percentage points lower than in 2000. After price adjustments, the share of gross fixed capital formation relative to GDP is 1.1 percentage points below the value in 1991. Since 1996, the average investment ratio in Germany is lower than the investment ratio for the entire OECD region (2020: 22.2 %). While the difference between 2001 and 2010 was – 2.4 percentage points on average, latter decreased in the period from 2011 to 2020 to – 1.0. In the years from 2015 to 2021, gross fixed capital formation soared by a total of 29.4 %, reaching 783.8 billion euros. Since the increase in nominal GDP was somewhat lower, at 19.0 %, the investment ratio increased slightly from 20.0 % to 21.8 %. With regard to investments in building projects, housing construction has recorded strong nominal growth (+ 92.6 %) since 2010, while the growth of investments in non-residential construction, including civil engineering, in the same period was less pronounced (52.7 %) and even dipped slightly in 2012 and 2015. Equipment investments increased by 28.0 %. The strongest growth since 1991 was recorded for investments in research and development as well as in computer software and databases. Its volume almost tripled.
@@ -2918,70 +2988,70 @@
 Most recent data for the German Länder in 2019 reveals, that the highest investment ratio was measured for Lower Saxony at 27.6 % and the lowest investment ratios were measured for Bremen and North Rhine-Westphalia at 15.7 % and 16.4 %, respectively.</t>
         </is>
       </c>
-      <c r="L29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
         <v>45674</v>
       </c>
     </row>
-    <row outlineLevel="0" r="30">
-      <c r="A30" s="4" t="inlineStr">
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Z08_B04_P01</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>08.4</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Gross domestic product per capita</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt das preisbereinigte Bruttoinlandsprodukt (BIP) je Einwohnerin bzw. Einwohner in Deutschland auf Basis des Jahres 2015. Das BIP misst den Wert der im Inland erwirtschafteten Leistung; als Einwohnerinnen und Einwohner gelten dabei alle Personen, die in Deutschland ihren ständigen Wohnsitz haben.</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>The indicator shows price-adjusted gross domestic product (GDP) per capita (inhabitants) in Germany at 2015 prices. GDP measures the value of all goods and services produced in the domestic economy; inhabitants means all persons whose permanent residence is in Germany.</t>
         </is>
       </c>
-      <c r="H30" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>Zwischen der Entwicklung des Bruttoinlandsprodukts (BIP) und den anderen Indikatoren der Nachhaltigkeitsstrategie gibt es vielfältige Beziehungen. So spielen soziale Faktoren wie die Bevölkerungsstruktur, das Arbeitskräfteangebot, das Bildungssystem sowie der soziale Zusammenhalt in der Gesellschaft eine wichtige Rolle für die internationale Wettbewerbsfähigkeit der Wirtschaft. Das BIP gilt als wichtiger Indikator für Konjunktur und Wachstum einer Volkswirtschaft. Folglich ist das Ziel ein stetiges und angemessenes Wachstum.</t>
         </is>
       </c>
-      <c r="I30" s="5" t="inlineStr">
+      <c r="I31" s="5" t="inlineStr">
         <is>
           <t>Changes in GDP are related in a variety of ways to other indicators included within the strategy for sustainable development. Social factors such as the population structure, the labour supply, the educational system and social cohesion play an important role in society with regard to international economic competitiveness. GDP is regarded as an important indicator of the strength and growth of a national economy, and so the goal is to achieve continuous and appropriate levels of GDP growth.</t>
         </is>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>Im Jahr 2021 lag das preisbereinigte Bruttoinlandsprodukt (BIP) je Einwohnerin und Einwohner bei etwa 38 509 Euro und damit 2,6 % höher als im Vorjahr. Zwischen 1991 und 2021 hat sich das BIP je Einwohnerin und Einwohner preisbereinigt insgesamt um 38,8 % erhöht. Aufgrund der Corona-Pandemie sank jedoch das preisbereinigte BIP je Einwohnerin bzw. Einwohner im Jahr 2020 um 3,8 %. Nur im Jahr 2009 brach das preisbereinigte BIP je Einwohnerin bzw. je Einwohner infolge der weltweiten Finanzmarkt- und Wirtschaftskrise mit einem Rückgang von 5,4 % noch stärker ein. Mangels einer Definition von angemessenem und stetigem Wirtschaftswachstum kann lediglich die durchschnittliche jährliche Veränderung der letzten fünf Jahre betrachtet werden. Diese lag bei 0,7 %. Der Indikator hat sich damit bei längerfristiger Betrachtung in eine positive Richtung entwickelt.
 Bei Betrachtung der Ergebnisse nach Bundesländern wies Mecklenburg-Vorpommern mit rund 26 500 Euro das niedrigste und Hamburg mit etwa 59 700 Euro das höchste reale BIP je Einwohnerin und Einwohner auf.
@@ -2992,7 +3062,7 @@
 Basis für die Berechnung des BIP je Einwohnerin und Einwohner sind die auf den Zensus 2011 zurückgerechneten und fortgeschriebenen durchschnittlichen Bevölkerungszahlen des Statistischen Bundesamtes.</t>
         </is>
       </c>
-      <c r="K30" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>In 2021, the price adjusted GDP was 38,509 euros per capita and, thus, 2.6 % higher than in the previous year. Between 1991 and 2021, price-adjusted GDP per head of population increased by a total of 38.8 %. In consequence of the COVID-19 pandemic, the price adjusted GDP per head of population decreased in 2020 by 3.8 %. Only in 2009, price adjusted per capita GDP fell by 5.4 % as a result of the global financial and economic crisis and, thus, decreased to a larger extent. The absent definition for appropriate and continuous economic growth causes the consideration of the average annual change for the preceding five years. These was 0.7 %. Therefore, the indicator developed in a positive direction long-term.
 Considering the results of the German Länder, Mecklenburg Western Pomerania had the lowest (26,500 euros) and Hamburg had the highest (59,700 euros) real GDP per capita.
@@ -3003,70 +3073,70 @@
 The basis for the calculation of per capita GDP comprise the average population figures interpolated and extrapolated by the Federal Statistical Office from the 2011 census data.</t>
         </is>
       </c>
-      <c r="L30" s="4" t="inlineStr">
+      <c r="L31" s="4" t="inlineStr">
         <is>
           <t>8.1.1</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
         <v>45539</v>
       </c>
     </row>
-    <row outlineLevel="0" r="31">
-      <c r="A31" s="4" t="inlineStr">
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Z08_B05_P01</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>08.5.a,b</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>Erwerbstätigenquote</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>Employment rate</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren geben die Anteile der Erwerbstätigen im Alter von 20 bis 64 Jahren (8.5.a) und im Alter von 60 bis 64 Jahren (8.5.b) jeweils gemessen an der Gesamtbevölkerung derselben Altersklasse an.</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>The indicators specify the proportion of persons in employment aged between 20 and 64 years (8.5.a) and aged between 60 and 64 years (8.5.b), measured in each case as a share of the total population of the same age group.</t>
         </is>
       </c>
-      <c r="H31" s="5" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>Aufgrund des demografischen Wandels kann es langfristig zu einem Mangel an Fachkräften in Deutschland kommen. Gleichzeitig droht eine zunehmende Unterfinanzierung der sozialen Sicherungssysteme. Das vorhandene Arbeitskräftepotenzial ist daher künftig besser auszuschöpfen. Die Erwerbstätigenquote, das heißt der Anteil der Erwerbstätigen an der Bevölkerung im erwerbsfähigen Alter (20- bis 64-Jährige), soll bis zum Jahr 2030 auf 78 % erhöht werden. Außerdem ist es das Ziel der Bundesregierung, dass bis 2030 die Erwerbstätigenquote der Älteren (60- bis 64-Jährige) 60 % beträgt.</t>
         </is>
       </c>
-      <c r="I31" s="5" t="inlineStr">
+      <c r="I32" s="5" t="inlineStr">
         <is>
           <t>Due to demographic changes, there could be a shortage of professionals in Germany in the long run. At the same time, the social security system is threatened by an increasing shortage of funds. The available labour force potential must therefore be more effectively utilised in the future. The employment rate, that is, the share of persons in employment in the working-age population (20 to 64 years of age) should be increased to 78 % by 2030. In addition, the goal of the Federal Government is to achieve an employment rate of 60 % among older people (60 to 64 years of age) by 2030.</t>
         </is>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>Datenquelle der Indikatoren ist die EU-Arbeitskräfteerhebung, die in Deutschland in den Mikrozensus integriert ist. Die Arbeitskräfteerhebung findet unterjährig statt und wird von der europäischen Statistikbehörde Eurostat zunächst zu Quartalsergebnissen zusammengefasst und anschließend zu Jahresdurchschnittswerten verdichtet. Sie deckt die in privaten Haushalten lebende Bevölkerung ab, schließt jedoch Personen in Gemeinschaftsunterkünften aus. Die im Rahmen der Arbeitskräfteerhebung betrachtete erwerbstätige Bevölkerung besteht aus Personen im Alter ab 15 Jahren, die während der Referenzwoche mindestens eine Stunde eine Tätigkeit gegen Entgelt ausgeübt haben oder als unbezahlt mithelfende Familienangehörige tätig waren. Eingeschlossen sind auch Personen, die nur vorübergehend nicht gearbeitet haben, weil sie zum Beispiel wegen Urlaub oder Krankheit abwesend waren. Zu beachten ist, dass es im Zeitablauf bei der Arbeitskräfteerhebung (zum Beispiel Anpassung an Ergebnisse des Zensus 2011) und mit der Neuregelung des Mikrozensus 2020 Änderungen gab, die Einfluss auf die zeitliche Vergleichbarkeit der dargestellten Zeitreihen haben.
 Die Erwerbstätigenquote insgesamt (20- bis 64-Jährige) stieg von 68,7 % im Jahr 2000 um 10,9 Prozentpunkte auf 79,6 % im Jahr 2021. Der Zielwert von 78,0 % für 2030 wird bereits seit 2015 erreicht. Die Erwerbstätigenquote bei den Älteren (60- bis 64-Jährige) nahm deutlich von 19,6 % im Jahr 2000 um 41,5 Prozentpunkte auf 61,1 % im Jahr 2021 zu. Die Quote der Männer in dieser Altersgruppe hatte sich dabei um 38,5 Prozentpunkte auf 65,7 % mehr als verdoppelt. Die Quote der Frauen verfünffachte sich sogar fast von 12,1 auf 56,7 %. Der angestrebte Anteil von 60 % bei Älteren wird seit 2018 jeweils erreicht und damit ebenfalls vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist.
@@ -3074,7 +3144,7 @@
 Bei einer Differenzierung der Erwerbstätigenquote nach Altersgruppen zeigten sich unterschiedliche Tendenzen. Bei der Gruppe der 20- bis 24-Jährigen erhöhte sich die Erwerbstätigenquote von 2000 bis 2021 nur marginal um 2,4 Prozentpunkte auf 67,2 %. In der Altersgruppe der 25- bis 59-Jährigen stieg diese hingegen um 7,7 Prozentpunkte auf 83,9 %. Das geringere Erwerbsniveau in der Altersgruppe der 20- bis 24-Jährigen ist bedingt durch Ausbildungszeiten an Schulen und Hochschulen, wodurch sich der Eintritt in das Berufsleben verschiebt.</t>
         </is>
       </c>
-      <c r="K31" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>The Statistical Office of the European Union Eurostat conducts the labour force survey on an infra-annual basis. Eurostat summarises the data to form quarterly results and then consolidates them to create annual average values. It covers the population living in private households, but does not include people living in collective accommodation. The economically active population covered by the labour force survey consists of persons aged 15 and over who performed an activity for remuneration for at least one hour during the reference week or who worked as unpaid family workers. Also included are persons who temporarily did not work because they were absent, for example due to holidays or illness. It should be noted that there have been changes over time in the Labor Force Survey that affect the comparability of the time series presented over time (e.g. adjustment to results of the 2011 census, revision of the 2020 Microcensus).
 The total employment rate (20 to 64-year-olds) rose by 10.9 percentage points from 68.7 % in 2000 to 79.6 % in 2021. Thus, the target value of 78.0 % for 2030 has already been achieved from 2015 on. The employment rate among older people (60 to 64-year-olds) rose by 41.5 percentage points from 19.6 % in 2000 to 61.1 % in 2021. The employment rate for men in that age group had more than doubled, rising by 38.5 percentage points to 65.7 %. The rate for women even increased almost fivefold from 12.1 % to 56.7 %. Hence, the targeted 60 % employment rate for older people was likewise reached since 2018 ahead of the deadline set in the German strategy for sustainable development.
@@ -3082,144 +3152,144 @@
 A breakdown into age groups shows diverse employment rate trends. Among 20 to 24-year-olds, the rate rose from 2000 to 2021 by 2.4 percentage points to 67.2 %. Among 25- to 59-year-olds, by contrast, the employment rate rose to 83.9 %, an increase of 7.7 percentage points. The lower employment rates of 20 to 24 year-olds is also related to the average duration of education at school and university, which postpones entry into working life.</t>
         </is>
       </c>
-      <c r="L31" s="4" t="inlineStr">
+      <c r="L32" s="4" t="inlineStr">
         <is>
           <t>8.5.2</t>
         </is>
       </c>
-      <c r="M31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
         <v>45672</v>
       </c>
     </row>
-    <row outlineLevel="0" r="32">
-      <c r="A32" s="4" t="inlineStr">
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>Z08_B06_P01</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>08.6</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>Members of the Textiles Partnership</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Anzahl der Mitglieder des Bündnisses für nachhaltige Textilien (Textilbündnis). Dem Textilbündnis gehören ordentliche, beratende und assoziierte Mitglieder an. Ordentliche Mitglieder werden weiter in die sogenannten Akteursgruppen Wirtschaft (Unternehmen sowie Initiativen und Verbände), Gewerkschaften, Nichtregierungsorganisationen, Standardorganisationen sowie Bundesregierung unterschieden. Eine Standardorganisation ist eine Organisation, die nicht kommerzielle Standards für nachhaltige Textilien anbietet oder entwickelt. Die Mitgliedschaft im Textilbündnis ist freiwillig und erfolgt durch Eintritt.</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of members of the Partnership for Sustainable Textiles (Textiles Partnership). The Textiles Partnership comprises ordinary, advisory and associate members. The ordinary membership is subdivided into what are known as stakeholder groups: the businesses (initiatives and associations), unions, non-governmental organisations, standards organisations and the German Federal Government. A standards organisation is a body that offers or develops non-commercial standards for sustainable textiles. Membership of the Textiles Partnership is voluntary and is obtained by application.</t>
         </is>
       </c>
-      <c r="H32" s="5" t="inlineStr">
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>Die Multi-Stakeholder-Initiative „Bündnis für nachhaltige Textilien“ wurde im Herbst 2014 gegründet. Das Textilbündnis strebt an, die sozialen, ökologischen und ökonomischen Rahmenbedingungen in den Produktionsländern zu verbessern. Daher soll die Anzahl der Mitglieder des Textilbündnisses bis 2030 signifikant gesteigert werden.</t>
         </is>
       </c>
-      <c r="I32" s="5" t="inlineStr">
+      <c r="I33" s="5" t="inlineStr">
         <is>
           <t>The Partnership for Sustainable Textiles is a multi-stakeholder initiative that was founded in 2014. The Textiles Partnership aims to improve the underlying social, ecological and economic conditions in the producer countries. Membership numbers should therefore be increased significantly by 2030.</t>
         </is>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>Das Textilbündnis wurde im Oktober 2014 als Reaktion auf tödliche Unfälle in Textilfabriken gegründet. Der Indikator bildet die Anzahl der Mitglieder des Textilbündnisses ab. Als Multi-Stakeholder-Initiative gehören dem Textilbündnis nicht nur Unternehmen an. Aufbauend auf gemeinsam definierten Bündniszielen verpflichtete sich jedes Unternehmen mit seinem Beitritt zum Textilbündnis dazu, Maßnahmen für eine kontinuierliche Verbesserung der Bedingungen und zur Verfolgung der sozialen und ökologischen Bündnisziele in seiner gesamten Lieferkette umzusetzen.
 In seinem Gründungsjahr 2014 sind dem Textilbündnis 59 Mitglieder beigetreten, darunter 26 Unternehmen. Bis Ende 2016 hat sich die Anzahl der Mitglieder mit einem Höchststand von 188 Mitgliedern mehr als verdreifacht, darunter waren 133 Unternehmen. Seit Einführung der verpflichtenden Erstellung von Maßnahmenplänen (Roadmaps) im Jahr 2017 gab es sowohl Ausschlüsse als auch mehrere Austritte aus dem Textilbündnis. So wurden einerseits Mitglieder ausgeschlossen, die ihren Berichtspflichten nicht nachgekommen sind. Andererseits sind Mitglieder mit Verweis auf den Aufwand oder unzureichende Relevanz ausgetreten. Ende Dezember 2021 belief sich die Anzahl der Mitglieder auf insgesamt 123. Von den ursprünglich 59 Gründungsmitgliedern (Zeitraum Oktober bis Dezember 2014) waren bis Ende Dezember 2021 noch 26 Mitglied im Textilbündnis, wobei die Bundesregierung gegenüber 2014 nur noch als ein statt drei Mitglieder gezählt wird. Im Durchschnitt der letzten fünf Jahre hat sich die Anzahl der Mitglieder in eine negative Richtung entwickelt.
 Ende Dezember 2021 waren 69 der 123 Mitglieder (56 %) als Unternehmen klassifiziert, wobei acht ihren Hauptsitz nicht in Deutschland hatten. Im Jahr zuvor waren unter den 136 Mitgliedern noch 85 Unternehmen. Bei diesem Rückgang ist zu beachten, dass seit 2020 die Unternehmen des Textilbündnisses verpflichtet sind, ihrer Verantwortung zur Umsetzung der Sorgfaltspflichten entlang der Lieferkette nachzukommen. Dies beinhaltet die Analyse und Priorisierung von sozialen und ökologischen Risiken in der Lieferkette sowie die Ableitung von Zielen und Maßnahmen zur Vermeidung oder Minderung dieser Risiken. Alle zwei Jahre müssen die Mitgliedsunternehmen über den Stand der Umsetzung der Sorgfaltspflichten berichten. Die Mitgliedschaft im Textilbündnis bedeutet nicht, dass die Akteure und vor allem die Unternehmen schwerpunktmäßig im Bereich Textilien und/oder Bekleidung wirtschaftlich aktiv waren. Nur gut zwei Drittel der 61 Mitgliedsunternehmen mit Sitz in Deutschland waren gemäß dem statistischen Unternehmensregister (URS) des Statistischen Bundesamtes im Jahr 2020 hauptsächlich im Bereich Herstellung, Einzel- oder Großhandel von Textilien bzw. Bekleidung tätig. Diese erwirtschafteten 2020 einen Umsatz von etwa 16,1 Milliarden Euro. Im Vergleich dazu betrug 2020 laut den Handelsstatistiken des Statistischen Bundesamtes der Gesamtumsatz des Einzelhandels 635,2 Milliarden Euro und der Gesamtumsatz des Großhandels 1 363,0 Milliarden Euro. Davon wurden durch Unternehmen, die schwerpunktmäßig dem Einzel- oder Großhandel zugeordnet waren, etwa 4,1 % mit den Waren Bekleidung, Textilien sowie Vorhänge und Gardinen (ohne Schuhe, Lederwaren und Teppiche) erwirtschaftet.</t>
         </is>
       </c>
-      <c r="K32" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>The Partnership for Sustainable Textiles was established in October 2014 in response to fatal accidents in textile factories. The indicator shows the number of members of the Textiles Partnership. Being a multi-stakeholder initiative, the Textiles Partnership has more than just business enterprises in its ranks. On the basis of jointly defined Partnership objectives, each company, by joining the Textiles Partnership, pledges to implement measures for continuous improvement of conditions and for compliance with social and environmental objectives of the Partnership throughout the company’s supply chain.
 In its founding year of 2014, 59 members joined the Textiles Partnership, including 26 companies. The end of 2016 saw membership reach its peak, having more than trebled to 188, including 133 companies. Since the introduction of the compulsory plans of action (Roadmaps) in 2017, however, there have been expulsions and several withdrawals from the Textiles Partnership. On the one hand, some members were expelled for non-fulfilment of their reporting obligations. On the other hand, some members withdrew, citing compliance costs or insufficient relevance. Thus, total membership stood at 123 at the end of December 2021. Of the original 59 founding members that joined in the period from October to December 2014, there were still 26 in the Partnership at the end of December 2021, whereby the Federal Government counts as one member instead of three in comparison to 2014. Over that five-year period there was an overall downward trend in the number of members.
 At the end of December 2021, 69 out of 123 members (56 %) were classified as companies; eight of them did not have their registered office in Germany. The Textiles Partnership consisted of 85 companies out of the 136 members in the preceding year. This decline reflects, that companies who are member in Textiles Partnership were obliged in 2020 for implementation of due diligence along the supply chain. This includes the analysis and prioritisation of social and ecological risks in the supply chain as well as the derivation of targets and measures for mitigation or reduction of these risks. Member companies have to report about the status of implementation of due diligence every other year. If a company is a member of the Textiles Partnership, this does not necessarily mean that its main economic activity is in the field of textiles and/or clothing manufacture. According to the statistical business register of the Federal Statistical Office in 2020, only about two thirds of 61 member companies operated primarily in the manufacture, wholesaling or retailing of textiles and/or clothing. Their aggregate turnover in 2020 amounted to 16.1 billion euros. According to the trade statistics of the Federal Statistical Office, total retail turnover for the whole of 2020 amounted to 635.2 billion euros, while total wholesale turnover came to 1,363.0 billion euros. About 4.1 % of these amounts were earned by companies primarily assigned to the wholesale and retail sector through sales of clothing, textiles and curtains, excluding footwear, leather goods and carpets.</t>
         </is>
       </c>
-      <c r="L32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N32" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N33" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>Z09_B01_P01</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>09.1.a</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Private and public expenditure on research and development</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Ausgaben für Forschung und Entwicklung (FuE) von Wirtschaft, Staat und Hochschulen in Relation zum Bruttoinlandsprodukt (BIP).</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the expenditure on research and development by businesses, general government and institutions of higher education in relation to gross domestic product (GDP).</t>
         </is>
       </c>
-      <c r="H33" s="5" t="inlineStr">
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t>Die Ausgaben für Forschung und Entwicklung (FuE) sind eine wichtige, wenn auch nicht die alleinige Bestimmungsgröße für das Innovationstempo einer Volkswirtschaft. Je höher die Ausgaben sind, desto größer ist die Wahrscheinlichkeit für eine dynamischere Entwicklung der Produktivität, ein stärkeres Wirtschaftswachstum und eine verbesserte Wettbewerbsfähigkeit. Die Bundesregierung wird alle Möglichkeiten ausschöpfen, um das politische Ziel zu erreichen, die privaten und öffentlichen Ausgaben für Forschung und Entwicklung – eine wichtige Bestimmungsgröße für das Innovationstempo einer Volkswirtschaft – bis 2025 auf mindestens 3,5 % des Bruttoinlandsprodukts (BIP) jährlich zu erhöhen.</t>
         </is>
       </c>
-      <c r="I33" s="5" t="inlineStr">
+      <c r="I34" s="5" t="inlineStr">
         <is>
           <t>Expenditure on research and development (R&amp;D) is an important, although not the only determinant of an economy’s rate of innovation. The higher the expenditure, the higher the probability of more dynamic gains in productivity, the stronger economic growth and the more competitiveness is improved. The Federal Government has therefore set itself the goal of ensuring that private and public expenditure on research and development – a major determinant for the innovation rate of an economy – increases to at least an annual 3.5 % of gross domestic product by 2025.</t>
         </is>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>Forschung und Entwicklung (FuE) sind wissenschaftliche Tätigkeiten und werden definiert als schöpferische und systematische Arbeiten zur Erweiterung des Wissensstandes – einschließlich des Wissens über die Menschheit, die Kultur und die Gesellschaft – und zur Entwicklung neuer Anwendungen auf Basis des vorhandenen Wissens. Um FuE gegenüber verwandten Tätigkeiten abzugrenzen, wird als Hauptkriterium geprüft, ob ein nennenswertes Element von Neuheit oder Weiterentwicklung vorhanden ist.
 Der Anteil der FuE-Ausgaben am Bruttoinlandsprodukt (BIP) wird jährlich vom Statistischen Bundesamt ermittelt. Die gesamten Ausgaben für FuE setzen sich aus den Ausgaben der Sektoren Staat (einschließlich privater Forschungseinrichtungen ohne Erwerbszweck), Hochschulen und Wirtschaft zusammen. Die Erhebungen und Berechnungen folgen den methodischen Empfehlungen des Frascati-Handbuchs der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD) zu Statistiken über FuE, wodurch die internationale Vergleichbarkeit sichergestellt ist.
@@ -3229,7 +3299,7 @@
 Im internationalen Vergleich der OECD-Mitgliedstaaten lag Deutschland 2020 mit 3,1 % knapp vor Dänemark mit 3,0 % und Finnland mit 2,9 % sowie über dem Durchschnitt der EU-27-Region von 2,2 % und dem OECD-Durchschnitt von 2,7 % des BIP. Acht Staaten, wie zum Beispiel Schweden (3,5 %) oder Japan (3,3 %), lagen hingegen vor Deutschland. Im nationalen Vergleich lag Baden-Württemberg mit zuletzt 5,7 % (Jahr 2020) weit vor den übrigen Bundesländern; gefolgt von Bremen mit 3,7 % und Bayern mit 3,4 % des BIP.</t>
         </is>
       </c>
-      <c r="K33" s="5" t="inlineStr">
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>Research and development (R&amp;D) are scientific activities and are defined as creative and systematic work to expand the level of knowledge – including knowledge of humankind, culture and society – and the development of new applications based on the existing knowledge. The main criterion applied to differentiate between R&amp;D and related activities is whether the activity involves an appreciable element of newness or further development.
 The share of research and development expenditure in the gross domestic product (GDP) is determined annually by the Federal Statistical Office. Overall expenditure on research and development comprises expenditure by general government (including non-profit private research institutions), institutions of higher education, and businesses. The surveys and calculations adhere to the recommended methodologies of the Frascati Manual of the OECD on statistics about R&amp;D, which also enable international comparisons.
@@ -3239,70 +3309,70 @@
 In an international comparison among OECD member states, Germany reached 3.1 % in 2020 and was ahead of Denmark (3.0 %) and Finland (2.9 %), further, Germany exceeds the value of the EU 27 region with its 2.2 % and the OECD average of 2.7 % of GDP. Eight States, for instance Sweden (3.5 %) or Japan (3.3 %), were ahead of Germany. On a national level, Baden-Württemberg at 5.7 % (year 2020) was far ahead of other German Länder, followed by Bremen at 3.7 % and Bavaria at 3.4 % of GDP.</t>
         </is>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>9.5.1</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
         <v>45537</v>
       </c>
     </row>
-    <row outlineLevel="0" r="34">
-      <c r="A34" s="4" t="inlineStr">
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>Z09_B01_P01</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>09.1.b</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>Breitbandausbau</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>Rollout of broadband</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Entwicklung der technisch verlegten Breitbandverfügbarkeit bei den Haushalten in Deutschland für Gigabit-Anschlüsse (≥ 1 000 Mbit/s) über reine Glasfasernetze (FTTB/H), Kabelfernsehen (CATV) und alle leitungsgebundenen Technologien.</t>
         </is>
       </c>
-      <c r="G34" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the development of broadband availability for households in Germany in terms of the technology installed, with separate figures for gigabit connections (≥ 1,000 Mbps) using fully fibre-optic networks (FTTB/H), cable television (CATV) and other types of wired technology.</t>
         </is>
       </c>
-      <c r="H34" s="5" t="inlineStr">
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t>Der flächendeckende Ausbau mit Gigabit-Netzen bis 2025 ist ein wesentliches Ziel der Bundesregierung. Neben der Steigerung der internationalen Wettbewerbsfähigkeit sollen über den Ausbau der Breitbandverfügbarkeit mit Gigabit-Geschwindigkeit gleichwertige Lebensbedingungen in Deutschland ermöglicht werden. Für die Erreichung dieser Ziele sollen neben dem vorwiegend privatwirtschaftlich erfolgenden Ausbau auch staatliche Fördermaßnahmen den Ausbau in unwirtschaftlichen Gebieten unterstützen.</t>
         </is>
       </c>
-      <c r="I34" s="5" t="inlineStr">
+      <c r="I35" s="5" t="inlineStr">
         <is>
           <t>The nationwide roll-out of gigabit networks by 2025 is one of the German Government’s key objectives. In addition to enhancing international competitiveness, the expansion of broadband availability with gigabit speeds is intended to facilitate the convergence of living standards across Germany. To achieve these aims, the predominantly private sector roll-out is to be supported by public funding schemes in unprofitable areas.</t>
         </is>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>Der Indikator erfasst die Breitbandverfügbarkeit bei Haushalten in Deutschland für eine Geschwindigkeit von mindestens 1 000 Mbit/s im Downstream über die leitungsgebundenen Technologien Glasfaser (FTTB/H) und Kabelfernsehen (CATV). Die Zahlen werden im Auftrag des Bundesministeriums für Digitales und Verkehr (BMDV) erhoben und im Breitbandatlas des Bundes veröffentlicht.
 Mit Stand Mitte 2021 sind Glasfaseranschlüsse (FTTB/H) mit einer Leistung von über 1 000 Mbit/s in 15,4 % der Haushalte in Deutschland verfügbar. Zwischen den Jahren 2015 und 2021 ist die Breitbandverfügbarkeit für 1 000 Mbit/s für FTTB/H um 8,7 Prozentpunkte angestiegen. Damit hat sich die Verfügbarkeit mehr als verdoppelt (+130 %). Im Zeitraum Ende 2018 bis Mitte 2021 hat sich der Anteil der Haushalte mit den entsprechenden Anschlüssen über CATV von 23,7 auf 56,5 % erhöht. Die Verfügbarkeit hat sich somit ebenfalls mehr als verdoppelt (+ 138 %). Damit stehen Mitte 2021 gigabitfähige Anschlüsse für insgesamt 62,1 % der Haushalte zur Verfügung.
@@ -3312,7 +3382,7 @@
 Methodisch ist zu beachten, dass die Daten zur Breitbandverfügbarkeit von den TKU, bis zur Novellierung des Telekommunikationsgesetzes zum 1. Dezember 2021, auf freiwilliger Basis bereitgestellt wurden. Des Weiteren beziehen sich die angegebenen Verfügbarkeiten auf die verlegte Technik der TKU. Die tatsächlich nutzbare Breitbandverfügbarkeit vor Ort ist davon zu unterscheiden. Weiterführende Informationen zum Thema Breitbandmessung finden sich im Jahresbericht der Bundesnetzagentur.</t>
         </is>
       </c>
-      <c r="K34" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>The indicator measures the availability of broadband to households in Germany at downstream speeds of at least 1,000 Mbps, or one gigabit per second, using wired technology – fibre optics (FTTB/H) and cable television (CATV). The figures are collated on behalf of the Federal Ministry of Transport and Digital Infrastructure and published on the Government’s Broadband Atlas.
 As of the middle of 2021, fully fibre-optic internet connections (FTTB/H) capable of more than 1,000 Mbps were available in 15.4 % of households in Germany. Between 2015 and 2021, the availability of 1,000 Mbps FTTB/H broadband rose by 8.7 percentage points. In other words, it more than doubled, increasing by + 130 %. From the end of 2018 to the middle of 2021, the proportion of households with equally rapid connections using CATV grew from 23.7 % to 56.5 %. This is also more than double, equating to a + 138 % increase. Altogether, 62.1 % of households had gigabit-capable connections available as of mid-2021.
@@ -3322,70 +3392,70 @@
 Methodologically, it should be noted that the telecom companies provide their data on broadband availability on a voluntary basis until the revision of the Telecommunications Act on 1 December 2021. Furthermore, the figures for availability refer to the technology that telecom companies have installed, as opposed to the actually usable broadband capacity in the area. Additional information on broadband measurement can be found in the annual report of the Bundesnetzagentur, Germany’s federal networks agency.</t>
         </is>
       </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>17.6.1</t>
         </is>
       </c>
-      <c r="M34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
         <v>45672</v>
       </c>
     </row>
-    <row outlineLevel="0" r="35">
-      <c r="A35" s="4" t="inlineStr">
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Z10_B01_P01</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>10.1</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>Foreign school graduates</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Anteil ausländischer Schulabsolvierender in Prozent aller ausländischen Schulabgehenden und Schulabsolvierenden eines Jahrgangs. Als Absolvierende gelten hierbei Personen, die die allgemeinbildenden Schulen mit mindestens einem Hauptschulabschluss verlassen, während Abgehende diejenigen Personen meint, die die Schule ohne Schulabschluss verlassen.</t>
         </is>
       </c>
-      <c r="G35" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the proportion of foreign school graduates as a percentage of all foreign school leavers within a school year. In this case, the term “graduates” refers to people who leave general education schools with at least a secondary general school certificate.</t>
         </is>
       </c>
-      <c r="H35" s="5" t="inlineStr">
+      <c r="H36" s="5" t="inlineStr">
         <is>
           <t>Die Integration der in Deutschland lebenden Ausländerinnen und Ausländer ist eine wichtige Voraussetzung für den sozialen Zusammenhalt unserer Gesellschaft. Grundbedingung für eine erfolgreiche Integration ist eine ausreichende schulische Qualifizierung, die berufliche Ausbildungs- und Erwerbsmöglichkeiten eröffnet. Ziel der Bundesregierung ist es daher, bis zum Jahr 2030 den Anteil ausländischer Schulabsolvierender zu erhöhen und den Anteil an die Quote deutscher Schulabsolvierender anzugleichen.</t>
         </is>
       </c>
-      <c r="I35" s="5" t="inlineStr">
+      <c r="I36" s="5" t="inlineStr">
         <is>
           <t>The integration of foreigners living in Germany is an important prerequisite for cohesion within our society. A basic prerequisite for successful integration is the acquisition of sufficient qualifications at school to open up further educational and employment opportunities later on. The goal of the Federal Government is therefore to increase the share of foreign school graduates who obtain at least a secondary general school certificate and to bring this share into line with the corresponding rate for German school graduates by 2030.</t>
         </is>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>Datengrundlage des Indikators bilden die Schulstatistiken der einzelnen Bundesländer. Dabei handelt es sich in der Regel um Totalerhebungen mit Auskunftspflicht. Ihre Zusammenfassung zum Bundesergebnis erfolgt durch das Statistische Bundesamt auf Grundlage des von der Kultusministerkonferenz erstellten Definitionenkatalogs. Die Aggregation der Länderergebnisse zum Bundesergebnis wird beeinträchtigt durch die unterschiedliche Bildungspolitik der Länder, zum Beispiel bei Versetzungsregeln oder der Einrichtung von Bildungsgängen im Bereich der beruflichen Schulen. Dies kann auch durch formale Regelungen der jeweiligen Zuordnungen nur zum Teil kompensiert werden.
 Absolvierende sind Schülerinnen und Schüler, die die jeweilige Schulart mit Abschluss verlassen haben. Eingeschlossen werden Schülerinnen und Schüler, die zu einer anderen allgemeinbildenden Schulart gewechselt sind, um einen zusätzlichen Abschluss zu erwerben. Zudem gelten als Ausländerin oder Ausländer alle Personen, die nicht Deutsche im Sinne des Artikel 116 Absatz 1 Grundgesetz (GG) sind, das heißt die deutsche Staatsangehörigkeit nicht besitzen. Dazu zählen auch Staatenlose und Personen mit ungeklärter Staatsangehörigkeit. Deutsche, die zugleich eine weitere Staatsangehörigkeit besitzen, zählen nicht zur ausländischen Bevölkerung.
@@ -3394,7 +3464,7 @@
 Betrachtet man neben den reinen Anteilen auch die Niveaus der erreichten Abschlüsse, so lässt sich feststellen, dass 30,7 % der ausländischen Schulabsolvierenden allgemeinbildender Schulen des Jahrgangs 2021 einen Hauptschulabschluss erwarben, 39,9 % beendeten die Schule mit einem mittleren Abschluss und 13,7 % erreichten die Fachhochschulreife oder die allgemeine Hochschulreife. Bei den deutschen Schulabsolvierenden erwarben 14,3 % einen Hauptschulabschluss, 43,9 % einen mittleren Abschluss und 36,7 % die Fachhochschulreife oder die allgemeine Hochschulreife. Insbesondere bei den höheren Bildungsabschlüssen sind demnach die ausländischen Jugendlichen im Vergleich zu den deutschen deutlich unterrepräsentiert.</t>
         </is>
       </c>
-      <c r="K35" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>The school statistics, compiled by the individual Länder, form the data basis for this indicator. These statistics are generally derived from a complete count with an obligation to provide information. The Federal Statistical Office combines them to create a federal result based on the catalogue of definitions compiled by the Standing Conference of the Ministers of Education. The aggregation of the Länder results into the federal result is influenced by the different education policies of the Länder, for example, with regard to admission rules, in setting up courses of education in the area of vocational schools. This can only be partially offset by formal regulations for the respective allocations.
 Graduates are pupils who have left the respective type of school with a school certificate. Included are pupils who have changed to another type of general education school in order to obtain an additional certificate. Furthermore, foreigners are defined as all persons who are not German within the meaning of Article 116 (1) of the Basic Law, i.e. who do not hold the German citizenship. This also includes persons who are stateless and persons with undetermined citizenship. Germans who also hold another citizenship are not included in the foreign population.
@@ -3403,70 +3473,70 @@
 To break the figures down by types of certificate obtained, 30.7 % of foreign pupils who graduated from general schools achieved a lower secondary school leaving certificate in 2021, while 39.9 % completed their schooling with an intermediate secondary school leaving certificate and 13.7 % gained university-entrance qualifications. Among German school graduates, 14.3 % received a lower secondary school leaving certificate, 43.9 % gained an intermediate secondary school leaving certificate and 36.7 % earned university-entrance qualifications. This leaves young foreigners considerably under-represented in comparison to Germans, especially when it comes to the higher-level school leaving certificates.</t>
         </is>
       </c>
-      <c r="L35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N35" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7">
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
         <v>45601</v>
       </c>
     </row>
-    <row outlineLevel="0" r="36">
-      <c r="A36" s="4" t="inlineStr">
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Z10_B02_P01</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>10.2</t>
         </is>
       </c>
-      <c r="D36" s="4" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr">
         <is>
           <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt die Verteilung des verfügbaren Äquivalenzeinkommens mittels Gini-Koeffizienten dar.</t>
         </is>
       </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the distribution of equivalised disposable income per person using Gini coefficients.</t>
         </is>
       </c>
-      <c r="H36" s="5" t="inlineStr">
+      <c r="H37" s="5" t="inlineStr">
         <is>
           <t>Ungleichheit in der Einkommens- und Vermögensverteilung ist ein grundsätzlich akzeptierter Bestandteil einer dynamischen Marktwirtschaft. Allerdings muss die Einkommens- und Vermögensspreizung moderat und die soziale Teilhabe aller gewährleistet bleiben. Durch entsprechende Rahmenbedingungen sowie zielgerichtete Umverteilung von Einkommen mittels Steuern und Sozialleistungen soll erreicht werden, dass der Gini-Koeffizient des verfügbaren Äquivalenzeinkommens bis 2030 unterhalb des EU-Wertes liegt.</t>
         </is>
       </c>
-      <c r="I36" s="5" t="inlineStr">
+      <c r="I37" s="5" t="inlineStr">
         <is>
           <t>Inequality in income and wealth distribution is a generally accepted component of a dynamic market economy. However, the income and wealth gap must remain moderate and social inclusion be guaranteed for all. The goal is to keep the Gini coefficient of equivalised disposable income below the EU average until 2030 by means of suitable framework conditions as well as a targeted re-distribution of income through taxes and social benefits.</t>
         </is>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>Der Gini-Koeffizient ist ein Maß der relativen Ungleichheit und kann einen Wert zwischen null und eins annehmen. Im Falle der Gleichverteilung ergibt sich für den Gini-Koeffizienten ein Wert von null und im Falle der Konzentration des gesamten Einkommens auf nur eine Person ein Wert von eins. Ein Gini-Koeffizient von eins gibt somit die Situation bei maximaler Ungleichverteilung an. Je kleiner der Gini-Koeffizient, umso gleichmäßiger ist das Einkommen verteilt.
 Das Äquivalenzeinkommen ist ein bedarfsgewichtetes Einkommen und somit ein Wert, der sich aus dem Gesamteinkommen eines Haushalts und der Anzahl und dem Alter der in diesem Haushalt lebenden Personen ergibt. Mithilfe einer Äquivalenzskala werden die Einkommen nach Haushaltsgröße und -zusammensetzung gewichtet. Dadurch werden die Einkommen von Personen, die in unterschiedlich großen Haushalten leben, vergleichbar, da in größeren Haushalten Einspareffekte (Economies of Scale) auftreten (zum Beispiel durch gemeinsame Nutzung von Wohnraum oder Haushaltsgeräten). Das verfügbare Äquivalenzeinkommen ist das Gesamteinkommen (einschließlich Sozialtransfers) eines Haushalts nach Steuern und anderen Abzügen und somit das Einkommen, das für Ausgaben und Sparen zur Verfügung steht. Abzugrenzen davon ist das Äquivalenzeinkommen vor Sozialleistungen, bei dem das verfügbare Einkommen ohne eventuelle Sozialtransfers (zum Beispiel Arbeitslosengeld oder Wohnbeihilfe) betrachtet wird, sowie das Markteinkommen, das sich vor Steuern, Sozialabgaben und Sozialleistungen errechnet. Bei allen betrachteten Einkommen wird nicht unterschieden, welche Quellen zur Einkommenserzielung dienen (zum Beispiel  Arbeitslohn, Mieteinkünfte oder Kapitalerträge).
@@ -3475,7 +3545,7 @@
 Betrachtet man dagegen den Gini-Koeffizienten des Vermögens in Deutschland, der aus dem „Household Finance and Consumption Survey“ (HFCS) stammt, der unregelmäßig von der Europäischen Zentralbank (EZB) durchgeführt wird, zeigt sich eine deutlich ungleichmäßigere Verteilung. Im Jahr 2017 lag der entsprechende Gini-Koeffizient bei 0,739 und damit weit über den Werten zur Einkommensverteilung. Im Jahr 2017 lag der Wert für die Eurozone bei 0,695 und somit niedriger al</t>
         </is>
       </c>
-      <c r="K36" s="5" t="inlineStr">
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>The Gini coefficient is a statistical measure of income inequality. It has a value between 0 and 1. The value 0 means that every person has exactly the same income whereas the value 1 indicates that only one person receives all the income, thereby representing a situation of maximum income inequality. Hence, the smaller the Gini-coefficient, the more evenly is the income distributed.
 The equivalised income is a value derived from the total income of a household and the number and age of the people living from this income. With the help of an equivalence scale, the incomes are weighted according to household size and composition, as the shared use of living space and household appliances results in savings (Economies of Scale). With the equivalised income then allocated equally to each household member, it becomes possible to compare people’s incomes independently of age or household size. A household’s equivalised disposable income is the income, including social transfers, which remains after taxes and other deductions, and is therefore the income available for spending and saving. A distinction must be made between this measure and equivalised income before social transfers, which looks at disposable income without any possible welfare payments, such as unemployment benefit or housing assistance, or market income, which is calculated before taxes, social contributions and social benefits. In none of these ways of looking at income is a differentiation made between the sources of income, i.e. whether it takes the form of wages, rental income or capital gains.
@@ -3484,67 +3554,67 @@
 The wealth distribution figures for Germany are taken from the Household Finance and Consumption Survey (HFCS) conducted on an irregular basis by the European Central Bank and show a clear uneven distribution. Turning to the corresponding Gini coefficient (2017: 0.739), wealth in Germany is much less evenly distributed than income. The gap to the respective European value (Eurozone 2017: 0.695) is substantial and the European value is lower than the value for Germany. However, the impression of there being a disproportionately high wealth inequality is qualified by several factors not covered by the Gini coefficient. For instance, the evaluation of wealth does not take into account future pension entitlements. In addition, due to the stricter protection of tenant</t>
         </is>
       </c>
-      <c r="L36" s="4" t="inlineStr">
+      <c r="L37" s="4" t="inlineStr">
         <is>
           <t>10.2.1</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="M37" s="4" t="inlineStr">
         <is>
           <t>10.4.2</t>
         </is>
       </c>
-      <c r="N36" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="N37" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>11.1.a</t>
         </is>
       </c>
-      <c r="D37" s="4" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>Expansion of settlement and transport area</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den durchschnittlichen täglichen Anstieg der Siedlungs- und Verkehrsfläche in Hektar pro Tag.</t>
         </is>
       </c>
-      <c r="G37" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the average daily expansion of the area used for settlement and transport infrastructure in hectares per day.</t>
         </is>
       </c>
-      <c r="H37" s="5" t="inlineStr">
+      <c r="H38" s="5" t="inlineStr">
         <is>
           <t>Fläche ist eine begrenzte Ressource. Um ihre Nutzung konkurrieren beispielsweise Land- und Forstwirtschaft, Siedlung und Verkehr, Naturschutz, Rohstoffabbau und Energieerzeugung. Die Inanspruchnahme zusätzlicher Flächen für Siedlungs- und Verkehrszwecke soll bis zum Jahr 2030 auf durchschnittlich unter 30 Hektar pro Tag begrenzt werden. Bis zum Jahr 2050 wird eine Flächenkreislaufwirtschaft angestrebt. Das heißt, es sollen netto keine weiteren Flächen für Siedlungs- und Verkehrszwecke beansprucht werden.</t>
         </is>
       </c>
-      <c r="I37" s="5" t="inlineStr">
+      <c r="I38" s="5" t="inlineStr">
         <is>
           <t>Land is a limited resource. It is subject to competition from various interests, including agriculture and forestry, settlement and transport, nature conservation, resource extraction and energy generation. The development of additional land for settlement and transport purposes is to be limited to an average of less than 30 hectares per day by 2030. The goal is to establish a closed-loop land-use regime by 2050, meaning that, in net terms, no additional area will be developed for the purposes of settlement or transport.</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t>Siedlungs- und Verkehrsfläche ist nicht gleichzusetzen mit versiegelter Fläche. Zur Siedlungsfläche zählen die Nutzungsarten Wohnbaufläche, Industrie- und Gewerbefläche, öffentliche Einrichtungen sowie Erholungsfläche und Friedhöfe. Unter die Siedlungsfläche fallen auch die Flächen für Bergbaubetrieb und Tagebau (sogenanntes Abbauland). Diese werden für die Berechnung dieses Indikators jedoch nicht mit einbezogen, da sie langfristig betrachtet wieder einer anderen Nutzung (zum Beispiel als Bergbaufolgelandschaft) zugeführt werden. Die Verkehrsfläche setzt sich aus den vier Unterarten Straßen- und Wegeverkehr, Bahn-, Flug- und Schiffsverkehr zusammen. Dementsprechend bezieht sich der Indikator nicht allein auf die versiegelte Fläche, sondern erfasst auch unbebaute und nicht versiegelte Flächen. Dazu gehören beispielsweise auch Hausgärten, Parks und Grünanlagen. Nach Berechnungen der Umweltökonomischen Gesamtrechnungen der Länder wird der Versiegelungsanteil der Siedlungs- und Verkehrsfläche im Länderdurchschnitt auf 45 % geschätzt (2020).
 Der Indikator geht aus der Flächenerhebung nach Art der tatsächlichen Nutzung (kurz: amtliche Flächenstatistik) hervor, die wiederum auf den Daten des amtlichen Liegenschaftskatasters der Länder beruht. Im Liegenschaftskataster ist es in den vergangenen Jahren teilweise zur Neuzuordnung von Flächen gekommen, denen keine realen Nutzungsänderungen zugrunde lagen. Um den hieraus resultierenden Effekt auszugleichen, wird ein gleitender Vierjahresdurchschnitt abgebildet, der sich aus dem aktuellen Berichtsjahr und den drei vorangegangenen Jahren errechnet. Zudem wurde im Jahr 2016 die Umstellung vom alten auf den neuen Nutzungsartenkatalog vollendet, was sich auch auf die amtliche Flächenstatistik auswirkte, sodass die Vergleichbarkeit der Daten von 2016 mit den Vorjahren eingeschränkt ist. Aus diesem Grund entfällt für den Indikatorwert in 2016 auch eine Unterteilung in die einzelnen Nutzungsartengruppen innerhalb der Siedlungs- und Verkehrsfläche.
@@ -3553,7 +3623,7 @@
 Im Jahr 2020 betrug die Siedlungs- und Verkehrsfläche insgesamt 50 196 Quadratkilometer und machte damit 14 % der gesamten Fläche Deutschlands aus. Die größten Flächenarten in Deutschland sind mit 180 934 Quadratkilometern die Landwirtschaftsfläche (51 %), gefolgt von der Waldfläche mit 106 666 Quadratkilometern (30 %). Zwischen 2016 und 2020 erhöhte sich die Siedlungs- und Verkehrsfläche um 942 Quadratkilometer. Im gleichen Zeitraum verringerte sich die Landwirtschaftsfläche um 1 703 Quadratkilometer, während sich die Waldfläche um 496 Quadratkilometer erhöhte. Somit ist davon auszugehen, dass der Anstieg der Siedlungs- und Verkehrsfläche im Wesentlichen zulasten von Landwirtschaftsflächen erfolgte.</t>
         </is>
       </c>
-      <c r="K37" s="5" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>Settlement and transport area should not be equated with sealed land. Settlement land includes areas used for residential building, industry and commerce, public facilities, recreational amenities or cemeteries. It also covers land used for surface or sub-surface mining. However, mining land is not counted in the calculations for this indicator, as it ends up being reclaimed for other uses in the long term (e.g. as renaturalised post-mining landscapes). Transport area is made up of four subcategories: road transport, rail, aviation and shipping. The indicator therefore refers not only to sealed areas but also to undeveloped and unsealed land. These include, for example, domestic gardens, parks and other green spaces. As calculated in the environmental economic accounts compiled by the Länder, the sealed share of their settlement and transport area is estimated at 45 % on average (2020).
 The indicator is derived from the area survey by type of actual use (official land-use statistics), which in turn is based on data from the official land register maintained by the Länder. Some areas of land have been reclassified in the official land register in recent years without any actual change in the way they are used. To balance out the effect this has on the statistics for any particular year, a four-year moving average is also shown, averaging out the year in question and the three preceding years. Moreover, the switch from the old to the new land-use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. It is for this reason that the overall indicator value for 2016 is also not subdivided into types of settlement or transport use.
@@ -3562,67 +3632,67 @@
 In 2020, the area of settlement or transport use amounted to 50,196 km², or 14 % of the total area of Germany. The largest land types in Germany are agricultural land at 180,934 km² (51 %) followed by woodland at 106,666 km² (30 %). Settlement and transport area grew by 942 km² between 2016 and 2020. Agricultural land shrank by 1,703 km² during the same period, while woodland grew by 496 km². It can therefore be assumed that the increase in settlement and transport area was primarily at the expense of agricultural land.</t>
         </is>
       </c>
-      <c r="L37" s="4" t="inlineStr">
+      <c r="L38" s="4" t="inlineStr">
         <is>
           <t>11.3.1</t>
         </is>
       </c>
-      <c r="M37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N37" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N38" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>11.1.b</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>Freiraumverlust</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>Loss of open space area</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt als gleitender Vierjahresdurchschnitt die jährliche Veränderung der Freiraumfläche in Quadratmetern je Einwohnerin und Einwohner dar.</t>
         </is>
       </c>
-      <c r="G38" s="5" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>The indicator represents the annual change in the per capita open space area in square metres as a four-year moving average.</t>
         </is>
       </c>
-      <c r="H38" s="5" t="inlineStr">
+      <c r="H39" s="5" t="inlineStr">
         <is>
           <t>Freiraumflächen sollen für die land- und forstwirtschaftliche Nutzung, als Kultur- und Naturlandschaften sowie als Erholungsräume erhalten bleiben. Daher soll der Rückgang der Freiraumflächen je Einwohnerin und Einwohner reduziert werden. Vermindert sich der Freiraumverlust, so gibt das Hinweise auf einen Erfolg von Maßnahmen, die die Innenentwicklung stärken und so Agrar-, Wald- und Gewässerflächen für die Land- und Forstwirtschaft, den Naturschutz sowie für die Erholung der Bevölkerung schonen.</t>
         </is>
       </c>
-      <c r="I38" s="5" t="inlineStr">
+      <c r="I39" s="5" t="inlineStr">
         <is>
           <t>Open space areas should be preserved for agricultural and forestry use, as cultural and natural landscapes as well as recreation areas. For this reason, the decline in the per capita open space area should be reduced. A reduction in the loss of open space area indicates the success of measures to strengthen inner development and thereby conserve agricultural, wooded and water areas for agriculture and forestry, nature conservation and recreational use by the population.</t>
         </is>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t>Als Freiraumflächen werden Vegetationsflächen (zum Beispiel Ackerland, Weideland oder Waldflächen), sowie Abbauflächen und Wasserflächen bezeichnet. Freiraumflächen sind begrifflich abzugrenzen von Freiflächen im Siedlungsbereich, wie beispielsweise Friedhöfen, Gärten, Parks oder Freizeitanlagen, die zwar weitestgehend unbebaut sind, aber prinzipiell zur Siedlungs- und Verkehrsfläche zählen. Werden also bisher von Bebauung freigehaltene Siedlungsflächen bebaut, spiegelt sich dies weder in diesem Indikator 11.1.b zum „Freiraumverlust“ noch im Indikator 11.1.a „Anstieg der Siedlungs- und Verkehrsfläche“ wider.
 Im betrachteten Zeitraum verringerte sich der Freiraumverlust pro Kopf im Bundesdurchschnitt. Waren es im gleitenden Vierjahresmittel 2001 bis 2004 noch etwa 5 Quadratmeter je Einwohnerin und Einwohner, so sind es im aktuellen Vierjahresmittel 2017 bis 2020 nur noch rund 3 Quadratmeter.
@@ -3631,7 +3701,7 @@
 Die Unterscheidung zwischen „ländlich“ und „nicht ländlich“ basiert auf einer Typisierung des Thünen-Instituts. Das Institut ordnet Landkreisen und kreisfreien Städten – auf Basis von räumlichen Merkmalen wie „Siedlungsdichte“ und „Anteil land- und forstwirtschaftlicher Fläche“ – einen Grad an „Ländlichkeit“ zu. Somit bezieht sich diese Typisierung auf die Kreisebene und nicht auf kleinere räumliche Einheiten wie Städte und Dörfer.</t>
         </is>
       </c>
-      <c r="K38" s="5" t="inlineStr">
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t>Open space area includes areas of vegetation, such as arable land, pasture and woodland, as well as mining land and bodies of water. A distinction is made between open space proper and open areas within settlement zones, such as cemeteries, gardens, parks and recreational amenities, which, although largely undeveloped, are generally considered part of settlement and transport area. As a result, if previously undeveloped parts of settlement land are built on, this is neither reflected in this indicator 11.1.b “Loss of open space area” nor in the indicator 11.1.a “Expansion of settlement and transport area”.
 In the period under review, the national average for per capita loss of open space area went down. Whereas the four-year moving average for 2001-2004 was still around 5 m2 per capita, the current four-year moving average for 2017-2020 reveals a figure of just 3 m2.
@@ -3640,67 +3710,67 @@
 The distinction between rural and non-rural is based on a classification used by the Thünen Institute. The institute ascribes a degree of rurality to districts and district-free cities on the basis of geographical characteristics such as settlement density and share of farmland and woodland. The classification is thus applied to whole districts rather than to smaller entities like towns or villages.</t>
         </is>
       </c>
-      <c r="L38" s="4" t="inlineStr">
+      <c r="L39" s="4" t="inlineStr">
         <is>
           <t>11.3.1</t>
         </is>
       </c>
-      <c r="M38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N38" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N39" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>11.1.c</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>Siedlungsdichte</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
         <is>
           <t>Density of settlements</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Entwicklung der Bevölkerung je Quadratkilometer Siedlungs- und Verkehrsfläche im Vergleich zum Basisjahr 2000.</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>Taking 2000 as a base year, the indicator shows the development of population numbers per square kilometre of settlement or transport area.</t>
         </is>
       </c>
-      <c r="H39" s="5" t="inlineStr">
+      <c r="H40" s="5" t="inlineStr">
         <is>
           <t>Der Indikator „Siedlungsdichte“ gibt Hinweise auf die Effizienz der Siedlungsflächennutzung. Ziel der Bundesregierung ist es, durch flächensparende Maßnahmen beim Neubau und bei der Innenentwicklung, wie der Reduzierung von Wohnungs- und Gewerbeleerstand sowie Nachverdichtungen und Erhöhung der Baudichte, der Verringerung der Siedlungsdichte entgegenzuwirken.</t>
         </is>
       </c>
-      <c r="I39" s="5" t="inlineStr">
+      <c r="I40" s="5" t="inlineStr">
         <is>
           <t>The density of settlements indicator provides information about the efficiency of settlement land use. The goal of the Federal Government is to counteract the reduction in settlement density by implementing space-saving measures for all new construction, brownfield development, reduction of residential and commercial vacancy, and densification or dedensification of built-up areas.</t>
         </is>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>Bei der Siedlungsdichte wird die Einwohnerzahl ins Verhältnis zur Siedlungs- und Verkehrsfläche gesetzt, im Gegensatz zur Bevölkerungsdichte, wo die Gesamtfläche die Bezugsgröße ist.
 Zur Siedlungsfläche zählen dabei neben Wohnbauflächen auch Flächen besonderer funktionaler Prägung (zum Beispiel Krankenhäuser oder Schulen), Industrie- und Gewerbeflächen, Flächen mit gemischter Nutzung (zum Beispiel an Einkaufsstraßen) sowie Sport-, Freizeit- und Erholungsflächen. Sowohl Veränderungen der Einwohnerzahl als auch Veränderungen bei der Ausdehnung der Siedlungs- und Verkehrsflächen haben Einfluss auf den Wert der Siedlungsdichte.
@@ -3711,7 +3781,7 @@
 Die Unterscheidung zwischen „ländlich“ und „nicht ländlich“ basiert auf einer Typisierung des Thünen-Instituts. Das Institut ordnet Landkreisen und kreisfreien Städten – auf Basis von räumlichen Merkmalen wie „Siedlungsdichte“, „Anteil land- und forstwirtschaftlicher Fläche“ und der Erreichbarkeit großer Zentren – einen Grad an „Ländlichkeit“ zu. Somit bezieht sich diese Typisierung auf die Kreisebene und nicht auf kleinere räumliche Einheiten wie Städte und Dörfer. Nach dies</t>
         </is>
       </c>
-      <c r="K39" s="5" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>Settlement density looks at the number of inhabitants in relation to the amount of settlement and transport area – in contrast to population density, which is based on the entire land area.
 Apart from residential building land, settlement land includes areas of special functional character (such as hospitals and schools), industrial and commercial land, mixed-use land (such as shopping streets), and areas for sports, leisure and recreation. Changes in the number of inhabitants and changes in the extent of settlement and transport area both affect figures for the density of settlements.
@@ -3722,69 +3792,69 @@
 The distinction between rural and non-rural is based on a classification used by the Thünen Institute. The institute ascribes a degree of rurality to districts and district-free cities on the basis of geographical characteristics such as settlement density, share of farmland and woodland, and the accessibility of urban centres. The classification is thus applied to whole districts rather than to smaller entities like towns or villages. In 2020, 43 % and 57 % of the population lived in non-rural and rural areas by this definition, respectively.</t>
         </is>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="L40" s="4" t="inlineStr">
         <is>
           <t>11.3.1</t>
         </is>
       </c>
-      <c r="M39" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N39" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N40" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>11.2.a</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>Final energy consumption in goods transport</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt die Entwicklung des Endenergieverbrauchs für den Transport von Gütern im Inland in der Binnenschifffahrt, im Eisenbahn- und im Straßengüterverkehr dar.</t>
         </is>
       </c>
-      <c r="G40" s="5" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>Final energy consumption in goods transport represents the energy consumption for the carriage of goods within Germany via inland shipping, by rail and by road.</t>
         </is>
       </c>
-      <c r="H40" s="5" t="inlineStr">
+      <c r="H41" s="5" t="inlineStr">
         <is>
           <t>Der Verkehr bringt eine Reihe von Problemen mit sich. So beeinträchtigen etwa Lärm und Luftschadstoffe die Lebensqualität insbesondere in Städten und verkehrsbedingte Emissionen tragen zum Klimawandel bei. Der Ausstoß von schädlichen Treibhausgasen (THG) steht in engem Zusammenhang mit der im Verkehr verbrauchten Energie.
 Ziel ist es den Endenergieverbrauch im Güterverkehr bis zum Jahr 2030 um 15 bis 20 % gegenüber 2005 zu senken.</t>
         </is>
       </c>
-      <c r="I40" s="5" t="inlineStr">
+      <c r="I41" s="5" t="inlineStr">
         <is>
           <t>Transport creates a range of problems. For instance, noise and air pollution impair quality of life, especially in cities, and traffic-related emissions contribute to climate change. The emission of harmful greenhouse gases is closely linked to the energy consumed for transport purposes.
 The aim is to reduce final energy consumption in goods transport by 15 to 20 % by 2030 compared to 2005.</t>
         </is>
       </c>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>Die Daten zum Endenergieverbrauch im Inland werden der Transport-Emission-Model (TREMOD-)Datenbank des Instituts für Energie- und Umweltforschung (ifeu) entnommen. TREMOD ist ein Modell zur Bewertung von Verkehrsemissionen. Die Daten enthalten die Treibstoffverbräuche innerhalb Deutschlands unabhängig vom Ort der Betankung. Als Endenergie wird der direkt im Verkehr genutzte Teil der Energie bezeichnet. Die Umwandlungsverluste während der Herstellung der Kraftstoffe sowie eventuelle Leitungsverluste bleiben hierbei unberücksichtigt.
 Die Beförderungsleistungen des Güterverkehrs zur Berechnung des spezifischen Energieverbrauchs in diesem Sektor stammen auch aus TREMOD. Dabei wird der Güterverkehr über den Luftweg nicht mit einbezogen, da er vergleichsweise sehr gering ist.
@@ -3798,7 +3868,7 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Die Summe der Anteile von Güterverkehr (Indikator 11.2.a) und Personenverkehr (Indikator 11.2.b) am gesamten Endenergieverbrauch durch den Verkehr ergeben zusammen nicht 100 %. Diese Abweichung ist durch unterschiedliche Abgrenzungen der Energieverbrä</t>
         </is>
       </c>
-      <c r="K40" s="5" t="inlineStr">
+      <c r="K41" s="5" t="inlineStr">
         <is>
           <t>The data regarding domestic final energy consumption originates from the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. TREMOD is a model for evaluating transport emissions. The data record fuel consumption within Germany irrespective of where refuelling takes place. “Final energy” refers to that part of the total energy used that is directly consumed in transport. It does not cover the conversion losses that arise during the production of fuels or any pipeline losses that may occur.
 TREMOD also supplies the goods transport volumes which are used to calculate the specific energy consumption of this sector. Air freight transport is not included, as it accounts for negligibly small volumes.
@@ -3812,69 +3882,69 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;The sum of shares of goods transport (indicator 11.2.a) and passenger transport (indicator 11.2.b) in proportion to total final energy consumption in transport do not add up to 100 %. This discrepancy is caused by different definitions of energy consumption in passenger and goods transport (domestic consumption; source: TREMOD) and total final energy consumption in traffic (domestic sales; source: AG Energiebila</t>
         </is>
       </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N40" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N41" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>11.2.b</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt die Entwicklung des Endenergieverbrauchs durch die Beförderung von Personen mit der Bahn, im Luft- und Straßenverkehr (öffentlicher und Individualverkehr) im Inland dar.</t>
         </is>
       </c>
-      <c r="G41" s="5" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>Final energy consumption in passenger transport represents the energy consumption for the carriage of people within Germany by rail, by air and by road (public and private transport).</t>
         </is>
       </c>
-      <c r="H41" s="5" t="inlineStr">
+      <c r="H42" s="5" t="inlineStr">
         <is>
           <t>Der Verkehr bringt eine Reihe von Herausforderungen mit sich. So beeinträchtigen etwa Lärm und Luftschadstoffe die Lebensqualität insbesondere in Städten und verkehrsbedingte Emissionen tragen zum Klimawandel bei. Der Ausstoß von schädlichen Treibhausgasen (THG) steht im Zusammenhang mit der im Verkehr verbrauchten Energie.
 Ziel ist es, den Endenergieverbrauch im Personenverkehr bis zum Jahr 2030 um 15 bis 20 % zu senken.</t>
         </is>
       </c>
-      <c r="I41" s="5" t="inlineStr">
+      <c r="I42" s="5" t="inlineStr">
         <is>
           <t>Transport brings with it a range of challenges. For instance, noise and air pollution impair quality of life, especially in cities, and traffic-related emissions contribute to climate change. The emission of harmful greenhouse gases is linked to the energy consumed for transport purposes.
 The aim is to reduce final energy consumption in passenger transport by 15 to 20% by 2030.</t>
         </is>
       </c>
-      <c r="J41" s="5" t="inlineStr">
+      <c r="J42" s="5" t="inlineStr">
         <is>
           <t>Die Daten zum Endenergieverbrauch im Inland werden der Transport-Emission-Model-(TREMOD-)Datenbank des Instituts für Energie- und Umweltforschung (ifeu) entnommen. TREMOD ist ein Modell zur Bewertung von Verkehrsemissionen. Die Daten enthalten die Kraftstoffverbräuche im Zusammenhang mit dem Personenverkehr innerhalb Deutschlands – unabhängig vom Ort der Betankung – nach dem Verbrauchskonzept. Endenergie bezeichnet dabei den direkt im Verkehr genutzten Teil der Energie, lässt also die Umwandlungsverluste während der Herstellung der Kraftstoffe sowie eventuelle Leitungsverluste unberücksichtigt.
 Die Personenbeförderungsleistung gibt die Anzahl der zurückgelegten Personenkilometer an. Sie wird zur Berechnung des spezifischen Energieverbrauchs in diesem Sektor verwendet und stammt auch aus TREMOD. Im Luftverkehr werden nur die Inlandsflüge (nationaler Luftverkehr) berücksichtigt. Internationale Flüge vom und in das Bundesgebiet bleiben unberücksichtigt. Auch die Personenbeförderung in der Schifffahrt wird nicht einbezogen.
@@ -3886,7 +3956,7 @@
 &lt;sup&gt;2&lt;/sup&gt;Zur </t>
         </is>
       </c>
-      <c r="K41" s="5" t="inlineStr">
+      <c r="K42" s="5" t="inlineStr">
         <is>
           <t>The data regarding domestic final energy consumption originates from the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. TREMOD is a model for evaluating transport emissions. The data record fuel consumption associated with passenger transport within Germany, irrespective of where refuelling takes place (in accordance with the principle of actual final consumption). “Final energy” refers to that part of the total energy used that is directly consumed in transport, so it excludes conversion losses that arise during the production of fuels as well as any pipeline losses that may occur.
 The volume of passenger transport is expressed in terms of the number of passenger-kilometres travelled. Provided by TREMOD, this figure is used to calculate the specific level of energy consumption in this sector. In the aviation statistics, only domestic flights are taken into account. International flights departing from or landing in German territory are not counted. Nor is waterborne passenger transport included.
@@ -3898,68 +3968,68 @@
 &lt;sup&gt;2&lt;/sup&gt;For a better understanding: the heatin</t>
         </is>
       </c>
-      <c r="L41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N41" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="L42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N42" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>11.2.c</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln
 </t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Der Indikator weist die bevölkerungsgewichtete durchschnittliche Reisezeit mit öffentlichen Verkehrsmitteln zum nächsten Mittel- oder Oberzentrum aus.</t>
         </is>
       </c>
-      <c r="G42" s="5" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>The indicator shows population-weighted average travel times to the nearest medium-sized or large city by public transport.</t>
         </is>
       </c>
-      <c r="H42" s="5" t="inlineStr">
+      <c r="H43" s="5" t="inlineStr">
         <is>
           <t>Mobilität ist ein wichtiger Faktor, um Menschen soziale Teilhabe zu ermöglichen. Entsprechend sollten Raum und Verkehr so gestaltet werden, dass für die gesamte Bevölkerung gute Mobilitätsangebote und eine entsprechende Anbindung an Mittel- oder Oberzentren vorhanden sind. Ziel der Bundesregierung ist es daher, die durchschnittliche Reisezeit mit öffentlichen Verkehrsmitteln zum nächsten Mittel- oder Oberzentrum zu verringern.</t>
         </is>
       </c>
-      <c r="I42" s="5" t="inlineStr">
+      <c r="I43" s="5" t="inlineStr">
         <is>
           <t>Mobility is a key factor in enabling people to participate in society. Accordingly, urban development and transport should be designed to provide good mobility services and suitable connections to medium-sized or major cities for the entire population. Therefore, the goal of the Federal Government is to shorten the average amount of time it takes people to travel to their nearest medium-sized or major city by public transport.</t>
         </is>
       </c>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="J43" s="5" t="inlineStr">
         <is>
           <t>Der Indikator wird vom Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR) berechnet. Als öffentliche Verkehrsmittel werden Verkehrsangebote definiert, die jede Person nach Entrichtung der jeweiligen Gebühren benutzen kann. Flexible Bedienformen wie zum Beispiel Anrufbusse, die ohne feste Haltestellen und Fahrpläne auf Anforderung verkehren, werden hierbei nicht berücksichtigt.
 Ein Vergleich zwischen den Werten des Indikators von 2012 und 2020 zeigt, dass sich die bevölkerungsgewichtete durchschnittliche Reisezeit zum nächsten Mittel- oder Oberzentrum in diesem Zeitraum von 23,5 auf 20,6 Minuten verkürzt hat. Dies entspricht einer Verringerung um 12,3 %.
@@ -3969,7 +4039,7 @@
 Die Einstufung eines Ortes als Mittel- oder Oberzentrum bestimmt sich nach der Ausstattung des Ortes mit Versorgungsangeboten an Waren, Dienstleistungen und Infrastruktur, die in den umgebenden Unterzentren nicht zur Verfügung stehen. Hierzu zählen unter anderem Facharztpraxen, Krankenhäuser, kulturelle Angebote sowie weiterführende Schulen und Hochschulen. In jedem Mittel- oder Oberzentrum, insbesondere in Großstädten, wurde nur ein Zielpunkt (Stadtzentrum) bestimmt. Die Zielhaltestellen wurden im Umkreis von einem Kilometer um den Zielpunkt gewählt und die schnellste Verbindung von der Starthaltestelle dorthin gesucht. Mithilfe kleinräumiger Bevölkerungsdaten des Statistischen Bundesamtes wurde dann ein bevölkerungsgewichteter Mittelwert der Reisezeit für Deutschland ermittelt.</t>
         </is>
       </c>
-      <c r="K42" s="5" t="inlineStr">
+      <c r="K43" s="5" t="inlineStr">
         <is>
           <t>The indicator is computed by the Federal Institute for Research on Building, Urban Affairs and Spatial Development. Public means of transport are defined as transport services that anyone can use on payment of the relevant fees. Flexible forms of operation, such as on-call buses that operate on demand without fixed stopping points and timetables, are not taken into account.
 Comparing the indicator values for 2012 and 2020 shows that the population-weighted average travel time to the nearest medium-sized or major city fell from 23.5 to 20.6 minutes during that period. This equates to a reduction of 12.3 %.
@@ -3979,67 +4049,67 @@
 The classification of an urban centre as a medium-size or large city is determined according to the availability of goods, services and infrastructure that are not available in the surrounding regional towns. These include, among other things, specialist medical practices, hospitals, cultural facilities as well as secondary schools and institutions of higher education. In each intermediate or large city, especially in large cities, only one location in the city centre was designated as the destination. The destination stops were selected within a radius of one kilometre around that destination point, and the quickest connection from each departure stop to that point was sought. A population-weighted average value of the travel time for Germany was then determined with the help of small-scale population data from the Federal Statistical Office.</t>
         </is>
       </c>
-      <c r="L42" s="4" t="inlineStr">
+      <c r="L43" s="4" t="inlineStr">
         <is>
           <t>11.2.1</t>
         </is>
       </c>
-      <c r="M42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N42" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N43" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Z11_B03_P01</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>11.3</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
         <is>
           <t>Housing cost overload</t>
         </is>
       </c>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Anteil der Personen, die in Haushalten leben, welche mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben. Ausgaben für Wohnen sind dabei die Nettokaltmiete, Nebenkosten, Energiekosten und Ausgaben für Wasserversorgung sowie bei Wohneigentum werterhaltende Investitionen und Zinszahlungen für Kredite.</t>
         </is>
       </c>
-      <c r="G43" s="5" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the share of people living in households where more than 40 % of disposable household income is spent on housing. Housing costs comprise rent and ancillary charges, energy costs and water bills as well as, in the case of home ownership, investments to maintain the value of a property and interest payments on associated loans.</t>
         </is>
       </c>
-      <c r="H43" s="5" t="inlineStr">
+      <c r="H44" s="5" t="inlineStr">
         <is>
           <t>Hohe Wohnkosten führen dazu, dass Haushalte in ihren übrigen Konsumentscheidungen eingeschränkt werden. Ausgaben für Wohnen von mehr als 40 % des verfügbaren Haushaltseinkommens werden als Überlastung angesehen. Der Anteil der Personen, die in Haushalten leben, die mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben, soll deshalb bis zum Jahr 2030 auf 13 % gesenkt werden.</t>
         </is>
       </c>
-      <c r="I43" s="5" t="inlineStr">
+      <c r="I44" s="5" t="inlineStr">
         <is>
           <t>High housing costs place restrictions on households with regard to their other consumption choices. Housing expenses amounting to more than 40 % of disposable household income are considered to be excessive. The share of people who live in households where more than 40 % of disposable household income is spent on housing is therefore to be reduced to 13 % by 2030.</t>
         </is>
       </c>
-      <c r="J43" s="5" t="inlineStr">
+      <c r="J44" s="5" t="inlineStr">
         <is>
           <t>Der Indikator setzt die Ausgaben für Wohnen in Relation zum verfügbaren Haushaltseinkommen. Erhält ein Haushalt Wohngeld oder vergleichbare Sozialleistungen (zum Beispiel Leistungen für Unterkunft und Heizung der Grundsicherung) werden diese bei der Berechnung des Indikators berücksichtigt. Diese Sozialleistungen werden nicht dem Einkommen zugeschlagen, sondern von den Wohnkosten abgezogen, sodass die Wohnkostenbelastung von Haushalten, die auf wohnungsbezogene Sozialleistungen angewiesen sind, reduziert wird bzw. gegen null geht.
 Der Kauf einer selbst genutzten Immobilie wird nicht zu den Ausgaben für Wohnen gezählt, ebenso wie weitere Ausgaben für Maßnahmen, die den Wert einer Immobilie steigern. Allerdings ist eine Abgrenzung von den werterhaltenden Ausgaben, die zu den Ausgaben für Wohnen zählen, nicht immer eindeutig möglich. Diese Schwierigkeiten in der Erfassung der exakten Wohnkosten sollten bei der Interpretation der Ergebnisse berücksichtigt werden. Auch berücksichtigt der Indikator keine zusätzlichen, mit dem Wohnort verbundenen Ausgaben. So werden beispielsweise Ausgaben für Fahrten zwischen Wohnort und Arbeitsstelle nicht berücksichtigt, obwohl die Schwelle von 40 % möglicherweise nur aufgrund des arbeitsplatzfernen Wohnens unterschritten wird.
@@ -4049,7 +4119,7 @@
 Der Indikator besitzt nur eingeschränkte Aussagekraft bezüglich der eigentlichen Wohnsituation und des verfügbaren Einkommens, denn es werden durch die Berechnungsweise auch einkommensstarke Haushalte mit hohen Ausgaben für Wohnen als überlastet angezeigt. Die Daten belegen allerdings, dass besonders die armutsgefährdete Bevölkerung, das heißt Personen, die über weniger als 60 % des Medians der Äquivalenzeinkommen der Bevölkerung verfügen, von einer Überlastung durch Wohnkosten betroffen ist. Der Anteil der durch Wohnkosten Überlasteten lag unter den Armutsgefährdeten zwischen 2010 (42,2 %) und 2019 (48,3 %) insgesamt auf einem sehr hohen Niveau. Die Anteile bei den nicht Armutsgefährdeten waren dagegen deutlich geringer (2010: 9,4 % und 2019: 8,0 %). Bei beiden Personengruppen zeigt sich im Zeitverlauf die gleiche Entwicklung wie bei der Zeitreihe insgesamt.</t>
         </is>
       </c>
-      <c r="K43" s="5" t="inlineStr">
+      <c r="K44" s="5" t="inlineStr">
         <is>
           <t>The indicator expresses housing costs relative to disposable household income. If a household is receiving housing benefits or comparable social benefits, such as social-security payments for accommodation and heating, these are also included in the calculations. These social benefits are not added to the income amount but are deducted from the housing costs, so that the burden of housing expenses on households that rely on housing-related social benefits is reduced or almost nullified.
 The purchase of an owner-occupied property is not included in the expenditure on housing. Other spending on measures to enhance the value of a property should not be taken into account either. However, it is not always possible to clearly differentiate between these and value-maintaining expenditures that are considered as housing expenditure. Therefore, some simplifying assumptions must be made. Moreover, the indicator also does not take into account any additional expenditure associated with the place of residence. For instance, expenditure on travelling from the place of residence to the workplace is not taken into account, although it is possible that the threshold of 40 % is not reached only due to the fact that the place of residence is far away from work.
@@ -4059,67 +4129,67 @@
 With regard to the actual housing situation and disposable income, the indicator provides only a limited amount of meaningful information. After all, the calculation method means that households with high incomes and high expenditure on housing also appear to be overburdened. Meanwhile, the data show that it is people at risk of poverty – that is, those with less than 60 % of the median equivalised income for the population – who are particularly affected by excessive housing costs. Some 42.2 % of people at risk of poverty were overburdened by housing costs in 2010, rising to 48.3 % by 2019. In total, the values are on a high level. In contrast, excessive housing costs affected a markedly smaller proportion of people considered not at risk of poverty. The 2019 figure of 8.0 % was lower than the 9.4 % recorded in 2010. Both groups develop in the same direction as the overall trend of the time series.</t>
         </is>
       </c>
-      <c r="L43" s="4" t="inlineStr">
+      <c r="L44" s="4" t="inlineStr">
         <is>
           <t>11.1.1</t>
         </is>
       </c>
-      <c r="M43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N43" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N44" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>Z11_B04_P01</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>11.4</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
         <is>
           <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
-      <c r="F44" s="5" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Anzahl der Objekte, die in der Deutschen Digitalen Bibliothek (DDB) vernetzt sind.</t>
         </is>
       </c>
-      <c r="G44" s="5" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of objects in the network of the German Digital Library, or Deutsche Digitale Bibliothek (DDB).</t>
         </is>
       </c>
-      <c r="H44" s="5" t="inlineStr">
+      <c r="H45" s="5" t="inlineStr">
         <is>
           <t>In der Deutschen Digitalen Bibliothek (DDB) werden die digitalen Angebote der deutschen Kultur- und Wissenseinrichtungen zentral miteinander vernetzt und online zugänglich gemacht. Die Deutsche Digitale Bibliothek eröffnet dadurch Wissenschaft und kulturinteressierten Nutzerinnen und Nutzern gleichermaßen einen zeitgemäßen und niederschwelligen Zugang. Der Indikator ist somit Gradmesser für die digitale Zugänglichmachung des Kultur- und Wissenserbes in Deutschland. Ziel ist es, die Anzahl der in der Deutschen Digitalen Bibliothek verzeichneten Objekte bis 2030 auf 50 Millionen zu steigern.</t>
         </is>
       </c>
-      <c r="I44" s="5" t="inlineStr">
+      <c r="I45" s="5" t="inlineStr">
         <is>
           <t>The German Digital Library connects and provides online access in one place to the digital holdings of Germany’s cultural institutions and repositories of learning. It thereby makes them easily accessible, in an up-to-date manner, to scholars and anyone else interested in culture. As such, the indicator is a useful gauge of the extent to which our shared heritage of culture and learning has been rendered digitally accessible in Germany. The goal is to increase the number of objects available via the German Digital Library to 50 million by 2030.</t>
         </is>
       </c>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>Die Deutsche Digitale Bibliothek (DDB) ist eine Plattform zur Vernetzung der digitalen Angebote von Institutionen wie Archiven, Bibliotheken und Museen. Sie wird von einem Netzwerk aus Kultur- und Wissenseinrichtungen des Bundes, der Länder und der Kommunen verwaltet.
 Finanziert wird sie gemeinsam vom Bund und von den Ländern. Die DDB hält die digitalen Bestände in der Regel nicht selbst vor, sondern stellt lediglich eine Verlinkung zu den Objekten bei den Partnereinrichtungen bereit. Für die Stabilität dieser Verlinkung sind die Partnereinrichtungen verantwortlich. Die Anzahl der Partnereinrichtungen, die Daten für die DDB bereitstellen, beläuft sich auf 448 (Stand: Mai 2020). Dabei machen Museen mit 183 und Archive mit 174 Einrichtungen den Großteil der Partnereinrichtungen aus.
@@ -4128,7 +4198,7 @@
 Zum Ende des Jahres 2015 verfügten 6,3 Millionen Objekte über ein Digitalisat und diese Zahl stieg bis zum Ende des ersten Halbjahres 2022 auf 14,9 Millionen an. Auch der prozentuale Anteil der Objekte mit Digitalisat an der Gesamtzahl der verknüpften Objekte stieg in diesem Zeitraum von 34,5 % im Jahr 2015 auf 35,2 % zum Ende des ersten Halbjahres 2022. Den Großteil der verknüpften digitalisierten Objekte machten zum Ende des ersten Halbjahres 2022 Textobjekte aus (61,8 %), gefolgt von Bildobjekten (34,9 %) und sonstigen Medien (2,8 %). Audio- und Videodateien machten dagegen mit 0,3 bzw. 0,2 % nur einen sehr geringen Anteil der digitalisierten Objekte in der DDB aus.</t>
         </is>
       </c>
-      <c r="K44" s="5" t="inlineStr">
+      <c r="K45" s="5" t="inlineStr">
         <is>
           <t>The German Digital Library is a platform created to connect the digital holdings of institutions like archives, libraries and museums. It is managed by a network of such repositories of culture and learning from the Federal Government, the Länder and local-authorities. 
 It is jointly funded by the Federal Government and the Länder. Most of the digital materials are held not by the German Digital Library itself but by partner institutions, while the DDB only hosts links to those objects. The partner institutions are responsible for the stability of the connection. As of May 2020, the number of partner institutions making data available for the German Digital Library had reached 448. The majority are museums or archives – 183 and 174 of them respectively.
@@ -4137,67 +4207,67 @@
 There were 6.3 million objects with digitised media at the end of 2015, rising to 14.9 million by the middle of 2022. Objects with digitised media also increased as a proportion of all the objects linked to in the German Digital Library, rising from around 34.5 % in 2015 to around 35.2 % by mid-2022. At the end of the first half of 2022, the majority of digitised objects available via the Library were texts (61.8 %), followed by pictures (34.9 %) and other media (2.8 %). In contrast, audio and video recordings made up only a very small proportion of digitised Library objects, at 0.3 % and 0.2 % respectively.</t>
         </is>
       </c>
-      <c r="L44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N44" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N45" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>12.1.a</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
-      <c r="F45" s="5" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden. Zu den Umweltzeichen und Produkten gehören Energieverbrauchskennzeichnungen bei Personenkraftwagen (Pkw), Haushaltsgroßgeräten, Leuchtmitteln und Fernsehern, Bio-Siegel bei Lebensmitteln sowie Blauer Engel bei Hygienepapieren, Wasch- und Reinigungsmitteln.</t>
         </is>
       </c>
-      <c r="G45" s="5" t="inlineStr">
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>The indicator measures the market share of products with voluntary or mandatory eco-labels, whose awarding procedures are stipulated by governmental bodies. The eco-labels and products comprise energy labels for cars, large household appliances, light bulbs and televisions, organic labels for foodstuff and Blue Angel for sanitary paper, detergents and cleaning supplies.</t>
         </is>
       </c>
-      <c r="H45" s="5" t="inlineStr">
+      <c r="H46" s="5" t="inlineStr">
         <is>
           <t>Private Haushalte können direkt und indirekt nachhaltig konsumieren. Einerseits beeinflusst ihre Einkaufsentscheidung ihre eigene Umweltbilanz, da energieeffiziente Fahrzeuge oder gedämmte Häuser in ihrer Nutzung weniger Energie benötigen und einen geringeren Ausstoß von Treibhausgasen verursachen. Andererseits können die Verbraucherinnen und Verbraucher Produkte erwerben, die auf besonders nachhaltige Weise hergestellt wurden. Ziel der Bundesregierung ist es daher, den Marktanteil von Produkten mit staatlichen Umweltzeichen bis 2030 auf 34 % zu erhöhen.</t>
         </is>
       </c>
-      <c r="I45" s="5" t="inlineStr">
+      <c r="I46" s="5" t="inlineStr">
         <is>
           <t>Private households can engage in sustainable consumption both directly and indirectly. Not only do their purchasing decisions influence their own ongoing impact on the environment, as energy-efficient vehicles or insulated homes require less energy to use and lead to lower emissions of greenhouse gases, but consumers can also purchase products that have been manufactured in particularly sustainable ways. The aim of the Federal Government is therefore to increase the market share of products certified by publicly managed ecolabelling schemes to 34 % by 2030.</t>
         </is>
       </c>
-      <c r="J45" s="5" t="inlineStr">
+      <c r="J46" s="5" t="inlineStr">
         <is>
           <t>Zwischen 2012 und 2019 stieg der Marktanteil von Produkten mit staatlichen Umweltzeichen von 3,6 auf 7,9 %. Dies entspricht einem Umsatz von insgesamt 26,5 Milliarden Euro im Jahr 2019. Der höchste Wert wurde 2016 mit 8,6 % erreicht. 2017 und 2018 ist der Anteil im Vergleich zum Vorjahr gesunken, während der Anteil 2019 wieder leicht stieg. Der Indikator folgt im Wesentlichen der Entwicklung auf dem Pkw-Markt. Der Marktanteil von A+-Pkw war von 14 % (2016) auf 9,6 % (2018) zurückgegangen und ist 2019 auf 10,0 % leicht gestiegen. Zuletzt entwickelte sich der Indikator zwar in die angestrebte Richtung, jedoch wird ohne eine deutliche Steigerung des Marktanteils das Ziel bis zum Jahr 2030 erheblich verfehlt.
 Die Daten zum Indikator stammen vom Umweltbundesamt (UBA). Das UBA verwendet zur Berechnung des Indikators Informationen aus diversen Quellen, wie zum Beispiel von der Gesellschaft für Konsumforschung. Der Indikator setzt sich aus den Marktanteilen von Produkten zusammen, welche entweder die höchste EU-Energieverbrauchskennzeichnung (EU-EVK) innerhalb ihrer Geräteklasse aufweisen oder mit einem der folgenden Umweltzeichen zertifiziert sind: EU-Ecolabel, EU-Bio-Siegel oder Blauer Engel. Die EU-EVK adressiert primär Energieverbrauch und Treibhausgasemissionen, während die anderen drei Umweltzeichen auch andere Umweltbelastungen wie Pestizideinsatz und gefährliche Abwässer berücksichtigen. Der Indikator soll abbilden, ob umweltfreundliche Produktvarianten konventionelle Produktvarianten im Markt ersetzen. Betrachtet wird dabei nur eine Auswahl an Produktgruppen, weil unter anderem nur begrenzt Daten zu Umsätzen von Produkten mit Nachhaltigkeitskennzeichen verfügbar sind. Zudem sollen Doppelzählungen ausgeschlossen werden.
@@ -4205,7 +4275,7 @@
 Eine Gewichtung der Marktanteile nach Umweltrelevanz der jeweiligen Produktgruppen ist nicht möglich, da die Umweltzeichen verschiedene Kategorien (Energieverbrauch, Treibhausgasemissionen, Materialbedarf) adressieren, die nicht aufgerechnet werden können. Daher lässt sich eine allumfassende Bewertung über mehrere Umweltkategorien – im Sinne eines Umweltfußabdrucks der Produktgruppen – nicht darstellen. Der Indikator erfasst zudem nur die neu in den Verkehr gebrachten Güter in Relation zum Gesamtmarkt. Somit berücksichtigt er nicht, inwieweit die höhere Effizienz der Geräte zu einer Verhaltensänderung der Konsumenten führt und gegebenenfalls zu einem erhöhten Konsum (sogenannter Rebound-Effekt). Er beschreibt zudem den Marktanteil auf Basis von Umsätzen. Bedingt durch Preisunterschiede zwischen Produkten mit und ohne entsprechende Umweltsiegel lässt er keine Rückschlüsse auf deren Anzahl zu. Folglich kann eine Änderung des Indikatorwertes auch auf Preisänderungen in einer Produktgruppe zurückzuführen sein.</t>
         </is>
       </c>
-      <c r="K45" s="5" t="inlineStr">
+      <c r="K46" s="5" t="inlineStr">
         <is>
           <t>Between 2012 and 2019, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6 % to 7.9 %. This is equivalent to a turnover of 26.5 billion euros in 2019. The highest value was measured in 2016 at 8.6 %. The indicator value sank in 2017 and 2018 relative to the previous year, whereby the share slightly increased in 2019. Basically, the indicator follows the trend of the car market. The market share of A + cars decreased from 14 % (2016) to 9.6 % (2018) and increased again in 2019 (10.0 %). The trend of the indicator developed in the right direction but unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.
 The data used for this indicator comes from the German Environment Agency (UBA). The UBA utilizes information from various sources for the calculation of the indicator, for example from the consumer research institute. The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups is examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.
@@ -4213,67 +4283,67 @@
 It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.</t>
         </is>
       </c>
-      <c r="L45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N45" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N46" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>12.1.b</t>
         </is>
       </c>
-      <c r="D46" s="4" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>Global environmental impact by private household consumption</t>
         </is>
       </c>
-      <c r="F46" s="5" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
         <is>
           <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Rohstoffeinsatz, Energieverbrauch und der Ausstoß von Kohlendioxid (CO2) im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
         </is>
       </c>
-      <c r="G46" s="5" t="inlineStr">
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>The impact caused to the environment around the world by private household consumption is shown here by three indicators. They are domestic and foreign energy consumption, emissions of carbon dioxide (CO2) and the use of raw materials in connection with the production and use of all goods destined for the consumption of private households in Germany.</t>
         </is>
       </c>
-      <c r="H46" s="5" t="inlineStr">
+      <c r="H47" s="5" t="inlineStr">
         <is>
           <t>Private Haushalte haben durch Konsumaktivitäten einen wesentlichen Anteil am Ressourcenverbrauch einer Volkswirtschaft. Dieser Verbrauch erstreckt sich jedoch nicht nur auf das Inland, sondern findet durch die Produktion importierter Güter auch indirekt im Ausland statt. Der Indikator gibt daher Aufschluss über die globale Umweltinanspruchnahme durch Konsumaktivitäten privater Haushalte. Mit einer Minderung beispielsweise des Energieverbrauchs werden Ressourcen im In- und Ausland eingespart und klimaschädliche Kohlendioxidemissionen vermieden. Ziel der Bundesregierung ist es, die Umweltinanspruchnahme in Zusammenhang mit den Konsumaktivitäten privater Haushalte in allen drei Bereichen kontinuierlich zu reduzieren.</t>
         </is>
       </c>
-      <c r="I46" s="5" t="inlineStr">
+      <c r="I47" s="5" t="inlineStr">
         <is>
           <t>Through their spending habits, private households are responsible for a significant proportion of an economy’s consumption of resources. That consumption occurs not only within the country in question but also indirectly includes the consumption which is involved in the production of imported goods. The indicator therefore provides information about the impact being done to the environment on a global scale as a result of private household consumption. Reducing energy consumption, for example, will conserve resources both domestically and abroad and prevent environmentally harmful carbon dioxide emissions. The intention of the Federal Government is to continuously cut the environmental impact that occurs in connection with private household consumption in all three areas.</t>
         </is>
       </c>
-      <c r="J46" s="5" t="inlineStr">
+      <c r="J47" s="5" t="inlineStr">
         <is>
           <t>Das Konsumverhalten privater Haushalte hat verschiedene Auswirkungen auf die Umwelt, sowohl national als auch durch Spill-over-Effekte auf die Umwelt im Ausland. Der Indikator stellt für den inländischen Konsum drei der verantwortlichen Einflussfaktoren, nämlich den Rohstoffeinsatz, den Energieverbrauch und die CO2-Emissionen sowohl im In- als auch im Ausland dar. Die zugehörigen Daten werden in den Umweltökonomischen Gesamtrechnungen (UGR) aus verschiedenen amtlichen und nichtamtlichen Quellen errechnet.
 Ressourcen können direkt oder indirekt durch Haushalte konsumiert werden. Der Einsatz von Erdgas, etwa zum Heizen, oder von Kraftstoff im Straßenverkehr, aber auch der Verzehr von Nahrung zählen zum direkten Konsum. Zudem werden Ressourcen auch während des gesamten Herstellungsprozesses von Konsumgütern und ihres Transports im In- und Ausland in den Gütern gebunden oder verbraucht. Der Konsum erfolgt dann indirekt bei Erwerb und Nutzung dieser Güter durch inländische private Haushalte. Beide Arten des Konsums werden mit dem vorliegenden Indikator erfasst und für Rohstoffe, Energie und CO2 dargestellt.
@@ -4285,7 +4355,7 @@
 Dieser Indikator weist Querbezüge zum Indikator 8.1 „Gesamtrohstoffproduktivität“ auf.</t>
         </is>
       </c>
-      <c r="K46" s="5" t="inlineStr">
+      <c r="K47" s="5" t="inlineStr">
         <is>
           <t>The consumption behaviour of private households has different consequences for the environment of national and international countries, whereby latter is particularly affected by spill-over effects. This indicator reflects three of the factors behind this impact, namely energy consumption, CO2 emissions and the use of raw materials for Germany and foreign countries. The relevant data are collated in the environmental economic accounts of a range of governmental and non-governmental sources.
 Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.
@@ -4297,70 +4367,70 @@
 This indicator can be usefully cross-referenced with indicator 8.1 on “raw material input productivity”.</t>
         </is>
       </c>
-      <c r="L46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N46" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7">
+      <c r="L47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
         <v>45565</v>
       </c>
     </row>
-    <row outlineLevel="0" r="47">
-      <c r="A47" s="4" t="inlineStr">
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Z12_B02_P01</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>12.2</t>
         </is>
       </c>
-      <c r="D47" s="4" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>Umweltmanagement EMAS</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>EMAS eco-management</t>
         </is>
       </c>
-      <c r="F47" s="5" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Anzahl der in Deutschland für das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) registrierten Standorte sowohl deutscher als auch ausländischer Organisationen.</t>
         </is>
       </c>
-      <c r="G47" s="5" t="inlineStr">
+      <c r="G48" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of locations in Germany registered with EMAS, the Eco-Management and Audit Scheme, for German as well as foreign organisations.</t>
         </is>
       </c>
-      <c r="H47" s="5" t="inlineStr">
+      <c r="H48" s="5" t="inlineStr">
         <is>
           <t>Klimawandel, Energiewende und Ressourcenknappheit stellen Unternehmen vor neue Herausforderungen mit der Folge, dass sie ihre betriebswirtschaftlichen Abläufe, Strukturen und Produkte entsprechend umwelt- und ressourcenschonend gestalten müssen. Das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) bietet ein Konzept für einen systematischen betrieblichen Umweltschutz und ist mit dem Anspruch verbunden, die Umweltleistung des Organisationsstandortes stetig zu verbessern. Deshalb lautet das Ziel, bis zum Jahr 2030 insgesamt 5 000 Organisationsstandorte für das Umweltmanagement EMAS auszuweisen.</t>
         </is>
       </c>
-      <c r="I47" s="5" t="inlineStr">
+      <c r="I48" s="5" t="inlineStr">
         <is>
           <t>Climate change, the energy transition and scarcity of resources are presenting companies with new challenges that are forcing them to reconfigure their business processes, structures and products along environmentally responsible and resource-saving lines. EMAS offers a strategy for organisations to pursue systematic environmental protection, with the ultimate aim of steadily improving their locations’ environmental performance. The goal is therefore to identify a total of 5,000 organisation premises for registration with EMAS by 2030.</t>
         </is>
       </c>
-      <c r="J47" s="5" t="inlineStr">
+      <c r="J48" s="5" t="inlineStr">
         <is>
           <t>Das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) ist ein freiwilliges Instrument der Europäischen Union (EU), das Organisationen jeder Größe und Branche dabei unterstützt, ihre Umweltleistung kontinuierlich zu verbessern. Eine EMAS-Zertifizierung impliziert dabei nicht, dass eine Organisation oder ihre Produkte per se umweltfreundlicher als vergleichbare Organisationen bzw. Produkte ist bzw. sind. Mit EMAS ist eine Umweltberichtspflicht (sogenannte Umwelterklärung) verbunden. Diese beinhaltet die Berichterstattung zu den wesentlichen Umweltauswirkungen des betreffenden Unternehmens sowie die Datenbereitstellung zu den Themenfeldern Energie, Emissionen, Material, Wasser, Abfall und Flächenverbrauch bezüglich biologischer Vielfalt. Die Umwelterklärung muss von den Organisationen jährlich – seit 2010 von kleinen und mittleren Unternehmen auf Antrag zweijährlich – aktualisiert werden. Die öffentliche Umwelterklärung sowie weitere interne Dokumente werden von unabhängigen, staatlich zugelassenen Umweltgutachterinnen und Umweltgutachtern geprüft. Die Prüfung ist regelmäßig und dabei spätestens alle drei Jahre zu wiederholen. Organisationen, welche die Überprüfung erfolgreich bestehen und bei denen keine Umweltrechtsverstöße oder Beschwerden vorliegen, werden in das EMAS-Register eingetragen. Für die Qualitätssicherung ist der Umweltgutachterausschuss (UGA)&lt;sup&gt;1&lt;/sup&gt; zuständig. EMAS-Organisationen und -Standorte werden durch die zuständige Industrie- und Handelskammer (IHK) oder Handwerkskammer registriert und in einer öffentlich zugänglichen Datenbank beim Deutschen Industrie- und Handelskammertag (DIHK) gespeichert.
 Methodisch ist zu beachten, dass im EMAS-Register die Anzahl der Registrierungen abgebildet wird. Teilnehmenden Organisationen steht es frei, unter einer Organisationsregistrierung mehrere Standorte aufzunehmen (Sammelregistrierung) oder Standorte einzeln registrieren zu lassen. Einige Organisationen haben zum Teil auch ihre ausländischen Standorte in Deutschland registrieren lassen. Diese befinden sich ebenfalls im EMAS-Register, sind jedoch bei der hier ausgewiesenen Anzahl der EMAS-Standorte nicht enthalten.
@@ -4370,7 +4440,7 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Der Umweltgutachterausschuss (UGA) ist ein unabhängiges Beratungsgremium des Bundesministeriums für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz (BMUV).&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="K47" s="5" t="inlineStr">
+      <c r="K48" s="5" t="inlineStr">
         <is>
           <t>EMAS is a voluntary instrument of the European Union that helps organisations of any size and in any sector to continuously improve their environmental performance. Having EMAS certification does not automatically mean that organisations or their products are more environmentally friendly than comparable organisations and products. EMAS involves a reporting obligation requiring organisations to submit environmental statements. These statements include reporting on the main environmental impacts of the organisation in question as well as data pertaining to energy and material efficiency, emissions, water, waste and use of land/biodiversity. Organisations have to update their environmental statements annually, with the exception introduced in 2010 that small and medium-sized enterprises can apply to do so every two years instead. The environmental statement, which is public, and various additional internal documents are inspected by independent, licensed environmental verifiers. The verification must be repeated on a regular basis, no less than every three years. Organisations that pass the verification process and have no breaches of environmental regulations or complaints to answer for are added to the EMAS register. The German EMAS Advisory Board&lt;sup&gt;1&lt;/sup&gt; is responsible for quality assurance. EMAS organisations and locations are registered by the responsible chambers of industry and commerce and stored in a publicly accessible database at the Association of German Chambers of Commerce and Industry.
 In terms of methodology, it should be noted that the EMAS register shows the number of registrations. Participating organisations are free to include several locations under a single organisation registration (corporate registration) or to have their locations registered individually. Some organisations have had their sites abroad registered in Germany. These are present in the EMAS register, but they are not included in the number of EMAS locations recorded here.
@@ -4380,71 +4450,71 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;The EMAS Advisory Board is an independent advisory body of the Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="L47" s="4" t="inlineStr">
+      <c r="L48" s="4" t="inlineStr">
         <is>
           <t>12.6.1</t>
         </is>
       </c>
-      <c r="M47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N47" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N48" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Z12_B03_P01</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>12.3.a,b</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>Nachhaltige Beschaffung</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>Sustainable procurement</t>
         </is>
       </c>
-      <c r="F48" s="5" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren zeigen Nachhaltigkeit in der Beschaffung exemplarisch anhand der Teilbereiche Papier sowie CO2-Emissionen von Kraftfahrzeugen (Kfz). Beide Indikatoren werden als Indizes mit dem Basisjahr 2015 dargestellt.
 Der Indikator 12.3.a „Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung“ bildet den Anteil von Papier mit dem Umweltsiegel Blauer Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung ab. Dabei wird ab dem Berichtsjahr 2018 ausschließlich nichtfarbiges DIN-A4-Druck- und Kopierpapier erfasst.
 Der Indikator 12.3.b „CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand“ setzt die CO2-Emissionen ins Verhältnis zu den entsprechenden Fahrleistungen.</t>
         </is>
       </c>
-      <c r="G48" s="5" t="inlineStr">
+      <c r="G49" s="5" t="inlineStr">
         <is>
           <t>These indicators show sustainability in procurement through the examples of paper and the CO2 emissions of motor vehicles. Each is depicted as an index using 2015 as its base year.
 Indicator 12.3.a ”Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration” measures what proportion of total paper procured for the direct federal administration is certified with the Blue Angel ecolabel. Since reporting year 2018, only non-coloured A4-sized printer and copier paper is recorded.
 Indicator 12.3.b “CO2 emissions of publicity owned vehicles by distance travelled” shows the CO2 emissions of publicly owned vehicles in relation to the distances they travel.</t>
         </is>
       </c>
-      <c r="H48" s="5" t="inlineStr">
+      <c r="H49" s="5" t="inlineStr">
         <is>
           <t>Der Themenbereich „Nachhaltige Beschaffung“ ist sehr komplex. Hier werden exemplarisch produktspezifische Indikatoren betrachtet. Während für den Anteil von Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung ein Wert von 95 % bis zum Jahr 2020 anvisiert ist, soll das Verhältnis von CO2-Emissionen je Fahrleistungen zukünftig weiter sinken. Die öffentliche Hand hat einen wesentlichen Anteil an der Nachfrage von Produkten und Dienstleistungen. Die Ausrichtung der öffentlichen Beschaffung am Leitprinzip der Nachhaltigkeit und die Stärkung von Nachhaltigkeitskriterien bei der öffentlichen Beschaffung sollen daher als Hebel für die Steigerung des Angebots nachhaltiger Produkte wirken. Ziel der Bundesregierung ist es, Nachhaltigkeit in der öffentlichen Beschaffung generell zu stärken.</t>
         </is>
       </c>
-      <c r="I48" s="5" t="inlineStr">
+      <c r="I49" s="5" t="inlineStr">
         <is>
           <t>Sustainable procurement is a very complex topic. Product-specific indicators are examined here as examples. While the proportion of paper bearing the Blue Angel ecolabel is supposed to reach 95 % of the direct federal administration’s total paper use by 2020, the ratio of CO2 emissions to distance travelled is supposed to continue sinking. The public sector accounts for a considerable share of demand for products and services. It is therefore aimed that establishing sustainable development as a guiding principle of public procurement and reinforcing sustainability criteria within public procurement will serve as a lever to increase provision of sustainable products. The Federal Government’s aim is to strengthen sustainability across public procurement generally.</t>
         </is>
       </c>
-      <c r="J48" s="5" t="inlineStr">
+      <c r="J49" s="5" t="inlineStr">
         <is>
           <t>&lt;b&gt;&lt;i&gt;Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Die Daten für die Berechnung des Anteils von Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung werden durch das Monitoring des Maßnahmenprogramms Nachhaltigkeit erhoben, das vom Bundeskanzleramt durchgeführt und von der Kompetenzstelle für nachhaltige Beschaffung (KNB) beim Beschaffungsamt des BMI (BeschA) unterstützt wird. Der Blaue Engel ist ein Umweltzeichen für umweltschonende Produkte und Dienstleistungen. Bezogen auf Papier bedeutet dieses Siegel, dass die Papierfasern zu 100 Prozent aus Altpapier gewonnen werden und dass bei der Herstellung auf schädliche Chemikalien oder optische Aufheller verzichtet wird.
 Der Anteil des Papiers mit Blauem Engel ist von 2015 bis 2020 nach vorläufigen Daten um rund 113 % gestiegen. Im Jahr 2015 betrug der Anteil 45 % am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung und erreichte 2020 einen Wert von rund 96 %. Dies entspricht einer Zunahme um 112,9 % (Indexwert = 212,9). Somit folgt der Indikator der Zielsetzung des Maßnahmenprogramms Nachhaltigkeit, den Anteil des Einsatzes von Papier mit dem Blauen Engel auf 95 % bis 2020 zu steigern. Der Gesamtpapierverbrauch sank im Jahr 2020 im Vergleich zum Vorjahr um 14,1 % (von rund 993 Millionen auf rund 852 Millionen Blatt Papier). Für den Zeitraum zwischen 2015 und 2020 betrug die Reduktion des Gesamtpapierverbrauchs insgesamt 33,4 %.
@@ -4458,7 +4528,7 @@
 Der hier betrachtete Indikator bezieht sich ausschließlich auf den Umweltaspekt der Nachhaltigkeit. Zudem werden nur diejenigen CO2-Emissionen berücksichtigt, die im B</t>
         </is>
       </c>
-      <c r="K48" s="5" t="inlineStr">
+      <c r="K49" s="5" t="inlineStr">
         <is>
           <t>&lt;b&gt;&lt;i&gt;Paper with Blue Angel certification as a proportion of the direct federal administration’s total paper consumption&lt;/i&gt;&lt;/b&gt;
 The data used to calculate the proportion of Blue Angel-certified paper in the direct federal administration’s total paper consumption are collated through the monitoring of the Programme of Sustainability Measures being conducted by the Federal Chancellery and supported by the Centre of Excellence for Sustainable Procurement at the Procurement Office of the Federal Ministry of the Interior. The Blue Angel is an ecolabel for environmentally friendly products and services. When awarded to paper, it means that 100 % of the paper fibres were recovered from wastepaper and that no harmful chemicals or bleaching agents were used in the production process.
@@ -4474,69 +4544,69 @@
 The indicator under consideration here relates only to the environmental aspect of sustainability. Moreover, it only covers the CO2 emissions released during the vehicles’ operation. Looking at their entire life-cycle costs, there are more greenhouse-gas emissions, occurring during the processes</t>
         </is>
       </c>
-      <c r="L48" s="4" t="inlineStr">
+      <c r="L49" s="4" t="inlineStr">
         <is>
           <t>12.7.1</t>
         </is>
       </c>
-      <c r="M48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N48" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N49" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Z13_B01_P01</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>13.1.a</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>Treibhausgasemissionen</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas emissions</t>
         </is>
       </c>
-      <c r="F49" s="5" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Index der Emissionen folgender Treibhausgase (Stoffe oder Stoffgruppen, in CO2-Äquivalenten): Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC), perfluorierte Kohlenwasserstoffe (FKW/PFC) sowie Schwefelhexafluorid (SF6).</t>
         </is>
       </c>
-      <c r="G49" s="5" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the index of emissions of the following greenhouse gases (substances or substance groups) in CO2 equivalents: carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), nitrogen trifluoride (NF3), hydrofluorocarbons (H-FKW/HFC), perfluorocarbons (FKW/PFC) and sulphur hexafluoride (SF6).</t>
         </is>
       </c>
-      <c r="H49" s="5" t="inlineStr">
+      <c r="H50" s="5" t="inlineStr">
         <is>
           <t>Die globale Durchschnittstemperatur auf der Erdoberfläche steigt aufgrund der zunehmenden Konzentration von Kohlendioxid (CO2) und anderen Treibhausgasen (THG) in der Atmosphäre kontinuierlich an. Ziel der Bundesregierung ist es daher, bis zum Jahr 2030 die Treibhausgasemissionen in Deutschland um mindestens 65 % und bis zum Jahr 2040 um mindestens 88 % gegenüber 1990 zu senken. Das Ziel bis zum Jahr 2020 war eine Reduktion der Treibhausgasemissionen um 40 %. Bis zum Jahr 2045 soll die Treibhausgasneutralität erreicht werden.&lt;sup&gt;1&lt;/sup&gt;
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung der Zielwerte von mindestens 55 % bis 2030 gegenüber 1990 und Erreichung der Treibhausgasneutralität bis 2050 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="I49" s="5" t="inlineStr">
+      <c r="I50" s="5" t="inlineStr">
         <is>
           <t>The global average temperature on the surface of the Earth is continuously rising due to the increasing concentration of carbon dioxide and other greenhouse gases in the atmosphere. The Federal Government therefore aims to lower greenhouse gas emissions in Germany by at least 65 % by 2030 and by at least 88 % by 2040 compared with 1990. The target was to achieve a reduction of greenhouse gas emissions at 40 % by 2020. The intention is to achieve greenhouse gas neutrality by 2045&lt;sup&gt;1&lt;/sup&gt;.
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target values of at least 55 % by 2030 compared to 1990 level and achievement of greenhouse gas neutrality by 2050 according to policy resolution 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="J49" s="5" t="inlineStr">
+      <c r="J50" s="5" t="inlineStr">
         <is>
           <t>Die kurzwelligen Sonnenstrahlen werden von den verschiedenen Treibhausgasen (THG) in der Atmosphäre transmittiert und von der Erdoberfläche als langwellige Wärmestrahlung reflektiert. Die THG absorbieren und emittieren die von der Erde ausgehende Infrarotstrahlung in unterschiedlichen Wellenbereichen, mit unterschiedlicher Intensität und haben eine unterschiedliche Verweilzeit in der Atmosphäre. Daher tragen die Konzentrationen der einzelnen THG in unterschiedlichem Maße zum Treibhauseffekt bei. Um die Wirkung der Emissionen von verschiedenen THG dennoch vergleichen und zusammenfassen zu können, wird versucht ihre Wirkung auf die globale Erwärmung mittels „CO2-Äquivalenten“ zu beziffern. Durch die Zusammenfassung sind jedoch die Entwicklungen der THG im Einzelnen nicht ersichtlich, da die negative Entwicklung des einen THG durch die positive Entwicklung eines anderen THG überlagert werden kann.
 Die Daten werden jährlich durch das Umweltbundesamt (UBA) im Rahmen der Berichterstattung unter der Klimarahmenkonvention der Vereinten Nationen (UNFCCC: United Nations Framework Convention on Climate Change) dem Pariser Übereinkommen&lt;sup&gt;1&lt;/sup&gt; und dem Bundes-Klimaschutzgesetz (KSG) zur Verfügung gestellt. Die Emissionsermittlung und -berichterstattung unterliegt einem umfassenden Qualitätsmanagement.
@@ -4547,7 +4617,7 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt; Das Kyoto-Protokoll ist Ende 2020 abgelaufen. Für die Zeit nach 2020 einigten sich die Vertragsparteien der Klimarahmenkonvention auf ein neues Abkommen, das Pariser Übereinkommen, das das Kyoto-Protokoll ersetzt.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="K49" s="5" t="inlineStr">
+      <c r="K50" s="5" t="inlineStr">
         <is>
           <t>Short-wavelength sun rays are transmitted by various atmospheric greenhouse gases and reflected by the earth’s surface as long-wavelength thermal radiation. Greenhouse gases absorb and emit infrared radiation from the earth in different wave ranges with varying intensity, and have different residence time in the atmosphere. Hence, the effects of greenhouse gases are subject to their concentration in the atmosphere and contribute to a variable extent to the greenhouse effect. To summarise the various greenhouse gases into a single index, they are each expressed in “CO2 equivalents”, which means that they are converted into the quantity of CO2 that would have a comparable impact on global warming. Because of cumulation, however, the development of the individual greenhouse gases cannot be determined. A negative development of one greenhouse gas can for instance be concealed by a positive development of another greenhouse gas.
 The data is provided annually by the German Environment Agency as part of the reporting required under the United Nations Framework Convention on Climate Change (UNFCCC), the Paris Agreement&lt;sup&gt;1&lt;/sup&gt; and the Federal Climate Change Act. The measuring and reporting of emissions is subject to a comprehensive quality-management regime.
@@ -4558,77 +4628,77 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Kyoto Protocol has expired at the end of 2020. From 2020 on, contracting parties of the UNFCCC committed to the Paris Agreement in lieu of the Kyoto Protocol.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="L49" s="4" t="inlineStr">
+      <c r="L50" s="4" t="inlineStr">
         <is>
           <t>13.2.2</t>
         </is>
       </c>
-      <c r="M49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N49" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7">
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
         <v>45603</v>
       </c>
     </row>
-    <row outlineLevel="0" r="50">
-      <c r="A50" s="4" t="inlineStr">
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Z13_B01_P02</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>13.1.b</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
         <is>
           <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
-      <c r="F50" s="5" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>Der Indikator umfasst die Finanzierung von Maßnahmen zur Reduktion von Treibhausgasen (THG), zur Anpassung an den Klimawandel sowie klimarelevante Maßnahmen zum Erhalt der Biodiversität und zum Waldschutz (Projekte zum Schutz, zu nachhaltiger Nutzung und Wiederaufforstung von Wald im Rahmen des REDD+-Regelwerks). Die Maßnahmen erfolgen vorrangig in Entwicklungs- und Schwellenländern und werden aus deutschen Haushaltsmitteln (seit 2017 einschließlich der Schenkungsäquivalente von Entwicklungskrediten) finanziert.</t>
         </is>
       </c>
-      <c r="G50" s="5" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>This indicator covers the financing of measures to reduce greenhouse gases, adapt to climate change and/or take climate-related action to preserve biodiversity and protect forests (specifically, projects for the conservation and sustainable management of forests as well as reforestation within the REDD+ framework). The measures chiefly take place in developing and emerging countries and are financed using German budget funds (including grant elements of development loans since 2017).</t>
         </is>
       </c>
-      <c r="H50" s="5" t="inlineStr">
+      <c r="H51" s="5" t="inlineStr">
         <is>
           <t>Absicht der Bundesregierung ist es, ihre internationale Klimafinanzierung bis 2025 auf sechs Milliarden Euro&lt;sup&gt;1&lt;/sup&gt; aus Haushaltsmitteln zu erhöhen und somit den Sollwert von zwei Milliarden Euro des Jahres 2014 zu verdreifachen. In den Entscheidungen, welche das Klimaabkommen von Paris begleiteten, wurde die Zusage der Industrieländer von 2009 bekräftigt, ab dem Jahr 2020 bis 2025 gemeinsam 100 Milliarden US-Dollar aus öffentlichen und durch öffentliche Mittel mobilisierten privaten Quellen für den Klimaschutz und die Anpassung an den Klimawandel in Entwicklungsländern bereitzustellen.
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung des Zieljahres und -wertes von vier Milliarden Euro bis 2020 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="I50" s="5" t="inlineStr">
+      <c r="I51" s="5" t="inlineStr">
         <is>
           <t>The Federal Government’s aim is to raise its contribution to international climate finance to 6 billion euros&lt;sup&gt;1&lt;/sup&gt; from public funds and grant elements of development loans by 2025, thereby trebling the target value for 2014, which was 2 billion euros. In the decisions contained in the Addendum to the Paris Agreement, the industrialised countries reaffirmed their 2009 commitment to collectively provide 100 billion US-dollar from public funds and from private sources mobilised by public funds, every year from 2020 to 2025, for mitigation and adaptation to climate change in developing countries.
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target year and target value from 4 billion euros by 2020 according to policy resolution 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="J50" s="5" t="inlineStr">
+      <c r="J51" s="5" t="inlineStr">
         <is>
           <t>Die Daten des Indikators sind der Berichterstattung zur EU-Verordnung über ein System für die Überwachung von Treibhausgasen (THG) entnommen. Datenquelle der jährlich erhobenen Daten ist das Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ), das in diesem Kontext auch über die Klimafinanzierung anderer Bundesministerien berichtet. Dabei werden für die Berechnung der Ausgaben für bilaterale Klimafinanzierung die Zusagen, für multilaterale Klimafinanzierung sowie für Beiträge zu Energie- und Klimafonds die tatsächlichen Auszahlungen zugrunde gelegt. Der Indikator beinhaltet darüber hinaus die anteilig zuzurechnende Klimafinanzierung, welche sich aus deren Beiträgen zu multilateralen Fonds bei Entwicklungsbanken ergibt. Sofern die Klimafinanzierung schwerpunktmäßig Entwicklungsländern zugutekommt, ist sie Teil der öffentlichen Entwicklungsausgaben (siehe Indikator 17.1 „Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen“).&lt;br&gt;Im Jahr 2021 wurden aus deutschen Haushaltsmitteln 5,34 Milliarden Euro für die internationale Klimafinanzierung zur Reduzierung von Treibhausgasen und zur Anpassung an den Klimawandel zugesagt bzw. bereitgestellt. Im Vergleich zum Vorjahr, in dem die Klimafinanzierung 5,09 Milliarden Euro betrug, ist ein Anstieg um 4,9 % zu verzeichnen. Das Ziel des Indikators von sechs Milliarden Euro bis zum Jahr 2025 wird bei Fortführung der bisherigen Entwicklung voraussichtlich erreicht. Das ursprüngliche Ziel – von vier Milliarden Euro bis zum Jahr 2020 – wurde bereits 2019 mit Zahlungen in Höhe von 4,34 Milliarden Euro erreicht. 36 % der Klimafinanzierungsmittel flossen 2021 in die Emissionsminderung und 33 % in die Anpassung an den Klimawandel. Mit den verbleibenden 30 % wurden bereichsübergreifende Projekte finanziert. Da die bereichsübergreifenden Projekte gleichermaßen minderungs- als auch anpassungsrelevant sind, ergibt sich nach Aufteilung dieser, dass – wie in den Jahren zuvor – auch 2021 mehr Mittel für Minderungsvorhaben (51 %) als für Anpassungsvorhaben (49 %) aufgewendet wurden.&lt;br&gt;Über multilaterale Kanäle wurden 18 % (971 Millionen Euro) der Klimafinanzierung im Jahr 2021 bereitgestellt. Davon können Deutschland 268 Millionen Euro auf Basis der klimarelevanten Anteile der deutschen Beiträge zu den multilateralen Entwicklungsbanken, der Globalen Umweltfazilität und dem Internationalen Fonds für landwirtschaftliche Entwicklung zugerechnet werden. Die verbleibenden 703 Millionen Euro stellt Deutschland über multilaterale Einrichtungen und Beiträge für internationale Klimafonds bereit.&lt;br&gt;Neben der öffentlichen Klimafinanzierung aus Haushaltsmitteln stellen die Kreditanstalt für Wiederaufbau (KfW) und die Deutsche Entwicklungsgesellschaft (DEG) ebenfalls klimabezogene Kredite und andere Finanzierungen aus Marktmitteln bereit. Diese stellen die „mobilisierte öffentliche Klimafinanzierung“ dar und sind nicht im Indikator enthalten. Im Jahr 2021 umfassten die so mobilisierten Ressourcen rund 2,59 Milliarden Euro im Vergleich zu 2,55 Milliarden Euro aus dem Vorjahr. Auch hier wurden mehr Mittel für Minderungsvorhaben (58 %) als für Anpassungsvorhaben (42 %) aufgewendet.</t>
         </is>
       </c>
-      <c r="K50" s="5" t="inlineStr">
+      <c r="K51" s="5" t="inlineStr">
         <is>
           <t>The data for this indicator is derived from reporting carried out under the EU Regulation on a mechanism for monitoring greenhouse gases. The source of the annually collected data is the Federal Ministry for Economic Cooperation and Development, which also reports in this context on climate finance from other federal ministries. In the case of bilateral climate finance, expenditure is calculated on the basis of funds allocated; in the case of multilateral climate finance and contributions to energy and climate funds, it is calculated on the basis of funds actually paid. The indicator also includes climate finance that is attributed to donors pro rata on the basis of their contributions to multilateral funds managed by development banks. As climate finance primarily benefits developing countries, it is considered to be part of official development expenditure (see indicator 17.1 “Official development assistance as a proportion of gross national income”).
 In 2021, Germany committed or provided 5.34 billion euros in public funds for international climate finance for the reduction of greenhouse gases and adaptation to climate change. Compared with the previous year, when climate finance amounted to 5.09 billion euros, this represents an increase of 4.9 %. The target for 2025 – to reach 6 billion euros – will most likely be achieved if the development continues. The previous target – to reach 4 billion euros by 2020 – was already achieved in 2019 at 4.34 billion euros. In 2021, 36 % of climate finance went to fund projects to reduce emissions, while 33 % went towards adaptation to climate change. The remaining 30 % was used to finance horizontal measures. As the horizontal measures serve both the reduction and adaptation efforts, the final split in 2021, as in previous years, shows more funds being used for emissions reduction (51 %) than for adaptation (49 %).
@@ -4636,77 +4706,77 @@
 In addition to official climate finance from public funds, Kreditanstalt für Wiederaufbau (KfW) and DEG (Deutsche Investitions- und Entwicklungsgesellschaft) also provide climate-related loans with funds from the market. These represent mobilised public climate finance and are not included in the indicator. In 2021, the resources mobilised in this way amounted to approximately 2.59 billion euros, compared with 2.55 billion euros the previous year. Here too, more funding went towards emissions reduction (58 %) than adaptation (42 %).</t>
         </is>
       </c>
-      <c r="L50" s="4" t="inlineStr">
+      <c r="L51" s="4" t="inlineStr">
         <is>
           <t>13.a.1</t>
         </is>
       </c>
-      <c r="M50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N50" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7">
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
         <v>45562</v>
       </c>
     </row>
-    <row outlineLevel="0" r="51">
-      <c r="A51" s="4" t="inlineStr">
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>14.1.a</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>Stickstoffeintrag über die Zuflüsse in die Nord- und Ostsee</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>Nitrogen input via the inflows into the North and Baltic Seas</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren geben den gleitenden, abflussgewichteten Durchschnitt der letzten fünf Jahre der Stickstoffkonzentrationen in Milligramm (mg) Stickstoff pro Liter (l) Wasserabfluss von Flüssen in die Nord- und Ostsee an.&lt;sup&gt;1&lt;/sup&gt;
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Für die Nordsee sind dies die Flüsse Eider, Elbe, Ems, Weser, Rhein, Treene, Aarlau, Bongsieler Kanal und Miele. Für die Ostsee sind dies die Peene, Trave, Warnow, Langballigau, Füsinger Au, Koseler Au, Schwentine, Kossau, Goddesdorfer Au, Oldenburger Graben, Aalbeck, Schwartau, Lippingau, Hagener Au, Barthe, Duvenbaek, Hellbach, Maurine, Recknitz, Ryck, Stepenitz, Uecker, Wallensteingraben und Zarow.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="G51" s="5" t="inlineStr">
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t>The indicators show the moving discharge-weighted five-year average of nitrogen concentrations in milligrams (mg) of nitrogen per litre (l) of water discharged from rivers into the North Sea and the Baltic Sea.&lt;sup&gt;1&lt;/sup&gt;
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Regarding the North Sea, these are the following rivers: Eider, Elbe, Ems, Weser, Rhein, Treene, Aarlau, Bongsieler Kanal and Miele. As far as the Baltic Sea is concerned, these are the following rivers: Peene, Trave, Warnow, Langballigau, Füsinger Au, Koseler Au, Schwentine, Kossau, Goddesdorfer Au, Oldenburger Graben, Aalbeck, Schwartau, Lippingau, Hagener Au, Barthe, Duvenbaek, Hellbach, Maurine, Recknitz, Ryck, Stepenitz, Uecker, Wallensteingraben and Zarow.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="H51" s="5" t="inlineStr">
+      <c r="H52" s="5" t="inlineStr">
         <is>
           <t>Hohe Konzentrationen von Stickstoff in den Meeren können zu Eutrophierungseffekten wie Sauerstoffmangel und dadurch zum Verlust an Biodiversität und zur Zerstörung von Fisch-Aufzugsgebieten führen. Daher soll der Eintrag von Stickstoff unter 2,8 mg Stickstoff pro Liter Abfluss für die in die Nordsee einmündenden Flüsse und unter 2,6 mg Stickstoff pro Liter für die in die Ostsee einmündenden Flüsse liegen. Dies entspricht den im Rahmen der Umsetzung der Wasserrahmenrichtlinie (WRRL) vereinbarten Bewirtschaftungszielen der Oberflächengewässerverordnung (OGewV) sowie den Zielen der Meeresstrategie-Rahmenrichtlinie (MSRL) und des Ostseeaktionsplans.</t>
         </is>
       </c>
-      <c r="I51" s="5" t="inlineStr">
+      <c r="I52" s="5" t="inlineStr">
         <is>
           <t>High concentrations of nitrogen in the seas can lead to eutrophication effects such as oxygen depletion, the loss of biodiversity and to the destruction of fish spawning grounds. Therefore, the input of nitrogen should stay below 2.8 mg nitrogen per litre discharge for the rivers flowing into the North Sea and below 2.6 mg/l for the rivers flowing into the Baltic Sea. This aligns with the management targets of the Ordinance on the Protection of Surface Waters (OGewV), which were agreed in implementation of the Water Framework Directive, as well as with those of the Marine Strategy Framework Directive and the Baltic Sea Action Plan.</t>
         </is>
       </c>
-      <c r="J51" s="5" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>Eine Hauptursache für den Stickstoffeintrag über die Zuflüsse in Nord- und Ostsee ist der Stickstoffüberschuss in der Landwirtschaft, der in Indikator 2.1.a gemessen wird. Neben Stickstoff führt auch Phosphor zur Eutrophierung. Die Phosphorbelastung der Flüsse wird in Indikator 6.1.a separat betrachtet.&lt;br&gt;Berechnungsgrundlage für diesen Indikator bilden einerseits Messdaten zu Stickstoffkonzentrationen, andererseits Messdaten zum Wasserabfluss kleiner und großer Nord- und Ostseezuflüsse, die das Umweltbundesamt (UBA) nach Angaben der Bundesländer bzw. Flussgebietsgemeinschaften zusammenstellt. Dabei werden auch kleinere Flüsse berücksichtigt, die nicht direkt in die Nord- bzw. Ostsee, sondern in einen größeren Fluss münden. Hier sind die Messstellen so gewählt, dass jeweils die Daten der letzten Messstellen vor dem Zusammenfließen beider Flüsse berücksichtigt werden. Berücksichtigt wird darüber hinaus auch der Rhein, der nicht in Deutschland mündet. Hier werden die Werte an dem Punkt gemessen, wo der Rhein Deutschland verlässt (Messstelle bei Kleve, Ortsteil Bimmen).&lt;br&gt;Die Stickstoffkonzentrationen der einzelnen Flüsse werden abflussgewichtet gemittelt, sodass große Flüsse mit großen Wasserabflussmengen den Durchschnitt stärker beeinflussen als kleine Flüsse. Damit einzelne Extremereignisse wie Hochwasser oder Dürre, die punktuell zu sehr hohen oder sehr niedrigen Stickstoffeinträgen führen, die Darstellung der Entwicklung nicht verzerren, werden die Werte als gleitender Fünfjahresdurchschnitt betrachtet.&lt;br&gt;Die abflussgewichtete Stickstoffkonzentration über alle Nord- und Ostseezuflüsse zeigt seit Beginn der Zeitreihe einen abnehmenden Trend, wobei der Rückgang der Konzentrationen in der Nordsee ausgeprägter als in der Ostsee ist. Im Mittel 2016 bis 2020 wiesen die Nordseezuflüsse eine Konzentration von 2,8 mg/l auf und erreichten damit gemeinsam erstmals den Zielwert. Die Zuflüsse der Ostsee erreichten im gleichen Zeitraum eine Konzentration von 3,1 mg/l und lagen damit deutlich über der Obergrenze von 2,6 mg/l.&lt;br&gt;Im Unterschied zum aggregierten Indikator 14.1.a „Stickstoffeintrag über die Zuflüsse in Nord- und Ostsee“ ist es zum Erreichen eines guten Zustandes gemäß der OGewV jedoch erforderlich, dass jeder einzelne Fluss den Bewirtschaftungszielwert einhält. Dies wird derzeit weder für die Nord- noch für die Ostsee erreicht.&lt;br&gt;Von den großen Ostseezuflüssen Peene, Trave und Warnow erreichte nur die Warnow 2016 bis 2020 den Bewirtschaftungszielwert. Für Peene und Trave zeigte sich jedoch ein leichter Rückgang der Fünfjahresdurchschnitte der Konzentrationen von 0,1 mg/l. Bei den kleinen Ostseezuflüssen lagen die Stickstoffkonzentrationen im Fünfjahresdurchschnitt mit bis zu 5,9 mg/l teilweise noch um ein Vielfaches über dem Bewirtschaftungszielwert, der nur von einem Viertel der kleinen Flüsse erreicht wurde.&lt;br&gt;Bei den Nordseezuflüssen erreichte 2016 bis 2020 nur der Rhein den Bewirtschaftungszielwert und war daher hauptverantwortlich für das gemeinsame, abflussgewichtete Erreichen des Zielwerts. Mit Ausnahme der Elbe waren die Fünfjahresdurchschnitte der Konzentrationen für alle großen Nordseezuflüsse (Ems, Weser, Rhein und Eider) mit Abnahmen von 0,1 bis 0,2 mg/l rückläufig. Bei den kleinen Nordseezuflüssen lagen die Stickstoffkonzentrationen im Fünfjahresdurchschnitt im Zeitraum 2016 bis 2020 zwischen 2,6 bis 3,5 mg/l und wiesen auch hier einen leichten Rückgang auf.</t>
         </is>
       </c>
-      <c r="K51" s="5" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>One of the main causes of nitrogen inputs reaching the North and Baltic Seas via inflows is nitrogen surplus in agriculture, which is measured in indicator 2.1.a. Like nitrogen, phosphorus also leads to eutrophication. Phosphorus pollution in rivers is examined separately in indicator 6.1.a.
 The calculations for this indicator use monitoring data on nitrogen concentrations and on the discharge volumes of small and major rivers flowing into the North and Baltic Seas, which the German Environment Agency collates as reported by the Länder and by river basin commissions. Data is also included for smaller rivers which do not flow directly into the North or Baltic Sea but are tributaries to larger rivers. In these cases, the data for each river are taken from its last monitoring site before the confluence. The Rhine is also included in the figures, even though its estuary is not in Germany. The data for the Rhine were recorded at the point where it leaves Germany (monitoring site at Bimmen, Kleve).
@@ -4717,73 +4787,73 @@
 Of the North Sea inflows, only the Rhine met the management target in the period 2016 to 2020, and, hence, was mainly responsible for the joint achievement of the weighted for discharge volume target value. The five-year averages of nitrogen concentrations decreased for all major North Sea inflows (Ems, Weser, Rhein and Eider) by 0.1 to 0.2 mg/l, except for the Elbe. A slight decline was also measured by the five-year averages of nitrogen concentrations for the small North Sea inflows. Accordingly, the values were between 2.6 mg/l and 3.5 mg/l in the period from 2016-2020.</t>
         </is>
       </c>
-      <c r="L51" s="4" t="inlineStr">
+      <c r="L52" s="4" t="inlineStr">
         <is>
           <t>14.1.1</t>
         </is>
       </c>
-      <c r="M51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N51" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N52" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>14.1.b</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil der nachhaltig bewirtschafteten Fischbestände an der Zahl der gesamten bewirtschafteten Fischbestände in Nord- und Ostsee an. Dies erfolgt nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz), dem Ansatz des höchstmöglichen Dauerertrags.</t>
         </is>
       </c>
-      <c r="G52" s="5" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the sustainably managed fish stocks (according to the Maximum Sustainable Yield [MSY] approach) as a proportion of the total of managed fish stocks in the North and the Baltic Sea.</t>
         </is>
       </c>
-      <c r="H52" s="5" t="inlineStr">
+      <c r="H53" s="5" t="inlineStr">
         <is>
           <t>Die biologische Vielfalt ist die Grundlage für das Leben der Menschen. Nur wenn das Naturkapital – etwa in Form von Fischbeständen in Nord- und Ostsee – geschützt und erhalten wird, kann es auch künftigen Generationen lebenswichtige Ökosystemleistungen erbringen.&lt;br&gt;Das Ziel des Indikators ist es, den Erreichungsgrad des in der Verordnung über die Gemeinsame Fischereipolitik festgelegten Ziels zu beschreiben, nach dem bis 2020 alle wirtschaftlich genutzten Fischbestände nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz) nachhaltig zu bewirtschaften sind.</t>
         </is>
       </c>
-      <c r="I52" s="5" t="inlineStr">
+      <c r="I53" s="5" t="inlineStr">
         <is>
           <t>Biological diversity is fundamental to all human life. Only if the natural capital – for example, in the form of fish stocks in the North and the Baltic Sea – is protected and preserved it can also provide future generations with critical ecosystem services.
 The target of the indicator is to describe the extent to which the goal defined in the Regulation on the Common Fisheries Policy has been achieved. The goal states that all fish stocks used for economic purposes have to be sustainably managed in accordance with the MSY approach by 2020.</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J53" s="5" t="inlineStr">
         <is>
           <t>Nicht alle Fischbestände werden in Bezug auf ihre nachhaltige Bewirtschaftung untersucht. Daher ist die Zahl der Fischbestände, die nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz) nachhaltig bewirtschaftet werden, auch immer in Relation zu den Fischbeständen insgesamt zu sehen. Eine Ausweitung der Untersuchungen auf möglichst viele Bestände wird zwar angestrebt, bedingt durch die hohen Kosten dieser Untersuchungen ist aber davon auszugehen, dass eine Erfassung sämtlicher, auch ökonomisch wenig relevanter bzw. wenig befischter Bestände nicht realistisch ist. Wirtschaftlich genutzt werden nach derzeitigen Schätzungen in der Nordsee 58 und in der Ostsee 20 Fischbestände. Die Zahl der nach dem MSY-Ansatz untersuchten Bestände beträgt momentan für die Ostsee acht; für die Nordsee werden derzeit 22 Bestände berücksichtigt. Damit wird nur gut ein Drittel aller bewirtschafteten Bestände vollständig analytisch auf nachhaltige Bewirtschaftung untersucht. Alle anderen Bestände, für die nicht ausreichend Daten zur Verfügung stehen, um sie nach der MSY-Methode zu untersuchen, bleiben bei diesem Indikator unberücksichtigt.&lt;br&gt;Ein Bestand gilt dann als „nachhaltig bewirtschaftet“, wenn die tatsächliche Fangmenge pro Jahr und Fischbestand die auf dem MSY-Ansatz basierende, wissenschaftlich empfohlene Menge nicht überschreitet bzw. den Vorgaben eines langfristigen Managementplanes, der dem MSY-Ansatz folgend als nachhaltig bewertet ist, entspricht. Als „Fischbestand“ wird dabei eine sich eigenständig reproduzierende Population einer Fischart bezeichnet. Eine spezifische Art kann somit mehrere Bestände und je nach Bestand auch unterschiedliche Richtwerte für die Fangmenge aufweisen. In der Regel wird jedem Bestand, entsprechend seiner vorherigen Entwicklung, ein Richtwert zugewiesen.&lt;br&gt;Die Richtwerte für die bewirtschafteten Bestände werden durch den Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea) berechnet. Die Datenerhebung zur Berechnung des Indikators deckt die gesamte Nord- und Ostsee ab. Eine Abgrenzung der Werte für deutsche Territorialgewässer und die deutsche ausschließliche Wirtschaftszone ist dementsprechend nicht möglich.&lt;br&gt;Die jährliche Berechnung der nachhaltigen Fangmengen nach dem MSY-Ansatz basiert auf stochastischen Vorhersagen, die auf Berechnungen zur historischen Bestandsentwicklung aufsetzen. Informationen zu angelandeten Fischmengen basieren auf gemeldeten Fängen. Daraus gezogene Stichproben geben Aufschluss über die demografischen Parameter des Bestandes, etwa Alter und Größe. Als weitere wichtige Informationsquelle für den Zustand von Beständen dienen fischereiunabhängige, wissenschaftliche Erhebungen auf Forschungsschiffen. Die Zeitreihe wird jährlich neu geschätzt und die betrachteten Fischarten gegebenenfalls für die gesamte Zeitreihe aktualisiert, wodurch sich auch die Indikatorwerte vergangener Jahre ändern können.&lt;br&gt;Der Anteil der nachhaltig befischten Bestände an der Zahl der nach dem MSY-Ansatz untersuchten Bestände belief sich im Jahr 2020 für Nord- und Ostsee insgesamt auf 60,0 %. Für die Nordsee betrug dieser Anteil 59,1 % und für die Ostsee 62,5 %. Betrachtet man die Entwicklung zwischen den Jahren 2015 und 2020, ist der Verlauf insgesamt positiv. Das Ziel, dass alle wirtschaftlich genutzten Fischbestände nach dem MSY-Ansatz nachhaltig bis 2020 bewirtschaftet werden, konnte nicht erreicht werden.&lt;br&gt;Die Einschätzung des Indikators gestaltet sich schwierig, da er neben der Entwicklung der Bestände selbst auch durch die Auswahl der zu betrachtenden Bestände beeinflusst wird. So kann die Bemessungsgrundlage jedes Jahr variieren, was einen Vergleich der einzelnen Jahre untereinander erschwert. Zusätzlich gelten die empfohlenen Fangmengen staatenübergreifend und können nur indirekt durch die Bemühungen eines einzelnen Staates erfüllt werden.</t>
         </is>
       </c>
-      <c r="K52" s="5" t="inlineStr">
+      <c r="K53" s="5" t="inlineStr">
         <is>
           <t>Not all fish stocks are examined with reference to their sustainable management. Therefore, the number of fish stocks that are sustainably managed based on the MSY approach should always be viewed in relation to overall fish stocks. Although an expansion of the investigation to include as many stocks as possible is desirable, the high cost of these investigations means that the prospect of recording all stocks, even those that are economically less relevant and less fished, is unrealistic. Based on current estimates, a total of 58 fish stocks in the North Sea and 20 stocks in the Baltic Sea are used for economic purposes. The number of stocks examined using the MSY approach is currently eight in the Baltic Sea and 22 in the North Sea. This means that only a third of all managed stocks are fully analysed with respect to sustainable management. All other stocks for which the data available are not sufficient for analysis according to the MSY method are not included in this indicator.
 A stock is considered to be “sustainably managed” if the actual amount of fish caught per year and the fish stock do not exceed the scientifically recommended amount based on the MSY approach, or if they comply with the requirements of a long-term management plan assessed as sustainable according to the MSY approach. In this context, a “fish stock“ is defined as an independently reproducing population of a specific species of fish. A specific species can therefore have multiple stocks and, depending on the stock, can also have different guideline values regarding the amount of fish caught. As a rule, each stock is assigned a guideline value according to its previous development.
@@ -4793,67 +4863,67 @@
 It is difficult to assess the indicator because it is influenced in addition to the development of the stocks, also by the selection of stocks to be considered. Thus, the basis of assessment can vary from year to year, which makes it difficult to compare the results of individual years. In addition, the recommended amounts of fish caught apply across countries and therefore can only be fulfilled indirectly by the efforts of a single country alone.</t>
         </is>
       </c>
-      <c r="L52" s="4" t="inlineStr">
+      <c r="L53" s="4" t="inlineStr">
         <is>
           <t>14.4.1</t>
         </is>
       </c>
-      <c r="M52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N52" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N53" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Z15_B01_P01</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>15.1</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t>Biodiversity and landscape quality</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Bestandsentwicklung für 51 ausgewählte Vogelarten in Form eines Index.</t>
         </is>
       </c>
-      <c r="G53" s="5" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the population development for 51 selected bird species in the form of an index.</t>
         </is>
       </c>
-      <c r="H53" s="5" t="inlineStr">
+      <c r="H54" s="5" t="inlineStr">
         <is>
           <t>Eine große Artenvielfalt an Tieren und Pflanzen ist eine wesentliche Voraussetzung für einen leistungsfähigen Naturhaushalt und bildet eine wichtige Lebensgrundlage des Menschen. Um die Artenvielfalt und gleichzeitig die Lebensqualität des Menschen zu erhalten, ist das vorläufige Ziel der Bundesregierung ein Indexwert von 100 bis zum Jahr 2030 – ursprünglich sollte dieser Zielwert bereits bis 2015 erreicht werden. Derzeit wird der Indikator auf Basis neuer Erkenntnisse überarbeitet und zukünftig in angepasster Form für die Berichterstattung verwendet werden.</t>
         </is>
       </c>
-      <c r="I53" s="5" t="inlineStr">
+      <c r="I54" s="5" t="inlineStr">
         <is>
           <t>Having a wide variety of animal and plant species is a fundamental prerequisite for a healthy natural environment and an important foundation for human life. To preserve biodiversity and simultaneously safeguard quality of life for humans, the provisional goal of the Federal Government is an index value of 100 by 2030 – a target that was originally meant to be achieved by 2015. This target value is currently being reviewed as part of a research project and may be amended in future on the basis of new findings.</t>
         </is>
       </c>
-      <c r="J53" s="5" t="inlineStr">
+      <c r="J54" s="5" t="inlineStr">
         <is>
           <t>Neben Vögeln sind auch andere Arten auf eine Landschaft mit intakten, nachhaltig genutzten Lebensräumen angewiesen, sodass der Indikator indirekt auch die Entwicklung zahlreicher weiterer Arten in der Landschaft und die Nachhaltigkeit der Landnutzung abbildet.
 Der Berechnung des Indikators liegt die Entwicklung der Bestände von 51 Vogelarten zugrunde, die die wichtigsten Landschafts- und Lebensraumtypen in Deutschland repräsentieren: je zehn Arten für die Teilindikatoren zu Agrarland, Siedlungen, Binnengewässern, Küsten und Meeren sowie elf Arten für Wälder. Aufgrund einer unsicheren Datenlage wird derzeit der Landschaftstyp der Alpen nicht berücksichtigt.
@@ -4864,7 +4934,7 @@
 Im Gegensatz dazu haben sich die Teilindikatoren für Wälder, Siedlungen und Binnengewässer in den letzten zehn Berichtsjahren positiv entwickelt. So betrug 2016 der Teilindikator für Wälder 87,5 % des Zielwerts im Vergleich zu 78,6 % im Jahr 2006. Bei dem Teilindikator Siedlungen stieg der Wert von 65,1 % im Jahr 2006 auf 75,5 % im Jahr 2016 an. Der Teilindikator Binnengewässer stieg auf 75,0 % des Zielwerts im Jahr 2016 an, im Vergleich zu einem Wert von 63,1 % im Jahr 2006.</t>
         </is>
       </c>
-      <c r="K53" s="5" t="inlineStr">
+      <c r="K54" s="5" t="inlineStr">
         <is>
           <t>Other species besides birds rely on landscapes with intact, sustainably used habitats, which means that the indicator also indirectly reflects the development of many other species in the landscape and the sustainability of land use.
 The calculations for this indicator are based on changes in the populations of 51 bird species, which together represent the most important types of landscape and habitat in Germany: ten species each for the sub-indicators farmland, settlements, inland waters, and coasts and seas, as well as eleven species for forests. The Alpine landscape is not currently taken into account, because of uncertainty of data.
@@ -4875,70 +4945,70 @@
 In contrast, the forest, settlement and inland-waters sub-indicators moved in a positive direction over the last ten reporting years. The forest sub-indicator reached 87.5 % of its target value in 2016, compared with 78.6 % in 2006. The settlement sub-indicator rose from 65.1 % in 2006 to 75.5 % in 2016. The figure for inland waters was 75.0 % of the target value in 2016, compared with 63.1 % in 2006.</t>
         </is>
       </c>
-      <c r="L53" s="4" t="inlineStr">
+      <c r="L54" s="4" t="inlineStr">
         <is>
           <t>15.5.1</t>
         </is>
       </c>
-      <c r="M53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N53" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7">
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
         <v>45548</v>
       </c>
     </row>
-    <row outlineLevel="0" r="54">
-      <c r="A54" s="4" t="inlineStr">
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P01</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>15.2</t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>Eutrophication of ecosystems</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt den Anteil der Fläche empfindlicher Ökosysteme dar, bei der die ökologischen Belastungsgrenzen (Critical Loads) durch atmosphärische Stickstoffeinträge überschritten wurden, gemessen an der gesamten bewerteten Fläche empfindlicher Ökosysteme.</t>
         </is>
       </c>
-      <c r="G54" s="5" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the sensitive ecosystem area where the critical ecological loads have been exceeded due to atmospheric nitrogen inputs, as a proportion of the total assessed sensitive ecosystem area.</t>
         </is>
       </c>
-      <c r="H54" s="5" t="inlineStr">
+      <c r="H55" s="5" t="inlineStr">
         <is>
           <t>Die ökologischen Belastungsgrenzen sind ein Maß für die Empfindlichkeit eines Ökosystems gegenüber dem Eintrag eines Schadstoffs. Liegen die Einträge von Luftschadstoffen unter diesen Belastungsgrenzen (Critical Loads), ist nach heutigem Stand des Wissens nicht mit schädlichen Wirkungen auf Struktur und Funktion eines Ökosystems zu rechnen. Fast die Hälfte aller Farn- und Blütenpflanzen, die in Deutschland in der Roten Liste aufgeführt werden, sind durch Nährstoffeinträge gefährdet. Bis zum Jahr 2030 soll der Flächenanteil mit erhöhtem Stickstoffeintrag um 35 % gegenüber 2005 reduziert werden. Dies entspricht einer Senkung auf 52 % der bewerteten Fläche empfindlicher Ökosysteme.</t>
         </is>
       </c>
-      <c r="I54" s="5" t="inlineStr">
+      <c r="I55" s="5" t="inlineStr">
         <is>
           <t>The critical ecological loads are a measure of the sensitivity of an ecosystem to the input of a pollutant. If the inputs of air pollutants remain below these critical loads, no harmful effects on the structure and functioning of an ecosystem are to be expected according to the current state of knowledge. Almost half of the ferns and flowering plants that are included in the Red List in Germany are endangered by nutrient inputs. By 2030, the share of land with an elevated input of nitrogen is to be reduced by 35 % compared with 2005. This would be a reduction to 52 % of the total ecosystem area under assessment.</t>
         </is>
       </c>
-      <c r="J54" s="5" t="inlineStr">
+      <c r="J55" s="5" t="inlineStr">
         <is>
           <t>Stickstoff, der gebunden in Ammoniak und Stickoxiden in die Atmosphäre gelangt, kann gasförmig, in Regen gelöst oder als Bestandteil des Feinstaubs in Ökosysteme eingetragen werden. Die Emissionen von Ammoniak und Stickoxiden werden als Teil des Indikators 3.2.a „Emissionen von Luftschadstoffen“ dargestellt und deren Entwicklung beeinflusst direkt die Eutrophierung der Ökosysteme. Als empfindliche Ökosysteme, die in die Berechnung des Indikators eingehen, werden Wälder, natürliches Grünland, Moore, Sümpfe und Heiden betrachtet.
 Durch einen übermäßigen Eintrag von Stickstoffverbindungen aus der Luft in Land-Ökosysteme können Nährstoffungleichgewichte entstehen. Infolge des geänderten Nährstoffangebots ändert sich zum Beispiel die Artenzusammensetzung: Organismen, die stickstoffarme Standorte bevorzugen, werden zugunsten stickstoffliebender Arten verdrängt. Außerdem können viele Pflanzen durch die Veränderung der Nährstoffverfügbarkeit anfälliger gegenüber Frost, Dürre und Schädlingen werden. Auswirkungen eines übermäßigen Stickstoffeintrages treten oft erst einige Jahre später auf. Ebenso sind positive Effekte aufgrund geminderten Eintrages erst nach längerer Zeit zu erkennen.
@@ -4948,7 +5018,7 @@
 Die Berechnung des Indikators wird vom Umweltbundesamt (UBA) vorgenommen und basiert auf zwei Datensätzen. Der erste Datensatz ist der Critical-Load-Datensatz, der vom UBA für die internationale Berichterstattung im Rahmen der Genfer Luftreinhaltekonvention (CLRTAP) bereitgestellt wird. Grundlagen zur Ermittlung dieses Datensatzes sind unter anderem die Bodenübersichtskarte Deutschlands, die Karte der jährlichen mittleren Sickerwasserrate in den Boden, die Karte der Landnutzungsverteilung sowie Klimadaten Deutschlands. Der zweite Datensatz beinhaltet eine Zeitreihe der Stickstoffeinträge in Deutschland und wurde im Rahmen des PINETI-IV-Projektes (Pollutant INput and EcosysTem Impact) berechnet.</t>
         </is>
       </c>
-      <c r="K54" s="5" t="inlineStr">
+      <c r="K55" s="5" t="inlineStr">
         <is>
           <t>Nitrogen, which escapes into the atmosphere bonded in ammonia and nitrogen oxides, can be introduced into ecosystems in gaseous form, dissolved in rain, or as a component of particulate matter. Emissions of ammonia and nitrogen oxides are depicted as part of indicator 3.2.a on emissions of air pollutants, and developments in that area directly affect the eutrophication of ecosystems. The sensitive ecosystems covered in the calculations for this indicator are forests, natural grassland, wetlands, marshes and heathland.
 Excessive inputs of nitrogen compounds from the air into land ecosystems can result in nutrient imbalances. The alterations in nutrient availability can lead, for example, to changes in the species composition of an ecosystem, with organisms which prefer nitrogen-poor locations being displaced by nitrogen-loving species. Meanwhile, many plants can be rendered vulnerable to frost, drought and pests by changes in nutrient availability. The effects of excessive nitrogen inputs often take several years to manifest themselves. Likewise, the positive effects of reduced inputs will become apparent only after an extended period.
@@ -4958,69 +5028,69 @@
 The calculations for this indicator are produced by the German Environment Agency and derived from two data sets. The first of these is the critical-load data set, which the German Environment Agency provides for the purposes of international reporting under the aegis of the Geneva Convention on Long-Range Transboundary Air Pollution (CLRTAP). The tools used to determine that data set include the soil overview map of Germany, the map showing average annual rates of percolation into the soil, the map of land-use distribution and climatological data for Germany. The second data set comprises a time series of nitrogen inputs in Germany and was compiled as part of the PINETI IV (Pollutant INput and EcosysTem Impact) project.</t>
         </is>
       </c>
-      <c r="L54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N54" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N55" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P02</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>15.3.a,b</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>Erhalt bzw. Wiederaufbau von Wäldern unter REDD+ sowie internationaler Bodenschutz</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>Preservation or restoration of forests under REDD+ and international soil protection</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>Der Indikator 15.3.a zeigt die leistungsbasierten Nettoentwicklungsausgaben Deutschlands an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation). REDD+ ist ein internationales Konzept, welches Regierungen und lokale Gemeinschaften in Entwicklungsländern finanziell dafür belohnt, dass sie die Entwaldung und damit Emissionen nachweislich reduzieren. Die ausgezahlten Beträge orientieren sich am Umfang der ermittelten Emissionsreduktion bzw. des zusätzlich gespeicherten Kohlenstoffes.
 Der Indikator 15.3.b umfasst die bilateralen Bruttoentwicklungsausgaben Deutschlands im Zusammenhang mit der Umsetzung des Übereinkommens der Vereinten Nationen (VN) zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern.</t>
         </is>
       </c>
-      <c r="G55" s="5" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>Indicator 15.3.a shows the results-based payments by Germany to developing and emerging countries for the verified preservation or restoration of forests under the REDD+ rulebook (Reducing Emissions from Deforestation and Forest Degradation). REDD+ is an international concept which financially rewards governments and local communities in developing countries for reducing deforestation and thereby demonstrably cutting emissions. Contributions are paid in line with the scale of the emissions reduction measured or the amount of additional carbon sequestered.
 Indicator 15.3.b covers Germany’s gross bilateral development expenditure in connection with the implementation of the UN Convention to Combat Desertification in developing and emerging countries.</t>
         </is>
       </c>
-      <c r="H55" s="5" t="inlineStr">
+      <c r="H56" s="5" t="inlineStr">
         <is>
           <t>Die Vermeidung von Entwaldung und Walddegradierung (Schädigung), eine nachhaltige Waldbewirtschaftung sowie der Wiederaufbau von Wäldern und Aufforstung tragen mittelbar und unmittelbar zum Erhalt biologischer Vielfalt, zur Boden-, Wasser-, und Luftqualität, zur Verminderung von Bodenerosion, zur Minderung des CO2-Ausstoßes und zur Speicherung von Kohlenstoff sowie zur Erhaltung wichtiger Entwicklungs- und Einkommensperspektiven für Waldländer bei. Ziel ist es, die Zahlungen unter dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation) bis zum Jahr 2030 zu steigern. Gesunde Böden sind eine wesentliche, nicht bzw. schwer erneuerbare natürliche Ressource. Sie spielen eine Schlüsselrolle bei der Nahrungsmittelproduktion, der Verringerung der Auswirkungen häufiger und extremer Wetterereignisse, dem Erhalt der biologischen Vielfalt und der Bereitstellung wesentlicher Ökosystemleistungen. Ziel ist es daher, Deutschlands Beitrag für den internationalen Bodenschutz bis 2030 zu steigern. Auf internationaler Ebene ist die Desertifikationsbekämpfung neben den Themen Biodiversität und Klimawandel ein Ziel der drei Rio-Konventionen.</t>
         </is>
       </c>
-      <c r="I55" s="5" t="inlineStr">
+      <c r="I56" s="5" t="inlineStr">
         <is>
           <t>Preventing deforestation and forest degradation (damage), managing forests sustainably, restoring forests and creating new woodland all directly and indirectly help to maintain biodiversity, improve soil, water and air quality, reduce soil erosion, cut CO2 emissions, sequester carbon, and safeguard important prospects of development and income-generation for forest-rich countries. The aim is to keep increasing payments under the REDD+ rulebook until 2030. Healthy soils are an essential natural resource that is extremely difficult if not impossible to renew. They play a pivotal role in food production, the mitigation of the effects of frequent and extreme weather events, the conservation of biodiversity and the provision of essential ecosystem services. The goal is therefore to continuously increase Germany’s contribution to international soil protection until 2030. At the international level, combating desertification is one of the topics of the three Rio Conventions, alongside biodiversity and climate change.</t>
         </is>
       </c>
-      <c r="J55" s="5" t="inlineStr">
+      <c r="J56" s="5" t="inlineStr">
         <is>
           <t>Der Indikator 15.3.a basiert auf dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation) und wird jährlich seit 2008 erfasst. Datenquellen für den Indikator sind die Finanzberichte des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) sowie des Bundesministeriums für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz (BMUV). Doppelzählungen werden hierbei durch die verpflichtende Einrichtung eines Registers vermieden.
 Der Indikator entwickelte sich im Verlauf der letzten fünf Jahre insgesamt positiv. Im Zeitraum von 2009 bis 2017 stiegen die leistungsbasierten Nettoausgaben von 3,0 Millionen auf 68,0 Millionen Euro. Für das Jahr 2019 umfassten die Ausgaben noch 63,5 Millionen Euro. Im Jahr 2020 betrugen diese jedoch 24,2 Millionen Euro und damit weniger als die Hälfte des Vorjahres. Diese Mittel flossen nahezu vollständig in das multilaterale Programm „Green Climate Fund (GCF) Pilot Programme for REDD+“. Die meisten anderen Programme sind mittlerweile ausgelaufen. Den Auszahlungen gehen üblicherweise Zusagen voraus. Die Gesamtzusagen für internationalen Walderhalt beliefen sich für das Jahr 2020 auf 301,6 Millionen Euro. Die ansteigende Entwaldung in den letzten Jahren in den wichtigsten Partnerländern des Amazonasgebietes macht neue Zusagen für leistungsbasierte Zahlungen unter dem REDD+-Regelwerk schwierig.
@@ -5029,7 +5099,7 @@
 Entwicklungsausgaben unter dem REDD+-Regelwerk sowie im Rahmen der VN-Wüstenkonvention sind Teil der Klimafinanzierung (Indikator 13.1.b) sowie der ODA-Quote (Indikator 17.1).</t>
         </is>
       </c>
-      <c r="K55" s="5" t="inlineStr">
+      <c r="K56" s="5" t="inlineStr">
         <is>
           <t>Indicator 15.3.a is based on the rulebook for reducing emissions from deforestation and forest degradation, or REDD+. The data have been collected annually since 2008. The data sources for the indicator are the financial reports compiled by the Federal Ministry for Economic Cooperation and Development and the Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection. Duplicate counting is avoided by means of the mandatory establishment of a register.
 The overall trend of the five preceding years is positive. During the 2009-2017 reporting period, results-based payments rose from 3.0 million euros to 68.0 million euros. In 2019, payments were at 63.5 million euros, however, in 2020 payments decreased to less than half of the previous year (24.2 million euros). The funds were almost completely paid to the multilateral program “Green Climate Fund (GCF) Pilot Programme for REDD+”. Most of the other projects are finalised in the meantime. Generally, committed funds precede payments. The total number of committed funds for international forest conservation were at 301.6 million euros in 2020. The advancing deforestation in the most important partner countries in the Amazon region in the last few years aggravate issuance of new confirmations for results-based payments under the REDD+ rulebook.
@@ -5038,67 +5108,67 @@
 Development spending under the REDD+ rulebook and in the context of the UNCCD is part of climate finance (indicator 13.1.b) and of official development assistance (indicator 17.1).</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>15.a.1</t>
         </is>
       </c>
-      <c r="M55" s="4" t="inlineStr">
+      <c r="M56" s="4" t="inlineStr">
         <is>
           <t>15.b.1</t>
         </is>
       </c>
-      <c r="N55" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="56">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="N56" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>Z16_B01_P01</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>16.1</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>Straftaten</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t>Criminal offences</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Anzahl der Straftaten, die der Polizei angezeigt werden, je 100 000 Einwohnerinnen und Einwohner.</t>
         </is>
       </c>
-      <c r="G56" s="5" t="inlineStr">
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of criminal offences reported to the police per 100,000 inhabitants.</t>
         </is>
       </c>
-      <c r="H56" s="5" t="inlineStr">
+      <c r="H57" s="5" t="inlineStr">
         <is>
           <t>Ein sicheres Umfeld, in dem die Bürgerinnen und Bürger ohne Angst vor Willkür und Kriminalität leben können, ist eine wesentliche Voraussetzung für eine nachhaltige Entwicklung. Deshalb soll die Anzahl der erfassten Straftaten je 100 000 Einwohnerinnen und Einwohner bis zum Jahr 2030 unter 6 500 sinken.</t>
         </is>
       </c>
-      <c r="I56" s="5" t="inlineStr">
+      <c r="I57" s="5" t="inlineStr">
         <is>
           <t>A safe environment in which people can live without fear of lawlessness and crime is an essential prerequisite for sustainable development. The target is therefore to bring the number of recorded criminal offences per 100,000 inhabitants down to less than 6,500 by 2030.</t>
         </is>
       </c>
-      <c r="J56" s="5" t="inlineStr">
+      <c r="J57" s="5" t="inlineStr">
         <is>
           <t>Der Indikator beinhaltet alle in der Polizeilichen Kriminalstatistik (PKS) erfassten Straftaten. Dies sind bei der Polizei angezeigte und durch sie endbearbeitete Straftaten, solange es sich nicht um Staatsschutz-, Verkehrsdelikte oder Ordnungswidrigkeiten handelt.
 Straftaten, die außerhalb der Bundesrepublik Deutschland begangen wurden, sind ebenso wenig enthalten wie Delikte, die nicht zum Aufgabenbereich der Polizei gehören (zum Beispiel Finanz- und Steuerdelikte) bzw. unmittelbar bei der Staatsanwaltschaft angezeigt und ausschließlich von ihr bearbeitet werden (zum Beispiel Delikte im Zusammenhang mit einer Falschaussage vor Gericht).
@@ -5109,7 +5179,7 @@
 2021 betrug die Aufklärungsquote aller polizeilich registrierten Delikte 58,7 % und lag damit in etwa auf Vorjahresniveau. Dabei gibt es deutliche Unterschiede je nach Art der Straftat. So lag die Aufklärungsquote beim Wohnungseinbruchsdiebstahl nur bei 19,5 %. Bei Betrugsdelikten wurden dagegen 63,3 % und bei gefährlicher und schwerer Körperverletzung 83,9 % aller angezeigten Straftaten aufgeklärt. Die vergleichsweise geringe Aufklärungsquote bei Wohnungseinbruchsdiebstahl hängt mit einer hohen Anzeigebereitschaft bei vergleichsweise selten vorliegenden konkreten Anhaltspunkten zur Täterschaft zusammen. Dies steht in deutlichem Gegensatz zur Situation bei Betrugs- und Körperverletzungsdelikten. Diese Straftaten weisen eine hohe Aufklärungsquote auf, weil der Polizei die Tatverdächtigen meist bereits bei der Anzeigenerstattu</t>
         </is>
       </c>
-      <c r="K56" s="5" t="inlineStr">
+      <c r="K57" s="5" t="inlineStr">
         <is>
           <t>The indicator covers all criminal offences recorded in the Police Crime Statistics. These are criminal offences reported to and fully processed by the police, except offences against the security of the state, traffic offences and administrative offences.
 Criminal offences committed outside the Federal Republic of Germany are not included, nor are offences that are not within the remit of the police, such as financial and tax offences, or are reported directly to and processed by the public prosecution office, such as offences relating to false testimony in court.
@@ -5120,67 +5190,67 @@
 The success rate for solving cases was 58.7 % of all offences registered by the police in 2021, roughly the same as in the previous year. There were significant differences, however, depending on the type of criminal offence. For domestic burglary, for example, the rate of cases solved was only 19.5 %. By contrast, 63.3 % of fraud offences and 83.9 % of cases of serious and grievous bodily harm cases were cleared up. The comparatively low success rate for domestic burglary is related to a high rate of reporting combined with the comparatively infrequent existence of solid leads pointing to the perpetrators. This is in sharp contrast to cases of fraud and bodily injury. These crimes have high clear-up rates because, in most cases, the identity of the suspect becomes known to the police as the crime is reported.</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N56" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="L57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N57" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>Z16_B02_P01</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>16.2</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
-      <c r="F57" s="5" t="inlineStr">
+      <c r="F58" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Anzahl der in Afrika, Ost- und Südosteuropa, Lateinamerika und Asien mit deutscher finanzieller Unterstützung durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen. Nicht enthalten sind Projekte, die über Fonds internationaler Organisationen finanziert werden, die von Deutschland finanziell unterstützt werden.</t>
         </is>
       </c>
-      <c r="G57" s="5" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of projects to secure, register and destroy small arms and light weapons (SALW) carried out in Africa, Eastern and South-Eastern Europe, Latin America and Asia with German financial support. Not included are projects that will be managed through funds by international organizations that are financially supported by Germany.</t>
         </is>
       </c>
-      <c r="H57" s="5" t="inlineStr">
+      <c r="H58" s="5" t="inlineStr">
         <is>
           <t>Ohne Frieden kann es keine nachhaltige Entwicklung geben und ohne nachhaltige Entwicklung keinen Frieden – dies betont die Agenda 2030 für nachhaltige Entwicklung in ihrer Präambel. Mit den vom Indikator erfassten Maßnahmen leistet Deutschland in einem konkreten Teilbereich einen Beitrag zur Friedenssicherung. Ziel ist, dass jährlich mindestens 15 Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland durchgeführt werden.</t>
         </is>
       </c>
-      <c r="I57" s="5" t="inlineStr">
+      <c r="I58" s="5" t="inlineStr">
         <is>
           <t>There can be no sustainable development without peace and no peace without sustainable development – this is emphasised in the preamble to the 2030 Agenda for sustainable development. With the measures recorded by the indicator, Germany is making a contribution towards peacekeeping in a concrete subcategory. The set target is to have at least 15 projects to secure, register and destroy small arms and light weapons carried out by Germany each year.</t>
         </is>
       </c>
-      <c r="J57" s="5" t="inlineStr">
+      <c r="J58" s="5" t="inlineStr">
         <is>
           <t>Die Daten der hier dargestellten Zeitreihe stammen vom Auswärtigen Amt (AA); die Projekte sind jedoch nicht ausschließlich durch das AA finanziert. Vom Volumen und Inhalt unterscheiden sich die gezählten Projekte erheblich. Projekte mit Laufzeiten von mehr als einem Jahr werden dabei mehrfach ausgewiesen. Zudem sagt die Anzahl der durchgeführten Projekte nichts über deren Erfolg aus. Somit ist eine richtungssichere Interpretation in Hinblick auf Umfang und Erfolg der Maßnahmen schwierig.
 Nach der aktuellen Auswertung stieg die Anzahl der jährlich durchgeführten Projekte von acht im Jahr 2006 auf 38 im Jahr 2021. Das Ziel von mindestens 15 Projekten jährlich wurde im Jahr 2012 erstmals erfüllt. Mit Ausnahme des Jahres 2013 wurde das Ziel auch in den Folgejahren erreicht oder sogar übertroffen. Die regionalen Schwerpunkte des deutschen Engagements lagen in Nord-, West- und Ostafrika, dem westlichen Balkan und der Ukraine. Weitere Projekte wurden in Lateinamerika und der Karibik unterstützt.
@@ -5188,7 +5258,7 @@
 Die Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD) veröffentlicht ebenfalls ausführliche Zahlen zu Projekten zur „Wiedereingliederung; Bekämpfung von Handfeuerwaffen und leichten Waffen“ (Förderbereichsschlüssel: 15240). Würde dem Indikator die Anzahl der Projekte nach dem genannten OECD-Förderbereichsschlüssel zugrunde gelegt, so wäre das gesetzte Ziel von jährlich mindestens 15 Projekten im Jahr 2006 sowie seit 2016 erreicht worden. Im Jahr 2020 waren 25 Projekte schwerpunktmäßig dem Förderbereichsschlüssel 15240 zugeordnet. Davon wurden 19 durch das AA und sechs vom Bundesministerium der Finanzen (BMF) finanziert. Die Projekte umfassen jedoch auch Maßnahmen wie die Wiedereingliederung von ehemaligen Kämpferinnen und Kämpfern bewaffneter Gruppen in das gesellschaftliche Leben. Ohne diese Wiedereingliederungsmaßnahmen fiele die Anzahl der Projekte, die ausschließlich oder überwiegend der Bekämpfung von Handfeuerwaffen und leichten Waffen dienen, geringer aus.</t>
         </is>
       </c>
-      <c r="K57" s="5" t="inlineStr">
+      <c r="K58" s="5" t="inlineStr">
         <is>
           <t>The data of the depicted time series is provided by the Federal Foreign Office, however, the reported projects are not financed exclusively by the Federal Foreign Office, but in part with third-party funds as well. Considered projects significantly differ with respect to volume and content. Projects with run-times longer than one year were counted more than once. Notably, the number of projects carried out says nothing about their scale or their level of success. Consequently, a directionally safe interpretation regarding scope and success of the measures is challenging. 
 According to the current evaluation, the number of projects undertaken each year increased from 8 in 2006 to 38 in 2021. Thus the goal of Germany being involved in a minimum of 15 projects would have been achieved in 2012 for the first time. Except for 2013, the level would have been reached or even exceeded in subsequent years, too. According to the Federal Foreign Office, the regional focus of German efforts was on North, East and West Africa, the western Balkans and Ukraine. Other projects supported were in Latin America and the Caribbean.
@@ -5196,67 +5266,67 @@
 In accordance with the guidelines on statistical reporting issued by its Development Assistance Committee, the Organisation for Economic Co-operation and Development (OECD) also publishes detailed figures on projects for reintegration and SALW control (CRS Purpose Code 15240). If the indicator were based on the number of projects counted in the above-mentioned OECD category, the target of at least 15 projects would have been reached in 2006 and every year since 2016. In 2020, the OECD counted 25 projects. Among these, 19 were funded by the Federal Foreign Office and, accordingly, 6 projects were funded by the Federal Ministry of Finance. However, those projects also included measures for reintegrating former combatants from armed groups into society. Without such reintegration projects, the number of project exclusively or chiefly intended to combat SALW would be lower.</t>
         </is>
       </c>
-      <c r="L57" s="4" t="inlineStr">
+      <c r="L58" s="4" t="inlineStr">
         <is>
           <t>16.4.2</t>
         </is>
       </c>
-      <c r="M57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N57" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="58">
-      <c r="A58" s="4" t="inlineStr">
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N58" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>Z16_B03_P01</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>16.3.a,b</t>
         </is>
       </c>
-      <c r="D58" s="4" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>Corruption Perception Index in Deutschland sowie in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr">
         <is>
           <t>Corruption Perceptions Index in Germany and in partner countries for German development cooperation</t>
         </is>
       </c>
-      <c r="F58" s="5" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren geben den Corruption Perception Index (CPI) von Transparency International für Deutschland (16.3.a) sowie die Anzahl der Partnerländer der deutschen Entwicklungszusammenarbeit, deren CPI sich im Vergleich zum Jahr 2012 verbessert hat (16.3.b), wieder. Der CPI misst, wie stark Korruption im öffentlichen Sektor in einem Land wahrgenommen wird.</t>
         </is>
       </c>
-      <c r="G58" s="5" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>The indicators provide the Corruption Perceptions Index (CPI) from Transparency International for Germany (16.3.a) as well as the number of partner countries of German development assistance whose CPI has improved compared with 2012 (16.3.b). The CPI measures how strongly corruption in the public sector is perceived in a country.</t>
         </is>
       </c>
-      <c r="H58" s="5" t="inlineStr">
+      <c r="H59" s="5" t="inlineStr">
         <is>
           <t>Bis 2030 wird eine weitere Verbesserung des Corruption Perception Index (CPI) für Deutschland angestrebt. Zudem soll sich auch der CPI der Mehrzahl der Partnerländer der deutschen Entwicklungszusammenarbeit verbessern. Basisjahr ist dabei jeweils das Jahr 2012.</t>
         </is>
       </c>
-      <c r="I58" s="5" t="inlineStr">
+      <c r="I59" s="5" t="inlineStr">
         <is>
           <t>A further improvement of the CPI for Germany is targeted for 2030. In addition, the CPI in the majority of partner countries involved in German development assistance should also improve. The base year in each case is 2012.</t>
         </is>
       </c>
-      <c r="J58" s="5" t="inlineStr">
+      <c r="J59" s="5" t="inlineStr">
         <is>
           <t>Die Studie zum Corruption Perception Index (CPI) von Transparency International ist die die meisten Länder umfassende Übersichtsstudie zur wahrgenommenen Korruption im öffentlichen Sektor. Bei dem CPI handelt es sich um einen Kompositindikator, der je Land unterschiedliche Experten- sowie Unternehmensbefragungen zur Wahrnehmung von Korruption im öffentlichen Sektor zusammenführt. Abhängig von den jeweiligen Befragungen können dabei unterschiedliche Verständnisse von Korruption zugrunde liegen. Die Ergebnisse dieser Befragungen können auch von den Kenntnissen des Wertes des CPI oder anderer ihm zugrunde liegender Teilstudien der vorherigen Jahre selbst beeinflusst werden. Zudem wechseln die Quellen für die Berechnung des CPI im Zeitablauf. In den Index werden Länder mit einbezogen, zu denen mindestens drei ausgewählte Befragungen vorliegen. Das Joint Research Centre (JRC) der Europäischen Kommission weist in seiner Analyse des CPI darauf hin, dass bei der Interpretation der Ergebnisse die jeweilige statistische Signifikanz der Veränderung mitbetrachtet werden sollte und selbst bei statistisch signifikanten Unterschieden die Ergebnisse dieses Indikators mit Vorsicht zu interpretieren seien. Seine Vergleichbarkeit ist somit sowohl über die Zeit als auch zwischen den Ländern stark eingeschränkt.
 Deutschland hat sich im Vergleich von 79 Punkten im Jahr 2012 auf 80 Punkte im Jahr 2021 verbessert. Dieser Wert hat sich gegenüber 2017 um einen Punkt verschlechtert, sodass Deutschland auf dem zehnten Platz des Rankings steht. Dabei ist diese Veränderung gegenüber 2012 nicht als statistisch signifikant (bei einem Signifikanzniveau von 5 %) anzusehen.
@@ -5265,7 +5335,7 @@
 In Bezug auf die deutsche Entwicklungszusammenarbeit haben sich im Jahr 2021 im Vergleich zum Jahr 2012 insgesamt 48 der 87 durch den CPI bewerteten Partnerländer verbessert. Die Anzahl der sich positiv entwickelnden Partnerländer ist im betrachteten Zeitraum bis 2016 jedes Jahr gestiegen. Im Jahr 2018 ist die Anzahl leicht zurückgegangen und stieg in den Folgejahren wieder an. Eine statistisch signifikante Verbesserung (bei einem Signifikanzniveau von 5 %) wiesen in 2021 gegenüber 2012 31 Partnerländer der deutschen Entwicklungszusammenarbeit auf, im Vergleich dazu waren es 2014 sechs Partnerländer.</t>
         </is>
       </c>
-      <c r="K58" s="5" t="inlineStr">
+      <c r="K59" s="5" t="inlineStr">
         <is>
           <t>The study on CPI conducted by Transparency International is the most comprehensive overview study on perceived public sector corruption. The CPI is a composite indicator that is based on various expert and corporate surveys regarding the perception of corruption in the public sector. Depending on the survey, underlying definitions of corruption may differ, and the sources used for calculations may change over time. The results of these surveys are prone to distortions due to information about prior CPI values or results from similar studies. The index includes all countries for which at least three selected surveys are available. In its analysis of the CPI, the Joint Research Centre of the European Commission points out that, the statistical significance of the change must also be examined when the results are interpreted and that even in the case of statistically significant differences, the results of this indicator should be interpreted with caution. Hence, comparison over time and among countries is limited.
 Compared to 2012, Germany’s score improved from 79 to 80 points in 2021. This value has worsen in comparison to 2017, which means that Germany comes to tenth place in the ranking. Though, compared with 2012, this change should not be viewed as statistically significant (at a significance level of 5 %).
@@ -5274,69 +5344,69 @@
 With reference to German official development assistance, 48 of the 87 partner countries evaluated by the CPI scored better in 2021 compared with 2012. In the review period, the number of partner countries developing in a positive direction has increased each year up to 2016. Their number decreased slightly in 2018 and increased again in the subsequent years. As many as 31 partner countries of German development assistance reported a statistically significant improvement (at a significance level of 5 %) in 2021 compared with 2012. In 2014, six partner countries had reported a significant improvement.</t>
         </is>
       </c>
-      <c r="L58" s="4" t="inlineStr">
+      <c r="L59" s="4" t="inlineStr">
         <is>
           <t>16.5.1</t>
         </is>
       </c>
-      <c r="M58" s="4" t="inlineStr">
+      <c r="M59" s="4" t="inlineStr">
         <is>
           <t>16.5.2</t>
         </is>
       </c>
-      <c r="N58" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="N59" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>Z17_B01_P01</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>17.1</t>
         </is>
       </c>
-      <c r="D59" s="4" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen
 </t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr">
         <is>
           <t>Official development assistance as a proportion of gross national income
 </t>
         </is>
       </c>
-      <c r="F59" s="5" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt die ODA-Quote dar. Diese umfasst den Anteil der öffentlichen Entwicklungsausgaben (Official Development Assistance, ODA) im Verhältnis zum Bruttonationaleinkommen (BNE). Seit 2018 erfolgt die Berechnung nach der Zuschussäquivalent-Methode.</t>
         </is>
       </c>
-      <c r="G59" s="5" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr">
         <is>
           <t>The indicator shows public expenditure on official development assistance (ODA) as a percentage of gross national income (GNI). Since 2018, it has been calculated using the grant-equivalent method.</t>
         </is>
       </c>
-      <c r="H59" s="5" t="inlineStr">
+      <c r="H60" s="5" t="inlineStr">
         <is>
           <t>Mit ihrer Entwicklungszusammenarbeit tragen die Geber dazu bei, die weltweite Armut zu mindern, humanitäre Notlagen zu lindern, den Frieden zu sichern, Demokratie zu verwirklichen sowie die Globalisierung gerecht zu gestalten und die Umwelt zu schützen. Um dieser Verantwortung gerecht zu werden, bekennt sich die Bundesregierung zum ursprünglich 1970 von der Generalversammlung der Vereinten Nationen (VN) festgelegten Ziel, den Anteil der öffentlichen Entwicklungsausgaben (Official Development Assistance, ODA) am Bruttonationaleinkommen (BNE) (ODA-Quote) auf 0,7 % zu steigern. Zielsetzung des Indikators in der Deutschen Nachhaltigkeitsstrategie ist, dieses Ziel für Deutschland spätestens bis zum Jahr 2030 zu erreichen.</t>
         </is>
       </c>
-      <c r="I59" s="5" t="inlineStr">
+      <c r="I60" s="5" t="inlineStr">
         <is>
           <t>Through their development cooperation, donor countries play a role in reducing global poverty, preventing humanitarian need, safeguarding peace, achieving democracy, making globalisation fair and protecting the environment. To live up to that responsibility, the Federal Government has committed itself to the target, originally set by the UN General Assembly in 1970, of raising its ODA expenditure to 0.7 % of its GNI. For the indicator maintained in the German strategy for sustainable development, the aim is to reach that target by the year 2030.</t>
         </is>
       </c>
-      <c r="J59" s="5" t="inlineStr">
+      <c r="J60" s="5" t="inlineStr">
         <is>
           <t>Datengrundlage des Indikators sind die Statistiken der Entwicklungszusammenarbeit, die im Auftrag des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) vom Statistischen Bundesamt erstellt werden. Die Anrechenbarkeit einer Leistung als öffentliche Entwicklungsausgabe (ODA) ist durch Richtlinien des Entwicklungsausschusses der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development – Development Assistance Commitee, OECD-DAC) definiert. ODA sind öffentliche Leistungen, die zu günstigen (konzessionären) Bedingungen mit dem Ziel der Förderung der wirtschaftlichen und sozialen Entwicklung von Entwicklungsländern vergeben werden. Zur ODA zählen vor allem Ausgaben für die finanzielle und technische Zusammenarbeit mit Entwicklungsländern, humanitäre Hilfe sowie Beiträge für Entwicklungszusammenarbeit an multilaterale Institutionen, wie zum Beispiel die Vereinten Nationen (VN), die Europäische Union (EU), die Weltbankgruppe oder regionale Entwicklungsbanken. Darüber hinaus sind unter bestimmten Voraussetzungen Ausgaben für Friedensmissionen, Schuldenerleichterungen sowie bestimmte Ausgaben im Geberland, wie Studienplatzkosten für Studierende aus Entwicklungsländern, Flüchtlingskosten im Inland oder Ausgaben für entwicklungsspezifische Forschung, ODA-anrechenbar. Die Liste der Länder, die ODA empfangen können, wird vom OECD-DAC definiert. Sie umfasst die am wenigsten entwickelten Länder (Least Developed Countries, LDCs) sowie weitere Länder mit niedrigem und mittlerem Bruttonationaleinkommen (BNE) pro Kopf. Die Liste wird regelmäßig aktualisiert, sodass Länder in die Liste aufgenommen werden als auch herausfallen.
 2018 fand eine Änderung der Bewertung für Schuldeninstrumente (Darlehen, Anleihen und Schuldenerleichterungen) statt, bei der das bisherige Brutto-Netto-Prinzip durch die Zuschussäquivalent-Methode abgelöst wurde. Bei dieser Methode wird der Zuschussanteil eines Schuldeninstruments unter anderem aus Zinssatz und Laufzeit ermittelt, und nur er wird angerechnet. Durch die neue Bewertungsmethode soll beispielsweise die Vergleichbarkeit von Darlehen und Zuschüssen gewährleistet werden.
@@ -5345,7 +5415,7 @@
 Neben der öffentlichen Entwicklungszusammenarbeit werden auch von privater Seite Eigenmittel, zum Beispiel von Kirchen, Stiftungen und Verbänden, aufgewendet. Hierbei handelt es sich insbesondere um Beiträge und Spenden. Diese private Entwicklungszusammenarbeit, die nicht ODA-relevant ist, belief sich 2020 auf 1,3 Milliarden Euro, was einem Anteil von 0,04 % am BNE entsprach. Private Direktinvestitionen in den Entwicklungsländern betrugen 1,9 Milliarden Euro im Jahr 2020.</t>
         </is>
       </c>
-      <c r="K59" s="5" t="inlineStr">
+      <c r="K60" s="5" t="inlineStr">
         <is>
           <t>The data on which the indicator is based are the statistics on German official development assistance which are compiled by the Federal Statistical Office on behalf of the Federal Ministry for Economic Cooperation and Development. Whether a flow is counted as ODA is determined by guidelines issued by the OECD Development Assistance Committee (DAC). ODA comprises public funds spent in order to advance the economic and social development of developing countries. It primarily includes expenditure for financial and technical cooperation with developing countries, humanitarian aid and development-cooperation contributions to multilateral institutions such as the United Nations, the European Union, the World Bank or regional development banks. Under certain conditions, spending on peace missions, debt relief and certain items of development expenditure in the donor country – such as tuition costs for students from developing countries, domestic spending on refugees and funding for development-related research – can also be counted as ODA. The DAC also defines the list of developing countries eligible for ODA. This includes the least developed countries (LDCs) as well as other countries with low and medium per capita GNI. The list is consistently updated, such that changes in the indicator may therefore be the result of one or more countries being added to or removed from the list.
 In 2018, there was a change in the way ODA loans (i.e. loans, bonds and debt reliefs) are evaluated, in that the previous net-flows principle was replaced by the grant-equivalent method. In this method, only the grant element of an ODA loan is determined by the interest rate and duration, among others, and is counted as ODA. The intention behind the new methodology is to make ODA grants and ODA loans comparable.
@@ -5354,70 +5424,70 @@
 In addition to official development cooperation, private funds are also provided by such organisations as churches, foundations and associations. These chiefly take the form of contributions and donations. This private development cooperation, which does not affect the ODA figures, amounted to 1.3 billion euros in 2020, the equivalent of a 0.04 % share of GNI. Private direct investment in developing countries came to 1.9 billion euros in 2020.</t>
         </is>
       </c>
-      <c r="L59" s="4" t="inlineStr">
+      <c r="L60" s="4" t="inlineStr">
         <is>
           <t>17.2.1</t>
         </is>
       </c>
-      <c r="M59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N59" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O59" s="7">
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7">
         <v>45672</v>
       </c>
     </row>
-    <row outlineLevel="0" r="60">
-      <c r="A60" s="4" t="inlineStr">
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>Z17_B02_P01</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>17.2</t>
         </is>
       </c>
-      <c r="D60" s="4" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr">
         <is>
           <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t>Number of students and researchers from developing countries and least developed countries per year</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>Der Indikator erfasst die Anzahl der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern pro Jahr bzw. Semester. Hierbei wird die Anzahl der Studierenden und Forschenden aus den am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) gesondert ausgewiesen.</t>
         </is>
       </c>
-      <c r="G60" s="5" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr">
         <is>
           <t>The indicator records the number of students and researchers from developing and emerging countries per year or semester. Here, the number of students and researchers from the least developed countries (LDCs) is listed separately.</t>
         </is>
       </c>
-      <c r="H60" s="5" t="inlineStr">
+      <c r="H61" s="5" t="inlineStr">
         <is>
           <t>Wissen ist nicht nur auf nationaler Ebene, sondern auch im globalen Maßstab ein zentraler Treiber nachhaltiger Entwicklung. Die Stärkung des internationalen Wissensaustauschs durch Deutschland ist hierfür eine wichtige Maßnahme. Ziel der Bundesregierung war es deshalb, die Summe der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern von 2015 bis 2020 um 10 % zu steigern und die Anzahl anschließend zu verstetigen.</t>
         </is>
       </c>
-      <c r="I60" s="5" t="inlineStr">
+      <c r="I61" s="5" t="inlineStr">
         <is>
           <t>Knowledge is a key driver of sustainable development not only at national level but also in global terms. The strengthening of the international exchange of knowledge by Germany is an important measure in this context. For this reason, the target of the Federal Government is to increase the total number of students and researchers from developing and emerging countries by 10 % from 2015 until 2020 and to stabilise the number at the same level thereafter.</t>
         </is>
       </c>
-      <c r="J60" s="5" t="inlineStr">
+      <c r="J61" s="5" t="inlineStr">
         <is>
           <t>Datengrundlage des Indikators sind die Studierendenstatistik und die Statistik des Hochschulpersonals des Statistischen Bundesamtes. Beides sind Vollerhebungen auf der Basis der Verwaltungsdaten der Hochschulen. Der Indikator umfasst die Studierenden im Wintersemester des jeweiligen Jahres. Die Forschenden werden zum Stichtag 1. Dezember erhoben. Unter Forschenden wird hierbei das haupt- und nebenberufliche wissenschaftliche Personal an deutschen Hochschulen (ohne studentische Hilfskräfte) verstanden. Promotionsstudierende, die als Studierende an einer Hochschule immatrikuliert sind und zugleich als wissenschaftliches Personal arbeiten, können zu Doppelzählungen im Indikator führen.
 Die Gesamtzahl aller Studierenden und Forschenden aus Entwicklungs- und Schwellenländern an deutschen Hochschulen im Jahr 2021 betrug rund 316 Tausend. Mit 91,9 % machten dabei die Studierenden den weitaus größeren Anteil am Wert des Indikators aus.
@@ -5428,7 +5498,7 @@
 Das angestrebte Ziel, die Summe der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern um 10 % gegenüber dem Jahr 2015 (215 000) zu steigern, wurde bereits im Jahr 2017 übertroffen und auch die angestrebte Verstetigung der Anzahl wird seitdem erreicht.</t>
         </is>
       </c>
-      <c r="K60" s="5" t="inlineStr">
+      <c r="K61" s="5" t="inlineStr">
         <is>
           <t>The data basis of the indicator is the statistics of students and the statistics of higher education staff conducted by the Federal Statistical Office. Both are complete surveys based on the administrative data of the institutions of higher education. The indicator includes the students in the winter semester of each year. However, the researchers are covered on the reference date of 1st of December. Researchers in this context are defined as academic personnel at German institutions of higher education in primary and secondary employment (excluding student assistants). Doctoral candidates who are enrolled as students at an institution of higher education and who are also working as member of the academic personnel may be counted twice by the indicator.
 The total number of all students and researchers from developing and emerging countries at German institutions of higher education was about 316,000 in 2021. With 91.9 %, students by far accounted for the largest share of the indicator value.
@@ -5439,70 +5509,70 @@
 The target of raising the number of students and researchers from developing and emerging countries by 10 % compared to the 215,000 recorded for 2015 was already achieved in 2017. From there, the intended steady increase is also reached in subsequent years.</t>
         </is>
       </c>
-      <c r="L60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N60" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O60" s="7">
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N61" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7">
         <v>45548</v>
       </c>
     </row>
-    <row outlineLevel="0" r="61">
-      <c r="A61" s="4" t="inlineStr">
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="D61" s="4" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den wertmäßigen Anteil der Einfuhren bzw. Importe aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) an den gesamten Einfuhren nach Deutschland an.</t>
         </is>
       </c>
-      <c r="G61" s="5" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the imports from the least developed countries (LDCs) as a proportion of all imports to Germany, measured in euros.</t>
         </is>
       </c>
-      <c r="H61" s="5" t="inlineStr">
+      <c r="H62" s="5" t="inlineStr">
         <is>
           <t>Für eine globale nachhaltige Entwicklung ist es wichtig, die Handelschancen der Entwicklungs- und Schwellenländer zu verbessern. Entwicklungs- und Schwellenländer benötigen ein offenes und faires Handelssystem, um sowohl Rohstoffe als auch verarbeitete Produkte auf dem Weltmarkt anzubieten. Die Bundesregierung hat daher als Ziel festgelegt, dass sich der Anteil der Einfuhren aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) zwischen den Jahren 2014 und 2030 verdoppeln soll.</t>
         </is>
       </c>
-      <c r="I61" s="5" t="inlineStr">
+      <c r="I62" s="5" t="inlineStr">
         <is>
           <t>To promote global sustainable development, it is important to improve trading opportunities of developing and emerging countries. Developing and emerging countries need an open and fair trading system that will allow them to offer raw materials as well as processed products on the world market. The Federal Government has therefore set itself the target of doubling the proportion of imports from LDCs between the years 2014 and 2030.</t>
         </is>
       </c>
-      <c r="J61" s="5" t="inlineStr">
+      <c r="J62" s="5" t="inlineStr">
         <is>
           <t>Die Daten zu Einfuhren Deutschlands werden von der Außenhandelsstatistik des Statistischen Bundesamtes zusammengestellt. Dabei wird neben dem Herkunftsland der importierten Waren sowie deren Wert und Gewicht auch die Art der Ware detailliert erfasst. Ausgeschlossen ist in der Außenhandelsstatistik der Bereich Dienstleistungen.
 Die Einordnung der verschiedenen Länder als LDC wird anhand der Liste der Empfänger öffentlicher Entwicklungsgelder des Ausschusses für Entwicklungszusammenarbeit der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD-DAC) vorgenommen. Für den Indikator werden die im jeweiligen Jahr gültigen Einstufungen gemäß OECD-DAC zugrunde gelegt. Ändert sich also der Status eines Landes, so wirkt sich das auf den Indikator aus, auch wenn der Wert der Einfuhren aus diesem Land unverändert geblieben ist.
@@ -5511,7 +5581,7 @@
 Eine genauere Analyse der Einfuhren nach Herkunftsländern zeigt, dass ein Großteil der Einfuhren aus LDCs 2021 aus Bangladesch (57,3 %) und Kambodscha (12,6 %) stammten. Werden nicht nur die LDCs, sondern alle Entwicklungs- und Schwellenländer betrachtet, so betrug im Jahr 2021 ihr Anteil an den gesamten Einfuhren nach Deutschland 23,7 %, wobei der Anteil weiterverarbeiteter Güter bei 22,1 % lag. Nicht nur unter den Entwicklungs- und Schwellenländern, sondern auch insgesamt spielte China die größte Rolle. Allein der Anteil der Importe aus China an allen deutschen Importen (1 203,2 Milliarden Euro) betrug 2021 11,8 %, wobei es sich hierbei wertmäßig zu 99,6 % um weiterverarbeitete Produkte handelte. Erst auf den Plätzen zwei und drei folgten die Niederlande (8,8 %) und die USA (6,0 %) als wichtigste Handelspartner bei den Einfuhren.</t>
         </is>
       </c>
-      <c r="K61" s="5" t="inlineStr">
+      <c r="K62" s="5" t="inlineStr">
         <is>
           <t>Information about imports to Germany is compiled from the foreign trade statistics of the Federal Statistical Office. In this case, the type of the imported goods is also recorded in detail in addition to their country of origin, their value and weight. The service sector is excluded from foreign trade statistics.
 The various countries are classified as LDCs based on the list of recipients of official development assistance kept by the Development Assistance Committee (DAC) of the Organisation for Economic Cooperation and Development (OECD). The classifications valid in the respective year according to the OECD-DAC are used for this indicator. If the status of a country changes, this will impact the indicator even if the value of imports from this country remains unchanged.
@@ -5520,21 +5590,91 @@
 Closer analysis of the various countries of origin reveals that the largest amount of Germany’s imports from LDCs in 2021 came from Bangladesh (57.3 %) or Cambodia (12.6 %). If one looks not only at the LDCs but at all developing and emerging countries, their share of total imports to Germany in 2021 was 23.7 %, and processed products from those countries accounted for 22.1 %. China plays the most important role among all developing and emerging countries. Of all German imports in 2021, 1,203.2 billion euros or 11.8 % came from China alone, with processed goods making up 99.6 %. Netherlands (8.8 %) and the United States (6.0 %) are the second and third most important trading partners concerning imports, respectively.</t>
         </is>
       </c>
-      <c r="L61" s="4" t="inlineStr">
+      <c r="L62" s="4" t="inlineStr">
         <is>
           <t>17.11.1</t>
         </is>
       </c>
-      <c r="M61" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N61" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O61" s="7">
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7">
         <v>45593</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>03.4.a,b</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G63" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J63" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N63" s="6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>03.3.a</t>
+          <t>03.3.b</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -630,71 +630,5121 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
+          <t>Z01_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>01.1.a,b</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Materielle und soziale Deprivation sowie erhebliche materielle und soziale Deprivation</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Material deprivation and severe material deprivation</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>Materielle Deprivation beschreibt den unfreiwilligen Verzicht auf ausgewählten Konsum aufgrund finanzieller Probleme und den Mangel an bestimmten Gebrauchsgütern aus finanziellen Gründen. Beide Indikatoren geben den Anteil der Personen an der Gesamtbevölkerung an, die als materiell depriviert (1.1.a) bzw. als erheblich materiell depriviert (1.1.b) gelten. Die (erhebliche) materielle Entbehrung trifft für alle Menschen zu, deren Haushalt von neun vorgegebenen Kriterien, welche die finanziellen Einschränkungen des Haushalts widerspiegeln, mindestens drei (erheblich materiell depriviert: mindestens vier) erfüllt.</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>Material deprivation describes the lack of specific consumer goods and the involuntary foregoing of discretionary consumption for financial reasons. The two indicators represent the proportion of people out of the total population who are deemed to suffer either material deprivation (1.1.a) or severe material deprivation (1.1.b). The designation of (severe) material deprivation applies to all people whose household meets at least three (severely materially deprived: at least four) of nine defined criteria reflecting the financial restrictions of the household.</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator „materielle Deprivation“ (auch: materielle Entbehrung) ist auch Teil der ausführlichen Armuts- und Reichtumsberichterstattung der Bundesregierung. Durch die Identifikation individueller Mangelsituationen soll er zur Abbildung armutsgefährdeter Lebenslagen dienen. Ziel der Bekämpfung „materieller Deprivation“ ist es, dass der Prozentsatz der Personen, die materiell depriviert bzw. erheblich materiell depriviert sind, jeweils unter dem Niveau der Europäischen Union (EU) liegt.</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>The indicator “material deprivation” also is part of the extensive reporting on poverty and wealth conducted by the Federal Government. By identifying individual deficiencies, it aims to act as a substitute for illustrating living conditions threatened by poverty. The target is to combat material deprivation, therefore both, the percentage of persons who are materially as well as severely materially deprived, should stay below the level within the European Union.</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten stammen aus der europaweit harmonisierten jährlichen Statistik über Einkommen und Lebensbedingungen (EU-SILC), die ab dem Erhebungsjahr 2020 aufgrund der zunehmenden Anforderungen an die Daten hinsichtlich der Aktualität und Bereitstellung tiefer regionaler Ergebnisse mit weitreichenden methodischen Änderungen in den Mikrozensus integriert worden ist. Dadurch sind die Ergebnisse ab 2020 nicht mit denen der vorherigen Erhebungsjahre vergleichbar.
+Als Kriterien, die zur Beschreibung materieller Entbehrung dienen, wurden Ausgaben für eine Lebensführung ausgewählt, die in Europa als angemessen, wünschenswert oder gar notwendig angesehen werden. Diese sind für alle Länder, in denen EU-SILC durchgeführt wird, einheitlich und ermöglichen somit einen europaweiten Vergleich. Materielle Entbehrung liegt nach der Definition für EU-SILC dann vor, wenn aufgrund der Selbsteinschätzung des Haushalts mindestens drei (erhebliche materielle Entbehrung: mindestens vier) der folgenden neun Kriterien erfüllt sind:
+   1. 	Finanzielles Problem, die Miete, Hypotheken oder Rechnungen für Versorgungsleistungen rechtzeitig zu bezahlen.
+   2. 	Finanzielles Problem, die Wohnung angemessen heizen zu können.
+   3. 	Finanzielles Problem, unerwartete Ausgaben in einer bestimmten Höhe aus eigenen finanziellen Mitteln bestreiten zu können.
+   4. 	Finanzielles Problem, jeden zweiten Tag Fleisch, Fisch oder eine gleichwertige vegetarische Mahlzeit einnehmen zu können.
+   5. 	Finanzielles Problem, jährlich eine Woche Urlaub woanders als zu Hause zu verbringen.
+   6. 	Fehlen eines Pkw im Haushalt aus finanziellen Gründen.
+   7. 	Fehlen einer Waschmaschine im Haushalt aus finanziellen Gründen.
+   8. 	Fehlen eines Farbfernsehgeräts im Haushalt aus finanziellen Gründen.
+   9. 	Fehlen eines Telefons im Haushalt aus finanziellen Gründen.
+Bis zum Jahr 2019 gingen im Zeitverlauf die Anteile der Bevölkerung, sowohl die von materieller als auch die von erheblicher materieller Entbehrung betroffen ist, in Deutschland wie in der gesamten Europäischen Union (EU) leicht zurück. Dabei lagen die Werte für Deutschland stets deutlich unter denen der EU.
+Im Jahr 2020 waren in Deutschland 13,4 % der Bevölkerung von materieller Entbehrung betroffen. Der Wert liegt damit knapp über dem Wert für die EU-Bevölkerung von 13,3 %, der für 2020 vom statistischen Amt der Europäischen Union (Eurostat) erstmals ohne das Vereinigte Königreich (Brexit) gerechnet worden ist. Daher und auf Grund der oben genannten methodischen Änderungen am Erhebungskonzept ist der Wert nur eingeschränkt mit den Vorjahreswerten vergleichbar.
+Auch nach EU-Austritt des Vereinigten Königreichs und methodischen Anpassungen der Erhebung lag die Rate der von erheblicher materieller Entbehrung Betroffenen in Deutschland 2020 mit 5,6 % weiterhin unterhalb des Wertes für die EU von 5,9 %. Damit wurde das Ziel der Bundesregierung im Falle der erheblichen materiellen Entbehrung knapp erreicht.
+Im Rahmen der Erstellung der Europa 2030-Ziele hat der Indikator zur „Rate der (erheblichen) materiellen Deprivation“ in der EU eine Neudefinition und Erweiterung erfahren, indem nun auch zusätzliche Kriterien zur sozialen Entbehrung berücksichtigt werden. Auf europäischer Ebene werden zukünftig nur noch die Indikatoren „Rate der (erheblichen) materiellen und sozialen Deprivation“ bereitgestellt werden. Daher wird bei der Deutschen Nachhaltigkeitsstrategie eine Anpassung der Ziele und der Indikatoren zur (erheblichen) materiellen Deprivation notwendig.</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>The data is drawn from the Europe-wide harmonised annual Statistics on Income and Living Conditions (EU-SILC) which is incorporated into the microcensus with extensive methodological changes from the 2020 survey year onward due to increasing requirements on data with respect to actuality and provision of more detailed regional results. As a consequence, the data since survey year 2020 are not comparable with prior survey years. 
+The selected survey variables are expenditures based on a lifestyle that is considered appropriate, desirable or even necessary in Europe. These nine criteria used to characterise material deprivation are standardised across all countries in which EU-SILC is conducted, thereby allowing Europe-wide comparisons. Survey results are derived from self-assessment of households. According to the definition of EU-SILC, households are characterized to suffer from (severe) material deprivation, if they fulfil at least three (severe material deprivation: at least four) of the following nine criteria:
+   1.	Financial difficulties to pay for rent, mortgages, or utility bills on time.
+   2.	Financial difficulties to ensure adequate heating in the residence.
+   3.	Financial difficulties to meet unplanned expenditures of a specific amount from one’s own financial resources.
+   4.	Financial difficulties to eat meat, fish or an equivalent vegetarian meal every second day.
+   5.	Financial difficulties to spend one week’s holidays per year outside the actual residence.
+   6.	Lack of a car in the household due to financial reasons.
+   7.	Lack of a washing machine in the household due to financial reasons.
+   8.	Lack of a colour TV in the household due to financial reasons. 
+   9.	Lack of a telephone in the household due to financial reasons.
+Until 2019, the shares of the population experiencing both material deprivation and severe material deprivation declined over time for Germany as in the European Union (EU) as a whole. At all times, the values for Germany were always significantly lower than those for the EU.
+In 2020 13.4 % of the population in Germany were affected by material deprivation. This value is slightly higher than the value for the EU population that is 13.3 %, which was calculated by the Statistical Office of the European Union (Eurostat) excluding the United Kingdom (Brexit) for the first time in 2020. For this reason, and due to the above-mentioned methodological changes to the survey design, the value is only comparable with the previous year's figures to a limited extent. Even after the UK's EU exit and methodological adjustments to the survey, the rate of people experiencing severe material deprivation in Germany in 2020 remained below the EU figure of 5.9 % at 5.6 %. The German government's target for severe material deprivation was thus just achieved.
+The indicator on "severe material deprivation" has been redefined and expanded in the EU as part of the Europe 2030 targets, in that additional criteria on social deprivation are now also taken into account. At the European level, therefore, only the indicators "rate of (severe) material and social deprivation" will be provided in the future. A corresponding adjustment of the goals and indicators of the German Sustainability Strategy will therefore be necessary.</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>1.2.2</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N2" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>02.1.a</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Stickstoffüberschuss der Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Nitrogen surplus in agriculture</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt den jährlichen Stickstoffüberschuss für den Sektor Landwirtschaft, berechnet als Stickstoffzufuhr abzüglich Abfuhr von Stickstoff, in Kilogramm (kg) je Hektar (ha) und Jahr landwirtschaftlich genutzter Fläche dar.</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>The indicator represents the annual nitrogen surplus for the agricultural sector, calculated as nitrogen input minus removal of nitrogen, in kilograms per hectare of utilised agricultural area.</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>Im Übermaß in die Umwelt eingetragener Stickstoff führt zur Belastung von Grund- und Oberflächenwasser, zur Überversorgung von Binnengewässern, Meeren und Landökosystemen mit Nährstoffen (Eutrophierung), zur Entstehung von Treibhausgasen und versauernden Luftschadstoffen mit negativen Folgen für Klima, Artenvielfalt und Landschaftsqualität. Für den Zeitraum 2028 bis 2032 soll im Mittel eine Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche pro Jahr erreicht werden.</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>Excess nitrogen input into the environment causes pollution of groundwater and surface water, the oversupply of nutrients (eutrophication) in inland waters, lakes and onshore ecosystems, the generation of greenhouse gases and acidifying atmospheric pollutants, each with negative consequences for the climate, biodiversity and landscape quality. For the period 2028 to 2032, a reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilograms per hectare of utilised agricultural area on an annual average should be achieved.</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>Bei der Berechnung des Indikators werden Stickstoffzufuhren durch Düngemittel, aus biologischer Stickstofffixierung, durch atmosphärische Einträge, durch Saat- und Pflanzgut sowie durch Futtermittel berücksichtigt. Die Stickstoffabfuhr erfolgt über pflanzliche und tierische Marktprodukte. Der überschüssige Stickstoff kann in gasförmiger Form in die Atmosphäre entweichen, sich im Boden anreichern oder in Richtung Grundwasser verlagern. Dadurch kann es letztendlich auch zu einem Stickstoffeintrag in Flüsse oder andere Ökosysteme kommen. Der Stickstoffüberschuss der Landwirtschaft beeinflusst hierdurch direkt die Entwicklung der Indikatoren 6.1.b „Nitrat im Grundwasser“, 14.1.a „Stickstoffeintrag über die Zuflüsse in Nord- und Ostsee“ und 15.2 „Eutrophierung der Ökosysteme“. Bei dem Indikator 3.2.a „Emissionen von Luftschadstoffen“ hat der Eintrag von Stickstoff aus der Landwirtschaft in die Atmosphäre Auswirkungen auf die Entstehung von Stickstoffdioxiden und Ammoniak.
+Der Indikator wird vom Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Instituts und vom Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen berechnet. Im Jahr 2020 waren Düngemittel mit 51,1 % (86 kg/ha) die wichtigste Komponente der Stickstoffzufuhr in der Gesamtbilanz. Daneben trugen Futtermittel mit 36,9 % (62 kg/ha), die biologische Stickstofffixierung mit 8,2 % (14 kg/ha) und die außerlandwirtschaftlichen Emissionen mit 1,9 % (3 kg/ha) substanziell zur Stickstoffzufuhr bei.
+Die Berechnung des Indikators basiert auf dem gleitenden Fünfjahresdurchschnitt, bei dem der Mittelwert aus Werten von fünf Berichtsjahren gebildet wird. Der gleitende Fünfjahresdurchschnitt gibt jeweils den Wert für das mittlere der fünf Berichtsjahre an. Hierdurch werden witterungs- und marktabhängige jährliche Schwankungen geglättet, die nicht von den landwirtschaftlichen Betrieben beeinflusst werden können. Der Indikator trifft keine Aussage zur regionalen Verteilung der Stickstoffüberschüsse.
+Der gleitende Fünfjahresdurchschnitt des Stickstoffsaldos sank im Zeitraum von 1992 bis 2018 um 25,4 % (von 116,6 auf 87,0 Kilogramm je Hektar und Jahr). Dabei sank der Stickstoffüberschuss zu Beginn der Zeitreihe bis zum Jahr 2010. Gründe hierfür waren vor allem der reduzierte Düngemitteleinsatz und abnehmende Tierbestände in den neuen Bundesländern.
+Bis zum Jahr 2015 stagnierten die Stickstoffüberschüsse. In diesem Zeitraum waren ein leichter Rückgang beim Einsatz mineralischer Düngemittel und höhere Erntemengen aufgrund des technischen Fortschritts in der Pflanzenproduktion und -züchtung (effizientere Stickstoffdüngung, Sortenspektrum) zu verzeichnen. Gleichzeitig wurde der Anbauumfang ertragsstarker Kulturarten (Mais, Weizen) ausgeweitet sowie die Futterverwertung bei den Nutztieren verbessert.
+Seit dem Jahr 2015 hat sich der Stickstoffüberschuss wieder nach unten bewegt und sank zuletzt deutlich um 4,9 % im Jahr 2018. Inwieweit dieser positive Trend neben den extremen agrarklimatischen Bedingungen (Dürre 2018 bis 2020) auch der novellierten Düngeverordnung 2017 zugerechnet werden kann, ist derzeit noch unklar. Nur wenn sich der aktuelle Trend weiter verfestigt, was sich in den nächsten Jahren zeigen wird, kann das Ziel einer Verringerung auf 70 kg/ha erreicht werden.</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>The calculation takes into account nitrogen inputs by fertilisers, from biological nitrogen fixation, by atmospheric inputs which are not emitted by agriculture, by seed and planting material as well as imported and domestically produced feedstuff. Nitrogen removal results from plant and animal market products. Nitrogen surplus in its gaseous state can leak to the atmosphere or accumulate in soil or groundwater, enabling nitrogen input to rivers or other ecosystems. Hence, the nitrogen surplus from farming has a direct impact on the development of the indicators 6.1.b “Nitrate in groundwater“, 14.1.a “Nitrogen inputs via the inflows into the North and Baltic Seas“ and 15.2 “Eutrophication of ecosystems“. Nitrogen input from farming into the atmosphere has an impact on indicator 3.2.a “Emissions of air pollutants“ through formation of nitrogen dioxide and ammonia.
+The indicator is calculated by the Institute for Crop and Soil Science at the Julius Kühn Institute and the Institute of Landscape Ecology and Resources Management at the University of Gießen. In 2020, fertilisers were the most important component of nitrogen input in the overall balance, accounting for 51.1 % (86 kilograms of nitrogen per hectare). Feedstuff contributed 36.9 % (62 kg/ha), the biological nitrogen fixation 8.2 % (14 kg/ha) and the non-agricultural emissions 1.9 % (3 kg/ha) to nitrogen input.
+The relevant time series for the indicator is based on the moving five-year average of the total balances of the relevant year as well as the two preceding and subsequent years. Thereby, yearly meteorological and market fluctuations, which cannot be influenced by farms, are balanced. The indicator does not provide an interpretation regarding the regional distribution of nitrogen surpluses.
+During the period from 1992 to 2018, the moving five-year average of nitrogen balance decreased by 25.4 % (from 116.6 to 87.0 kg per hectare and year). The decline of nitrogen surplus until 2010 resulted from diminished use of fertilisers and diminishing numbers of livestock in the new Länder.
+Until 2015, nitrogen surplus stagnated. The marginal decline of the indicator in the remaining course of the time series is based on a minor reduction in mineral fertiliser use and improved harvest yields resulting from technical advances in plant production and breeding (more efficient nitrogen fertilisation, variety spectrum) combined with the simultaneous expansion in the cultivation of high-yield crop types (maize, wheat) as well as improved feed conversion by livestock.
+Since 2015, the nitrogen surplus decreased and the recent reduction was 4.9 % in 2018. It is uncertain, to what extent extreme agroclimatic conditions (drought from 2018 until 2020) and the amended fertiliser regulation released in 2017 contributed to this positive trend. A reduction to 70 kg/ha is only possible, if this trend continues in the next years.</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>45562</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>02.1.b</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Ökologischer Landbau</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Organic farming</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt die ökologisch bewirtschaftete Fläche landwirtschaftlicher Betriebe, die dem Kontroll-verfahren der EU-Rechtsvorschriften für den ökologischen Landbau unterliegen (Verordnung [EG] Nr. 834/2007 und Durchführungsvorschriften), als Anteil an der gesamten landwirtschaftlich bewirtschafteten Fläche in Deutschland dar. Hierbei sind sowohl die voll auf ökologische Bewirtschaftung umgestellten als auch die noch in der Umstellung befindlichen Flächen einbezogen.</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the share of total utilised agricultural area in Germany that is cultivated by organically managed farms subject to the control system regulated by the EU legislation on organic farming (Regulation (EC) No. 834/2007 and the implementing rules). It includes land that has been fully converted to organic management as well as areas still undergoing conversion.</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>Ökologischer Landbau erhält und schont die natürlichen Ressourcen in besonderem Maße, hat vielfältige positive Auswirkungen auf Natur, Klima und Umwelt und dient der Erzeugung qualitativ hochwertiger Lebensmittel. Deshalb soll nach dem Grundsatzbeschluss zur Deutschen Nachhaltigkeitsstrategie 2022 bis zum Jahr 2030 der Anteil landwirtschaftlicher Flächen unter ökologischer Bewirtschaftung 30 %&lt;sup&gt;1&lt;/sup&gt; betragen.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung des Zielwertes von 20 % bis 2030 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>Organic farming preserves and protects natural resources to a particularly high degree. It has a range of positive effects upon nature, climate and the environment, and provides for the production of high quality food. For this reason, the proportion of organically farmed agricultural land should be 30 %&lt;sup&gt;1&lt;/sup&gt;  by 2030.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target value from 20 % by 2030 according to policy resolution 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten zur ökologischen Bewirtschaftung werden sowohl von der Bundesanstalt für Landwirtschaft und Ernährung (BLE) im Auftrag des Bundesministeriums für Ernährung und Landwirtschaft (BMEL) als auch vom Statistischen Bundesamt ermittelt.
+Vom Statistischen Bundesamt werden zur Ermittlung der ökologisch bewirtschafteten Fläche verschiedene Erhebungen herangezogen. In den Jahren einer Strukturerhebung werden die ökologischen Flächenangaben primärstatistisch erfasst, wohingegen in den Zwischenjahren ein Schätzverfahren zur Anwendung kommt. Die Bezugsgröße für die Anteilsberechnung ist die landwirtschaftlich genutzte Fläche, welche jährlich im Rahmen der Bodennutzungshaupterhebung ermittelt wird. Stichtag ist hierfür der 01.03. des Berichtsjahres. Die landwirtschaftlich genutzte Fläche umfasst alle landwirtschaftlich oder gärtnerisch genutzten Flächen. Gebäude- und Hofflächen der landwirtschaftlichen Betriebe sind demnach nicht in der Bezugsgröße enthalten.
+Die Daten des BMEL enthalten Angaben zur ökologisch bewirtschafteten Fläche, die von den Öko-Kontrollbehörden der Länder jährlich gemeldet werden. Stichtag ist der 31.12. eines Jahres. Alle Meldungen eines laufenden Jahres werden bis zu diesem Stichtag akkumuliert. In den Daten des BMEL ergeben sich etwas höhere Werte. Dies ist unter anderem darin begründet, dass dabei Flächen ohne Abschneidegrenze auf die gesamten Flächen mit Abschneidegrenze bezogen werden und unterschiedliche Berichtszeiträume vorliegen. Das heißt, in die Berechnung des Anteils gehen im Zähler auch sehr kleine Flächen ein, während im Nenner nur Flächen ab einer bestimmten Mindestgröße Berücksichtigung finden.
+Nach den Daten des Statistischen Bundesamtes stieg der Flächenanteil unter ökologischer Bewirtschaftung an der landwirtschaftlichen Nutzfläche zwischen 1999 und 2021 von 2,9 auf 9,5 %. Das entspricht im Jahr 2021 einer Fläche von 1,61 Millionen Hektar. Die Daten des BMEL weisen einen höheren Anteil von Ökolandbaufläche an der landwirtschaftlichen Nutzfläche aus. Der Wert für 2021 lag demnach bei 10,9 % oder 1,80 Millionen Hektar.
+Basierend auf den Zahlen des Statistischen Bundesamtes würde bei einer Fortschreibung des Trends der vergangenen fünf Berichtsjahre der Flächenanteil unter ökologischer Bewirtschaftung im Jahr 2030 bei 14,9 % liegen. Somit würde das Ziel, dass bis 2030 30 % der landwirtschaftlichen Nutzfläche ökologisch bewirtschaftet werden, nicht erreicht werden. Auch das ehemalige Ziel der Regierung von 20 % ökologisch bewirtschafteter landwirtschaftlicher Nutzfläche bis 2030 würde nicht erreicht werden.
+Die Ökolandbaufläche Deutschlands wurde 2021 wie folgt genutzt: 50,6 % als Dauergrünland, 47,8 % als Ackerland und 1,6 % als sonstige Flächen. Demgegenüber lag der Schwerpunkt in der Landwirtschaft insgesamt mit 70,3 % bei den Ackerflächen, der Anteil des Dauergrünlands betrug 28,5 % und die sonstigen Flächen bedeckten 1,2 % der gesamten landwirtschaftlich genutzten Fläche. Nach Ergebnissen der Landwirtschaftszählung 2020 ist unter allen Flächenländern der Anteil unter ökologischer Bewirtschaftung an der landwirtschaftlichen Nutzfläche im Saarland mit 18,0 % am höchsten, gefolgt von Hessen mit 15,0 % und Brandenburg mit 13,3 %. Die Umstellung auf Ökolandbau wird von den einzelnen Bundesländern in unterschiedlichem Umfang gefördert.
+In den Staaten der EU-27 wurde nach Angaben von Eurostat im Jahr 2020 eine Fläche von insgesamt 14,7 Millionen Hektar ökologisch bewirtschaftet. Dies entsprach einem Anteil von 9,1 % an der gesamten landwirtschaftlich genutzten Fläche. Die höchsten Anteile der Ökolandbaufläche innerhalb der EU-Staaten waren für Österreich mit 25,7 % zu verzeichnen, gefolgt von Estland mit 22,4 %, Schweden mit 20,3 %, Italien mit 16,0 % und der Tschechischen Republik mit 15,3 %.</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>Data on organic farming are collected by the Federal Office for Agriculture and Food (BLE) on behalf of the Federal Ministry of Food and Agriculture (BMEL) and by the Federal Statistical Office.
+The Federal Statistical Office uses various surveys to determine the amount of organically farmed land. Agricultural area is recorded by primary statistical methods in a structural survey. Since not every year is covered in the survey, data for interim years are calculated by an estimation procedure. The reference value for the proportional computation is the amount of utilised agricultural area determined annually as part of the land use survey. The reporting date is 01 March of the respective year. The utilised agricultural area includes all areas and sub-areas used for agricultural or horticultural purposes. Building and farmyard areas of agricultural holdings are therefore not included in the reference value.
+The data collected by the BMEL include details of the amount of organically farmed land reported annually by the organic regulatory authorities of the Länder. The reporting date is 31 December of a year. All reports for a current year are accumulated no later than the reporting date. The data from the BMEL contain slightly higher values. Amongst others, this is due to the fact that areas without a cut-off threshold are related to all areas with a cut-off threshold. This means that very small areas are also included in the numerator when calculating the proportion, whereas only areas above a certain minimum size are taken into account in the denominator.
+According to data from the Federal Statistical Office, the share of organically farmed land increased from 2.9 % to 9.5 % between 1999 and 2021. As a result, in 2021 this amounted to an area of 1.61 million hectares. The data from the BMEL indicate a slightly higher share of organically farmed land in total agricultural land due to the methodology employed. Consequently, the value for 2021 was 10.9 % or 1.80 million hectares.
+Based on data from the Federal Statistical Office, the share of organically farmed agricultural land will be 14.9 % in 2030 if the trend continues at the level recorded in the preceding five reporting years. Hence, neither the target of reaching 30 % nor the outdated 20 % target of organically farmed agricultural land by 2030 would be met. 
+Germany’s organically farmed land was used as follows in 2021: 50.6 % as permanent pasture, 47.8 % for arable land and 1.6 % for other land. In contrast, the main focus of agriculture as a whole was on arable land (70.3 %), while the share of permanent pasture was 28.5 % and other land accounted for 1.2 % of the total utilised agricultural area. According to the results of the 2020 farm structure survey, Saarland held the largest share of organically farmed land among all Länder (around 18.0 %), followed by Hessen (15.0 %) and Brandenburg (13.3 %). The conversion to organic farming is promoted to varying degrees by the individual Länder.
+According to Eurostat statistics, a total area of 14.7 million hectares was organically farmed in the states of the EU-27 in 2020. This corresponded to a share of 9.1 % of total agriculturally used area. In regards to the total utilised agricultural area in individual EU countries, the highest share of organic farming land was recorded in Austria (25.7 %), followed by Estland (22.4 %), Sweden (20.3 %), Italy (16.0 %) and the Czech Republic (15.3 %)</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>2.4.1</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N4" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>02.2</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Unterstützung guter Regierungsführung bei der Erreichung einer angemessenen Ernährung weltweit</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Support for good governance in attaining appropriate nutrition worldwide</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator misst in Prozent den Anteil der ausgezahlten Mittel an den Gesamtausgaben für Ernährungssicherung, mit dem die Anwendung relevanter internationaler Normen und Empfehlungen zur Verwirklichung des Rechts auf Nahrung (definiert nach dem Global Strategic Framework des Ausschusses für die Welternährungssicherheit der Vereinten Nationen (Committee on World Food Security, CFS) unterstützt wird.</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>The indicator measures the percentage share of disbursed funds in total expenditure on food security that is used for the implementation of relevant international norms and recommendations for the realisation of the right to food (defined by the Global Strategic Framework of the United Nations Committee on World Food Security).</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Dem Indikator liegt die Annahme zugrunde, dass durch die Förderung der Anwendung internationaler Leitlinien und Empfehlungen im Bereich Ernährungssicherung die Ernährungssituation verbessert und somit ein wichtiger Beitrag zur Erfüllung von SDG 2 und zur Verwirklichung des Rechts auf Nahrung geleistet werden kann.
+Der Indikator misst den deutschen Beitrag zur Stärkung guter Regierungsführung im Kontext von Ernährungssicherung. Der Anteil der ausgezahlten Mittel für Ernährungssicherung, der für Governance eingesetzt wird, soll bis 2030 angemessen steigen.</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>The indicator is based on the assumption that supporting the implementation of international guidelines and recommendations for food security will improve nutrition. Thus, a substantial contribution towards fulfilling SDG 2 and towards the realisation of the right to food can be achieved.
+The indicator measures the German contribution to reinforcement of good governance for food security. The share of disbursements used for good governance for food security should be increased adequately by 2030.</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Die Datenerhebung wird vom Bundesministerium für Ernährung und Landwirtschaft (BMEL) und vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) vorgenommen. Hierbei erfolgt eine Prüfung aller Projekt- und Programmdokumente zu Vorhaben im Bereich der Ernährungssicherung. Eine Kongruenz zur Erfassung der diesbezüglichen Ausgaben als öffentliche Entwicklungsausgaben (ODA) muss gegeben sein. Projekte, in denen im Ziel, in der Wirkungsmatrix oder der Projektbeschreibung a) eine Leitlinie oder eine Empfehlung des Global Strategic Framework für Ernährungssicherung konkret genannt wird oder b) ein inhaltliches Kernelement einer Leitlinie/Empfehlung substanzieller Teil des Vorhabens ist und die gleichzeitig das Vorhaben der Stärkung rechtlicher, institutioneller oder politischer Rahmenbedingungen zum Ziel haben, werden dabei als förderlich für die Unterstützung guter Regierungsführung angesehen. Da der Indikator als Anteil dieser Leistungen an allen Leistungen mit Bezug zur Ernährungssicherheit ausgedrückt wird, gibt er auf den ersten Blick keine Informationen über die Entwicklung der Leistungen für Ernährungssicherung oder der Unterstützungsleistungen für gute Regierungsführung in diesem Bereich.
+Im Jahr 2018 wurden im Bereich Ernährungssicherung für den Teilbereich Governance 223 Millionen Euro aufgebracht. Dies entspricht 18,3 % der ODA-Gesamtausgaben für Ernährungssicherung in Höhe von 1 215 Millionen Euro in 2018. Dabei hat sich im Vergleich zu 2016 mit 16,7 % nicht nur der prozentuale Anteil des Governance-Anteils an den ODA Leistungen zur Ernährungssicherheit erhöht. Vielmehr stiegen im Vergleich zu 2016 auch die absoluten Ausgaben sowohl für die Ernährungssicherheit insgesamt von 887 Millionen Euro als auch für die Verbesserung der Regierungsführung in diesem Bereich von 148 Millionen Euro an.
+Im Vergleich zu den gesamten öffentlichen Entwicklungsausgaben stellen die Ausgaben sowohl die Bereiche Governance als auch für die Ernährungssicherung lediglich einen kleinen Teil dar. So wurden im Jahr 2018 insgesamt 25 Milliarden Euro ODA aufgebracht. Davon entfielen 4,9 % auf Ernährungssicherung bzw. 0,9 % auf gute Regierungsführung im Bereich Ernährungssicherung.</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>The data collection for the indicator was conducted by the Federal Ministry of Food and Agriculture (BMEL) and the Federal Ministry for Economic Cooperation and Development (BMZ). For this, a review of all project and programme documents on undertakings in the field of food security was carried out. There must be congruity with the recording of the related spending as official development assistance (ODA). A project is counted if in the target of the impact matrix or project description a) the application of a guideline or recommendation of the Global Strategic Framework for Food Security is specifically mentioned or b) a key element with regard to the content of a guideline or recommendation is a substantial part of the undertaking and at the same time the undertaking aims to strengthen the legal, institutional or political framework. The indicator shows the proportion of expenditures to total expenditures in relation to food security. Thus, it does not include information about the development of expenditures for food security or the development of financial benefits for good governance.
+In 2018, a total of 223 million euros, or 18.3 % of the total expenditure of 1,215 million euros on ODA for food security, fell under the subheading of governance. In comparison to 2016, total expenditures for food security and for improvement of governance increased from 887 million euros and 148 million euros, respectively. Accordingly, the percentage share for governance as part of ODA expenditures increased in comparison to 2016 from 16.7 %.
+Compared with the total amount of ODA, however, the proportions allocated to both governance and food security are small. In 2018, for example, total spending on ODA amounted to 25 billion euros. Of that amount, 4.9 % went to food security and 0.9 % to good governance within the realm of food security.</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>2.a.2</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>45637</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>03.1.a</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Durch Prävention und Behandlung vermeidbare Sterblichkeit</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Premature mortality</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator umfasst die Todesfälle der weiblichen (3.1.a) und männlichen (3.1.b) unter 70-jährigen Bevölkerung, bezogen auf 100 000 Einwohnerinnen und Einwohner der alten Europastandardbevölkerung unter 70 Jahren (unter Ausschluss der unter 1-Jährigen).</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>The indicators comprise deaths among women (3.1 a) and men (3.1 b) in the population below 70 years of age with reference to 100,000 inhabitants of the “old” standardised European population below 70 years (excluding those less than 1 year old).</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Bis zum Jahr 2030 soll die vorzeitige Sterblichkeit bei Frauen bei höchstens 100 und bei Männern bei höchstens 190 Todesfällen je 100 000 Einwohnerinnen und Einwohnern liegen.</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>By 2030, premature mortality among women (3.1.a) should not exceed 100, and for men (3.1.b), it should not exceed 190 deaths per 100,000 inhabitants.</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten stammen aus der Todesursachenstatistik und der Bevölkerungsfortschreibung des Statistischen Bundesamtes. Alle amtlichen Todesbescheinigungen werden im Rahmen der Todesursachenstatistik erfasst und ausgewertet. Die aktuellen Bevölkerungszahlen gibt die Bevölkerungsfortschreibung basierend auf den Ergebnissen der jeweiligen letzten Volkszählung an. Um einen Vergleich von Veränderungsraten über die Zeit zu ermöglichen, beziehen sich die Daten auf die alte Europastandardbevölkerung. Hierbei handelt es sich um eine Modellbevölkerung.
+Die Indikatoren 3.1.a und 3.1.b werden auch im Informationssystem der Gesundheitsberichterstattung des Bundes (www.gbe-bund.de) zur Verfügung gestellt. Die Säuglingssterblichkeit (unter 1-Jährige) wird nicht betrachtet.
+Zwischen 1991 und 2020 ist die vorzeitige Sterblichkeit bei Frauen (‒38 %) und Männern (‒44 %) stetig zurückgegangen. Durch den stärkeren Rückgang bei Männern hat sich auch der geschlechtsspezifische Unterschied der vorzeitigen Sterblichkeit verringert. 145 Frauen und 276 Männer je 100 000 Einwohnerinnen und Einwohner starben im Jahr 2020 bevor sie das 70. Lebensjahr vollendeten. Die geschlechtsspezifischen Zielwerte für das Jahr 2030 würden jedoch bei gleichbleibender Entwicklung, wie in den vergangenen Jahren, verfehlt werden.
+Im Zeitverlauf der Indikatoren spiegeln sich die insgesamt deutlich erhöhten Sterbefälle aufgrund der COVID-19-Pandemie im Jahr 2020 kaum wider. Während die Sterblichkeit bei den hier nicht betrachteten über 80-Jährigen in 2020 deutlich angestiegen ist, lag der Anteil von COVID-19 an den Todesursachen in der hier betrachteten Altersklasse bei 1,7 % bei den Frauen und 2,3 % bei den Männern, sodass die Indikatoren durch die COVID-19-Pandemie wenig beeinflusst wurden. Es wird dabei davon ausgegangen, dass es zu keiner wesentlichen Untererfassung der COVID-19-Todesfälle kam.
+Die Lebenserwartung ist ein Indikator, der auf Grundlage der Statistik der Sterbefälle und der Bevölkerungsfortschreibung berechnet wird und Effekte der Bevölkerungsalterung auf die Entwicklung der Sterblichkeit herausrechnet. Im Zuge der Pandemie kam es zu einem kurzfristigen Rückgang der Lebenserwartung in den Jahren 2020 und 2021. Langfristig gesehen hat sich die Lebenserwartung in Deutschland, entsprechend dem insgesamt stetigen Rückgang der vorzeitigen Sterblichkeit, weiter positiv entwickelt. Mit 17,0 weiteren Lebensjahren können statistisch gesehen heute 70-jährige Frauen rechnen, Männer mit weiteren 14,3 Jahren. In den Jahren 2019 bis 2021 betrug die mittlere Lebenserwartung für neugeborene Mädchen 83,4 Jahre und für Jungen 78,5 Jahre. Sie liegt damit für Mädchen um 4,4 Jahre und für Jungen um 6,1 Jahre höher als in den Jahren 1991 bis 1993. Die in der Vergangenheit ausgeprägten Differenzen bei der Lebenserwartung zwischen dem früheren Bundesgebiet und den neuen Bundesländern (jeweils ohne Berlin) haben sich langfristig betrachtet deutlich reduziert und betragen heute bei neugeborenen Jungen 1,8 und bei neugeborenen Mädchen 0,2 Jahre. Während der Pandemie sind die Ost-West-Unterschiede dabei allerdings wieder größer geworden.
+Bösartige Neubildungen hatten im Jahr 2020 an allen Ursachen der vorzeitigen Sterblichkeit mit 35,9 % (1991 bis 2020: +2,7 Prozentpunkte) den größten Anteil, gefolgt von Herz-Kreislauf-Erkrankungen mit 19,5 % (1991 bis 2020: ‒11,6 Prozentpunkte). Zur vorzeitigen Sterblichkeit trugen weiter Todesfälle aufgrund äußerer Ursachen (wie Unfälle, Vergiftungen, Suizid) mit 8,6 % (1991 bis 2020: ‒2,4 Prozentpunkte), Krankheiten des Verdauungssystems mit 7,3 % (1991 bis 2020: ‒0,3 Prozentpunkte) und Krankheiten des Atmungssystems mit 5,2 % (1991 bis 2020: +1,2 Prozentpunkte) bei.
+Neben Faktoren wie zum Beispiel dem Gesundheitsverhalten (siehe „Raucherquoten“ Indikatoren 3.1.c und 3.1.d sowie „Adipositasquoten“ Indikatoren 3.1.e und 3.1.f) spielt für die Sterblichkeit auch die medizinische Versorgung eine wichtige Rolle. Die Gesundheitsausgaben stiegen im Coron</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>The data sources of the indicators are the death statistics and the intercensal population updates produced by the Federal Statistical Office. As part of the causes of death statistics, all official cause of death certificates are recorded and evaluated. The population statistics specify the current population based on the results of the most recent census. The data refer to the “old” standardised European population. A standard population is a modelled population that makes it possible to compare change rates over time.
+The indicators 3.1.a and 3.1.b are also part of the Federal Health Monitoring information system (www.gbe-bund.de). Those under 1 year of age and consequently the infant mortality rate are excluded from the assessment.
+Premature mortality steadily decreased between 1991 and 2020, both for women (– 38 %) and for men (– 44 %). As a result of this decrease, the gender difference in premature mortality declined, too. In 2020, for example, 145 women and 276 men per 100,000 inhabitants died before they reached the age of 70. If this trend continues unchanged as seen in recent years, the gender-specific targets for 2030 will not be achieved.
+The COVID-19-pandemic caused significantly more deaths in 2020, however, considering the indicators over time, the changes of the values are minor. The mortality in the age group of above 80 years old (not considered for the indicators) considerably increased in 2020, while in the age group below 70 years 1.7 % women and 2.3 % men died due to COVID-19. Therefore, the indicators are less affected by the COVID-19-pandemic. It is assumed, that a substantial undercoverage of COVID-deaths is not prevalent.
+Life expectancy is an indicator based on death statistics and the intercensal population updates and excludes the effects of population ageing on the development of mortality. In 2020 and 2021, the pandemic caused a short-run decline in life expectancy. In the long-run, reflecting the steady decrease in premature mortality, life expectancy in Germany has continued to follow an upward curve. Todays 70-year-old women can, statistically, expect to live another 17.0 years and 70-year-old men another 14.3. Between 2019 and 2021, the average life expectancy was 83.4 years for new-born girls and 78.5 years for boys, which was 4.4 years higher for girls and 6.1 years for boys than the average for the years 1991 to 1993. Differences in life expectancy between the western Länder and the eastern Länder (each excluding Berlin) are for new born girls 0.2 years and for new-born boys 1.8 years and, thus, significantly decreased. However, the differences between east-west Germany are increasing in size due to the pandemic.
+The largest share of all causes of premature mortality in 2020 was malignant neoplasms (35.9 %), followed by cardiovascular diseases (19.5 %). Deaths due to external causes (such as accidents, poisoning, suicide) accounted for as much as 8.6 %. Diseases of the digestive and respiratory tracts contributed 7.3 % and 5.2 %, respectively, to the causes of death. Since 1991, the shares of malignant neoplasms and diseases of the respiratory tract among all causes of death have increased (by + 2.7 and + 1.2 percentage points, respectively). In contrast, causes such as cardiovascular diseases (– 11.6 percentage points), external causes (– 2.4 percentage points) and diseases of the digestive tract (– 0.3 percentage points) have declined.
+Besides factors such as health related behaviour (see, for instance, indicators 3.1.c and 3.1.d on adolescent and adult smoking rates or 3.1.e and 3.1.f on child/adolescent and adult obesity rates), medical care also has an important influence on mortality rates. Health expenditure rose to 440.6 billion euros in 2020 due to the pandemic and reached a peak. It is equivalent to an annual amount of 5,298 euros per capita of population, compared with 4,980 euros in 2019. Since the beginning of calculations in 1992, health care expenditures per capita re</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>45538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>03.1.c,d</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Raucherquote von Jugendlichen und Erwachsenen</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Smoking rate among adolescents and adults</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Die Raucherquote von Jugendlichen (3.1.c) gibt den Anteil der 12- bis 17-Jährigen wieder, die angeben, gelegentlich oder ständig zu rauchen. Die Raucherquote von Erwachsenen (3.1.d) gibt den Anteil der Befragten ab 15 Jahren an, welche im Mikrozensus die Fragen zum Rauchverhalten beantwortet haben und gelegentlich oder regelmäßig rauchen.</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>The smoking rate among adolescents (3.1.c) reflects the share of 12 to 17-year-olds who indicate that they smoke regularly or occasionally. The smoking rate among adults (3.1.d) indicates the share of those surveyed aged 15 and above who answered the questions in the microcensus regarding smoking behaviour and who smoke regularly or occasionally.</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Rauchen kann zu erheblichen Gesundheitsschäden und frühzeitigem Tod führen. Von diesen Risiken betroffen sind nicht nur die Raucherinnen und Raucher selbst. Auch Nichtraucherinnen und Nichtraucher, die dem Tabakrauch ausgesetzt sind, werden nicht nur vom Rauch belästigt, sondern können davon auch erkranken. Die Bundesregierung hat das Ziel, den Anteil der Raucherinnen und Raucher bei Jugendlichen bis zum Jahr 2030 auf 7 % und bei allen Personen ab 15 Jahren auf 19 % zu senken.</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Smoking poses a risk of serious health impairment and premature death, and this risk is not confined to smokers themselves. Non-smokers exposed to tobacco smoke do not just suffer annoyance but can also fall ill from it. The Federal Government is pursuing the goal of reducing the percentage of adolescent smokers to under 7 % by 2030, and that of all smokers aged 15 years and older to 19 %.</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Im Rahmen der Erhebungen zum Substanzkonsum bei Jugendlichen werden die Daten für die 12- bis 17-Jährigen durch die Bundeszentrale für gesundheitliche Aufklärung mittels computergestützter Telefoninterviews erhoben. Zunächst fand die Befragung drei- bis vierjährlich statt und seit 2001 beinahe jährlich. Um die Vergleichbarkeit der Daten im Zeitverlauf zu gewährleisten, erfolgte eine Gewichtung nach Geschlecht, Region und Alter. Für die Darstellung der Zeitreihe wurden die Daten für Jahre ohne Erhebung interpoliert. Im Jahr 2021 umfasste die verwendete Zufallsstichprobe 7 002 Jugendliche.
+Die Daten für Erwachsene werden vierjährlich im Rahmen des Mikrozensus des Statistischen Bundesamtes erfragt. Der Mikrozensus als Stichprobenerhebung umfasst 1 % der Gesamtbevölkerung und ist die größte Haushaltsbefragung in Deutschland und Europa. Die Beantwortung der Fragen zu den Rauchgewohnheiten ist freiwillig und erfolgte 2021 durch 65 % der Befragten. Für Jahre ohne Erhebung wurden die Daten für die Darstellung der Zeitreihe interpoliert.
+In der Gruppe der Jugendlichen zwischen 12 und 17 Jahren stieg der Anteil der Raucherinnen und Raucher zunächst von 22,5 % (2003) auf 23,5 % (2004) an, ging seitdem aber kontinuierlich zurück und ist 2021 auf einem historischen Tiefstand von 6,1 % (6,8 % der weiblichen, 5,5 % der männlichen Jugendlichen). Der Zielwert für 2030 ist damit für die Gruppe der Jugendlichen bereits unterschritten.
+Insgesamt 18,9 % gaben in der Gruppe der Erwachsenen ab 15 Jahren an, im Jahr 2021 gelegentlich oder regelmäßig geraucht zu haben. Im Jahr 2003 rauchten hingegen noch 27,4 % der Erwachsenen. Damit war die Raucherquote in der Gruppe der Erwachsenen ebenfalls rückläufig und der Zielwert für 2030 wurde in 2021 erstmals erreicht.
+Zu den regelmäßigen Raucherinnen und Rauchern zählten sich 14,6 % aller Erwachsenen im Jahr 2021, 4,4 % rauchten gelegentlich. Anders als bei den Jugendlichen rauchten mit einem Anteil von 15,7 % Frauen deutlich weniger als Männer mit 22,3 %. Während der Anteil bei den Frauen seit 2003 um 6,4 Prozentpunkte gesunken ist, waren es bei den Männern sogar 10,9 Prozentpunkte.
+96,2 % der befragten Raucherinnen und Raucher bevorzugten im Jahr 2017 (aktuellere Daten lagen bei Redaktionsschluss noch nicht vor) Zigaretten. Das Risiko für die Gesundheit nimmt mit der Intensität des Tabakkonsums zu. 10,8 % der regelmäßigen Zigarettenraucherinnen und Zigarettenraucher (2003: 16,3 %) waren mit mehr als 20 Zigaretten am Tag den starken Raucherinnen und Rauchern zuzurechnen, 81,4 % rauchten 5 bis 20 Zigaretten am Tag. Dabei gab es geschlechtsspezifische Unterschiede. Fast jeder achte der regelmäßigen Zigarettenraucher rauchte stark, aber nur jede vierzehnte Zigarettenraucherin.
+Rauchen birgt ein hohes und gleichwohl vermeidbares Gesundheitsrisiko. 4,7 % aller Sterbefälle (Frauen: 3,5 %, Männer: 5,8 %) waren im Jahr 2020 auf eine für Raucherinnen und Raucher symptomatische Erkrankung (Lungen-, Bronchial-, Kehlkopf- und Luftröhrenkrebs) zurückzuführen. Im Jahr 2020 lag das durchschnittliche Alter der an Lungen-, Bronchial-, Kehlkopf- und Luftröhrenkrebs Gestorbenen bei 71,6 Jahren und damit sieben Jahre unter dem Durchschnittsalter der Gestorbenen insgesamt (78,8 Jahre). Eine verminderte Raucherquote kann daher zur Senkung der vorzeitigen Sterblichkeit beitragen.</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>The data for 12 to 17-year olds is collected in surveys on substance consumption among adolescents which are conducted by means of computer-assisted telephone interviews by the Federal Centre for Health Education. The surveys initially took place at intervals of three to four years, but since 2001 they have been conducted almost every year. In order to ensure that the data are comparable over time, they are weighted on the basis of gender, region and age. The data for years without surveys have been interpolated for inclusion in the time series. The random sample used in 2021 comprised 7,002 adolescents.
+The data for adults is collected every four years as part of the microcensus conducted by the Federal Statistical Office. The microcensus is a sample survey covering 1 % of the total population and it is the largest household survey in Germany and Europe. The responses to the questions regarding smoking habits are voluntary and were provided by 65 % of those surveyed in 2021. The interim years without a survey were interpolated for the presentation of the indicator time series.
+In the group of adolescents between 12 and 17 years of age, the proportion of smokers initially increased from 22.5 % (2003) to 23.5 % (2004), but then declined steadily to 6.1 % ((6.8 % for adolescent girls, 5.5 % of adolescent boys) by 2021. Therefore, the target value set for 2030 is already achieved.
+In 2021, a total of 18.9 % of the overall population above the age of 15 indicated that they smoked occasionally or regularly. This compares with a figure of 27.4 % in year 2003. This means that the rate of adult smokers had declined and the target value set for 2030 is achieved in 2021 for the first time.
+In 2021, 14.6 % of all adults aged 15 years or older considered themselves regular smokers, while 4.4 % smoked occasionally. In contrast to adolescents, the rate of smokers among women (15.7 %) was significantly lower than for men (22.3 %). While the proportion of women decreased by 6.4 percentage points since 2003, the proportion of male smokers decreased by 10.9 percentage points.
+In 2017, 96.2 % of the smokers surveyed preferred cigarettes. The level of tobacco consumption is important when considering the individual threat to health. 10.8 % of regular cigarette smokers were in the category of heavy smokers (2003: 16.3 %) with a consumption of more than 20 cigarettes a day, whereas 81.4 % smoked 5 to 20 cigarettes a day. In this case, there were differences between the genders. Almost one in eight of male regular cigarette smokers was a heavy smoker, but only one in fourteen of the female smokers.
+Smoking poses a high and at the same time avoidable risk to health. In 2020, 4.7 % of all deaths (3.5 % among women, 5.8 % among men) could be attributed to typical diseases of smokers (lung, bronchial, laryngeal and tracheal cancer). In 2020, the average age of those who died of lung, bronchial, and tracheal cancers was 71.6 years, that is, seven years below the average age of all deaths (78.8 years). A reduction in the number of smokers would therefore help reduce premature mortality.</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>3.a.1</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib03</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>03.1.e</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Adipositasquote von Kindern und Jugendlichen</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Obesity rate among children and adolescents</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der 3- bis 10-Jährigen sowie der 11- bis 17-Jährigen mit Adipositas an.</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the proportion of 3 to 10-year old children and 11 to 17-year-old adolescents suffering from obesity.</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>Adipositas bei Kindern und Jugendlichen gefährdet die altersübliche Entwicklung. Ausgrenzung und sozialer Rückzug sind die Folgen und führen zusätzlich sowohl zu gesundheitlichen als auch zu gesellschaftlichen Problemen. Ein Großteil der bereits adipösen Kinder und Jugendlichen leidet auch im Erwachsenenalter an Adipositas. Daher soll der Anteil von Kindern und Jugendlichen mit Adipositas in Deutschland nicht weiter ansteigen.</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>Obesity among adolescents poses a danger to normal development in that age group. Exclusion and withdrawal from society are the consequences and lead to additional health and social problems. A majority of adolescents already classified as obese will continue to suffer from obesity as adults. For this reason, the proportion of obese adolescents in Germany should not be allowed to increase any further.</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>Der Body Mass Index (BMI) ist ein Richtwert zur Erfassung von Übergewicht und insbesondere Adipositas und berechnet sich aus dem Verhältnis von Körpergewicht zum Quadrat der Körpergröße (in der Maßeinheit kg/m2). Bei dieser Berechnung bleiben alters- und geschlechtsspezifische Unterschiede sowie die individuelle Zusammensetzung der Körpermasse unberücksichtigt. Da sich jedoch im Kindes- und Jugendalter das Verhältnis von Größe zu Gewicht ständig verändert, gibt es keinen für alle Altersgruppen einheitlichen Grenzwert für die Klassifikation von Übergewicht und Adipositas. Bei Kindern und Jugendlichen werden zur Definition von Übergewicht und Adipositas daher das Alter und Geschlecht verwendet, um die BMI-Werte mit einer fest definierten Referenzpopulation zu vergleichen. Als Vergleichsmaßstab werden die Perzentil-Referenzwerte nach Kromeyer-Hauschild verwendet, die die Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter (AGA) empfiehlt. Man spricht demnach bei Kindern und Jugendlichen von Übergewicht, wenn der BMI-Wert oberhalb des 90. alters- und geschlechtsspezifischen Perzentils der Referenzpopulation liegt (&gt; P90), das heißt im Bereich derjenigen 10 % der Referenzgruppe mit den höchsten BMI-Werten. Liegt der BMI-Wert oberhalb des 97. Perzentils der Referenzpopulation (also so hoch wie bei den 3 % Kindern bzw. Jugendlichen mit den höchsten BMI-Werten), handelt es sich um Adipositas (&gt; P97). Beispielsweise gelten Mädchen und Jungen im Alter von 3 bis unter 4 Jahren mit einem BMI-Wert von 18,8 kg/m2 als adipös. Die Referenzwerte beruhen auf Angaben zu Körpergröße und Gewicht, die zwischen 1985 und 1998 in verschiedenen Regionen Deutschlands und mit unterschiedlichen Methoden erhoben wurden.
+Die Daten für den Indikator werden vom Robert Koch-Institut (RKI) erhoben. Hierzu lieferte die Studie zur Gesundheit von Kindern und Jugendlichen (KiGGS) für den Zeitraum 2003 bis 2006 die ersten bundesweit repräsentativen Ergebnisse. Vergleichbare Messdaten liegen für den Zeitraum 2014 bis 2017 aus der zweiten Folgeerhebung der KiGGS-Studie vor (KiGGS Welle 2). Um einen geeigneten Datenvergleich zu ermöglichen, wurden die Ergebnisse auf den Stichtag 31.12.2015 der Bevölkerungsfortschreibung standardisiert.
+Für den Zeitraum 2014 bis 2017 wurden 3,9 % der 3- bis 10-Jährigen und 8,0 % der 11- bis 17-Jährigen als adipös eingestuft. Während es bei den 3- bis 10-Jährigen keine Unterschiede zwischen den Geschlechtern gibt, betrug der Anteil bei den 11- bis 17-jährigen Mädchen 7,2 % und bei den Jungen gleichen Alters 8,7 %. Im Zeitraum 2003 bis 2006 lag der Anteil der 3- bis 10-Jährigen mit Adipositas bei 5,2 % und der der 11- bis 17-Jährigen bei 8,3 %. Auch hier waren 3- bis 10-jährige Mädchen und Jungen gleich stark betroffen. Bei den 11- bis 17-Jährigen entsprach dies 8,2 % der Mädchen und 8,4 % der Jungen. Die Adipositasquote bei 3- bis 10-Jährigen hat somit stärker abgenommen als die bei den 11- bis 17-Jährigen. Während die Adipositasquote bei den 11- bis 17-jährigen Mädchen um 1,0 Prozentpunkte sank, stieg sie bei den Jungen gleichen Alters um 0,3 Prozentpunkte leicht an.
+Der Anteil der 11- bis 17-Jährigen mit Übergewicht (&gt; P90) hat sich nicht wesentlich gegenüber 2003 bis 2006 verändert (Rückgang um 0,6 Prozentpunkte auf 12,3 % bei 3- bis 10-Jährigen, Anstieg um 0,6 Prozentpunkte auf 18,7 % bei 11- bis 17-Jährigen).
+Maßgebend bei der Entstehung von Übergewicht sind das Ernährungs- und Bewegungsverhalten, welche wiederum bei der Betrachtung der Ergebnisse in Bezug auf den sozioökonomischen Status (SES) deutliche Unterschiede aufweisen. Die Ergebnisse der KiGGS Welle 2 bestätigen, dass sich 3- bis 17-Jährige mit niedrigem sozioökonomischem Status häufiger als Gleichaltrige mit höherem sozioökonomischem Status ungesund ernähren und seltener Sport treiben. Das Risiko für Übergewicht und Adipositas ist bei 3- bis 17-Jährigen mit niedrigem SES rund 3- bis 4-mal so hoch wie bei der hohen Statusgruppe (jeweils rund 20 % der Studienpopula</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>The Body Mass Index (BMI) is a benchmark that is used to measure excess weight and especially obesity. It is calculated by dividing the body weight in kilograms by the square of an individual’s height in metres. This calculation does not take age-specific and gender-specific differences into account. Nor does it indicate the individual body mass composition. However, obesity and excess weight among children and adolescents are defined by taking account also of age and gender. In order to determine if people suffer from obesity or excess weight, the individual BMI value is compared with a defined comparison group (reference population). The percentile reference values according to Kromeyer-Hauschild as recommended by the “Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter” are used as a comparative benchmark. According to these values, children and adolescents are considered to be overweight if their BMI value is above the 90th age- and gender-specific percentile of the reference population (&gt; P90). This means that they fall within the range of those 10 % of the reference group with the highest BMI values. A BMI value above the 97th percentile of the reference population (that is, as high as the 3 % of adolescents with the highest BMI values) is classified as obesity (&gt; P97). For example, girls and boys aged three with a BMI of 18.8 kg/m² are considered to be obese. These reference values are based on details of body size and weight that were recorded between 1985 and 1998 in various regions of Germany, using different methods.
+The data for the indicator is gathered by the Robert Koch Institute. The German Health Interview and Examination Survey for Children and Adolescents (KiGGS – referred to as the KiGGS baseline study) for the period 2003 to 2006 delivered the first nationwide representative results. New measurement data is available for the period 2014 to 2017 from the second follow-up survey of the KiGGS study (KiGGS Wave 2). In order to allow the data to be compared in a suitable way, the results were age standardised to the reference date 31 December 2015 of the intercensal population update.
+For the time period 2014 to 2017, 3.9 % of the 3 to 10-year-olds and 8.0 % of the 11 to 17-year-olds were classified as obese. While there were no differences between the sexes in the 3 to 10 years age group, the rates for the 11 to 17-year-olds were 7.2 % for girls and 8.7 % for boys. In the period from 2003 to 2006, the proportion of 3 to 10-year-olds with obesity was about 5.2 %; among the 11 to 17-year olds, it was about 8.3 %. Again, girls and boys in the age from 3 to 10 years were equally affected. The figure for the 11 to 17-year-olds broke down into 8.2 % of the girls and 8.4 % of the boys. The obesity rate has therefore fallen more sharply among 3 to 10-year-olds than in the 11 to 17 age group. While it fell by 1.0 percentage points among girls aged 11 to 17, it showed a slight increase of 0.3 percentage points among boys in that age group.
+The proportion of adolescents suffering from excess weight including obesity (&gt; P90) did not change much compared with the period 2003 – 2006 (decrease by 0.6 percentage points to 12.3 % for 3 to 10-year olds, increase by 0.6 percentage points to 18.7 % for 11 to 17-year-olds).
+Important factors in the development of overweight are dietary and exercise behaviour, which differ – when looking at the results – in terms of socioeconomic status (SES). The results from KiGGS Wave 2 confirm that 3 to 17-year-old children and adolescents with a low socioeconomic status eat unhealthy more often than their peers from socially better-off families and exercise less frequently. The risk of overweight and obesity is about 3 to 4 times higher for children and adolescents with low SES than in the upper status group (about 20 % of the study population).</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>2.2.2</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01_Ib04</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>03.1.f</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Adipositasquote von Erwachsenen</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Obesity rate among adults</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der Erwachsenen (ab 18 Jahren) mit Adipositas an der erwachsenen Gesamtbevölkerung an.</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the proportion of adults (aged 18 years and older) suffering from obesity in the total adult population.</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>Adipositas ist maßgeblich beteiligt an der Entstehung von Zivilisationskrankheiten wie Herz-Kreislauf-Erkrankungen, Diabetes oder Gelenkschäden. Neben den gesundheitlichen Folgen wirkt sich Adipositas auch in volkswirtschaftlicher und sozialer Hinsicht belastend aus. Folglich soll der Anteil der Bevölkerung mit Adipositas in Deutschland nicht weiter ansteigen.</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>Excess weight plays a crucial role in the emergence of diseases of civilisation, such as cardiovascular diseases, diabetes and joint injuries. Besides its consequences to health, excess weight is a burden on the national economy and has a negative impact on social life. Consequently, the proportion of the population with obesity in Germany should not increase any further.</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>Ein Richtwert zur Erfassung von Übergewicht und insbesondere Adipositas ist der Body-Mass-Index (BMI), der sich aus dem Verhältnis von Körpergewicht zum Quadrat der Körpergröße (in der Maßeinheit kg/m2) berechnet. Bei dieser Berechnung bleiben Körperbau, alters- und geschlechtsspezifische Unterschiede sowie die individuelle Zusammensetzung der Körpermasse unberücksichtigt. Nach der Klassifikation der Weltgesundheitsorganisation (WHO) gelten Menschen mit einem BMI ab 25 als übergewichtig und ab einem BMI von 30 als adipös.
+Die Daten werden vierjährlich im Rahmen des Mikrozensus des Statistischen Bundesamtes erfragt. Der Mikrozensus als Stichprobenerhebung umfasst 1 % der Gesamtbevölkerung und ist die größte Haushaltsbefragung in Deutschland und Europa. Die Beantwortung der Fragen zur Gesundheit ist freiwillig. Somit basiert der Indikator auf dem Anteil der Bevölkerung, der im Mikrozensus die Fragen zu Körpergewicht und -größe beantwortet hat und einen BMI von 30 und mehr aufweist. Bei Selbstauskunft, wie im Fall des Mikrozensus, wird das Körpergewicht im Vergleich zu gemessenen Werten häufig unterschätzt, die Körpergröße dagegen eher überschätzt. Der berechnete BMI aus Selbstauskunft liegt somit niedriger als aus Messwerten.
+Um Daten für unterschiedliche Jahre und Regionen miteinander vergleichen zu können, ohne dass es zu Verzerrungen aufgrund unterschiedlicher Altersstrukturen kommt, wurden die entsprechenden Daten auf die europäische Bevölkerung von 1990 altersstandardisiert. Da die Fragen zur Gesundheit im Mikrozensus nicht jährlich erhoben werden, wurden die Daten für Jahre ohne Erhebung für die Darstellung der Zeitreihe interpoliert.
+15,4 % der Bevölkerung ab 18 Jahren waren im Jahr 2021 (vorläufige Daten) adipös. Dabei war der Anteil der Männer mit Adipositas (17,3 %) höher als der Anteil der adipösen Frauen (13,4 %). Wohingegen der Anteil im Jahr 1999 noch bei 10,7 % der Bevölkerung lag. Auch damals waren Frauen (10,2 %) etwas weniger von Adipositas betroffen als Männer (11,1 %). Die Adipositasquote bei Erwachsenen ist folglich gestiegen und entwickelt sich damit konträr zum Ziel der Deutschen Nachhaltigkeitsstrategie.
+Weitere 33,7 % der Bevölkerung ab 18 Jahren wiesen im Jahr 2021 einen BMI von 25 bis unter 30 auf. Insgesamt galten damit 49,1 % als übergewichtig (BMI ab 25). Dabei war der Anteil bei den Frauen mit 38,8 % deutlich kleiner als bei den Männern mit 58,7 %.
+Der Anteil der Menschen mit Adipositas steigt mit zunehmendem Lebensalter und geht erst im höheren Alter zurück. Im Jahr 2021 hatten 5,3 % der 20- bis unter 25-jährigen Frauen Adipositas. Bei den 30- bis unter 35-Jährigen waren es bereits 12,5 %. Den höchsten Anteil bei den Frauen erreichte die Altersgruppe der 70- bis unter 75-Jährigen mit 19,9 %. Die Adipositasquote der Männer lag bei den unter 75-Jährigen jeweils höher als bei den gleichaltrigen Frauen und erreichte in den Altersgruppen der 60- bis unter 65-Jährigen mit 23,6 % und der 45- bis unter 50-Jährigen mit 23,5 % die höchsten Anteile. Bei den über 75-Jährigen waren Frauen und Männer mit 16,2 % zu gleichen Teilen adipös.</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Obesity is determined with the help of the Body Mass Index (BMI), which is calculated by dividing the body weight in kilograms by the square of an individual’s height in metres. The BMI is a benchmark that does not take account of the physique, age- and gender-specific differences as well as the individual body mass composition. People with a BMI of 25 and above are classified as “overweight” according to the WHO and those with a BMI of 30 as “obese”.
+The data used for the indicator are based on the microcensus of the Federal Statistical Office. The sample survey is conducted among 1 % of the total population and is the largest household survey in Germany and Europe. The responses to the health questions, which are generally asked every four years, are voluntary. Consequently, the indicator is based on the proportion of the population with a BMI of 30 and higher that also answered the microcensus questions concerning body weight and body size. In the microcensus, self-assessment questions are prone to underestimation of own body weight and overestimation of own body height. Hence, the calculated BMI based on self-assessment is below the BMI based on measurements.
+The corresponding data were standardised relative to the European population of 1990 to allow data from different years and regions to be compared without distortions due to different age structures. Since the questions on health in the microcensus are not asked annually, the interim years in the chart were interpolated.
+In 2021, 15.4 % of the population in Germany over the age of 18 were obese. Here, the share of obese men (17.3 %) was higher than the share of obese women (13.4 %). Before, in 1999, the share of obese persons was only 10.7 % of the population. At that time, the proportion of women (10.2 %) affected by obesity was also slightly lower than that of men (11.1 %). Thus, the obesity rate among adults has increased and is developing contrary to the goal envisioned by the German strategy for sustainable development.
+Another 33.7 % of the population aged 18 and over had a BMI of 25 to under 30 in 2021. In total, 49.1 % were considered to be overweight (BMI 25 and over). The proportion of women (38.8 %) was significantly smaller than that of men (58.7 %).
+The proportion of adults suffering from obesity increases with age, and the trend reverses only among people at a very advanced age. In 2021, 5.3 % of 20 to under 25-year-old women were obese. At the age of 30 to under 35, 12.5 % of the women were obese. The highest proportion of obese women (19.9 %) was found in the age group between 70 and under 75 years of age. The rate of obesity among men was higher among those under 75 than among women of the same age and reached the highest proportions in the age groups 60 to under 65 (23.6 %) and 45 to under 50 (23.5 %). Above 75 years of age, the proportion of obese women is equal to the proportion of obese man (16.2 %).</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>03.2.a</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Emissionen von Luftschadstoffen</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Emissions of air pollutants</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt den Mittelwert der Indizes der nationalen Emissionen der fünf Luftschadstoffe Schwefeldioxid (SO2), Stickstoffoxid (NOx), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2.5) dar.</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>The indicator presents the mean value of the indices of national emissions for the five air pollutants sulphur dioxide (SO2), nitrogen oxides (NOx), ammonia (NH3), volatile organic compounds (NMVOC) and particulate matter (PM2,5).</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>Luftverunreinigungen beeinträchtigen nicht nur die Gesundheit der Menschen, sondern auch Ökosysteme und Artenvielfalt. Das ungewichtete Mittel der Emissionen bestimmter Luftschadstoffe soll daher bis zum Jahr 2030 um 45 % gegenüber dem Jahr 2005 sinken. Dieses Ziel basiert auf der Verpflichtung Deutschlands gegenüber der Europäischen Union (EU), den Ausstoß der einzelnen Luftschadstoffe bis 2030 wie folgt zu reduzieren: Schwefeldioxid (SO2) um 58 %, Stickstoffoxid (NOx) um 65 %, Ammoniak (NH3) um 29 %, flüchtige organische Verbindungen (NMVOC) um 28 % und Feinstaub (PM2.5) um 43 %.</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>Air pollutants do not only impair human health, but also ecosystems and biodiversity. Therefore, the unweighted mean of emissions of air pollutants should be reduced by 45 % by 2030 compared to 2005. This target is based on the commitment of Germany towards the European Union (EU) to reduce emissions of individual air pollutants by 2030 as follows: SO2 by 58 %, NOx by 65 %, NH3 by 29 %, NMVOC by 28 % and PM2,5 by 43 %.</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>Dieser Indikator fasst als ungewichtetes, arithmetisches Mittel die prozentuale Entwicklung der in Deutschland freigesetzten Emissionen von Schwefeldioxid (SO2), Stickstoffoxid (NOx), Ammoniak (NH3), flüchtigen organischen Verbindungen (NMVOC) und Feinstaub (PM2.5) zusammen. Somit werden Veränderungsraten der einzelnen Luftschadstoffe gleichwertig miteinander verrechnet, auch wenn diese andere Ursachen und andere Wirkungen haben. Damit ist dieser Indikator nur indirekt von der Erfüllung der gegenüber der Europäischen Union (EU) verpflichtenden Emissionsminderungsziele abhängig. Es ist also möglich, dass die Reduktionsziele für den Gesamtindikator erreicht, während die Emissionsminderungsziele für einzelne Schadstoffe verfehlt werden.
+Die Ausgangsdaten, die als Basis für die Berichtspflicht nach der Genfer Luftreinhaltekonvention (CLRTAP) und der National-Emission-Ceilings-(NEC-)Richtlinie dienen, werden jährlich vom Umweltbundesamt berechnet. Von den Umweltökonomischen Gesamtrechnungen (UGR) des Statistischen Bundesamtes werden sie weiter aufbereitet und die einzelnen Emissionen unter anderem nach verschiedenen Produktionsbereichen und privaten Haushalten ausgewiesen.
+Die Emissionen von Luftschadstoffen insgesamt gingen bis zum Jahr 2020 um 34,8 % im Vergleich zu 2005 zurück. Damit bewegte sich der Indikator in die angestrebte Richtung und würde bei gleichbleibender Entwicklung das Ziel für 2030 erreichen. Der Ausstoß der einzelnen Schadstoffe veränderte sich im Zeitraum 2005 bis 2020 dabei unterschiedlich stark. Basierend auf der Entwicklung der letzten Jahre können die Reduktionsziele bis 2030, für die sich Deutschland gegenüber der EU verpflichtet hat, jedoch für alle einzelnen Luftschadstoffe erreicht werden.
+Die Emissionen von flüchtigen organischen Verbindungen (NMVOC), welche vornehmlich beim industriellen Gebrauch von Lösungsmitteln entstehen, konnten im angegebenen Zeitraum mit 30,4 % deutlich reduziert werden.
+Im angegebenen Zeitraum verringerten sich die Emissionen von Feinstaub (PM2.5) um 39,8 %. Der größte Teil der Feinstaub-Emissionen entfiel 2020 auf die Haushalte und Kleinverbraucher mit 26,9 %. 25,9 % stammten von der Industrie. Auf den Verkehr entfielen 26,5 % der Feinstaub-Emissionen und damit 9,3 Prozentpunkte weniger als 2005.
+Die Emissionen von Stickstoffoxiden (NOx) verringerten sich bis 2020, verglichen mit 2005, um 40,1 % und damit in die angestrebte Richtung. Der Hauptanteil an Stickstoffoxiden wurde 2020 vor allem im Verkehr und in der Energiewirtschaft emittiert.
+Die Emissionen von Schwefeldioxid (SO2), welche hauptsächlich in der Energiewirtschaft entstehen, sind im betrachteten Zeitraum um 50,8 % gesunken.
+Die Emissionen von Ammoniak (NH) sind in den Jahren 2019 und 2020 erstmals deutlich unter das Niveau von 2005 gesunken. Im gesamten Betrachtungszeitraum 2005 bis 2020 beläuft sich der Rückgang auf 10,9 %. Von 2005 bis 2018 sind die Ammoniak-Emissionen jedoch zeitweise angestiegen, sodass für den gesamten Zeitraum nur ein leichter Rückgang zu verzeichnen ist. Der kurzzeitige Anstieg zwischen 2005 und 2018 ist hauptsächlich auf die landwirtschaftliche Bodennutzung, unter anderem die Ausbringung von Gärresten aus der Vergärung von Energiepflanzen, zurückzuführen. Landwirtschaftliche Bodennutzung ist für etwa die Hälfte der Ammoniak-Emissionen verantwortlich. Die Emissionen aus dieser Quellgruppe stiegen im Zeitraum 2005 bis 2018 an. Sie sind seit 2016 rückläufig und liegen seit 2019 erstmals unter dem Niveau von 2005.</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>This indicator is an unweighted arithmetic mean and summarizes the percentage development of released emissions in Germany, these are sulphur dioxide (SO2), nitrogen oxides (NOx), ammonia (NH3), volatile organic compounds (NMVOC) and particulate matter (PM2,5). The individual rates of change of the single air pollutants are offset equally against one another, even if the causes and the consequences differ. Thus, this indicator is mere indirectly dependent on the fulfilment of emission reduction targets set by the European Union. Hence, the reduction targets for the indicator might be met, while emission reduction targets for individual air pollutants are missed.
+The data is computed annually by the German Environment Agency using various sources. They serve as a basis for the reporting obligation pursuant to the Geneva Convention and the National Emission Ceilings Directive. The data is further processed within the context of the Federal Statistical Office’s Environmental-Economic Accounts. As a result, emissions are published according to various production sectors and households along with other emitters.
+Emissions of air pollutants overall fell by 34.8 % until 2020 from 2005. The indicator thus moved in the intended direction and will reach the target for 2030 if the development remains the same. Emissions of individual pollutants changed to varying degrees in the period from 2005 to 2020. Based on the development of the preceding years, compliance with the emission reduction targets by 2030 is feasible, to which Germany is committed towards the EU. In fact, Germany might reach the target for every single air pollutant.
+Emissions of volatile organic compounds (NMVOC), which are primarily due to the industrial use of solvents, were significantly reduced by 30.4 % during the specified period.
+In the specified period emissions of particulate matter (PM2,5) have been reduced by 39.8 %. At 26.9 %, the largest proportion of PM2,5 emissions originated from households and small consumers in 2020. The industry sector produced 25.9 % emissions. The transport sector accounted for 26.5 % of PM2,5 emissions in the same year and, thus, decreased by 9.3 percentage points compared to 2005.
+Emissions of nitrogen oxides (NOx) were reduced by 40.1 % until 2020 in comparison to 2005, hence going in the intended direction. In 2020 the main share of nitrogen oxides was emitted mainly by transport and the energy sector.
+Emissions of sulphur dioxide (SO2), which are mainly generated in the energy sector, decreased by 50.8 % in the specified period.
+In 2019 and 2020, the emissions of ammonia (NH) decreased for the first time significantly below 2005 level. During the period under consideration from 2005 to 2020, the decline adds up to 10.9 %. However, ammonia emissions increased temporarily between 2005 and 2018, such that the overall reductions are rather small. Agricultural land use, among others the output of fermentation residues after the fermentation of energy crops, mainly caused the temporary growth of emissions between 2005 and 2018. Agricultural land use is responsible for about half of the ammonia emissions. Emissions from this source increased during the period from 2005 to 2018 and are decreasing since 2016. Since 2019, they are below the value from 2005 for the first time.</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>03.2.b</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Bevölkerung mit erhöhter PM2,5-Feinstaubexposition</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Share of the population with excessive exposure to PM10</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl an Personen, die an ihrem Wohnort im Jahresmittel einer Exposition von mehr als 20 Mikrogramm (µg) Feinstaub PM10 (Staubteilchen mit einem Durchmesser kleiner 10 Mikrometer) pro Kubikmeter (m³) Luft ausgesetzt waren (nur Hintergrundbelastungen, ohne lokale Quellen).</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of persons who are exposed at their place of residence to an annual average of more than 20 micrograms (µg) of PM10 particulate matter (dust particles with a diameter less than 10 µm) per cubic metre (m³) of air (only background pollution, without local sources).</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>Insbesondere die langfristige Belastung der Menschen mit Feinstaub kann unter anderem zu Erkrankungen der Atemwege und des Herz-Kreislauf-Systems als auch zu einem erhöhten Risiko für Diabetes Mellitus Typ 2 und neurodegenerative Erkrankungen führen. Zum besseren Schutz der Gesundheit soll daher bis zum Jahr 2030 erreicht werden, dass kein Mensch in Deutschland an seinem Wohnort einer Feinstaubkonzentration (PM10) von mehr als 20 Mikrogramm (µg) pro Kubikmeter (m³) Luft im Jahresmittel ausgesetzt ist. Der Richtwert von 20 µg/m³ entspricht den Empfehlungen der Weltgesundheitsorganisation (WHO) und ist deutlich strenger als der in der Europäischen Union (EU) geltende Grenzwert von 40 µg/m³ im Jahresmittel.
+Die EU-Kommission hat am 26. Oktober 2022 einen Vorschlag zur Änderung der Luftqualitäts-Richtlinie (LQ-RL) vorgestellt. Die Grenzwerte der LQ-RL sollen sich dabei künftig stärker an den aktualisierten Leitlinien der WHO orientieren, die im September 2021 veröffentlicht wurden. Derzeit wird der Vorschlag der Kommission auf europäischer Ebene verhandelt. Es ist geplant, den Indikator und seine Ziele für den Bericht 2024 entsprechend anzupassen.</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>Long-term exposure of humans to particulate matter is especially liable to lead to health problems such as respiratory and cardiovascular disorders as well as increasing the risk of type-2 diabetes and neurodegenerative diseases. To better protect their health, by the year 2030 it should consequently be achieved that nobody will be exposed to an annual mean of more than 20 micrograms (µg) of particulate matter PM10 per cubic metre (m3) of air at their place of residence. The guideline value of 20 µg/m³ corresponds to the level recommended by the World Health Organization and is far more stringent than the 40 µg annual mean ceiling that applies in the EU. On 26 October 2022, the European commission proposed amendments to the air quality directive (LQ-RL), such that in the future, boundary values should adjust to the updated guidelines by the World Health Organization published in September 2021. The proposal from the commission is currently debated on European level. The indicator and the targets will be updated accordingly for the 2024 report.</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>Als direkte Quellen von Feinstaub gelten die industrielle Erzeugung von Energie und Wärme, die Landwirtschaft, der Straßenverkehr und das Heizen, insbesondere mit festen Brennstoffen wie zum Beispiel Holz in privaten Kaminen oder Kaminöfen. Feinstaub kann jedoch auch durch sekundäre Partikelbildung infolge chemischer Reaktionen von Vorläufersubstanzen wie zum Beispiel Schwefel- und Stickstoffoxiden, Ammoniak oder Kohlenwasserstoffen entstehen.
+Der in der Luft enthaltene Feinstaub (PM10) wird an insgesamt mehr als 370 Luftmessstationen sowohl in Ballungsgebieten als auch in ländlichen Regionen in Deutschland erfasst. Für den Indikator werden aus methodischen Gründen nur diejenigen Messstationen berücksichtigt, die keinem direkten Feinstaubausstoß aus dem Verkehr oder anderen bedeutsamen lokalen Quellen ausgesetzt sind, da diese nur die punktuell erhöhte („Hot Spots“) und nicht die großflächige Belastung der Luft mit Feinstaub abbilden. Aus einer Kombination von Modellergebnissen mit den erhobenen Messdaten zur sogenannten Hintergrundbelastung wird die Feinstaubkonzentration für die gesamte Fläche Deutschlands ermittelt. In Kombination mit räumlichen Informationen zur Bevölkerungsverteilung lässt sich so die Anzahl der Personen bestimmen, an deren Wohnort im Jahresmittel die Feinstaubbelastung nicht mehr als 20 Mikrogramm pro Kubikmeter Luft beträgt. Somit bildet der Indikator keine flächendeckende Einhaltung des Richtwerts ab, sondern eine auf die Wohnorte der Bevölkerung abseits starker Emissionsquellen für Feinstaub bezogene Einhaltung. Er gibt weder einen Hinweis auf die Höhe der Exposition der Bevölkerung insgesamt noch auf deren Variation im Jahresverlauf. Da bei der Modellrechnung die direkte Belastung aus lokalen Quellen unberücksichtigt bleibt, ist davon auszugehen, dass die tatsächliche Anzahl an Personen mit einer Feinstaubexposition an ihrem Wohnort oberhalb des WHO-Richtwerts höher ist, als dieser Indikator anzeigt. Nicht gesondert betrachtet werden durch diesen Indikator zudem die Belastungen durch kleinere Feinstaubpartikel (PM2.5 und PM0.1).
+Die Feinstaubexposition mit PM10 ist im Zeitraum von 2007 bis 2020 deutlich gesunken. Während im Jahr 2007 die durchschnittliche bevölkerungsgewichtete Feinstaubbelastung noch bei 18,9 µg/m³ Luft lag, betrug sie im Jahr 2020 nur noch etwa 12,3 µg/m³. Im gleichen Zeitraum ist auch die Anzahl der Personen deutlich zurückgegangen, die im Jahresmittel an ihrem Wohnort einer Feinstaubbelastung von mehr als 20 µg PM10/m³ Luft ausgesetzt waren: Im Jahr 2007 waren es 29,7 Millionen Personen, im Jahr 2020 noch rund 400 000 Personen.
+Dabei hat auch das Wetter einen Einfluss auf die gemessene Feinstaubbelastung. Ein Teil des starken Rückgangs ab 2011 beruht vermutlich darauf, dass in den letzten Jahren vergleichsweise wenig austauscharme Wetterlagen in den Wintermonaten auftraten, wobei dieser Effekt seit dem Jahr 2015 stagniert. Je nach Windstärke, -richtung und Lufttemperatur kann Feinstaub einerseits über die Luftströmungen in andere Regionen und Länder transportiert werden oder sich andererseits, bei austauscharmen Wetterlagen, am Ort seiner Entstehung anreichern.
+Wenn sich die durchschnittliche Entwicklung der letzten Jahre weiter fortsetzt, kann das Ziel, die Bevölkerung flächendeckend einer Feinstaubexposition von unter 20 µg PM10/m³ Luft im Jahresmittel auszusetzen, voraussichtlich erreicht werden.</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>Direct sources of particulate matter are the industrial generation of energy and heat, agriculture, road traffic and heating, particularly with solid fuels and more especially with wood in household fireplaces or stoves. Particulate matter, however, can also occur through the formation of secondary particles as a result of chemical reactions with precursors such as sulphur oxide, nitrogen oxides, ammonia and organic carbon.
+The particulate matter (PM10) contained in the air is measured at a total of more than 370 air monitoring sites in both metropolitan and rural areas of Germany. For methodological reasons, the indicator is based only on the readings from the monitoring sites that are not exposed to direct particulate emissions from traffic or to any other significant local sources, because these measure only high localised concentrations (hot spots) and not area-wide particulate air pollution. From a combination of model results with the measured monitoring data on background concentrations, the particulate concentrations for the whole area of Germany are obtained. These concentrations are combined with information on population distribution to determine the number of persons who are exposed to annual mean particulate pollution of more than 20 micrograms per cubic metre of air at their place of residence. Rather than indicating nationwide compliance with the guideline value, the indicator merely shows that the value is not exceeded at the population’s places of residence. Neither does it give any indication of the exposure level of the population in total nor its variation in the course of the year. Since the modelled calculation is based only on measuring stations that are not exposed to direct particular matter emissions from local sources, it may well be assumed that the indicator underestimates the level of pollution. In addition, this indicator makes no provision for the separate analysis of pollution caused by finer particulate matter particles (PM2,5 and PM0,1).
+The last few years from 2007 to 2020 have seen a significant reduction in particulate matter pollution caused by PM10. While in 2007 the average pollution exposure of the population was still 18.9 µg per m³ of air, in 2020 it was just 12.3 µg per m³. During the same period, the number of people exposed to an annual average of more than 20 µg PM10 per m³ of air at their place of residence has also fallen considerably – from around 29.7 million people in 2007 to only around 400,000 people in 2020.
+Weather also influences the measurements of airborne particulate matter. Part of the reason for the sharp drop in 2011 and subsequent years is presumably that there were relatively few instances of temperature inversion in the winter months, although that curve has flattened out since 2015. Depending on wind speed, direction and air temperature, particulate matter may be transported into other regions and countries or else, during inversions, may become more concentrated at its place of origin.
+If the average development of the past few years continues, it is likely that the achieved target of exposing the population nationwide to a background particulate matter pollution of less than 20 micrograms per cubic meter of air on an annual average can be sustained.</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>11.6.2</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>03.3.a</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Germany’s contribution to global pandemic prevention and response</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator umfasst Ausgaben bzw. Zusagen Deutschlands für Programme zur globalen Pandemieprävention und -reaktion. Ausgenommen sind hierbei Programme zur Eindämmung der COVID-19-Pandemie. Um die Aussagekraft des Indikators zu verbessern, wird er bis zur nächsten Neuauflage der DNS im Hinblick auf seine Wirkung evaluiert, mit dem Ziel, ihn zu einem Output-Indikator fortzuentwickeln.</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>The indicator covers expenditure and pledges made by Germany for global pandemic prevention and response programmes. It excludes programmes designed to contain the COVID-19 pandemic. To make the indicator more informative, its impact will be assessed by the time of the next edition of the German National Sustainability Strategy with a view to developing it into an output indicator.</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>Die COVID-19-Pandemie hat gezeigt, welche weitreichenden Auswirkungen grenzüberschreitende Gesundheitsgefahren für Menschen und Wirtschaft weltweit haben. Dementsprechend stellt die Unterstützung von Programmen zur Pandemieprävention und -reaktion einen wichtigen Beitrag zur globalen Gesundheit – insbesondere in Ländern des Globalen Südens dar. Ziel ist es daher, Deutschlands Beitrag für die globale Pandemieprävention und -reaktion bis 2030 substanziell gegenüber dem Jahr 2019 zu steigern.</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>The COVID-19 pandemic has shown what far-reaching effects cross-border health hazards have on people and economies throughout the world. Accordingly, supporting pandemic prevention and response programmes is a major contribution to global health, particularly in countries of the Global South. The aim is therefore to increase Germany’s contribution to global pandemic prevention and response substantially from its 2019 level in the period up to 2030.</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten des Indikators stammen aus Sonderauswertungen der entsprechenden Haushaltstitel bzw. den Verpflichtungsermächtigungen des Auswärtigen Amtes (AA), des Bundesministeriums für Bildung und Forschung (BMBF), des Bundesministeriums für Gesundheit (BMG) und des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ). In den Auswertungen wurden Programme berücksichtigt, welche in der Zielsetzung direkt dem Bereich Pandemieprävention und -reaktion zuzurechnen sind oder primär auf die Verbesserung relevanter Kapazitäten in der Gesundheitsversorgung abzielen. Die Programme umfassen u. a. die Bereiche Pandemieprävention und -reaktion der Weltgesundheitsorganisation (WHO), Sanitärwesen, One Health (das heißt in interdisziplinärer Zusammenarbeit von Human- und Tiermedizin mit dem Umweltbereich), Impfinfrastruktur sowie Forschung und Entwicklung im In- und Ausland, sofern die Ergebnisse auch Ländern des Globalen Südens zu Gute kommen.
+Zusätzlich wurden Programme betrachtet, die als Reaktion auf die COVID-19-Pandemie gestartet wurden, wie u. a. Programme und Aktivitäten der WHO, humanitäre Hilfe, Impfstoffentwicklung, Krisenreaktion sowie Soforthilfen und -kredite für die Reaktion des Gesundheitssektors in Ländern des Globalen Südens.
+Bei den Zahlen ist zu beachten, dass eine genaue inhaltliche Abgrenzung von Programmen nicht vollständig möglich ist, da das Themenfeld umfassende Querverbindungen zu einer Vielzahl von weiteren Gesundheitsbereichen besitzt. Somit wird eine Bandbreite an Programmen berücksichtigt, wie z. B. der Beitrag Deutschlands an die WHO für dessen Notfallprogramm bzw. zur flexiblen Anschubfinanzierung von Krisenreaktionen in akuten Gesundheitsnotlagen (Contingency Fund for Emergencies), eine Impfprogrammförderung zur Reduktion von Kindersterblichkeit in der ostafrikanischen Gemeinschaft, die Verbesserung der Trinkwasser- und Sanitärversorgung in Burkina Faso sowie eine Sicherheitskooperation für biologische Bedrohungen. Neben der inhaltlichen Schwerpunktsetzung ist zu beachten, dass ein Teil der Programme allgemein auf die Stärkung globaler Koordinierungs- und Organisationskapazitäten abzielt und damit nicht ausschließlich Ländern des Globalen Südens zukommt.
+Des Weiteren können präventive und reaktive Maßnahmen nicht genau abgegrenzt werden. So können einerseits präventive Kapazitätsstärkung die Reaktion auf eine pandemische Lage unterstützen und andererseits reaktive Maßnahmen einen Beitrag zur langfristigen Kapazitätsstärkung leisten. Um einen Ausreißer in den Zahlen zu vermeiden, der sich aus der Reaktion auf die COVID-19-Pandemie ergibt, sind diese Ausgaben bzw. Zusagen nicht Teil des Indikators, sondern getrennt als Information in der Grafik ausgewiesen.
+Die dargestellten Ausgaben bzw. Zusagen sagen zudem nichts über den Erfolg der Programme aus. Der Indikator stellt einen monetären Beitrag Deutschlands zur Pandemieprävention und -reaktion dar. Zur Wirkung der Beiträge wäre eine weitergehende Evaluierung notwendig. Unter Berücksichtigung der oben genannten Einschränkungen bilden die ermittelten Zahlen daher keinesfalls die deutschen Ausgaben bzw. Zusagen vollständig ab, welche einen gegebenenfalls mittelbaren Einfluss auf das Themenfeld haben.
+Zwischen 2015 bis 2021 stiegen die Ausgaben bzw. Zusagen zur Pandemieprävention und -reaktion von 147,9 Millionen Euro auf 396,7 Millionen Euro (vorläufige Daten) an. Sie lagen damit – entsprechend dem Ziel der Bundesregierung – deutlich über dem Wert von 2019. Die gesondert ausgewiesenen Ausgaben zur Eindämmung der COVID-19-Pandemie lagen in 2021 bei 842,7 Millionen Euro und damit höher als im ersten Jahr der Pandemie (743,7 Millionen Euro).</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>The data for the indicator come from special analyses of the relevant budget headings and commitment appropriations from the Federal Foreign Office (AA), the Federal Ministry of Education and Research (BMBF), the Federal Ministry of Health (BMG) and the Federal Ministry for Economic Cooperation and Development (BMZ). Programmes are taken into account in the analyses whose objectives fall directly under the heading of pandemic prevention and response or who are primarily intended to enhance relevant capabilities in the field of health care. The programmes cover matters such as the pandemic prevention and response functions of the World Health Organization (WHO), sanitation, One Health (that is, in interdisciplinary cooperation between human and veterinary medicine and the environmental sector), vaccination infrastructure and research and development, both at home and abroad, in so far as the R&amp;D findings and innovations also benefit the countries of the Global South. 
+Additionally, programmes launched in response to the COVID-19 pandemic have also been taken into account. The latter include among others WHO programmes and activities, humanitarian aid, vaccine development, crisis response and emergency assistance and loans to help health services in countries of the Global South to respond to the crisis. 
+As regards the figures, it should be noted that it is not possible to draw hard and fast lines between the content of programmes, since the indicator field is closely interlinked with numerous other areas of the health system. The indicator therefore takes account of a range of programmes, such as Germany’s contribution to the WHO to support its emergency programme and to provide flexible initial funding for crisis response measures through the Contingency Fund for Emergencies, support for a vaccination programme for the reduction of child mortality in the East African Community, improvement of drinking water supply and sanitation in Burkina Faso and a biosecurity cooperation programme. Besides the thematic prioritisation, it should also be noted that some of the programmes are focused on general reinforcement of global coordination and organisational capacity and therefore do not exclusively benefit countries of the Global South.
+Nor can a precise line be drawn between preventive and reactive measures. Developing preventive capacity may, for example, enhance responsiveness to a pandemic situation, while reactive measures may contribute to capacity-building in the long term. To avoid a statistical outlier resulting from the response to the COVID-19 pandemic, these expenditure items and pledges are not part of the indicators but are shown separately in the chart.
+The amounts of expenditure and pledges that are displayed, moreover, say nothing about the success of the programmes. The indicator represents Germany’s monetary contribution to pandemic prevention and response. A more extensive assessment would be needed to gauge the impact of that contribution. In view of the foregoing provisos, therefore, the recorded figures are not by any means a full reflection of the German expenditure and pledges that directly or indirectly influence the pandemic prevention and response effort.
+Between 2015 and 2021, expenditure and pledges for pandemic prevention and response rose from EUR 147.9 million to EUR 369.7 million (provisional figure) and were thus - in line with the Federal Government's target - significantly above the 2019 figure. The separately reported expenditures on COVID-19 pandemic containment were 842.7 million euros in 2021, higher than in the first year of the pandemic (743.7 million euros).</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>03.3.b</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>03.4.a,b</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>04.1.a</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Early school leaversXXX</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil derjenigen 18- bis 24-Jährigen an allen Personen derselben Altersgruppe an, die weder über eine Hochschulzugangsberechtigung wie Abitur oder die Fachhochschulreife noch über eine abgeschlossene Berufsausbildung verfügen und die derzeit nicht an Aus- und Weiterbildungsmaßnahmen teilnehmen.</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the percentage of all people in the 18 to 24 age group who neither possess a university entrance qualification, such as an Abitur or Fachhochschulreife (entrance qualification for universities of applied sciences), nor have completed a course of vocational training and who are not currently undergoing training or continuing education.</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>Das staatliche Bildungssystem und das duale System der Berufsausbildung sind die Eckpfeiler einer zukunftsorientierten Qualifikation für junge Menschen in Deutschland. Fehlende Schul- und Berufsabschlüsse bedeuten ein erhöhtes Armutsrisiko und eine daraus resultierende stärkere Belastung der Sozialsysteme. Für das Jahr 2030 ist das Ziel, diesen Anteil auf 9,5 % zu senken.</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>The federal educational system and the dual system of vocational training are the cornerstones of future-orientated qualifications for young people in Germany. Failure to complete school or vocational training poses a risk of poverty and places a strain on the social welfare systems. The target for 2030 is to lower the percentage of early school leavers to 9.5 %.</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>Hinter dem Begriff „frühe Schulabgängerinnen und Schulabgänger“ verbergen sich nicht die jungen „Überfliegerinnen und Überflieger“, die vor Ende der Regelschulzeit einen Schulabschluss erlangen. Auch ist der Begriff nicht mit Schulabbrecherinnen bzw. Schulabbrechern zu verwechseln. Vielmehr handelt es sich hierbei um Personen im Alter zwischen 18 und 24 Jahren, die weder über eine Hochschulzugangsberechtigung wie Abitur oder die Fachhochschulreife noch über eine abgeschlossene Berufsausbildung verfügen und die derzeit nicht an Aus- und Weiterbildungsmaßnahmen teilnehmen. Das bedeutet, dass auch junge Menschen, die beispielsweise die Haupt- oder die Realschule erfolgreich abgeschlossen haben, sich aber nicht mehr im Bildungsprozess befinden, als frühe Schulabgängerinnen bzw. Schulabgänger gezählt werden.
+Die Angaben stammen aus dem Mikrozensus, dessen jährliche Stichprobenerhebung 1 % der Bevölkerung in Deutschland umfasst. Aufgrund einer umfassenden Neugestaltung des Mikrozensus in 2020 sind die Daten ab diesem Berichtsjahr nur eingeschränkt mit den Daten aus den vorangegangenen Jahren vergleichbar.
+Aus dem Indikator lässt sich nicht ableiten, wann und welche Art von Bildungseinrichtung die Personen zuletzt besucht haben. Ergänzende Informationen bietet die jährliche Schulstatistik, eine koordinierte Länderstatistik, die vom Statistischen Bundesamt veröffentlicht wird.
+Im Jahr 2021 lag der Wert des Indikators bei 11,6 %. Dies entspricht insgesamt 698 000 jungen Menschen ohne Abschluss des Sekundarbereichs II, die sich nicht oder nicht mehr in (Aus-) Bildung oder Weiterbildung befanden. Der Wert des Indikators ist bis 2014 auf 9,5 % gesunken und hatte die für 2030 gesetzte Zielmarke damit bereits erreicht. Seitdem entwickelt sich der Indikator aber wieder entgegen der gewünschten Richtung.
+Bei den geschlechtsspezifischen Quoten für den Indikator gab es zwischen 1999 und 2005 keine systematischen Unterschiede zwischen Frauen und Männern. Seit 2006 ist die Quote für Frauen kontinuierlich niedriger als die für Männer. So lag der Wert für Frauen im Jahr 2021 bei 9,6 % und für Männer bei 13,5 %.
+Laut Schulstatistik haben 2021 insgesamt rund 47 490 junge Menschen (6,2 % der gleichaltrigen Wohnbevölkerung) die Schule ohne einen Hauptschulabschluss verlassen. Dies entspricht im Vergleich zu 1999 einem Rückgang um 43 %. Auch hier ist der Anteil bei jungen Frauen nach wie vor deutlich geringer (4,9 %) als bei jungen Männern (7,5 %).
+Dagegen erreichten im Jahr 2021 16,1 % (122 282) der gleichaltrigen Wohnbevölkerung einen Hauptschulabschluss, 44,1 % (334 137) einen mittleren Abschluss, 33,0 % (263 428) die allgemeine Hochschulreife und 0,1 % (849) die Fachhochschulreife. Im Zeitverlauf seit 1999 zeigen sich bei zwei Abschlussarten besonders starke Veränderungen. So nahm der Anteil der Personen mit Hauptschulabschluss um 10,0 Prozentpunkte ab, während der Anteil der Personen mit allgemeiner Hochschulreife um 8,2 Prozentpunkte anstieg (jeweils bezogen auf die gleichaltrige Bevölkerung).</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>The term “early school leavers” does not refer to the young “high achievers”, who obtain a school leaving certificate before the regular period of schooling ends. Nor should the term be confused with school drop-outs. On the contrary, it refers to people between 18 and 24 years of age who neither have obtained a higher education entrance qualification such as “Abitur” or “Fachhochschulreife” (for universities in general or universities of applied sciences), nor have completed vocational training and who are not attending initial and continuing education/ training programmes. This means that even those young people who, for example, have successfully completed “Hauptschule” or “Realschule” (lower secondary education, ISCED level 2) but are no longer participating in the education process are also counted as early school leavers.
+The information originates from the microcensus, whose annual sample survey covers 1 % of the population in Germany. In 2020, the microcensus had a comprehensive restructuring, such that data from 2020 on is conditionally comparable to preceding years.
+It is not possible to conclude what type of educational institution they last attended and at what time. The annual school statistics, which is a coordinated Länder statistics, provides supplementary information also published by the Federal Statistical Office.
+In 2021, according to provisional results, the indicator value was 11.6 %, i.e. there were a total of 698,000 young people without completed upper secondary education who were not or no longer undergoing (vocational) training or continuing education. The indicator value had decreased to 9.5 % until 2014 and, hence, achieved the target for 2030. From then on, the trend had moved in the wrong direction.
+As for gender-specific indicator rates, there were no systematic differences between men and women for the period between 1999 and 2005. Since 2006, the rate for women has been lower than that for men. The values in 2021, for instance, were 9.6 % for women and 13.5 % for men.
+According to the school statistics, a total of some 47,490 young people, or 6.2 % of the resident population in the relevant age group, left school in 2021 without a certificate of lower secondary education. Compared with 1999, this equates to a reduction by 43 %. By this measure too, the proportion remains markedly lower among young women (4.9 %) than among young men (7.5 %).
+By contrast, 16.1 % (122,282) of the resident population of the same age obtained a certificate of lower secondary education from a Hauptschule in 2021, 44.1 % (334,137) obtained a certificate of intermediate secondary education, 33.0 % (263,428) obtained a general university entrance qualification, and 0.1 % (849) obtained a certificate qualifying them to enter a university of applied sciences. Since 1999, two types of certificates have seen particularly large changes over the course of time. Thus, the share of people with a secondary general school certificate fell by 10.0 percentage points, while the share of people with university entrance qualification rose by 8.2 percentage points (both as a proportion of the population of the same age).</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>45611</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>04.1.b</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Persons with an academic or higher vocational qualification</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der 30- bis 34-Jährigen an, die über einen Abschluss des Tertiärbereichs (Stufen 5 bis 8 der Internationalen Standardklassifikation des Bildungswesens, ISCED 2011) oder einen postsekundaren nicht-tertiären Abschluss (Stufe 4 der ISCED) verfügen.</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>The indicator specifies the proportion of 30 to 34-year-olds who hold a certificate from the tertiary education sector (levels 5 to 8 of the International Standard Classification of Education, ISCED, 2011) or a postsecondary non-tertiary certificate (level 4 of the ISCED).</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>Eine hoch entwickelte Volkswirtschaft wie die deutsche, in der der Dienstleistungssektor und der Bedarf an Wissen und Expertise immer stärker in den Vordergrund rücken, benötigt hoch qualifizierte Arbeitskräfte. Im Rahmen der Fortschreibung der Nationalen Nachhaltigkeitsziele sollen als Zielquote bis 2030 55 % der 30- bis 34-Jährigen über einen tertiären oder postsekundaren nicht-tertiären Abschluss verfügen.</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>Developed economies like Germany’s, in which the service sector and the demand for knowledge and expertise are becoming increasingly important, requires highly qualified workers. According to the updated national sustainable development goals, 55 % of 30 to 34-year-olds are to possess a tertiary or other post-secondary qualification by 2030.</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>Die Bezeichnung des Indikators hängt mit der Tradition der dualen Ausbildungssysteme in Deutschland zusammen. Neben den tertiären Abschlüssen an Hoch-, Fachhoch- und Verwaltungsfachhochschulen, Berufsakademien, Fachschulen und Fachakademien sowie den Meister- und Technikerabschlüssen gibt es bundesweit eine Vielzahl von postsekundaren nicht-tertiären Abschlüssen. Hierzu zählen generell alle abgeschlossenen Berufsausbildungen nach dem Abitur, aber auch Abschlüsse in Gesundheits- und Sozialberufen, wie beispielsweise die Ausbildung zur Medizinisch-technischen Assistenz.
+Die „International Standard Classification of Education (ISCED)“ ermöglicht es, Statistiken und Indikatoren zu Bildungsabschlüssen international zu vergleichen. Als gleichwertig angesehene Abschlüsse werden dabei den gleichen ISCED-Stufen zugeordnet. Der Indikator umfasst daher sowohl die tertiären Abschlüsse entsprechend den Stufen 5 bis 8 der ISCED als auch die postsekundaren nicht-tertiären Abschlüsse der Stufe 4 der ISCED.
+Die Daten für den Indikator stammen aus dem Mikrozensus, dessen jährliche Stichprobenerhebung 1 % der Bevölkerung in Deutschland umfasst. Ergänzende Informationen bietet die Hochschulstatistik, die ebenfalls vom Statistischen Bundesamt erstellt wird.
+Ausgehend von 33,4 % im Jahr 1999 stieg der Wert des Indikators bis zum Jahr 2021 um 19,9 Prozentpunkte auf 53,2 % an. Bei einer Beibehaltung der durchschnittlichen Entwicklung der letzten fünf Berichtsjahre könnte der Zielwert von 55 % für das Jahr 2030 bereits deutlich früher erreicht werden. Das Verhältnis der geschlechtsspezifischen Anteile hat sich im Lauf der Zeit gewandelt: 1999 lag der Wert des Indikators bei Männern noch um 3,8 Prozentpunkte höher als bei Frauen. Im Jahr 2006 lagen beide Geschlechter gleichauf. Seit 2007 ist der Anteil der Frauen mit einem tertiären oder postsekundaren nicht-tertiären Bildungsabschluss höher als der Anteil der Männer und hat mit 57,2 % in 2021 den Zielwert für 2030 von 55 % bereits übertroffen, während der Anteil der Männer (49,6 % in 2021) diesen Wert voraussichtlich erst in einigen Jahren erreichen wird.
+In vielen anderen Ländern gibt es keine postsekundaren nicht-tertiären Abschlüsse. Daher ist die europäische Version des Indikators aus der „Europa 2020“-Strategie der EU enger gefasst und berücksichtigt nur tertiäre Abschlüsse (ISCED-Stufen 5 bis 8).
+Der europäische Indikator erreichte für die EU-Staaten nach einem kontinuierlichen Anstieg seit 2005 im Jahr 2021 insgesamt 41,6 %. Wählt man auch für Deutschland diesen enger gefassten Indikator, so liegt der Wert im Jahr 2021 mit 37,8 % um 3,8 Prozentpunkte unter dem EU-Wert. Im Jahr 2021 ist auch hier der Anteil der Frauen (38,6 %) höher als der Anteil der Männer (37,0 %).
+Die Gesamtzahl der Hochschulabsolventinnen und Hochschulabsolventen im Jahr 2021 betrug 517 944. Das sind mehr als doppelt so viele wie im Jahr 1999. Darunter waren 129 488 Absolventinnen und Absolventen der Ingenieurwissenschaften (dreimal so viele wie 1999) und 54 928 Absolventinnen und Absolventen der Mathematik und Naturwissenschaften (68,8 % mehr als 1999).</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>The name of the indicator is linked to the tradition of the dual education system in Germany. In addition to tertiary degrees from universities, universities of applied sciences, colleges of public administration, vocational and specialised academies as well as master craftsmen’s and technicians’ certificates, there are post-secondary non-tertiary degrees at upper secondary level which are obtained in parallel or consecutively. These include, for example, the “Abitur” (higher education entrance qualification) at evening schools or at two-year full-time vocational schools, the completion of vocational training after the “Abitur” or a previous vocational training.
+The “International Standard Classification of Education (ISCED)” enables international comparisons of statistics and indicators regarding certificates of education. Certificates that are regarded as equivalent are assigned to the same ISCED levels. Therefore, the indicator includes both the tertiary degrees corresponding to levels 5 to 8 of the ISCED as well as the post-secondary non-tertiary degrees corresponding to level 4 of the ISCED.
+The data for the indicator originate from the microcensus, whose annual sample survey covers 1 % of the population. The statistics of higher education provides supplementary information and is also compiled by the Federal Statistical Office.
+Starting at 33.4 % in 1999, the indicator increased by 19.9 percentage points to 53.2 % in 2021. If the average growth rate of the last five reference years is maintained, the target value of 55 % could be achieved considerably earlier than 2030. The relation between the gender-specific percentages has changed over time. In 1999, the indicator for men was 3.8 percentage points higher than for women. In 2006, the values were the same for both sexes. Since 2007, the percentage of women with a tertiary or post-secondary non-tertiary qualification has been higher than that of men and exceeded the target value for 2030 already in year 2021 (57.2 %), while the proportion of men, which was 49.6 % in 2021, would reach the target a good bit later.
+Many other countries do not offer post-secondary non-tertiary education programmes. Therefore, the European version of the indicator from the “Europe 2020” strategy is more narrowly defined and takes only tertiary degrees (ISCED levels 5-8) into account.
+Following a steady increase since 2005, the European indicator reached a total of 41.6 % across the EU-27 states in 2021. If one also uses this more narrowly defined indicator for Germany, the value of 37.8 % obtained for 2021 was more than 3.8 percentage points below the EU value. Furthermore, in 2021, the proportion of women (38.6 %) was higher than that of men (37.0 %).
+The number of university graduates in Germany totalled 517,944 in 2021. This was more than twice as many as in 1999. These included 129,488 engineering graduates (three times as much than in 1999) and 54,928 graduates of mathematics and the natural sciences (68.8 % more than in 1999).</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>45672</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
           <t>Z04_B01_P02_Ib01</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Z04_B01_P02</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>04.1.c</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Schulen mit BNE-Label (Bildung für nachhaltige Entwicklung)</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>XXX</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>XXX</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>XXX</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>XXX</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I17" s="5" t="inlineStr">
         <is>
           <t>XXX</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>XXX</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>XXX</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N2" s="6" t="b">
-        <v>0</v>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>04.2.a,b</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Ganztagsbetreuung für Kinder</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>All-day care provision for children</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der Kinder in Ganztagsbetreuung am Stichtag 1. März an allen Kindern der gleichen Altersgruppe am 31. Dezember des Vorjahres an. Ganztagsbetreuung entspricht dabei einer durchgehenden vertraglich vereinbarten Betreuungszeit von mehr als sieben Stunden pro Betreuungstag; Tagespflege sowie die Betreuung von Schulkindern sind nicht berücksichtigt. Indikator 4.2.a bezieht sich auf die Gruppe der 0- bis 2-jährigen, Indikator 4.2.b auf die der 3- bis 5-jährigen Kinder.</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>This indicator shows children in all-day care on the reference date of 1 March as a proportion of all children in the same age group on 31 December of the previous year. All-day childcare is provided for a contractually agreed, continuous care period of more than seven hours per day; day care in private homes and care of pupils are not included. Indicator 4.2.a refers to the group of 0 to 2-year-old children, indicator 4.2.b to the group of 3 to 5-year-old children.</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>Der Anteil der 0- bis 2-jährigen Kinder, die eine Ganztagsbetreuung besuchen, soll bis zum Jahr 2030 bei mindestens 35 % liegen (4.2.a). Für die 3- bis 5-Jährigen (4.2.b) soll der Anteil bis zum Jahr 2030 auf mindestens 70 % steigen. Eine Erhöhung des Anteils von Kindern in Ganztagsbetreuung ist wünschenswert, da bedarfsgerechte Betreuungsmöglichkeiten die Vereinbarkeit von Familie und Beruf verbessern. Zudem sind sie ein wichtiger Beitrag zur Chancengerechtigkeit, zur Gleichstellung von Frauen und Männern und zur Integration.</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>The proportion of 0 to 2-year-old children attending all-day care is to reach at least 35 % (4.2.a) by 2030. For 3 to 5-year-olds (4.2.b), the proportion is to increase to at least 70 % by 2030. An increase in the proportion of children attending all-day care is desirable because the availability of childcare options that meet the needs of today’s families improve the compatibility of family life and work. They also make an important contribution to equal opportunities, gender equality and integration.</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren geben jeweils den Anteil der Kinder an, für die eine tägliche Betreuungszeit von mehr als sieben Stunden vereinbart wurde. Diese Zeitangabe kann von der tatsächlich in Anspruch genommenen Betreuungsdauer abweichen. Vertraglich vereinbarte Betreuungszeiten von sieben Stunden und weniger, die ebenfalls die Vereinbarkeit von Beruf und Familie verbessern können, sowie weitere Betreuungsformen, zum Beispiel Tagespflege, fließen nicht ein. Darüber hinaus sind für das Themengebiet auch Informationen zu Betreuungsangeboten für Kinder ab sechs Jahren relevant. Entsprechende ergänzende Informationen bieten beispielsweise Daten der Kultusministerkonferenz (siehe letzter Abschnitt).
+Die Angaben zum Indikator stammen aus der jährlichen Statistik über Kinder und tätige Personen in Kindertageseinrichtungen des Statistischen Bundesamtes. Im Jahr 2022 war für 16,8 % der unter 3-Jährigen (Krippenalter) und für 47,0 % der 3- bis 5-Jährigen (Kindergartenalter) eine Ganztagsbetreuung in Kindertageseinrichtungen vereinbart. Somit haben sich die Anteile der ganztags betreuten Kinder unter 3 Jahren seit 2006 fast verdreifacht und unter den 3- bis 5-Jährigen mehr als verdoppelt. Bei beiden Altersgruppen ist der Anstieg allerdings seit etwa 2014 deutlich schwächer ausgeprägt als in den Jahren zuvor, seit 2020 sind die Anteile sogar leicht rückläufig.
+Die absolute Zahl der ganztags in Kindertageseinrichtungen betreuten Kinder unter 6 Jahren lag 2022 bei 1,61 Millionen. Weitere 67 416 Kinder im Alter von unter 6 Jahren wurden ganztägig in öffentlich geförderter Tagespflege betreut und werden somit, wie auch die 5-jährigen Kinder, die bereits zur Schule gehen, nicht vom Indikator erfasst. Darüber hinaus waren 2022 rund 1,46 Millionen Kinder mit einer Betreuungszeit von bis zu sieben Stunden in Teilzeitbetreuung.
+In beiden Altersklassen war die Anzahl an Kindern in der Bevölkerung insgesamt bis 2014 stagnierend bis rückläufig, hat aber als Folge des vermehrten Zuzugs Geflüchteter ab 2015 stark zugenommen. Diese deutlichen Zuwächse spiegeln sich jedoch nicht in der Anzahl der betreuten Kinder wider, die in beiden Altersklassen einen (über 2015 hinweg, bis zur Corona-Pandemie) konstanten Verlauf verzeichnet, was zu dem abgeschwächten Anstieg der Indikatoren geführt hat.
+Mehr als ein Viertel der 2020 in Kindertageseinrichtungen und in öffentlich geförderter Tagespflege betreuten Kinder unter 6 Jahren hatte einen Migrationshintergrund, das heißt, mindestens ein Elternteil war ausländischer Herkunft. Die Betreuungsquote betrug hier 51 %, bei Kindern ohne Migrationshintergrund lag sie bei 71 %.
+Bei der Ganztagsbetreuung in Tageseinrichtungen besteht ein deutliches Gefälle zwischen den alten und neuen Bundesländern. Die höchsten Ganztagsquoten für 0- bis 2-Jährige sind in den neuen Bundesländern sowie in Berlin zu verzeichnen. Die Spanne bewegt sich insgesamt zwischen 50,7 % in Thüringen und 9,5 % in Baden-Württemberg. Bei den 3- bis 5-Jährigen weisen ebenfalls Thüringen mit 91,6 % die höchste und Baden-Württemberg mit 24,1 % die niedrigste Betreuungsquote auf (jeweils 2022).
+Im Hinblick auf die Betreuungsmöglichkeiten für Schulkinder spielen auch Horte und Ganztagsschulen eine wichtige Rolle. 2021 wurden in Kindertageseinrichtungen (Horten) 18 967 Kinder von 5 bis 13 Jahren ganztags und 486 408 Kinder in Teilzeit betreut (die Unterrichtszeit gilt nicht als Betreuungszeit). Der Anteil der Ganztagsschülerinnen und Ganztagsschüler gemessen an allen Schülerinnen und Schülern an allgemeinbildenden Schulen lag im Schuljahr 2020/2021 bei 47,2 %. Hier sind jedoch alle Schulformen und somit auch Schülerinnen und Schüler über 13 Jahren einbezogen. An Grundschulen wurden im gleichen Schuljahr 46,5 % der Kinder ganztags betreut. Im Vergleich zum Jahr 2006 ist die Zahl der Ganztagsschülerinnen und Ganztagsschüler 2021 deutlich gestiegen, und zwar von knapp 1,5 Millionen auf 3,4 Millionen (allgemeinbildende Schulen insgesamt) und von 0,4 Millionen auf 1,</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>The indicators show the proportion of children for whom daily childcare of more than seven hours has been arranged, which may deviate from the actual time spent in childcare. Contractually agreed childcare provision of seven hours and less, which can also improve the compatibility of work and family life, and other types of care, e.g. day care in private homes, are not included. Furthermore, information on childcare services aimed at children aged 6 years and older is also relevant to this topic. Such supplementary information is included, for example, in the data of the Standing Conference of the Ministers of Education and Cultural Affairs of the Länder in the Federal Republic of Germany (see the last paragraph).
+The information of the indicator is provided by the annual statistics on children cared for and persons employed in day care centres, which is compiled by the Federal Statistical Office. In 2022, all-day care in day care centres was arranged for 47.0 % of the 3 to 5-year-old children (kindergarten age). For children under 3 years of age (nursery age) this figure was 16.8 %. As a result, the share of children in all-day care below the age of 3 almost tripled and have more than doubled for the 3 to 5-year-olds since 2006. However, the increase for both indicators is significantly reducing since 2014 and, furthermore, the share of children for both age groups in all-day care is diminishing since 2020.
+The total number of children below the age of six receiving all-day care in day care centres in 2022 was 1.61 million. Another 67,416 children below six years of age were receiving publicly subsidised childminder care; like those five-year-old children who are already at school, they are not covered by the indicator. In addition, in 2022 some 1.46 million children were receiving part-time care of seven hours or less.
+Both age groups reported stagnating or declining total number of children in population until 2014, but the increased migration of refugees significantly increased the number of children since 2015. However, the growing number of refugees had no effect on the number of children in all-day care from 2015 until the pandemic and, hence, the growth of the indicators was weakened.
+In 2020, more than a quarter of the children under six years cared for in day care centres or by publicly supported childminding services had a migrant background, meaning that at least one of the parents was of foreign origin. 51 % of these children were in day care, compared with 71 % of the children without a migrant background.
+With regard to the availability of all-day care provided by facilities, there is a clear gap between the Länder in the east and the Länder in the west of Germany. The highest percentages of 0 to 2-year-olds in all-day care are recorded in the eastern Länder and in Berlin. The values range from 50.7 % in Thuringia to 9.5 % in Baden-Württemberg. For 3 to 5-year-olds, the percentage was also highest in Thuringia at 91.6 % and lowest in Baden-Württemberg at 24.1 % (each 2022).
+When it comes to opportunities of care for pupils, pre and after-school care programmes and all-day schools also play a significant role. In 2021, 18,967 children between 5 and 13 years of age were looked after on an all-day basis in care programmes and 486,408 children part-time (lessons are not regarded as childcare). The percentage of pupils attending all-day schools of all pupils in schools of general education was 47.2 % in the 2020/2021 school year. However, this figure includes pupils from all school types and hence includes also pupils who are older than 13 years. In primary schools, 46.5 % of children received all-day care in that school year. In comparison to 2006, the number of all-day school pupils has increased considerably in 2021, from almost 1.5 million to 3.4 million (in all schools of general education) and from 0.4 million to 1.3 million in the primary schools.</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t>4.2.2</t>
+        </is>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>45561</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>05.1.a</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Gender pay gap</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer als Anteil an den durchschnittlichen Bruttostundenverdiensten der Männer.</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the difference between the average gross hourly earnings of women and men expressed as a percentage of the average gross hourly earnings of men.</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgte daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>Differences in pay between men and women in a modern business-oriented society are a sign of social inequality. A narrowing of pay disparities indicates progress on the road to equality. The Federal Government is therefore pursuing the goal of reducing the pay gap to 10 % by 2020 and to maintain the value until 2030.</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Im unbereinigten Gender Pay Gap (GPG) enthalten ist auch der Lohnabstand, der beispielsweise auf unterschiedliche Berufe, Branchen, Qualifikationen oder Erwerbsbiografien von Frauen und Männern zurückzuführen ist.
+Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen (Untergliederung in fünf Gruppen von ungelernt bis Arbeitnehmerinnen und Arbeitnehmer in leitender Stellung), Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap bestimmt. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten sowie den unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der Land- und Forstwirtschaft, Fischerei, der öffentlichen Verwaltung, Verteidigung, Sozialversicherung sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.
+Nach vorläufigen Zahlen verdienten Frauen in den Jahren 2020 und 2021 durchschnittlich 18 % weniger pro Stunde als Männer. Das Ziel, den unbereinigten GPG bis 2020 auf 10 % zu verringern, wurde damit nicht erreicht. Bei Fortsetzung der Entwicklung der letzten fünf Jahre ist zu erwarten, dass das angestrebte Ziel auch bis zum Jahr 2030 nicht erreicht wird.
+Über einen längeren Zeitraum betrachtet, zeigt sich für Deutschland ein langsamer, aber stetiger Rückgang des unbereinigten GPG. Dieser hatte 2012 mit 23 % noch um 5 Prozentpunkte höher gelegen als 2021. Bei Betrachtung der Ergebnisse nach Bundesländern zeigen sich erhebliche Unterschiede: Am höchsten lag der unbereinigte GPG im Jahr 2021 mit 22 % in Baden-Württemberg und Bremen, während er in Brandenburg, Mecklenburg-Vorpommern und Thüringen 5 % betrug.
+Untersuchungen der ursächlichen Faktoren des GPG werden alle vier Jahre auf Basis der detaillierten Ergebnisse der Verdienststrukturerhebung durchgeführt. Derzeit liegen Ergebnisse für das Jahr 2018 vor. Die Faktoren, die die Verdienstunterschiede bestimmen, unterliegen langfristigen strukturellen Veränderungsprozessen und sind damit im Zeitablauf relativ stabil. 71 % des Verdienstunterschieds zwischen Frauen und Männern sind unter anderem darauf zurückzuführen, dass Frauen häufiger in Branchen, Berufen und Leistungsgruppen arbeiten, in denen schlechter bezahlt wird. Auch arbeiten Frauen häufiger als Männer in Minijobs oder in Teilzeit.
+Die verbleibenden 29 % des Verdienstunterschieds entsprechen dem bereinigten GPG von zuletzt 6 % im Jahr 2018. Verglichen mit dem unbereinigten GPG zeigt sich beim bereinigten GPG auf Ebene der Bundesländer ein wesentlich einheitlicheres Bild. Er lag im Jahr 2018 zwischen 4 % (in Berlin) und 7 % (in Baden-Württemberg, Bayern, Bremen, Hamburg und Sachsen).
+Im europäischen Vergleich liegen überwiegend vorläufige Ergebnisse bis zum Jahr 2020 vor. Der unbereinigte GPG lag in Deutschland seit 2010 durchgehend über dem Durchschnitt der Europäischen Union. Von 25 EU-Staaten, für die Daten für das Jahr 2020 vorliegen, weisen nur Lettland mit 22 %, Estland mit 21 % und Österreich mit 19 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %), Rumänien (2 %) und Slowenien (3 %).</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>The indicator presented here shows the unadjusted gender pay gap (GPG). Therefore, it only expresses the relative average gross hourly earnings as a ratio without considering the underlying causes, such as qualification, occupation or a different employment history.
+The data for the indicator is based on the four-yearly structure of earnings survey conducted by the statistical offices of the Länder as a representative sample survey covering a maximum of 60,000 businesses who are obliged to provide the requested information. Based on these data, results are provided by age, educational attainment, performance group, activity, collective agreement, company size class and economic sector, and the adjusted GPG is published. For the interim years, the unadjusted GPG is updated using the rates of change from the quarterly survey of earnings. In the following, the EU definition is used for the adjusted and unadjusted GPG; it excludes employees in “agriculture, forestry and fishing”, “public administration and defence; compulsory social security” and in micro-enterprises.
+In 2020 and 2021, the unadjusted GPG was 18 % on average. The goal to reduce the unadjusted GPG to 10 % by 2020 was missed. Hence, if the trend recorded over the last five years continues, the goal set for 2030 will not be achieved.
+The unadjusted GPG is slowly but steadily declining for Germany long-term. The value in 2012 was 23 % and, thus, 5 percentage points above the value in 2021. The unadjusted GPG varied markedly between the Länder: in 2021, the GPG was highest in Baden-Württemberg and Bremen with 22 %, while being at 5 % for Brandenburg, Mecklenburg Western Pomerania and Thuringia.
+Investigations into the causal factors behind the GPG can be conducted every four years on the basis of the detailed results of the structure of earnings survey. The latest available findings date from 2018. The factors that determine pay differentials are subject to long-term evolution processes and are therefore fairly stable over the course of time. The findings show that structural causes account for 71 % of the GPG, in other words the differences are partly due to the fact that women often work in sectors and occupations where pay rates are low, and they more rarely attain managerial positions. They are also more likely than men to work part-time or to have mini-jobs.
+The remaining 29 % of the pay differential corresponds to the adjusted GPG of 6 % in 2018. Compared with the unadjusted GPG, the adjusted GPG figure is considerably more uniform across the Länder. In 2018, the adjusted gap ranged from 4 % in Berlin to 7 % in Baden-Württemberg, Bavaria, Bremen, Hamburg and Saxony.
+Comparative data for the European Union with mostly provisional results is available until 2020. From 2010 on, the unadjusted GPG in Germany lay considerably above the provisional European Union average. Of the 25 EU states in 2020, only Latvia, with 22 %, Estonia, with 21 %, and Austria, with 19 %, had a higher GPG. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1 %, Romania, with 2 %, and Slovenia, with 3 %.</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t>8.5.1</t>
+        </is>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>05.1.b,c</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Women in management positions in business and in the federal civil service</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes.</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>The indicator 5.1.b shows the share of women on supervisory boards of listed and fully co-determined companies. Indicator 5.1.c shows the percentage of women in management positions in the federal civil service.</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>Frauen sind ebenso qualifiziert wie Männer und dennoch in Führungspositionen der deutschen Wirtschaft, vor allem im Top-Management, unterrepräsentiert. Gleiches gilt auch für den Anteil in Führungspositionen im öffentlichen Dienst des Bundes. Bis zum Jahr 2030 soll daher der Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen auf 30 % erhöht werden. Im öffentlichen Dienst des Bundes soll die gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen gemäß dem am 21. August 2021 in Kraft getretenen zweiten Führungspositionengesetz (FüPoG II) bis zum Jahr 2025 erreicht werden.</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>Women are as highly qualified as men, yet they are under-represented in management positions in German business, particularly at senior management level. The same applies to the percentage of women in management positions in the federal civil service. For this reason, the share of women on supervisory boards of listed and fully co-determined companies is to be increased to 30 % by 2030. Under the bill for a Second Gender Equality (Management Positions) Act, which became effective on 21 August 2021, equal representation of women and men in management positions in the civil service is to be achieved by 2025.</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;i&gt;Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen&lt;/i&gt;&lt;/b&gt;
+Der Indikator erfasst den Anteil von Frauen in Aufsichtsräten von Aktiengesellschaften und Kommanditgesellschaften auf Aktien mit mehr als 2 000 Beschäftigten sowie Europäischen Gesellschaften (SE) und börsennotierten Unternehmen, die paritätisch mitbestimmt sind. Die Veröffentlichungen der börsennotierten und paritätisch mitbestimmten Unternehmen, die vom Verein „Frauen in die Aufsichtsräte“ (FidAR) ausgewertet und in sogenannten Women-on-Board-Indizes (WOB-Indizes) veröffentlicht werden, dienen als Datengrundlage.
+Im Januar 2022 lag der durchschnittliche Frauenanteil in den Aufsichtsräten dieser Unternehmen bei 35,6 % (Januar 2015: 21,3 %). Bereits im Jahr 2018 – zwölf Jahre vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist – wurde der angestrebte Anteil von 30 % erreicht. Mit dem Wert für 2022 wurde allerdings erstmals seit dem Jahr 2015 ein (wenn auch nur leichter) Rückgang des Anteils verzeichnet.
+Gemäß dem Gesetz für die gleichberechtigte Teilhabe von Frauen und Männern in Führungspositionen sind seit dem Jahr 2016 in allen neu gewählten Aufsichtsratspositionen der genannten Unternehmen mindestens 30 % der Aufsichtsratssitze mit Frauen zu besetzen.
+Ein Großteil der Unternehmen in Deutschland und die Mehrzahl der Führungspositionen in der Wirtschaft werden mit der zugrunde gelegten Definition des Indikators nicht betrachtet. Der von der Definition vorgegebene Berichtskreis umfasst aktuell 101 Unternehmen. Die knapp 1 600 von FidAR bisher betrachteten Aufsichtsratsposten stellen bei insgesamt 882 000 Führungskräften gemäß Verdienststrukturerhebung im Jahr 2018 (aktuellere Daten lagen bei Redaktionsschluss noch nicht vor) einen kleinen Ausschnitt der Führungspositionen in der Wirtschaft dar. Die Zahlen verdeutlichen, dass mit der Betrachtung der Aufsichtsgremien lediglich ein Teil der Führungspositionen in einem Unternehmen abgebildet wird.
+Laut Internationaler Standardklassifikation der Berufe (ISCO) sind Führungskräfte alle Personen, die die Gesamtaktivitäten von Unternehmen, Regierungen und anderen Organisationen oder von internen Organisationseinheiten planen, steuern, koordinieren und bewerten sowie Richtlinien, Gesetze, Regeln und Vorschriften überprüfen und bewerten. Dies schließt die Tätigkeiten in Aufsichtsräten mit ein. Wird die ISCO-Klassifikation zugrunde gelegt, waren im Jahr 2018 von den insgesamt 882 000 Führungspositionen in der Wirtschaft 22 % mit Frauen besetzt. Dafür wurden alle Betriebe ab einem sozialversicherungspflichtig Beschäftigten ohne den Wirtschaftsabschnitt O „Öffentliche Verwaltung, Verteidigung; Sozialversicherung“ und teilweise den Wirtschaftsabschnitt P „Erziehung und Unterricht“ betrachtet. Im Vergleich zum Jahr 2014, dem Jahr der vorherigen Verdienststrukturerhebung, ist dies eine Steigerung um 1,2 Prozentpunkte.
+&lt;b&gt;&lt;i&gt;Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes&lt;/i&gt;&lt;/b&gt;
+Bislang dient eine Sonderauswertung der unveröffentlichten Gleichstellungsstatistik des Bundes nach Maßgabe des Bundesgleichstellungsgesetzes (BGleiG) als Datengrundlage für den Indikator. Das Statistische Bundesamt führt seit 2015 im Auftrag des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ) die Gleichstellungsstatistik alle zwei Jahre zum Stichtag 30. Juni des Berichtsjahres durch. Ein erweitertes Monitoring im Zusammenhang mit der Maßnahme IX 1. b der Deutschen Nachhaltigkeitsstrategie und dem zweiten Führungspositionengesetz (FüPoG II) zur Erhöhung der Transparenz wird künftig halbjährliche Daten auch aus den nachgeordneten Dienststellen der unmittelbaren Bundesverwaltung zur Anzahl von Frauen und Männern in Führungspositionen zur Bedienung des Indikators liefern. Der Fokus des Indikators richtet sich auf die Beschäftigten in Führungspositionen aller Dienststellen des Bundes. Einbezogen werden alle Voll- und Teilzeitbeschäftigten sowie</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;This indicator measures the proportion of women on the supervisory boards of listed companies and joint-stock companies with more than 2,000 employees as well as European Companies (SE) and listed companies that are subject to equal co-determination. The data is based on publications of the results of elections at general meetings of shareholders of listed and fully co-determined companies, which are evaluated by the association “Frauen in die Aufsichtsräte” (FidAR) and published in the form of a Women on Board Index (WOB-Index).
+In January 2022, the average proportion of women on the supervisory boards of these companies was 35.6 % (January 2015: 21.3 %). This means that the target share of 30 % was already reached in 2018 – twelve years before the deadline set in the German strategy for sustainable development. However, the share in 2022 slightly decreased for the first time since 2015.
+Provided that the companies complied with the law, this increase was to be expected as the “Act on the Equal Participation of Women and Men in Executive Positions” since 2016 requires at least 30 % of the supervisory board positions to be filled by women in all newly elected supervisory boards of the above-mentioned companies.
+With regard to the results, it should also be noted that the majority of companies in Germany and most of the management positions in the economy are excluded by the underlying definition. On the one hand, the group of reporting entities currently comprises 101 companies according to the definition. On the other hand, the roughly 1,600 supervisory board positions considered by FidAR to date represent only a small portion of management positions in the economy with its 882,000 managers in 2018 according to the structure of earnings survey (more recent data was not available at the time of going to press). These numbers illustrate that only part of the management positions in a company are considered when the coverage is limited to the supervisory bodies.
+According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, control, coordinate and evaluate the overall activities of companies, governments and other organisations or internal organisational units and who review and evaluate guidelines, laws, rules and regulations. This definition includes the activities of supervisory boards. When the ISCO classification is applied, 22 % of the 882,000 management positions in the economy (all companies with more than one employee) were filled by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O “Public administration and defence; compulsory social security” and parts of sector P “Education”. Compared with 2014, the year of the previous structure of earnings survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June of the reporting year, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. For improved transparency, the indicator will receive biannual data from extended monitoring by the measure IX 1.b by the German strategy for sustainable development and the second managements position act (FüPoG II) provided by subordinated departments of the direct federal administration regarding the number of women and men in management positions. The indicator is focused on the employees in management positions in all departmen</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>16.7.1</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>45601</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01_Ib03</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>05.1.d</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Väterbeteiligung beim Elterngeld</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of fathers receiving parental allowance</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the percentage of children whose fathers receiving parental allowance.</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>Das Elterngeld soll Familien bei einer partnerschaftlichen Aufgabenteilung unterstützen und eine gute Vereinbarkeit von Familie und Beruf für Mütter und Väter erreichen. Besonders mit der Einführung des ElterngeldPlus und des Partnerschaftsbonus soll der gesellschaftliche Wandel geschlechtsstereotyper Rollenbilder von Müttern und Vätern weiter vorangetrieben und letztendlich auch die Gleichstellung am Arbeitsmarkt befördert werden. Die Bundesregierung hat sich deshalb zum Ziel gesetzt den Anteil der Väter, die Elterngeld beziehen, zum Jahr 2030 auf 65 % zu steigern.</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>Parental allowance is intended to assist mothers and fathers in sharing their tasks in a spirit of partnership and in successfully reconciling work and family life. The introduction of parental allowance plus (ElterngeldPlus) and the partnership bonus (Partnerschaftsbonus) in particular are intended to keep driving social change in the stereotypical role models for mothers and fathers and ultimately to promote equality of opportunity in the labour market. For that reason, the German Federal Government has set itself the target of increasing the proportion of fathers receiving parental allowance to 65 % by 2030.</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>Mit dem Bundeselterngeld- und Elternzeitgesetz (BEEG) wurde das Elterngeld als Familienleistung für ab dem 1. Januar 2007 geborene Kinder eingeführt. Anspruchsberechtigte müssen einen Wohnsitz oder gewöhnlichen Aufenthalt in Deutschland haben, mit ihrem Kind in einem Haushalt leben, dieses Kind selbst betreuen und erziehen und dürfen keine bzw. keine volle Erwerbstätigkeit ausüben. Mütter und Väter sind gleichermaßen berechtigt.
+Auch wenn es sich nicht um das leibliche Kind handelt, können Ehemann/Ehefrau bzw. Lebenspartner/Lebenspartnerin der leiblichen Mutter oder des leiblichen Vaters Elterngeld erhalten, wenn sie im gleichen Haushalt leben. In über 99 % der Fälle handelt es sich bei den Leistungsbeziehenden jedoch um die leiblichen Eltern, sodass im Folgenden vereinfacht von Müttern und Vätern die Rede ist.
+Die Väterbeteiligung bildet den Anteil der Kinder ab, bei denen der Vater Elterngeld bezogen hat, im Verhältnis zu allen Kindern eines Geburtsjahrgangs, für die Elterngeld bezogen wurde. Die ausgewiesenen Zahlen basieren hierbei auf abgeschlossenen Elterngeldbezügen für Kinder eines bestimmten Geburtsjahres. Dadurch können die Zahlen erst zwei Jahre nach Ende des jeweiligen Geburtsjahres der Kinder berechnet werden. Für im Jahr 2008 geborene Kinder lag die Väterbeteiligung bei 21,2 % und stieg bis zum Jahr 2019 auf 43,5 % an. Der Anteil der Kinder, deren Mütter Elterngeld bezogen („Mütterbeteiligung“), lag in dem gleichen Zeitraum dagegen erheblich höher und betrug in allen Jahren rund 98 %.
+Zwar stieg die Väterbeteiligung im Zeitverlauf an, die Dauer des durchschnittlichen Elterngeldbezugs der Väter, die Elterngeld bezogen, sank jedoch leicht, von 3,7 Monaten für im Jahr 2008 geborene Kinder auf 3,3 Monate für im Jahr 2019 geborene Kinder.
+Diese zwei Effekte wirkten sich auch auf die Entwicklung der durchschnittlichen Bezugsdauer des Elterngeldes aller Väter, also auch derer, die kein Elterngeld bezogen, aus. Dabei überkompensierte der Anstieg der Väterbeteiligung den Rückgang der Bezugsdauer. Durchschnittlich stieg der Elterngeldbezug aller Väter von 0,8 Monaten für im Jahr 2008 geborene Kinder auf 1,4 Monate für im Jahr 2019 geborene Kinder an. Im Vergleich dazu lag die durchschnittliche Dauer des Elterngeldbezugs aller Mütter bei 11,5 Monaten für im Jahr 2008 geborene Kinder und stieg auf 13,5 Monate im Jahr 2019 an.
+Der Indikator basiert auf Daten der Elterngeldstatistik, in der quartalsweise alle Elterngeldleistungen erfasst werden. Die Zahlen beziehen sich jeweils auf das Geburtsjahr des Kindes, für das die Leistungen bewilligt wurden. Zur Berechnung des Indikators wird die Anzahl der Kinder herangezogen, für die tatsächlich Elterngeld bewilligt wurde, und nicht die Anzahl der in Deutschland geborenen Kinder. Damit soll vermieden werden, dass auch Kinder in die Berechnung miteingehen, für die kein Elterngeldanspruch besteht (zum Beispiel Kinder von ausländischen Schutzsuchenden).
+Bisher ist eine genaue Differenzierung nach Art der Partnerschaft, in der Leistungsberechtigte leben (ob gleichgeschlechtlich oder nicht), auf Basis der Elterngeldstatistik nicht möglich. Deshalb wird für die Berechnung des Indikators vereinfachend angenommen, dass für jedes Kind genau ein Vater leistungsberechtigt ist.
+Die maximale Bezugsdauer des Elterngeldes für vor dem 1. Juli 2015 geborene Kinder betrug 14 Monate. Für Eltern, deren Kinder ab dem 1. Juli 2015 geboren wurden, besteht die Möglichkeit, zwischen dem Bezug von Basiselterngeld und dem Bezug von ElterngeldPlus zu wählen oder beides zu kombinieren und zusätzlich einen Partnerschaftsbonus in Form von zwei, drei oder vier zusätzlichen ElterngeldPlus-Monaten pro Elternteil in Anspruch zu nehmen. Die Bezugsdauer kann sich hierdurch erheblich verlängern.</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.
+Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99 % of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.
+The figure for fathers receiving a share of parental allowance represents the percentage of children whose fathers received parental allowance as a percentage of all children born in a particular year for whom parental allowance was received. The existing numbers are based on completed payments of parental allowances for children of a specific year of birth. As a result, the numbers can only be calculated two years after the end of the respective year of birth. For the children born in 2008, fathers received parental allowance in 21.2 % of cases, and this figure rose to 43.5 % by 2019. The proportion of children whose mothers received parental allowance in the same period was far higher, amounting to about 98 % in every year.
+Although the percentage of fathers receiving parental allowance increased over time, the average period for which they received the allowance declined slightly from 3.7 months for children born in 2008 to 3.3 months for children born in 2019.
+These two effects also impacted on the development of the overall average period for which parental allowance was received by all fathers, i.e. including those who did not receive any allowance. At the same time, the increase in the percentage of fathers receiving the allowance outweighed the decline in the period of receipt. The average period for which fathers in general obtained parental allowance increased from 0.8 of a month for children born in 2008 to 1.4 months for those born in 2019. By comparison, the average period for which mothers in general received parental allowance rose from 11.5 months for children born in 2008 to 13.5 months for those born in 2019.
+The indicator is based on data from the parental allowance statistics, in which all payments of personal allowance are recorded on a quarterly basis. The data relates in each case to the year of birth of the child for whom the allowance has been granted. The figure used to calculate the value of the indicator is the number of children for whom parental allowance was actually granted, not the total number of children born in Germany. This is intended to avoid the inclusion in the calculation of children for whom there is no entitlement to parental allowance, such as the children of foreign asylum-seekers.
+It is not yet possible to differentiate precisely on the basis of the parental allowance statistics between types of partnership in which the eligible persons are living, i.e. whether it is a same-sex partnership. Therefore, for the purpose of calculating the indicator, it is assumed for simplification that exactly one father is entitled to benefits for each child.
+For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P02_Ib01</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P02</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>05.1.e</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>Vocational qualification of women and girls through German development assistance</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden. Dabei wird in finanzielle (FZ) und technische Zusammenarbeit (TZ) unterschieden.
+Leistungen der TZ sind vor allem Beratung, in begrenztem Umfang auch die Lieferung von Sachgütern, das Erstellen von Anlagen sowie Studien und Gutachten. Zur FZ gehören günstige Kredite, Beteiligungskapital oder Zuschüsse, die nicht zurückgezahlt werden müssen.</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of women and girls in developing and emerging countries who were reached by vocational qualification measures through German development cooperation. The indicator is divided into financial (FZ) and technical cooperation (TZ).
+Services from TZ include consulting, to a limited degree the delivery of material goods, the production of facilities and the implementation of studies and reports. FZ provides favourable loans, venture capital or grants, that do not have to be repaid.</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>Die wirtschaftliche Teilhabe von Frauen und Mädchen in Entwicklungs- und Schwellenländern soll gestärkt werden. Daher soll bis 2030 die Anzahl der durch deutsche Entwicklungszusammenarbeit beruflich qualifizierten Frauen und Mädchen in Entwicklungs- und Schwellenländern sukzessive um ein Drittel gegenüber dem Jahr 2015 erhöht werden. Dies entspricht der von der Bundesregierung im Rahmen des G7-Gipfels im Jahr 2015 eingegangenen Verpflichtung zur Mädchen- und Frauenbildung.</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>The economic participation of girls and women in developing and emerging countries is to be increased. To this end, the number of girls and women in developing and emerging countries who obtain vocational qualifications through German development cooperation is to be gradually increased by one third over the period from 2015 to 2030. The Federal Government as part of the G7 summit is obliged to support girl’s and women’s education since 2015.</t>
+        </is>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>Als Datenquelle werden Informationen vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) zu geförderten Entwicklungsmaßnahmen verwendet, die sich im entsprechenden Berichtsjahr in der Durchführungsphase befanden. Zu diesen Maßnahmen zählen alle kurz-, mittel- und langfristigen formalen und nonformalen Berufsbildungsmaßnahmen in Entwicklungs- und Schwellenländern. Die Maßnahmen werden vollständig durch Mittel des Bundeshaushaltes sowie durch Marktmittel finanziert. Die Datenerhebung erfolgte erstmalig für das Jahr 2015 im Auftrag des BMZ durch die Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ) sowie das Centrum für Evaluation (CeVal GmbH). Die Erhebung wurde 2018 erneut durchgeführt. Ab dem Jahr 2021 werden die Daten alle drei Jahre aus der sogenannten aggregierten Ergebnisberichterstattung der GIZ und der Kreditanstalt für Wiederaufbau (KfW) abgeleitet.
+Im Jahr 2015 wurden rund 355 000 und im Jahr 2018 rund 863 000 Frauen und Mädchen durch berufliche Qualifizierungsmaßnahmen erreicht. Die hohe Anzahl an geförderten Frauen und Mädchen 2018 war vorwiegend durch die Zusammenarbeit mit China geprägt. Bedingt durch die ausgelaufene Zusammenarbeit mit China im Bereich Bildung lag die Anzahl der erreichten Frauen und Mädchen zuletzt bei etwa 80 000 (Jahr 2021). Gegenüber 2015 – dem ersten Jahr der Erhebung – war dies nur gut ein Fünftel an Frauen und Mädchen, die durch deutsche Entwicklungszusammenarbeit in Entwicklungs- und Schwellenländern beruflich qualifiziert wurden. Mit der Anzahl an erreichten Frauen und Mädchen wird jedoch keine Aussage zu Erfolg, Umfang und Qualität der Entwicklungsmaßnahmen getroffen.
+Von den etwa 80 000 Frauen und Mädchen wurden schätzungsweise 79,3 % über die technische Zusammenarbeit (TZ) erreicht; 20,7 % über die finanzielle Zusammenarbeit (FZ). Während die Anzahl der Frauen und Mädchen bei Maßnahmen der TZ ex post erfasst wird, muss die Anzahl bei der FZ im Voraus geschätzt werden. Dadurch kann es zu Überschätzungen und Mehrfachzählungen kommen.</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>Information provided by the Federal Ministry for Economic Cooperation and Development on supported projects that entered the implementation phase in the respective year served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds. The data was collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH (CeVal GmbH). The survey was renewed in 2018. From 2021 on, the data will be derived every three years from the aggregated results reporting provided by GIZ and Kreditanstalt für Wiederaufbau (KfW).
+In 2015 and 2018, 355,000 and 863,000 women and girls were reached by skill development measures, respectively. The high number of supported women and girls in 2018 was predominantly due to the collaboration with China. Expired collaboration in the education section with China caused a decline to 80,000 girls and women, who were reached by skill development measures in 2021. Only a fifth of women and girls were reached by German vocational qualification measures in developing and emerging countries compared to the first year of survey in 2015. However, the indicator does not provide any information on the success, scope and quality of the qualification measures.
+Of the 80,000 women and girls, about 79.3 % were reached by TZ and, accordingly, 20.7 % by FZ. While the number of women and girls are recorded ex-post for TZ measures, the number for FZ has to be estimated in advance. As a consequence, latter is prone to overestimation and multiple counting.</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>06.1.a</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Phosphor in Fließgewässern</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Phosphorus in flowing waters</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil derjenigen Messstellen an, an denen die gewässertypischen Orientierungswerte des guten ökologischen Zustands für Phosphor in Fließgewässern eingehalten werden.</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>The indicator specifies the share of monitoring points at which the water-body typical benchmark values of good ecological status regarding phosphorus in flowing waters are not exceeded.</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>Phosphor gelangt in Deutschland heute etwa je zur Hälfte aus der Landwirtschaft und aus Städten (kommunale Kläranlagen und Regenwasserabläufe) in die Fließgewässer. Es ist neben der Belastung durch Nitrat einer der Gründe, warum es in Flüssen, Seen und Meeren zu einer Überversorgung mit Nährstoffen (Eutrophierung) kommt. Folgen davon sind Algenwachstum, Sauerstoffarmut bis hin zum Fischsterben oder zum Aufkommen giftiger Blaualgen. Daher wurde als Ziel für das Jahr 2030 festgelegt, dass die gewässertypischen Orientierungswerte, die in der Oberflächengewässerverordnung angegeben sind, an allen Messstellen eingehalten oder unterschritten werden.</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>Roughly half of the phosphorous entering flowing waters in Germany today originates from agriculture, and the other half comes from cities (municipal water treatment plants and rainwater run-offs). In addition to nitrate pollution, it is one of the causes of an oversupply of nutrients in rivers, lakes and seas (eutrophication). The consequences of this are algae growth, oxygen depletion all the way to fish kills or the growth of poisonous blue-green algae. For this reason, meeting benchmark values for specific types of water bodies, as specified in the Ordinance on the Protection of Surface Waters, at all monitoring points has been defined as a goal for 2030.</t>
+        </is>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>Phosphor gelangt im Regelfall durch den Eintrag von Phosphaten in Gewässer. Die Phosphorbelastung der Flüsse wird von den Bundesländern im Rahmen der Überwachung zur EG-Wasserrahmenrichtlinie gemessen. Für den Indikator werden die Daten des Überblicksmessnetzes genutzt, das aus etwa 250 Messstellen besteht. Die Messstellen wurden meist in den Hauptströmen der großen Flüsse und an Einmündungen bedeutender Nebengewässer eingerichtet. Die Zusammenstellung der Daten erfolgt durch das Umweltbundesamt nach Angaben der Bund/Länder-Arbeitsgemeinschaft Wasser (LAWA).
+In den Indikator geht ein, ob der jeweils gültige Orientierungswert an einer gegebenen Messstelle im Jahresmittel eingehalten oder unterschritten, jedoch nicht wie weit dieser bei einer Überschreitung verfehlt wurde. Die Angaben zu den einzelnen Messstellen werden zusammengefasst dargestellt. Entsprechend hängt der Wert des Indikators von der Anzahl und der Repräsentativität der Verteilung der Messstellen ab. Seen und andere Stillgewässer sind durch den Indikator nicht abgedeckt.
+Da die Gewässertypen unterschiedlich empfindlich auf Nährstoffe wie Phosphor reagieren, gelten für die Messstellen unterschiedliche Orientierungswerte: Der überwiegende Teil der Fließgewässer hat den Orientierungswert 0,1 Milligramm Phosphor pro Liter. Bei organisch geprägten Flüssen beträgt der Orientierungswert 0,15 Milligramm pro Liter, bei Marschgewässern 0,3 Milligramm pro Liter und bei tidebeeinflussten Übergangsgewässern 0,045 Milligramm pro Liter.
+Im Jahr 2020 lag der Jahresmittelwert bei 41,7 % der Messstellen an Flüssen unter dem Orientierungswert. 52,6 % der Messstellen wiesen mittlere Konzentrationen, das heißt bis zum Doppelten des Orientierungswertes auf, und 2,9 % der Messstellen lagen im Bereich bis zum Vierfachen dieses Wertes (nicht in der Grafik dargestellt). Die übrigen 2,8 % wiesen noch höhere Konzentrationen auf.
+Im Zeitverlauf hat sich der Anteil der Messstellen, die den Orientierungswert einhalten, kontinuierlich erhöht und seit 1990 mehr als verdoppelt. Der Prozentsatz der Messstellen mit Konzentrationen bis zum Doppelten des Orientierungswertes hat sich jedoch im gleichen Zeitraum fast verdreifacht. Im Gegenzug verzeichnete der Anteil von Messstellen mit noch höheren Werten seit Anfang der 1990er-Jahre einen deutlichen Rückgang. Insbesondere die Einführung phosphatfreier Waschmittel und die Einführung von Grenzwerten für die Einleitung von geklärtem Abwasser haben die Belastung deutlich verringert.
+Betrachtet man den durchschnittlichen Verlauf der letzten fünf Jahre, so hat sich der Indikator leicht positiv entwickelt. Das Ziel, den jeweils vorgegebenen Grenzwert an allen Messstellen einzuhalten, wurde weiterhin deutlich verfehlt.
+Die Indikatoren zu Phosphor- und Nitratgehalt (6.1.a und 6.1.b) decken zwei wesentliche Aspekte der Gewässerqualität ab. Daneben gibt es jedoch noch weitere Komponenten, wie zum Beispiel die Ausstattung der Gewässer mit naturnahen Lebensräumen und die Belastung mit Schadstoffen (wie Pflanzenschutzmittel, Metalle, Arzneimittel), die ebenfalls für die Gewässerqualität relevant sind.</t>
+        </is>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>Phosphorous generally enters a body of water through the input of phosphates. The phosphorous pollution of rivers is measured by the Länder as part of the monitoring conducted for the EU Water Framework Directive. The data for the indicator come from the monitoring network, which consists of about 250 monitoring points. In most cases, the monitoring points were installed in the main currents of the large rivers and at the junction of important confluents. The data are compiled by the German Environment Agency based on information from the German Working Group on Water Issues of the Länder and the Federal Government represented by the Federal Environment Ministry (LAWA).
+The indicator shows whether the annual average of the values measured at a particular monitoring point was equal to, or lower than, the benchmark value. However, it does not show by how far the target was surpassed if it was exceeded. The information about the individual monitoring points is presented in a summarised form. Accordingly, the value of the indicator is strongly dependent on the number of monitoring points and the representative status of their distribution. Lakes and other standing waters are not covered by the indicator.
+Since the different bodies of water react with differing levels of sensitivity to nutrients such as phosphorous, the precise benchmark values vary. The vast majority of flowing waters use the benchmark value of 0.1 mg/l of phosphorous. In organic substrate-dominated rivers, the benchmark value is 0.15 mg/l, for marshland streams 0.3 mg/l and for transitional waters influenced by tidal movement 0.045 mg/l.
+In 2020, the annual average of values measured was below the benchmark value at 41.7 % of the monitoring points at rivers. 52.6 % of the monitoring points showed average concentrations of up to twice the benchmark value, while 2.9 % of the monitoring points were in the range of up to four times the benchmark value (not shown in the chart). The remaining 2.8 % showed even higher concentrations.
+When viewed over time, the proportion of monitoring points not exceeding the benchmark value has continuously increased and has doubled since 1990. However, the percentage rate of monitoring points with concentrations of up to twice the benchmark value almost tripled during the same period. Conversely, the share of monitoring points with even higher values has fallen significantly since the early 1990s. The level of pollution has been reduced significantly thanks in particular to the introduction of phosphate-free detergents and the specification of threshold values for the discharge of treated waste water.
+If one examines the average trend of the last five years, the indicator has improved to a minor degree. The goal of not exceeding the specified threshold value at all monitoring points cannot be achieved if the current trend continues.
+The indicators of phosphorous and nitrate levels (6.1.a and 6.1.b) cover two key aspects of water quality. However, there are other, additional components such as the existence of natural habitats around water bodies and the exposure to pollutants (such as pesticides, metals, medicines), all of which are also relevant to water quality.</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>6.3.2</t>
+        </is>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>06.1.b</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Nitrat im Grundwasser</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Nitrate in groundwater</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der Messstellen an, an denen der Grenzwert von 50 Milligramm pro Liter Nitrat im Grundwasser im Jahresmittel eingehalten wird.</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the share of monitoring points at which the threshold value of 50 mg/l of nitrate in the groundwater is not exceeded on an annual average.</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>Grundwasser ist ein wesentliches Element des Naturhaushaltes. Es ist Teil des Wasserkreislaufs und erfüllt wichtige ökologische Funktionen. Grundwasser ist auch die wichtigste Trinkwasserressource Deutschlands. Erhöhte Nitratgehalte beeinträchtigen jedoch die Ökologie der Gewässer. Der Schwellenwert von 50 Milligramm Nitrat pro Liter im Grundwasser, der in der Grundwasserverordnung sowie der Oberflächengewässerverordnung angegeben ist, soll daher an allen Messstellen bis 2030 eingehalten werden.</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>Groundwater is a key element of the ecosystem. It is part of the water cycle and performs important ecological functions. Groundwater is also Germany’s most important drinking water resource. However, elevated nitrate contents impair the ecology of water bodies. The threshold value of 50 mg/l of nitrate in groundwater, as specified in the Groundwater Ordinance and in the Ordinance on the Protection of Surface Waters, should therefore not be exceeded at any monitoring point by 2030.</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>Der Nitratgehalt im Grundwasser wird von den Bundesländern für die Berichterstattung über den Zustand des Grundwassers in Deutschland an die Europäische Umweltagentur (EUA) erhoben. Die dazu verwendeten Messstellen ergeben zusammen das sogenannte EUA-Messnetz. Das EUA-Messstellennetz umfasst 1 214 Messstellen und bildet damit Deutschland repräsentativ ab. Die Daten werden vom Umweltbundesamt nach Angaben der Bund/Länder-Arbeitsgemeinschaft Wasser (LAWA) zusammengestellt.
+Wie auch der Indikator zum Phosphorgehalt in Fließgewässern gibt dieser Indikator keinen Hinweis auf den Umfang der Grenzwertüber- bzw. -unterschreitung. Der Indikator erfasst an wie vielen aller Messstellen der vorgegebene Schwellenwert eingehalten wurde. Die Nitratbelastung kann an einigen Messstellen stark zurückgegangen sein. Sollte sie jedoch weiterhin oberhalb des Schwellenwertes von 50 Milligramm pro Liter liegen, spiegelt sich die Reduktion nicht im Indikator wider. Gleiches gilt für steigende Nitratbelastungen, die jedoch weiterhin unter dem Grenzwert verbleiben. Ebenso muss bei der Interpretation berücksichtigt werden, dass Maßnahmen zur Verringerung der Nitratbelastung möglicherweise erst verzögert Wirkung zeigen, da die Sickerzeit von der Oberfläche bis in das Grundwasser mehrere Jahre betragen kann.
+Die natürliche Vorbelastung liegt für Nitrat zwischen 0 und maximal 10 Milligramm pro Liter. Gehalte zwischen 10 und 25 Milligramm pro Liter sind Anzeichen einer geringen bis mittleren Belastung. Konzentrationen zwischen 25 und 50 Milligramm pro Liter zeigen eine starke Grundwasserbelastung an. Wird der Schwellenwert der Grundwasserverordnung von 50 Milligramm pro Liter, der auch diesem Indikator zugrunde liegt, überschritten, ist das Grundwasser in einem schlechten chemischen Zustand und kann nicht ohne Aufbereitung als Trinkwasser verwendet werden.
+Im Jahr 2020 wurde der Grenzwert von unter 50 Milligramm pro Liter an Nitrat an 84,1 % aller Messstellen eingehalten. Seit dem Jahr 2008 ist der Anteil der Messstellen, die diesen Grenzwert einhalten, nahezu unverändert. Damit ist das Ziel, den Grenzwert an allen Messstellen einzuhalten, nicht erreicht und auch keine Entwicklung des Indikators in diese Richtung zu erkennen. Umgekehrt wurde im Jahr 2020 der Grenzwert von 50 Milligramm pro Liter an Nitrat an 15,9 % der Grundwassermessstellen des EUA-Messnetzes überschritten. Bei 17,8 % der Messstellen lag der Nitratwert im Bereich zwischen 25 und 50 Milligramm pro Liter, was immer noch eine erhöhte Belastung anzeigt. Auch dieser Anteil blieb über die Jahre nahezu gleich.
+Die Belastung des Grundwassers mit Nitrat entsteht in erster Linie durch Auswaschung von Nitrat aus verschiedenen stickstoffhaltigen Düngemitteln. Dazu gehört neben Wirtschaftsdüngern wie Jauche oder Gülle auch der bei intensivem Ackerbau eingesetzte Mineraldünger. In den letzten Jahren werden darüber hinaus Gärreste, die als Nebenprodukt von Biogasanlagen entstehen, vermehrt als Dünger in der Landwirtschaft eingesetzt. All dies kann bei einer nicht am Bedarf der Pflanzen orientierten Düngung zu höheren Nitratwerten im Grundwasser beitragen. Somit hat die Entwicklung des Indikators 2.1.a „Stickstoffüberschuss der Landwirtschaft“ einen Einfluss auf die Nitratbelastung des Grundwassers.
+Um den konkreten Einfluss der landwirtschaftlichen Nutzung auf die Nitratbelastung der Gewässer zu untersuchen, gibt es eine separate Nitrat-Berichterstattung an die Europäische Union (EU). Für diese Berichterstattung werden aus dem EUA-Messnetz diejenigen Messstellen ausgewählt, in deren Einzugsgebiet die landwirtschaftliche Nutzung dominiert. In diesem speziellen Messnetz liegt die Nitratbelastung dementsprechend über dem Durchschnittswert des Indikators 6.1.b.</t>
+        </is>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>The nitrate content of groundwater is recorded by the Länder for the purpose of reporting the condition of groundwater in Germany to the European Environment Agency (EEA). The monitoring points used for this purpose are combined in the “EEA monitoring network”. The EEA monitoring network comprises a total of 1,214 monitoring sites and provides a representative picture of Germany. The data are summarised by the German Environment Agency based on information from the German Working Group on Water Issues of the Länder and the Federal Government represented by the Federal Environment Ministry (LAWA).
+Like the indicator of phosphorus content in flowing waters, the nitrate indicator does not reveal how far above or below the threshold the readings have been. The indicator merely records how many of all the monitoring sites complied with the prescribed threshold. The nitrate load may have fallen sharply at some monitoring sites. Nevertheless, if the concentration remains above the maximum of 50 mg/l, the reduction will not be reflected in the indicator. The same applies to nitrate loads that have increased but are still below the threshold. The interpretation must also take into account that measures to reduce nitrate pollution may have a delayed effect, since the period of infiltration from the surface to the groundwater can take several years.
+The naturally occurring level of nitrate lies between 0 and 10 mg/l. Concentrations between 10 and 25 mg/l indicate minor to medium loads. Concentrations between 25 and 50 milligrams per liter indicate severe groundwater contamination. Figures above the threshold of 50 mg/l which is set in the Ground Water Ordinance and which also underlies this indicator mean that the groundwater has a poor chemical status and cannot be used as drinking water without treatment.
+In 2020 the target of less than 50 mg of nitrate per litre was met at 84.1 % of all monitoring sites. Since 2008, the percentage of monitoring sites at which this target is met has remained virtually unchanged. This means that the goal of recording concentrations below the threshold at all monitoring sites has not been achieved and that the indicator value is not recognisably moving in that direction. Conversely, in 2020 the nitrate threshold of 50 mg/l was exceeded at 15.9 % of the groundwater monitoring sites in the EEA monitoring network. At 17.8 % of the monitoring sites the nitrate value lay between 25 and 50 mg/l, which still indicates an elevated degree of pollution. This percentage rate also remained virtually unchanged over the years.
+The pollution of groundwater with nitrate is caused primarily by the leaching of nitrate from various nitrogen fertilisers. Besides farmyard manures such as liquid manure and slurry, these also include the mineral fertilisers that are used in intensive crop-farming. The last few years have also seen an increase in the use of digestate, which occurs as a by-product of biogas power plants, as an agricultural fertiliser. All of these things can contribute to higher nitrate values in groundwater if fertilisation is not matched to specific crop requirements. Accordingly, the development of indicator 2.1.a “Nitrogen surplus in agriculture” influences the nitrate load in groundwater.
+In order to measure the actual influence of agricultural activity on the nitrate load of waters, there is a separate system of nitrate reporting to the EU. For this report, the monitoring sites for waters in predominantly agricultural catchment areas are selected from the EEA site network. The nitrate load in that specific part of the monitoring network is therefore above the average for indicator 6.1.b.</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
+          <t>6.3.2</t>
+        </is>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N24" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>06.2.a,b</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Entwicklungszusammenarbeit für Trinkwasser- und Sanitärversorgung</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Development cooperation for access to drinking water and sanitation</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren stellen die Anzahl der Menschen dar, die im jeweiligen Berichtsjahr direkt durch deutsche Unterstützung Neuzugang oder verbesserten Zugang zu Trinkwasser- (Indikator 6.2.a) und/oder Sanitärversorgung (Indikator 6.2.b) erhalten haben.</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of people in the relevant reference year who obtained first-time or improved access to drinking water (6.2.a) and/or sanitation (6.2.b) as a direct result of German support.</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>Eine unzureichende Versorgung mit Trinkwasser und sanitären Einrichtungen hat weitreichende Auswirkungen auf die Ernährung und die Gesundheit des Menschen. Das Ziel der Bundesregierung ist daher, dass bis zum Jahr 2030 jährlich zehn Millionen Menschen weltweit mit deutscher Unterstützung Zugang zu Trinkwasser- und Sanitärversorgung erhalten. Dieses Ziel wurde ab dem Berichtsjahr 2019 weiter ausdifferenziert: so sollen bis 2030 jährlich sechs Millionen Menschen weltweit mit deutscher Unterstützung direkten Zugang zur Trinkwasserversorgung bzw. vier Millionen Menschen weltweit mit deutscher Unterstützung direkten Zugang zur Sanitärversorgung erhalten.</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>Inadequate provision of drinking water and sanitary facilities has far-reaching consequences for human nutrition and health. The target of the Federal Government is that ten million people worldwide should, with German support, obtain access to drinking water and sanitation each year up to 2030. This target has now been further refined, and now six million people worldwide are to obtain access to drinking water with German support each year until 2030, while four million people in the world are to obtain access to sanitation each year with German support.</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren basieren auf Angaben der Kreditanstalt für Wiederaufbau (KfW) und erfassen nur die durch Förderung von ihr erreichten Menschen. Maßnahmen weiterer Akteure (zum Beispiel Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH, Bundesländer, private Akteure) werden nicht berücksichtigt. Die Indikatoren stützen sich ausschließlich auf Plangrößen für neue Finanzierungszusagen für Projekte im Bereich Trinkwasser- und Sanitärversorgung zum Zeitpunkt der Vorlage des Programmvorschlags an das Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ). Die KfW schätzt die Anzahl an Personen, die zukünftig, das heißt nach Fertigstellung der Bauvorhaben, einen neuen oder verbesserten Zugang zu Trinkwasser- und Sanitärversorgung erhalten haben werden oder von den bereitgestellten Kapazitäten profitieren können. Ob die Menschen tatsächlich erreicht werden, ist erst nach Inbetriebnahme der Infrastrukturen konkret abschätzbar, was hier nicht abgebildet wird. Da eine Person sowohl einen neuen oder verbesserten Zugang zur Trinkwasser- als auch zur Sanitärversorgung erhalten kann, sind Doppelzählungen zwischen beiden Indikatoren und im Zeitablauf möglich. Die von der KfW zugesagten Mittel sind Zuschüsse und Darlehen – finanziert aus dem Bundeshaushalt – sowie am Kapitalmarkt aufgenommene Mittel. Empfänger sind in der Regel Entwicklungs- und Schwellenländer, sodass dieser Indikator in Beziehung zum Indikator 17.1 „Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen“ steht.
+In 2019 wurde die Erhebungsmethodik überarbeitet. Während zuvor direkt (zum Beispiel mittels eines Hausanschlusses) als auch indirekt erreichte Menschen (zum Beispiel die gesamte Bevölkerung eines Landes, das durch ein Sektorreformprogramm unterstützt wird) gezählt wurden, werden seitdem nur direkt erreichte Personen erfasst. So wurden in 2017 19,1 Millionen Menschen (der insgesamt 28,6 Millionen erreichten Menschen) direkt erreicht; in 2018 waren es 15,2 Millionen Menschen (der insgesamt 60,3 Millionen erreichten Menschen). Eine weitere Veränderung liegt in der anteiligen Berücksichtigung der erreichten Menschen entsprechend dem deutschen Finanzierungsanteil von Maßnahmen. So werden Beiträge von anderen Gebern oder Eigenanstrengungen des Empfängerlandes nicht berücksichtigt. Auch werden zum Beispiel keine Energieeffizienzmaßnahmen, Verbesserungen von Betriebsabläufen oder Erneuerungen von Pumpstationen gezählt, da diese nicht unmittelbar zu einer Verbesserung der Versorgung der Zielgruppe führen.
+In den vergangenen Jahren waren die Plangrößen der Menschen, die mithilfe deutscher Unterstützung Zugang zu Trinkwasser- und Sanitärversorgung erlangen sollten, stets oberhalb des gesetzten Ziels von zehn Millionen Menschen. Nach der überarbeiteten Methodik liegt die Plangröße der erreichten Personen für das Jahr 2020 mit Neu- oder verbessertem Zugang zu Trinkwasserversorgung bei 10,9 Millionen Menschen bzw. 1,8 Millionen Menschen für Abwasser- und Sanitärversorgung. Das Ziel des Indikators 6.2.a wurde für das Jahr 2020 folglich erreicht, während der Zielwert zum Indikator 6.2.b deutlich unterschritten wurde. Im Vorjahr waren es hingegen noch über vier Millionen erreichte Menschen im Bereich Sanitärversorgung.
+Die Zusagen durch die KfW im Bereich Wasser- und Sanitärversorgung sowie Abwassermanagement haben sich von 2012 bis 2018 um 26,0 % auf über eine Milliarde Euro erhöht. Diese sind jedoch 2019 und 2020 auf zuletzt 677,1 Millionen Euro zurückgegangen. Im Gegensatz zu den Zusagen verringerten sich die Auszahlungen, die durch die KfW erfolgten, seit 2015 kontinuierlich auf 432,1 Millionen Euro für das Jahr 2020. Ein Grund hierfür liegt im zeitlichen Verzug zwischen Zusagen und Auszahlungen.</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>The indicator is based on data from the Kreditanstalt für Wiederaufbau (KfW) and only measures the number of people reached through its support. Measures taken by other parties, such as the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ), Länder and private aid agencies, are not taken into account. The indicator is based exclusively on the planned scope of new funding commitments for drinking water and sanitation projects at the time of submission of the programme proposal to the Federal Ministry for Economic Cooperation and Development. The KfW assesses the number of people who, following completion of the construction projects, will have obtained first-time or improved access to drinking water and sanitation or will be able to benefit from the constructed facilities. Whether people are actually reached cannot be estimated in practice until the infrastructure has become operational, and this is not what the indicator shows. Since a person may obtain first-time or improved access to both drinking water and sanitation, double counting is possible between the two indicators and between two years. The funding granted by the KfW comprises grants and loans financed from the federal budget and funds raised in the financial markets. The recipients are generally developing and emerging countries, which means that this indicator is related to indicator 17.1 “Official development assistance as a proportion of gross national income”.
+In 2019 the data collection method was revised. Whereas the indicator previously counted people who were reached either directly, e.g. by domestic connections, or indirectly, e.g. the entire population of a country supported by a sectoral reform programme, it now covers only those people who are reached directly. In 2017, for instance, of the total of 28.6 million recorded beneficiaries, 19.1 million were reached directly. In 2018, 15.2 million out of a total of 60.3 million were direct beneficiaries. Another change lies in the fact that the figure is based only on the proportion of beneficiaries who have been reached by German-funded share of measures. Contributions made by other donors and the efforts of the host country itself are not counted. Similarly, no consideration is given to energy-efficiency measures, improvements to operational processes or renewals of pumping stations, since these do not lead directly to improved access for the target group.
+In recent years, the planned numbers of people who were to obtain access to drinking water and sanitation with German support have always been above the target of ten million. Under the revised methodology, the planned numbers of people who were to obtain first-time or improved access in 2020 were about 10.9 million for drinking water and 1.8 million for wastewater and sanitation. The target of the indicator 6.2.a was achieved for the year 2020, however, the target value for indicator 6.2.b was significantly below the intended level. In the preceding year, more than four million people were reached by German support and have received access to sanitation facilities.
+The commitments made by the KfW with regard to drinking water and sanitation rose by 26.0 % from 2012 to 2018 to more than 1 billion euros. In 2019 and 2020, these decreased to 677.1 million euros. By contrast with the commitments, disbursements have steadily declined since 2015 to the most recent figure of 432.1 million euros. One of the main reasons for this lies in the time lag between commitments and payments.</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr">
+        <is>
+          <t>6.a.1</t>
+        </is>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>45674</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>07.1.a,b</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieproduktivität und Primärenergieverbrauch</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>Final energy productivity and primary energy consumption</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator „Endenergieproduktivität“ stellt die Entwicklung der Wertschöpfung je eingesetzte Einheit Endenergie dar. Der Begriff „Endenergie“ bezieht sich dabei auf den Teil der Energie, der energetisch als thermische oder elektrische Energie zur Herstellung von Gütern oder zur Nutzung in den privaten Haushalten zur Verfügung steht.
+Der Indikator „Primärenergieverbrauch“ gibt an, wie viel Energie in einem Land einerseits in den Energiesektoren zur Umwandlung sowie andererseits in der Produktion, den privaten Haushalten und im Verkehr verbraucht wurde.</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>The indicator “Final energy productivity” shows the trend of value added per unit of final energy used. The concept of “final energy” refers to the part of the energy that is used energetically in terms of thermal or electric energy in the production sectors for the manufacturing of goods or by households.
+The indicator ”Primary energy consumption” specifies how much energy was consumed by a country in the energy sectors for conversion purposes on the one hand, and by production activities, transport and households on the other.</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>Die Senkung des Energieverbrauchs durch eine Steigerung der Energieeffizienz ist neben dem Ausbau erneuerbarer Energien die zweite tragende Säule der Energiewende. Ziel ist es, mit möglichst wenig Energie viel wirtschaftliche Leistung zu erreichen. Energieeinsparung schont Klima und Umwelt, trägt zur Verbesserung der Versorgungssicherheit und zur Wettbewerbsfähigkeit der Industrie bei.
+Dem Energiekonzept der Bundesregierung zufolge soll die Endenergieproduktivität in den Jahren 2008 bis 2050 jährlich um 2,1 % bzw. um insgesamt 139 % bis 2050 erhöht werden. Gleichzeitig soll sich der Primärenergieverbrauch bis 2020 um 20 %, bis 2030 um 30 % und bis 2050 um 50 % gegenüber dem Jahr 2008 verringern.</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>Along with the expansion of renewable energies, the reduction of energy consumption through increased energy efficiency represents the second supporting pillar of the energy transition. The goal is to achieve a high level of economic output while using as little energy as possible. Saving energy protects the climate and the environment, it helps to improve the security of supply and the industrial competitiveness.
+According to the Federal Government’s energy concept, final energy productivity is to be increased by 2.1 % annually or 139 % in total in the period 2008 to 2050. At the same time, primary energy consumption is to be reduced by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, compared with 2008.</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>Endenergie- und Primärenergieverbrauch sind direkt miteinander verbunden. Der Endenergieverbrauch ergibt sich aus dem Primärenergieverbrauch abzüglich der Summe aus Umwandlungs-, Fackel- und Leitungsverlusten sowie der statistischen Differenz.
+Der Primärenergieverbrauch ist die Summe aus den im Inland gewonnenen Primärenergieträgern, Vorratsentnahmen und sämtlichen importierten Energieträgern abzüglich der Bevorratung, Energieexporte und Hochseebunkerungen. Wesentliche Grundlage für die Berechnung des Energieverbrauchs sind die Daten der Energiebilanzen der Arbeitsgemeinschaft Energiebilanzen (AGEB), welche um Daten aus weiteren Quellen ergänzt werden.
+Die Endenergieproduktivität gibt an, wie hoch die Wertschöpfung je eingesetzte Einheit Endenergie ist. Sie stellt ein Maß für die Energieeffizienz bei der Herstellung von Gütern und im Energieeinsatz der privaten Haushalte dar. Einschätzungen zur Energieeffizienz in den Umwandlungsbereichen (Wirkungsgrad der Kraftwerke) oder in der Energieübertragung und -speicherung (Beseitigung von Leckagen, bessere Wärmedämmung usw.) lassen sich anhand des Indikators jedoch nicht direkt ableiten.
+Die Endenergieproduktivität hat sich nach vorläufigen Ergebnissen im Zeitraum 2008 bis 2021 um 19,5 % erhöht, was einem durchschnittlichen jährlichen Anstieg von rund 1,4 % entspricht. Somit wird das Ziel eines jährlichen Anstieges von durchschnittlich 2,1 % bis 2050 zum jetzigen Zeitpunkt noch nicht erreicht. Gegenüber dem Vorjahr ist die Energieproduktivität im Jahr 2021 um 0,6 Prozentpunkte gesunken. Bei Fortsetzung der Entwicklung der letzten fünf Jahre wird bis zum Jahr 2050 voraussichtlich eine Erhöhung der Endenergieproduktivität um 73,2 % erreicht. Der Zielwert würde also um 65,8 Prozentpunkte verfehlt. Um das Ziel für 2050 noch erreichen zu können, wäre fortan ein durchschnittlicher jährlicher Anstieg der Endenergieproduktivität um 2,4 % nötig.
+Der Primärenergieverbrauch ist im Jahr 2020 auf 82,7 % gesunken und hat damit das Ziel einer Reduktion um 20 % bis zum Jahr 2020 nicht erreicht. Im Jahr 2021 stieg der Primärenergieverbrauch nach vorläufigen Ergebnissen erneut um 3,6 Prozentpunkte gegenüber 2020 an. Der gesamte Rückgang des Primärenergieverbrauchs im Jahr 2021 gegenüber 2008 beläuft sich somit nur noch auf 13,7 %. Bei einer Fortsetzung der Entwicklung würde die vorgesehene Reduktion des Primärenergieverbrauchs um 30 % bis 2030 nicht erreicht.</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>Final energy consumption and primary energy consumption are directly related to one another. Final energy consumption is primary energy consumption less total losses from transformation, flaring and distribution and the statistical difference.
+Primary energy consumption is the sum of domestically extracted primary energy sources, use of stocks and all imported energy sources minus storage, energy exports and marine bunkers. The main basis for the calculation of energy consumption comprises the data on energy balances from the Energy Balance Association (AGEB), which are supplemented with data from other sources.
+Final energy productivity means how much added value accrues from each unit of final energy used. It constitutes a measurement of energy efficiency in the production of goods and in household energy use. However, estimates of energy efficiency in the transformation process (plant efficiency) or in the transmission of energy (elimination of leakages, improved heat insulation, etc.) cannot be directly inferred from the indicator.
+According to preliminary results, final energy productivity in the period 2008 to 2021 increased by 19.5 %, equating to an average annual increase of 1.4 %. This means that the goal of an annual increase of 2.1 % on average up to 2050 has not yet been achieved. In the year-on-year comparison, energy productivity for 2021 has even fallen by 0.6 percentage points. If the development of the preceding five years continues, the final energy productivity will presumably increase by 73.2 % until 2050. Thus, the target value would be missed by 65.8 percentage points. An average annual increase of final energy production by 2.4 % is required in order to meet the target set for 2050.
+Primary energy consumption decreased to 82.7 % in 2020 and missed the reduction target of 20 % by 2020. According to preliminary results, the primary energy consumption increased in 2021 by 3.6 % percentage points in comparison to 2020. The total reduction of primary energy consumption fell by 13.7 % in the period from 2008 to 2021. If development remains the same as in the previous years, the target value of 30 % by 2030 will not be achieved.</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t>7.3.1</t>
+        </is>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>45674</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>07.2.a</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>Share of renewable energies in gross final energy consumption</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator setzt die Erzeugung erneuerbarer Energien in Relation zum Brutto-Endenergieverbrauch. Der Brutto-Endenergieverbrauch umfasst den Energieverbrauch beim Letztverbraucher, die Übertragungsverluste sowie den Eigenverbrauch der Energiegewinnungsbereiche.</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>The indicator expresses the generation of renewable energies relative to gross final energy consumption. Gross final energy consumption covers energy consumption by end consumers and transmission losses as well as the self-consumption of the energy generation sector.</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>Die Reserven fossiler Energieträger wie Öl und Gas sind begrenzt. Darüber hinaus ist ihre Nutzung mit der Emission von Treibhausgasen verbunden. Ein Umstieg auf erneuerbare Energien, die sich als natürliche Energiequellen ständig regenerieren, verringert die energetisch bedingten Emissionen und folglich das Ausmaß des Klimawandels. Zusätzlich werden die Abhängigkeit von Energieimporten und der Ressourcenverbrauch gemindert sowie technische Innovationen gefördert. Ziel der Bundesregierung ist es daher, den Anteil der erneuerbaren Energien am Brutto-Endenergieverbrauch bis zum Jahr 2020 auf 18 %, bis 2030 auf 30 %, bis 2040 auf 45 % und bis 2050 auf 60 % zu erhöhen.</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>The reserves of fossil fuels such as oil and gas are limited, and their use is associated with greenhouse gas emissions. Switching to renewable energies (natural energy sources that constantly regenerate) serves to reduce energy-related emissions and hence the extent of climate change. In addition, dependency on energy imports and the consumption of resources is reduced as well as technical innovations are promoted. For this reason, the goal of the Federal Government is to increase the share of renewable energy in gross final energy consumption to 18 % by 2020, to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050.</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>Bei diesem Indikator werden der aus erneuerbaren Energiequellen erzeugte Strom (unter anderem aus Wasserkraft, Windkraft auf Land und auf See, Solarenergie) und die Wärme (unter anderem aus Geothermie, Biomasse oder biogenen Abfällen) sowie regenerative Kraftstoffe zu allen in Deutschland verbrauchten Energieträgern in Beziehung gesetzt. Dazu zählen neben den erneuerbaren Energien auch importierter Strom und fossile Energieträger wie Braun- und Steinkohle, Öl und Gas.
+Der Indikator wird von der Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat) berechnet. Im Unterschied zur Berichterstattung gemäß der Erneuerbare-Energien-Richtlinie (Richtlinie 2009/28/EG) der Europäischen Union (EU), die aufgrund des jährlich unterschiedlichen Dargebots bei Wasser- und Windkraft einen Durchschnittswert über mehrere Jahre vorsieht, werden für diesen Indikator die tatsächlich erzeugten Strommengen (Wind- und Wasserkraft) berücksichtigt (Energiekonzept der Bundesregierung).
+Bei der Berechnungsmethodik des Indikators ist zu beachten, dass Im- und Exporte von Strom nicht vollumfänglich im Energieverbrauch erneuerbarer Energiequellen berücksichtigt sind, wohingegen diese beim Brutto-Endenergieverbrauch mit eingerechnet werden. Daher kann der Indikator den Anteil der erneuerbaren Energien am Brutto-Endenergieverbrauch je nach Außenhandelssaldo über- oder unterschätzen. Bei einem positiven Netto-Exportsaldo von Strom – wie es seit 2001 der Fall ist – läge demnach der tatsächliche Anteil erneuerbarer Energien unter dem durch den Indikator dargestellten Niveau.
+Das Ziel für das Jahr 2020, einen Anteil von 18 % erneuerbarer Energien am Brutto-Endenergieverbrauch zu erreichen, wurde im Jahr 2020 mit 19,7 % erreicht. Im Jahr 2021 ging der Anteil erneuerbarer Energien allerdings auf 19,2 % zurück und bewegt sich damit in der kurzfristigen Veränderung nicht auf das nächste Ziel – im Jahr 2030 30 % zu erreichen – zu. Im längerfristigen Vergleich seit dem Jahr 2005 hat sich der Wert dieses Indikators von ursprünglich 7,1 % allerdings deutlich erhöht.
+Der Einsatz erneuerbarer Energien variiert je nach Bereich stark. In 2021 betrug der Anteil erneuerbarer Energien am Bruttostromverbrauch 41,1 %, am Endenergieverbrauch für Wärme und Kälte 16,5 % und im Verkehr 6,8 %. Bezogen auf das Jahr 2020 (aktuellere Daten lagen bei Redaktionsschluss noch nicht vor) spielten Biomasse mit einem Anteil von 58,0 % sowie Windkraft mit einem Anteil von 24,0 % am Primärenergieverbrauch aus erneuerbaren Energiequellen die größte Rolle unter den eingesetzten Energieträgern.
+Der Indikator weist Querbezüge zu den Indikatoren 13.1.a „Treibhausgasemissionen“, 3.2.a „Emissionen von Luftschadstoffen“ und 7.2.b „Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch“ auf.</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>For this indicator, the electricity generated from renewable sources, which include hydro power, onshore and offshore wind power and solar power, the heat generated from sources such as geothermal energy, biomass and biogenic waste and the consumption of regenerative motor fuels are presented as a percentage of the energy generated from all sources that is consumed in Germany. Besides renewables, these sources also include imported electricity and fossil fuels such as coal and lignite, oil and gas.
+The indicator is calculated by AGEE-Stat, the Working Group on Renewable Energy Statistics. In contrast to the reporting under the Renewable Energy Directive of the European Union (Directive 2009/28/EC), uses an average value for hydro and wind power over several years to smoothen the effects of varying supply, this indicator takes account of the volumes of electricity actually generated from wind and hydro power (German Government Energy Concept).
+With regard to the method used to calculate the indicator, it should be noted that imports and exports of electricity are not included in full in the consumption of energy from renewable sources, whereas they are factored into gross final energy consumption. Accordingly, the indicator may overstate or understate the ratio of energy from renewable sources to gross final energy consumption, depending on the balance of trade. If there were an export surplus for electricity – as has been the case since 2001 – the actual percentage of renewables in the energy mix would be lower than the level represented by the indicator.
+The intended share of renewable energies in gross final energy consumption for 2020 was achieved by 19.7 %. Thus, the target value of 18 % by 2020 was exceeded. In 2021, the share of renewable energies decreased to 19.2 % and is not heading towards the upcoming target value of 30 % by 2030. However, the indicator shows a significant increase long-term (2005: 7.1 %).
+The use of renewables varies widely between sectors. In 2021, the share accounted for 41.1 % of gross electricity generation, 16.5 % of final energy consumption for heating and cooling and 6.8 % in the transport sector. Among renewable energies, biomass, with a share of 58.0 % and wind power, which accounts for 24.0 %, play the greatest part in primary energy consumption in 2020 (more recent data was not available at the time of going to press).
+The indicator has cross-references to indicators 3.2.a “Emissions of air pollutants”, 7.2.b “Share of electricity from renewable sources in gross electricity consumption” and 13.1.a “Greenhouse gas emissions”.</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t>7.2.1</t>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>45506</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>07.2.b</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch wieder.</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>The indicator reflects the share of electricity from renewable energy sources in gross electricity consumption.</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>Ein Umstieg auf erneuerbare Energien, die sich als natürliche Energiequellen ständig regenerieren, kann den Bedarf an fossilen Energieträgern verringern. Dadurch würde sowohl die Abhängigkeit von Importen konventioneller Energieträger reduziert als auch der Ausstoß energetisch bedingter Emissionen verringert und damit das Ausmaß des Klimawandels eingedämmt. Die Bundesregierung hatte sich daher als Ziel gesetzt, den Anteil des Stroms aus erneuerbaren Energiequellen gemessen am Bruttostromverbrauch bis zum Jahr 2020 auf mindestens 35 % und bis zum Jahr 2030 auf 80 %&lt;sup&gt;1&lt;/sup&gt; zu steigern. Vor dem Jahr 2050 soll der gesamte in Deutschland erzeugte und verbrauchte Strom treibhausgasneutral sein. Das Ziel für 2030 basiert auf der Novelle des Erneuerbare-Energien-Gesetzes (EEG) 2023, nach der das „Erneuerbaren-Ziel“ auf einen höheren Bruttostrombedarf von 680 bis 750 Terawattstunden (TWh) im Jahr 2030 auszurichten ist und wovon 80 % (vorher: 65 %) aus erneuerbaren Energien stammen sollen. Im Jahr 2021 wurden 234 TWh Strom aus erneuerbaren Energien erzeugt. Gemessen am neuen „Erneuerbaren-Ziel“ wurde 2021 somit etwa ein Drittel des Bruttostrombedarfs durch Stromproduktion aus erneuerbaren Energien gedeckt.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung des Zielwertes von 65 % bis 2030 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>Switching to renewable energies (natural energy sources that constantly regenerate) can reduce the demand for fossil fuels. As a result, the dependency on imports of conventional fuels would be reduced, as would energy-related emissions, and hence the extent of climate change would be mitigated. The Federal Government had therefore set itself the aim of increasing the share of electricity from renewable sources in gross electricity consumption to at least 35 % by 2020 and at least 80 %&lt;sup&gt;1&lt;/sup&gt; by 2030. Before 2050, all electricity generated and consumed in Germany is to be greenhouse gas neutral. The target for 2030 is based on the amendment of the Renewable Energy Sources Act (EEG) in 2023, whereby the “renewable target” was realigned to a higher gross electricity consumption from 680 to 750 terawatt hours (TWh) in 2030 and where 80 % (previously 65 %) has to be covered by electricity derived from renewable energy sources. In 2021, 234 TWh electricity was derived from renewable energy sources. According to the amended renewable energy target, a third of gross electricity consumption was covered by electricity from renewable energy in the same year.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target value from 65 % by 2030 according to policy resolution in 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>Die Berechnung des Indikators erfolgt durch die Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat) auf Basis unterschiedlicher amtlicher und nicht amtlicher Quellen. Der Bruttostromverbrauch umfasst die gesamte erzeugte und importierte Strommenge abzüglich des exportierten Stroms. Er setzt sich somit aus der inländischen Stromerzeugung, dem Austauschsaldo über die Landesgrenzen, dem Eigenstromverbrauch der Kraftwerke als auch den Netzverlusten zusammen. Als erneuerbare Energiequellen gelten Windenergie, Wasserkraft, solare Strahlungsenergie, Geothermie und Biomasse einschließlich Biogas, Biomethan, Deponie- und Klärgas sowie der biologisch abbaubare Anteil von Abfällen aus Haushalten und Industrie.
+Das im Energiekonzept der Bundesregierung für 2020 angestrebte Ziel von mindestens 35 % Anteil erneuerbarer Energien am Stromverbrauch ist bereits im Jahr 2017 erreicht worden. Der Anteil ist auch in den Folgejahren bis 2020 weiterhin angestiegen und erreichte 2020 45,2 %. Diese Entwicklung wurde durch gesetzliche Maßnahmen, wie zum Beispiel das Erneuerbare-Energien-Gesetz (EEG), vorangetrieben. Das EEG verpflichtet die Netzbetreiber unter anderem, erneuerbaren Energien bei der Stromeinspeisung Vorrang zu gewähren. Im Jahr 2021 ging der Anteil der erneuerbaren Energien am Stromverbrauch auf 41,1 % zurück und bewegt sich somit kurzfristig nicht mehr auf den nächsten Zielwert für das Jahr 2030 zu. Diese kurzfristige Entwicklung ist durch eine Zunahme des Bruttostromverbrauchs und einen witterungsbedingten Rückgang der Stromerzeugung aus erneuerbaren Energien zu erklären. Allerdings würde auch eine Fortsetzung des bisherigen längerfristigen Trends der vergangenen Jahre nicht ausreichen, das Ziel für das Jahr 2030 zu erreichen. Auch das ehemalige Ziel der Regierung von 65 % Strom aus erneuerbaren Energien bis 2030 würde bei einer Fortschreibung des Trends nicht erreicht werden. Für die Zielerreichung von 80 % bis 2030 wäre ein deutlich höherer jährlicher Zuwachs als im bisherigen langfristigen Schnitt nötig. Ein zu erwartender höherer Strombedarf dürfte die Zielerreichung bis 2030 zusätzlich erschweren.
+Ähnlich wie bei Indikator 7.2.a „Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch“ ist bei der Berechnungsmethodik des Indikators zu beachten, dass der Stromaußenhandel einen direkten Einfluss auf den Nenner des Indikators, nicht aber auf den Zähler hat&lt;sup&gt;1&lt;/sup&gt;.  Unabhängig von der Elektrizitätsproduktion aus erneuerbaren Quellen reduzieren Nettoexporte den Bruttostromverbrauch, während Nettoimporte den Bruttostromverbrauch erhöhen. Deutschland ist seit dem Jahr 2003 zunehmend Nettoexporteur von Elektrizität, wobei der vorläufige Höhepunkt im Jahr 2017 erreicht wurde. Das führt dazu, dass der Indikator den tatsächlichen Anteil erneuerbarer Energien am Bruttostromverbrauch im selben Zeitraum überschätzt.
+Seit dem Jahr 2005 stieg der Anteil erneuerbarer Energien an der Stromerzeugung an, insbesondere durch die zunehmende Nutzung von Windenergie, Biomasse und Photovoltaik. Zwischen 2005 und 2021 stand einer abnehmenden Stromerzeugung aus konventionellen Energieträgern eine um 170 TWh gesteigerte Produktion von Elektrizität aus regenerativen Energiequellen gegenüber. Dabei nahm die Stromerzeugung mittels Windenergie an Land und auf See von 27,8 TWh im Jahr 2005 auf knapp 114 TWh im Jahr 2021 zu. Davon steuerte die Windenergie auf See im Jahr 2021 rund 24,4 TWh bei. Die Stromerzeugung aus Photovoltaik stieg zwischen 2005 und 2021 von 1,3 TWh auf 50,0 TWh. Die Stromerzeugung aus Biomasse hat sich im gleichen Zeitraum auf 50,4 TWh mehr als verdreifacht.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Dies ist ein rein mathematischer Effekt, der keine Korrelation zwischen Austauschsaldo und Bruttostromverbrauch darstellen soll.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>The indicator is calculated by the Working Group on Renewable Energies Statistics (AGEE-Stat) based on different official and unofficial sources. Gross electricity consumption is the sum of all generated and imported electricity minus the amount of exported electricity. It therefore comprises the domestic electricity generation, the balance of exchanges across national borders, the self-consumption of power plants as well as transmission losses. The following are considered to be renewable energy sources: wind energy, hydropower, solar radiation energy, geothermal energy and biomass including biogas, biomethane, landfill gas and gas from purification plants as well as the bio-degradable proportion of waste from households and the industry.
+The target set by the German Government in its energy policy blueprint of at least 35 % share of renewable energies on gross electricity consumption by 2020 was already achieved in 2017. In subsequent years, the share maintained an increase up to 45.2 % by 2020. This development was supported by legal measures, for instance the EEG. The EEG requires, among other things, network operators to give priority feed-in to renewable energy. In 2021, the share of renewable energy on gross energy consumption decreased to 41.1 % and, thus, is not moving into the direction of the target value for 2030 in the short-run. This can be explained by an increment in gross electricity consumption and weather-related decline in electricity production from renewable energy sources. However, even if the past long-term trend of previous years continues, the target for 2030 would be missed. Moreover, the previous target of the Federal Government to derive 65 % of the electricity from renewable resources by 2030 would be missed, if the long-term trend continues. The target of 80 % by 2030 could only be achieved if the annual increment would be significantly higher than the previous long-term average. Further, an expected increase in electricity consumption exacerbates the achievement of the target value by 2030.
+As in the case of indicator 7.2.a “Share of renewable energies in gross final energy consumption”, with regard to the calculation method it should be noted that external trade in electricity directly influences the denominator of the indicator but not the numerator&lt;sup&gt;1&lt;/sup&gt;. Regardless of whether electricity is produced from renewable sources, net exports reduce gross electricity consumption, while net imports increase gross electricity consumption. Since 2003, Germany is a net exporter of electricity and reached the preliminary highest point in 2017. As a consequence, the actual share of renewable energies in gross electricity consumption is overestimated for the respective period.
+Since 2005, the share of renewable energies in electricity generation has risen, particularly because of the increased use of wind power, photovoltaics and biomass. Between 2005 and 2021, declining electricity generation from conventional energy sources was offset by an increase of almost 170 TWh in the production of electricity from renewable sources. In particular, onshore and offshore electricity generation from wind power soared from 27.8 TWh in 2005 to 114 TWh in 2021. Offshore wind farms contributed about 24.4 TWh of the total in 2021. Electricity generation from photovoltaics rose between 2005 and 2021 from 1.3 TWh to 50.0 TWh. Electricity generation from biomass more than trebled in the same period to 50.4 TWh.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;This is a purely mathematical effect and does not refer to a correlation between the exchange balance and gross electricity consumption.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>45601</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B01_P01</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>08.1</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Gesamtrohstoffproduktivität</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Raw material input productivity</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator Gesamtrohstoffproduktivität setzt den Wert aller an die letzte Verwendung abgegebenen Güter (in Euro, preisbereinigt) in Relation zur Masse der für ihre Produktion im In- und Ausland eingesetzten Rohstoffe (in Tonnen). Die letzte Verwendung umfasst dabei sowohl inländischen Konsum und inländische Investitionen als auch den Export.
+Im Nenner des Indikators werden sowohl aus der Umwelt entnommene abiotische und biotische Rohstoffe berücksichtigt als auch Pflanzenmaterial, das durch die Land- und Forstwirtschaft produziert wurde. In der Grafik sind sowohl der Indikator selbst als auch Zähler und Nenner einzeln dargestellt.</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>The indicator of raw material input productivity compares the value of all goods provided for final use (in euros, price-adjusted) relative to the mass of the raw materials used domestically and abroad for their production (in tonnes). Final use covers domestic consumption and domestic investments as well as exports.
+The denominator of the indicator takes into account abiotic and biotic raw materials from the environment as well as plant materials produced by farming and forestry. In the graph, the development of the indicator itself and of both the numerator and the denominator are traced separately.</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>Die Entnahme von Rohstoffen ist immer mit einer Beeinträchtigung der Natur verbunden. Durch die steigende Nachfrage nach Rohstoffen werden weltweit zunehmend Rohstoffvorkommen in Gebieten erschlossen, die besonders sensibel auf menschliche Einflüsse reagieren. Daher hat sich die Bundesregierung bereits im Deutschen Ressourceneffizienzprogramm (ProgRess) II im Jahr 2016 das Ziel gesetzt, dass die Gesamtrohstoffproduktivität weiterhin steigen soll. In den Jahren 2000 bis 2010 nahm die Gesamtrohstoffproduktivität bereits um durchschnittlich rund 1,6 % jährlich zu. Ein solch positiver Trend soll bis zum Jahr 2030 fortgesetzt werden.</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>The extraction of raw materials always entails some impairment of the natural environment. Owing to the growing demand for raw materials, raw material deposits in all parts of the world are increasingly being extracted in areas that are particularly sensitive to human intervention. For this reason, back in 2016, in the German Resource Efficiency Programme (ProgRess) II, the Federal Government set itself the goal of ensuring a continuing rise in raw material input productivity. In the years 2000 to 2010, raw material input productivity was already increasing at an average rate of around 1.6 % annually. The aim is to maintain this kind of positive trend up to 2030.</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>Zur Berechnung dieses Indikators ist es unter anderem notwendig, die Masse aller Rohstoffe zu ermitteln, die für die Produktion der Importe benötigt wurden. Die Berechnung dieser als Importe in Rohstoffäquivalenten bezeichneten Größe basiert auf einem komplexen Modell, das Daten aus verschiedenen amtlichen und nicht amtlichen Quellen nutzt.
+Durch die monetäre sowie physische Einbeziehung der Importe berücksichtigt der Indikator Wertschöpfung und Rohstoffeinsatz über die gesamte in- und ausländische Produktionskette. Somit wird auch der wirtschaftlichen Verflechtung mit dem Ausland umfassend Rechnung getragen. Der im Indikator abgebildete Rohstoffeinsatz dient nicht allein der inländischen letzten Verwendung, sondern auch dem Export. Er darf daher nicht mit einem Rohstofffußabdruck Deutschlands verwechselt werden.
+Der Indikator umfasst neben nicht erneuerbaren Rohstoffen (mineralische Rohstoffe und fossile Energieträger) auch pflanzliche Erzeugnisse, die von der Land- und Forstwirtschaft produziert werden. Dadurch ergeben sich in geringem Umfang Doppelzählungen: Beispielsweise wird die Masse sowohl eines landwirtschaftlichen Erzeugnisses bei der Ernte als auch des für diese Produktion verwendeten Mineraldüngers erfasst.
+Der Wert des Indikators nahm von 2000 bis 2018 um 26 % zu. Dieser Anstieg rührt insbesondere von den Zuwächsen des Zählers her: Der Wert der letzten Verwendung (inländischer Konsum und inländische Investitionen sowie Exporte) erhöhte sich im Vergleichszeitraum um 46 %. Die inländische Rohstoffentnahme sank zwar zwischen den Jahren 2000 und 2018 moderat; gleichzeitig stieg jedoch die Masse der Importe in Rohstoffäquivalenten an, sodass sich in Summe für den Nenner des Indikators ein Zuwachs um 16 % ergab.
+Inländisch entnommene Rohstoffe sowie Importe werden in zunehmendem Maße auch (wieder) exportiert. Der Nenner des Indikators weist folglich nicht auf eine verstärkte globale Rohstoffentnahme für Konsum und Investitionen in Deutschland hin, sondern spiegelt eine insgesamt intensivere Verflechtung der deutschen Wirtschaft mit dem Ausland wider.
+Das Jahr 2009 ist durch die besondere wirtschaftliche Situation in der europäischen Finanzmarkt- und Wirtschaftskrise als Ausreißer zu betrachten. In den Jahren 2010 und 2011 nahmen Investitionen und Exporte sowie der damit verbundene Rohstoffeinsatz wieder merklich zu, sodass sich die Gesamtrohstoffproduktivität 2011 wieder auf dem Niveau von 2008 befand. Seitdem ist die Gesamtrohstoffproduktivität tendenziell gestiegen, wobei sie zwischenzeitlich auch stagnierte oder leichte Rückgänge verzeichnete. Am aktuellen Rand nahm der Wert des Indikators 2017 um 5 Prozentpunkte gegenüber dem Vorjahr zu, um 2018 einen leichten Rückgang von 1 Prozentpunkt zu registrieren. Insgesamt nahm die Gesamtrohstoffproduktivität im Zeitraum von 2010 bis 2018 um 9 Prozentpunkte zu. Damit lag ihr durchschnittliches jährliches Wachstum bei etwa 0,9 % und somit unter dem Zielpfad der Bundesregierung.</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>To calculate this indicator, it is necessary to determine the mass of all raw materials required to produce the imports. The calculation of this variable, referred to as imports in raw material equivalents, is based on a complex model that employs data from various official and unofficial sources.
+Due to the monetary and physical inclusion of imports, the indicator takes into account the value added and raw material use across the entire production chain both inside and outside of Germany. In this way, the economic interdependence with foreign countries is also taken into account comprehensively. The raw material use mapped in the indicator covers not only domestic final use but also exports. It should therefore not be confused with a resource footprint for Germany.
+The indicator includes not only the raw materials that were considered to be non-renewable, that is, mineral raw materials and fossile fuels, but also plant-based products from farming and forestry activities. This means that double counting occurs to a limited degree. For example, both the mass of an agricultural product at harvest time as well as that of the mineral fertiliser used to produce it are recorded.
+The value of the indicator increased by 26 % from 2000 to 2018. This increase results in particular from the growth of the numerator: the value of the final use (domestic consumption and domestic investments as well as exports) increased by 46 % during the reference period. The removal of domestic raw materials fell moderately between 2000 and 2018; at the same time, however, the mass of imports in raw material equivalents increased, causing a slight increase of 16 % in the indicator’s denominator.
+Domestically extracted raw materials as well as imports are also being exported (again) to an increasing degree. Consequently, the indicator’s denominator does not point to increased global raw material extraction for consumption and investment in Germany, but reflects generally more intensive links between the German economy and the outside world.
+The year 2009 should be considered an outlier due to the exceptional economic situation in the European financial market and economic crisis. In 2010 and 2011, investments and exports, as well as the associated input of raw materials, rose sharply again. This marked a resumption of the trend that had been seen in the period up to 2008. Although raw material input productivity slightly decreased or stagnated at some points in time, the general trend tended to improve. The indicator increased by 5 percentage points in 2017 compared to the preceding year, however, 2018 recorded a slight decline by 1 percentage point. In total, raw material input productivity increased from 2010 to 2018 by 9 percentage points with an average annual growth of 0.9 % and, thus, lies below the target of the Federal Government.</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t>8.4.2</t>
+        </is>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N29" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>08.2.a,b</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>Staatsdefizit und strukturelles Defizit</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>Government deficit, structural deficit</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren 8.2.a und 8.2.b setzen den Finanzierungssaldo des Staates und den strukturellen Finanzierungssaldo in Relation zum Bruttoinlandsprodukt (BIP) in jeweiligen Preisen. Der Finanzierungssaldo des Staates berechnet sich aus Staatseinnahmen abzüglich Staatsausgaben in der Abgrenzung der Volkswirtschaftlichen Gesamtrechnungen (VGR). Beim jährlichen strukturellen Saldo handelt es sich um denjenigen Teil des Finanzierungssaldos, der nicht auf konjunkturelle Schwankungen und temporäre Effekte zurückzuführen ist. Ein negativer Finanzierungssaldo wird als Defizit bezeichnet; ein positiver als Überschuss.</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>The indicators 8.2.a and 8.2.b show the financial balance of general government (deficit or surplus) and the structural financial balance as a percentage of gross domestic product (GDP) at current prices. The public financial balance is calculated as government revenue minus government expenditure, measured on a national accounts basis. The annual structural balance refers to the part of the financial balance that is not attributable to cyclical fluctuations and temporary effects. A negative financial balance is known as a deficit; a positive as a surplus.</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>Solide Staatsfinanzen sind ein wichtiger Beitrag zu einer nachhaltigen Finanzpolitik. Eine Politik, die heutige Staatsausgaben übermäßig durch Neuverschuldung finanzieren würde und die Rückzahlung dieser Schulden allein zukünftigen Generationen überließe, wäre nicht tragfähig.
+Entsprechend den Konvergenzkriterien für die Europäische Union (sogenannte Maastricht-Kriterien) soll das jährliche Staatsdefizit weniger als 3 % des BIP betragen. Das strukturelle Defizit soll maximal 0,5 % des Bruttoinlandsprodukts (BIP) betragen. Dies entspricht den Vorgaben des europäischen Stabilitäts- und Wachstumspaktes. Der Grundsatz des strukturell ausgeglichenen Haushalts ist seit 2009 auch im Grundgesetz verankert (Artikel 109, sogenannte Schuldenbremse).</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>Sound public finances are an essential element of a sustainable fiscal policy. A policy that relies too heavily on borrowing to fund current public expenditure and then passes this debt on to future generations is simply not sustainable.
+According to the convergence criteria for the European Union, known as the Maastricht criteria, the annual government deficit should be less than 3 % of GDP. The structural deficit must not exceed 0.5 % of GDP. These are the stipulations of the European Stability and Growth Pact. The guiding principle of the structurally balanced budget has also been enshrined in Germany’s Basic Law since 2009 (Article 109, referred to as the debt brake).</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>Die Berechnung von Bruttoinlandsprodukt (BIP) und Finanzierungssaldo des Staates ist durch das Europäische System Volkswirtschaftlicher Gesamtrechnungen (ESVG) vorgegeben und wird vom Statistischen Bundesamt durchgeführt. Der strukturelle Finanzierungssaldo wird hingegen vom Bundesministerium der Finanzen (BMF) ermittelt. Bei der Berechnung des Finanzierungssaldos werden die Finanzen der Gebietskörperschaften, also von Bund, Ländern und Gemeinden, sowie die Finanzen der Sozialversicherung berücksichtigt.
+Nach der Finanzmarkt- und Wirtschaftskrise 2008/2009 erzielte der Staat erstmals im Jahr 2012 mit 0,3 Milliarden Euro wieder einen Überschuss. Bis 2018 stieg der Finanzierungssaldo schließlich auf 65,6 Milliarden Euro bzw. 1,9 % des BIP an. Im Jahr 2019 betrug der Finanzierungsüberschuss noch 53,2 Milliarden Euro bzw. 1,5 % des BIP (vorläufige Daten). Aufgrund der Corona-Pandemie kam es 2020 und 2021 erneut zu einem Finanzierungsdefizit. Dabei betrug das Defizit 2020 147,6 Miliarden Euro. Seit 1991 entstand nur 1995 ein noch höheres Defizit (178,7 Milliarden Euro). Im europäischen Vergleich lag Deutschland 2021 mit einem Finanzierungsdefizit von 3,7 % des BIP noch unter dem EU-Durchschnitt von 4,6 %. Zwölf Länder wiesen eine geringere Defizitquote als Deutschland auf; 14 eine höhere. Dänemark (+ 3,6 %) und Luxemburg (+ 0,8 %) erwirtschafteten sogar einen Überschuss.
+Auch in 2021 wurde nach vorläufigen Daten ein Defizit von 134,3 Milliarden Euro erzielt. Das Defizit des Bundes betrug dabei 145,9 Milliarden Euro; während die Länder, Gemeinden und die Sozialversicherung einen Überschuss erzielten. Dieser betrug bei den Ländern 2,8 Milliarden Euro, 4,3 Milliarden Euro bei den Sozialversicherungen und 4,6 Milliarden Euro bei den Gemeinden. Insgesamt wies der gesamtstaatliche Haushalt 2021 ein strukturelles Defizit von 2,5 % (vorläufige Daten) des BIP aus. Damit wurden die Ziele für das Staatsdefizit als auch für das strukturelle Defizit in 2021 – wie auch im Vorjahr – nicht eingehalten: Im Jahr 2020 lag das Defizit des Bundes bei 87,4 Milliarden Euro, das der Länder bei 30,9 Milliarden Euro und das der Sozialversicherung bei 34,8 Milliarden Euro. Nur die Gemeinden wiesen 2020 einen Überschuss von 5,5 Milliarden Euro auf.
+Nachdem die Staatseinnahmen 2020 kurzzeitig sanken, stiegen diese 2021 und lagen schließlich 5,9 % höher als noch im Jahr 2019. Die Staatsausgaben stiegen im gleichen Zeitraum jedoch um 18,1 %. Die größte Position auf der Ausgabenseite des Staates umfassten 2021 die monetären Sozialleistungen mit 33,1 % der Ausgaben (610,9 Milliarden Euro). 17,9 % entfielen auf soziale Sachleistungen (330,0 Milliarden Euro). 70,4 % der monetären Sozialleistungen waren der Sozialversicherung zuzuordnen und dort überwiegend der Deutschen Rentenversicherung (340,0 Milliarden Euro); während die Ausgaben für soziale Sachleistungen vorwiegend in der Gesetzlichen Krankenversicherung anfielen (249,9 Milliarden Euro).</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>The method used to calculate GDP and the financial balance of general government is laid down in the European System of National and Regional Accounts (ESA) and is applied by the Federal Statistical Office. The structural financial balance, on the other hand, is determined by the Federal Ministry of Finance. The calculation of government net borrowing takes into account the finances of the public authorities, that is to say the Federal Government, the Länder and local government, and the finances of the social insurance system.
+In 2012, the Government achieved an overall surplus of 0.3 billion euros, which was the first positive balance since the financial and economic crisis of 2008/2009. Financial balance increased to 65.6 billion euros or 1.9 % of GDP until 2018. In 2019, the financial surplus amounted to 53.2 billion euros and 1.5 % of GDP (preliminary data). A financial deficit in 2020 and 2021 emerged in consequence of the COVID-19 pandemic. The deficit in 2020 amounted to 147.6 billion euros. Since 1991, only 1995 had a higher deficit (178.7 billion euros). A European comparison of financial deficits in 2021 reveals that Germany’s negative financial balance of 3.7 % of GDP was below European average of 4.6 %. Twelve countries had a lower deficit ratio than Germany; 14 countries were above. Denmark (+ 3.6 %) and Luxembourg (+ 0.8 %) even generated a financial surplus.
+In 2021, the Government generated an overall deficit of 134.3 billion euros. The federal deficit came to 145.9 billion euros. At the same time, Länder, local governments and social insurance yet again recorded an aggregate surplus. The balances for the Länder (2.8 billion euros), the social insurance fund (4.3 billion euros) and local government (4.6 billion euros) were also positive. The national budget in 2021 showed a structural deficit of 2.5 % of GDP (preliminary data). This meant that the EU convergence criteria for both the government deficit and the structural deficit had not been met in 2021 as previous year: in 2020, the federal deficit was 87.4 billion euros, that of the Länder was 30.9 billion euros and social insurance fund 34.8 billion euros. Only local governments reported a surplus of 5.5 billion euros in 2020.
+In 2020, government revenues decreased for a short time, however, they increased again in 2021 and were 5.9 % above the value in 2019. Government spendings increased by 18.1 % in the same period. The largest item on the expenditure side of the national accounts are social benefits other than social transfers in kind. These accounted for 33.1 % of government spendings (610.9 billion euros). Social benefits in kind accounted for 17.9 % (330.0 billion euros). 70.4 % of social benefits other than social transfers in kind fall under the heading of social insurance, primarily in the form of pensions (340 billion euros); spendings on social benefits in kind predominantly incurred for statutory health insurance (249.9 billion euros).</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>45674</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>08.2.c</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Schuldenstand</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>Government debt</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den konsolidierten Bruttoschuldenstand des Staates, das heißt in der Abgrenzung des Maastricht-Vertrages, in Relation zum Bruttoinlandsprodukt (BIP) in jeweiligen Preisen an. Damit dient der Indikator als Maßzahl der Staatsverschuldung.</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the government debt defined in the Maastricht Treaty as a percentage of gross domestic product (GDP) at current prices. The indicator therefore serves as a measure of government debt.</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>Im Stabilitäts- und Wachstumspakt der Europäischen Union (EU) ist der Referenzwert für die maximale Schuldenstandsquote auf 60 % des Bruttoinlandsprodukts (BIP) festgelegt. Dies ist auch die für diesen Bericht relevante nationale Zielwertobergrenze des Indikators.</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>The European Union’s Stability and Growth Pact specifies a reference value of 60 % as the maximum debt-to-GDP ratio. This also is the upper limit of the national target value of the indicator which is relevant for this report.</t>
+        </is>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>Die Schulden des Staates werden von der Bundesbank gemäß Vorgaben des Maastricht-Vertrages zweimal jährlich basierend auf Berechnungen des Statistischen Bundesamtes ermittelt. Das Bruttoinlandsprodukt (BIP) in jeweiligen Preisen wird im Rahmen der Volkswirtschaftlichen Gesamtrechnungen (VGR) im Statistischen Bundesamt berechnet.
+Die Schuldenstandsquote wird sowohl von der Situation der öffentlichen Haushalte als auch von der wirtschaftlichen Entwicklung beeinflusst. Bei gleichbleibenden öffentlichen Schulden sinkt die Schuldenstandsquote daher umso schneller, je stärker das BIP wächst. Andersrum kann die Schuldenstandsquote auch steigen, wenn sich die absoluten Schulden verringern, das BIP aber im gleichen Zeitraum einen stärkeren Rückgang aufweist. Unberücksichtigt ist hingegen die implizite Staatsverschuldung, das heißt die zukünftig zugesicherten, jedoch noch nicht geleisteten Zahlungsverpflichtungen des Staates.
+Die Schuldenstandsquote in Deutschland lag zwischen den Jahren 2003 und 2018 über dem für die Europäische Union (EU) vorgeschriebenen Wert. Nachdem sie aufgrund der Konsolidierung der öffentlichen Haushalte von 67,5 % im Jahr 2005 auf 64,2 % im Jahr 2007 zurückgegangen war, stieg sie bis zum Jahr 2010 auf einen Höchststand von 82,0 % an. Der Anstieg ist im Zusammenhang mit der Finanzmarkt- und Wirtschaftskrise zu sehen. Seit 2012 nahm die Schuldenstandsquote kontinuierlich ab und unterschritt erstmals 2019 mit 58,9 % wieder den Referenzwert des Maastricht-Vertrags in Höhe von 60 %. Infolge der Corona-Pandemie stieg die Schuldenstandsquote wieder deutlich an und lag im Jahr 2020 bei 68,0 % und für das Jahr 2021 bei 68,6 %.
+Im europäischen Vergleich unterschritten 13 EU-Staaten im Jahr 2021 den Referenzwert von 60 %. Im EU-Durchschnitt lag die Schuldenstandsquote für das Jahr 2021 bei 87,9 %. Die höchsten Schuldenstandsquoten wiesen Griechenland (194,5 %) und Italien (150,3 %) auf; die niedrigste Estland mit 17,6 %.
+Während die konsolidierten Schulden des Gesamtstaates seit 1991 kontinuierlich stiegen, verringerten sich diese erstmals im Jahr 2013 und dann seit 2015 kontinuierlich. Im Jahr 2019 lagen die konsolidierten Schulden des öffentlichen Gesamthaushaltes bei 2 047 Milliarden Euro. Bis 2021 stiegen diese infolge der Corona-Pandemie auf 2 472 Milliarden Euro an und erreichten damit den Höchststand seit 1991. Verteilt auf die Bevölkerung Deutschlands ergaben sich für das Jahr 2021 rechnerisch 29 708 Euro Schulden je Einwohnerin bzw. Einwohner; 1991 lag dieser Wert noch bei 7 730 Euro.
+Die nicht konsolidierten Schulden betrugen für das Jahr 2021 2 486 Milliarden Euro. Diese verteilten sich zu 67,0 % auf den Bund, zu 26,7 % auf die Länder und zu 6,3 % auf die Gemeinden. Die Schulden der Sozialversicherung beliefen sich auf 392 Millionen Euro (0,0 %).
+Den Schulden des Staates stehen auf der Aktivseite der Vermögensbilanz die Vermögensgüter (Sach- und Geldvermögen) gegenüber. Nach der Vermögensrechnung des Statistischen Bundesamtes hatten die Sachanlagen im Jahr 2020 einen Vermögenswert (nach Abschreibungen) von 1 509 Milliarden Euro. Die größte Vermögensposition des Staates waren die Bauten (Straßen, Schulen, öffentliche Gebäude) mit 1 284 Milliarden Euro, was über ein Drittel des gesamten Vermögens des Staates ausmachte (34,4 %). Das Geldvermögen betrug 1 555 Milliarden Euro (2020). Darunter bildeten die Wertpapiere den größten Vermögenswert (52,0 %).</t>
+        </is>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>The government debt is determined by the Bundesbank twice annually pursuant to the requirements of the Maastricht Treaty and based on calculations by the Federal Statistical Office. The GDP at current prices is determined by the Federal Statistical Office as part of the national accounts system.
+The debt-to-GDP ratio is influenced by the state of the public budgets and by economic development in general. According to the formula – assuming stable debt – the debt ratio falls faster the stronger GDP growth. On the other hand, the debt-to-GDP ratio can increase, if the GDP shows a stronger decline than the absolute debt in the same period of time. Furthermore, the indicator excludes implicit government debt, which refers to the government’s future payment obligations that are pledged but not yet due.
+Between 2003 and 2018, Germany’s debt-to-GDP ratio was above the prescribed EU-wide reference level. Following budgetary consolidation measures, the ratio fell from 67.5 % in 2005 to 64.2 % in 2007, but then it rose again to peak at 82.0 % in 2010. This increase must be seen in the context of the financial and economic crisis. Since 2012, Germany’s public debt-to-GDP ratio steadily decreased to a value of 58.9 % in 2019 and, thus, dropped below the reference level of 60 % determined by the Maastricht Treaty for the first time. Due to the COVID-19 pandemic, the debt-to-GDP ratio increased significantly and reached 68.0 % in 2020 and 68.6 % in 2021.
+In 2021, the debt-to-GDP ratio of 13 EU-states fell below the reference value of 60 %. The EU-average was 87.9 % in the respective year. The highest debt-to-GDP ratio were measured for Greece (194.5 %) and Italy (150.3 %); the lowest for Estonia (17.6 %).
+Consolidated debt of the state steadily increased since 1991, however, it reduced in 2013 for the first time and constantly decreased from 2015 on. In 2019, the consolidated debt of the overall public budget was 2,047 billion euros. In consequence of the COVID-19 pandemic, the consolidated debt increased to 2,472 billion euros in 2021 and, thus, reached its peak since 1991. Germany’s debt per capita increased in 2021 to 29,708 euros; in 1991, the value was at 7,730 euros.
+Non-consolidated debt amounted to 2,486 billion euros in 2021. Of the total amount of government debt in the respective year, about 67.0 % was federal debt, while some 26.7 % was owed by the Länder and 6.3 % by local government. The debt of the social insurance amounted to 392 million euros (0.0 %).
+In the national balance of assets, the government debt is balanced by its assets – both tangible and financial. According to the national wealth accounts compiled by the Federal Statistical Office, fixed assets were valued (after amortisation) at 1,509 billion euros in 2020. The biggest asset owned by the government is its buildings and structures (roads, schools, public buildings) at a value of 1,284 billion euros, accounting for more than a third of the total assets of the state (34.4 %). The financial assets were valued at 1,555 billion euros (2020). Among them, securities represent the most highly valued asset (52.0 %).</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N31" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B03_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B03_P01</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>08.3</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation in relation to GDP</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den Anteil der Bruttoanlageinvestitionen am nominalen Bruttoinlandsprodukt, das heißt in jeweiligen Preisen. Dieser Anteil wird auch als Investitionsquote bezeichnet. Die Bruttoanlageinvestitionen umfassen den Zugang (also den Erwerb abzüglich der Veräußerungen ohne Berücksichtigung von Abschreibungen) von Anlagegütern durch gebietsansässige Wirtschaftseinheiten. Anlagegüter sind produzierte Vermögensgüter, die im Produktionsprozess wiederholt oder kontinuierlich länger als ein Jahr eingesetzt werden sollen. Hierzu zählen Bauten (Wohnbauten, Nichtwohnbauten), Ausrüstungen (Maschinen, Fahrzeuge, Geräte einschließlich militärische Waffensysteme) und sonstige Anlagen (Nutztiere und -pflanzungen sowie geistiges Eigentum, wie Investitionen in Forschung und Entwicklung, Software und Datenbanken, Urheberrechte und Suchbohrungen). Eingeschlossen sind auch wesentliche Verbesserungen an vorhandenem Anlagevermögen.</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the share of gross fixed capital formation relative to nominal gross domestic product (which means at current prices). This share is also referred to as the investment ratio. The level of gross fixed capital formation includes additions (that is, acquisitions less disposals without taking into account consumption of fixed capital) of fixed assets by resident economic units. Fixed assets are produced assets that are designed for repeated or continuous use in production processes for longer than a year. These include buildings and structures (dwellings, other buildings and structures), equipment (machinery, vehicles, tools including weapons systems) and other assets (intellectual property such as investments in research and development, computer software and databases, entertainment, literary or artistic originals, mineral exploration and evaluation as well as animal resources and tree, crop and plant resources). Also included are improvements on existing stocks of fixed assets that lead to a significant increase in the value of an asset and/or prolong its useful life.</t>
+        </is>
+      </c>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>Die zukünftige wirtschaftliche Leistungskraft und die Wettbewerbsfähigkeit einer Volkswirtschaft hängen entscheidend von den Investitionen der Unternehmen und des Staates ab. Daher ist das Ziel der Bundesregierung eine angemessene Entwicklung des Anteils der Bruttoanlageinvestitionen am Bruttoinlandsprodukt (BIP).</t>
+        </is>
+      </c>
+      <c r="I32" s="5" t="inlineStr">
+        <is>
+          <t>The future strength and competitiveness of an economy depend crucially on corporate and governmental investments. For this reason, the target of the Federal Government is to promote appropriate development of the ratio of gross fixed capital formation to gross domestic product (GDP).</t>
+        </is>
+      </c>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>Die Bruttoanlageinvestitionen und das Bruttoinlandsprodukt (BIP) werden im Rahmen der Volkswirtschaftlichen Gesamtrechnungen (VGR) vom Statistischen Bundesamt ermittelt. Die Erstellung der VGR folgt international harmonisierten Regeln und Standards, wie dem Europäischen System Volkswirtschaftlicher Gesamtrechnungen (ESVG), und basiert auf allen verfügbaren, relevanten Datenquellen.
+Im Jahr 2021 lag der Anteil der Bruttoanlageinvestitionen am BIP für das gesamte Bundesgebiet bei 21,8 %, preisbereinigt bei 21,0 %. Der Indikator hat sich kurz- und mittelfristig betrachtet in die gewünschte Richtung entwickelt. Seit dem Jahr 2015 (20,0 %) ist ein leichter Anstieg der Quote zu verzeichnen. Mangels einer Definition, was als angemessene Entwicklung gilt, ergibt sich bei Betrachtung der letzten sechs Datenpunkte ein positives Bild. Gegenüber 1991 ist die Investitionsquote jedoch um 3,1 Prozentpunkte und gegenüber 2000 um 1,4 Prozentpunkte niedriger. Preisbereinigt liegt der Anteil der Bruttoanlageinvestitionen am BIP gegenüber 1991 um 1,1 Prozentpunkte zurück. Die Investitionsquote in Deutschland ist seit 1996 durchgehend unterhalb der Investitionsquote für den gesamten OECD-Raum (zuletzt 2020: 22,2 %). Betrug der Abstand zwischen 2001 und 2010 noch durchschnittlich –2,4 Prozentpunkte, so verringerte sich dieser im Zeitraum 2011 bis 2020 auf –1,0. In den Jahren 2015 bis 2021 stiegen die Bruttoanlageinvestitionen kräftig um 29,4 % und erreichten ein Niveau von 783,8 Milliarden Euro. Da der Anstieg des nominalen BIP im selben Zeitraum etwas geringer ausfiel (19,0 %), erhöhte sich die Investitionsquote nur leicht von 20,0 % auf 21,8 %. Das kräftigste nominale Wachstum ergab sich seit dem Jahr 2010 im Bereich der Wohnbauten (+92,6 %), während die Investitionen im Bereich der Nichtwohnbauten (sowohl im Hoch- als auch im Tiefbau) im selben Zeitraum weniger stark anstiegen (+52,7 %) und in den Jahren 2012 und 2015 sogar leicht rückläufig waren. Die Ausrüstungsinvestitionen erhöhten sich um 28,0 %. Im Vergleich zu 1991 verzeichneten demgegenüber die Investitionen in Forschung und Entwicklung sowie in Software und Datenbanken die stärksten Zuwächse. Ihr Volumen hat sich mehr als verdreifacht.
+Die Investitionstätigkeit hat sich im Zeitraum von 1991 bis 2021 stark vom Produzierenden Gewerbe hin zu den Dienstleistungsbereichen verlagert. Während 1991 noch 30,4 % der Anlageinvestitionen von Unternehmen des Produzierenden Gewerbes getätigt wurden, waren es 2021 nur noch 22,4 %. Im Jahr 2021 entfielen auf die Dienstleistungsbereiche 76,3 % der Bruttoanlageinvestitionen; 1991 waren es noch 67,9 %. Der größte investierende Bereich war das Grundstücks- und Wohnungswesen. Auf diesen entfielen im Jahr 2021 allein 33,1 %. Dem Staatssektor, dessen Investitionstätigkeiten verschiedenen Wirtschaftszweigen zugutekommen, wurden für das Jahr 2020 12,4 % bzw. für 2021 11,9 % der gesamtwirtschaftlichen Bruttoanlageinvestitionen zugerechnet.
+Bei Betrachtung nach Bundesländern war für das zuletzt vorliegende Berichtsjahr 2019 die höchste Investitionsquote in Niedersachen mit 27,6 % und die niedrigsten Investitionsquoten in Bremen mit 15,7 % und Nordrhein-Westfalen mit 16,4 % zu verzeichnen.</t>
+        </is>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>The value of gross fixed capital formation and GDP is determined by the Federal Statistical Office as part of national accounts. National accounts are compiled in accordance with harmonised international rules and standards, that is, the European System of Accounts (ESVG), and are based on all available, relevant data sources.
+In 2021, the ratio of gross fixed capital formation to GDP was at 21.8 % for the entire federal territory, price adjusted at 21.0 %. The indicator has moved into the desired direction both in the short and medium term. Since 2015, the quota slightly increased (20.0 %). The lack of a definition for appropriate development causes a positive appearance when considering the last six data points. In comparison, the investment ratio was 3.1 percentage points below the initial value in 1991 as well as 1.4 percentage points lower than in 2000. After price adjustments, the share of gross fixed capital formation relative to GDP is 1.1 percentage points below the value in 1991. Since 1996, the average investment ratio in Germany is lower than the investment ratio for the entire OECD region (2020: 22.2 %). While the difference between 2001 and 2010 was – 2.4 percentage points on average, latter decreased in the period from 2011 to 2020 to – 1.0. In the years from 2015 to 2021, gross fixed capital formation soared by a total of 29.4 %, reaching 783.8 billion euros. Since the increase in nominal GDP was somewhat lower, at 19.0 %, the investment ratio increased slightly from 20.0 % to 21.8 %. With regard to investments in building projects, housing construction has recorded strong nominal growth (+ 92.6 %) since 2010, while the growth of investments in non-residential construction, including civil engineering, in the same period was less pronounced (52.7 %) and even dipped slightly in 2012 and 2015. Equipment investments increased by 28.0 %. The strongest growth since 1991 was recorded for investments in research and development as well as in computer software and databases. Its volume almost tripled.
+The period from 1991 to 2021 witnessed a strong shift in investment activity from industry to the service sector. In 1991, 30.4 % of new fixed capital formation was still being made by enterprises of the industry sector. By 2021, this figure had fallen to just 22.4 %. In 2021, 76.3 % of fixed capital formation was made in the service branches. In 1991, this figure was still 67.9 %. The largest single investment area was that of real estate activities. In 2021 alone, this sector accounted for 33.1 % of all new fixed assets. The general government sector, whose investment activities are spread across various sectors of the economy, accounted for 12.4 % of gross fixed capital formation in 2020 and 11.9 % in 2021.
+Most recent data for the German Länder in 2019 reveals, that the highest investment ratio was measured for Lower Saxony at 27.6 % and the lowest investment ratios were measured for Bremen and North Rhine-Westphalia at 15.7 % and 16.4 %, respectively.</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>45674</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B04_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B04_P01</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>08.4</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>Gross domestic product per capita</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt das preisbereinigte Bruttoinlandsprodukt (BIP) je Einwohnerin bzw. Einwohner in Deutschland auf Basis des Jahres 2015. Das BIP misst den Wert der im Inland erwirtschafteten Leistung; als Einwohnerinnen und Einwohner gelten dabei alle Personen, die in Deutschland ihren ständigen Wohnsitz haben.</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows price-adjusted gross domestic product (GDP) per capita (inhabitants) in Germany at 2015 prices. GDP measures the value of all goods and services produced in the domestic economy; inhabitants means all persons whose permanent residence is in Germany.</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>Zwischen der Entwicklung des Bruttoinlandsprodukts (BIP) und den anderen Indikatoren der Nachhaltigkeitsstrategie gibt es vielfältige Beziehungen. So spielen soziale Faktoren wie die Bevölkerungsstruktur, das Arbeitskräfteangebot, das Bildungssystem sowie der soziale Zusammenhalt in der Gesellschaft eine wichtige Rolle für die internationale Wettbewerbsfähigkeit der Wirtschaft. Das BIP gilt als wichtiger Indikator für Konjunktur und Wachstum einer Volkswirtschaft. Folglich ist das Ziel ein stetiges und angemessenes Wachstum.</t>
+        </is>
+      </c>
+      <c r="I33" s="5" t="inlineStr">
+        <is>
+          <t>Changes in GDP are related in a variety of ways to other indicators included within the strategy for sustainable development. Social factors such as the population structure, the labour supply, the educational system and social cohesion play an important role in society with regard to international economic competitiveness. GDP is regarded as an important indicator of the strength and growth of a national economy, and so the goal is to achieve continuous and appropriate levels of GDP growth.</t>
+        </is>
+      </c>
+      <c r="J33" s="5" t="inlineStr">
+        <is>
+          <t>Im Jahr 2021 lag das preisbereinigte Bruttoinlandsprodukt (BIP) je Einwohnerin und Einwohner bei etwa 38 509 Euro und damit 2,6 % höher als im Vorjahr. Zwischen 1991 und 2021 hat sich das BIP je Einwohnerin und Einwohner preisbereinigt insgesamt um 38,8 % erhöht. Aufgrund der Corona-Pandemie sank jedoch das preisbereinigte BIP je Einwohnerin bzw. Einwohner im Jahr 2020 um 3,8 %. Nur im Jahr 2009 brach das preisbereinigte BIP je Einwohnerin bzw. je Einwohner infolge der weltweiten Finanzmarkt- und Wirtschaftskrise mit einem Rückgang von 5,4 % noch stärker ein. Mangels einer Definition von angemessenem und stetigem Wirtschaftswachstum kann lediglich die durchschnittliche jährliche Veränderung der letzten fünf Jahre betrachtet werden. Diese lag bei 0,7 %. Der Indikator hat sich damit bei längerfristiger Betrachtung in eine positive Richtung entwickelt.
+Bei Betrachtung der Ergebnisse nach Bundesländern wies Mecklenburg-Vorpommern mit rund 26 500 Euro das niedrigste und Hamburg mit etwa 59 700 Euro das höchste reale BIP je Einwohnerin und Einwohner auf.
+Das BIP ist Ausdruck der gesamten im Inland entstandenen Wirtschaftsleistung einer Berichtsperiode. Dabei werden vor allem auf Märkten gehandelte sowie staatliche Waren und Dienstleistungen betrachtet. Das BIP wird vierteljährlich und jährlich vom Statistischen Bundesamt und von den Statistischen Ämtern der Länder nach international harmonisierten Regeln und Standards, wie dem Europäischen System Volkswirtschaftlicher Gesamtrechnungen (ESVG), ermittelt.
+Das BIP ist eine zentrale Größe der Volkswirtschaftlichen Gesamtrechnungen (VGR). Die VGR sind die Zusammenfassung mehrerer Rechnungen, die das wirtschaftliche Geschehen einer Periode darstellen. Die Ergebnisse werden in Form eines geschlossenen Kontensystems ermittelt und in Tabellen dargestellt. Die Berechnungen der VGR wurden zuletzt im Rahmen ihrer General-revision 2019 turnusmäßig überprüft und überarbeitet sowie auf das Referenzjahr 2015 umgestellt. Für das reale BIP ergaben sich dadurch neue Veränderungsraten. Das konjunkturelle Gesamtbild hat sich durch die Revision jedoch nicht verändert.
+Das BIP ist nicht dafür konzipiert, die Gesamtheit aller gesellschaftlichen Aspekte der Wohlfahrtsmessung abzubilden. Um darüber hinaus auch diese zu erfassen, bedarf es weiterer Indikatoren, die speziell für diese Zwecke konstruiert sind. Hierzu zählen unter anderem die Umweltökonomischen Gesamtrechnungen, die die Wechselbeziehungen zwischen Wirtschaft und Umwelt darstellen, oder Indikatoren wie unentgeltliche Arbeit in privaten Haushalten. Auch die Verteilung von Einkommen (und Vermögen) auf unterschiedliche Bevölkerungsgruppen wird vom BIP nicht abgebildet.
+Die Veränderung von Bestandsgrößen wird beim BIP nicht erfasst – mit Ausnahme des Kapitalstocks durch die Berechnung von Investitionen und Abschreibungen. Zentrale wirtschaftliche Größen wie Bestände und Qualitäten des Humankapitals (etwa Bildung, Gesundheit), des Sozialkapitals (etwa Sicherheit, Integration) und des Naturkapitals (etwa Ressourcen, Ökosysteme) bleiben ausgeblendet. Aussagen, ob das BIP und sein Wachstum zur Kapitalerhaltung in einem umfassenden Sinn gedient haben, sind somit nicht möglich. Damit können anhand des BIP keine Aussagen zur Nachhaltigkeit des wirtschaftlichen Wachstums getroffen werden.
+Basis für die Berechnung des BIP je Einwohnerin und Einwohner sind die auf den Zensus 2011 zurückgerechneten und fortgeschriebenen durchschnittlichen Bevölkerungszahlen des Statistischen Bundesamtes.</t>
+        </is>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>In 2021, the price adjusted GDP was 38,509 euros per capita and, thus, 2.6 % higher than in the previous year. Between 1991 and 2021, price-adjusted GDP per head of population increased by a total of 38.8 %. In consequence of the COVID-19 pandemic, the price adjusted GDP per head of population decreased in 2020 by 3.8 %. Only in 2009, price adjusted per capita GDP fell by 5.4 % as a result of the global financial and economic crisis and, thus, decreased to a larger extent. The absent definition for appropriate and continuous economic growth causes the consideration of the average annual change for the preceding five years. These was 0.7 %. Therefore, the indicator developed in a positive direction long-term.
+Considering the results of the German Länder, Mecklenburg Western Pomerania had the lowest (26,500 euros) and Hamburg had the highest (59,700 euros) real GDP per capita.
+GDP expresses the value of total economic output produced within the country in a reference period. It focuses primarily on market goods and services and public goods and services. The value of GDP is determined quarterly and annually by the Federal Statistical Office and the statistical offices of the Länder on the basis of internationally harmonised rules and standards, such as the European System of National and Regional Accounts (ESA).
+GDP is a key variable in the national accounts. The national accounts are the consolidation of several accounts that portray the economic activity of a given period. The results are recorded in the form of a closed sequence of accounts and presented in tables. The national accounts calculations were last reviewed and revised in 2019 as part of their periodic major revision, and the reference year was changed to 2015. This resulted in new rates of change for real gross domestic product as a whole. The overall economic picture, however, has remained largely unchanged.
+GDP is not designed to portray all of the social aspects that can be included in a measurement of overall well-being. If these variables are to be measured too, Additional indicators are needed that are specifically designed for these purposes. This includes e.g. environmental economic accounts that portray the interactions between the economy and the environment and indicators showing, for example, the volume of unpaid work in households. Furthermore, the distribution of income and assets among different population groups is not shown by GDP either.
+Stock changes are not reflected in GDP, except in the case of capital stock resulting from the calculation of investments and depreciation. Key economic variables like quantities and qualities of human capital, such as education and health, of social capital, such as security and integration, and of natural capital, such as resources and ecosystems, are not factored into GDP. It is therefore impossible to conclude whether GDP and its growth have served to preserve capital in the fullest sense. This means that GDP cannot be used to gauge the sustainability of economic growth.
+The basis for the calculation of per capita GDP comprise the average population figures interpolated and extrapolated by the Federal Statistical Office from the 2011 census data.</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t>8.1.1</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>45539</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>08.5.a,b</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Erwerbstätigenquote</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>Employment rate</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren geben die Anteile der Erwerbstätigen im Alter von 20 bis 64 Jahren (8.5.a) und im Alter von 60 bis 64 Jahren (8.5.b) jeweils gemessen an der Gesamtbevölkerung derselben Altersklasse an.</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr">
+        <is>
+          <t>The indicators specify the proportion of persons in employment aged between 20 and 64 years (8.5.a) and aged between 60 and 64 years (8.5.b), measured in each case as a share of the total population of the same age group.</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>Aufgrund des demografischen Wandels kann es langfristig zu einem Mangel an Fachkräften in Deutschland kommen. Gleichzeitig droht eine zunehmende Unterfinanzierung der sozialen Sicherungssysteme. Das vorhandene Arbeitskräftepotenzial ist daher künftig besser auszuschöpfen. Die Erwerbstätigenquote, das heißt der Anteil der Erwerbstätigen an der Bevölkerung im erwerbsfähigen Alter (20- bis 64-Jährige), soll bis zum Jahr 2030 auf 78 % erhöht werden. Außerdem ist es das Ziel der Bundesregierung, dass bis 2030 die Erwerbstätigenquote der Älteren (60- bis 64-Jährige) 60 % beträgt.</t>
+        </is>
+      </c>
+      <c r="I34" s="5" t="inlineStr">
+        <is>
+          <t>Due to demographic changes, there could be a shortage of professionals in Germany in the long run. At the same time, the social security system is threatened by an increasing shortage of funds. The available labour force potential must therefore be more effectively utilised in the future. The employment rate, that is, the share of persons in employment in the working-age population (20 to 64 years of age) should be increased to 78 % by 2030. In addition, the goal of the Federal Government is to achieve an employment rate of 60 % among older people (60 to 64 years of age) by 2030.</t>
+        </is>
+      </c>
+      <c r="J34" s="5" t="inlineStr">
+        <is>
+          <t>Datenquelle der Indikatoren ist die EU-Arbeitskräfteerhebung, die in Deutschland in den Mikrozensus integriert ist. Die Arbeitskräfteerhebung findet unterjährig statt und wird von der europäischen Statistikbehörde Eurostat zunächst zu Quartalsergebnissen zusammengefasst und anschließend zu Jahresdurchschnittswerten verdichtet. Sie deckt die in privaten Haushalten lebende Bevölkerung ab, schließt jedoch Personen in Gemeinschaftsunterkünften aus. Die im Rahmen der Arbeitskräfteerhebung betrachtete erwerbstätige Bevölkerung besteht aus Personen im Alter ab 15 Jahren, die während der Referenzwoche mindestens eine Stunde eine Tätigkeit gegen Entgelt ausgeübt haben oder als unbezahlt mithelfende Familienangehörige tätig waren. Eingeschlossen sind auch Personen, die nur vorübergehend nicht gearbeitet haben, weil sie zum Beispiel wegen Urlaub oder Krankheit abwesend waren. Zu beachten ist, dass es im Zeitablauf bei der Arbeitskräfteerhebung (zum Beispiel Anpassung an Ergebnisse des Zensus 2011) und mit der Neuregelung des Mikrozensus 2020 Änderungen gab, die Einfluss auf die zeitliche Vergleichbarkeit der dargestellten Zeitreihen haben.
+Die Erwerbstätigenquote insgesamt (20- bis 64-Jährige) stieg von 68,7 % im Jahr 2000 um 10,9 Prozentpunkte auf 79,6 % im Jahr 2021. Der Zielwert von 78,0 % für 2030 wird bereits seit 2015 erreicht. Die Erwerbstätigenquote bei den Älteren (60- bis 64-Jährige) nahm deutlich von 19,6 % im Jahr 2000 um 41,5 Prozentpunkte auf 61,1 % im Jahr 2021 zu. Die Quote der Männer in dieser Altersgruppe hatte sich dabei um 38,5 Prozentpunkte auf 65,7 % mehr als verdoppelt. Die Quote der Frauen verfünffachte sich sogar fast von 12,1 auf 56,7 %. Der angestrebte Anteil von 60 % bei Älteren wird seit 2018 jeweils erreicht und damit ebenfalls vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist.
+Die Erwerbstätigenquoten von Frauen und Männern insgesamt entwickelten sich seit 2000 in dieselbe Richtung, jedoch in unterschiedlichem Umfang. Die Quote stieg bei den 20- bis 64-jährigen Männern im betrachteten Zeitraum um 6,7 Prozentpunkte auf 83,2 %, bei den Frauen dagegen um 15,2 Prozentpunkte auf 75,9 % und damit deutlich stärker, aber auch von einem niedrigeren Niveau aus. Bei einer Bewertung des Anstiegs der Erwerbstätigenquote der Frauen ist zu berücksichtigen, dass die Erhöhung der Quote mit einer Zunahme der Teilzeitbeschäftigung einherging. Im Jahr 2000 waren 61,5 % der Frauen in Vollzeit und 38,5 % in Teilzeit tätig. Im Jahr 2021 lagen die Anteile bei 52,3 % in Vollzeit und 47,7 % in Teilzeit. Im Vergleich dazu reduzierte sich der Anteil der Männer, die in Vollzeit tätig sind, von 95,7 % im Jahr 2000 auf 89,8 % in 2021.
+Bei einer Differenzierung der Erwerbstätigenquote nach Altersgruppen zeigten sich unterschiedliche Tendenzen. Bei der Gruppe der 20- bis 24-Jährigen erhöhte sich die Erwerbstätigenquote von 2000 bis 2021 nur marginal um 2,4 Prozentpunkte auf 67,2 %. In der Altersgruppe der 25- bis 59-Jährigen stieg diese hingegen um 7,7 Prozentpunkte auf 83,9 %. Das geringere Erwerbsniveau in der Altersgruppe der 20- bis 24-Jährigen ist bedingt durch Ausbildungszeiten an Schulen und Hochschulen, wodurch sich der Eintritt in das Berufsleben verschiebt.</t>
+        </is>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>The Statistical Office of the European Union Eurostat conducts the labour force survey on an infra-annual basis. Eurostat summarises the data to form quarterly results and then consolidates them to create annual average values. It covers the population living in private households, but does not include people living in collective accommodation. The economically active population covered by the labour force survey consists of persons aged 15 and over who performed an activity for remuneration for at least one hour during the reference week or who worked as unpaid family workers. Also included are persons who temporarily did not work because they were absent, for example due to holidays or illness. It should be noted that there have been changes over time in the Labor Force Survey that affect the comparability of the time series presented over time (e.g. adjustment to results of the 2011 census, revision of the 2020 Microcensus).
+The total employment rate (20 to 64-year-olds) rose by 10.9 percentage points from 68.7 % in 2000 to 79.6 % in 2021. Thus, the target value of 78.0 % for 2030 has already been achieved from 2015 on. The employment rate among older people (60 to 64-year-olds) rose by 41.5 percentage points from 19.6 % in 2000 to 61.1 % in 2021. The employment rate for men in that age group had more than doubled, rising by 38.5 percentage points to 65.7 %. The rate for women even increased almost fivefold from 12.1 % to 56.7 %. Hence, the targeted 60 % employment rate for older people was likewise reached since 2018 ahead of the deadline set in the German strategy for sustainable development.
+The overall employment rates for women and men have developed in the same direction since 2000 but at different rates. The rate for 20 to 64-year-old men rose in the period under review by 6.7 percentage points to 83.2 %, whereas in the case of women it rose by 15.2 percentage points to 75.9 %, which was a far more rapid rise, albeit from a lower starting point. When assessing the increase in the employment rate for women, it should be taken into account that this growth was accompanied by an increase in part-time employment. In the year 2000, 61.5 % of employed women worked full-time, while 38.5 % worked part-time. In 2021, 52.3 % and 47.7 % of employed women worked full-time and part-time, respectively. By way of comparison, the proportion of the male workforce in full-time employment dropped from 95.7 % in 2000 to 89.8 % in 2021.
+A breakdown into age groups shows diverse employment rate trends. Among 20 to 24-year-olds, the rate rose from 2000 to 2021 by 2.4 percentage points to 67.2 %. Among 25- to 59-year-olds, by contrast, the employment rate rose to 83.9 %, an increase of 7.7 percentage points. The lower employment rates of 20 to 24 year-olds is also related to the average duration of education at school and university, which postpones entry into working life.</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
+        <is>
+          <t>8.5.2</t>
+        </is>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>45672</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B06_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B06_P01</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>08.6</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Mitglieder des Textilbündnisses</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Members of the Textiles Partnership</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl der Mitglieder des Bündnisses für nachhaltige Textilien (Textilbündnis). Dem Textilbündnis gehören ordentliche, beratende und assoziierte Mitglieder an. Ordentliche Mitglieder werden weiter in die sogenannten Akteursgruppen Wirtschaft (Unternehmen sowie Initiativen und Verbände), Gewerkschaften, Nichtregierungsorganisationen, Standardorganisationen sowie Bundesregierung unterschieden. Eine Standardorganisation ist eine Organisation, die nicht kommerzielle Standards für nachhaltige Textilien anbietet oder entwickelt. Die Mitgliedschaft im Textilbündnis ist freiwillig und erfolgt durch Eintritt.</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of members of the Partnership for Sustainable Textiles (Textiles Partnership). The Textiles Partnership comprises ordinary, advisory and associate members. The ordinary membership is subdivided into what are known as stakeholder groups: the businesses (initiatives and associations), unions, non-governmental organisations, standards organisations and the German Federal Government. A standards organisation is a body that offers or develops non-commercial standards for sustainable textiles. Membership of the Textiles Partnership is voluntary and is obtained by application.</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>Die Multi-Stakeholder-Initiative „Bündnis für nachhaltige Textilien“ wurde im Herbst 2014 gegründet. Das Textilbündnis strebt an, die sozialen, ökologischen und ökonomischen Rahmenbedingungen in den Produktionsländern zu verbessern. Daher soll die Anzahl der Mitglieder des Textilbündnisses bis 2030 signifikant gesteigert werden.</t>
+        </is>
+      </c>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>The Partnership for Sustainable Textiles is a multi-stakeholder initiative that was founded in 2014. The Textiles Partnership aims to improve the underlying social, ecological and economic conditions in the producer countries. Membership numbers should therefore be increased significantly by 2030.</t>
+        </is>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>Das Textilbündnis wurde im Oktober 2014 als Reaktion auf tödliche Unfälle in Textilfabriken gegründet. Der Indikator bildet die Anzahl der Mitglieder des Textilbündnisses ab. Als Multi-Stakeholder-Initiative gehören dem Textilbündnis nicht nur Unternehmen an. Aufbauend auf gemeinsam definierten Bündniszielen verpflichtete sich jedes Unternehmen mit seinem Beitritt zum Textilbündnis dazu, Maßnahmen für eine kontinuierliche Verbesserung der Bedingungen und zur Verfolgung der sozialen und ökologischen Bündnisziele in seiner gesamten Lieferkette umzusetzen.
+In seinem Gründungsjahr 2014 sind dem Textilbündnis 59 Mitglieder beigetreten, darunter 26 Unternehmen. Bis Ende 2016 hat sich die Anzahl der Mitglieder mit einem Höchststand von 188 Mitgliedern mehr als verdreifacht, darunter waren 133 Unternehmen. Seit Einführung der verpflichtenden Erstellung von Maßnahmenplänen (Roadmaps) im Jahr 2017 gab es sowohl Ausschlüsse als auch mehrere Austritte aus dem Textilbündnis. So wurden einerseits Mitglieder ausgeschlossen, die ihren Berichtspflichten nicht nachgekommen sind. Andererseits sind Mitglieder mit Verweis auf den Aufwand oder unzureichende Relevanz ausgetreten. Ende Dezember 2021 belief sich die Anzahl der Mitglieder auf insgesamt 123. Von den ursprünglich 59 Gründungsmitgliedern (Zeitraum Oktober bis Dezember 2014) waren bis Ende Dezember 2021 noch 26 Mitglied im Textilbündnis, wobei die Bundesregierung gegenüber 2014 nur noch als ein statt drei Mitglieder gezählt wird. Im Durchschnitt der letzten fünf Jahre hat sich die Anzahl der Mitglieder in eine negative Richtung entwickelt.
+Ende Dezember 2021 waren 69 der 123 Mitglieder (56 %) als Unternehmen klassifiziert, wobei acht ihren Hauptsitz nicht in Deutschland hatten. Im Jahr zuvor waren unter den 136 Mitgliedern noch 85 Unternehmen. Bei diesem Rückgang ist zu beachten, dass seit 2020 die Unternehmen des Textilbündnisses verpflichtet sind, ihrer Verantwortung zur Umsetzung der Sorgfaltspflichten entlang der Lieferkette nachzukommen. Dies beinhaltet die Analyse und Priorisierung von sozialen und ökologischen Risiken in der Lieferkette sowie die Ableitung von Zielen und Maßnahmen zur Vermeidung oder Minderung dieser Risiken. Alle zwei Jahre müssen die Mitgliedsunternehmen über den Stand der Umsetzung der Sorgfaltspflichten berichten. Die Mitgliedschaft im Textilbündnis bedeutet nicht, dass die Akteure und vor allem die Unternehmen schwerpunktmäßig im Bereich Textilien und/oder Bekleidung wirtschaftlich aktiv waren. Nur gut zwei Drittel der 61 Mitgliedsunternehmen mit Sitz in Deutschland waren gemäß dem statistischen Unternehmensregister (URS) des Statistischen Bundesamtes im Jahr 2020 hauptsächlich im Bereich Herstellung, Einzel- oder Großhandel von Textilien bzw. Bekleidung tätig. Diese erwirtschafteten 2020 einen Umsatz von etwa 16,1 Milliarden Euro. Im Vergleich dazu betrug 2020 laut den Handelsstatistiken des Statistischen Bundesamtes der Gesamtumsatz des Einzelhandels 635,2 Milliarden Euro und der Gesamtumsatz des Großhandels 1 363,0 Milliarden Euro. Davon wurden durch Unternehmen, die schwerpunktmäßig dem Einzel- oder Großhandel zugeordnet waren, etwa 4,1 % mit den Waren Bekleidung, Textilien sowie Vorhänge und Gardinen (ohne Schuhe, Lederwaren und Teppiche) erwirtschaftet.</t>
+        </is>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>The Partnership for Sustainable Textiles was established in October 2014 in response to fatal accidents in textile factories. The indicator shows the number of members of the Textiles Partnership. Being a multi-stakeholder initiative, the Textiles Partnership has more than just business enterprises in its ranks. On the basis of jointly defined Partnership objectives, each company, by joining the Textiles Partnership, pledges to implement measures for continuous improvement of conditions and for compliance with social and environmental objectives of the Partnership throughout the company’s supply chain.
+In its founding year of 2014, 59 members joined the Textiles Partnership, including 26 companies. The end of 2016 saw membership reach its peak, having more than trebled to 188, including 133 companies. Since the introduction of the compulsory plans of action (Roadmaps) in 2017, however, there have been expulsions and several withdrawals from the Textiles Partnership. On the one hand, some members were expelled for non-fulfilment of their reporting obligations. On the other hand, some members withdrew, citing compliance costs or insufficient relevance. Thus, total membership stood at 123 at the end of December 2021. Of the original 59 founding members that joined in the period from October to December 2014, there were still 26 in the Partnership at the end of December 2021, whereby the Federal Government counts as one member instead of three in comparison to 2014. Over that five-year period there was an overall downward trend in the number of members.
+At the end of December 2021, 69 out of 123 members (56 %) were classified as companies; eight of them did not have their registered office in Germany. The Textiles Partnership consisted of 85 companies out of the 136 members in the preceding year. This decline reflects, that companies who are member in Textiles Partnership were obliged in 2020 for implementation of due diligence along the supply chain. This includes the analysis and prioritisation of social and ecological risks in the supply chain as well as the derivation of targets and measures for mitigation or reduction of these risks. Member companies have to report about the status of implementation of due diligence every other year. If a company is a member of the Textiles Partnership, this does not necessarily mean that its main economic activity is in the field of textiles and/or clothing manufacture. According to the statistical business register of the Federal Statistical Office in 2020, only about two thirds of 61 member companies operated primarily in the manufacture, wholesaling or retailing of textiles and/or clothing. Their aggregate turnover in 2020 amounted to 16.1 billion euros. According to the trade statistics of the Federal Statistical Office, total retail turnover for the whole of 2020 amounted to 635.2 billion euros, while total wholesale turnover came to 1,363.0 billion euros. About 4.1 % of these amounts were earned by companies primarily assigned to the wholesale and retail sector through sales of clothing, textiles and curtains, excluding footwear, leather goods and carpets.</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N35" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>09.1.a</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>Private and public expenditure on research and development</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Ausgaben für Forschung und Entwicklung (FuE) von Wirtschaft, Staat und Hochschulen in Relation zum Bruttoinlandsprodukt (BIP).</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the expenditure on research and development by businesses, general government and institutions of higher education in relation to gross domestic product (GDP).</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>Die Ausgaben für Forschung und Entwicklung (FuE) sind eine wichtige, wenn auch nicht die alleinige Bestimmungsgröße für das Innovationstempo einer Volkswirtschaft. Je höher die Ausgaben sind, desto größer ist die Wahrscheinlichkeit für eine dynamischere Entwicklung der Produktivität, ein stärkeres Wirtschaftswachstum und eine verbesserte Wettbewerbsfähigkeit. Die Bundesregierung wird alle Möglichkeiten ausschöpfen, um das politische Ziel zu erreichen, die privaten und öffentlichen Ausgaben für Forschung und Entwicklung – eine wichtige Bestimmungsgröße für das Innovationstempo einer Volkswirtschaft – bis 2025 auf mindestens 3,5 % des Bruttoinlandsprodukts (BIP) jährlich zu erhöhen.</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>Expenditure on research and development (R&amp;D) is an important, although not the only determinant of an economy’s rate of innovation. The higher the expenditure, the higher the probability of more dynamic gains in productivity, the stronger economic growth and the more competitiveness is improved. The Federal Government has therefore set itself the goal of ensuring that private and public expenditure on research and development – a major determinant for the innovation rate of an economy – increases to at least an annual 3.5 % of gross domestic product by 2025.</t>
+        </is>
+      </c>
+      <c r="J36" s="5" t="inlineStr">
+        <is>
+          <t>Forschung und Entwicklung (FuE) sind wissenschaftliche Tätigkeiten und werden definiert als schöpferische und systematische Arbeiten zur Erweiterung des Wissensstandes – einschließlich des Wissens über die Menschheit, die Kultur und die Gesellschaft – und zur Entwicklung neuer Anwendungen auf Basis des vorhandenen Wissens. Um FuE gegenüber verwandten Tätigkeiten abzugrenzen, wird als Hauptkriterium geprüft, ob ein nennenswertes Element von Neuheit oder Weiterentwicklung vorhanden ist.
+Der Anteil der FuE-Ausgaben am Bruttoinlandsprodukt (BIP) wird jährlich vom Statistischen Bundesamt ermittelt. Die gesamten Ausgaben für FuE setzen sich aus den Ausgaben der Sektoren Staat (einschließlich privater Forschungseinrichtungen ohne Erwerbszweck), Hochschulen und Wirtschaft zusammen. Die Erhebungen und Berechnungen folgen den methodischen Empfehlungen des Frascati-Handbuchs der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD) zu Statistiken über FuE, wodurch die internationale Vergleichbarkeit sichergestellt ist.
+Im Jahr 2020 lagen die gesamten FuE-Ausgaben in Deutschland bei 106,6 Milliarden Euro. Dies entsprach einem Anteil von 3,1 % am BIP. Damit lag der Wert 0,4 Prozentpunkte unterhalb des gesetzten Zielwertes von jährlich mindestens 3,5 % des BIP bis 2025. Bei Fortsetzung der bisherigen Entwicklung wird das anvisierte Ziel verfehlt.
+Seit dem Jahr 2000 ist der Anteil der FuE-Ausgaben am BIP in Deutschland um 0,7 Prozentpunkte gestiegen. Insgesamt verdoppelten sich die FuE-Ausgaben seit 2000. Gegenüber dem Vorjahr 2019 sanken jedoch die FuE-Ausgaben im ersten Corona-Jahr um 3,4 Milliarden Euro. Dieser Rückgang beschränkt sich allerdings vollständig auf den Wirtschaftssektor, während in den anderen beiden Sektoren Anstiege zu verzeichnen waren.
+Im Jahr 2020 entfiel der weitaus größte Teil der FuE-Ausgaben in Deutschland mit 66,6 % auf die Wirtschaft, mit 18,7 % auf die Hochschulen und mit 14,6 % auf staatliche und private Forschungseinrichtungen ohne Erwerbszweck. Das Personal in FuE umfasste dabei geschätzt 733 831 Personen (in Vollzeitäquivalenten), wobei jeweils nur der im Bereich FuE geleistete Anteil der Arbeitszeit berücksichtigt wurde. Das Personal ist zu 63,7 % der Wirtschaft, zu 20,7 % den Hochschulen und zu 15,6 % den staatlichen und privaten Forschungseinrichtungen ohne Erwerbszweck zuzurechnen.
+Im internationalen Vergleich der OECD-Mitgliedstaaten lag Deutschland 2020 mit 3,1 % knapp vor Dänemark mit 3,0 % und Finnland mit 2,9 % sowie über dem Durchschnitt der EU-27-Region von 2,2 % und dem OECD-Durchschnitt von 2,7 % des BIP. Acht Staaten, wie zum Beispiel Schweden (3,5 %) oder Japan (3,3 %), lagen hingegen vor Deutschland. Im nationalen Vergleich lag Baden-Württemberg mit zuletzt 5,7 % (Jahr 2020) weit vor den übrigen Bundesländern; gefolgt von Bremen mit 3,7 % und Bayern mit 3,4 % des BIP.</t>
+        </is>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>Research and development (R&amp;D) are scientific activities and are defined as creative and systematic work to expand the level of knowledge – including knowledge of humankind, culture and society – and the development of new applications based on the existing knowledge. The main criterion applied to differentiate between R&amp;D and related activities is whether the activity involves an appreciable element of newness or further development.
+The share of research and development expenditure in the gross domestic product (GDP) is determined annually by the Federal Statistical Office. Overall expenditure on research and development comprises expenditure by general government (including non-profit private research institutions), institutions of higher education, and businesses. The surveys and calculations adhere to the recommended methodologies of the Frascati Manual of the OECD on statistics about R&amp;D, which also enable international comparisons.
+Overall R&amp;D expenditure in Germany in 2020 amounted to 106.6 billion euros, equivalent to 3.1 % of GDP. Hence, the indicator was 0.4 percentage points below the annual target of 3.5 % of GDP by 2025. If the past development continues, it can be assumed that the target value will not be reached.
+Since 2000, the share of R&amp;D in relation to GDP in Germany has increased by about 0.7 percentage points. Compared to 2000, the expenditures for R&amp;D have doubled. Compared to the preceding year 2019, the expenditure for R&amp;D activities decreased in the first year of the COVID-19 pandemic by 3.4 billion euros. However, this decline is completely limited to the economic sector and, in fact, the other two sectors recorded increments.
+In 2020, businesses accounted for the by far largest share of R&amp;D expenditure in Germany at around 66.6 %, with 18.7 % spent by institutions of higher education and a further 14.6 % by both public and private non-profit research institutions. Staff employed in R&amp;D comprised around 733,831 full-time equivalents, a figure that includes only the share of their working hours actually spent on R&amp;D work. Some 63.7 % of the staff work in businesses, 20.7 % in institutions of higher education and 15.6 % in public and private non-profit research institutions.
+In an international comparison among OECD member states, Germany reached 3.1 % in 2020 and was ahead of Denmark (3.0 %) and Finland (2.9 %), further, Germany exceeds the value of the EU 27 region with its 2.2 % and the OECD average of 2.7 % of GDP. Eight States, for instance Sweden (3.5 %) or Japan (3.3 %), were ahead of Germany. On a national level, Baden-Württemberg at 5.7 % (year 2020) was far ahead of other German Länder, followed by Bremen at 3.7 % and Bavaria at 3.4 % of GDP.</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t>9.5.1</t>
+        </is>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>45537</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>09.1.b</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>Breitbandausbau</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>Rollout of broadband</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Entwicklung der technisch verlegten Breitbandverfügbarkeit bei den Haushalten in Deutschland für Gigabit-Anschlüsse (≥ 1 000 Mbit/s) über reine Glasfasernetze (FTTB/H), Kabelfernsehen (CATV) und alle leitungsgebundenen Technologien.</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the development of broadband availability for households in Germany in terms of the technology installed, with separate figures for gigabit connections (≥ 1,000 Mbps) using fully fibre-optic networks (FTTB/H), cable television (CATV) and other types of wired technology.</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>Der flächendeckende Ausbau mit Gigabit-Netzen bis 2025 ist ein wesentliches Ziel der Bundesregierung. Neben der Steigerung der internationalen Wettbewerbsfähigkeit sollen über den Ausbau der Breitbandverfügbarkeit mit Gigabit-Geschwindigkeit gleichwertige Lebensbedingungen in Deutschland ermöglicht werden. Für die Erreichung dieser Ziele sollen neben dem vorwiegend privatwirtschaftlich erfolgenden Ausbau auch staatliche Fördermaßnahmen den Ausbau in unwirtschaftlichen Gebieten unterstützen.</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>The nationwide roll-out of gigabit networks by 2025 is one of the German Government’s key objectives. In addition to enhancing international competitiveness, the expansion of broadband availability with gigabit speeds is intended to facilitate the convergence of living standards across Germany. To achieve these aims, the predominantly private sector roll-out is to be supported by public funding schemes in unprofitable areas.</t>
+        </is>
+      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator erfasst die Breitbandverfügbarkeit bei Haushalten in Deutschland für eine Geschwindigkeit von mindestens 1 000 Mbit/s im Downstream über die leitungsgebundenen Technologien Glasfaser (FTTB/H) und Kabelfernsehen (CATV). Die Zahlen werden im Auftrag des Bundesministeriums für Digitales und Verkehr (BMDV) erhoben und im Breitbandatlas des Bundes veröffentlicht.
+Mit Stand Mitte 2021 sind Glasfaseranschlüsse (FTTB/H) mit einer Leistung von über 1 000 Mbit/s in 15,4 % der Haushalte in Deutschland verfügbar. Zwischen den Jahren 2015 und 2021 ist die Breitbandverfügbarkeit für 1 000 Mbit/s für FTTB/H um 8,7 Prozentpunkte angestiegen. Damit hat sich die Verfügbarkeit mehr als verdoppelt (+130 %). Im Zeitraum Ende 2018 bis Mitte 2021 hat sich der Anteil der Haushalte mit den entsprechenden Anschlüssen über CATV von 23,7 auf 56,5 % erhöht. Die Verfügbarkeit hat sich somit ebenfalls mehr als verdoppelt (+ 138 %). Damit stehen Mitte 2021 gigabitfähige Anschlüsse für insgesamt 62,1 % der Haushalte zur Verfügung.
+Die Breitbandverfügbarkeit im Gigabit-Bereich über alle Technologien konzentriert sich besonders auf städtische Gebiete. Dort haben im Jahr 2021 78,4 % der Haushalte einen Gigabit-Anschluss. In ländlich geprägten Gebieten ist der Anteil mit 22,9 % deutlich geringer. Wird dabei die Verteilung der Technologie betrachtet, haben Mitte 2021 75,1 % der Haushalte in städtischen und 12,8 % der Haushalte in ländlichen Gebieten einen Gigabit-Anschluss über CATV. Ein Gigabit-Anschluss über Glasfaser steht 18,6 % der Haushalte in städtischen und 11,3 % der Haushalte in ländlichen Räumen zur Verfügung.
+Eine unterschiedliche Verfügbarkeit zwischen städtischen und ländlichen Gebieten zeigt sich ebenfalls bei den Bundesländern. Den höchsten Anteil von Haushalten mit Gigabit-Anschlüssen über alle Technologien eines Flächenbundeslandes erreicht Schleswig-Holstein mit 79,7 % im Jahr 2021, gefolgt von Niedersachsen mit 66,8 %. Den geringsten Anteil von Haushalten mit Gigabit-Anschlüssen über alle Technologien eines Flächenbundeslandes verzeichnet Sachsen-Anhalt mit 26,0 %, nach Brandenburg mit 29,4 %. Im Vergleich liegt die Verfügbarkeit in den drei Stadtstaaten Berlin, Bremen und Hamburg bei über 90 % und damit sogar noch deutlich über dem Wert für die städtischen Gebiete bundesweit.
+Grundlage für die Unterteilung in städtische und ländliche Gebiete ist bei diesem Indikator ausschließlich die Bevölkerungsdichte. Die Angaben zur Breitbandverfügbarkeit stammen von mehr als 150 Telekommunikationsunternehmen (TKU), die nach deren aktuellen Versorgungsdaten befragt werden. Diese Daten werden zur Wahrung von Betriebs- und Geschäftsgeheimnissen der TKU auf Ebene von 250 x 250 Meter-Rasterzellen (ab 2022 100 x 100 Meter) aggregiert und nach sieben Bandbreitenklassen gruppiert. Während dabei reine Glasfasernetze mit über 1 000 Mbit/s bereits seit Ende 2015 betrachtet werden, erfolgt eine detailliertere Betrachtung der Klasse aufgrund von technischen Entwicklungen erst seit Ende 2018.
+Methodisch ist zu beachten, dass die Daten zur Breitbandverfügbarkeit von den TKU, bis zur Novellierung des Telekommunikationsgesetzes zum 1. Dezember 2021, auf freiwilliger Basis bereitgestellt wurden. Des Weiteren beziehen sich die angegebenen Verfügbarkeiten auf die verlegte Technik der TKU. Die tatsächlich nutzbare Breitbandverfügbarkeit vor Ort ist davon zu unterscheiden. Weiterführende Informationen zum Thema Breitbandmessung finden sich im Jahresbericht der Bundesnetzagentur.</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>The indicator measures the availability of broadband to households in Germany at downstream speeds of at least 1,000 Mbps, or one gigabit per second, using wired technology – fibre optics (FTTB/H) and cable television (CATV). The figures are collated on behalf of the Federal Ministry of Transport and Digital Infrastructure and published on the Government’s Broadband Atlas.
+As of the middle of 2021, fully fibre-optic internet connections (FTTB/H) capable of more than 1,000 Mbps were available in 15.4 % of households in Germany. Between 2015 and 2021, the availability of 1,000 Mbps FTTB/H broadband rose by 8.7 percentage points. In other words, it more than doubled, increasing by + 130 %. From the end of 2018 to the middle of 2021, the proportion of households with equally rapid connections using CATV grew from 23.7 % to 56.5 %. This is also more than double, equating to a + 138 % increase. Altogether, 62.1 % of households had gigabit-capable connections available as of mid-2021.
+For all technologies, the provision of gigabit broadband is concentrated particularly in urban areas, where some 78.4 % of households had gigabit-speed internet access as of 2021. That figure is markedly lower for areas of a rural character, at 22.9 % in 2021. To consider the distribution of the different technologies, 75.1 % of urban and 12.8 % of rural households had gigabit connections via CATV in mid-2021, while gigabit-capable fibre broadband was available to 18.6 % of households in urban areas and 11.3 % of those in rural areas.
+Differences in availability between urban and more rural areas are also discernible among the Länder. Of all the Länder that are not city states, Schleswig-Holstein has the highest level of gigabit-speed provision using any technology in 2021, at 79.7 % of all households, followed by Lower Saxony on 66.8 %. At the other end of the scale, 26 % of households in Saxony-Anhalt can say the same, with Brandenburg the next-lowest at 29.4 %. In contrast, provision of gigabit-speed broadband is markedly higher than 90 % in the three city states, Berlin, Bremen and Hamburg.
+The foundation for the distinction between urban and rural areas is solely the population density for this indicator. The information about gigabit broadband are collected from more than 150 telecommunications companies in Germany. They are asked about their current provision. To preserve the companies’ business and trade secrets, the resultant data are aggregated into a grid of 250-metre by 250-metre cells (from 2022: 100x100 metre) and grouped according to seven classes of broadband. Although full-fibre networks with speeds of over 1,000 Mbps have been included in observations since the end of 2015, that class has only been studied in detail since the end of 2018 in light of the latest technological advances.
+Methodologically, it should be noted that the telecom companies provide their data on broadband availability on a voluntary basis until the revision of the Telecommunications Act on 1 December 2021. Furthermore, the figures for availability refer to the technology that telecom companies have installed, as opposed to the actually usable broadband capacity in the area. Additional information on broadband measurement can be found in the annual report of the Bundesnetzagentur, Germany’s federal networks agency.</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="inlineStr">
+        <is>
+          <t>17.6.1</t>
+        </is>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>45672</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>Foreign school graduates</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den Anteil ausländischer Schulabsolvierender in Prozent aller ausländischen Schulabgehenden und Schulabsolvierenden eines Jahrgangs. Als Absolvierende gelten hierbei Personen, die die allgemeinbildenden Schulen mit mindestens einem Hauptschulabschluss verlassen, während Abgehende diejenigen Personen meint, die die Schule ohne Schulabschluss verlassen.</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the proportion of foreign school graduates as a percentage of all foreign school leavers within a school year. In this case, the term “graduates” refers to people who leave general education schools with at least a secondary general school certificate.</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>Die Integration der in Deutschland lebenden Ausländerinnen und Ausländer ist eine wichtige Voraussetzung für den sozialen Zusammenhalt unserer Gesellschaft. Grundbedingung für eine erfolgreiche Integration ist eine ausreichende schulische Qualifizierung, die berufliche Ausbildungs- und Erwerbsmöglichkeiten eröffnet. Ziel der Bundesregierung ist es daher, bis zum Jahr 2030 den Anteil ausländischer Schulabsolvierender zu erhöhen und den Anteil an die Quote deutscher Schulabsolvierender anzugleichen.</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="inlineStr">
+        <is>
+          <t>The integration of foreigners living in Germany is an important prerequisite for cohesion within our society. A basic prerequisite for successful integration is the acquisition of sufficient qualifications at school to open up further educational and employment opportunities later on. The goal of the Federal Government is therefore to increase the share of foreign school graduates who obtain at least a secondary general school certificate and to bring this share into line with the corresponding rate for German school graduates by 2030.</t>
+        </is>
+      </c>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>Datengrundlage des Indikators bilden die Schulstatistiken der einzelnen Bundesländer. Dabei handelt es sich in der Regel um Totalerhebungen mit Auskunftspflicht. Ihre Zusammenfassung zum Bundesergebnis erfolgt durch das Statistische Bundesamt auf Grundlage des von der Kultusministerkonferenz erstellten Definitionenkatalogs. Die Aggregation der Länderergebnisse zum Bundesergebnis wird beeinträchtigt durch die unterschiedliche Bildungspolitik der Länder, zum Beispiel bei Versetzungsregeln oder der Einrichtung von Bildungsgängen im Bereich der beruflichen Schulen. Dies kann auch durch formale Regelungen der jeweiligen Zuordnungen nur zum Teil kompensiert werden.
+Absolvierende sind Schülerinnen und Schüler, die die jeweilige Schulart mit Abschluss verlassen haben. Eingeschlossen werden Schülerinnen und Schüler, die zu einer anderen allgemeinbildenden Schulart gewechselt sind, um einen zusätzlichen Abschluss zu erwerben. Zudem gelten als Ausländerin oder Ausländer alle Personen, die nicht Deutsche im Sinne des Artikel 116 Absatz 1 Grundgesetz (GG) sind, das heißt die deutsche Staatsangehörigkeit nicht besitzen. Dazu zählen auch Staatenlose und Personen mit ungeklärter Staatsangehörigkeit. Deutsche, die zugleich eine weitere Staatsangehörigkeit besitzen, zählen nicht zur ausländischen Bevölkerung.
+Im Jahr 2021 lag der Anteil der ausländischen Schulabsolvierenden, gemessen an allen ausländischen Schulabgehenden und Schulabsolvierenden, bei 84,3 %. Damit hat sich der Anteil gegenüber dem Vorjahreswert verschlechtert. Betrachtet man die geschlechtsspezifischen Anteile, so lag der Anteil der ausländischen Absolventinnen bei 87,4 %, während der Anteil der Absolventen mit 81,6 % geringer ausfiel. Der Anteil deutscher Schulabsolvierender lag zuletzt bei 94,9 % und ist somit annähernd stabil. Der Abstand zwischen dem Anteil ausländischer gegenüber dem deutscher Schulabsolvierender war in 2013 mit 6,1 Prozentpunkten auf dem bislang niedrigsten Stand, hat sich aber in Anschluss an die Flüchtlingskrise 2015/2016 wieder deutlich erhöht und ist sogar auf über den Wert von vor 20 Jahren angestiegen (11,9 Prozentpunkte in 1996 und 13,0 Prozentpunkte in 2017). Nachdem sich der Abstand in 2020 wieder verringert hat, lag er zuletzt bei 10,6 Prozentpunkten in 2021.
+Das Ziel, den Anteil ausländischer Schulabsolvierender, die mindestens einen Hauptschulabschluss erreichen, zu erhöhen, wurde in 2021 also ebenso verfehlt wie das Ziel, den Anteil an die Quote deutscher Schulabsolvierender anzugleichen.
+Betrachtet man neben den reinen Anteilen auch die Niveaus der erreichten Abschlüsse, so lässt sich feststellen, dass 30,7 % der ausländischen Schulabsolvierenden allgemeinbildender Schulen des Jahrgangs 2021 einen Hauptschulabschluss erwarben, 39,9 % beendeten die Schule mit einem mittleren Abschluss und 13,7 % erreichten die Fachhochschulreife oder die allgemeine Hochschulreife. Bei den deutschen Schulabsolvierenden erwarben 14,3 % einen Hauptschulabschluss, 43,9 % einen mittleren Abschluss und 36,7 % die Fachhochschulreife oder die allgemeine Hochschulreife. Insbesondere bei den höheren Bildungsabschlüssen sind demnach die ausländischen Jugendlichen im Vergleich zu den deutschen deutlich unterrepräsentiert.</t>
+        </is>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>The school statistics, compiled by the individual Länder, form the data basis for this indicator. These statistics are generally derived from a complete count with an obligation to provide information. The Federal Statistical Office combines them to create a federal result based on the catalogue of definitions compiled by the Standing Conference of the Ministers of Education. The aggregation of the Länder results into the federal result is influenced by the different education policies of the Länder, for example, with regard to admission rules, in setting up courses of education in the area of vocational schools. This can only be partially offset by formal regulations for the respective allocations.
+Graduates are pupils who have left the respective type of school with a school certificate. Included are pupils who have changed to another type of general education school in order to obtain an additional certificate. Furthermore, foreigners are defined as all persons who are not German within the meaning of Article 116 (1) of the Basic Law, i.e. who do not hold the German citizenship. This also includes persons who are stateless and persons with undetermined citizenship. Germans who also hold another citizenship are not included in the foreign population.
+In 2021, the proportion of all foreign school leavers who obtained at least a lower secondary school leaving certificate was 84.3 %. This represents a decrease compared with the previous year. If one splits the figures by gender, female foreign school leavers graduated at a rate of 87.4 %, while the proportion was lower among their male counterparts, at 81.6 %. The proportion of German school leavers obtaining at least a lower secondary school leaving certificate has remained fairly stable, most recently recorded as 94.9 %. The gap between the share of foreign and German pupils graduating from school was at 6.1 percentage points on the lowest level in 2013, however, the migration of refugees in 2015/2016 caused a significant increase and even exceeded the value 20 years ago (11.9 percentage points in 1996 and 13.0 percentage points in 2017). After a decline in 2020, the gap increased to 10.6 percentage points in 2021.
+Both, the target to increase the share of foreign school leavers with at least a secondary general school certificate and to reduce the gap between German and foreign pupils graduating from school, were missed in 2021.
+To break the figures down by types of certificate obtained, 30.7 % of foreign pupils who graduated from general schools achieved a lower secondary school leaving certificate in 2021, while 39.9 % completed their schooling with an intermediate secondary school leaving certificate and 13.7 % gained university-entrance qualifications. Among German school graduates, 14.3 % received a lower secondary school leaving certificate, 43.9 % gained an intermediate secondary school leaving certificate and 36.7 % earned university-entrance qualifications. This leaves young foreigners considerably under-represented in comparison to Germans, especially when it comes to the higher-level school leaving certificates.</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>45601</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B02_P01</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>Gini coefficient of income after social transfers</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt die Verteilung des verfügbaren Äquivalenzeinkommens mittels Gini-Koeffizienten dar.</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the distribution of equivalised disposable income per person using Gini coefficients.</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>Ungleichheit in der Einkommens- und Vermögensverteilung ist ein grundsätzlich akzeptierter Bestandteil einer dynamischen Marktwirtschaft. Allerdings muss die Einkommens- und Vermögensspreizung moderat und die soziale Teilhabe aller gewährleistet bleiben. Durch entsprechende Rahmenbedingungen sowie zielgerichtete Umverteilung von Einkommen mittels Steuern und Sozialleistungen soll erreicht werden, dass der Gini-Koeffizient des verfügbaren Äquivalenzeinkommens bis 2030 unterhalb des EU-Wertes liegt.</t>
+        </is>
+      </c>
+      <c r="I39" s="5" t="inlineStr">
+        <is>
+          <t>Inequality in income and wealth distribution is a generally accepted component of a dynamic market economy. However, the income and wealth gap must remain moderate and social inclusion be guaranteed for all. The goal is to keep the Gini coefficient of equivalised disposable income below the EU average until 2030 by means of suitable framework conditions as well as a targeted re-distribution of income through taxes and social benefits.</t>
+        </is>
+      </c>
+      <c r="J39" s="5" t="inlineStr">
+        <is>
+          <t>Der Gini-Koeffizient ist ein Maß der relativen Ungleichheit und kann einen Wert zwischen null und eins annehmen. Im Falle der Gleichverteilung ergibt sich für den Gini-Koeffizienten ein Wert von null und im Falle der Konzentration des gesamten Einkommens auf nur eine Person ein Wert von eins. Ein Gini-Koeffizient von eins gibt somit die Situation bei maximaler Ungleichverteilung an. Je kleiner der Gini-Koeffizient, umso gleichmäßiger ist das Einkommen verteilt.
+Das Äquivalenzeinkommen ist ein bedarfsgewichtetes Einkommen und somit ein Wert, der sich aus dem Gesamteinkommen eines Haushalts und der Anzahl und dem Alter der in diesem Haushalt lebenden Personen ergibt. Mithilfe einer Äquivalenzskala werden die Einkommen nach Haushaltsgröße und -zusammensetzung gewichtet. Dadurch werden die Einkommen von Personen, die in unterschiedlich großen Haushalten leben, vergleichbar, da in größeren Haushalten Einspareffekte (Economies of Scale) auftreten (zum Beispiel durch gemeinsame Nutzung von Wohnraum oder Haushaltsgeräten). Das verfügbare Äquivalenzeinkommen ist das Gesamteinkommen (einschließlich Sozialtransfers) eines Haushalts nach Steuern und anderen Abzügen und somit das Einkommen, das für Ausgaben und Sparen zur Verfügung steht. Abzugrenzen davon ist das Äquivalenzeinkommen vor Sozialleistungen, bei dem das verfügbare Einkommen ohne eventuelle Sozialtransfers (zum Beispiel Arbeitslosengeld oder Wohnbeihilfe) betrachtet wird, sowie das Markteinkommen, das sich vor Steuern, Sozialabgaben und Sozialleistungen errechnet. Bei allen betrachteten Einkommen wird nicht unterschieden, welche Quellen zur Einkommenserzielung dienen (zum Beispiel  Arbeitslohn, Mieteinkünfte oder Kapitalerträge).
+Die Daten zum Äquivalenzeinkommen stammen aus der europaweit harmonisierten jährlichen Statistik über Einkommen und Lebensbedingungen (EU-SILC), die im Erhebungsjahr 2020 aufgrund der zunehmenden Anforderungen an die Daten hinsichtlich der Aktualität und Bereitstellung tiefer regionaler Ergebnisse mit weitreichenden methodischen Änderungen in den Mikrozensus integriert wurde. Dadurch sind die Ergebnisse ab 2020 nicht mit denen der vorherigen Erhebungsjahre vergleichbar. Der Gini-Koeffizient des Markteinkommens wird nicht aus EU-SILC berechnet, sodass hierfür auf die Angaben aus dem Sozio-oekonomischen Panel (SOEP) des Deutschen Instituts für Wirtschaftsforschung (DIW) zurückgegriffen wird. Bei den erhobenen Daten wird methodisch kompensiert (und das macht sie international vergleichbar), dass Haushalte mit hohem Einkommen bzw. großem Vermögen in freiwilligen Stichprobenerhebungen häufig unterrepräsentiert sind.
+Wie in den vergangenen Jahren entsprach der Gini-Koeffizient des verfügbaren Äquivalenzeinkommens für Deutschland (2021: 0,309) nahezu dem Wert für die Europäische Union (EU) (2021: 0,301), das heißt, es gab nur geringe Unterschiede in der Einkommensverteilung zwischen Deutschland und der EU. Dennoch lag auch im Jahr 2021 der Gini-Koeffizient des verfügbaren Äquivalenzeinkommens oberhalb des entsprechenden Wertes der EU, sodass das Ziel der Bundesregierung nicht erfüllt wurde. Der Gini-Koeffizient des verfügbaren Äquivalenzeinkommens lag klar unter dem Gini-Koeffizienten des Äquivalenzeinkommens vor Sozialleistungen (0,309 zu 0,376). Erwartungsgemäß lag der Gini-Koeffizient des Markteinkommens deutlich höher (0,497 in 2019), was bestätigt, dass Sozialleistungen, -versicherungen und Steuern in Deutschland erheblich zum Abbau von Ungleichheiten beim verfügbaren Einkommen beitragen.
+Betrachtet man dagegen den Gini-Koeffizienten des Vermögens in Deutschland, der aus dem „Household Finance and Consumption Survey“ (HFCS) stammt, der unregelmäßig von der Europäischen Zentralbank (EZB) durchgeführt wird, zeigt sich eine deutlich ungleichmäßigere Verteilung. Im Jahr 2017 lag der entsprechende Gini-Koeffizient bei 0,739 und damit weit über den Werten zur Einkommensverteilung. Im Jahr 2017 lag der Wert für die Eurozone bei 0,695 und somit niedriger al</t>
+        </is>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>The Gini coefficient is a statistical measure of income inequality. It has a value between 0 and 1. The value 0 means that every person has exactly the same income whereas the value 1 indicates that only one person receives all the income, thereby representing a situation of maximum income inequality. Hence, the smaller the Gini-coefficient, the more evenly is the income distributed.
+The equivalised income is a value derived from the total income of a household and the number and age of the people living from this income. With the help of an equivalence scale, the incomes are weighted according to household size and composition, as the shared use of living space and household appliances results in savings (Economies of Scale). With the equivalised income then allocated equally to each household member, it becomes possible to compare people’s incomes independently of age or household size. A household’s equivalised disposable income is the income, including social transfers, which remains after taxes and other deductions, and is therefore the income available for spending and saving. A distinction must be made between this measure and equivalised income before social transfers, which looks at disposable income without any possible welfare payments, such as unemployment benefit or housing assistance, or market income, which is calculated before taxes, social contributions and social benefits. In none of these ways of looking at income is a differentiation made between the sources of income, i.e. whether it takes the form of wages, rental income or capital gains.
+The data used to calculate equivalised income come from the annual harmonised European statistics on income and living conditions (EU SILC) and are incorporated with extensive methodological changes into the microcensus due to increasing requirements on data with respect to actuality and provision of more detailed regional results in survey year 2020. Thus, the results from 2020 on are not comparable with previous years. Since EU-SILC is not yet drawn upon to calculate a Gini coefficient for market income, data from the German Socio-Economic Panel (SOEP) of the German Institute for Economic Research are used for this purpose. The fact that households with high income and extensive assets are under-represented in voluntary sample surveys is methodologically compensated for.
+As in previous years, the Gini coefficient of the equivalised disposable income for Germany (2021: 0.309) almost equals that for the European Union (2021: 0.301). Thus, there are no significant differences in income distribution between Germany and Europe. In 2021, the Gini-coefficient of equivalised disposable income was above the respective value of the EU, such that the target of the Federal Government was missed. Furthermore, the Gini coefficient of the equivalised disposable income is well below the Gini coefficient of the equivalised disposable income before social benefits without pensions (0.309 as compared with 0.376). As expected, the Gini coefficient of market income was even higher at 0.497 (2019). In Germany, social benefits, social insurance and taxes thus contribute considerably to reducing inequalities in disposable income.
+The wealth distribution figures for Germany are taken from the Household Finance and Consumption Survey (HFCS) conducted on an irregular basis by the European Central Bank and show a clear uneven distribution. Turning to the corresponding Gini coefficient (2017: 0.739), wealth in Germany is much less evenly distributed than income. The gap to the respective European value (Eurozone 2017: 0.695) is substantial and the European value is lower than the value for Germany. However, the impression of there being a disproportionately high wealth inequality is qualified by several factors not covered by the Gini coefficient. For instance, the evaluation of wealth does not take into account future pension entitlements. In addition, due to the stricter protection of tenant</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>10.2.1</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>10.4.2</t>
+        </is>
+      </c>
+      <c r="N39" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>11.1.a</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>Expansion of settlement and transport area</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den durchschnittlichen täglichen Anstieg der Siedlungs- und Verkehrsfläche in Hektar pro Tag.</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the average daily expansion of the area used for settlement and transport infrastructure in hectares per day.</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>Fläche ist eine begrenzte Ressource. Um ihre Nutzung konkurrieren beispielsweise Land- und Forstwirtschaft, Siedlung und Verkehr, Naturschutz, Rohstoffabbau und Energieerzeugung. Die Inanspruchnahme zusätzlicher Flächen für Siedlungs- und Verkehrszwecke soll bis zum Jahr 2030 auf durchschnittlich unter 30 Hektar pro Tag begrenzt werden. Bis zum Jahr 2050 wird eine Flächenkreislaufwirtschaft angestrebt. Das heißt, es sollen netto keine weiteren Flächen für Siedlungs- und Verkehrszwecke beansprucht werden.</t>
+        </is>
+      </c>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
+          <t>Land is a limited resource. It is subject to competition from various interests, including agriculture and forestry, settlement and transport, nature conservation, resource extraction and energy generation. The development of additional land for settlement and transport purposes is to be limited to an average of less than 30 hectares per day by 2030. The goal is to establish a closed-loop land-use regime by 2050, meaning that, in net terms, no additional area will be developed for the purposes of settlement or transport.</t>
+        </is>
+      </c>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>Siedlungs- und Verkehrsfläche ist nicht gleichzusetzen mit versiegelter Fläche. Zur Siedlungsfläche zählen die Nutzungsarten Wohnbaufläche, Industrie- und Gewerbefläche, öffentliche Einrichtungen sowie Erholungsfläche und Friedhöfe. Unter die Siedlungsfläche fallen auch die Flächen für Bergbaubetrieb und Tagebau (sogenanntes Abbauland). Diese werden für die Berechnung dieses Indikators jedoch nicht mit einbezogen, da sie langfristig betrachtet wieder einer anderen Nutzung (zum Beispiel als Bergbaufolgelandschaft) zugeführt werden. Die Verkehrsfläche setzt sich aus den vier Unterarten Straßen- und Wegeverkehr, Bahn-, Flug- und Schiffsverkehr zusammen. Dementsprechend bezieht sich der Indikator nicht allein auf die versiegelte Fläche, sondern erfasst auch unbebaute und nicht versiegelte Flächen. Dazu gehören beispielsweise auch Hausgärten, Parks und Grünanlagen. Nach Berechnungen der Umweltökonomischen Gesamtrechnungen der Länder wird der Versiegelungsanteil der Siedlungs- und Verkehrsfläche im Länderdurchschnitt auf 45 % geschätzt (2020).
+Der Indikator geht aus der Flächenerhebung nach Art der tatsächlichen Nutzung (kurz: amtliche Flächenstatistik) hervor, die wiederum auf den Daten des amtlichen Liegenschaftskatasters der Länder beruht. Im Liegenschaftskataster ist es in den vergangenen Jahren teilweise zur Neuzuordnung von Flächen gekommen, denen keine realen Nutzungsänderungen zugrunde lagen. Um den hieraus resultierenden Effekt auszugleichen, wird ein gleitender Vierjahresdurchschnitt abgebildet, der sich aus dem aktuellen Berichtsjahr und den drei vorangegangenen Jahren errechnet. Zudem wurde im Jahr 2016 die Umstellung vom alten auf den neuen Nutzungsartenkatalog vollendet, was sich auch auf die amtliche Flächenstatistik auswirkte, sodass die Vergleichbarkeit der Daten von 2016 mit den Vorjahren eingeschränkt ist. Aus diesem Grund entfällt für den Indikatorwert in 2016 auch eine Unterteilung in die einzelnen Nutzungsartengruppen innerhalb der Siedlungs- und Verkehrsfläche.
+Im Zeitraum von 2000 bis 2020 wurden 6 257 Quadratkilometer in Siedlungs- und Verkehrsfläche umgewandelt. Dies entspricht mehr als der doppelten Fläche des Saarlandes. Den Großteil machte dabei mit 85 % die Umwandlung in Siedlungsfläche aus, während die Verkehrsfläche 15 % der umgewandelten Fläche in Anspruch nahm.
+Der gleitende Vierjahresdurchschnitt für neu in Anspruch genommene Flächen für Siedlungs- und Verkehrszwecke ist seit Beginn der Zeitreihe bis zum Jahr 2019 kontinuierlich gesunken. In diesem Jahr lag der gleitende Vierjahresdurchschnitt bei 52 Hektar pro Tag und stieg im Jahr 2020 auf 54 Hektar pro Tag an. Auch bei der Betrachtung der einzelnen Berichtsjahre nahm die neu in Anspruch genommene Fläche für Siedlungs- und Verkehrszwecke im Jahr 2019 mit 45 Hektar pro Tag den niedrigsten Wert an. Seitdem ist dieser Wert wieder angestiegen, auf 58 Hektar pro Tag im Jahr 2020.
+Im Jahr 2020 betrug die Siedlungs- und Verkehrsfläche insgesamt 50 196 Quadratkilometer und machte damit 14 % der gesamten Fläche Deutschlands aus. Die größten Flächenarten in Deutschland sind mit 180 934 Quadratkilometern die Landwirtschaftsfläche (51 %), gefolgt von der Waldfläche mit 106 666 Quadratkilometern (30 %). Zwischen 2016 und 2020 erhöhte sich die Siedlungs- und Verkehrsfläche um 942 Quadratkilometer. Im gleichen Zeitraum verringerte sich die Landwirtschaftsfläche um 1 703 Quadratkilometer, während sich die Waldfläche um 496 Quadratkilometer erhöhte. Somit ist davon auszugehen, dass der Anstieg der Siedlungs- und Verkehrsfläche im Wesentlichen zulasten von Landwirtschaftsflächen erfolgte.</t>
+        </is>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>Settlement and transport area should not be equated with sealed land. Settlement land includes areas used for residential building, industry and commerce, public facilities, recreational amenities or cemeteries. It also covers land used for surface or sub-surface mining. However, mining land is not counted in the calculations for this indicator, as it ends up being reclaimed for other uses in the long term (e.g. as renaturalised post-mining landscapes). Transport area is made up of four subcategories: road transport, rail, aviation and shipping. The indicator therefore refers not only to sealed areas but also to undeveloped and unsealed land. These include, for example, domestic gardens, parks and other green spaces. As calculated in the environmental economic accounts compiled by the Länder, the sealed share of their settlement and transport area is estimated at 45 % on average (2020).
+The indicator is derived from the area survey by type of actual use (official land-use statistics), which in turn is based on data from the official land register maintained by the Länder. Some areas of land have been reclassified in the official land register in recent years without any actual change in the way they are used. To balance out the effect this has on the statistics for any particular year, a four-year moving average is also shown, averaging out the year in question and the three preceding years. Moreover, the switch from the old to the new land-use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. It is for this reason that the overall indicator value for 2016 is also not subdivided into types of settlement or transport use.
+From 2000 to 2020, 6,257 km² of land was converted into settlement and transport area. This is equivalent to more than twice the area of Saarland. The majority, 85 %, was converted into settlement land, while 15 % went to accommodate transport infrastructure.
+The four-year moving average of previously undeveloped areas newly converted to settlement or transport area continuously decreased throughout the time series until 2019. This year, the four-year moving average was at 52 hectares per day and increased to 54 hectares per day in 2020. Considered for each reporting year separately, the value for new settlement or transport area was lowest in 2019, at 45 hectares per day. The figure has risen again since then, to 58 hectares per day in 2020.
+In 2020, the area of settlement or transport use amounted to 50,196 km², or 14 % of the total area of Germany. The largest land types in Germany are agricultural land at 180,934 km² (51 %) followed by woodland at 106,666 km² (30 %). Settlement and transport area grew by 942 km² between 2016 and 2020. Agricultural land shrank by 1,703 km² during the same period, while woodland grew by 496 km². It can therefore be assumed that the increase in settlement and transport area was primarily at the expense of agricultural land.</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>11.3.1</t>
+        </is>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N40" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>11.1.b</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Freiraumverlust</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>Loss of open space area</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt als gleitender Vierjahresdurchschnitt die jährliche Veränderung der Freiraumfläche in Quadratmetern je Einwohnerin und Einwohner dar.</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>The indicator represents the annual change in the per capita open space area in square metres as a four-year moving average.</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>Freiraumflächen sollen für die land- und forstwirtschaftliche Nutzung, als Kultur- und Naturlandschaften sowie als Erholungsräume erhalten bleiben. Daher soll der Rückgang der Freiraumflächen je Einwohnerin und Einwohner reduziert werden. Vermindert sich der Freiraumverlust, so gibt das Hinweise auf einen Erfolg von Maßnahmen, die die Innenentwicklung stärken und so Agrar-, Wald- und Gewässerflächen für die Land- und Forstwirtschaft, den Naturschutz sowie für die Erholung der Bevölkerung schonen.</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>Open space areas should be preserved for agricultural and forestry use, as cultural and natural landscapes as well as recreation areas. For this reason, the decline in the per capita open space area should be reduced. A reduction in the loss of open space area indicates the success of measures to strengthen inner development and thereby conserve agricultural, wooded and water areas for agriculture and forestry, nature conservation and recreational use by the population.</t>
+        </is>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>Als Freiraumflächen werden Vegetationsflächen (zum Beispiel Ackerland, Weideland oder Waldflächen), sowie Abbauflächen und Wasserflächen bezeichnet. Freiraumflächen sind begrifflich abzugrenzen von Freiflächen im Siedlungsbereich, wie beispielsweise Friedhöfen, Gärten, Parks oder Freizeitanlagen, die zwar weitestgehend unbebaut sind, aber prinzipiell zur Siedlungs- und Verkehrsfläche zählen. Werden also bisher von Bebauung freigehaltene Siedlungsflächen bebaut, spiegelt sich dies weder in diesem Indikator 11.1.b zum „Freiraumverlust“ noch im Indikator 11.1.a „Anstieg der Siedlungs- und Verkehrsfläche“ wider.
+Im betrachteten Zeitraum verringerte sich der Freiraumverlust pro Kopf im Bundesdurchschnitt. Waren es im gleitenden Vierjahresmittel 2001 bis 2004 noch etwa 5 Quadratmeter je Einwohnerin und Einwohner, so sind es im aktuellen Vierjahresmittel 2017 bis 2020 nur noch rund 3 Quadratmeter.
+Bei gleicher Tendenz zeigen sich zwischen ländlichen und nicht ländlichen Räumen deutliche Unterschiede im Ausmaß der Veränderung. So reduzierte sich der Freiraumverlust in ländlichen Räumen je Einwohnerin und Einwohner von 7,4 auf 4,5 Quadratmeter pro Jahr. In den nicht ländlichen Räumen ging er von 1,8 auf 0,7 Quadratmeter zurück. Hierbei ist zu berücksichtigen, dass es in nicht ländlichen Kreisen und kreisfreien Städten erheblich weniger Freiraumflächen wie Wälder oder Landwirtschaftsflächen gibt als in ländlichen Räumen. Zudem verläuft die Bevölkerungsentwicklung unterschiedlich und wirkt sich entsprechend auf den Indikator aus: Während ländliche Regionen im betrachteten Zeitraum überwiegend einen Rückgang der Bevölkerung verzeichneten, stieg die Einwohnerzahl in nicht ländlichen Regionen insgesamt etwas an.
+Datengrundlagen des Indikators sind die Bevölkerungszahlen und die Flächenerhebung nach Art der tatsächlichen Nutzung des Statistischen Bundesamtes. Da zu seiner Berechnung Bevölkerungsdaten auf regionaler Ebene herangezogen werden, gab es durch den Zensus 2011 einen Sprung in den Zeitreihen. Daneben kam es im amtlichen Liegenschaftskataster der Länder in den vergangenen Jahren teilweise zur Neuzuordnung von Flächennutzungen ohne reale Änderung in der Landschaft. Um diese Effekte zu glätten und den langfristigen Trend herauszustellen, wird ein gleitender Vierjahresdurchschnitt abgebildet, der die Daten der jeweiligen Jahre und der drei vorangegangenen Jahre mittelt. Zudem wurde im Jahr 2016 die Umstellung des alten auf den neuen Nutzungsartenkatalog vollendet, was sich auch auf die amtliche Flächenstatistik auswirkte, sodass die Vergleichbarkeit der Daten von 2016 mit den Vorjahren eingeschränkt ist. Aus diesem Grund ist die Entwicklung des Indikators für das Jahr 2016 in der Grafik nur in gestrichelter Form abgebildet.
+Die Unterscheidung zwischen „ländlich“ und „nicht ländlich“ basiert auf einer Typisierung des Thünen-Instituts. Das Institut ordnet Landkreisen und kreisfreien Städten – auf Basis von räumlichen Merkmalen wie „Siedlungsdichte“ und „Anteil land- und forstwirtschaftlicher Fläche“ – einen Grad an „Ländlichkeit“ zu. Somit bezieht sich diese Typisierung auf die Kreisebene und nicht auf kleinere räumliche Einheiten wie Städte und Dörfer.</t>
+        </is>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>Open space area includes areas of vegetation, such as arable land, pasture and woodland, as well as mining land and bodies of water. A distinction is made between open space proper and open areas within settlement zones, such as cemeteries, gardens, parks and recreational amenities, which, although largely undeveloped, are generally considered part of settlement and transport area. As a result, if previously undeveloped parts of settlement land are built on, this is neither reflected in this indicator 11.1.b “Loss of open space area” nor in the indicator 11.1.a “Expansion of settlement and transport area”.
+In the period under review, the national average for per capita loss of open space area went down. Whereas the four-year moving average for 2001-2004 was still around 5 m2 per capita, the current four-year moving average for 2017-2020 reveals a figure of just 3 m2.
+Although subject to a similar trend, significant differences can be observed between rural and non-rural areas in terms of the degree of change. The loss of per capita open space area per inhabitant in rural areas contracted from 7.4 to 4.5 m2 per year. In non-rural areas, it fell from 1.8 m2 to 0.7 m2. In this context, it important to remember that non-rural districts and district-free cities have much less open space, such as forest or farmland, than rural areas do. Demographic trends also differ, and the indicator reflects those disparities, with rural areas mostly seeing their populations shrink during the period under review, while population numbers in non-rural areas rose slightly overall.
+The data sources for the indicator are the population figures and the area survey by type of actual use compiled by the Federal Statistical Office. Since population data at regional level are used for the associated calculations, the 2011 census caused a jump in the time series. Moreover, some areas of land have been reclassified in the official land register maintained by the Länder in recent years, without any actual change to the landscape. To smooth out these effects and depict the long-term trend, a four-year moving average is shown, averaging out the figures for each year with those for the three preceding years. Additionally, the switch from the old to the new land use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. This is why the development of the indicator for 2016 is only shown as a broken outline in the graph.
+The distinction between rural and non-rural is based on a classification used by the Thünen Institute. The institute ascribes a degree of rurality to districts and district-free cities on the basis of geographical characteristics such as settlement density and share of farmland and woodland. The classification is thus applied to whole districts rather than to smaller entities like towns or villages.</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>11.3.1</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N41" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01_Ib03</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>11.1.c</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Siedlungsdichte</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Density of settlements</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Entwicklung der Bevölkerung je Quadratkilometer Siedlungs- und Verkehrsfläche im Vergleich zum Basisjahr 2000.</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>Taking 2000 as a base year, the indicator shows the development of population numbers per square kilometre of settlement or transport area.</t>
+        </is>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator „Siedlungsdichte“ gibt Hinweise auf die Effizienz der Siedlungsflächennutzung. Ziel der Bundesregierung ist es, durch flächensparende Maßnahmen beim Neubau und bei der Innenentwicklung, wie der Reduzierung von Wohnungs- und Gewerbeleerstand sowie Nachverdichtungen und Erhöhung der Baudichte, der Verringerung der Siedlungsdichte entgegenzuwirken.</t>
+        </is>
+      </c>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>The density of settlements indicator provides information about the efficiency of settlement land use. The goal of the Federal Government is to counteract the reduction in settlement density by implementing space-saving measures for all new construction, brownfield development, reduction of residential and commercial vacancy, and densification or dedensification of built-up areas.</t>
+        </is>
+      </c>
+      <c r="J42" s="5" t="inlineStr">
+        <is>
+          <t>Bei der Siedlungsdichte wird die Einwohnerzahl ins Verhältnis zur Siedlungs- und Verkehrsfläche gesetzt, im Gegensatz zur Bevölkerungsdichte, wo die Gesamtfläche die Bezugsgröße ist.
+Zur Siedlungsfläche zählen dabei neben Wohnbauflächen auch Flächen besonderer funktionaler Prägung (zum Beispiel Krankenhäuser oder Schulen), Industrie- und Gewerbeflächen, Flächen mit gemischter Nutzung (zum Beispiel an Einkaufsstraßen) sowie Sport-, Freizeit- und Erholungsflächen. Sowohl Veränderungen der Einwohnerzahl als auch Veränderungen bei der Ausdehnung der Siedlungs- und Verkehrsflächen haben Einfluss auf den Wert der Siedlungsdichte.
+Die Siedlungsdichte unterscheidet sich zwischen ländlichem und nicht ländlichem Raum erheblich: Auf einem Quadratkilometer Siedlungs- und Verkehrsfläche leben in nicht ländlichen Kreistypen durchschnittlich 3 337 Menschen, in ländlichen rund 1 197 (Stand: 2020). In Städten werden dabei die Wohnbauflächen oft wesentlich dichter und auch mehrstöckiger bebaut als in ländlichen Regionen, wo eine lockerere Bebauung mit größeren, unversiegelten Flächenanteilen, wie zum Beispiel Hausgärten, vorherrscht.
+Von 2000 bis 2009 nahm die Siedlungsdichte sowohl in ländlichen als auch in nicht ländlichen Regionen kontinuierlich ab. Dabei war in nicht ländlichen Regionen der absolute Rückgang etwas geringer als in den ländlichen Regionen. Bedingt durch die deutlich geringere Siedlungsdichte in den ländlichen Regionen fiel der Rückgang dort relativ betrachtet mit 11 % stärker aus als in den nicht ländlichen Regionen mit 4 %. In den nicht ländlichen Räumen ist die Siedlungsdichte seit dem Jahr 2011 wieder angestiegen. Somit werden die Siedlungs- und Verkehrsflächen in eher städtisch geprägten Räumen wieder effizienter genutzt als in den Jahren zuvor.
+Werden die Entwicklungen der Einwohnerzahl und der Siedlungs- und Verkehrsfläche einzeln betrachtet, so zeigen sich deutliche Unterschiede zwischen ländlichen und nicht ländlichen Regionen. Zwischen 2000 und 2020 stieg die Siedlungs- und Verkehrsfläche sowohl in ländlichen als auch in nicht ländlichen Regionen an, allerdings mit 15,9 bzw. 8,8 % in unterschiedlichem Umfang. Nachdem die Bevölkerungszahl in den ländlichen Regionen Anfang des Jahrtausends noch leicht anstieg, verringerte sie sich danach bis 2012 um rund 2,6 %, um dann bis 2020 wieder um 2,1 % zu steigen. In den nicht ländlichen Regionen hingegen stieg die Einwohnerzahl sowohl zwischen 2000 und 2010 (um 1,7 %) als auch zwischen 2011 und 2020 (um 5,6 %) an. Die Auswirkungen der Inanspruchnahme zusätzlicher Siedlungs- und Verkehrsflächen wurden deshalb in ländlichen Regionen durch den Rückgang der Bevölkerungszahl verstärkt.
+Datengrundlagen des Indikators sind die Bevölkerungszahlen und die Flächenerhebung nach Art der tatsächlichen Nutzung des Statistischen Bundesamtes. Bei den Bevölkerungsdaten ergab sich durch den Zensus 2011 ein Sprung in den Zeitreihen. Daneben kam es im amtlichen Liegenschaftskataster der Länder in den vergangenen Jahren teilweise zur Neuzuordnung von Flächennutzungen, denen keine realen Nutzungsänderungen zugrunde lagen. Zudem wurde im Jahr 2016 die Umstellung des alten auf den neuen Nutzungsartenkatalog vollendet, was sich auch auf die amtliche Flächenstatistik auswirkte, sodass die Vergleichbarkeit der Daten von 2016 mit den Vorjahren eingeschränkt ist. Um die Daten dennoch vergleichen zu können, wurden die jeweiligen Werte ausgehend vom Zensus 2011 und der Veränderung der Flächenerhebung im Jahr 2016 zurückgerechnet.
+Die Unterscheidung zwischen „ländlich“ und „nicht ländlich“ basiert auf einer Typisierung des Thünen-Instituts. Das Institut ordnet Landkreisen und kreisfreien Städten – auf Basis von räumlichen Merkmalen wie „Siedlungsdichte“, „Anteil land- und forstwirtschaftlicher Fläche“ und der Erreichbarkeit großer Zentren – einen Grad an „Ländlichkeit“ zu. Somit bezieht sich diese Typisierung auf die Kreisebene und nicht auf kleinere räumliche Einheiten wie Städte und Dörfer. Nach dies</t>
+        </is>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>Settlement density looks at the number of inhabitants in relation to the amount of settlement and transport area – in contrast to population density, which is based on the entire land area.
+Apart from residential building land, settlement land includes areas of special functional character (such as hospitals and schools), industrial and commercial land, mixed-use land (such as shopping streets), and areas for sports, leisure and recreation. Changes in the number of inhabitants and changes in the extent of settlement and transport area both affect figures for the density of settlements.
+Settlement density varies considerably between rural and non-rural areas, with the figures for 2020 showing an average of 3,337 people per square kilometre of settlement and transport area in non-rural districts but around 1,197 in rural districts. Residential building land in towns and cities is frequently much more densely developed, and with more multiple-floor buildings, than in rural regions, where more scattered development incorporating larger unsealed areas such as domestic gardens is prevalent.
+From 2000 to 2009, there was a steady decline in settlement density in both rural and nonrural regions. The reduction in absolute terms is slightly smaller in non-rural areas than in rural regions. In relative terms, given the distinctly lower settlement density in rural areas, the reduction was considerably greater there, at 11 %, than the 4 % reduction observed in non-rural areas. Settlement density in non-rural regions been rising again since 2011. This shows that settlement and transport area in relatively urban areas is being used more efficiently than in previous years.
+Looking at the trends in population numbers and settlement and transport area separately reveals marked differences between rural and non-rural regions. Between 2000 and 2020, the amount of settlement and transport area in both rural and non-rural regions increased, though to differing extents – by 15.9 % and 8.8 % respectively. After rising slightly at the beginning of the century, the rural population then shrank by approximately 2.6 % until 2012 before increasing again by 2.1 % by 2020. In contrast, the population in non-rural regions grew by 1.7 % between 2000 and 2010 and again, by 5.6 %, between 2011 and 2020. The effects that the development of additional settlement and transport area had on the indicator were therefore amplified in rural regions by the declining population numbers there.
+The data sources for this indicator are the population figures and the area survey by type of actual use compiled by the Federal Statistical Office. In the population numbers, the 2011 census caused a jump in the time series. Some areas of land have moreover been reclassified in the official land register maintained by the Länder in recent years, without any actual change in the way they are used. Additionally, the switch from the old to the new land-use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. So that comparisons can nevertheless be drawn, the relevant values were extrapolated on the basis of the 2011 census and the 2016 reform of the land-use survey.
+The distinction between rural and non-rural is based on a classification used by the Thünen Institute. The institute ascribes a degree of rurality to districts and district-free cities on the basis of geographical characteristics such as settlement density, share of farmland and woodland, and the accessibility of urban centres. The classification is thus applied to whole districts rather than to smaller entities like towns or villages. In 2020, 43 % and 57 % of the population lived in non-rural and rural areas by this definition, respectively.</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="inlineStr">
+        <is>
+          <t>11.3.1</t>
+        </is>
+      </c>
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N42" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>11.2.a</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieverbrauch im Güterverkehr</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>Final energy consumption in goods transport</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt die Entwicklung des Endenergieverbrauchs für den Transport von Gütern im Inland in der Binnenschifffahrt, im Eisenbahn- und im Straßengüterverkehr dar.</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
+        <is>
+          <t>Final energy consumption in goods transport represents the energy consumption for the carriage of goods within Germany via inland shipping, by rail and by road.</t>
+        </is>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>Der Verkehr bringt eine Reihe von Problemen mit sich. So beeinträchtigen etwa Lärm und Luftschadstoffe die Lebensqualität insbesondere in Städten und verkehrsbedingte Emissionen tragen zum Klimawandel bei. Der Ausstoß von schädlichen Treibhausgasen (THG) steht in engem Zusammenhang mit der im Verkehr verbrauchten Energie.
+Ziel ist es den Endenergieverbrauch im Güterverkehr bis zum Jahr 2030 um 15 bis 20 % gegenüber 2005 zu senken.</t>
+        </is>
+      </c>
+      <c r="I43" s="5" t="inlineStr">
+        <is>
+          <t>Transport creates a range of problems. For instance, noise and air pollution impair quality of life, especially in cities, and traffic-related emissions contribute to climate change. The emission of harmful greenhouse gases is closely linked to the energy consumed for transport purposes.
+The aim is to reduce final energy consumption in goods transport by 15 to 20 % by 2030 compared to 2005.</t>
+        </is>
+      </c>
+      <c r="J43" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten zum Endenergieverbrauch im Inland werden der Transport-Emission-Model (TREMOD-)Datenbank des Instituts für Energie- und Umweltforschung (ifeu) entnommen. TREMOD ist ein Modell zur Bewertung von Verkehrsemissionen. Die Daten enthalten die Treibstoffverbräuche innerhalb Deutschlands unabhängig vom Ort der Betankung. Als Endenergie wird der direkt im Verkehr genutzte Teil der Energie bezeichnet. Die Umwandlungsverluste während der Herstellung der Kraftstoffe sowie eventuelle Leitungsverluste bleiben hierbei unberücksichtigt.
+Die Beförderungsleistungen des Güterverkehrs zur Berechnung des spezifischen Energieverbrauchs in diesem Sektor stammen auch aus TREMOD. Dabei wird der Güterverkehr über den Luftweg nicht mit einbezogen, da er vergleichsweise sehr gering ist.
+Der Indikator zum Endenergieverbrauch im Güterverkehr bezieht sich definitionsgemäß auf den Verbrauch im Inland. Die Einflüsse der zunehmenden Auslandsverflechtung der deutschen Wirtschaft im Rahmen der Globalisierung werden nur unzureichend wiedergegeben.
+Neben dem Energieverbrauch wird ergänzend auch die Energieeffizienz dargestellt, also der Energieverbrauch je Tonnenkilometer. Die Anzahl der Tonnenkilometer gibt Aufschluss darüber, inwieweit sich die Verkehrsleistung, also die transportierte Menge in Tonnen je gefahrenen Kilometer, ändert.
+Der Endenergieverbrauch in der Güterbeförderung ist im Jahr 2020 gegenüber 2005 – entgegen dem angestrebten Ziel der Bundesregierung – um 1,8 % angestiegen. Er hat damit einen Anteil von 28,7 %&lt;sup&gt;1&lt;/sup&gt; am gesamten Endenergieverbrauch des Verkehrs erreicht. Der starke Anstieg ist vor allem dem Gütertransport auf der Straße zuzuschreiben. Der Endenergieverbrauch im Straßengüterverkehr hat in diesem Zeitraum um 3,8 % zugenommen, während bei der Bahn und der Binnenschifffahrt der Verbrauch deutlich reduziert wurde (–17,9 bzw. –32,7 %).
+Im gleichen Zeitraum hat sich die Güterbeförderungsleistung um 15,9 % erhöht. Bei vergleichbarem Energieverbrauch in den Jahren 2005 und 2020 konnte dadurch eine deutliche Effizienzsteigerung um 12,2 % in diesem Zeitraum erreicht werden.
+Während der Wirtschaftskrise von 2009 ist die preisbereinigte Bruttowertschöpfung im Verarbeitenden Gewerbe mit knapp 20 % besonders stark zurückgegangen. Dieser starke Einbruch wirkte sich insbesondere auf den Verkehrssektor aus, da dieser unmittelbar auf die Zu- und Abnahme der Warenproduktion reagiert. Die daraus resultierende geringere Auslastung der Transportkapazitäten erklärt den leichten Anstieg des durchschnittlichen Energieverbrauchs je Tonnenkilometer, obwohl der absolute Energieverbrauch insgesamt während der Krisenjahre stark zurückging.
+Nach der Krise hat sich die Transportbranche schnell wieder erholt und die Beförderungsleistung lag schon im Jahr 2010 45 Milliarden Tonnenkilometer über dem Wert von 2005. Im Jahr 2015 wurde das Vorkrisenniveau aus dem Jahr 2008 überschritten. Die Steigerung setzte sich mit 12 % bis zum Jahr 2019 gegenüber 2010 fort. Gleichzeitig stieg der Energieverbrauch jedoch nur um 4,3 %, was zu einer Effizienzsteigerung in diesem Zeitraum von 6,9 % führte. Im ersten Pandemiejahr zeigt sich eine Umkehr der Entwicklung. So reduzierte sich 2020 gegenüber 2019 der Energieverbrauch um 3,2 % und das Transportaufkommen um 4,3 %. Die Auswirkungen der Pandemie waren damit allerdings beim Gütertransport nicht so gravierend wie beim Personenverkehr (siehe Indikator 11.2.b). Der vergleichsweise geringere Rückgang des Energieverbrauchs führte zudem zu einer leichten Verschlechterung der Effizienz um 1,2 %.
+So kommt es am aktuellen Rand zwar bezüglich des Indikators an sich zu einer günstigen Entwicklung, zugleich nahm aber der Verbrauch je Tonnenkilometer zu.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Die Summe der Anteile von Güterverkehr (Indikator 11.2.a) und Personenverkehr (Indikator 11.2.b) am gesamten Endenergieverbrauch durch den Verkehr ergeben zusammen nicht 100 %. Diese Abweichung ist durch unterschiedliche Abgrenzungen der Energieverbrä</t>
+        </is>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>The data regarding domestic final energy consumption originates from the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. TREMOD is a model for evaluating transport emissions. The data record fuel consumption within Germany irrespective of where refuelling takes place. “Final energy” refers to that part of the total energy used that is directly consumed in transport. It does not cover the conversion losses that arise during the production of fuels or any pipeline losses that may occur.
+TREMOD also supplies the goods transport volumes which are used to calculate the specific energy consumption of this sector. Air freight transport is not included, as it accounts for negligibly small volumes.
+By definition, the indicator for final energy consumption in goods transport refers to consumption within Germany. It gives only an inadequate reflection of the German economy’s increasingly complex international ties in a globalised world.
+The energy-consumption data presented here is supplemented by energy efficiency, or energy consumed per tonne-kilometre. The number of tonne-kilometres provides information about the extent to which transport intensity or the distance per transported tonne changes.
+Contrary to the Federal Government’s target, final energy consumption for the carriage of goods was 1.8 % higher in 2020 compared with 2005. Goods thereby accounted for 28.7 %&lt;sup&gt;1&lt;/sup&gt; of total final energy consumption in the transport sector. The sharp increase can be attributed primarily to freight transport by road. Final energy consumption in road goods transport increased by 3.8 % during this period, while consumption for rail and inland shipping was significantly reduced (– 17.9 % and – 32.7 % respectively).
+During the same period, goods transport volumes increased by 15.9 %. In conjunction with comparable energy consumption in 2005 and 2020, this means a significant increase in efficiency of 12.2 % during that time.
+During the economic crisis of 2009, price-adjusted gross value added in the manufacturing industry suffered a particularly sharp decline of just under 20 %. This heavy loss particularly affected the transport sector, which reacts directly to increases and falls in the production of goods. The resultant decrease in the utilisation of transport capacity explains why average energy consumption per tonne-kilometre rose slightly despite the sharp fall in overall energy consumption in absolute terms during the crisis years.
+After the crisis, the transportation industry has recovered fastly and the transportation volume already increased in 2010 above the value in 2005 by 45 billion tonne-kilometres. The pre-crisis level from 2008 was exceeded in 2015. The development continued and increased by 12 % until 2019 compared to the value in 2010. Simultaneously, the energy consumption increased only slightly by 4.3 %, which caused an increase in efficiency by 6.9 % in this period. However, the development reversed during the first year of pandemic. In 2020, energy consumption and transportation volume reduced by 3.2 % and 4.3 %, respectively, compared to pre-pandemic level in 2019, whereby the pandemic affected goods transport not as severe as passenger transport (see indicator 11.2.b). Further, the comparably small decrease in energy consumption caused a slight deterioration in efficiency by 1.2 %.
+This is why the latest trend of the indicator presents a beneficial development, although the consumption per tonne-kilometre also increased.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;The sum of shares of goods transport (indicator 11.2.a) and passenger transport (indicator 11.2.b) in proportion to total final energy consumption in transport do not add up to 100 %. This discrepancy is caused by different definitions of energy consumption in passenger and goods transport (domestic consumption; source: TREMOD) and total final energy consumption in traffic (domestic sales; source: AG Energiebila</t>
+        </is>
+      </c>
+      <c r="L43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N43" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>11.2.b</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieverbrauch im Personenverkehr</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Final energy consumption in passenger transport</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt die Entwicklung des Endenergieverbrauchs durch die Beförderung von Personen mit der Bahn, im Luft- und Straßenverkehr (öffentlicher und Individualverkehr) im Inland dar.</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="inlineStr">
+        <is>
+          <t>Final energy consumption in passenger transport represents the energy consumption for the carriage of people within Germany by rail, by air and by road (public and private transport).</t>
+        </is>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>Der Verkehr bringt eine Reihe von Herausforderungen mit sich. So beeinträchtigen etwa Lärm und Luftschadstoffe die Lebensqualität insbesondere in Städten und verkehrsbedingte Emissionen tragen zum Klimawandel bei. Der Ausstoß von schädlichen Treibhausgasen (THG) steht im Zusammenhang mit der im Verkehr verbrauchten Energie.
+Ziel ist es, den Endenergieverbrauch im Personenverkehr bis zum Jahr 2030 um 15 bis 20 % zu senken.</t>
+        </is>
+      </c>
+      <c r="I44" s="5" t="inlineStr">
+        <is>
+          <t>Transport brings with it a range of challenges. For instance, noise and air pollution impair quality of life, especially in cities, and traffic-related emissions contribute to climate change. The emission of harmful greenhouse gases is linked to the energy consumed for transport purposes.
+The aim is to reduce final energy consumption in passenger transport by 15 to 20% by 2030.</t>
+        </is>
+      </c>
+      <c r="J44" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten zum Endenergieverbrauch im Inland werden der Transport-Emission-Model-(TREMOD-)Datenbank des Instituts für Energie- und Umweltforschung (ifeu) entnommen. TREMOD ist ein Modell zur Bewertung von Verkehrsemissionen. Die Daten enthalten die Kraftstoffverbräuche im Zusammenhang mit dem Personenverkehr innerhalb Deutschlands – unabhängig vom Ort der Betankung – nach dem Verbrauchskonzept. Endenergie bezeichnet dabei den direkt im Verkehr genutzten Teil der Energie, lässt also die Umwandlungsverluste während der Herstellung der Kraftstoffe sowie eventuelle Leitungsverluste unberücksichtigt.
+Die Personenbeförderungsleistung gibt die Anzahl der zurückgelegten Personenkilometer an. Sie wird zur Berechnung des spezifischen Energieverbrauchs in diesem Sektor verwendet und stammt auch aus TREMOD. Im Luftverkehr werden nur die Inlandsflüge (nationaler Luftverkehr) berücksichtigt. Internationale Flüge vom und in das Bundesgebiet bleiben unberücksichtigt. Auch die Personenbeförderung in der Schifffahrt wird nicht einbezogen.
+27,2 % des gesamten Endenergieverbrauches sind dem Verkehr zuzurechnen. Hieran hat der Personenverkehr einen Anteil von 65,3 %&lt;sup&gt;1&lt;/sup&gt;. Einsparungen beim Endenergieverbrauch im Personenverkehr wirken sich daher merklich auf den gesamten Energieverbrauch in Deutschland aus. Die Anzahl der Personenkilometer gibt Aufschluss darüber, inwieweit sich die Beförderungsleistung (Änderung der Fahrgast-/Fluggastzahlen je gefahrenen Kilometer) ändert. Ergänzend wird neben dem Endenergieverbrauch auch die Energieeffizienz im Personenverkehr, gemessen als Endenergieverbrauch je Personenkilometer, betrachtet.
+Im Zeitraum 2005 bis 2020 veringerte sich der Endenergieverbrauch im Personenverkehr insgesamt um 14,5 % und entwickelte sich damit aktuell in die richtige Richtung zu seinem Ziel in der Deutschen Nachhaltigkeitsstrategie.
+Auch die Anzahl der zurückgelegten Personenkilometer zwischen 2005 und 2020 verringerte sich um 14,3 %, sodass der Energieverbrauch je Personenkilometer im gleichen Zeitraum, bezogen auf alle Verkehrsträger, nur geringfügig um 0,2 % auf 1,63 Megajoule pro Personenkilometer&lt;sup&gt;2&lt;/sup&gt; anstieg. Somit konnte die Effizienz im Personenverkehr nicht gesteigert werden. Dies liegt hauptsächlich an der COVID-19-Pandemie, durch die die Mobilität der Menschen stark eingeschränkt war. Sowohl bei den Eisenbahnen als auch im Straßen- und Luftverkehr verringerten sich der Energieverbrauch und die Beförderungsleistung. Dies führte zu einer geringen Effizienzsteigerung im Straßenverkehr um 1,1 %, während die Effizienz bei den Eisenbahnen um 13,7 % und im Luftverkehr um 56,7 % sank. Dieser Effizienzrückgang im Eisenbahn- und Luftverkehr ist auf die geringere Auslastung von Zügen und Flugzeugen durch die COVID-19-Pandemie zurückzuführen.
+Der motorisierte Individualverkehr mit Pkw und Zweirädern hatte im Jahr 2020 einen Anteil von 86,1 % an der gesamten Personenbeförderungsleistung. Im Jahr 2019 lag dieser bei 80,3 %. Er lässt sich in verschiedene Kategorien unterteilen. Der Berufsverkehr (Pendler- und Geschäftsfahrten) hatte im Jahr 2019 (aktuellere Daten lagen bei Redaktionsschluss noch nicht vor) mit 36,6 % den größten Anteil, gefolgt vom Freizeitverkehr mit 30,9 %. Der Einkaufsverkehr hatte einen Anteil von 17,5 %. Die verschiedenen Fahrtzwecke haben sich seit 2005 unterschiedlich entwickelt. Insbesondere die beruflich bedingten Fahrten haben deutlich zugenommen (+ 19,0 %), während die Fahrten für Freizeit (– 8,9 %) und Einkauf (– 2,1 %) abgenommen haben.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Die Summe der Anteile von Güterverkehr (Indikator 11.2.a) und Personenverkehr (Indikator 11.2.b.) am gesamten Endenergieverbrauch durch den Verkehr ergeben zusammen nicht 100 %. Diese Abweichung ist durch unterschiedliche Abgrenzungen der Energieverbräuche im Personen- und Güterverkehr (Inlandsverbrauch; Quelle: TREMOD) und des gesamten Endenergieverbrauchs im Verkehr (Inlandsabsatz; Quelle: AG Energiebilanzen) bedingt.
+&lt;sup&gt;2&lt;/sup&gt;Zur </t>
+        </is>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>The data regarding domestic final energy consumption originates from the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. TREMOD is a model for evaluating transport emissions. The data record fuel consumption associated with passenger transport within Germany, irrespective of where refuelling takes place (in accordance with the principle of actual final consumption). “Final energy” refers to that part of the total energy used that is directly consumed in transport, so it excludes conversion losses that arise during the production of fuels as well as any pipeline losses that may occur.
+The volume of passenger transport is expressed in terms of the number of passenger-kilometres travelled. Provided by TREMOD, this figure is used to calculate the specific level of energy consumption in this sector. In the aviation statistics, only domestic flights are taken into account. International flights departing from or landing in German territory are not counted. Nor is waterborne passenger transport included.
+Some 27.2 % of overall final energy consumption can be attributed to transport. Of this, 65.3 %&lt;sup&gt;1&lt;/sup&gt; is accounted for by passenger transport. Savings in final energy consumption in passenger transport therefore have a marked effect on total energy consumption in Germany. The number of passenger-kilometres provides information about the extent to which transport intensity (changes of rail or air passenger numbers per kilometres travelled) changes. In addition to final energy consumption, the indicator also examines energy efficiency in passenger transport, measured in terms of energy consumption per passenger-kilometre.
+Final energy consumption in passenger transport decreased by a total of 14.5 % in the period from 2005 to 2020. Thus, final energy consumption in passenger transport is currently developing in a direction which supports the goal of the German strategy for sustainable development.
+Also the number of passenger-kilometres covered decreased by 14.3 % between 2005 and 2020, such that energy consumption in all forms of transport increased only slightly by 0.2 % to 1.63 megajoules per passenger-kilometre&lt;sup&gt;2&lt;/sup&gt; during the same period. Consequently, efficiency in passenger transport could not be increased. This is essentially because of major restrictions to mobility during the COVID-19 pandemic. Both energy consumption and transportation volume reduced for rail, air and road transport. Thus, the road transport slightly increased in efficiency by 1.1 %, while efficiency in rail and air transport decreased by 13.7 % and 56.7 %, respectively. The decline in efficiency for rail and air transport can be attributed to lesser train and airplane occupancy during the COVID-19 pandemic.
+Private motorised transport by car or two-wheeled vehicle accounted for 86.1 % of total passenger transport volumes in 2020. Its share in 2019 was 80.3 %. It can be subdivided into various categories. In 2019 (more recent figures not yet available), work-related transport, i.e. commuter traffic and business travel, accounted for the largest share, at 36.6 %, followed by recreational transport at 30.9 %. Travel for shopping accounted for 17.5 %. These purpose-based categories of transport have developed differently since 2005. Work-related travel in particularly has increased significantly (+ 19.0 %), while journeys for recreation or shopping have declined (- 8.9 % and - 2.1 % respectively).
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;The sum of shares of goods transport (indicator 11.2.a) and passenger transport (indicator 11.2.b) in proportion to total final energy consumption in transport do not add up to 100 %. This discrepancy is caused by different definitions of energy consumption in passenger and goods transport (domestic consumption; source: TREMOD) and total final energy consumption in traffic (domestic sales; source: AG Energiebilanzen).
+&lt;sup&gt;2&lt;/sup&gt;For a better understanding: the heatin</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N44" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01_Ib03</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>11.2.c</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln
+</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator weist die bevölkerungsgewichtete durchschnittliche Reisezeit mit öffentlichen Verkehrsmitteln zum nächsten Mittel- oder Oberzentrum aus.</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows population-weighted average travel times to the nearest medium-sized or large city by public transport.</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>Mobilität ist ein wichtiger Faktor, um Menschen soziale Teilhabe zu ermöglichen. Entsprechend sollten Raum und Verkehr so gestaltet werden, dass für die gesamte Bevölkerung gute Mobilitätsangebote und eine entsprechende Anbindung an Mittel- oder Oberzentren vorhanden sind. Ziel der Bundesregierung ist es daher, die durchschnittliche Reisezeit mit öffentlichen Verkehrsmitteln zum nächsten Mittel- oder Oberzentrum zu verringern.</t>
+        </is>
+      </c>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>Mobility is a key factor in enabling people to participate in society. Accordingly, urban development and transport should be designed to provide good mobility services and suitable connections to medium-sized or major cities for the entire population. Therefore, the goal of the Federal Government is to shorten the average amount of time it takes people to travel to their nearest medium-sized or major city by public transport.</t>
+        </is>
+      </c>
+      <c r="J45" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator wird vom Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR) berechnet. Als öffentliche Verkehrsmittel werden Verkehrsangebote definiert, die jede Person nach Entrichtung der jeweiligen Gebühren benutzen kann. Flexible Bedienformen wie zum Beispiel Anrufbusse, die ohne feste Haltestellen und Fahrpläne auf Anforderung verkehren, werden hierbei nicht berücksichtigt.
+Ein Vergleich zwischen den Werten des Indikators von 2012 und 2020 zeigt, dass sich die bevölkerungsgewichtete durchschnittliche Reisezeit zum nächsten Mittel- oder Oberzentrum in diesem Zeitraum von 23,5 auf 20,6 Minuten verkürzt hat. Dies entspricht einer Verringerung um 12,3 %.
+Seit dem Jahr 2012 hat sich jedoch die Zahl der Mittel- und Oberzentren von 1 010 auf 1 112 im Jahr 2020 erhöht. Dies ist insbesondere auf die zusätzliche Ausweisung von Mittelzentren in Bayern zurückzuführen. Inwiefern diese Neuausweisung mit einer tatsächlichen Verbesserung des Versorgungsangebotes der Orte einhergeht, kann hier nicht beurteilt werden. Die Zunahme der Mittel- und Oberzentren trug jedoch wesentlich zu einer Senkung der durchschnittlichen Reisezeit bei. Bei einer Berechnung der durchschnittlichen Reisezeit, bei der die Mittel- und Oberzentren des Jahres 2012 über den gesamten Zeitverlauf als Basis genutzt werden, ergibt sich eine Verkürzung der Reisezeit von 23,5 Minuten im Jahr 2012 auf 21,3 Minuten im Jahr 2020. Dies entspricht lediglich einer Verringerung der Reisezeit von 9,4 % gegenüber dem Jahr 2012.
+Als Datengrundlage dienen Fahrplandaten der Deutschen Bahn, von Verkehrsverbünden sowie zahlreiche weitere Fahrpläne. Aus den Fahrplandaten wurden für etwa 260 000 Haltestellen die kürzesten Fahrzeiten in das nächste Mittel- oder Oberzentrum während der morgendlichen Hauptverkehrszeit ermittelt. Dieser Zeitraum ist je nach Berichtsjahr unterschiedlich definiert. Wurden 2012 Verbindungen mit einer Ankunftszeit zwischen sechs und neun Uhr berücksichtigt, waren es 2016 und 2018 solche mit einer Ankunftszeit zwischen acht und zwölf Uhr. Für 2020 wurde der Ankunftszeitraum auf den Zeitraum sechs bis zwölf Uhr ausgedehnt.
+Auch weil noch nicht alle Nahverkehrspläne vollständig in die verwendete Datenbank integriert wurden, sind die Werte zwischen den Berichtsjahren nicht ohne Einschränkungen vergleichbar. Zudem gibt der Indikator nur Auskunft über die geplanten Reisezeiten ins nächste Zentrum gemäß der Fahrpläne und bezieht Verspätungen und Verbindungsausfälle nicht in die Berechnung mit ein. Die Häufigkeit eines Verkehrsangebotes ins nächstgelegene Mittel- oder Oberzentrum bleibt zudem ebenso außer Betracht wie die Wegezeit zur bzw. von der Haltestelle. Zudem basiert dieser Indikator auf den Fahrplandaten – somit bleiben Verspätungen oder auch Ausfälle unberücksichtigt.
+Die Einstufung eines Ortes als Mittel- oder Oberzentrum bestimmt sich nach der Ausstattung des Ortes mit Versorgungsangeboten an Waren, Dienstleistungen und Infrastruktur, die in den umgebenden Unterzentren nicht zur Verfügung stehen. Hierzu zählen unter anderem Facharztpraxen, Krankenhäuser, kulturelle Angebote sowie weiterführende Schulen und Hochschulen. In jedem Mittel- oder Oberzentrum, insbesondere in Großstädten, wurde nur ein Zielpunkt (Stadtzentrum) bestimmt. Die Zielhaltestellen wurden im Umkreis von einem Kilometer um den Zielpunkt gewählt und die schnellste Verbindung von der Starthaltestelle dorthin gesucht. Mithilfe kleinräumiger Bevölkerungsdaten des Statistischen Bundesamtes wurde dann ein bevölkerungsgewichteter Mittelwert der Reisezeit für Deutschland ermittelt.</t>
+        </is>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>The indicator is computed by the Federal Institute for Research on Building, Urban Affairs and Spatial Development. Public means of transport are defined as transport services that anyone can use on payment of the relevant fees. Flexible forms of operation, such as on-call buses that operate on demand without fixed stopping points and timetables, are not taken into account.
+Comparing the indicator values for 2012 and 2020 shows that the population-weighted average travel time to the nearest medium-sized or major city fell from 23.5 to 20.6 minutes during that period. This equates to a reduction of 12.3 %.
+However, the number of medium-sized and major cities grew from 1,010 in 2012 to 1,112 in 2020. Much of this growth can be traced to the designation of additional urban centres as medium-sized cities in Bavaria. It is beyond the purview of this report to assess whether that change of status reflects an actual improvement in the provision available in those cities. Nonetheless, the increase in medium-sized and major cities notably helped reduce the average travel time required to reach one. If the average travel time for each reporting year is calculated on the basis of only those intermediate and major cities which existed in 2012, it is found to have decreased from 23.5 minutes in 2012 to 21.3 minutes in 2020. This equates to a reduction in travel time of only 9.4 % in relation to 2012.
+The data for these calculations were taken from the timetables of Deutsche Bahn, various networks and numerous other transport providers. With the help of the timetable data, the travel times to the nearest intermediate or major city during peak morning traffic times were determined for about 260,000 stops. This period is defined differently across the reporting years. Whereas connections with arrival times between 6 a.m. and 9 a.m. were taken into account in 2012, the figures for 2016 and 2018 refer to connections with arrival times between 8 a.m. and 12 noon. For 2020, the arrival time was expanded to a period from 6 a.m. to 12 noon.
+Not least because not all local transport schedules had been fully incorporated into the database used, the values for the different reporting years cannot be compared without caveats. Moreover, the indicator provides information about the scheduled travel time to the next centre and does not account for delays or cancellations in its calculations. Therefore, the frequency of transport services to the nearest intermediate or major city is ignored, as is travel time to and from the stopping point. Furthermore, this indicator is based on timetable data – which means that delays or even cancellations are not taken into account.
+The classification of an urban centre as a medium-size or large city is determined according to the availability of goods, services and infrastructure that are not available in the surrounding regional towns. These include, among other things, specialist medical practices, hospitals, cultural facilities as well as secondary schools and institutions of higher education. In each intermediate or large city, especially in large cities, only one location in the city centre was designated as the destination. The destination stops were selected within a radius of one kilometre around that destination point, and the quickest connection from each departure stop to that point was sought. A population-weighted average value of the travel time for Germany was then determined with the help of small-scale population data from the Federal Statistical Office.</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>11.2.1</t>
+        </is>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N45" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B03_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B03_P01</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Überlastung durch Wohnkosten</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Housing cost overload</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den Anteil der Personen, die in Haushalten leben, welche mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben. Ausgaben für Wohnen sind dabei die Nettokaltmiete, Nebenkosten, Energiekosten und Ausgaben für Wasserversorgung sowie bei Wohneigentum werterhaltende Investitionen und Zinszahlungen für Kredite.</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the share of people living in households where more than 40 % of disposable household income is spent on housing. Housing costs comprise rent and ancillary charges, energy costs and water bills as well as, in the case of home ownership, investments to maintain the value of a property and interest payments on associated loans.</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>Hohe Wohnkosten führen dazu, dass Haushalte in ihren übrigen Konsumentscheidungen eingeschränkt werden. Ausgaben für Wohnen von mehr als 40 % des verfügbaren Haushaltseinkommens werden als Überlastung angesehen. Der Anteil der Personen, die in Haushalten leben, die mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben, soll deshalb bis zum Jahr 2030 auf 13 % gesenkt werden.</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>High housing costs place restrictions on households with regard to their other consumption choices. Housing expenses amounting to more than 40 % of disposable household income are considered to be excessive. The share of people who live in households where more than 40 % of disposable household income is spent on housing is therefore to be reduced to 13 % by 2030.</t>
+        </is>
+      </c>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator setzt die Ausgaben für Wohnen in Relation zum verfügbaren Haushaltseinkommen. Erhält ein Haushalt Wohngeld oder vergleichbare Sozialleistungen (zum Beispiel Leistungen für Unterkunft und Heizung der Grundsicherung) werden diese bei der Berechnung des Indikators berücksichtigt. Diese Sozialleistungen werden nicht dem Einkommen zugeschlagen, sondern von den Wohnkosten abgezogen, sodass die Wohnkostenbelastung von Haushalten, die auf wohnungsbezogene Sozialleistungen angewiesen sind, reduziert wird bzw. gegen null geht.
+Der Kauf einer selbst genutzten Immobilie wird nicht zu den Ausgaben für Wohnen gezählt, ebenso wie weitere Ausgaben für Maßnahmen, die den Wert einer Immobilie steigern. Allerdings ist eine Abgrenzung von den werterhaltenden Ausgaben, die zu den Ausgaben für Wohnen zählen, nicht immer eindeutig möglich. Diese Schwierigkeiten in der Erfassung der exakten Wohnkosten sollten bei der Interpretation der Ergebnisse berücksichtigt werden. Auch berücksichtigt der Indikator keine zusätzlichen, mit dem Wohnort verbundenen Ausgaben. So werden beispielsweise Ausgaben für Fahrten zwischen Wohnort und Arbeitsstelle nicht berücksichtigt, obwohl die Schwelle von 40 % möglicherweise nur aufgrund des arbeitsplatzfernen Wohnens unterschritten wird.
+Durch die Festlegung des Schwellenwertes von „40 % des verfügbaren Haushaltseinkommens“ gibt der Indikator keinen Hinweis auf die durchschnittlichen Wohnkosten. Wenn sich Cluster in der Nähe dieser Grenze ergeben, können diese im Zeitverlauf bereits durch eine geringfügige Änderung des Verhältnisses von Einkommen zu Ausgaben für Wohnen zu größeren Veränderungen des Indikators führen.
+Die Daten zur Wohnkostenüberbelastung stammen aus der europaweit harmonisierten jährlichen Statistik über Einkommen und Lebensbedingungen (EU-SILC), die im Erhebungsjahr 2020 aufgrund der zunehmenden Anforderungen an die Daten hinsichtlich der Aktualität und Bereitstellung tiefer regionaler Ergebnisse mit weitreichenden methodischen Änderungen in den Mikrozensus als Unterstichprobe integriert wurde. Dadurch sind die Ergebnisse ab 2020 nicht mit denen der vorherigen Erhebungsjahre vergleichbar.
+Insgesamt hat sich der Indikator bis zum Jahr 2019 in Richtung des Zielwertes von 13 % entwickelt: Nach einem anfänglichen Anstieg ist der Indikator zwischen 2010 und 2019 von 14,5 auf 13,9 % gesunken. Ab dem Jahr 2020 liegen die Werte auf einem deutlich niedrigeren Niveau als in den Vorjahren. Ein Vergleich dieser Ergebnisse mit denen vor 2020 ist allerdings aufgrund der bereits erwähnten umfangreichen methodischen Änderungen in der Erhebung sowie deren Aufbereitung nicht möglich.
+Der Indikator besitzt nur eingeschränkte Aussagekraft bezüglich der eigentlichen Wohnsituation und des verfügbaren Einkommens, denn es werden durch die Berechnungsweise auch einkommensstarke Haushalte mit hohen Ausgaben für Wohnen als überlastet angezeigt. Die Daten belegen allerdings, dass besonders die armutsgefährdete Bevölkerung, das heißt Personen, die über weniger als 60 % des Medians der Äquivalenzeinkommen der Bevölkerung verfügen, von einer Überlastung durch Wohnkosten betroffen ist. Der Anteil der durch Wohnkosten Überlasteten lag unter den Armutsgefährdeten zwischen 2010 (42,2 %) und 2019 (48,3 %) insgesamt auf einem sehr hohen Niveau. Die Anteile bei den nicht Armutsgefährdeten waren dagegen deutlich geringer (2010: 9,4 % und 2019: 8,0 %). Bei beiden Personengruppen zeigt sich im Zeitverlauf die gleiche Entwicklung wie bei der Zeitreihe insgesamt.</t>
+        </is>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>The indicator expresses housing costs relative to disposable household income. If a household is receiving housing benefits or comparable social benefits, such as social-security payments for accommodation and heating, these are also included in the calculations. These social benefits are not added to the income amount but are deducted from the housing costs, so that the burden of housing expenses on households that rely on housing-related social benefits is reduced or almost nullified.
+The purchase of an owner-occupied property is not included in the expenditure on housing. Other spending on measures to enhance the value of a property should not be taken into account either. However, it is not always possible to clearly differentiate between these and value-maintaining expenditures that are considered as housing expenditure. Therefore, some simplifying assumptions must be made. Moreover, the indicator also does not take into account any additional expenditure associated with the place of residence. For instance, expenditure on travelling from the place of residence to the workplace is not taken into account, although it is possible that the threshold of 40 % is not reached only due to the fact that the place of residence is far away from work.
+By defining the threshold value as “40 % of disposable household income”, the indicator provides no information about average housing costs. If clusters emerge close to this threshold, they can cause major changes in the indicator over time even if there is only a small change in the ratio of income and housing expenditure.
+The initial data for the indicator originate from the Europe-wide harmonised statistics on income and living conditions (EU-SILC). In survey year 2020, the data was integrated with extensive methodological changes as a subsample into the microcensus due to increasing requirements on data with respect to actuality and provision of more detailed regional results in survey year 2020. Thus, the results from 2020 on are not comparable with previous years.
+Overall, the indicator developed in the direction of the target value at 13 % until 2019: after an initial growth, the indicator declined from 14.5 % in 2010 to 13.9 % in 2019. As of 2020 the values are significantly below the level of previous years. However, the comparison with results before 2020 is due to the already mentioned extensive methodological changes in data collection and processing unfeasible.
+With regard to the actual housing situation and disposable income, the indicator provides only a limited amount of meaningful information. After all, the calculation method means that households with high incomes and high expenditure on housing also appear to be overburdened. Meanwhile, the data show that it is people at risk of poverty – that is, those with less than 60 % of the median equivalised income for the population – who are particularly affected by excessive housing costs. Some 42.2 % of people at risk of poverty were overburdened by housing costs in 2010, rising to 48.3 % by 2019. In total, the values are on a high level. In contrast, excessive housing costs affected a markedly smaller proportion of people considered not at risk of poverty. The 2019 figure of 8.0 % was lower than the 9.4 % recorded in 2010. Both groups develop in the same direction as the overall trend of the time series.</t>
+        </is>
+      </c>
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t>11.1.1</t>
+        </is>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N46" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B04_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B04_P01</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>11.4</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>Number of objects in the German Digital Library</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl der Objekte, die in der Deutschen Digitalen Bibliothek (DDB) vernetzt sind.</t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of objects in the network of the German Digital Library, or Deutsche Digitale Bibliothek (DDB).</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>In der Deutschen Digitalen Bibliothek (DDB) werden die digitalen Angebote der deutschen Kultur- und Wissenseinrichtungen zentral miteinander vernetzt und online zugänglich gemacht. Die Deutsche Digitale Bibliothek eröffnet dadurch Wissenschaft und kulturinteressierten Nutzerinnen und Nutzern gleichermaßen einen zeitgemäßen und niederschwelligen Zugang. Der Indikator ist somit Gradmesser für die digitale Zugänglichmachung des Kultur- und Wissenserbes in Deutschland. Ziel ist es, die Anzahl der in der Deutschen Digitalen Bibliothek verzeichneten Objekte bis 2030 auf 50 Millionen zu steigern.</t>
+        </is>
+      </c>
+      <c r="I47" s="5" t="inlineStr">
+        <is>
+          <t>The German Digital Library connects and provides online access in one place to the digital holdings of Germany’s cultural institutions and repositories of learning. It thereby makes them easily accessible, in an up-to-date manner, to scholars and anyone else interested in culture. As such, the indicator is a useful gauge of the extent to which our shared heritage of culture and learning has been rendered digitally accessible in Germany. The goal is to increase the number of objects available via the German Digital Library to 50 million by 2030.</t>
+        </is>
+      </c>
+      <c r="J47" s="5" t="inlineStr">
+        <is>
+          <t>Die Deutsche Digitale Bibliothek (DDB) ist eine Plattform zur Vernetzung der digitalen Angebote von Institutionen wie Archiven, Bibliotheken und Museen. Sie wird von einem Netzwerk aus Kultur- und Wissenseinrichtungen des Bundes, der Länder und der Kommunen verwaltet.
+Finanziert wird sie gemeinsam vom Bund und von den Ländern. Die DDB hält die digitalen Bestände in der Regel nicht selbst vor, sondern stellt lediglich eine Verlinkung zu den Objekten bei den Partnereinrichtungen bereit. Für die Stabilität dieser Verlinkung sind die Partnereinrichtungen verantwortlich. Die Anzahl der Partnereinrichtungen, die Daten für die DDB bereitstellen, beläuft sich auf 448 (Stand: Mai 2020). Dabei machen Museen mit 183 und Archive mit 174 Einrichtungen den Großteil der Partnereinrichtungen aus.
+Die Online-Plattform der DDB ist seit dem Jahr 2012 zugänglich und beinhaltete in diesem Jahr Verlinkungen zu 5,6 Millionen Objekten. Bis zum Ende des ersten Halbjahres 2022 stieg diese Zahl auf 42,3 Millionen Objekte an. Bei Fortsetzung der bisherigen Entwicklung könnte das Ziel von 50 Millionen verlinkten Objekten für das Jahr 2030 erreicht werden. Bei Objekten, die durch Bibliotheken bereitgestellt werden, kann es sich in einigen Fällen um Objekte des gleichen Inhalts handeln, wenn beispielsweise die gleichen Ausgaben eines Buches mit der DDB verlinkt werden. In diesem Fall werden diese zwei Verlinkungen separat gezählt.
+Seit dem Jahr 2015 kann unterschieden werden, ob es sich bei einem verknüpften Objekt um ein Objekt mit oder ohne Digitalisat handelt. Bei Objekten mit Digitalisat kann über die Verlinkung auf dem Portal der DDB auf das digitalisierte Abbild eines Objektes, wie beispielsweise eines Buches, einer Urkunde oder eines Gemäldes zugegriffen werden. Bei Objekten ohne Digitalisat stehen dagegen lediglich Erschließungsinformationen zu einem Objekt zur Verfügung. Bei einem Gemälde umfassen diese beispielsweise Angaben zu der Künstlerin oder dem Künstler, dem Jahr der Entstehung und dem Ort der Verwahrung des Bildes. Somit ist der Informationsgehalt bei Objekten mit Digitalisat deutlich höher als bei Objekten, zu denen ausschließlich Erschließungsinformationen angeboten werden.
+Zum Ende des Jahres 2015 verfügten 6,3 Millionen Objekte über ein Digitalisat und diese Zahl stieg bis zum Ende des ersten Halbjahres 2022 auf 14,9 Millionen an. Auch der prozentuale Anteil der Objekte mit Digitalisat an der Gesamtzahl der verknüpften Objekte stieg in diesem Zeitraum von 34,5 % im Jahr 2015 auf 35,2 % zum Ende des ersten Halbjahres 2022. Den Großteil der verknüpften digitalisierten Objekte machten zum Ende des ersten Halbjahres 2022 Textobjekte aus (61,8 %), gefolgt von Bildobjekten (34,9 %) und sonstigen Medien (2,8 %). Audio- und Videodateien machten dagegen mit 0,3 bzw. 0,2 % nur einen sehr geringen Anteil der digitalisierten Objekte in der DDB aus.</t>
+        </is>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>The German Digital Library is a platform created to connect the digital holdings of institutions like archives, libraries and museums. It is managed by a network of such repositories of culture and learning from the Federal Government, the Länder and local-authorities. 
+It is jointly funded by the Federal Government and the Länder. Most of the digital materials are held not by the German Digital Library itself but by partner institutions, while the DDB only hosts links to those objects. The partner institutions are responsible for the stability of the connection. As of May 2020, the number of partner institutions making data available for the German Digital Library had reached 448. The majority are museums or archives – 183 and 174 of them respectively.
+The German Digital Library online platform has been accessible since 2012, at which point it hosted links to 5.6 million objects. By the middle of 2022, that number had risen to 42.3 million. If the trend continues as it has to date, the target of 50 million by 2030 could be achieved. Some of the objects made available by libraries may repeat the same content; for example, two libraries might post links in the German Digital Library to the same edition of a book. In such cases, the two links are counted separately.
+Since 2015, it has been possible to differentiate between objects with and without digitised media. For those with digitised content, the German Digital Library link gives direct access to the digitised reproduction of the book, certificate, painting or other object in question. For objects without digitised media, on the other hand, the links lead only to information about them. The link pertaining to a painting, for instance, will provide information about who painted it, what year it is from and where it is kept. Objects with digitised media thus provide a good deal more information than those for which only metadata are made available.
+There were 6.3 million objects with digitised media at the end of 2015, rising to 14.9 million by the middle of 2022. Objects with digitised media also increased as a proportion of all the objects linked to in the German Digital Library, rising from around 34.5 % in 2015 to around 35.2 % by mid-2022. At the end of the first half of 2022, the majority of digitised objects available via the Library were texts (61.8 %), followed by pictures (34.9 %) and other media (2.8 %). In contrast, audio and video recordings made up only a very small proportion of digitised Library objects, at 0.3 % and 0.2 % respectively.</t>
+        </is>
+      </c>
+      <c r="L47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N47" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>12.1.a</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden. Zu den Umweltzeichen und Produkten gehören Energieverbrauchskennzeichnungen bei Personenkraftwagen (Pkw), Haushaltsgroßgeräten, Leuchtmitteln und Fernsehern, Bio-Siegel bei Lebensmitteln sowie Blauer Engel bei Hygienepapieren, Wasch- und Reinigungsmitteln.</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr">
+        <is>
+          <t>The indicator measures the market share of products with voluntary or mandatory eco-labels, whose awarding procedures are stipulated by governmental bodies. The eco-labels and products comprise energy labels for cars, large household appliances, light bulbs and televisions, organic labels for foodstuff and Blue Angel for sanitary paper, detergents and cleaning supplies.</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>Private Haushalte können direkt und indirekt nachhaltig konsumieren. Einerseits beeinflusst ihre Einkaufsentscheidung ihre eigene Umweltbilanz, da energieeffiziente Fahrzeuge oder gedämmte Häuser in ihrer Nutzung weniger Energie benötigen und einen geringeren Ausstoß von Treibhausgasen verursachen. Andererseits können die Verbraucherinnen und Verbraucher Produkte erwerben, die auf besonders nachhaltige Weise hergestellt wurden. Ziel der Bundesregierung ist es daher, den Marktanteil von Produkten mit staatlichen Umweltzeichen bis 2030 auf 34 % zu erhöhen.</t>
+        </is>
+      </c>
+      <c r="I48" s="5" t="inlineStr">
+        <is>
+          <t>Private households can engage in sustainable consumption both directly and indirectly. Not only do their purchasing decisions influence their own ongoing impact on the environment, as energy-efficient vehicles or insulated homes require less energy to use and lead to lower emissions of greenhouse gases, but consumers can also purchase products that have been manufactured in particularly sustainable ways. The aim of the Federal Government is therefore to increase the market share of products certified by publicly managed ecolabelling schemes to 34 % by 2030.</t>
+        </is>
+      </c>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>Zwischen 2012 und 2019 stieg der Marktanteil von Produkten mit staatlichen Umweltzeichen von 3,6 auf 7,9 %. Dies entspricht einem Umsatz von insgesamt 26,5 Milliarden Euro im Jahr 2019. Der höchste Wert wurde 2016 mit 8,6 % erreicht. 2017 und 2018 ist der Anteil im Vergleich zum Vorjahr gesunken, während der Anteil 2019 wieder leicht stieg. Der Indikator folgt im Wesentlichen der Entwicklung auf dem Pkw-Markt. Der Marktanteil von A+-Pkw war von 14 % (2016) auf 9,6 % (2018) zurückgegangen und ist 2019 auf 10,0 % leicht gestiegen. Zuletzt entwickelte sich der Indikator zwar in die angestrebte Richtung, jedoch wird ohne eine deutliche Steigerung des Marktanteils das Ziel bis zum Jahr 2030 erheblich verfehlt.
+Die Daten zum Indikator stammen vom Umweltbundesamt (UBA). Das UBA verwendet zur Berechnung des Indikators Informationen aus diversen Quellen, wie zum Beispiel von der Gesellschaft für Konsumforschung. Der Indikator setzt sich aus den Marktanteilen von Produkten zusammen, welche entweder die höchste EU-Energieverbrauchskennzeichnung (EU-EVK) innerhalb ihrer Geräteklasse aufweisen oder mit einem der folgenden Umweltzeichen zertifiziert sind: EU-Ecolabel, EU-Bio-Siegel oder Blauer Engel. Die EU-EVK adressiert primär Energieverbrauch und Treibhausgasemissionen, während die anderen drei Umweltzeichen auch andere Umweltbelastungen wie Pestizideinsatz und gefährliche Abwässer berücksichtigen. Der Indikator soll abbilden, ob umweltfreundliche Produktvarianten konventionelle Produktvarianten im Markt ersetzen. Betrachtet wird dabei nur eine Auswahl an Produktgruppen, weil unter anderem nur begrenzt Daten zu Umsätzen von Produkten mit Nachhaltigkeitskennzeichen verfügbar sind. Zudem sollen Doppelzählungen ausgeschlossen werden.
+Der Indikator deckt die Konsumfelder Wohnen, Mobilität und Ernährung ab. Es werden Haushaltsgeräte wie Kühlgeräte, Waschmaschinen, Fernseh- und Klimageräte betrachtet. Weiterhin werden Leucht-, Lebensmittel, Hygienepapier, Wasch- und Reinigungsmittel und Pkw erfasst. Da die Märkte der einzelnen Produktgruppen unterschiedlich groß sind, werden die Marktanteile der Produkte mit staatlichen Umweltzeichen mit dem Umsatzvolumen des jeweiligen Gesamtmarktes gewichtet, um Verzerrungen zu vermeiden. Außerdem können auf diese Weise die Ausgaben für umweltfreundliche Produkte in Beziehung zu den Gesamtausgaben der privaten Haushalte gesetzt werden.
+Eine Gewichtung der Marktanteile nach Umweltrelevanz der jeweiligen Produktgruppen ist nicht möglich, da die Umweltzeichen verschiedene Kategorien (Energieverbrauch, Treibhausgasemissionen, Materialbedarf) adressieren, die nicht aufgerechnet werden können. Daher lässt sich eine allumfassende Bewertung über mehrere Umweltkategorien – im Sinne eines Umweltfußabdrucks der Produktgruppen – nicht darstellen. Der Indikator erfasst zudem nur die neu in den Verkehr gebrachten Güter in Relation zum Gesamtmarkt. Somit berücksichtigt er nicht, inwieweit die höhere Effizienz der Geräte zu einer Verhaltensänderung der Konsumenten führt und gegebenenfalls zu einem erhöhten Konsum (sogenannter Rebound-Effekt). Er beschreibt zudem den Marktanteil auf Basis von Umsätzen. Bedingt durch Preisunterschiede zwischen Produkten mit und ohne entsprechende Umweltsiegel lässt er keine Rückschlüsse auf deren Anzahl zu. Folglich kann eine Änderung des Indikatorwertes auch auf Preisänderungen in einer Produktgruppe zurückzuführen sein.</t>
+        </is>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>Between 2012 and 2019, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6 % to 7.9 %. This is equivalent to a turnover of 26.5 billion euros in 2019. The highest value was measured in 2016 at 8.6 %. The indicator value sank in 2017 and 2018 relative to the previous year, whereby the share slightly increased in 2019. Basically, the indicator follows the trend of the car market. The market share of A + cars decreased from 14 % (2016) to 9.6 % (2018) and increased again in 2019 (10.0 %). The trend of the indicator developed in the right direction but unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.
+The data used for this indicator comes from the German Environment Agency (UBA). The UBA utilizes information from various sources for the calculation of the indicator, for example from the consumer research institute. The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups is examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.
+The indicator encompasses consumption in the fields of home life, mobility and nutrition. Household appliances such as refrigerators, washing machines, televisions and vacuum cleaners are assessed, as are light bulbs, foodstuffs, sanitary paper, detergents and cars. Since the markets for the individual product groups are of different sizes, the market shares are weighted according to the total turnover of the market in question. This is intended to prevent the indicator being distorted by products which have high shares of small niche markets. Furthermore, this means expenditure on environmentally friendly products can be considered in relation to the total expenditure of private households.
+It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N48" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>12.1.b</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>Global environmental impact by private household consumption</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Rohstoffeinsatz, Energieverbrauch und der Ausstoß von Kohlendioxid (CO2) im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>The impact caused to the environment around the world by private household consumption is shown here by three indicators. They are domestic and foreign energy consumption, emissions of carbon dioxide (CO2) and the use of raw materials in connection with the production and use of all goods destined for the consumption of private households in Germany.</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>Private Haushalte haben durch Konsumaktivitäten einen wesentlichen Anteil am Ressourcenverbrauch einer Volkswirtschaft. Dieser Verbrauch erstreckt sich jedoch nicht nur auf das Inland, sondern findet durch die Produktion importierter Güter auch indirekt im Ausland statt. Der Indikator gibt daher Aufschluss über die globale Umweltinanspruchnahme durch Konsumaktivitäten privater Haushalte. Mit einer Minderung beispielsweise des Energieverbrauchs werden Ressourcen im In- und Ausland eingespart und klimaschädliche Kohlendioxidemissionen vermieden. Ziel der Bundesregierung ist es, die Umweltinanspruchnahme in Zusammenhang mit den Konsumaktivitäten privater Haushalte in allen drei Bereichen kontinuierlich zu reduzieren.</t>
+        </is>
+      </c>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>Through their spending habits, private households are responsible for a significant proportion of an economy’s consumption of resources. That consumption occurs not only within the country in question but also indirectly includes the consumption which is involved in the production of imported goods. The indicator therefore provides information about the impact being done to the environment on a global scale as a result of private household consumption. Reducing energy consumption, for example, will conserve resources both domestically and abroad and prevent environmentally harmful carbon dioxide emissions. The intention of the Federal Government is to continuously cut the environmental impact that occurs in connection with private household consumption in all three areas.</t>
+        </is>
+      </c>
+      <c r="J49" s="5" t="inlineStr">
+        <is>
+          <t>Das Konsumverhalten privater Haushalte hat verschiedene Auswirkungen auf die Umwelt, sowohl national als auch durch Spill-over-Effekte auf die Umwelt im Ausland. Der Indikator stellt für den inländischen Konsum drei der verantwortlichen Einflussfaktoren, nämlich den Rohstoffeinsatz, den Energieverbrauch und die CO2-Emissionen sowohl im In- als auch im Ausland dar. Die zugehörigen Daten werden in den Umweltökonomischen Gesamtrechnungen (UGR) aus verschiedenen amtlichen und nichtamtlichen Quellen errechnet.
+Ressourcen können direkt oder indirekt durch Haushalte konsumiert werden. Der Einsatz von Erdgas, etwa zum Heizen, oder von Kraftstoff im Straßenverkehr, aber auch der Verzehr von Nahrung zählen zum direkten Konsum. Zudem werden Ressourcen auch während des gesamten Herstellungsprozesses von Konsumgütern und ihres Transports im In- und Ausland in den Gütern gebunden oder verbraucht. Der Konsum erfolgt dann indirekt bei Erwerb und Nutzung dieser Güter durch inländische private Haushalte. Beide Arten des Konsums werden mit dem vorliegenden Indikator erfasst und für Rohstoffe, Energie und CO2 dargestellt.
+Rohstoffeinsatz, Energieverbrauch und CO2-Ausstoß sind eng miteinander verbunden. Der stoffliche Einsatz von Kohle, Öl oder Gas in Kraftwerken und Heizungen zur Produktion von Strom und Wärme ist gleichzeitig ein Verbrauch von Energie. Zudem zieht das Verbrennen von Energieträgern in der Regel auch den Ausstoß von CO2 nach sich.
+Der Einsatz von Rohstoffen umfasst jedoch nicht nur Energieträger. Dies wird auch in den Zeitreihen offenbar: Während die Daten für Energieverbrauch und Emissionen einen wellenförmigen, insgesamt rückläufigen Verlauf aufweisen, ist diese Entwicklung für den Rohstoffeinsatz weniger markant. In den Rohstoffeinsatz fließen nämlich neben abiotischen Rohstoffen, zu denen neben Energieträgern beispielsweise auch andere mineralische Rohstoffe wie Sand oder Salze gehören, auch erneuerbare Rohstoffe wie land- und forstwirtschaftliche Erzeugnisse ein. Während der Einsatz von abiotischen Rohstoffen bis 2014 gesunken, seitdem jedoch kontinuierlich wieder gestiegen ist, gibt es im Bereich der landwirtschaftlichen Erzeugnisse eine gegenläufige Entwicklung. Dies führte für den Zeitraum 2010 bis 2015 insgesamt zu einem leichten Rückgang um 2 %. Nach einem Anstieg im Jahr 2016 hat sich der Rohstoffeinsatz 2017 und 2018 wieder auf das Niveau von 2010 eingependelt.
+Im Zeitraum 2010 bis 2017 verzeichnete der Energieverbrauch dagegen einen Rückgang um 6 %.
+Verluste, die bei der Erzeugung von Strom und Fernwärme für den Konsum privater Haushalte anfallen, sind dabei im indirekten Verbrauch berücksichtigt. Der Energieverbrauch lässt sich in die Bedarfsfelder Wohnen, Mobilität, Ernährung, sonstige Produkte und Dienstleistungen gliedern. Der Bereich Wohnen machte im Jahr 2017 mit insgesamt rund 3 343 Petajoule (35 % des Gesamtverbrauchs der privaten Haushalte) den größten Teil aus.
+Die CO2-Emissionen zeigen eine ähnliche Entwicklung. Die überwiegenden Mengen an Emissionen entstehen bereits indirekt bei der Produktion der Konsumgüter im In- und Ausland und nicht erst beim Konsum der Güter selbst. Insgesamt betrugen die CO2-Emissionen durch den Konsum privater Haushalte im Jahr 2017 678 Millionen Tonnen. Dabei lag das Verhältnis zwischen direkten und indirekten Emissionen bei rund 1:2. Zwischen 2010 und 2017 sanken die direkten CO2-Emissionen um 6 % und der Emissionsgehalt der Konsumgüter um 9 %. Daraus ergibt sich insgesamt ein Rückgang der direkten und indirekten CO2-Emissionen privater Haushalte um 8 %.
+Dieser Indikator weist Querbezüge zum Indikator 8.1 „Gesamtrohstoffproduktivität“ auf.</t>
+        </is>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>The consumption behaviour of private households has different consequences for the environment of national and international countries, whereby latter is particularly affected by spill-over effects. This indicator reflects three of the factors behind this impact, namely energy consumption, CO2 emissions and the use of raw materials for Germany and foreign countries. The relevant data are collated in the environmental economic accounts of a range of governmental and non-governmental sources.
+Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.
+The use of raw materials, energy consumption and CO2 emissions are closely interconnected. To use coal, oil and gas – material resources – in power plants and boilers to produce electricity and heat is simultaneously to consume energy. As a rule, the burning of fuels also results in the emission of CO2.
+However, the use of raw materials is not restricted to fuels. This is clear from the time series in the graph: while the data for energy consumption and emissions follow a fluctuating but generally downwards trend, the change in the use of raw materials is less marked. That factor is made up both of abiotic resources, which include other mineral resources like sand and salts as well as fuels, and of renewable resources like the products of farming and forestry. While the use of abiotic resources was decreasing until 2014 and increasing from then on, there are contrary developments in the area of agricultural products. This resulted in a slight overall reduction of 2 % between 2010 and 2015. Although rising in 2016, the use of raw materials reached the level of 2010 in the two subsequent years 2017 and 2018.
+In contrast, energy consumption went down by 6 % during the period from 2010 to 2017.
+Energy loss incurred during the generation of electricity and district heat for consumption by private households is counted as indirect consumption. Energy consumption can be split according to the different fields in which it occurs, namely home life, transport, food, other products and services. At around 3,343 petajoules in total, home life accounted for the largest proportion, 35 % of private household consumption, in 2017.
+A similar trend can be seen in CO2 emissions. The vast majority of emissions are generated indirectly, during the manufacturing process of consumer goods in Germany and abroad, rather than during the actual consumption of the goods. The total CO2 emissions caused by private household consumption in 2017 amounted to 678 million tonnes. The ratio of direct to indirect emissions was around 1:2. Between 2010 and 2017, direct CO2 emissions fell by 6 %, while the emissions footprint of consumer goods fell by 9 %. In total, the direct and indirect CO2 emissions caused by private household consumption decreased by 8 %.
+This indicator can be usefully cross-referenced with indicator 8.1 on “raw material input productivity”.</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>45565</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B02_P01</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Umweltmanagement EMAS</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>EMAS eco-management</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl der in Deutschland für das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) registrierten Standorte sowohl deutscher als auch ausländischer Organisationen.</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of locations in Germany registered with EMAS, the Eco-Management and Audit Scheme, for German as well as foreign organisations.</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>Klimawandel, Energiewende und Ressourcenknappheit stellen Unternehmen vor neue Herausforderungen mit der Folge, dass sie ihre betriebswirtschaftlichen Abläufe, Strukturen und Produkte entsprechend umwelt- und ressourcenschonend gestalten müssen. Das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) bietet ein Konzept für einen systematischen betrieblichen Umweltschutz und ist mit dem Anspruch verbunden, die Umweltleistung des Organisationsstandortes stetig zu verbessern. Deshalb lautet das Ziel, bis zum Jahr 2030 insgesamt 5 000 Organisationsstandorte für das Umweltmanagement EMAS auszuweisen.</t>
+        </is>
+      </c>
+      <c r="I50" s="5" t="inlineStr">
+        <is>
+          <t>Climate change, the energy transition and scarcity of resources are presenting companies with new challenges that are forcing them to reconfigure their business processes, structures and products along environmentally responsible and resource-saving lines. EMAS offers a strategy for organisations to pursue systematic environmental protection, with the ultimate aim of steadily improving their locations’ environmental performance. The goal is therefore to identify a total of 5,000 organisation premises for registration with EMAS by 2030.</t>
+        </is>
+      </c>
+      <c r="J50" s="5" t="inlineStr">
+        <is>
+          <t>Das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) ist ein freiwilliges Instrument der Europäischen Union (EU), das Organisationen jeder Größe und Branche dabei unterstützt, ihre Umweltleistung kontinuierlich zu verbessern. Eine EMAS-Zertifizierung impliziert dabei nicht, dass eine Organisation oder ihre Produkte per se umweltfreundlicher als vergleichbare Organisationen bzw. Produkte ist bzw. sind. Mit EMAS ist eine Umweltberichtspflicht (sogenannte Umwelterklärung) verbunden. Diese beinhaltet die Berichterstattung zu den wesentlichen Umweltauswirkungen des betreffenden Unternehmens sowie die Datenbereitstellung zu den Themenfeldern Energie, Emissionen, Material, Wasser, Abfall und Flächenverbrauch bezüglich biologischer Vielfalt. Die Umwelterklärung muss von den Organisationen jährlich – seit 2010 von kleinen und mittleren Unternehmen auf Antrag zweijährlich – aktualisiert werden. Die öffentliche Umwelterklärung sowie weitere interne Dokumente werden von unabhängigen, staatlich zugelassenen Umweltgutachterinnen und Umweltgutachtern geprüft. Die Prüfung ist regelmäßig und dabei spätestens alle drei Jahre zu wiederholen. Organisationen, welche die Überprüfung erfolgreich bestehen und bei denen keine Umweltrechtsverstöße oder Beschwerden vorliegen, werden in das EMAS-Register eingetragen. Für die Qualitätssicherung ist der Umweltgutachterausschuss (UGA)&lt;sup&gt;1&lt;/sup&gt; zuständig. EMAS-Organisationen und -Standorte werden durch die zuständige Industrie- und Handelskammer (IHK) oder Handwerkskammer registriert und in einer öffentlich zugänglichen Datenbank beim Deutschen Industrie- und Handelskammertag (DIHK) gespeichert.
+Methodisch ist zu beachten, dass im EMAS-Register die Anzahl der Registrierungen abgebildet wird. Teilnehmenden Organisationen steht es frei, unter einer Organisationsregistrierung mehrere Standorte aufzunehmen (Sammelregistrierung) oder Standorte einzeln registrieren zu lassen. Einige Organisationen haben zum Teil auch ihre ausländischen Standorte in Deutschland registrieren lassen. Diese befinden sich ebenfalls im EMAS-Register, sind jedoch bei der hier ausgewiesenen Anzahl der EMAS-Standorte nicht enthalten.
+Im Jahr 2021 waren in Deutschland 2 290 EMAS-Standorte registriert. Dies entspricht einer Erhöhung um 17,0 % gegenüber 2005. Betrachtet man die Entwicklung der letzten fünf Jahre, so hat sich der Indikator im Durchschnitt leicht in Richtung des Ziels entwickelt. Bei gleichbleibender Entwicklung würde das Ziel für 2030 allerdings deutlich verfehlt werden.
+Die Anzahl der Beschäftigten in den registrierten Organisationen betrug im Jahr 2021 insgesamt 911 042 Personen. Dies entsprach einem Rückgang um 5,2 % gegenüber 2005.
+Die 2 290 in Deutschland registrierten EMAS-Standorte (2021) gehörten zu insgesamt 1 115 Organisationen. Die Zahl der deutschen Organisationen ist gegenüber 2005 um 25,2 % gesunken. Darüber hinaus waren sie sehr heterogen auf das Bundesgebiet verteilt. Die meisten waren in Baden-Württemberg (330) und Bayern (296) angesiedelt, gefolgt von Nordrhein-Westfalen (99). In Mecklenburg-Vorpommern gab es dagegen nur eine registrierte Organisation. 39,4 % der deutschen Organisationen gehörten dem Verarbeitenden Gewerbe, 8,2 % der Erbringung von sonstigen Dienstleistungen, 8,0 % dem Bereich Erziehung und Unterricht, 6,2 % den Bereichen Wasserversorgung, Abwasser- und Abfallentsorgung und Beseitigung von Umweltverschmutzungen sowie 6,1 % dem Gastgewerbe an. Zu beachten ist, dass die Organisationen teilweise mehreren Wirtschaftsbereichen zugeordnet sind.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Der Umweltgutachterausschuss (UGA) ist ein unabhängiges Beratungsgremium des Bundesministeriums für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz (BMUV).&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>EMAS is a voluntary instrument of the European Union that helps organisations of any size and in any sector to continuously improve their environmental performance. Having EMAS certification does not automatically mean that organisations or their products are more environmentally friendly than comparable organisations and products. EMAS involves a reporting obligation requiring organisations to submit environmental statements. These statements include reporting on the main environmental impacts of the organisation in question as well as data pertaining to energy and material efficiency, emissions, water, waste and use of land/biodiversity. Organisations have to update their environmental statements annually, with the exception introduced in 2010 that small and medium-sized enterprises can apply to do so every two years instead. The environmental statement, which is public, and various additional internal documents are inspected by independent, licensed environmental verifiers. The verification must be repeated on a regular basis, no less than every three years. Organisations that pass the verification process and have no breaches of environmental regulations or complaints to answer for are added to the EMAS register. The German EMAS Advisory Board&lt;sup&gt;1&lt;/sup&gt; is responsible for quality assurance. EMAS organisations and locations are registered by the responsible chambers of industry and commerce and stored in a publicly accessible database at the Association of German Chambers of Commerce and Industry.
+In terms of methodology, it should be noted that the EMAS register shows the number of registrations. Participating organisations are free to include several locations under a single organisation registration (corporate registration) or to have their locations registered individually. Some organisations have had their sites abroad registered in Germany. These are present in the EMAS register, but they are not included in the number of EMAS locations recorded here.
+In 2021, there were 2,290 EMAS locations registered in Germany. This equates to an increase of 17 % compared with 2005. Considered over the last five years, the indicator has been gradually moving in the direction of the target. Nevertheless, if that trend continues unchanged, the goal for 2030 will not be achieved.
+The registered organisations employed a total of 911,042 people in 2021. This equates to an decline of 5.2 % compared with 2005.
+The 2,290 EMAS locations on the register in 2021 belong to 1,115 German organisations. The number of German organisations had shrunk by 25.2 % since 2005. Furthermore, those organisations were very well spread throughout the country. The majority were based in Baden-Württemberg (330) and Bavaria (296), followed by North Rhine-Westphalia (99). In contrast, there was just one registered organisation in Mecklenburg-Western Pomerania. Divided by sector, the distribution was as follows: 39.4 % of the German organisations represented the manufacturing industry, 8.2 % miscellaneous services, 8.0 % the education sector, 6.2 % areas of water supply, waste water and waste disposal and removal of environmental pollution as well as 6.1 % the hospitality industry. It should be noted that some of the organisations belong to more than one sector.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;The EMAS Advisory Board is an independent advisory body of the Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="L50" s="4" t="inlineStr">
+        <is>
+          <t>12.6.1</t>
+        </is>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N50" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>12.3.a,b</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Nachhaltige Beschaffung</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>Sustainable procurement</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren zeigen Nachhaltigkeit in der Beschaffung exemplarisch anhand der Teilbereiche Papier sowie CO2-Emissionen von Kraftfahrzeugen (Kfz). Beide Indikatoren werden als Indizes mit dem Basisjahr 2015 dargestellt.
+Der Indikator 12.3.a „Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung“ bildet den Anteil von Papier mit dem Umweltsiegel Blauer Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung ab. Dabei wird ab dem Berichtsjahr 2018 ausschließlich nichtfarbiges DIN-A4-Druck- und Kopierpapier erfasst.
+Der Indikator 12.3.b „CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand“ setzt die CO2-Emissionen ins Verhältnis zu den entsprechenden Fahrleistungen.</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>These indicators show sustainability in procurement through the examples of paper and the CO2 emissions of motor vehicles. Each is depicted as an index using 2015 as its base year.
+Indicator 12.3.a ”Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration” measures what proportion of total paper procured for the direct federal administration is certified with the Blue Angel ecolabel. Since reporting year 2018, only non-coloured A4-sized printer and copier paper is recorded.
+Indicator 12.3.b “CO2 emissions of publicity owned vehicles by distance travelled” shows the CO2 emissions of publicly owned vehicles in relation to the distances they travel.</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>Der Themenbereich „Nachhaltige Beschaffung“ ist sehr komplex. Hier werden exemplarisch produktspezifische Indikatoren betrachtet. Während für den Anteil von Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung ein Wert von 95 % bis zum Jahr 2020 anvisiert ist, soll das Verhältnis von CO2-Emissionen je Fahrleistungen zukünftig weiter sinken. Die öffentliche Hand hat einen wesentlichen Anteil an der Nachfrage von Produkten und Dienstleistungen. Die Ausrichtung der öffentlichen Beschaffung am Leitprinzip der Nachhaltigkeit und die Stärkung von Nachhaltigkeitskriterien bei der öffentlichen Beschaffung sollen daher als Hebel für die Steigerung des Angebots nachhaltiger Produkte wirken. Ziel der Bundesregierung ist es, Nachhaltigkeit in der öffentlichen Beschaffung generell zu stärken.</t>
+        </is>
+      </c>
+      <c r="I51" s="5" t="inlineStr">
+        <is>
+          <t>Sustainable procurement is a very complex topic. Product-specific indicators are examined here as examples. While the proportion of paper bearing the Blue Angel ecolabel is supposed to reach 95 % of the direct federal administration’s total paper use by 2020, the ratio of CO2 emissions to distance travelled is supposed to continue sinking. The public sector accounts for a considerable share of demand for products and services. It is therefore aimed that establishing sustainable development as a guiding principle of public procurement and reinforcing sustainability criteria within public procurement will serve as a lever to increase provision of sustainable products. The Federal Government’s aim is to strengthen sustainability across public procurement generally.</t>
+        </is>
+      </c>
+      <c r="J51" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;i&gt;Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Die Daten für die Berechnung des Anteils von Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung werden durch das Monitoring des Maßnahmenprogramms Nachhaltigkeit erhoben, das vom Bundeskanzleramt durchgeführt und von der Kompetenzstelle für nachhaltige Beschaffung (KNB) beim Beschaffungsamt des BMI (BeschA) unterstützt wird. Der Blaue Engel ist ein Umweltzeichen für umweltschonende Produkte und Dienstleistungen. Bezogen auf Papier bedeutet dieses Siegel, dass die Papierfasern zu 100 Prozent aus Altpapier gewonnen werden und dass bei der Herstellung auf schädliche Chemikalien oder optische Aufheller verzichtet wird.
+Der Anteil des Papiers mit Blauem Engel ist von 2015 bis 2020 nach vorläufigen Daten um rund 113 % gestiegen. Im Jahr 2015 betrug der Anteil 45 % am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung und erreichte 2020 einen Wert von rund 96 %. Dies entspricht einer Zunahme um 112,9 % (Indexwert = 212,9). Somit folgt der Indikator der Zielsetzung des Maßnahmenprogramms Nachhaltigkeit, den Anteil des Einsatzes von Papier mit dem Blauen Engel auf 95 % bis 2020 zu steigern. Der Gesamtpapierverbrauch sank im Jahr 2020 im Vergleich zum Vorjahr um 14,1 % (von rund 993 Millionen auf rund 852 Millionen Blatt Papier). Für den Zeitraum zwischen 2015 und 2020 betrug die Reduktion des Gesamtpapierverbrauchs insgesamt 33,4 %.
+Bei dem Zeitvergleich ist zu beachten, dass es im Jahr 2018 eine methodische Anpassung bei der Definition von Papier gab. Ab dem Berichtsjahr 2018 wird ausschließlich nicht farbiges DIN-A4-Druck- und Kopierpapier erfasst. Somit kann der Rückgang des Gesamtpapierverbrauchs zum Teil auf die methodische Änderung zurückzuführen sein.
+Generell ist bei diesem Indikator zu beachten, dass die Aussagekraft der Verwendung von Papier mit Blauem Engel für den Gesamtkomplex „Nachhaltige Beschaffung“ eher gering ist. Denn Papier weist lediglich einen kleinen Anteil am monetären Gesamtvolumen der Beschaffung der öffentlichen Hand auf.
+&lt;b&gt;&lt;i&gt;CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Die Daten für die Kfz der öffentlichen Hand werden von den Umweltökonomischen Gesamtrechnungen (UGR) des Statistischen Bundesamtes unter Zuhilfenahme der TREMOD-Datenbank (Transport-Emission-Model) des Instituts für Energie- und Umweltforschung (ifeu) bereitgestellt. Die öffentliche Hand umfasst Bund, Länder, Gemeinden und Gemeindeverbände, Polizei, Bundesgrenzschutz, Feuerschutz und -wehren.
+Aufgrund einer Vielzahl methodischer Änderungen im Jahr 2016 sind die Ergebnisse ab 2017 nureingeschränkt mit den Vorjahren vergleichbar.
+Betrachtet man im Vergleich zu den Kfz der öffentlichen Hand die Kfz der unmittelbaren Bundesverwaltung, betrugen im Jahr 2020 deren durchschnittlichen CO2-Emissionen 223,6 Gramm CO2 je gefahrenen Kilometer.
+Die unmittelbare Bundesverwaltung umfasst die eigenen, aber rechtlich unselbstständigen zentralen oder nachgeordneten Behörden des Bundes. Die Daten für die CO2-Emissionen je Fahrleistungen der Kfz der unmittelbaren Bundesverwaltung stammen vom Umweltbundesamt (UBA). Wie bei den Angaben zu den Kfz der öffentlichen Hand werden bei der unmittelbaren Bundesverwaltung ebenfalls alle Kfz bis zu einem Gewicht von 3,5 Tonnen berücksichtigt, allerdings nicht die leichten Nutzfahrzeuge dieser Klasse.
+Zwischen 2015 und 2017 stieg der Anteil der neu angeschafften Kfz der unmittelbaren Bundesverwaltung, deren Emissionswerte kleiner als 50 Gramm CO2 je Kilometer betrugen, am Gesamtvolumen der neu beschafften Kfz von 2,6 auf 4,1 %. Im Jahr 2018 fiel der Anteil auf 3,3 %. Nach vorläufigen Zahlen sank der Wert im Jahr 2019 weiter und lag bei 2,4 % stieg jedoch im Jahr 2020 auf 8,5 %.
+Der hier betrachtete Indikator bezieht sich ausschließlich auf den Umweltaspekt der Nachhaltigkeit. Zudem werden nur diejenigen CO2-Emissionen berücksichtigt, die im B</t>
+        </is>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;i&gt;Paper with Blue Angel certification as a proportion of the direct federal administration’s total paper consumption&lt;/i&gt;&lt;/b&gt;
+The data used to calculate the proportion of Blue Angel-certified paper in the direct federal administration’s total paper consumption are collated through the monitoring of the Programme of Sustainability Measures being conducted by the Federal Chancellery and supported by the Centre of Excellence for Sustainable Procurement at the Procurement Office of the Federal Ministry of the Interior. The Blue Angel is an ecolabel for environmentally friendly products and services. When awarded to paper, it means that 100 % of the paper fibres were recovered from wastepaper and that no harmful chemicals or bleaching agents were used in the production process.
+According to the preliminary data, the proportion of Blue Angel-certified paper rose by around 113 % between 2015 and 2020. In 2015, 45 % of all the paper used by the direct federal administration bore the Blue Angel label; that figure had risen to 96 % by 2020. This equates to an increase of 112.9 % (or an index value of 212.9). The indicator is thus in line with the target set in the Programme of Sustainability Measures to raise the use of paper with the Blue Angel label to 95 % by 2020. Total paper consumption decreased in 2020 by 14.1 % compared to previous year (from about 993 to 852 million sheet of paper), resulting in a 33.4 % reduction in total paper consumption between 2015 and 2020.
+When comparing the data over time, it should be noted that there was a change in methodology in 2018 regarding the definition of paper. Since the 2018 reporting year, only non-coloured A4-sized printer and copier paper has been included in the data. The reduction in total paper use can in part be traced to this methodological change.
+More generally, it should be noted that the use of Blue Angel-certified paper has limited relevance in terms of sustainable procurement overall, as paper accounts for a small proportion of the total financial volumes involved in procurement for the public sector.
+&lt;b&gt;&lt;i&gt;CO2 emissions of motor vehicles of the public sector mileage&lt;/i&gt;&lt;/b&gt;
+The data on publicly owned vehicles are provided by the environmental economic accounts compiled by the Federal Statistical Office using the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. The public sector comprises the Federal Government, the Länder and municipalities, the police, the Federal Border Police and the fire services.
+Due to methodological changes in 2016, the comparability of the data is limited.
+If, instead of looking at publicly owned vehicles, one focuses on vehicles owned by the direct federal administration, average CO2 emissions amounted to 223.6 grams per kilometre travelled in 2020.
+The direct federal administration encompasses Federal Government’s own central and subordinate authorities, which are legally dependent. The data on CO2 emissions per kilometre travelled for vehicles owned by the direct federal administration are provided by German Environment Agency. As for the data on publicly owned vehicles, the direct federal administration figures count all passenger vehicles weighing up to 3.5 tonnes but not light commercial vehicles within that class.
+Between 2015 and 2017, the proportion of vehicles newly acquired for the direct federal administration that produced emissions lower than 50 grams CO2 per kilometre rose from 2.6 % to 4.1 % of all newly purchased vehicles. That share fell back to 3.3 % in 2018. The provisional data show it falling further in 2019, to 2.4 %, however, the value increased to 8.5 % in 2020.
+The indicator under consideration here relates only to the environmental aspect of sustainability. Moreover, it only covers the CO2 emissions released during the vehicles’ operation. Looking at their entire life-cycle costs, there are more greenhouse-gas emissions, occurring during the processes</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>12.7.1</t>
+        </is>
+      </c>
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N51" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>13.1.a</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Treibhausgasemissionen</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>Greenhouse gas emissions</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den Index der Emissionen folgender Treibhausgase (Stoffe oder Stoffgruppen, in CO2-Äquivalenten): Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC), perfluorierte Kohlenwasserstoffe (FKW/PFC) sowie Schwefelhexafluorid (SF6).</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the index of emissions of the following greenhouse gases (substances or substance groups) in CO2 equivalents: carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), nitrogen trifluoride (NF3), hydrofluorocarbons (H-FKW/HFC), perfluorocarbons (FKW/PFC) and sulphur hexafluoride (SF6).</t>
+        </is>
+      </c>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>Die globale Durchschnittstemperatur auf der Erdoberfläche steigt aufgrund der zunehmenden Konzentration von Kohlendioxid (CO2) und anderen Treibhausgasen (THG) in der Atmosphäre kontinuierlich an. Ziel der Bundesregierung ist es daher, bis zum Jahr 2030 die Treibhausgasemissionen in Deutschland um mindestens 65 % und bis zum Jahr 2040 um mindestens 88 % gegenüber 1990 zu senken. Das Ziel bis zum Jahr 2020 war eine Reduktion der Treibhausgasemissionen um 40 %. Bis zum Jahr 2045 soll die Treibhausgasneutralität erreicht werden.&lt;sup&gt;1&lt;/sup&gt;
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung der Zielwerte von mindestens 55 % bis 2030 gegenüber 1990 und Erreichung der Treibhausgasneutralität bis 2050 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="I52" s="5" t="inlineStr">
+        <is>
+          <t>The global average temperature on the surface of the Earth is continuously rising due to the increasing concentration of carbon dioxide and other greenhouse gases in the atmosphere. The Federal Government therefore aims to lower greenhouse gas emissions in Germany by at least 65 % by 2030 and by at least 88 % by 2040 compared with 1990. The target was to achieve a reduction of greenhouse gas emissions at 40 % by 2020. The intention is to achieve greenhouse gas neutrality by 2045&lt;sup&gt;1&lt;/sup&gt;.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target values of at least 55 % by 2030 compared to 1990 level and achievement of greenhouse gas neutrality by 2050 according to policy resolution 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>Die kurzwelligen Sonnenstrahlen werden von den verschiedenen Treibhausgasen (THG) in der Atmosphäre transmittiert und von der Erdoberfläche als langwellige Wärmestrahlung reflektiert. Die THG absorbieren und emittieren die von der Erde ausgehende Infrarotstrahlung in unterschiedlichen Wellenbereichen, mit unterschiedlicher Intensität und haben eine unterschiedliche Verweilzeit in der Atmosphäre. Daher tragen die Konzentrationen der einzelnen THG in unterschiedlichem Maße zum Treibhauseffekt bei. Um die Wirkung der Emissionen von verschiedenen THG dennoch vergleichen und zusammenfassen zu können, wird versucht ihre Wirkung auf die globale Erwärmung mittels „CO2-Äquivalenten“ zu beziffern. Durch die Zusammenfassung sind jedoch die Entwicklungen der THG im Einzelnen nicht ersichtlich, da die negative Entwicklung des einen THG durch die positive Entwicklung eines anderen THG überlagert werden kann.
+Die Daten werden jährlich durch das Umweltbundesamt (UBA) im Rahmen der Berichterstattung unter der Klimarahmenkonvention der Vereinten Nationen (UNFCCC: United Nations Framework Convention on Climate Change) dem Pariser Übereinkommen&lt;sup&gt;1&lt;/sup&gt; und dem Bundes-Klimaschutzgesetz (KSG) zur Verfügung gestellt. Die Emissionsermittlung und -berichterstattung unterliegt einem umfassenden Qualitätsmanagement.
+Die Berechnung erfolgt nach dem Verursacher- und Territorialkonzept. Für alle THG und Luftschadstoffe wurden somit alle relevanten Emissionsquellen innerhalb Deutschlands ermittelt. Für diese Quellen wurde untersucht, wie hoch die Emissionen unter bestimmten Voraussetzungen sind. Daraus resultiert ein spezifischer Emissionsfaktor, der durch Multiplikation mit den Aktivitätsdaten der Quelle die Emissionsmenge ergibt.
+Zu beachten ist, dass der Indikator gemäß Kyoto-Protokoll nicht die CO2-Emissionen aus Landnutzung, Landnutzungsänderungen und Forstwirtschaft ausweist. Auch die Seeschifffahrt und der internationale Flugverkehr werden bei der Berechnung nicht berücksichtigt.
+Betrachtet man die Entwicklung der Jahre 2015 bis 2021, so hat sich der Indikator nicht stabil entwickelt. Im Jahr 2015 und 2016 stiegen die Emissionswerte von THG jeweils geringfügig um 0,3 Prozentpunkte an. Seit dem Jahr 2017 sanken diese jedoch deutlich, 2017 um 1,3, 2018 um 2,8, 2019 um 4,1 und 2020 um 5,7 Prozentpunkte. Das Ziel für 2020 – eine Reduktion um 40 % gegenüber 2008 – konnte somit mit einer Reduktion um 41,3 % erreicht werden. Dies ist insbesondere auf Rückgänge im Verkehr und in der Industrieproduktion während der Corona-Pandemie zurückzuführen. Im Jahr 2021 sind die Treibhausgasemissionen wieder um 2,6 Prozentpunkte angestiegen. Langfristig zeigt sich nach den vorläufigen Emissionsdaten laut KSG im Jahr 2021 ein Rückgang um insgesamt 38,7 % gegenüber 1990. Bei Fortsetzung der Entwicklung der letzten fünf Berichtsjahre ist das Erreichen des Ziels für 2030 – eine Reduktion um 65 % gegenüber 1990 – nicht möglich. Auch das ehemalige Ziel der Regierung einer Reduktion der Treibhausgasemissionen um 55 % bis 2030 würde bei einer Fortschreibung des Trends nicht erreicht werden.
+Den weitaus größten Anteil am gesamten Ausstoß von THG hatte 2021 das Kohlendioxid mit 88,6 %, im Jahr 1990 waren es 84,7 %. Methan trug zuletzt mit 6,3 %, Lachgas mit 3,6 % und die fluorierten Treibhausgase als Summe mit 1,5 % bei. Der mit Abstand größte Teil der CO2-Emissionen entsteht bei der Gewinnung von Strom und Wärme. Methan und Lachgas entweichen hauptsächlich in der landwirtschaftlichen Produktion.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt; Das Kyoto-Protokoll ist Ende 2020 abgelaufen. Für die Zeit nach 2020 einigten sich die Vertragsparteien der Klimarahmenkonvention auf ein neues Abkommen, das Pariser Übereinkommen, das das Kyoto-Protokoll ersetzt.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>Short-wavelength sun rays are transmitted by various atmospheric greenhouse gases and reflected by the earth’s surface as long-wavelength thermal radiation. Greenhouse gases absorb and emit infrared radiation from the earth in different wave ranges with varying intensity, and have different residence time in the atmosphere. Hence, the effects of greenhouse gases are subject to their concentration in the atmosphere and contribute to a variable extent to the greenhouse effect. To summarise the various greenhouse gases into a single index, they are each expressed in “CO2 equivalents”, which means that they are converted into the quantity of CO2 that would have a comparable impact on global warming. Because of cumulation, however, the development of the individual greenhouse gases cannot be determined. A negative development of one greenhouse gas can for instance be concealed by a positive development of another greenhouse gas.
+The data is provided annually by the German Environment Agency as part of the reporting required under the United Nations Framework Convention on Climate Change (UNFCCC), the Paris Agreement&lt;sup&gt;1&lt;/sup&gt; and the Federal Climate Change Act. The measuring and reporting of emissions is subject to a comprehensive quality-management regime.
+The emissions are calculated in accordance with the territoriality or production principle. The largest emitters of greenhouse gases and air pollutants within Germany were therefore identified, and the quantity of their emissions under certain circumstances was investigated. A specific emissions factor derived from those findings was then multiplied by the emitter’s activity data to arrive at the overall quantity of emissions.
+It should be noted that, in accordance with the Kyoto Protocol, the indicator does not show carbon dioxide emissions arising from land use, land-use change and forestry. Maritime shipping and international aviation are also excluded from the calculation.
+Looking at developments between 2015 and 2021, it is clear that the indicator has not progressed in a stable manner. In 2015 and 2016, greenhouse-gas emissions rose slightly by 0.3 percentage points. Since 2017, however, they have sunk noticeably, by 1.3 percentage points in 2017, 2.8 percentage points in 2018, 4.1 percentage points in 2019 and 5.7 percentage points in 2020. The targeted reduction of 40 % by 2020 in comparison to 2008 was achieved at 41.3 %. Particularly, the changes can be attributed to the consequences from the COVID-19 pandemic due to the decline in traffic and industrial output. However, greenhouse gas emissions increased by 2.6 % in 2021. According to provisional emission data by the Federal Climate Change Act on long-term development, emissions reduced by 38.7 % in 2021 compared to 1990. If the development continues according to the preceding five years, the goal to reduce emissions by 65 % by 2030 compared to 1990 will be missed. Further, the former goal of the Federal Government would also be missed in the case of continuation of the trend, that is, a reduction of greenhouse gas emissions by 55 % by 2030. 
+By far the greatest share of total greenhouse-gases in 2021 was carbon dioxide, at 88.6 %, compared with 84.7 % in 1990. Most recently, methane accounted for 6.3 % of the total, with nitrous oxide on 3.6 % and the sum of fluorinated greenhouse gases on 1.5 %. By far the largest proportion of CO2 emissions arise from the generation of electricity and heat. Methane and nitrous oxide are emitted primarily by agricultural production.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Kyoto Protocol has expired at the end of 2020. From 2020 on, contracting parties of the UNFCCC committed to the Paris Agreement in lieu of the Kyoto Protocol.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
+        <is>
+          <t>13.2.2</t>
+        </is>
+      </c>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>45603</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P02_Ib01</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P02</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>13.1.b</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator umfasst die Finanzierung von Maßnahmen zur Reduktion von Treibhausgasen (THG), zur Anpassung an den Klimawandel sowie klimarelevante Maßnahmen zum Erhalt der Biodiversität und zum Waldschutz (Projekte zum Schutz, zu nachhaltiger Nutzung und Wiederaufforstung von Wald im Rahmen des REDD+-Regelwerks). Die Maßnahmen erfolgen vorrangig in Entwicklungs- und Schwellenländern und werden aus deutschen Haushaltsmitteln (seit 2017 einschließlich der Schenkungsäquivalente von Entwicklungskrediten) finanziert.</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr">
+        <is>
+          <t>This indicator covers the financing of measures to reduce greenhouse gases, adapt to climate change and/or take climate-related action to preserve biodiversity and protect forests (specifically, projects for the conservation and sustainable management of forests as well as reforestation within the REDD+ framework). The measures chiefly take place in developing and emerging countries and are financed using German budget funds (including grant elements of development loans since 2017).</t>
+        </is>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>Absicht der Bundesregierung ist es, ihre internationale Klimafinanzierung bis 2025 auf sechs Milliarden Euro&lt;sup&gt;1&lt;/sup&gt; aus Haushaltsmitteln zu erhöhen und somit den Sollwert von zwei Milliarden Euro des Jahres 2014 zu verdreifachen. In den Entscheidungen, welche das Klimaabkommen von Paris begleiteten, wurde die Zusage der Industrieländer von 2009 bekräftigt, ab dem Jahr 2020 bis 2025 gemeinsam 100 Milliarden US-Dollar aus öffentlichen und durch öffentliche Mittel mobilisierten privaten Quellen für den Klimaschutz und die Anpassung an den Klimawandel in Entwicklungsländern bereitzustellen.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung des Zieljahres und -wertes von vier Milliarden Euro bis 2020 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="I53" s="5" t="inlineStr">
+        <is>
+          <t>The Federal Government’s aim is to raise its contribution to international climate finance to 6 billion euros&lt;sup&gt;1&lt;/sup&gt; from public funds and grant elements of development loans by 2025, thereby trebling the target value for 2014, which was 2 billion euros. In the decisions contained in the Addendum to the Paris Agreement, the industrialised countries reaffirmed their 2009 commitment to collectively provide 100 billion US-dollar from public funds and from private sources mobilised by public funds, every year from 2020 to 2025, for mitigation and adaptation to climate change in developing countries.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target year and target value from 4 billion euros by 2020 according to policy resolution 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="J53" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten des Indikators sind der Berichterstattung zur EU-Verordnung über ein System für die Überwachung von Treibhausgasen (THG) entnommen. Datenquelle der jährlich erhobenen Daten ist das Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ), das in diesem Kontext auch über die Klimafinanzierung anderer Bundesministerien berichtet. Dabei werden für die Berechnung der Ausgaben für bilaterale Klimafinanzierung die Zusagen, für multilaterale Klimafinanzierung sowie für Beiträge zu Energie- und Klimafonds die tatsächlichen Auszahlungen zugrunde gelegt. Der Indikator beinhaltet darüber hinaus die anteilig zuzurechnende Klimafinanzierung, welche sich aus deren Beiträgen zu multilateralen Fonds bei Entwicklungsbanken ergibt. Sofern die Klimafinanzierung schwerpunktmäßig Entwicklungsländern zugutekommt, ist sie Teil der öffentlichen Entwicklungsausgaben (siehe Indikator 17.1 „Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen“).&lt;br&gt;Im Jahr 2021 wurden aus deutschen Haushaltsmitteln 5,34 Milliarden Euro für die internationale Klimafinanzierung zur Reduzierung von Treibhausgasen und zur Anpassung an den Klimawandel zugesagt bzw. bereitgestellt. Im Vergleich zum Vorjahr, in dem die Klimafinanzierung 5,09 Milliarden Euro betrug, ist ein Anstieg um 4,9 % zu verzeichnen. Das Ziel des Indikators von sechs Milliarden Euro bis zum Jahr 2025 wird bei Fortführung der bisherigen Entwicklung voraussichtlich erreicht. Das ursprüngliche Ziel – von vier Milliarden Euro bis zum Jahr 2020 – wurde bereits 2019 mit Zahlungen in Höhe von 4,34 Milliarden Euro erreicht. 36 % der Klimafinanzierungsmittel flossen 2021 in die Emissionsminderung und 33 % in die Anpassung an den Klimawandel. Mit den verbleibenden 30 % wurden bereichsübergreifende Projekte finanziert. Da die bereichsübergreifenden Projekte gleichermaßen minderungs- als auch anpassungsrelevant sind, ergibt sich nach Aufteilung dieser, dass – wie in den Jahren zuvor – auch 2021 mehr Mittel für Minderungsvorhaben (51 %) als für Anpassungsvorhaben (49 %) aufgewendet wurden.&lt;br&gt;Über multilaterale Kanäle wurden 18 % (971 Millionen Euro) der Klimafinanzierung im Jahr 2021 bereitgestellt. Davon können Deutschland 268 Millionen Euro auf Basis der klimarelevanten Anteile der deutschen Beiträge zu den multilateralen Entwicklungsbanken, der Globalen Umweltfazilität und dem Internationalen Fonds für landwirtschaftliche Entwicklung zugerechnet werden. Die verbleibenden 703 Millionen Euro stellt Deutschland über multilaterale Einrichtungen und Beiträge für internationale Klimafonds bereit.&lt;br&gt;Neben der öffentlichen Klimafinanzierung aus Haushaltsmitteln stellen die Kreditanstalt für Wiederaufbau (KfW) und die Deutsche Entwicklungsgesellschaft (DEG) ebenfalls klimabezogene Kredite und andere Finanzierungen aus Marktmitteln bereit. Diese stellen die „mobilisierte öffentliche Klimafinanzierung“ dar und sind nicht im Indikator enthalten. Im Jahr 2021 umfassten die so mobilisierten Ressourcen rund 2,59 Milliarden Euro im Vergleich zu 2,55 Milliarden Euro aus dem Vorjahr. Auch hier wurden mehr Mittel für Minderungsvorhaben (58 %) als für Anpassungsvorhaben (42 %) aufgewendet.</t>
+        </is>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>The data for this indicator is derived from reporting carried out under the EU Regulation on a mechanism for monitoring greenhouse gases. The source of the annually collected data is the Federal Ministry for Economic Cooperation and Development, which also reports in this context on climate finance from other federal ministries. In the case of bilateral climate finance, expenditure is calculated on the basis of funds allocated; in the case of multilateral climate finance and contributions to energy and climate funds, it is calculated on the basis of funds actually paid. The indicator also includes climate finance that is attributed to donors pro rata on the basis of their contributions to multilateral funds managed by development banks. As climate finance primarily benefits developing countries, it is considered to be part of official development expenditure (see indicator 17.1 “Official development assistance as a proportion of gross national income”).
+In 2021, Germany committed or provided 5.34 billion euros in public funds for international climate finance for the reduction of greenhouse gases and adaptation to climate change. Compared with the previous year, when climate finance amounted to 5.09 billion euros, this represents an increase of 4.9 %. The target for 2025 – to reach 6 billion euros – will most likely be achieved if the development continues. The previous target – to reach 4 billion euros by 2020 – was already achieved in 2019 at 4.34 billion euros. In 2021, 36 % of climate finance went to fund projects to reduce emissions, while 33 % went towards adaptation to climate change. The remaining 30 % was used to finance horizontal measures. As the horizontal measures serve both the reduction and adaptation efforts, the final split in 2021, as in previous years, shows more funds being used for emissions reduction (51 %) than for adaptation (49 %).
+18 % of climate finance, or 971 million euros, was provided through multilateral channels in 2021. 268 million euros of that can be attributed to Germany on the basis of the climate-related shares of Germany’s contributions to multilateral development banks, the Global Environment Facility and the International Fund for Agricultural Development. Germany provides the remaining 703 million euros through multilateral institutions and contributions to international climate funds.
+In addition to official climate finance from public funds, Kreditanstalt für Wiederaufbau (KfW) and DEG (Deutsche Investitions- und Entwicklungsgesellschaft) also provide climate-related loans with funds from the market. These represent mobilised public climate finance and are not included in the indicator. In 2021, the resources mobilised in this way amounted to approximately 2.59 billion euros, compared with 2.55 billion euros the previous year. Here too, more funding went towards emissions reduction (58 %) than adaptation (42 %).</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>13.a.1</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>45562</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>14.1.a</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nord- und Ostsee</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>Nitrogen input via the inflows into the North and Baltic Seas</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren geben den gleitenden, abflussgewichteten Durchschnitt der letzten fünf Jahre der Stickstoffkonzentrationen in Milligramm (mg) Stickstoff pro Liter (l) Wasserabfluss von Flüssen in die Nord- und Ostsee an.&lt;sup&gt;1&lt;/sup&gt;
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Für die Nordsee sind dies die Flüsse Eider, Elbe, Ems, Weser, Rhein, Treene, Aarlau, Bongsieler Kanal und Miele. Für die Ostsee sind dies die Peene, Trave, Warnow, Langballigau, Füsinger Au, Koseler Au, Schwentine, Kossau, Goddesdorfer Au, Oldenburger Graben, Aalbeck, Schwartau, Lippingau, Hagener Au, Barthe, Duvenbaek, Hellbach, Maurine, Recknitz, Ryck, Stepenitz, Uecker, Wallensteingraben und Zarow.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="inlineStr">
+        <is>
+          <t>The indicators show the moving discharge-weighted five-year average of nitrogen concentrations in milligrams (mg) of nitrogen per litre (l) of water discharged from rivers into the North Sea and the Baltic Sea.&lt;sup&gt;1&lt;/sup&gt;
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Regarding the North Sea, these are the following rivers: Eider, Elbe, Ems, Weser, Rhein, Treene, Aarlau, Bongsieler Kanal and Miele. As far as the Baltic Sea is concerned, these are the following rivers: Peene, Trave, Warnow, Langballigau, Füsinger Au, Koseler Au, Schwentine, Kossau, Goddesdorfer Au, Oldenburger Graben, Aalbeck, Schwartau, Lippingau, Hagener Au, Barthe, Duvenbaek, Hellbach, Maurine, Recknitz, Ryck, Stepenitz, Uecker, Wallensteingraben and Zarow.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t>Hohe Konzentrationen von Stickstoff in den Meeren können zu Eutrophierungseffekten wie Sauerstoffmangel und dadurch zum Verlust an Biodiversität und zur Zerstörung von Fisch-Aufzugsgebieten führen. Daher soll der Eintrag von Stickstoff unter 2,8 mg Stickstoff pro Liter Abfluss für die in die Nordsee einmündenden Flüsse und unter 2,6 mg Stickstoff pro Liter für die in die Ostsee einmündenden Flüsse liegen. Dies entspricht den im Rahmen der Umsetzung der Wasserrahmenrichtlinie (WRRL) vereinbarten Bewirtschaftungszielen der Oberflächengewässerverordnung (OGewV) sowie den Zielen der Meeresstrategie-Rahmenrichtlinie (MSRL) und des Ostseeaktionsplans.</t>
+        </is>
+      </c>
+      <c r="I54" s="5" t="inlineStr">
+        <is>
+          <t>High concentrations of nitrogen in the seas can lead to eutrophication effects such as oxygen depletion, the loss of biodiversity and to the destruction of fish spawning grounds. Therefore, the input of nitrogen should stay below 2.8 mg nitrogen per litre discharge for the rivers flowing into the North Sea and below 2.6 mg/l for the rivers flowing into the Baltic Sea. This aligns with the management targets of the Ordinance on the Protection of Surface Waters (OGewV), which were agreed in implementation of the Water Framework Directive, as well as with those of the Marine Strategy Framework Directive and the Baltic Sea Action Plan.</t>
+        </is>
+      </c>
+      <c r="J54" s="5" t="inlineStr">
+        <is>
+          <t>Eine Hauptursache für den Stickstoffeintrag über die Zuflüsse in Nord- und Ostsee ist der Stickstoffüberschuss in der Landwirtschaft, der in Indikator 2.1.a gemessen wird. Neben Stickstoff führt auch Phosphor zur Eutrophierung. Die Phosphorbelastung der Flüsse wird in Indikator 6.1.a separat betrachtet.&lt;br&gt;Berechnungsgrundlage für diesen Indikator bilden einerseits Messdaten zu Stickstoffkonzentrationen, andererseits Messdaten zum Wasserabfluss kleiner und großer Nord- und Ostseezuflüsse, die das Umweltbundesamt (UBA) nach Angaben der Bundesländer bzw. Flussgebietsgemeinschaften zusammenstellt. Dabei werden auch kleinere Flüsse berücksichtigt, die nicht direkt in die Nord- bzw. Ostsee, sondern in einen größeren Fluss münden. Hier sind die Messstellen so gewählt, dass jeweils die Daten der letzten Messstellen vor dem Zusammenfließen beider Flüsse berücksichtigt werden. Berücksichtigt wird darüber hinaus auch der Rhein, der nicht in Deutschland mündet. Hier werden die Werte an dem Punkt gemessen, wo der Rhein Deutschland verlässt (Messstelle bei Kleve, Ortsteil Bimmen).&lt;br&gt;Die Stickstoffkonzentrationen der einzelnen Flüsse werden abflussgewichtet gemittelt, sodass große Flüsse mit großen Wasserabflussmengen den Durchschnitt stärker beeinflussen als kleine Flüsse. Damit einzelne Extremereignisse wie Hochwasser oder Dürre, die punktuell zu sehr hohen oder sehr niedrigen Stickstoffeinträgen führen, die Darstellung der Entwicklung nicht verzerren, werden die Werte als gleitender Fünfjahresdurchschnitt betrachtet.&lt;br&gt;Die abflussgewichtete Stickstoffkonzentration über alle Nord- und Ostseezuflüsse zeigt seit Beginn der Zeitreihe einen abnehmenden Trend, wobei der Rückgang der Konzentrationen in der Nordsee ausgeprägter als in der Ostsee ist. Im Mittel 2016 bis 2020 wiesen die Nordseezuflüsse eine Konzentration von 2,8 mg/l auf und erreichten damit gemeinsam erstmals den Zielwert. Die Zuflüsse der Ostsee erreichten im gleichen Zeitraum eine Konzentration von 3,1 mg/l und lagen damit deutlich über der Obergrenze von 2,6 mg/l.&lt;br&gt;Im Unterschied zum aggregierten Indikator 14.1.a „Stickstoffeintrag über die Zuflüsse in Nord- und Ostsee“ ist es zum Erreichen eines guten Zustandes gemäß der OGewV jedoch erforderlich, dass jeder einzelne Fluss den Bewirtschaftungszielwert einhält. Dies wird derzeit weder für die Nord- noch für die Ostsee erreicht.&lt;br&gt;Von den großen Ostseezuflüssen Peene, Trave und Warnow erreichte nur die Warnow 2016 bis 2020 den Bewirtschaftungszielwert. Für Peene und Trave zeigte sich jedoch ein leichter Rückgang der Fünfjahresdurchschnitte der Konzentrationen von 0,1 mg/l. Bei den kleinen Ostseezuflüssen lagen die Stickstoffkonzentrationen im Fünfjahresdurchschnitt mit bis zu 5,9 mg/l teilweise noch um ein Vielfaches über dem Bewirtschaftungszielwert, der nur von einem Viertel der kleinen Flüsse erreicht wurde.&lt;br&gt;Bei den Nordseezuflüssen erreichte 2016 bis 2020 nur der Rhein den Bewirtschaftungszielwert und war daher hauptverantwortlich für das gemeinsame, abflussgewichtete Erreichen des Zielwerts. Mit Ausnahme der Elbe waren die Fünfjahresdurchschnitte der Konzentrationen für alle großen Nordseezuflüsse (Ems, Weser, Rhein und Eider) mit Abnahmen von 0,1 bis 0,2 mg/l rückläufig. Bei den kleinen Nordseezuflüssen lagen die Stickstoffkonzentrationen im Fünfjahresdurchschnitt im Zeitraum 2016 bis 2020 zwischen 2,6 bis 3,5 mg/l und wiesen auch hier einen leichten Rückgang auf.</t>
+        </is>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>One of the main causes of nitrogen inputs reaching the North and Baltic Seas via inflows is nitrogen surplus in agriculture, which is measured in indicator 2.1.a. Like nitrogen, phosphorus also leads to eutrophication. Phosphorus pollution in rivers is examined separately in indicator 6.1.a.
+The calculations for this indicator use monitoring data on nitrogen concentrations and on the discharge volumes of small and major rivers flowing into the North and Baltic Seas, which the German Environment Agency collates as reported by the Länder and by river basin commissions. Data is also included for smaller rivers which do not flow directly into the North or Baltic Sea but are tributaries to larger rivers. In these cases, the data for each river are taken from its last monitoring site before the confluence. The Rhine is also included in the figures, even though its estuary is not in Germany. The data for the Rhine were recorded at the point where it leaves Germany (monitoring site at Bimmen, Kleve).
+The nitrogen concentrations for each river are weighted for discharge volume, so that major rivers which discharge large qualities of water have a greater influence on the average that smaller ones. To prevent the graph being distorted by single extreme events like floods or droughts, which can result in anomalously very high or very low nitrogen inputs, the values are depicted as a five-year moving average.
+The average nitrogen concentration for all North and Baltic Sea inflows, weighted for discharge volume, has followed a downward trend since the beginning of the time series, with the reduction in concentration more marked for the North Sea than the Baltic. The 2016-2020 average for the North Sea inflows was a concentration of 2.8 mg/l and reached jointly the target value for the first time. For rivers flowing into the Baltic Sea, the average concentration was 3.1 mg/l for the same period and, thus, exceeded the upper limit of 2.6 mg/l.
+In contrast to the aggregated indicator 14.1.a “Nitrogen inputs via the inflows into the North and Baltic Seas”, each river by itself has to meet the management target to achieve good quality, as defined by the Ordinance on the Protection of Surface Waters. The target is neither achieved for the North Sea nor the Baltic Sea.
+Of the three major inflows into the Baltic Sea, the Peene, the Trave and the Warnow, only the latter had already reached the management target by 2016-2020. Nevertheless, Peene and Trave showed a small reduction in concentration across the five-year averages by 0.1 mg/l. In some of the smaller Baltic Sea inflows, concentrations of nitrogen are still several times higher than the management target, with values of up to 5.9 mg/l, and the target was only reached by a quarter of the smaller Baltic Sea inflows.
+Of the North Sea inflows, only the Rhine met the management target in the period 2016 to 2020, and, hence, was mainly responsible for the joint achievement of the weighted for discharge volume target value. The five-year averages of nitrogen concentrations decreased for all major North Sea inflows (Ems, Weser, Rhein and Eider) by 0.1 to 0.2 mg/l, except for the Elbe. A slight decline was also measured by the five-year averages of nitrogen concentrations for the small North Sea inflows. Accordingly, the values were between 2.6 mg/l and 3.5 mg/l in the period from 2016-2020.</t>
+        </is>
+      </c>
+      <c r="L54" s="4" t="inlineStr">
+        <is>
+          <t>14.1.1</t>
+        </is>
+      </c>
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N54" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>14.1.b</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der nachhaltig bewirtschafteten Fischbestände an der Zahl der gesamten bewirtschafteten Fischbestände in Nord- und Ostsee an. Dies erfolgt nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz), dem Ansatz des höchstmöglichen Dauerertrags.</t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the sustainably managed fish stocks (according to the Maximum Sustainable Yield [MSY] approach) as a proportion of the total of managed fish stocks in the North and the Baltic Sea.</t>
+        </is>
+      </c>
+      <c r="H55" s="5" t="inlineStr">
+        <is>
+          <t>Die biologische Vielfalt ist die Grundlage für das Leben der Menschen. Nur wenn das Naturkapital – etwa in Form von Fischbeständen in Nord- und Ostsee – geschützt und erhalten wird, kann es auch künftigen Generationen lebenswichtige Ökosystemleistungen erbringen.&lt;br&gt;Das Ziel des Indikators ist es, den Erreichungsgrad des in der Verordnung über die Gemeinsame Fischereipolitik festgelegten Ziels zu beschreiben, nach dem bis 2020 alle wirtschaftlich genutzten Fischbestände nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz) nachhaltig zu bewirtschaften sind.</t>
+        </is>
+      </c>
+      <c r="I55" s="5" t="inlineStr">
+        <is>
+          <t>Biological diversity is fundamental to all human life. Only if the natural capital – for example, in the form of fish stocks in the North and the Baltic Sea – is protected and preserved it can also provide future generations with critical ecosystem services.
+The target of the indicator is to describe the extent to which the goal defined in the Regulation on the Common Fisheries Policy has been achieved. The goal states that all fish stocks used for economic purposes have to be sustainably managed in accordance with the MSY approach by 2020.</t>
+        </is>
+      </c>
+      <c r="J55" s="5" t="inlineStr">
+        <is>
+          <t>Nicht alle Fischbestände werden in Bezug auf ihre nachhaltige Bewirtschaftung untersucht. Daher ist die Zahl der Fischbestände, die nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz) nachhaltig bewirtschaftet werden, auch immer in Relation zu den Fischbeständen insgesamt zu sehen. Eine Ausweitung der Untersuchungen auf möglichst viele Bestände wird zwar angestrebt, bedingt durch die hohen Kosten dieser Untersuchungen ist aber davon auszugehen, dass eine Erfassung sämtlicher, auch ökonomisch wenig relevanter bzw. wenig befischter Bestände nicht realistisch ist. Wirtschaftlich genutzt werden nach derzeitigen Schätzungen in der Nordsee 58 und in der Ostsee 20 Fischbestände. Die Zahl der nach dem MSY-Ansatz untersuchten Bestände beträgt momentan für die Ostsee acht; für die Nordsee werden derzeit 22 Bestände berücksichtigt. Damit wird nur gut ein Drittel aller bewirtschafteten Bestände vollständig analytisch auf nachhaltige Bewirtschaftung untersucht. Alle anderen Bestände, für die nicht ausreichend Daten zur Verfügung stehen, um sie nach der MSY-Methode zu untersuchen, bleiben bei diesem Indikator unberücksichtigt.&lt;br&gt;Ein Bestand gilt dann als „nachhaltig bewirtschaftet“, wenn die tatsächliche Fangmenge pro Jahr und Fischbestand die auf dem MSY-Ansatz basierende, wissenschaftlich empfohlene Menge nicht überschreitet bzw. den Vorgaben eines langfristigen Managementplanes, der dem MSY-Ansatz folgend als nachhaltig bewertet ist, entspricht. Als „Fischbestand“ wird dabei eine sich eigenständig reproduzierende Population einer Fischart bezeichnet. Eine spezifische Art kann somit mehrere Bestände und je nach Bestand auch unterschiedliche Richtwerte für die Fangmenge aufweisen. In der Regel wird jedem Bestand, entsprechend seiner vorherigen Entwicklung, ein Richtwert zugewiesen.&lt;br&gt;Die Richtwerte für die bewirtschafteten Bestände werden durch den Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea) berechnet. Die Datenerhebung zur Berechnung des Indikators deckt die gesamte Nord- und Ostsee ab. Eine Abgrenzung der Werte für deutsche Territorialgewässer und die deutsche ausschließliche Wirtschaftszone ist dementsprechend nicht möglich.&lt;br&gt;Die jährliche Berechnung der nachhaltigen Fangmengen nach dem MSY-Ansatz basiert auf stochastischen Vorhersagen, die auf Berechnungen zur historischen Bestandsentwicklung aufsetzen. Informationen zu angelandeten Fischmengen basieren auf gemeldeten Fängen. Daraus gezogene Stichproben geben Aufschluss über die demografischen Parameter des Bestandes, etwa Alter und Größe. Als weitere wichtige Informationsquelle für den Zustand von Beständen dienen fischereiunabhängige, wissenschaftliche Erhebungen auf Forschungsschiffen. Die Zeitreihe wird jährlich neu geschätzt und die betrachteten Fischarten gegebenenfalls für die gesamte Zeitreihe aktualisiert, wodurch sich auch die Indikatorwerte vergangener Jahre ändern können.&lt;br&gt;Der Anteil der nachhaltig befischten Bestände an der Zahl der nach dem MSY-Ansatz untersuchten Bestände belief sich im Jahr 2020 für Nord- und Ostsee insgesamt auf 60,0 %. Für die Nordsee betrug dieser Anteil 59,1 % und für die Ostsee 62,5 %. Betrachtet man die Entwicklung zwischen den Jahren 2015 und 2020, ist der Verlauf insgesamt positiv. Das Ziel, dass alle wirtschaftlich genutzten Fischbestände nach dem MSY-Ansatz nachhaltig bis 2020 bewirtschaftet werden, konnte nicht erreicht werden.&lt;br&gt;Die Einschätzung des Indikators gestaltet sich schwierig, da er neben der Entwicklung der Bestände selbst auch durch die Auswahl der zu betrachtenden Bestände beeinflusst wird. So kann die Bemessungsgrundlage jedes Jahr variieren, was einen Vergleich der einzelnen Jahre untereinander erschwert. Zusätzlich gelten die empfohlenen Fangmengen staatenübergreifend und können nur indirekt durch die Bemühungen eines einzelnen Staates erfüllt werden.</t>
+        </is>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>Not all fish stocks are examined with reference to their sustainable management. Therefore, the number of fish stocks that are sustainably managed based on the MSY approach should always be viewed in relation to overall fish stocks. Although an expansion of the investigation to include as many stocks as possible is desirable, the high cost of these investigations means that the prospect of recording all stocks, even those that are economically less relevant and less fished, is unrealistic. Based on current estimates, a total of 58 fish stocks in the North Sea and 20 stocks in the Baltic Sea are used for economic purposes. The number of stocks examined using the MSY approach is currently eight in the Baltic Sea and 22 in the North Sea. This means that only a third of all managed stocks are fully analysed with respect to sustainable management. All other stocks for which the data available are not sufficient for analysis according to the MSY method are not included in this indicator.
+A stock is considered to be “sustainably managed” if the actual amount of fish caught per year and the fish stock do not exceed the scientifically recommended amount based on the MSY approach, or if they comply with the requirements of a long-term management plan assessed as sustainable according to the MSY approach. In this context, a “fish stock“ is defined as an independently reproducing population of a specific species of fish. A specific species can therefore have multiple stocks and, depending on the stock, can also have different guideline values regarding the amount of fish caught. As a rule, each stock is assigned a guideline value according to its previous development.
+The guideline values for the managed stocks are calculated by the International Council for the Exploration of the Sea. Data is collected for the whole North and Baltic Sea in order to calculate the indicator. Accordingly, a distinction between the values for German territorial waters and the exclusive economic zone for Germany is not feasible.
+The annual calculation of the amounts of fish caught sustainably according to the MSY approach is based on stochastic predictions, which use calculations of historical stock trends. Information about fish quantities landed is based on reported catches. Samples taken from this provide insights into the demographic parameters of the population, such as age and size. Other important sources of information on the state of fish stocks are scientific surveys conducted on research vessels that are independent of the fishing industry. Indicator values of previous years are subject to retrospective changes due to new estimates on an annual basis for the time series and updates with regards to the relevant fish species.
+In 2020, the sustainably managed stocks of fish accounted for 60.0 % of the total stocks examined in accordance with the MSY approach in the North Sea and the Baltic Sea. The relevant proportions were 59.1 % in the North Sea and 62.5 % in the Baltic Sea. Regarding the development between 2015 and 2020, the overall progress was positive. The target to sustainably manage economically relevant fish stocks according to the MSY approach was missed.
+It is difficult to assess the indicator because it is influenced in addition to the development of the stocks, also by the selection of stocks to be considered. Thus, the basis of assessment can vary from year to year, which makes it difficult to compare the results of individual years. In addition, the recommended amounts of fish caught apply across countries and therefore can only be fulfilled indirectly by the efforts of a single country alone.</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>14.4.1</t>
+        </is>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N55" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B01_P01</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>15.1</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Artenvielfalt und Landschaftsqualität</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>Biodiversity and landscape quality</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Bestandsentwicklung für 51 ausgewählte Vogelarten in Form eines Index.</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the population development for 51 selected bird species in the form of an index.</t>
+        </is>
+      </c>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>Eine große Artenvielfalt an Tieren und Pflanzen ist eine wesentliche Voraussetzung für einen leistungsfähigen Naturhaushalt und bildet eine wichtige Lebensgrundlage des Menschen. Um die Artenvielfalt und gleichzeitig die Lebensqualität des Menschen zu erhalten, ist das vorläufige Ziel der Bundesregierung ein Indexwert von 100 bis zum Jahr 2030 – ursprünglich sollte dieser Zielwert bereits bis 2015 erreicht werden. Derzeit wird der Indikator auf Basis neuer Erkenntnisse überarbeitet und zukünftig in angepasster Form für die Berichterstattung verwendet werden.</t>
+        </is>
+      </c>
+      <c r="I56" s="5" t="inlineStr">
+        <is>
+          <t>Having a wide variety of animal and plant species is a fundamental prerequisite for a healthy natural environment and an important foundation for human life. To preserve biodiversity and simultaneously safeguard quality of life for humans, the provisional goal of the Federal Government is an index value of 100 by 2030 – a target that was originally meant to be achieved by 2015. This target value is currently being reviewed as part of a research project and may be amended in future on the basis of new findings.</t>
+        </is>
+      </c>
+      <c r="J56" s="5" t="inlineStr">
+        <is>
+          <t>Neben Vögeln sind auch andere Arten auf eine Landschaft mit intakten, nachhaltig genutzten Lebensräumen angewiesen, sodass der Indikator indirekt auch die Entwicklung zahlreicher weiterer Arten in der Landschaft und die Nachhaltigkeit der Landnutzung abbildet.
+Der Berechnung des Indikators liegt die Entwicklung der Bestände von 51 Vogelarten zugrunde, die die wichtigsten Landschafts- und Lebensraumtypen in Deutschland repräsentieren: je zehn Arten für die Teilindikatoren zu Agrarland, Siedlungen, Binnengewässern, Küsten und Meeren sowie elf Arten für Wälder. Aufgrund einer unsicheren Datenlage wird derzeit der Landschaftstyp der Alpen nicht berücksichtigt.
+Die Bestandsgröße je Art wird jährlich aus den Ergebnissen von Programmen des Vogelmonitorings vom Dachverband Deutscher Avifaunisten (DDA) in Zusammenarbeit mit dem Bundesamt für Naturschutz (BfN) berechnet und in Relation zur Größe des Bestandszielwerts gesetzt. Der Bestandszielwert wurde durch ein Expertengremium für jede Vogelart – ursprünglich für das Jahr 2015 – festgelegt. Die historischen Werte für 1970 und 1975 sind rekonstruiert.
+Für jeden Teilindikator wird der arithmetische Mittelwert der Zielerreichungsgrade über alle 10 bzw. 11 ausgewählten Vogelarten gebildet. Der Gesamtindikator errechnet sich aus einer gewichteten Summierung der Teilindikatoren. Die Gewichtung bezieht sich dabei auf den Anteil des jeweiligen Hauptlebensraum- bzw. Landschaftstyps an der Fläche Deutschlands. Die Zielwerte für die Teilindikatoren und den Gesamtindikator wurden vorläufig unverändert auf das Zieljahr 2030 übertragen.
+Der Wert des Indikators für Artenvielfalt und Landschaftsqualität lag im Jahr 1990 deutlich unter den Werten, die für die Jahre 1970 und 1975 rekonstruiert wurden. In den letzten zehn Berichtsjahren (2006 bis 2016) stagnierte der Wert des Indikators und lag im Jahr 2016 bei 70,5 % des Zielwerts, verglichen mit 70,2 % im Jahr 2006. Bei gleichbleibender Entwicklung wird das Ziel für das Jahr 2030 nicht erreicht werden.
+Im gleichen Zeitraum haben sich die Teilindikatoren für die einzelnen Lebensraumtypen allerdings unterschiedlich entwickelt. Die Teilindikatoren des Agrarlandes (2016: 60,5 % des Zielwerts) sowie der Küsten und Meere (2016: 58,0 % des Zielwerts) zeigten in den letzten zehn Berichtsjahren einen Abwärtstrend. Hier betrugen die Werte der Teilindikatoren im Jahr 2006 68,0 % des Zielwerts für das Agrarland und 63,2 % des Zielwerts für die Küsten und Meere.
+Im Gegensatz dazu haben sich die Teilindikatoren für Wälder, Siedlungen und Binnengewässer in den letzten zehn Berichtsjahren positiv entwickelt. So betrug 2016 der Teilindikator für Wälder 87,5 % des Zielwerts im Vergleich zu 78,6 % im Jahr 2006. Bei dem Teilindikator Siedlungen stieg der Wert von 65,1 % im Jahr 2006 auf 75,5 % im Jahr 2016 an. Der Teilindikator Binnengewässer stieg auf 75,0 % des Zielwerts im Jahr 2016 an, im Vergleich zu einem Wert von 63,1 % im Jahr 2006.</t>
+        </is>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>Other species besides birds rely on landscapes with intact, sustainably used habitats, which means that the indicator also indirectly reflects the development of many other species in the landscape and the sustainability of land use.
+The calculations for this indicator are based on changes in the populations of 51 bird species, which together represent the most important types of landscape and habitat in Germany: ten species each for the sub-indicators farmland, settlements, inland waters, and coasts and seas, as well as eleven species for forests. The Alpine landscape is not currently taken into account, because of uncertainty of data.
+The population size of each species is calculated annually from the results of bird-monitoring programmes by the Federation of German Avifaunists in cooperation with the Federal Agency for Nature Conservation and is expressed in relation to the target population size. The target value for each species is defined by a panel of experts – initially for 2015. The historical values for 1970 and 1975 are reconstructed.
+Each sub-indicator represents the arithmetic mean of the degrees of success achieved across the 10 or 11 selected avian species. The overall indicator is derived from a weighted summation of the sub-indicators. The weighting relates to the proportion of German territory which each main habitat or landscape type covers. On a provisional basis, the target values for the sub-indicators and the overall indicator have been applied unchanged to the 2030 target year.
+In 1990, the indicator for biodiversity and landscape quality was significantly lower than the reconstructed values for 1970 and 1975. The indicator value stagnated over the last ten reporting years (2006-2016), reaching 70.5 % of the target value in 2016 compared with 70.2 % in 2006. If this trend continues, the goal for 2030 will not be achieved.
+During the same period, however, the sub-indicators for the various types of habitat did not follow uniform trajectories. The farmland and coasts and seas sub-indicators fell during the last ten reporting years, to 60.5 % and 58.0 % of their target values in 2016 respectively. The equivalent values in 2006 were 68.0 % for farmland and 63.2 % for coasts and seas.
+In contrast, the forest, settlement and inland-waters sub-indicators moved in a positive direction over the last ten reporting years. The forest sub-indicator reached 87.5 % of its target value in 2016, compared with 78.6 % in 2006. The settlement sub-indicator rose from 65.1 % in 2006 to 75.5 % in 2016. The figure for inland waters was 75.0 % of the target value in 2016, compared with 63.1 % in 2006.</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t>15.5.1</t>
+        </is>
+      </c>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <v>45548</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P01</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>15.2</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophierung der Ökosysteme</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophication of ecosystems</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt den Anteil der Fläche empfindlicher Ökosysteme dar, bei der die ökologischen Belastungsgrenzen (Critical Loads) durch atmosphärische Stickstoffeinträge überschritten wurden, gemessen an der gesamten bewerteten Fläche empfindlicher Ökosysteme.</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the sensitive ecosystem area where the critical ecological loads have been exceeded due to atmospheric nitrogen inputs, as a proportion of the total assessed sensitive ecosystem area.</t>
+        </is>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>Die ökologischen Belastungsgrenzen sind ein Maß für die Empfindlichkeit eines Ökosystems gegenüber dem Eintrag eines Schadstoffs. Liegen die Einträge von Luftschadstoffen unter diesen Belastungsgrenzen (Critical Loads), ist nach heutigem Stand des Wissens nicht mit schädlichen Wirkungen auf Struktur und Funktion eines Ökosystems zu rechnen. Fast die Hälfte aller Farn- und Blütenpflanzen, die in Deutschland in der Roten Liste aufgeführt werden, sind durch Nährstoffeinträge gefährdet. Bis zum Jahr 2030 soll der Flächenanteil mit erhöhtem Stickstoffeintrag um 35 % gegenüber 2005 reduziert werden. Dies entspricht einer Senkung auf 52 % der bewerteten Fläche empfindlicher Ökosysteme.</t>
+        </is>
+      </c>
+      <c r="I57" s="5" t="inlineStr">
+        <is>
+          <t>The critical ecological loads are a measure of the sensitivity of an ecosystem to the input of a pollutant. If the inputs of air pollutants remain below these critical loads, no harmful effects on the structure and functioning of an ecosystem are to be expected according to the current state of knowledge. Almost half of the ferns and flowering plants that are included in the Red List in Germany are endangered by nutrient inputs. By 2030, the share of land with an elevated input of nitrogen is to be reduced by 35 % compared with 2005. This would be a reduction to 52 % of the total ecosystem area under assessment.</t>
+        </is>
+      </c>
+      <c r="J57" s="5" t="inlineStr">
+        <is>
+          <t>Stickstoff, der gebunden in Ammoniak und Stickoxiden in die Atmosphäre gelangt, kann gasförmig, in Regen gelöst oder als Bestandteil des Feinstaubs in Ökosysteme eingetragen werden. Die Emissionen von Ammoniak und Stickoxiden werden als Teil des Indikators 3.2.a „Emissionen von Luftschadstoffen“ dargestellt und deren Entwicklung beeinflusst direkt die Eutrophierung der Ökosysteme. Als empfindliche Ökosysteme, die in die Berechnung des Indikators eingehen, werden Wälder, natürliches Grünland, Moore, Sümpfe und Heiden betrachtet.
+Durch einen übermäßigen Eintrag von Stickstoffverbindungen aus der Luft in Land-Ökosysteme können Nährstoffungleichgewichte entstehen. Infolge des geänderten Nährstoffangebots ändert sich zum Beispiel die Artenzusammensetzung: Organismen, die stickstoffarme Standorte bevorzugen, werden zugunsten stickstoffliebender Arten verdrängt. Außerdem können viele Pflanzen durch die Veränderung der Nährstoffverfügbarkeit anfälliger gegenüber Frost, Dürre und Schädlingen werden. Auswirkungen eines übermäßigen Stickstoffeintrages treten oft erst einige Jahre später auf. Ebenso sind positive Effekte aufgrund geminderten Eintrages erst nach längerer Zeit zu erkennen.
+Zur Bewertung der Stickstoffeinträge werden ökosystemspezifische Belastungsgrenzen ermittelt, bei deren Einhaltung nach heutigem Wissensstand Strukturen und Funktionen sowie die Artengemeinschaften eines Ökosystems geschützt sind. Insgesamt werden auf diese Weise etwa elf Millionen Hektar, das heißt nahezu ein Drittel der Fläche Deutschlands, bewertet.
+Im Jahr 2019 wurden in Deutschland auf 69 % der Fläche aller bewerteten empfindlichen Ökosysteme die Belastungsgrenzen für schädlichen Stickstoffeintrag überschritten. Besonders hoch sind Überschreitungen in Teilen Norddeutschlands, da hier durch die Landwirtschaft große Mengen reaktiver Stickstoffverbindungen freigesetzt werden.
+Zwischen dem Jahr 2000 und 2015 konnte der Anteil der Flächen, auf denen die Belastungsgrenzen für Stickstoff überschritten wurden, um 15 Prozentpunkte gesenkt werden. Im Folgejahr stieg der Indikator wieder leicht an, um bis zum Jahr 2019 erneut auf den Wert des Jahres 2011 zu sinken. Somit hat sich der Anteil der Flächen, auf denen die Belastungsgrenzen für Stickstoff überschritten wurden, seit dem Jahr 2015 nicht weiter verringert.
+Die Berechnung des Indikators wird vom Umweltbundesamt (UBA) vorgenommen und basiert auf zwei Datensätzen. Der erste Datensatz ist der Critical-Load-Datensatz, der vom UBA für die internationale Berichterstattung im Rahmen der Genfer Luftreinhaltekonvention (CLRTAP) bereitgestellt wird. Grundlagen zur Ermittlung dieses Datensatzes sind unter anderem die Bodenübersichtskarte Deutschlands, die Karte der jährlichen mittleren Sickerwasserrate in den Boden, die Karte der Landnutzungsverteilung sowie Klimadaten Deutschlands. Der zweite Datensatz beinhaltet eine Zeitreihe der Stickstoffeinträge in Deutschland und wurde im Rahmen des PINETI-IV-Projektes (Pollutant INput and EcosysTem Impact) berechnet.</t>
+        </is>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>Nitrogen, which escapes into the atmosphere bonded in ammonia and nitrogen oxides, can be introduced into ecosystems in gaseous form, dissolved in rain, or as a component of particulate matter. Emissions of ammonia and nitrogen oxides are depicted as part of indicator 3.2.a on emissions of air pollutants, and developments in that area directly affect the eutrophication of ecosystems. The sensitive ecosystems covered in the calculations for this indicator are forests, natural grassland, wetlands, marshes and heathland.
+Excessive inputs of nitrogen compounds from the air into land ecosystems can result in nutrient imbalances. The alterations in nutrient availability can lead, for example, to changes in the species composition of an ecosystem, with organisms which prefer nitrogen-poor locations being displaced by nitrogen-loving species. Meanwhile, many plants can be rendered vulnerable to frost, drought and pests by changes in nutrient availability. The effects of excessive nitrogen inputs often take several years to manifest themselves. Likewise, the positive effects of reduced inputs will become apparent only after an extended period.
+For the purposes of evaluating nitrogen inputs, ecosystem-specific critical loads are determined which represent the saturation points below which, based on the latest knowledge available, the structures, functions and biological communities of an ecosystem remain protected. In total, around 11 million hectares, almost one third of the entire area of Germany, are assessed in this way.
+In 2019, the critical loads for harmful nitrogen inputs were exceeded on 69 % of the area of all the sensitive ecosystems assessed in Germany. Excesses were particularly high in parts of northern Germany, where agricultural activity releases large quantities of reactive nitrogen compounds.
+Between 2000 and 2015, the proportion of areas in which critical loads for nitrogen were exceeded was reduced by 15 percentage points. The indicator rose again slightly in the subsequent year before returning to the 2011 level by 2019. The share of land where nitrogen was in excess of the critical load has thus not fallen any further since 2015.
+The calculations for this indicator are produced by the German Environment Agency and derived from two data sets. The first of these is the critical-load data set, which the German Environment Agency provides for the purposes of international reporting under the aegis of the Geneva Convention on Long-Range Transboundary Air Pollution (CLRTAP). The tools used to determine that data set include the soil overview map of Germany, the map showing average annual rates of percolation into the soil, the map of land-use distribution and climatological data for Germany. The second data set comprises a time series of nitrogen inputs in Germany and was compiled as part of the PINETI IV (Pollutant INput and EcosysTem Impact) project.</t>
+        </is>
+      </c>
+      <c r="L57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N57" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02_Ib01</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>15.3.a,b</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern unter REDD+ sowie internationaler Bodenschutz</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>Preservation or restoration of forests under REDD+ and international soil protection</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator 15.3.a zeigt die leistungsbasierten Nettoentwicklungsausgaben Deutschlands an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation). REDD+ ist ein internationales Konzept, welches Regierungen und lokale Gemeinschaften in Entwicklungsländern finanziell dafür belohnt, dass sie die Entwaldung und damit Emissionen nachweislich reduzieren. Die ausgezahlten Beträge orientieren sich am Umfang der ermittelten Emissionsreduktion bzw. des zusätzlich gespeicherten Kohlenstoffes.
+Der Indikator 15.3.b umfasst die bilateralen Bruttoentwicklungsausgaben Deutschlands im Zusammenhang mit der Umsetzung des Übereinkommens der Vereinten Nationen (VN) zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern.</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="inlineStr">
+        <is>
+          <t>Indicator 15.3.a shows the results-based payments by Germany to developing and emerging countries for the verified preservation or restoration of forests under the REDD+ rulebook (Reducing Emissions from Deforestation and Forest Degradation). REDD+ is an international concept which financially rewards governments and local communities in developing countries for reducing deforestation and thereby demonstrably cutting emissions. Contributions are paid in line with the scale of the emissions reduction measured or the amount of additional carbon sequestered.
+Indicator 15.3.b covers Germany’s gross bilateral development expenditure in connection with the implementation of the UN Convention to Combat Desertification in developing and emerging countries.</t>
+        </is>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>Die Vermeidung von Entwaldung und Walddegradierung (Schädigung), eine nachhaltige Waldbewirtschaftung sowie der Wiederaufbau von Wäldern und Aufforstung tragen mittelbar und unmittelbar zum Erhalt biologischer Vielfalt, zur Boden-, Wasser-, und Luftqualität, zur Verminderung von Bodenerosion, zur Minderung des CO2-Ausstoßes und zur Speicherung von Kohlenstoff sowie zur Erhaltung wichtiger Entwicklungs- und Einkommensperspektiven für Waldländer bei. Ziel ist es, die Zahlungen unter dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation) bis zum Jahr 2030 zu steigern. Gesunde Böden sind eine wesentliche, nicht bzw. schwer erneuerbare natürliche Ressource. Sie spielen eine Schlüsselrolle bei der Nahrungsmittelproduktion, der Verringerung der Auswirkungen häufiger und extremer Wetterereignisse, dem Erhalt der biologischen Vielfalt und der Bereitstellung wesentlicher Ökosystemleistungen. Ziel ist es daher, Deutschlands Beitrag für den internationalen Bodenschutz bis 2030 zu steigern. Auf internationaler Ebene ist die Desertifikationsbekämpfung neben den Themen Biodiversität und Klimawandel ein Ziel der drei Rio-Konventionen.</t>
+        </is>
+      </c>
+      <c r="I58" s="5" t="inlineStr">
+        <is>
+          <t>Preventing deforestation and forest degradation (damage), managing forests sustainably, restoring forests and creating new woodland all directly and indirectly help to maintain biodiversity, improve soil, water and air quality, reduce soil erosion, cut CO2 emissions, sequester carbon, and safeguard important prospects of development and income-generation for forest-rich countries. The aim is to keep increasing payments under the REDD+ rulebook until 2030. Healthy soils are an essential natural resource that is extremely difficult if not impossible to renew. They play a pivotal role in food production, the mitigation of the effects of frequent and extreme weather events, the conservation of biodiversity and the provision of essential ecosystem services. The goal is therefore to continuously increase Germany’s contribution to international soil protection until 2030. At the international level, combating desertification is one of the topics of the three Rio Conventions, alongside biodiversity and climate change.</t>
+        </is>
+      </c>
+      <c r="J58" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator 15.3.a basiert auf dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation) und wird jährlich seit 2008 erfasst. Datenquellen für den Indikator sind die Finanzberichte des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) sowie des Bundesministeriums für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz (BMUV). Doppelzählungen werden hierbei durch die verpflichtende Einrichtung eines Registers vermieden.
+Der Indikator entwickelte sich im Verlauf der letzten fünf Jahre insgesamt positiv. Im Zeitraum von 2009 bis 2017 stiegen die leistungsbasierten Nettoausgaben von 3,0 Millionen auf 68,0 Millionen Euro. Für das Jahr 2019 umfassten die Ausgaben noch 63,5 Millionen Euro. Im Jahr 2020 betrugen diese jedoch 24,2 Millionen Euro und damit weniger als die Hälfte des Vorjahres. Diese Mittel flossen nahezu vollständig in das multilaterale Programm „Green Climate Fund (GCF) Pilot Programme for REDD+“. Die meisten anderen Programme sind mittlerweile ausgelaufen. Den Auszahlungen gehen üblicherweise Zusagen voraus. Die Gesamtzusagen für internationalen Walderhalt beliefen sich für das Jahr 2020 auf 301,6 Millionen Euro. Die ansteigende Entwaldung in den letzten Jahren in den wichtigsten Partnerländern des Amazonasgebietes macht neue Zusagen für leistungsbasierte Zahlungen unter dem REDD+-Regelwerk schwierig.
+Grundlage für den Indikator 15.3.b sind die Statistiken der Leistungen der deutschen Entwicklungszusammenarbeit des Statistischen Bundesamtes, die im Auftrag des BMZ erstellt werden. Ein Vorhaben ist hier relevant, wenn es darauf abzielt, die Wüstenbildung zu bekämpfen oder die Auswirkungen von Dürre durch die Vermeidung oder Verringerung der Bodendegradation, die Sanierung von degradiertem Land oder die Rekultivierung von Wüstengebieten zu mildern. Die ausgezahlten Mittel geben jedoch keinen Hinweis auf die tatsächliche Entwicklung der Bodenqualität.
+Die Bruttoentwicklungsausgaben zur Bekämpfung von Desertifikation weltweit sind seit 2009 stark gestiegen. Der Indikator zeigt insgesamt eine positive Entwicklung, wenn auch in 2020 erstmals seit 2014 ein Rückgang verzeichnet wurde. Zuletzt lagen die Bruttoausgaben für das Jahr 2020 bei 703,5 Millionen Euro und damit fast 18-mal höher als im Jahr 2009. Die zugesagten Mittel entwickelten sich in ähnlicher Weise. Zuletzt betrugen sie 938,1 Millionen Euro.
+Entwicklungsausgaben unter dem REDD+-Regelwerk sowie im Rahmen der VN-Wüstenkonvention sind Teil der Klimafinanzierung (Indikator 13.1.b) sowie der ODA-Quote (Indikator 17.1).</t>
+        </is>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>Indicator 15.3.a is based on the rulebook for reducing emissions from deforestation and forest degradation, or REDD+. The data have been collected annually since 2008. The data sources for the indicator are the financial reports compiled by the Federal Ministry for Economic Cooperation and Development and the Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection. Duplicate counting is avoided by means of the mandatory establishment of a register.
+The overall trend of the five preceding years is positive. During the 2009-2017 reporting period, results-based payments rose from 3.0 million euros to 68.0 million euros. In 2019, payments were at 63.5 million euros, however, in 2020 payments decreased to less than half of the previous year (24.2 million euros). The funds were almost completely paid to the multilateral program “Green Climate Fund (GCF) Pilot Programme for REDD+”. Most of the other projects are finalised in the meantime. Generally, committed funds precede payments. The total number of committed funds for international forest conservation were at 301.6 million euros in 2020. The advancing deforestation in the most important partner countries in the Amazon region in the last few years aggravate issuance of new confirmations for results-based payments under the REDD+ rulebook.
+The data source for indicator 15.3.b is the statistics on German official development assistance which are compiled by the Federal Statistical Office on behalf of the Federal Ministry for Economic Cooperation and Development. Relevant projects are any which target to combat desertification or to mitigate the effects of droughts by preventing or reducing soil degradation, restoring degraded land or recultivating desert regions. However, the amounts paid give no indication as to the actual development of soil quality.
+Gross development expenditure to combat desertification worldwide rose strongly in the reporting period starting in 2009. The indicator has developed positively with regard to the target set, although latter decreased in 2020 for the first time since 2014. Gross expenditure was most recently recorded at 703.5 million euros for 2020, an 18 fold increase on the equivalent figure for 2009. A similar trend is discernible in the funds committed, which were most recently recorded at 938.1 million euros.
+Development spending under the REDD+ rulebook and in the context of the UNCCD is part of climate finance (indicator 13.1.b) and of official development assistance (indicator 17.1).</t>
+        </is>
+      </c>
+      <c r="L58" s="4" t="inlineStr">
+        <is>
+          <t>15.a.1</t>
+        </is>
+      </c>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>15.b.1</t>
+        </is>
+      </c>
+      <c r="N58" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B01_P01</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>16.1</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>Straftaten</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>Criminal offences</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl der Straftaten, die der Polizei angezeigt werden, je 100 000 Einwohnerinnen und Einwohner.</t>
+        </is>
+      </c>
+      <c r="G59" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of criminal offences reported to the police per 100,000 inhabitants.</t>
+        </is>
+      </c>
+      <c r="H59" s="5" t="inlineStr">
+        <is>
+          <t>Ein sicheres Umfeld, in dem die Bürgerinnen und Bürger ohne Angst vor Willkür und Kriminalität leben können, ist eine wesentliche Voraussetzung für eine nachhaltige Entwicklung. Deshalb soll die Anzahl der erfassten Straftaten je 100 000 Einwohnerinnen und Einwohner bis zum Jahr 2030 unter 6 500 sinken.</t>
+        </is>
+      </c>
+      <c r="I59" s="5" t="inlineStr">
+        <is>
+          <t>A safe environment in which people can live without fear of lawlessness and crime is an essential prerequisite for sustainable development. The target is therefore to bring the number of recorded criminal offences per 100,000 inhabitants down to less than 6,500 by 2030.</t>
+        </is>
+      </c>
+      <c r="J59" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator beinhaltet alle in der Polizeilichen Kriminalstatistik (PKS) erfassten Straftaten. Dies sind bei der Polizei angezeigte und durch sie endbearbeitete Straftaten, solange es sich nicht um Staatsschutz-, Verkehrsdelikte oder Ordnungswidrigkeiten handelt.
+Straftaten, die außerhalb der Bundesrepublik Deutschland begangen wurden, sind ebenso wenig enthalten wie Delikte, die nicht zum Aufgabenbereich der Polizei gehören (zum Beispiel Finanz- und Steuerdelikte) bzw. unmittelbar bei der Staatsanwaltschaft angezeigt und ausschließlich von ihr bearbeitet werden (zum Beispiel Delikte im Zusammenhang mit einer Falschaussage vor Gericht).
+Die PKS-Veröffentlichungen werden jährlich auf der Basis von Daten der Landeskriminalämter und des Bundeskriminalamts (BKA) erstellt. Um Zeitvergleiche ab 1993 zu ermöglichen, werden zur Berechnung des Indikators für die gesamte Zeitreihe die (zurückgerechneten) Bevölkerungszahlen auf Grundlage des Zensus 2011 verwendet. Allerdings ergeben sich dadurch Differenzen zu den veröffentlichten Daten der PKS vor 2013.
+Veränderungen in der PKS lassen nicht immer auf tatsächliche Veränderungen schließen, denn die Statistik erfasst nur das sogenannte Hellfeld – also die der Polizei offiziell bekannt gewordene Kriminalität. Aufgrund fehlender statistischer Daten kann das sogenannte Dunkelfeld – die der Polizei offiziell nicht bekannt gewordene Kriminalität – in der PKS nicht abgebildet werden. Die Anzeigequote von Straftaten wurde jedoch im Rahmen der Deutschen Viktimisierungssurveys in den Jahren 2012 und 2017 untersucht. Dabei lässt sich für die in der Befragung untersuchten Straftaten keine statistisch signifikante Veränderung des Anteils der angezeigten Straftaten zwischen den Jahren 2012 und 2017 feststellen.
+Im Jahr 2021 lag die Anzahl der Straftaten bei 6 070 je 100 000 Einwohnerinnen und Einwohner. Der Zielwert für das Jahr 2030 von unter 6 500 Straftaten ist damit bereits zum zweiten Mal in Folge vorzeitig unterschritten worden. Zwischen 1993 und 2021 sank der Indikator um 27,3 %. Dabei handelte es sich jedoch nicht um eine kontinuierliche Entwicklung. So kam es beispielsweise von 2000 bis 2004 zu einem Anstieg, dem ein leichter Rückgang bis 2010 folgte. Die große Zahl der Menschen, die ab dem Jahr 2015 als Flüchtlinge und Schutzsuchende nach Deutschland gekommen sind, spiegelt sich auch in der PKS wider. So sind im Jahr 2016 ausländerrechtliche Verstöße (zum Beispiel illegale Einreise) im Vergleich zu 2014 um 211,8 % angestiegen. Bereits 2018 lag dieser Wert wieder auf dem Niveau von 2014, ist seitdem nahezu konstant geblieben und machte 2021 nur noch 2,9 % aller Straftaten aus. Die Gesamtzahl der polizeilich registrierten Straftaten lag 2021 bei insgesamt 5,0 Millionen und damit niedriger als in den Vorjahren.
+Von allen in der PKS 2021 abgebildeten Straftaten entfielen 1,1 % auf den Bereich Wohnungseinbruchsdiebstahl, 2,4 % auf gefährliche und schwere Körperverletzung und 15,7 % auf Betrug. Zwischen 2016 und 2021 gingen die Wohnungseinbruchsdiebstähle um 64,1 %, die Fälle von gefährlicher und schwerer Körperverletzung um 12,6 % und die Betrugsfälle um 11,7 % zurück.
+2021 betrug die Aufklärungsquote aller polizeilich registrierten Delikte 58,7 % und lag damit in etwa auf Vorjahresniveau. Dabei gibt es deutliche Unterschiede je nach Art der Straftat. So lag die Aufklärungsquote beim Wohnungseinbruchsdiebstahl nur bei 19,5 %. Bei Betrugsdelikten wurden dagegen 63,3 % und bei gefährlicher und schwerer Körperverletzung 83,9 % aller angezeigten Straftaten aufgeklärt. Die vergleichsweise geringe Aufklärungsquote bei Wohnungseinbruchsdiebstahl hängt mit einer hohen Anzeigebereitschaft bei vergleichsweise selten vorliegenden konkreten Anhaltspunkten zur Täterschaft zusammen. Dies steht in deutlichem Gegensatz zur Situation bei Betrugs- und Körperverletzungsdelikten. Diese Straftaten weisen eine hohe Aufklärungsquote auf, weil der Polizei die Tatverdächtigen meist bereits bei der Anzeigenerstattu</t>
+        </is>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>The indicator covers all criminal offences recorded in the Police Crime Statistics. These are criminal offences reported to and fully processed by the police, except offences against the security of the state, traffic offences and administrative offences.
+Criminal offences committed outside the Federal Republic of Germany are not included, nor are offences that are not within the remit of the police, such as financial and tax offences, or are reported directly to and processed by the public prosecution office, such as offences relating to false testimony in court.
+The Police Crime Statistics publications are compiled annually based on the data available from the Land Criminal Police Offices and the Federal Criminal Police Office. To calculate the number of criminal offences per 100,000 inhabitants, (extrapolated) population figures based on the 2011 census are used for the entire time series. This methodology allows comparisons over time to be made from 1993 onwards. It should be noted that this results in discrepancies in relation to the Police Crime Statistics data published prior to 2013.
+Changes in the Police Crime Statistics do not always reflect actual changes, as the statistics cover only that proportion of criminal activity that officially comes to the attention of the police. Since there is no statistical data on offences which go unreported, such crimes cannot be reflected in the Police Crime Statistics. However, the proportion of reported versus unreported crime was investigated in 2012 and 2017 by means of the German Victim Survey. For the offences dealt with in the survey, no statistically significant change in reporting rates was found between 2012 and 2017.
+The number of offences was 6,070 per 100,000 inhabitants in 2021. Thus, the target value for 2030 of less than 6,500 criminal offences was achieved ahead of time for the second time in a row. The indicator fell by 27.3 % between 1993 and 2021. This trajectory, however, has not been continuous. For instance, it increased from 2000 to 2004, before entering a slight decline which continued until 2010. The large number of people who entered Germany as refugees and asylum-seekers from 2015 on is also reflected in the Police Crime Statistics, with violation of the legislation concerning foreigners (e.g. illegal entry) soaring by 211.8 % in 2016 compared with 2014. Such offences had fallen drastically by 2021, though, when they made up only 2.9 % of all criminal offences. Even when violations of the legislation concerning foreigners are accounted for, the total number of criminal offences registered by the police was lower in 2021 than in previous years (5.0 million).
+In 2021, domestic burglaries accounted for 1.1 %, fraud for 15.7 %, and dangerous and serious bodily injury for 2.4 %. Between 2016 and 2021, the incidence of domestic burglary fell by 64.1 %, fraud fell by 11.7 % and cases of dangerous and serious bodily injury fell by 12.6 %.
+The success rate for solving cases was 58.7 % of all offences registered by the police in 2021, roughly the same as in the previous year. There were significant differences, however, depending on the type of criminal offence. For domestic burglary, for example, the rate of cases solved was only 19.5 %. By contrast, 63.3 % of fraud offences and 83.9 % of cases of serious and grievous bodily harm cases were cleared up. The comparatively low success rate for domestic burglary is related to a high rate of reporting combined with the comparatively infrequent existence of solid leads pointing to the perpetrators. This is in sharp contrast to cases of fraud and bodily injury. These crimes have high clear-up rates because, in most cases, the identity of the suspect becomes known to the police as the crime is reported.</t>
+        </is>
+      </c>
+      <c r="L59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N59" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B02_P01</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl der in Afrika, Ost- und Südosteuropa, Lateinamerika und Asien mit deutscher finanzieller Unterstützung durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen. Nicht enthalten sind Projekte, die über Fonds internationaler Organisationen finanziert werden, die von Deutschland finanziell unterstützt werden.</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of projects to secure, register and destroy small arms and light weapons (SALW) carried out in Africa, Eastern and South-Eastern Europe, Latin America and Asia with German financial support. Not included are projects that will be managed through funds by international organizations that are financially supported by Germany.</t>
+        </is>
+      </c>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>Ohne Frieden kann es keine nachhaltige Entwicklung geben und ohne nachhaltige Entwicklung keinen Frieden – dies betont die Agenda 2030 für nachhaltige Entwicklung in ihrer Präambel. Mit den vom Indikator erfassten Maßnahmen leistet Deutschland in einem konkreten Teilbereich einen Beitrag zur Friedenssicherung. Ziel ist, dass jährlich mindestens 15 Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland durchgeführt werden.</t>
+        </is>
+      </c>
+      <c r="I60" s="5" t="inlineStr">
+        <is>
+          <t>There can be no sustainable development without peace and no peace without sustainable development – this is emphasised in the preamble to the 2030 Agenda for sustainable development. With the measures recorded by the indicator, Germany is making a contribution towards peacekeeping in a concrete subcategory. The set target is to have at least 15 projects to secure, register and destroy small arms and light weapons carried out by Germany each year.</t>
+        </is>
+      </c>
+      <c r="J60" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten der hier dargestellten Zeitreihe stammen vom Auswärtigen Amt (AA); die Projekte sind jedoch nicht ausschließlich durch das AA finanziert. Vom Volumen und Inhalt unterscheiden sich die gezählten Projekte erheblich. Projekte mit Laufzeiten von mehr als einem Jahr werden dabei mehrfach ausgewiesen. Zudem sagt die Anzahl der durchgeführten Projekte nichts über deren Erfolg aus. Somit ist eine richtungssichere Interpretation in Hinblick auf Umfang und Erfolg der Maßnahmen schwierig.
+Nach der aktuellen Auswertung stieg die Anzahl der jährlich durchgeführten Projekte von acht im Jahr 2006 auf 38 im Jahr 2021. Das Ziel von mindestens 15 Projekten jährlich wurde im Jahr 2012 erstmals erfüllt. Mit Ausnahme des Jahres 2013 wurde das Ziel auch in den Folgejahren erreicht oder sogar übertroffen. Die regionalen Schwerpunkte des deutschen Engagements lagen in Nord-, West- und Ostafrika, dem westlichen Balkan und der Ukraine. Weitere Projekte wurden in Lateinamerika und der Karibik unterstützt.
+Im jährlichen Jahresabrüstungsbericht der Bundesregierung werden Projekte mit der Zielsetzung „Kontrolle von Kleinwaffen und leichten Waffen“ sowie deren Finanzierung aufgelistet. Ihre Anzahl weicht bis einschließlich 2018 von den zum Indikator gemeldeten Zahlen ab. Ein Grund hierfür kann in der Schwerpunktsetzung der Projekte liegen.
+Die Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD) veröffentlicht ebenfalls ausführliche Zahlen zu Projekten zur „Wiedereingliederung; Bekämpfung von Handfeuerwaffen und leichten Waffen“ (Förderbereichsschlüssel: 15240). Würde dem Indikator die Anzahl der Projekte nach dem genannten OECD-Förderbereichsschlüssel zugrunde gelegt, so wäre das gesetzte Ziel von jährlich mindestens 15 Projekten im Jahr 2006 sowie seit 2016 erreicht worden. Im Jahr 2020 waren 25 Projekte schwerpunktmäßig dem Förderbereichsschlüssel 15240 zugeordnet. Davon wurden 19 durch das AA und sechs vom Bundesministerium der Finanzen (BMF) finanziert. Die Projekte umfassen jedoch auch Maßnahmen wie die Wiedereingliederung von ehemaligen Kämpferinnen und Kämpfern bewaffneter Gruppen in das gesellschaftliche Leben. Ohne diese Wiedereingliederungsmaßnahmen fiele die Anzahl der Projekte, die ausschließlich oder überwiegend der Bekämpfung von Handfeuerwaffen und leichten Waffen dienen, geringer aus.</t>
+        </is>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>The data of the depicted time series is provided by the Federal Foreign Office, however, the reported projects are not financed exclusively by the Federal Foreign Office, but in part with third-party funds as well. Considered projects significantly differ with respect to volume and content. Projects with run-times longer than one year were counted more than once. Notably, the number of projects carried out says nothing about their scale or their level of success. Consequently, a directionally safe interpretation regarding scope and success of the measures is challenging. 
+According to the current evaluation, the number of projects undertaken each year increased from 8 in 2006 to 38 in 2021. Thus the goal of Germany being involved in a minimum of 15 projects would have been achieved in 2012 for the first time. Except for 2013, the level would have been reached or even exceeded in subsequent years, too. According to the Federal Foreign Office, the regional focus of German efforts was on North, East and West Africa, the western Balkans and Ukraine. Other projects supported were in Latin America and the Caribbean.
+The German Federal Government’s Annual Disarmament Report contains a list of projects with the objective of SALW control, alongside their sources of funding. Their number differs from those reported for this indicator up to and including 2018. One reason for this may be the particular focus of individual projects, which affects whether they are taken into account.
+In accordance with the guidelines on statistical reporting issued by its Development Assistance Committee, the Organisation for Economic Co-operation and Development (OECD) also publishes detailed figures on projects for reintegration and SALW control (CRS Purpose Code 15240). If the indicator were based on the number of projects counted in the above-mentioned OECD category, the target of at least 15 projects would have been reached in 2006 and every year since 2016. In 2020, the OECD counted 25 projects. Among these, 19 were funded by the Federal Foreign Office and, accordingly, 6 projects were funded by the Federal Ministry of Finance. However, those projects also included measures for reintegrating former combatants from armed groups into society. Without such reintegration projects, the number of project exclusively or chiefly intended to combat SALW would be lower.</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t>16.4.2</t>
+        </is>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N60" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>16.3.a,b</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perception Index in Deutschland sowie in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perceptions Index in Germany and in partner countries for German development cooperation</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren geben den Corruption Perception Index (CPI) von Transparency International für Deutschland (16.3.a) sowie die Anzahl der Partnerländer der deutschen Entwicklungszusammenarbeit, deren CPI sich im Vergleich zum Jahr 2012 verbessert hat (16.3.b), wieder. Der CPI misst, wie stark Korruption im öffentlichen Sektor in einem Land wahrgenommen wird.</t>
+        </is>
+      </c>
+      <c r="G61" s="5" t="inlineStr">
+        <is>
+          <t>The indicators provide the Corruption Perceptions Index (CPI) from Transparency International for Germany (16.3.a) as well as the number of partner countries of German development assistance whose CPI has improved compared with 2012 (16.3.b). The CPI measures how strongly corruption in the public sector is perceived in a country.</t>
+        </is>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>Bis 2030 wird eine weitere Verbesserung des Corruption Perception Index (CPI) für Deutschland angestrebt. Zudem soll sich auch der CPI der Mehrzahl der Partnerländer der deutschen Entwicklungszusammenarbeit verbessern. Basisjahr ist dabei jeweils das Jahr 2012.</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>A further improvement of the CPI for Germany is targeted for 2030. In addition, the CPI in the majority of partner countries involved in German development assistance should also improve. The base year in each case is 2012.</t>
+        </is>
+      </c>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>Die Studie zum Corruption Perception Index (CPI) von Transparency International ist die die meisten Länder umfassende Übersichtsstudie zur wahrgenommenen Korruption im öffentlichen Sektor. Bei dem CPI handelt es sich um einen Kompositindikator, der je Land unterschiedliche Experten- sowie Unternehmensbefragungen zur Wahrnehmung von Korruption im öffentlichen Sektor zusammenführt. Abhängig von den jeweiligen Befragungen können dabei unterschiedliche Verständnisse von Korruption zugrunde liegen. Die Ergebnisse dieser Befragungen können auch von den Kenntnissen des Wertes des CPI oder anderer ihm zugrunde liegender Teilstudien der vorherigen Jahre selbst beeinflusst werden. Zudem wechseln die Quellen für die Berechnung des CPI im Zeitablauf. In den Index werden Länder mit einbezogen, zu denen mindestens drei ausgewählte Befragungen vorliegen. Das Joint Research Centre (JRC) der Europäischen Kommission weist in seiner Analyse des CPI darauf hin, dass bei der Interpretation der Ergebnisse die jeweilige statistische Signifikanz der Veränderung mitbetrachtet werden sollte und selbst bei statistisch signifikanten Unterschieden die Ergebnisse dieses Indikators mit Vorsicht zu interpretieren seien. Seine Vergleichbarkeit ist somit sowohl über die Zeit als auch zwischen den Ländern stark eingeschränkt.
+Deutschland hat sich im Vergleich von 79 Punkten im Jahr 2012 auf 80 Punkte im Jahr 2021 verbessert. Dieser Wert hat sich gegenüber 2017 um einen Punkt verschlechtert, sodass Deutschland auf dem zehnten Platz des Rankings steht. Dabei ist diese Veränderung gegenüber 2012 nicht als statistisch signifikant (bei einem Signifikanzniveau von 5 %) anzusehen.
+Auch das Statistische Bundesamt erhebt im Rahmen der Zufriedenheitsbefragung zu behördlichen Dienstleistungen Daten zum Thema Korruption. Nach dieser Befragung hatten im Jahr 2021 3,9 % der Bevölkerung während ihres Kontakts mit öffentlichen Einrichtungen den Eindruck, dass Beschäftigte des öffentlichen Dienstes bestechlich wären. Bei der entsprechenden Umfrage unter Unternehmen hatten 4,0 % der Unternehmen diesen Eindruck.
+Die Polizeiliche Kriminalstatistik (PKS) erfasst alle der Polizei bekannt gewordenen strafrechtlichen Sachverhalte. Im Jahr 2021 wurden 712 Fälle von Vorteilsannahme, Vorteilsgewährung sowie Bestechlichkeit und Bestechung im öffentlichen Sektor erfasst. Zudem werden in der PKS auch Fälle von Bestechlichkeit und Bestechung im geschäftlichen Verkehr sowie sogenannte Begleitdelikte der Korruption wie zum Beispiel Betrugs- und Untreuehandlungen, Urkundenfälschung, wettbewerbsbeschränkende Absprachen bei Ausschreibungen, Strafvereitelung, Falschbeurkundung im Amt und Verletzung des Dienstgeheimnisses ausgewiesen.
+In Bezug auf die deutsche Entwicklungszusammenarbeit haben sich im Jahr 2021 im Vergleich zum Jahr 2012 insgesamt 48 der 87 durch den CPI bewerteten Partnerländer verbessert. Die Anzahl der sich positiv entwickelnden Partnerländer ist im betrachteten Zeitraum bis 2016 jedes Jahr gestiegen. Im Jahr 2018 ist die Anzahl leicht zurückgegangen und stieg in den Folgejahren wieder an. Eine statistisch signifikante Verbesserung (bei einem Signifikanzniveau von 5 %) wiesen in 2021 gegenüber 2012 31 Partnerländer der deutschen Entwicklungszusammenarbeit auf, im Vergleich dazu waren es 2014 sechs Partnerländer.</t>
+        </is>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>The study on CPI conducted by Transparency International is the most comprehensive overview study on perceived public sector corruption. The CPI is a composite indicator that is based on various expert and corporate surveys regarding the perception of corruption in the public sector. Depending on the survey, underlying definitions of corruption may differ, and the sources used for calculations may change over time. The results of these surveys are prone to distortions due to information about prior CPI values or results from similar studies. The index includes all countries for which at least three selected surveys are available. In its analysis of the CPI, the Joint Research Centre of the European Commission points out that, the statistical significance of the change must also be examined when the results are interpreted and that even in the case of statistically significant differences, the results of this indicator should be interpreted with caution. Hence, comparison over time and among countries is limited.
+Compared to 2012, Germany’s score improved from 79 to 80 points in 2021. This value has worsen in comparison to 2017, which means that Germany comes to tenth place in the ranking. Though, compared with 2012, this change should not be viewed as statistically significant (at a significance level of 5 %).
+The Federal Statistical Office also gathers information on the topic of corruption as part of its satisfaction survey on official services. According to this survey, during their contact with public authorities 3.9 % of the population had the impression in 2021 that public service employees were susceptible to corruption. In the corresponding survey of companies, 4.0 % of companies had the impression that public service employees were open to corruption.
+The Police Crime Statistics record all criminal matters that become known to the police. In 2021, 712 cases of accepting/granting a benefit as well as taking/offering a bribe were recorded in the public sector. Furthermore, the Police Crime Statistics also list cases where bribes were taken or offered in commercial practice as well as concomitant offences of corruption such as fraud and breach of trust, document forgery, agreements in restriction of competition upon invitations to tender, obstruction of punishment, false certification in public office and violation of official secrecy.
+With reference to German official development assistance, 48 of the 87 partner countries evaluated by the CPI scored better in 2021 compared with 2012. In the review period, the number of partner countries developing in a positive direction has increased each year up to 2016. Their number decreased slightly in 2018 and increased again in the subsequent years. As many as 31 partner countries of German development assistance reported a statistically significant improvement (at a significance level of 5 %) in 2021 compared with 2012. In 2014, six partner countries had reported a significant improvement.</t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t>16.5.1</t>
+        </is>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t>16.5.2</t>
+        </is>
+      </c>
+      <c r="N61" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen
+</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Official development assistance as a proportion of gross national income
+</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt die ODA-Quote dar. Diese umfasst den Anteil der öffentlichen Entwicklungsausgaben (Official Development Assistance, ODA) im Verhältnis zum Bruttonationaleinkommen (BNE). Seit 2018 erfolgt die Berechnung nach der Zuschussäquivalent-Methode.</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows public expenditure on official development assistance (ODA) as a percentage of gross national income (GNI). Since 2018, it has been calculated using the grant-equivalent method.</t>
+        </is>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>Mit ihrer Entwicklungszusammenarbeit tragen die Geber dazu bei, die weltweite Armut zu mindern, humanitäre Notlagen zu lindern, den Frieden zu sichern, Demokratie zu verwirklichen sowie die Globalisierung gerecht zu gestalten und die Umwelt zu schützen. Um dieser Verantwortung gerecht zu werden, bekennt sich die Bundesregierung zum ursprünglich 1970 von der Generalversammlung der Vereinten Nationen (VN) festgelegten Ziel, den Anteil der öffentlichen Entwicklungsausgaben (Official Development Assistance, ODA) am Bruttonationaleinkommen (BNE) (ODA-Quote) auf 0,7 % zu steigern. Zielsetzung des Indikators in der Deutschen Nachhaltigkeitsstrategie ist, dieses Ziel für Deutschland spätestens bis zum Jahr 2030 zu erreichen.</t>
+        </is>
+      </c>
+      <c r="I62" s="5" t="inlineStr">
+        <is>
+          <t>Through their development cooperation, donor countries play a role in reducing global poverty, preventing humanitarian need, safeguarding peace, achieving democracy, making globalisation fair and protecting the environment. To live up to that responsibility, the Federal Government has committed itself to the target, originally set by the UN General Assembly in 1970, of raising its ODA expenditure to 0.7 % of its GNI. For the indicator maintained in the German strategy for sustainable development, the aim is to reach that target by the year 2030.</t>
+        </is>
+      </c>
+      <c r="J62" s="5" t="inlineStr">
+        <is>
+          <t>Datengrundlage des Indikators sind die Statistiken der Entwicklungszusammenarbeit, die im Auftrag des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) vom Statistischen Bundesamt erstellt werden. Die Anrechenbarkeit einer Leistung als öffentliche Entwicklungsausgabe (ODA) ist durch Richtlinien des Entwicklungsausschusses der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development – Development Assistance Commitee, OECD-DAC) definiert. ODA sind öffentliche Leistungen, die zu günstigen (konzessionären) Bedingungen mit dem Ziel der Förderung der wirtschaftlichen und sozialen Entwicklung von Entwicklungsländern vergeben werden. Zur ODA zählen vor allem Ausgaben für die finanzielle und technische Zusammenarbeit mit Entwicklungsländern, humanitäre Hilfe sowie Beiträge für Entwicklungszusammenarbeit an multilaterale Institutionen, wie zum Beispiel die Vereinten Nationen (VN), die Europäische Union (EU), die Weltbankgruppe oder regionale Entwicklungsbanken. Darüber hinaus sind unter bestimmten Voraussetzungen Ausgaben für Friedensmissionen, Schuldenerleichterungen sowie bestimmte Ausgaben im Geberland, wie Studienplatzkosten für Studierende aus Entwicklungsländern, Flüchtlingskosten im Inland oder Ausgaben für entwicklungsspezifische Forschung, ODA-anrechenbar. Die Liste der Länder, die ODA empfangen können, wird vom OECD-DAC definiert. Sie umfasst die am wenigsten entwickelten Länder (Least Developed Countries, LDCs) sowie weitere Länder mit niedrigem und mittlerem Bruttonationaleinkommen (BNE) pro Kopf. Die Liste wird regelmäßig aktualisiert, sodass Länder in die Liste aufgenommen werden als auch herausfallen.
+2018 fand eine Änderung der Bewertung für Schuldeninstrumente (Darlehen, Anleihen und Schuldenerleichterungen) statt, bei der das bisherige Brutto-Netto-Prinzip durch die Zuschussäquivalent-Methode abgelöst wurde. Bei dieser Methode wird der Zuschussanteil eines Schuldeninstruments unter anderem aus Zinssatz und Laufzeit ermittelt, und nur er wird angerechnet. Durch die neue Bewertungsmethode soll beispielsweise die Vergleichbarkeit von Darlehen und Zuschüssen gewährleistet werden.
+Die ODA Deutschlands betrugen 2021 27,3 Milliarden Euro (vorläufige Ergebnisse) und lagen damit höher als noch 2020 (25,2 Milliarden Euro). Der ODA-Anteil am deutschen BNE lag in 2021 bei 0,74 % (2020: 0,73 %). Das Ziel von 0,70 % wurde 2020 und 2021 erreicht. Im Vergleich dazu beliefen sich die Netto-ODA-Leistungen (bis 2017 gültige Berechnungsmethode) im Jahr 2021 auf rund 26,6 Milliarden Euro. Während sich das BNE gegenüber 2010 um das Anderthalbfache erhöhte, haben sich die Netto-ODA-Leistungen im gleichen Zeitraum fast verdreifacht.
+Im internationalen Vergleich war Deutschland 2021 absolut gesehen erneut zweitgrößter Geber hinter den USA und vor Japan (vorläufige Ergebnisse). Die ODA-Quote der USA lag mit 0,18 % jedoch unter dem Durchschnitt der DAC-Mitgliedsländer von 0,33 %. Im Hinblick auf die ODA-Quote lag Deutschland auf Platz 4 der damals 29 DAC-Mitgliedsländer. Das internationale Ziel von 0,70 % erreichten nach vorläufigen Ergebnissen 2021 ebenfalls die DAC-Länder Luxemburg (0,99 %), Norwegen (0,93 %), Schweden (0,92 %) und Dänemark (0,70 %).
+Neben der öffentlichen Entwicklungszusammenarbeit werden auch von privater Seite Eigenmittel, zum Beispiel von Kirchen, Stiftungen und Verbänden, aufgewendet. Hierbei handelt es sich insbesondere um Beiträge und Spenden. Diese private Entwicklungszusammenarbeit, die nicht ODA-relevant ist, belief sich 2020 auf 1,3 Milliarden Euro, was einem Anteil von 0,04 % am BNE entsprach. Private Direktinvestitionen in den Entwicklungsländern betrugen 1,9 Milliarden Euro im Jahr 2020.</t>
+        </is>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>The data on which the indicator is based are the statistics on German official development assistance which are compiled by the Federal Statistical Office on behalf of the Federal Ministry for Economic Cooperation and Development. Whether a flow is counted as ODA is determined by guidelines issued by the OECD Development Assistance Committee (DAC). ODA comprises public funds spent in order to advance the economic and social development of developing countries. It primarily includes expenditure for financial and technical cooperation with developing countries, humanitarian aid and development-cooperation contributions to multilateral institutions such as the United Nations, the European Union, the World Bank or regional development banks. Under certain conditions, spending on peace missions, debt relief and certain items of development expenditure in the donor country – such as tuition costs for students from developing countries, domestic spending on refugees and funding for development-related research – can also be counted as ODA. The DAC also defines the list of developing countries eligible for ODA. This includes the least developed countries (LDCs) as well as other countries with low and medium per capita GNI. The list is consistently updated, such that changes in the indicator may therefore be the result of one or more countries being added to or removed from the list.
+In 2018, there was a change in the way ODA loans (i.e. loans, bonds and debt reliefs) are evaluated, in that the previous net-flows principle was replaced by the grant-equivalent method. In this method, only the grant element of an ODA loan is determined by the interest rate and duration, among others, and is counted as ODA. The intention behind the new methodology is to make ODA grants and ODA loans comparable.
+As calculated using the new method, Germany’s ODA came to 27.3 billion euros (provisional results) in 2021, slightly higher than the 25.2 billion euros recorded for 2020. ODA in 2021 accounted for 0.74 % of Germany’s GNI (2020: 0.73 %). Hence, the target of 0.70 % was reached in 2020 and 2021. For comparison, net ODA spending (using the evaluation method that was standard until 2017) came to around 26.6 billion euros in 2021. While the GNI increased by a factor of 1.5 compared to 2010, net ODA trebled in the same period.
+On the international scale, in 2021 Germany was once again the second-largest contributor in absolute terms, after the United States and ahead of Japan (provisional figures). However, the ODA-ratio for the United States was at 0.18 % below the average of the DAC countries (0.33 %). Germany had the fourth-highest ODA:GNI ratio among the 29 members of the DAC. According to the provisional figures for 2021, the international target of 0.70 % was met by four DAC countries: Luxembourg (0.99 %), Norway (0.93 %), Sweden (0.92 %), and Denmark (0.70 %).
+In addition to official development cooperation, private funds are also provided by such organisations as churches, foundations and associations. These chiefly take the form of contributions and donations. This private development cooperation, which does not affect the ODA figures, amounted to 1.3 billion euros in 2020, the equivalent of a 0.04 % share of GNI. Private direct investment in developing countries came to 1.9 billion euros in 2020.</t>
+        </is>
+      </c>
+      <c r="L62" s="4" t="inlineStr">
+        <is>
+          <t>17.2.1</t>
+        </is>
+      </c>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7">
+        <v>45672</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator erfasst die Anzahl der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern pro Jahr bzw. Semester. Hierbei wird die Anzahl der Studierenden und Forschenden aus den am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) gesondert ausgewiesen.</t>
+        </is>
+      </c>
+      <c r="G63" s="5" t="inlineStr">
+        <is>
+          <t>The indicator records the number of students and researchers from developing and emerging countries per year or semester. Here, the number of students and researchers from the least developed countries (LDCs) is listed separately.</t>
+        </is>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>Wissen ist nicht nur auf nationaler Ebene, sondern auch im globalen Maßstab ein zentraler Treiber nachhaltiger Entwicklung. Die Stärkung des internationalen Wissensaustauschs durch Deutschland ist hierfür eine wichtige Maßnahme. Ziel der Bundesregierung war es deshalb, die Summe der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern von 2015 bis 2020 um 10 % zu steigern und die Anzahl anschließend zu verstetigen.</t>
+        </is>
+      </c>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>Knowledge is a key driver of sustainable development not only at national level but also in global terms. The strengthening of the international exchange of knowledge by Germany is an important measure in this context. For this reason, the target of the Federal Government is to increase the total number of students and researchers from developing and emerging countries by 10 % from 2015 until 2020 and to stabilise the number at the same level thereafter.</t>
+        </is>
+      </c>
+      <c r="J63" s="5" t="inlineStr">
+        <is>
+          <t>Datengrundlage des Indikators sind die Studierendenstatistik und die Statistik des Hochschulpersonals des Statistischen Bundesamtes. Beides sind Vollerhebungen auf der Basis der Verwaltungsdaten der Hochschulen. Der Indikator umfasst die Studierenden im Wintersemester des jeweiligen Jahres. Die Forschenden werden zum Stichtag 1. Dezember erhoben. Unter Forschenden wird hierbei das haupt- und nebenberufliche wissenschaftliche Personal an deutschen Hochschulen (ohne studentische Hilfskräfte) verstanden. Promotionsstudierende, die als Studierende an einer Hochschule immatrikuliert sind und zugleich als wissenschaftliches Personal arbeiten, können zu Doppelzählungen im Indikator führen.
+Die Gesamtzahl aller Studierenden und Forschenden aus Entwicklungs- und Schwellenländern an deutschen Hochschulen im Jahr 2021 betrug rund 316 Tausend. Mit 91,9 % machten dabei die Studierenden den weitaus größeren Anteil am Wert des Indikators aus.
+Im Wintersemester 2021/22 waren 290 453 Studierende aus Entwicklungs- und Schwellenländern an deutschen Hochschulen eingeschrieben. Das entspricht 9,9 % aller Immatrikulierten. Die Anzahl der Studierenden aus Entwicklungs- und Schwellenländern ist seit 2005/06 (134 462 Studierende) stetig gestiegen – nur im Wintersemester 2007/08 gab es einen Rückgang. Der Anstieg im Wintersemester 2021/22 im Vergleich zum Vorjahr (rund 275 Tausend Studierende im Wintersemester 2020/21) lag bei 5,6 %. Im Wintersemester 2021/22 kamen 17 113 Studierende aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) und somit 13,7 % mehr als im Vorjahressemester.
+Von den Studierenden aus Entwicklungs- und Schwellenländern kamen 43 629 aus China, 36 575 aus der Türkei sowie 34 134 aus Indien. Insgesamt waren 41,6 % der Studierenden aus Entwicklungs- und Schwellenländern Studentinnen. Während aus den europäischen (54,2 %) und amerikanischen (50,4 %) Entwicklungs- und Schwellenländern etwa gleich viele Frauen und Männer in Deutschland studieren, liegt der Frauenanteil bei den Studierenden aus afrikanischen Entwicklungs- und Schwellenländern bei lediglich 32,8 %. Unter den Studierenden aus LDCs (weltweit) war der Frauenanteil mit 28,4 % noch geringer.
+Im Jahr 2021 waren rund 26 000 Forscherinnen und Forscher aus Entwicklungs- und Schwellenländern Teil des wissenschaftlichen Personals an deutschen Hochschulen. Damit machten diese einen Anteil von 6,0 % am gesamten wissenschaftlichen Personal an deutschen Hochschulen aus. Der Anteil von Forschenden aus Entwicklungs- und Schwellenländern ist damit deutlich geringer als der Anteil unter den Studierenden. Im Vergleich zum Vorjahr ist ihre Anzahl um 10,6 % gestiegen, seit 2005 hat sie sich mehr als vervierfacht. 924 Forschende kamen im Jahr 2021 aus LDCs (0,2 % des gesamten wissenschaftlichen Personals). Im Vorjahr waren es 838 Forschende.
+Bei allen oben genannten Werten und Vergleichen mit den jeweiligen Vorjahren ist zu beachten, dass sich Änderungen in den Daten auch durch eine geänderte Zuordnung von Ländern zur Gruppe der LDCs oder Schwellen- und Entwicklungsländer ergeben können.
+Das angestrebte Ziel, die Summe der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern um 10 % gegenüber dem Jahr 2015 (215 000) zu steigern, wurde bereits im Jahr 2017 übertroffen und auch die angestrebte Verstetigung der Anzahl wird seitdem erreicht.</t>
+        </is>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>The data basis of the indicator is the statistics of students and the statistics of higher education staff conducted by the Federal Statistical Office. Both are complete surveys based on the administrative data of the institutions of higher education. The indicator includes the students in the winter semester of each year. However, the researchers are covered on the reference date of 1st of December. Researchers in this context are defined as academic personnel at German institutions of higher education in primary and secondary employment (excluding student assistants). Doctoral candidates who are enrolled as students at an institution of higher education and who are also working as member of the academic personnel may be counted twice by the indicator.
+The total number of all students and researchers from developing and emerging countries at German institutions of higher education was about 316,000 in 2021. With 91.9 %, students by far accounted for the largest share of the indicator value.
+In the winter semester of 2021/22, 290,453 students from developing and emerging countries were enrolled in German institutions of higher education. This corresponds to 9.9 % of all enrollees. The number of students from developing and emerging countries has increased steadily since 2005/06 (134,462 students) – the only decline recorded was during winter semester of 2007/08. The increase in the winter semester of 2021/22 was around 5.6 % compared to the previous year (about 275,000 students in the winter semester of 2020/21). In the winter semester of 2021/22, a total of 17,113 students came from LDCs, 13.7 % more than in the previous year.
+Of the students from developing and emerging countries, 43,629 came from China, 36,575 from Turkey and 34,134 from India. In total, 41.6 % of them were female. Whereas the European (54.2 %) and American (50.4 %) developing and emerging countries send roughly equal numbers of women and men to study in Germany, less than a third of students from African developing and emerging countries are women (32.8 %). The proportion of women among students from LDCs (worldwide) was even lower (28.4 %).
+In 2021, 26,000 researchers from developing and emerging countries were part of the academic personnel at German institutions of higher education. They accounted for 6.0 % of all academic staff at German institutions of higher education. The proportion of people from developing and emerging countries was thus markedly smaller among researchers than among students. Their numbers increased by 10.6 % compared to the previous year and have more than quadrupled since 2005. A total of 924 researchers came from LDCs in 2021 (0.2 % of all academic staff). The equivalent figure for the previous year was 838, so there was a slight reduction.
+It should be considered, that a change of countries included into either the group of LDCs or developing and emerging countries might also result in changes of the aforementioned values. Thus, it is difficult to compare these values with previous years.
+The target of raising the number of students and researchers from developing and emerging countries by 10 % compared to the 215,000 recorded for 2015 was already achieved in 2017. From there, the intended steady increase is also reached in subsequent years.</t>
+        </is>
+      </c>
+      <c r="L63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7">
+        <v>45548</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>Imports from least developed countries</t>
+        </is>
+      </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den wertmäßigen Anteil der Einfuhren bzw. Importe aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) an den gesamten Einfuhren nach Deutschland an.</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the imports from the least developed countries (LDCs) as a proportion of all imports to Germany, measured in euros.</t>
+        </is>
+      </c>
+      <c r="H64" s="5" t="inlineStr">
+        <is>
+          <t>Für eine globale nachhaltige Entwicklung ist es wichtig, die Handelschancen der Entwicklungs- und Schwellenländer zu verbessern. Entwicklungs- und Schwellenländer benötigen ein offenes und faires Handelssystem, um sowohl Rohstoffe als auch verarbeitete Produkte auf dem Weltmarkt anzubieten. Die Bundesregierung hat daher als Ziel festgelegt, dass sich der Anteil der Einfuhren aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) zwischen den Jahren 2014 und 2030 verdoppeln soll.</t>
+        </is>
+      </c>
+      <c r="I64" s="5" t="inlineStr">
+        <is>
+          <t>To promote global sustainable development, it is important to improve trading opportunities of developing and emerging countries. Developing and emerging countries need an open and fair trading system that will allow them to offer raw materials as well as processed products on the world market. The Federal Government has therefore set itself the target of doubling the proportion of imports from LDCs between the years 2014 and 2030.</t>
+        </is>
+      </c>
+      <c r="J64" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten zu Einfuhren Deutschlands werden von der Außenhandelsstatistik des Statistischen Bundesamtes zusammengestellt. Dabei wird neben dem Herkunftsland der importierten Waren sowie deren Wert und Gewicht auch die Art der Ware detailliert erfasst. Ausgeschlossen ist in der Außenhandelsstatistik der Bereich Dienstleistungen.
+Die Einordnung der verschiedenen Länder als LDC wird anhand der Liste der Empfänger öffentlicher Entwicklungsgelder des Ausschusses für Entwicklungszusammenarbeit der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD-DAC) vorgenommen. Für den Indikator werden die im jeweiligen Jahr gültigen Einstufungen gemäß OECD-DAC zugrunde gelegt. Ändert sich also der Status eines Landes, so wirkt sich das auf den Indikator aus, auch wenn der Wert der Einfuhren aus diesem Land unverändert geblieben ist.
+Bedingt durch Reimporte sind auch Mehrfachzählungen im Zähler und Nenner des Indikators nicht auszuschließen. Zu berücksichtigen ist ferner, dass die Importe aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) im Verhältnis zu den gesamten deutschen Importen betrachtet werden. Somit hängt der Wert des Indikators nicht nur von der absoluten Höhe der Importe aus LDCs ab, sondern auch vom Wert aller Importe eines Jahres. Neben den gesamten Einfuhren aus LDCs wird in der Grafik gesondert auch der Anteil von weiterverarbeiteten Produkten dargestellt. Damit soll zumindest in gewissem Umfang der Frage Rechnung getragen werden, ob Deutschland aus den LDCs hauptsächlich die Ausgangsstoffe für industriell erzeugte Produkte bezieht oder ob die LDCs selbst am Fertigungsprozess und an dessen Wertschöpfung teilhaben. Unter weiterverarbeiteten Produkten sind alle Waren zusammengefasst, die in der Gliederung nach Warengruppen und -untergruppen der Ernährungs- und der Gewerblichen Wirtschaft (EGW) nicht als Rohstoffe eingestuft werden. Entsprechend fallen aus der Natur gewonnene, nicht oder kaum bearbeitete Waren, wie Erdöl, Erze, Rundholz oder pflanzliche Spinnstoffe, nicht darunter. Hingegen zählen etwa Getreide, Gemüse, lebende Tiere, Fleisch und Milch zu den weiterverarbeiteten Produkten.
+Der Anteil der Einfuhren aus LDCs an den gesamten Einfuhren Deutschlands lag 2021 nach vorläufigen Berechnungen bei 1,03 % bzw. 12,4 Milliarden Euro. Dies bedeutet eine Steigerung um 44,5 % gegenüber 2014, als der Anteil noch bei 0,71 % lag. Der Anteil der Einfuhren von weiterverarbeiteten Produkten aus LDCs stieg zwischen 2014 und 2021 um 38,7 %. Er belief sich im Jahr 2021 auf 0,91 % der gesamten Einfuhren nach Deutschland (2014: 0,66 %). Dies entsprach einem Wert von rund 11,0 Milliarden Euro. Trotz eines kontinuierlichen Anstiegs seit 2014 ist bei Fortschreibung der Veränderungen der letzten fünf Jahre davon auszugehen, dass das Ziel verfehlt werden wird.
+Eine genauere Analyse der Einfuhren nach Herkunftsländern zeigt, dass ein Großteil der Einfuhren aus LDCs 2021 aus Bangladesch (57,3 %) und Kambodscha (12,6 %) stammten. Werden nicht nur die LDCs, sondern alle Entwicklungs- und Schwellenländer betrachtet, so betrug im Jahr 2021 ihr Anteil an den gesamten Einfuhren nach Deutschland 23,7 %, wobei der Anteil weiterverarbeiteter Güter bei 22,1 % lag. Nicht nur unter den Entwicklungs- und Schwellenländern, sondern auch insgesamt spielte China die größte Rolle. Allein der Anteil der Importe aus China an allen deutschen Importen (1 203,2 Milliarden Euro) betrug 2021 11,8 %, wobei es sich hierbei wertmäßig zu 99,6 % um weiterverarbeitete Produkte handelte. Erst auf den Plätzen zwei und drei folgten die Niederlande (8,8 %) und die USA (6,0 %) als wichtigste Handelspartner bei den Einfuhren.</t>
+        </is>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>Information about imports to Germany is compiled from the foreign trade statistics of the Federal Statistical Office. In this case, the type of the imported goods is also recorded in detail in addition to their country of origin, their value and weight. The service sector is excluded from foreign trade statistics.
+The various countries are classified as LDCs based on the list of recipients of official development assistance kept by the Development Assistance Committee (DAC) of the Organisation for Economic Cooperation and Development (OECD). The classifications valid in the respective year according to the OECD-DAC are used for this indicator. If the status of a country changes, this will impact the indicator even if the value of imports from this country remains unchanged.
+Due to reimports, duplicate counting in the numerator and denominator of the indicator cannot be excluded. The fact that the imports from LDCs are viewed in relation to all German imports must also be taken into account. This means that the value of the indicator depends not only on the absolute quantity of imports from LDCs, but also on the value of all imports. Alongside Germany’s total imports from LDCs, the indicator also shows what share is made up of processed products. The intention here is to address the question, at least to some extent, as to whether Germany mainly uses LDCs as sources of basic materials for industrially produced goods or whether the LDCs themselves have a stake in the manufacturing process and the associated value creation. These include all goods not classified as raw materials in the classification according to product groups of the food and industrial economy (EGW). The term thus does not encompass products extracted from nature and not or hardly processed, such as petroleum, ores, timber in the rough or vegetable textile fibres. Conversely, cereals, vegetables, live animals, meat and milk are classified as processed products.
+Imports from LDCs as a proportion of all imports to Germany was 1.03 % or 12.4 billion euros in 2021 (provisional results). This is an increase of more than 44.5 % compared with 2014, when the share was just 0.71 %. The share of imports of processed products from LDCs increased even more sharply between 2014 and 2021 (+ 38.7 %). In 2021, It has reached 0.91 % of total imports to Germany (2014: 0.66 %), which equates to a value of around 11.0 billion euros. Despite the steady increase from 2014 on, if the development of the last five years continues, it can be assumed that the target will be missed.
+Closer analysis of the various countries of origin reveals that the largest amount of Germany’s imports from LDCs in 2021 came from Bangladesh (57.3 %) or Cambodia (12.6 %). If one looks not only at the LDCs but at all developing and emerging countries, their share of total imports to Germany in 2021 was 23.7 %, and processed products from those countries accounted for 22.1 %. China plays the most important role among all developing and emerging countries. Of all German imports in 2021, 1,203.2 billion euros or 11.8 % came from China alone, with processed goods making up 99.6 %. Netherlands (8.8 %) and the United States (6.0 %) are the second and third most important trading partners concerning imports, respectively.</t>
+        </is>
+      </c>
+      <c r="L64" s="4" t="inlineStr">
+        <is>
+          <t>17.11.1</t>
+        </is>
+      </c>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7">
+        <v>45593</v>
       </c>
     </row>
   </sheetData>

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -30,6 +33,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
@@ -62,6 +80,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -119,6 +155,48 @@
         <color rgb="FFE7E6E6"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -139,6 +217,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="6" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyNumberFormat="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -435,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -444,6 +534,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" min="1" max="1" width="17.72265625"/>
+    <col customWidth="true" min="2" max="2" width="13.8359375"/>
+    <col customWidth="true" min="3" max="3" width="13.8359375"/>
+    <col customWidth="true" min="4" max="4" width="20.80078125"/>
+    <col customWidth="true" min="5" max="5" width="13.8359375"/>
+    <col customWidth="true" min="6" max="6" width="64.3046875"/>
+    <col customWidth="true" min="7" max="7" width="64.3046875"/>
+    <col customWidth="true" min="8" max="8" width="64.3046875"/>
+    <col customWidth="true" min="9" max="9" width="29.1484375"/>
+    <col customWidth="true" min="10" max="10" width="-95.16015625"/>
+    <col customWidth="true" min="11" max="11" width="-47.9921875"/>
+    <col customWidth="true" min="12" max="12" width="13.8359375"/>
+    <col customWidth="true" min="13" max="13" width="13.8359375"/>
+    <col customWidth="true" min="14" max="14" width="32.8125"/>
+    <col customWidth="true" min="15" max="15" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -452,6 +556,76 @@
           <t>IbNr</t>
         </is>
       </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PNr</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Indikatoren</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>BezDe</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>BezEn</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>DefinitionDe</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>DefinitionEn</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>IntentionDe</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>IntentionEn</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>InhaltDe</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>InhaltEn</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>SDG1</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>SDG2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Indikator gesperrt?</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Datenstand</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -459,6 +633,96 @@
           <t>Z01_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Z01_B01_P01</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>01.1.a,b</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Materielle und soziale Deprivation sowie erhebliche materielle und soziale Deprivation</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Material deprivation and severe material deprivation</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>Materielle Deprivation beschreibt den unfreiwilligen Verzicht auf ausgewählten Konsum aufgrund finanzieller Probleme und den Mangel an bestimmten Gebrauchsgütern aus finanziellen Gründen. Beide Indikatoren geben den Anteil der Personen an der Gesamtbevölkerung an, die als materiell depriviert (1.1.a) bzw. als erheblich materiell depriviert (1.1.b) gelten. Die (erhebliche) materielle Entbehrung trifft für alle Menschen zu, deren Haushalt von neun vorgegebenen Kriterien, welche die finanziellen Einschränkungen des Haushalts widerspiegeln, mindestens drei (erheblich materiell depriviert: mindestens vier) erfüllt.</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>Material deprivation describes the lack of specific consumer goods and the involuntary foregoing of discretionary consumption for financial reasons. The two indicators represent the proportion of people out of the total population who are deemed to suffer either material deprivation (1.1.a) or severe material deprivation (1.1.b). The designation of (severe) material deprivation applies to all people whose household meets at least three (severely materially deprived: at least four) of nine defined criteria reflecting the financial restrictions of the household.</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator „materielle Deprivation“ (auch: materielle Entbehrung) ist auch Teil der ausführlichen Armuts- und Reichtumsberichterstattung der Bundesregierung. Durch die Identifikation individueller Mangelsituationen soll er zur Abbildung armutsgefährdeter Lebenslagen dienen. Ziel der Bekämpfung „materieller Deprivation“ ist es, dass der Prozentsatz der Personen, die materiell depriviert bzw. erheblich materiell depriviert sind, jeweils unter dem Niveau der Europäischen Union (EU) liegt.</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>The indicator “material deprivation” also is part of the extensive reporting on poverty and wealth conducted by the Federal Government. By identifying individual deficiencies, it aims to act as a substitute for illustrating living conditions threatened by poverty. The target is to combat material deprivation, therefore both, the percentage of persons who are materially as well as severely materially deprived, should stay below the level within the European Union.</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten stammen aus der europaweit harmonisierten jährlichen Statistik über Einkommen und Lebensbedingungen (EU-SILC), die ab dem Erhebungsjahr 2020 aufgrund der zunehmenden Anforderungen an die Daten hinsichtlich der Aktualität und Bereitstellung tiefer regionaler Ergebnisse mit weitreichenden methodischen Änderungen in den Mikrozensus integriert worden ist. Dadurch sind die Ergebnisse ab 2020 nicht mit denen der vorherigen Erhebungsjahre vergleichbar.
+Als Kriterien, die zur Beschreibung materieller Entbehrung dienen, wurden Ausgaben für eine Lebensführung ausgewählt, die in Europa als angemessen, wünschenswert oder gar notwendig angesehen werden. Diese sind für alle Länder, in denen EU-SILC durchgeführt wird, einheitlich und ermöglichen somit einen europaweiten Vergleich. Materielle Entbehrung liegt nach der Definition für EU-SILC dann vor, wenn aufgrund der Selbsteinschätzung des Haushalts mindestens drei (erhebliche materielle Entbehrung: mindestens vier) der folgenden neun Kriterien erfüllt sind:
+   1. 	Finanzielles Problem, die Miete, Hypotheken oder Rechnungen für Versorgungsleistungen rechtzeitig zu bezahlen.
+   2. 	Finanzielles Problem, die Wohnung angemessen heizen zu können.
+   3. 	Finanzielles Problem, unerwartete Ausgaben in einer bestimmten Höhe aus eigenen finanziellen Mitteln bestreiten zu können.
+   4. 	Finanzielles Problem, jeden zweiten Tag Fleisch, Fisch oder eine gleichwertige vegetarische Mahlzeit einnehmen zu können.
+   5. 	Finanzielles Problem, jährlich eine Woche Urlaub woanders als zu Hause zu verbringen.
+   6. 	Fehlen eines Pkw im Haushalt aus finanziellen Gründen.
+   7. 	Fehlen einer Waschmaschine im Haushalt aus finanziellen Gründen.
+   8. 	Fehlen eines Farbfernsehgeräts im Haushalt aus finanziellen Gründen.
+   9. 	Fehlen eines Telefons im Haushalt aus finanziellen Gründen.
+Bis zum Jahr 2019 gingen im Zeitverlauf die Anteile der Bevölkerung, sowohl die von materieller als auch die von erheblicher materieller Entbehrung betroffen ist, in Deutschland wie in der gesamten Europäischen Union (EU) leicht zurück. Dabei lagen die Werte für Deutschland stets deutlich unter denen der EU.
+Im Jahr 2020 waren in Deutschland 13,4 % der Bevölkerung von materieller Entbehrung betroffen. Der Wert liegt damit knapp über dem Wert für die EU-Bevölkerung von 13,3 %, der für 2020 vom statistischen Amt der Europäischen Union (Eurostat) erstmals ohne das Vereinigte Königreich (Brexit) gerechnet worden ist. Daher und auf Grund der oben genannten methodischen Änderungen am Erhebungskonzept ist der Wert nur eingeschränkt mit den Vorjahreswerten vergleichbar.
+Auch nach EU-Austritt des Vereinigten Königreichs und methodischen Anpassungen der Erhebung lag die Rate der von erheblicher materieller Entbehrung Betroffenen in Deutschland 2020 mit 5,6 % weiterhin unterhalb des Wertes für die EU von 5,9 %. Damit wurde das Ziel der Bundesregierung im Falle der erheblichen materiellen Entbehrung knapp erreicht.
+Im Rahmen der Erstellung der Europa 2030-Ziele hat der Indikator zur „Rate der (erheblichen) materiellen Deprivation“ in der EU eine Neudefinition und Erweiterung erfahren, indem nun auch zusätzliche Kriterien zur sozialen Entbehrung berücksichtigt werden. Auf europäischer Ebene werden zukünftig nur noch die Indikatoren „Rate der (erheblichen) materiellen und sozialen Deprivation“ bereitgestellt werden. Daher wird bei der Deutschen Nachhaltigkeitsstrategie eine Anpassung der Ziele und der Indikatoren zur (erheblichen) materiellen Deprivation notwendig.</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>The data is drawn from the Europe-wide harmonised annual Statistics on Income and Living Conditions (EU-SILC) which is incorporated into the microcensus with extensive methodological changes from the 2020 survey year onward due to increasing requirements on data with respect to actuality and provision of more detailed regional results. As a consequence, the data since survey year 2020 are not comparable with prior survey years. 
+The selected survey variables are expenditures based on a lifestyle that is considered appropriate, desirable or even necessary in Europe. These nine criteria used to characterise material deprivation are standardised across all countries in which EU-SILC is conducted, thereby allowing Europe-wide comparisons. Survey results are derived from self-assessment of households. According to the definition of EU-SILC, households are characterized to suffer from (severe) material deprivation, if they fulfil at least three (severe material deprivation: at least four) of the following nine criteria:
+   1.	Financial difficulties to pay for rent, mortgages, or utility bills on time.
+   2.	Financial difficulties to ensure adequate heating in the residence.
+   3.	Financial difficulties to meet unplanned expenditures of a specific amount from one’s own financial resources.
+   4.	Financial difficulties to eat meat, fish or an equivalent vegetarian meal every second day.
+   5.	Financial difficulties to spend one week’s holidays per year outside the actual residence.
+   6.	Lack of a car in the household due to financial reasons.
+   7.	Lack of a washing machine in the household due to financial reasons.
+   8.	Lack of a colour TV in the household due to financial reasons. 
+   9.	Lack of a telephone in the household due to financial reasons.
+Until 2019, the shares of the population experiencing both material deprivation and severe material deprivation declined over time for Germany as in the European Union (EU) as a whole. At all times, the values for Germany were always significantly lower than those for the EU.
+In 2020 13.4 % of the population in Germany were affected by material deprivation. This value is slightly higher than the value for the EU population that is 13.3 %, which was calculated by the Statistical Office of the European Union (Eurostat) excluding the United Kingdom (Brexit) for the first time in 2020. For this reason, and due to the above-mentioned methodological changes to the survey design, the value is only comparable with the previous year's figures to a limited extent. Even after the UK's EU exit and methodological adjustments to the survey, the rate of people experiencing severe material deprivation in Germany in 2020 remained below the EU figure of 5.9 % at 5.6 %. The German government's target for severe material deprivation was thus just achieved.
+The indicator on "severe material deprivation" has been redefined and expanded in the EU as part of the Europe 2030 targets, in that additional criteria on social deprivation are now also taken into account. At the European level, therefore, only the indicators "rate of (severe) material and social deprivation" will be provided in the future. A corresponding adjustment of the goals and indicators of the German Sustainability Strategy will therefore be necessary.</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>1.2.2</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N2" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -466,6 +730,82 @@
           <t>Z02_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>02.1.a</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Stickstoffüberschuss der Landwirtschaft</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Nitrogen surplus in agriculture</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt den jährlichen Stickstoffüberschuss für den Sektor Landwirtschaft, berechnet als Stickstoffzufuhr abzüglich Abfuhr von Stickstoff, in Kilogramm (kg) je Hektar (ha) und Jahr landwirtschaftlich genutzter Fläche dar.</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>The indicator represents the annual nitrogen surplus for the agricultural sector, calculated as nitrogen input minus removal of nitrogen, in kilograms per hectare of utilised agricultural area.</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>Im Übermaß in die Umwelt eingetragener Stickstoff führt zur Belastung von Grund- und Oberflächenwasser, zur Überversorgung von Binnengewässern, Meeren und Landökosystemen mit Nährstoffen (Eutrophierung), zur Entstehung von Treibhausgasen und versauernden Luftschadstoffen mit negativen Folgen für Klima, Artenvielfalt und Landschaftsqualität. Für den Zeitraum 2028 bis 2032 soll im Mittel eine Verringerung der Stickstoffüberschüsse der Gesamtbilanz für Deutschland auf 70 Kilogramm je Hektar landwirtschaftlich genutzter Fläche pro Jahr erreicht werden.</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>Excess nitrogen input into the environment causes pollution of groundwater and surface water, the oversupply of nutrients (eutrophication) in inland waters, lakes and onshore ecosystems, the generation of greenhouse gases and acidifying atmospheric pollutants, each with negative consequences for the climate, biodiversity and landscape quality. For the period 2028 to 2032, a reduction of the nitrogen surpluses of the overall balance for Germany to 70 kilograms per hectare of utilised agricultural area on an annual average should be achieved.</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>Bei der Berechnung des Indikators werden Stickstoffzufuhren durch Düngemittel, aus biologischer Stickstofffixierung, durch atmosphärische Einträge, durch Saat- und Pflanzgut sowie durch Futtermittel berücksichtigt. Die Stickstoffabfuhr erfolgt über pflanzliche und tierische Marktprodukte. Der überschüssige Stickstoff kann in gasförmiger Form in die Atmosphäre entweichen, sich im Boden anreichern oder in Richtung Grundwasser verlagern. Dadurch kann es letztendlich auch zu einem Stickstoffeintrag in Flüsse oder andere Ökosysteme kommen. Der Stickstoffüberschuss der Landwirtschaft beeinflusst hierdurch direkt die Entwicklung der Indikatoren 6.1.b „Nitrat im Grundwasser“, 14.1.a „Stickstoffeintrag über die Zuflüsse in Nord- und Ostsee“ und 15.2 „Eutrophierung der Ökosysteme“. Bei dem Indikator 3.2.a „Emissionen von Luftschadstoffen“ hat der Eintrag von Stickstoff aus der Landwirtschaft in die Atmosphäre Auswirkungen auf die Entstehung von Stickstoffdioxiden und Ammoniak.
+Der Indikator wird vom Institut für Pflanzenbau und Bodenkunde des Julius Kühn-Instituts und vom Institut für Landschaftsökologie und Ressourcenmanagement der Universität Gießen berechnet. Im Jahr 2020 waren Düngemittel mit 51,1 % (86 kg/ha) die wichtigste Komponente der Stickstoffzufuhr in der Gesamtbilanz. Daneben trugen Futtermittel mit 36,9 % (62 kg/ha), die biologische Stickstofffixierung mit 8,2 % (14 kg/ha) und die außerlandwirtschaftlichen Emissionen mit 1,9 % (3 kg/ha) substanziell zur Stickstoffzufuhr bei.
+Die Berechnung des Indikators basiert auf dem gleitenden Fünfjahresdurchschnitt, bei dem der Mittelwert aus Werten von fünf Berichtsjahren gebildet wird. Der gleitende Fünfjahresdurchschnitt gibt jeweils den Wert für das mittlere der fünf Berichtsjahre an. Hierdurch werden witterungs- und marktabhängige jährliche Schwankungen geglättet, die nicht von den landwirtschaftlichen Betrieben beeinflusst werden können. Der Indikator trifft keine Aussage zur regionalen Verteilung der Stickstoffüberschüsse.
+Der gleitende Fünfjahresdurchschnitt des Stickstoffsaldos sank im Zeitraum von 1992 bis 2018 um 25,4 % (von 116,6 auf 87,0 Kilogramm je Hektar und Jahr). Dabei sank der Stickstoffüberschuss zu Beginn der Zeitreihe bis zum Jahr 2010. Gründe hierfür waren vor allem der reduzierte Düngemitteleinsatz und abnehmende Tierbestände in den neuen Bundesländern.
+Bis zum Jahr 2015 stagnierten die Stickstoffüberschüsse. In diesem Zeitraum waren ein leichter Rückgang beim Einsatz mineralischer Düngemittel und höhere Erntemengen aufgrund des technischen Fortschritts in der Pflanzenproduktion und -züchtung (effizientere Stickstoffdüngung, Sortenspektrum) zu verzeichnen. Gleichzeitig wurde der Anbauumfang ertragsstarker Kulturarten (Mais, Weizen) ausgeweitet sowie die Futterverwertung bei den Nutztieren verbessert.
+Seit dem Jahr 2015 hat sich der Stickstoffüberschuss wieder nach unten bewegt und sank zuletzt deutlich um 4,9 % im Jahr 2018. Inwieweit dieser positive Trend neben den extremen agrarklimatischen Bedingungen (Dürre 2018 bis 2020) auch der novellierten Düngeverordnung 2017 zugerechnet werden kann, ist derzeit noch unklar. Nur wenn sich der aktuelle Trend weiter verfestigt, was sich in den nächsten Jahren zeigen wird, kann das Ziel einer Verringerung auf 70 kg/ha erreicht werden.</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>The calculation takes into account nitrogen inputs by fertilisers, from biological nitrogen fixation, by atmospheric inputs which are not emitted by agriculture, by seed and planting material as well as imported and domestically produced feedstuff. Nitrogen removal results from plant and animal market products. Nitrogen surplus in its gaseous state can leak to the atmosphere or accumulate in soil or groundwater, enabling nitrogen input to rivers or other ecosystems. Hence, the nitrogen surplus from farming has a direct impact on the development of the indicators 6.1.b “Nitrate in groundwater“, 14.1.a “Nitrogen inputs via the inflows into the North and Baltic Seas“ and 15.2 “Eutrophication of ecosystems“. Nitrogen input from farming into the atmosphere has an impact on indicator 3.2.a “Emissions of air pollutants“ through formation of nitrogen dioxide and ammonia.
+The indicator is calculated by the Institute for Crop and Soil Science at the Julius Kühn Institute and the Institute of Landscape Ecology and Resources Management at the University of Gießen. In 2020, fertilisers were the most important component of nitrogen input in the overall balance, accounting for 51.1 % (86 kilograms of nitrogen per hectare). Feedstuff contributed 36.9 % (62 kg/ha), the biological nitrogen fixation 8.2 % (14 kg/ha) and the non-agricultural emissions 1.9 % (3 kg/ha) to nitrogen input.
+The relevant time series for the indicator is based on the moving five-year average of the total balances of the relevant year as well as the two preceding and subsequent years. Thereby, yearly meteorological and market fluctuations, which cannot be influenced by farms, are balanced. The indicator does not provide an interpretation regarding the regional distribution of nitrogen surpluses.
+During the period from 1992 to 2018, the moving five-year average of nitrogen balance decreased by 25.4 % (from 116.6 to 87.0 kg per hectare and year). The decline of nitrogen surplus until 2010 resulted from diminished use of fertilisers and diminishing numbers of livestock in the new Länder.
+Until 2015, nitrogen surplus stagnated. The marginal decline of the indicator in the remaining course of the time series is based on a minor reduction in mineral fertiliser use and improved harvest yields resulting from technical advances in plant production and breeding (more efficient nitrogen fertilisation, variety spectrum) combined with the simultaneous expansion in the cultivation of high-yield crop types (maize, wheat) as well as improved feed conversion by livestock.
+Since 2015, the nitrogen surplus decreased and the recent reduction was 4.9 % in 2018. It is uncertain, to what extent extreme agroclimatic conditions (drought from 2018 until 2020) and the amended fertiliser regulation released in 2017 contributed to this positive trend. A reduction to 70 kg/ha is only possible, if this trend continues in the next years.</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>45562</v>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -473,6 +813,83 @@
           <t>Z02_B01_P01_Ib02</t>
         </is>
       </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B01_P01</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>02.1.b</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Ökologischer Landbau</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Organic farming</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt die ökologisch bewirtschaftete Fläche landwirtschaftlicher Betriebe, die dem Kontroll-verfahren der EU-Rechtsvorschriften für den ökologischen Landbau unterliegen (Verordnung [EG] Nr. 834/2007 und Durchführungsvorschriften), als Anteil an der gesamten landwirtschaftlich bewirtschafteten Fläche in Deutschland dar. Hierbei sind sowohl die voll auf ökologische Bewirtschaftung umgestellten als auch die noch in der Umstellung befindlichen Flächen einbezogen.</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the share of total utilised agricultural area in Germany that is cultivated by organically managed farms subject to the control system regulated by the EU legislation on organic farming (Regulation (EC) No. 834/2007 and the implementing rules). It includes land that has been fully converted to organic management as well as areas still undergoing conversion.</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>Ökologischer Landbau erhält und schont die natürlichen Ressourcen in besonderem Maße, hat vielfältige positive Auswirkungen auf Natur, Klima und Umwelt und dient der Erzeugung qualitativ hochwertiger Lebensmittel. Deshalb soll nach dem Grundsatzbeschluss zur Deutschen Nachhaltigkeitsstrategie 2022 bis zum Jahr 2030 der Anteil landwirtschaftlicher Flächen unter ökologischer Bewirtschaftung 30 %&lt;sup&gt;1&lt;/sup&gt; betragen.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung des Zielwertes von 20 % bis 2030 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>Organic farming preserves and protects natural resources to a particularly high degree. It has a range of positive effects upon nature, climate and the environment, and provides for the production of high quality food. For this reason, the proportion of organically farmed agricultural land should be 30 %&lt;sup&gt;1&lt;/sup&gt;  by 2030.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target value from 20 % by 2030 according to policy resolution 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten zur ökologischen Bewirtschaftung werden sowohl von der Bundesanstalt für Landwirtschaft und Ernährung (BLE) im Auftrag des Bundesministeriums für Ernährung und Landwirtschaft (BMEL) als auch vom Statistischen Bundesamt ermittelt.
+Vom Statistischen Bundesamt werden zur Ermittlung der ökologisch bewirtschafteten Fläche verschiedene Erhebungen herangezogen. In den Jahren einer Strukturerhebung werden die ökologischen Flächenangaben primärstatistisch erfasst, wohingegen in den Zwischenjahren ein Schätzverfahren zur Anwendung kommt. Die Bezugsgröße für die Anteilsberechnung ist die landwirtschaftlich genutzte Fläche, welche jährlich im Rahmen der Bodennutzungshaupterhebung ermittelt wird. Stichtag ist hierfür der 01.03. des Berichtsjahres. Die landwirtschaftlich genutzte Fläche umfasst alle landwirtschaftlich oder gärtnerisch genutzten Flächen. Gebäude- und Hofflächen der landwirtschaftlichen Betriebe sind demnach nicht in der Bezugsgröße enthalten.
+Die Daten des BMEL enthalten Angaben zur ökologisch bewirtschafteten Fläche, die von den Öko-Kontrollbehörden der Länder jährlich gemeldet werden. Stichtag ist der 31.12. eines Jahres. Alle Meldungen eines laufenden Jahres werden bis zu diesem Stichtag akkumuliert. In den Daten des BMEL ergeben sich etwas höhere Werte. Dies ist unter anderem darin begründet, dass dabei Flächen ohne Abschneidegrenze auf die gesamten Flächen mit Abschneidegrenze bezogen werden und unterschiedliche Berichtszeiträume vorliegen. Das heißt, in die Berechnung des Anteils gehen im Zähler auch sehr kleine Flächen ein, während im Nenner nur Flächen ab einer bestimmten Mindestgröße Berücksichtigung finden.
+Nach den Daten des Statistischen Bundesamtes stieg der Flächenanteil unter ökologischer Bewirtschaftung an der landwirtschaftlichen Nutzfläche zwischen 1999 und 2021 von 2,9 auf 9,5 %. Das entspricht im Jahr 2021 einer Fläche von 1,61 Millionen Hektar. Die Daten des BMEL weisen einen höheren Anteil von Ökolandbaufläche an der landwirtschaftlichen Nutzfläche aus. Der Wert für 2021 lag demnach bei 10,9 % oder 1,80 Millionen Hektar.
+Basierend auf den Zahlen des Statistischen Bundesamtes würde bei einer Fortschreibung des Trends der vergangenen fünf Berichtsjahre der Flächenanteil unter ökologischer Bewirtschaftung im Jahr 2030 bei 14,9 % liegen. Somit würde das Ziel, dass bis 2030 30 % der landwirtschaftlichen Nutzfläche ökologisch bewirtschaftet werden, nicht erreicht werden. Auch das ehemalige Ziel der Regierung von 20 % ökologisch bewirtschafteter landwirtschaftlicher Nutzfläche bis 2030 würde nicht erreicht werden.
+Die Ökolandbaufläche Deutschlands wurde 2021 wie folgt genutzt: 50,6 % als Dauergrünland, 47,8 % als Ackerland und 1,6 % als sonstige Flächen. Demgegenüber lag der Schwerpunkt in der Landwirtschaft insgesamt mit 70,3 % bei den Ackerflächen, der Anteil des Dauergrünlands betrug 28,5 % und die sonstigen Flächen bedeckten 1,2 % der gesamten landwirtschaftlich genutzten Fläche. Nach Ergebnissen der Landwirtschaftszählung 2020 ist unter allen Flächenländern der Anteil unter ökologischer Bewirtschaftung an der landwirtschaftlichen Nutzfläche im Saarland mit 18,0 % am höchsten, gefolgt von Hessen mit 15,0 % und Brandenburg mit 13,3 %. Die Umstellung auf Ökolandbau wird von den einzelnen Bundesländern in unterschiedlichem Umfang gefördert.
+In den Staaten der EU-27 wurde nach Angaben von Eurostat im Jahr 2020 eine Fläche von insgesamt 14,7 Millionen Hektar ökologisch bewirtschaftet. Dies entsprach einem Anteil von 9,1 % an der gesamten landwirtschaftlich genutzten Fläche. Die höchsten Anteile der Ökolandbaufläche innerhalb der EU-Staaten waren für Österreich mit 25,7 % zu verzeichnen, gefolgt von Estland mit 22,4 %, Schweden mit 20,3 %, Italien mit 16,0 % und der Tschechischen Republik mit 15,3 %.</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>Data on organic farming are collected by the Federal Office for Agriculture and Food (BLE) on behalf of the Federal Ministry of Food and Agriculture (BMEL) and by the Federal Statistical Office.
+The Federal Statistical Office uses various surveys to determine the amount of organically farmed land. Agricultural area is recorded by primary statistical methods in a structural survey. Since not every year is covered in the survey, data for interim years are calculated by an estimation procedure. The reference value for the proportional computation is the amount of utilised agricultural area determined annually as part of the land use survey. The reporting date is 01 March of the respective year. The utilised agricultural area includes all areas and sub-areas used for agricultural or horticultural purposes. Building and farmyard areas of agricultural holdings are therefore not included in the reference value.
+The data collected by the BMEL include details of the amount of organically farmed land reported annually by the organic regulatory authorities of the Länder. The reporting date is 31 December of a year. All reports for a current year are accumulated no later than the reporting date. The data from the BMEL contain slightly higher values. Amongst others, this is due to the fact that areas without a cut-off threshold are related to all areas with a cut-off threshold. This means that very small areas are also included in the numerator when calculating the proportion, whereas only areas above a certain minimum size are taken into account in the denominator.
+According to data from the Federal Statistical Office, the share of organically farmed land increased from 2.9 % to 9.5 % between 1999 and 2021. As a result, in 2021 this amounted to an area of 1.61 million hectares. The data from the BMEL indicate a slightly higher share of organically farmed land in total agricultural land due to the methodology employed. Consequently, the value for 2021 was 10.9 % or 1.80 million hectares.
+Based on data from the Federal Statistical Office, the share of organically farmed agricultural land will be 14.9 % in 2030 if the trend continues at the level recorded in the preceding five reporting years. Hence, neither the target of reaching 30 % nor the outdated 20 % target of organically farmed agricultural land by 2030 would be met. 
+Germany’s organically farmed land was used as follows in 2021: 50.6 % as permanent pasture, 47.8 % for arable land and 1.6 % for other land. In contrast, the main focus of agriculture as a whole was on arable land (70.3 %), while the share of permanent pasture was 28.5 % and other land accounted for 1.2 % of the total utilised agricultural area. According to the results of the 2020 farm structure survey, Saarland held the largest share of organically farmed land among all Länder (around 18.0 %), followed by Hessen (15.0 %) and Brandenburg (13.3 %). The conversion to organic farming is promoted to varying degrees by the individual Länder.
+According to Eurostat statistics, a total area of 14.7 million hectares was organically farmed in the states of the EU-27 in 2020. This corresponded to a share of 9.1 % of total agriculturally used area. In regards to the total utilised agricultural area in individual EU countries, the highest share of organic farming land was recorded in Austria (25.7 %), followed by Estland (22.4 %), Sweden (20.3 %), Italy (16.0 %) and the Czech Republic (15.3 %)</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>2.4.1</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N4" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -480,6 +897,78 @@
           <t>Z02_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Z02_B02_P01</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>02.2</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Unterstützung guter Regierungsführung bei der Erreichung einer angemessenen Ernährung weltweit</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Support for good governance in attaining appropriate nutrition worldwide</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator misst in Prozent den Anteil der ausgezahlten Mittel an den Gesamtausgaben für Ernährungssicherung, mit dem die Anwendung relevanter internationaler Normen und Empfehlungen zur Verwirklichung des Rechts auf Nahrung (definiert nach dem Global Strategic Framework des Ausschusses für die Welternährungssicherheit der Vereinten Nationen (Committee on World Food Security, CFS) unterstützt wird.</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>The indicator measures the percentage share of disbursed funds in total expenditure on food security that is used for the implementation of relevant international norms and recommendations for the realisation of the right to food (defined by the Global Strategic Framework of the United Nations Committee on World Food Security).</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Dem Indikator liegt die Annahme zugrunde, dass durch die Förderung der Anwendung internationaler Leitlinien und Empfehlungen im Bereich Ernährungssicherung die Ernährungssituation verbessert und somit ein wichtiger Beitrag zur Erfüllung von SDG 2 und zur Verwirklichung des Rechts auf Nahrung geleistet werden kann.
+Der Indikator misst den deutschen Beitrag zur Stärkung guter Regierungsführung im Kontext von Ernährungssicherung. Der Anteil der ausgezahlten Mittel für Ernährungssicherung, der für Governance eingesetzt wird, soll bis 2030 angemessen steigen.</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>The indicator is based on the assumption that supporting the implementation of international guidelines and recommendations for food security will improve nutrition. Thus, a substantial contribution towards fulfilling SDG 2 and towards the realisation of the right to food can be achieved.
+The indicator measures the German contribution to reinforcement of good governance for food security. The share of disbursements used for good governance for food security should be increased adequately by 2030.</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Die Datenerhebung wird vom Bundesministerium für Ernährung und Landwirtschaft (BMEL) und vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) vorgenommen. Hierbei erfolgt eine Prüfung aller Projekt- und Programmdokumente zu Vorhaben im Bereich der Ernährungssicherung. Eine Kongruenz zur Erfassung der diesbezüglichen Ausgaben als öffentliche Entwicklungsausgaben (ODA) muss gegeben sein. Projekte, in denen im Ziel, in der Wirkungsmatrix oder der Projektbeschreibung a) eine Leitlinie oder eine Empfehlung des Global Strategic Framework für Ernährungssicherung konkret genannt wird oder b) ein inhaltliches Kernelement einer Leitlinie/Empfehlung substanzieller Teil des Vorhabens ist und die gleichzeitig das Vorhaben der Stärkung rechtlicher, institutioneller oder politischer Rahmenbedingungen zum Ziel haben, werden dabei als förderlich für die Unterstützung guter Regierungsführung angesehen. Da der Indikator als Anteil dieser Leistungen an allen Leistungen mit Bezug zur Ernährungssicherheit ausgedrückt wird, gibt er auf den ersten Blick keine Informationen über die Entwicklung der Leistungen für Ernährungssicherung oder der Unterstützungsleistungen für gute Regierungsführung in diesem Bereich.
+Im Jahr 2018 wurden im Bereich Ernährungssicherung für den Teilbereich Governance 223 Millionen Euro aufgebracht. Dies entspricht 18,3 % der ODA-Gesamtausgaben für Ernährungssicherung in Höhe von 1 215 Millionen Euro in 2018. Dabei hat sich im Vergleich zu 2016 mit 16,7 % nicht nur der prozentuale Anteil des Governance-Anteils an den ODA Leistungen zur Ernährungssicherheit erhöht. Vielmehr stiegen im Vergleich zu 2016 auch die absoluten Ausgaben sowohl für die Ernährungssicherheit insgesamt von 887 Millionen Euro als auch für die Verbesserung der Regierungsführung in diesem Bereich von 148 Millionen Euro an.
+Im Vergleich zu den gesamten öffentlichen Entwicklungsausgaben stellen die Ausgaben sowohl die Bereiche Governance als auch für die Ernährungssicherung lediglich einen kleinen Teil dar. So wurden im Jahr 2018 insgesamt 25 Milliarden Euro ODA aufgebracht. Davon entfielen 4,9 % auf Ernährungssicherung bzw. 0,9 % auf gute Regierungsführung im Bereich Ernährungssicherung.</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>The data collection for the indicator was conducted by the Federal Ministry of Food and Agriculture (BMEL) and the Federal Ministry for Economic Cooperation and Development (BMZ). For this, a review of all project and programme documents on undertakings in the field of food security was carried out. There must be congruity with the recording of the related spending as official development assistance (ODA). A project is counted if in the target of the impact matrix or project description a) the application of a guideline or recommendation of the Global Strategic Framework for Food Security is specifically mentioned or b) a key element with regard to the content of a guideline or recommendation is a substantial part of the undertaking and at the same time the undertaking aims to strengthen the legal, institutional or political framework. The indicator shows the proportion of expenditures to total expenditures in relation to food security. Thus, it does not include information about the development of expenditures for food security or the development of financial benefits for good governance.
+In 2018, a total of 223 million euros, or 18.3 % of the total expenditure of 1,215 million euros on ODA for food security, fell under the subheading of governance. In comparison to 2016, total expenditures for food security and for improvement of governance increased from 887 million euros and 148 million euros, respectively. Accordingly, the percentage share for governance as part of ODA expenditures increased in comparison to 2016 from 16.7 %.
+Compared with the total amount of ODA, however, the proportions allocated to both governance and food security are small. In 2018, for example, total spending on ODA amounted to 25 billion euros. Of that amount, 4.9 % went to food security and 0.9 % to good governance within the realm of food security.</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>2.a.2</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>45637</v>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -487,6 +976,84 @@
           <t>Z03_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>03.1.a</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Durch Prävention und Behandlung vermeidbare Sterblichkeit</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Premature mortality</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator umfasst die Todesfälle der weiblichen (3.1.a) und männlichen (3.1.b) unter 70-jährigen Bevölkerung, bezogen auf 100 000 Einwohnerinnen und Einwohner der alten Europastandardbevölkerung unter 70 Jahren (unter Ausschluss der unter 1-Jährigen).</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>The indicators comprise deaths among women (3.1 a) and men (3.1 b) in the population below 70 years of age with reference to 100,000 inhabitants of the “old” standardised European population below 70 years (excluding those less than 1 year old).</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Bis zum Jahr 2030 soll die vorzeitige Sterblichkeit bei Frauen bei höchstens 100 und bei Männern bei höchstens 190 Todesfällen je 100 000 Einwohnerinnen und Einwohnern liegen.</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>By 2030, premature mortality among women (3.1.a) should not exceed 100, and for men (3.1.b), it should not exceed 190 deaths per 100,000 inhabitants.</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten stammen aus der Todesursachenstatistik und der Bevölkerungsfortschreibung des Statistischen Bundesamtes. Alle amtlichen Todesbescheinigungen werden im Rahmen der Todesursachenstatistik erfasst und ausgewertet. Die aktuellen Bevölkerungszahlen gibt die Bevölkerungsfortschreibung basierend auf den Ergebnissen der jeweiligen letzten Volkszählung an. Um einen Vergleich von Veränderungsraten über die Zeit zu ermöglichen, beziehen sich die Daten auf die alte Europastandardbevölkerung. Hierbei handelt es sich um eine Modellbevölkerung.
+Die Indikatoren 3.1.a und 3.1.b werden auch im Informationssystem der Gesundheitsberichterstattung des Bundes (www.gbe-bund.de) zur Verfügung gestellt. Die Säuglingssterblichkeit (unter 1-Jährige) wird nicht betrachtet.
+Zwischen 1991 und 2020 ist die vorzeitige Sterblichkeit bei Frauen (‒38 %) und Männern (‒44 %) stetig zurückgegangen. Durch den stärkeren Rückgang bei Männern hat sich auch der geschlechtsspezifische Unterschied der vorzeitigen Sterblichkeit verringert. 145 Frauen und 276 Männer je 100 000 Einwohnerinnen und Einwohner starben im Jahr 2020 bevor sie das 70. Lebensjahr vollendeten. Die geschlechtsspezifischen Zielwerte für das Jahr 2030 würden jedoch bei gleichbleibender Entwicklung, wie in den vergangenen Jahren, verfehlt werden.
+Im Zeitverlauf der Indikatoren spiegeln sich die insgesamt deutlich erhöhten Sterbefälle aufgrund der COVID-19-Pandemie im Jahr 2020 kaum wider. Während die Sterblichkeit bei den hier nicht betrachteten über 80-Jährigen in 2020 deutlich angestiegen ist, lag der Anteil von COVID-19 an den Todesursachen in der hier betrachteten Altersklasse bei 1,7 % bei den Frauen und 2,3 % bei den Männern, sodass die Indikatoren durch die COVID-19-Pandemie wenig beeinflusst wurden. Es wird dabei davon ausgegangen, dass es zu keiner wesentlichen Untererfassung der COVID-19-Todesfälle kam.
+Die Lebenserwartung ist ein Indikator, der auf Grundlage der Statistik der Sterbefälle und der Bevölkerungsfortschreibung berechnet wird und Effekte der Bevölkerungsalterung auf die Entwicklung der Sterblichkeit herausrechnet. Im Zuge der Pandemie kam es zu einem kurzfristigen Rückgang der Lebenserwartung in den Jahren 2020 und 2021. Langfristig gesehen hat sich die Lebenserwartung in Deutschland, entsprechend dem insgesamt stetigen Rückgang der vorzeitigen Sterblichkeit, weiter positiv entwickelt. Mit 17,0 weiteren Lebensjahren können statistisch gesehen heute 70-jährige Frauen rechnen, Männer mit weiteren 14,3 Jahren. In den Jahren 2019 bis 2021 betrug die mittlere Lebenserwartung für neugeborene Mädchen 83,4 Jahre und für Jungen 78,5 Jahre. Sie liegt damit für Mädchen um 4,4 Jahre und für Jungen um 6,1 Jahre höher als in den Jahren 1991 bis 1993. Die in der Vergangenheit ausgeprägten Differenzen bei der Lebenserwartung zwischen dem früheren Bundesgebiet und den neuen Bundesländern (jeweils ohne Berlin) haben sich langfristig betrachtet deutlich reduziert und betragen heute bei neugeborenen Jungen 1,8 und bei neugeborenen Mädchen 0,2 Jahre. Während der Pandemie sind die Ost-West-Unterschiede dabei allerdings wieder größer geworden.
+Bösartige Neubildungen hatten im Jahr 2020 an allen Ursachen der vorzeitigen Sterblichkeit mit 35,9 % (1991 bis 2020: +2,7 Prozentpunkte) den größten Anteil, gefolgt von Herz-Kreislauf-Erkrankungen mit 19,5 % (1991 bis 2020: ‒11,6 Prozentpunkte). Zur vorzeitigen Sterblichkeit trugen weiter Todesfälle aufgrund äußerer Ursachen (wie Unfälle, Vergiftungen, Suizid) mit 8,6 % (1991 bis 2020: ‒2,4 Prozentpunkte), Krankheiten des Verdauungssystems mit 7,3 % (1991 bis 2020: ‒0,3 Prozentpunkte) und Krankheiten des Atmungssystems mit 5,2 % (1991 bis 2020: +1,2 Prozentpunkte) bei.
+Neben Faktoren wie zum Beispiel dem Gesundheitsverhalten (siehe „Raucherquoten“ Indikatoren 3.1.c und 3.1.d sowie „Adipositasquoten“ Indikatoren 3.1.e und 3.1.f) spielt für die Sterblichkeit auch die medizinische Versorgung eine wichtige Rolle. Die Gesundheitsausgaben stiegen im Coron</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>The data sources of the indicators are the death statistics and the intercensal population updates produced by the Federal Statistical Office. As part of the causes of death statistics, all official cause of death certificates are recorded and evaluated. The population statistics specify the current population based on the results of the most recent census. The data refer to the “old” standardised European population. A standard population is a modelled population that makes it possible to compare change rates over time.
+The indicators 3.1.a and 3.1.b are also part of the Federal Health Monitoring information system (www.gbe-bund.de). Those under 1 year of age and consequently the infant mortality rate are excluded from the assessment.
+Premature mortality steadily decreased between 1991 and 2020, both for women (– 38 %) and for men (– 44 %). As a result of this decrease, the gender difference in premature mortality declined, too. In 2020, for example, 145 women and 276 men per 100,000 inhabitants died before they reached the age of 70. If this trend continues unchanged as seen in recent years, the gender-specific targets for 2030 will not be achieved.
+The COVID-19-pandemic caused significantly more deaths in 2020, however, considering the indicators over time, the changes of the values are minor. The mortality in the age group of above 80 years old (not considered for the indicators) considerably increased in 2020, while in the age group below 70 years 1.7 % women and 2.3 % men died due to COVID-19. Therefore, the indicators are less affected by the COVID-19-pandemic. It is assumed, that a substantial undercoverage of COVID-deaths is not prevalent.
+Life expectancy is an indicator based on death statistics and the intercensal population updates and excludes the effects of population ageing on the development of mortality. In 2020 and 2021, the pandemic caused a short-run decline in life expectancy. In the long-run, reflecting the steady decrease in premature mortality, life expectancy in Germany has continued to follow an upward curve. Todays 70-year-old women can, statistically, expect to live another 17.0 years and 70-year-old men another 14.3. Between 2019 and 2021, the average life expectancy was 83.4 years for new-born girls and 78.5 years for boys, which was 4.4 years higher for girls and 6.1 years for boys than the average for the years 1991 to 1993. Differences in life expectancy between the western Länder and the eastern Länder (each excluding Berlin) are for new born girls 0.2 years and for new-born boys 1.8 years and, thus, significantly decreased. However, the differences between east-west Germany are increasing in size due to the pandemic.
+The largest share of all causes of premature mortality in 2020 was malignant neoplasms (35.9 %), followed by cardiovascular diseases (19.5 %). Deaths due to external causes (such as accidents, poisoning, suicide) accounted for as much as 8.6 %. Diseases of the digestive and respiratory tracts contributed 7.3 % and 5.2 %, respectively, to the causes of death. Since 1991, the shares of malignant neoplasms and diseases of the respiratory tract among all causes of death have increased (by + 2.7 and + 1.2 percentage points, respectively). In contrast, causes such as cardiovascular diseases (– 11.6 percentage points), external causes (– 2.4 percentage points) and diseases of the digestive tract (– 0.3 percentage points) have declined.
+Besides factors such as health related behaviour (see, for instance, indicators 3.1.c and 3.1.d on adolescent and adult smoking rates or 3.1.e and 3.1.f on child/adolescent and adult obesity rates), medical care also has an important influence on mortality rates. Health expenditure rose to 440.6 billion euros in 2020 due to the pandemic and reached a peak. It is equivalent to an annual amount of 5,298 euros per capita of population, compared with 4,980 euros in 2019. Since the beginning of calculations in 1992, health care expenditures per capita re</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>45538</v>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -494,6 +1061,81 @@
           <t>Z03_B01_P01_Ib02</t>
         </is>
       </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>03.1.c,d</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Raucherquote von Jugendlichen und Erwachsenen</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Smoking rate among adolescents and adults</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Die Raucherquote von Jugendlichen (3.1.c) gibt den Anteil der 12- bis 17-Jährigen wieder, die angeben, gelegentlich oder ständig zu rauchen. Die Raucherquote von Erwachsenen (3.1.d) gibt den Anteil der Befragten ab 15 Jahren an, welche im Mikrozensus die Fragen zum Rauchverhalten beantwortet haben und gelegentlich oder regelmäßig rauchen.</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>The smoking rate among adolescents (3.1.c) reflects the share of 12 to 17-year-olds who indicate that they smoke regularly or occasionally. The smoking rate among adults (3.1.d) indicates the share of those surveyed aged 15 and above who answered the questions in the microcensus regarding smoking behaviour and who smoke regularly or occasionally.</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Rauchen kann zu erheblichen Gesundheitsschäden und frühzeitigem Tod führen. Von diesen Risiken betroffen sind nicht nur die Raucherinnen und Raucher selbst. Auch Nichtraucherinnen und Nichtraucher, die dem Tabakrauch ausgesetzt sind, werden nicht nur vom Rauch belästigt, sondern können davon auch erkranken. Die Bundesregierung hat das Ziel, den Anteil der Raucherinnen und Raucher bei Jugendlichen bis zum Jahr 2030 auf 7 % und bei allen Personen ab 15 Jahren auf 19 % zu senken.</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Smoking poses a risk of serious health impairment and premature death, and this risk is not confined to smokers themselves. Non-smokers exposed to tobacco smoke do not just suffer annoyance but can also fall ill from it. The Federal Government is pursuing the goal of reducing the percentage of adolescent smokers to under 7 % by 2030, and that of all smokers aged 15 years and older to 19 %.</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Im Rahmen der Erhebungen zum Substanzkonsum bei Jugendlichen werden die Daten für die 12- bis 17-Jährigen durch die Bundeszentrale für gesundheitliche Aufklärung mittels computergestützter Telefoninterviews erhoben. Zunächst fand die Befragung drei- bis vierjährlich statt und seit 2001 beinahe jährlich. Um die Vergleichbarkeit der Daten im Zeitverlauf zu gewährleisten, erfolgte eine Gewichtung nach Geschlecht, Region und Alter. Für die Darstellung der Zeitreihe wurden die Daten für Jahre ohne Erhebung interpoliert. Im Jahr 2021 umfasste die verwendete Zufallsstichprobe 7 002 Jugendliche.
+Die Daten für Erwachsene werden vierjährlich im Rahmen des Mikrozensus des Statistischen Bundesamtes erfragt. Der Mikrozensus als Stichprobenerhebung umfasst 1 % der Gesamtbevölkerung und ist die größte Haushaltsbefragung in Deutschland und Europa. Die Beantwortung der Fragen zu den Rauchgewohnheiten ist freiwillig und erfolgte 2021 durch 65 % der Befragten. Für Jahre ohne Erhebung wurden die Daten für die Darstellung der Zeitreihe interpoliert.
+In der Gruppe der Jugendlichen zwischen 12 und 17 Jahren stieg der Anteil der Raucherinnen und Raucher zunächst von 22,5 % (2003) auf 23,5 % (2004) an, ging seitdem aber kontinuierlich zurück und ist 2021 auf einem historischen Tiefstand von 6,1 % (6,8 % der weiblichen, 5,5 % der männlichen Jugendlichen). Der Zielwert für 2030 ist damit für die Gruppe der Jugendlichen bereits unterschritten.
+Insgesamt 18,9 % gaben in der Gruppe der Erwachsenen ab 15 Jahren an, im Jahr 2021 gelegentlich oder regelmäßig geraucht zu haben. Im Jahr 2003 rauchten hingegen noch 27,4 % der Erwachsenen. Damit war die Raucherquote in der Gruppe der Erwachsenen ebenfalls rückläufig und der Zielwert für 2030 wurde in 2021 erstmals erreicht.
+Zu den regelmäßigen Raucherinnen und Rauchern zählten sich 14,6 % aller Erwachsenen im Jahr 2021, 4,4 % rauchten gelegentlich. Anders als bei den Jugendlichen rauchten mit einem Anteil von 15,7 % Frauen deutlich weniger als Männer mit 22,3 %. Während der Anteil bei den Frauen seit 2003 um 6,4 Prozentpunkte gesunken ist, waren es bei den Männern sogar 10,9 Prozentpunkte.
+96,2 % der befragten Raucherinnen und Raucher bevorzugten im Jahr 2017 (aktuellere Daten lagen bei Redaktionsschluss noch nicht vor) Zigaretten. Das Risiko für die Gesundheit nimmt mit der Intensität des Tabakkonsums zu. 10,8 % der regelmäßigen Zigarettenraucherinnen und Zigarettenraucher (2003: 16,3 %) waren mit mehr als 20 Zigaretten am Tag den starken Raucherinnen und Rauchern zuzurechnen, 81,4 % rauchten 5 bis 20 Zigaretten am Tag. Dabei gab es geschlechtsspezifische Unterschiede. Fast jeder achte der regelmäßigen Zigarettenraucher rauchte stark, aber nur jede vierzehnte Zigarettenraucherin.
+Rauchen birgt ein hohes und gleichwohl vermeidbares Gesundheitsrisiko. 4,7 % aller Sterbefälle (Frauen: 3,5 %, Männer: 5,8 %) waren im Jahr 2020 auf eine für Raucherinnen und Raucher symptomatische Erkrankung (Lungen-, Bronchial-, Kehlkopf- und Luftröhrenkrebs) zurückzuführen. Im Jahr 2020 lag das durchschnittliche Alter der an Lungen-, Bronchial-, Kehlkopf- und Luftröhrenkrebs Gestorbenen bei 71,6 Jahren und damit sieben Jahre unter dem Durchschnittsalter der Gestorbenen insgesamt (78,8 Jahre). Eine verminderte Raucherquote kann daher zur Senkung der vorzeitigen Sterblichkeit beitragen.</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>The data for 12 to 17-year olds is collected in surveys on substance consumption among adolescents which are conducted by means of computer-assisted telephone interviews by the Federal Centre for Health Education. The surveys initially took place at intervals of three to four years, but since 2001 they have been conducted almost every year. In order to ensure that the data are comparable over time, they are weighted on the basis of gender, region and age. The data for years without surveys have been interpolated for inclusion in the time series. The random sample used in 2021 comprised 7,002 adolescents.
+The data for adults is collected every four years as part of the microcensus conducted by the Federal Statistical Office. The microcensus is a sample survey covering 1 % of the total population and it is the largest household survey in Germany and Europe. The responses to the questions regarding smoking habits are voluntary and were provided by 65 % of those surveyed in 2021. The interim years without a survey were interpolated for the presentation of the indicator time series.
+In the group of adolescents between 12 and 17 years of age, the proportion of smokers initially increased from 22.5 % (2003) to 23.5 % (2004), but then declined steadily to 6.1 % ((6.8 % for adolescent girls, 5.5 % of adolescent boys) by 2021. Therefore, the target value set for 2030 is already achieved.
+In 2021, a total of 18.9 % of the overall population above the age of 15 indicated that they smoked occasionally or regularly. This compares with a figure of 27.4 % in year 2003. This means that the rate of adult smokers had declined and the target value set for 2030 is achieved in 2021 for the first time.
+In 2021, 14.6 % of all adults aged 15 years or older considered themselves regular smokers, while 4.4 % smoked occasionally. In contrast to adolescents, the rate of smokers among women (15.7 %) was significantly lower than for men (22.3 %). While the proportion of women decreased by 6.4 percentage points since 2003, the proportion of male smokers decreased by 10.9 percentage points.
+In 2017, 96.2 % of the smokers surveyed preferred cigarettes. The level of tobacco consumption is important when considering the individual threat to health. 10.8 % of regular cigarette smokers were in the category of heavy smokers (2003: 16.3 %) with a consumption of more than 20 cigarettes a day, whereas 81.4 % smoked 5 to 20 cigarettes a day. In this case, there were differences between the genders. Almost one in eight of male regular cigarette smokers was a heavy smoker, but only one in fourteen of the female smokers.
+Smoking poses a high and at the same time avoidable risk to health. In 2020, 4.7 % of all deaths (3.5 % among women, 5.8 % among men) could be attributed to typical diseases of smokers (lung, bronchial, laryngeal and tracheal cancer). In 2020, the average age of those who died of lung, bronchial, and tracheal cancers was 71.6 years, that is, seven years below the average age of all deaths (78.8 years). A reduction in the number of smokers would therefore help reduce premature mortality.</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>3.a.1</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N7" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -501,6 +1143,77 @@
           <t>Z03_B01_P01_Ib03</t>
         </is>
       </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>03.1.e</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Adipositasquote von Kindern und Jugendlichen</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Obesity rate among children and adolescents</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der 3- bis 10-Jährigen sowie der 11- bis 17-Jährigen mit Adipositas an.</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the proportion of 3 to 10-year old children and 11 to 17-year-old adolescents suffering from obesity.</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>Adipositas bei Kindern und Jugendlichen gefährdet die altersübliche Entwicklung. Ausgrenzung und sozialer Rückzug sind die Folgen und führen zusätzlich sowohl zu gesundheitlichen als auch zu gesellschaftlichen Problemen. Ein Großteil der bereits adipösen Kinder und Jugendlichen leidet auch im Erwachsenenalter an Adipositas. Daher soll der Anteil von Kindern und Jugendlichen mit Adipositas in Deutschland nicht weiter ansteigen.</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>Obesity among adolescents poses a danger to normal development in that age group. Exclusion and withdrawal from society are the consequences and lead to additional health and social problems. A majority of adolescents already classified as obese will continue to suffer from obesity as adults. For this reason, the proportion of obese adolescents in Germany should not be allowed to increase any further.</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>Der Body Mass Index (BMI) ist ein Richtwert zur Erfassung von Übergewicht und insbesondere Adipositas und berechnet sich aus dem Verhältnis von Körpergewicht zum Quadrat der Körpergröße (in der Maßeinheit kg/m2). Bei dieser Berechnung bleiben alters- und geschlechtsspezifische Unterschiede sowie die individuelle Zusammensetzung der Körpermasse unberücksichtigt. Da sich jedoch im Kindes- und Jugendalter das Verhältnis von Größe zu Gewicht ständig verändert, gibt es keinen für alle Altersgruppen einheitlichen Grenzwert für die Klassifikation von Übergewicht und Adipositas. Bei Kindern und Jugendlichen werden zur Definition von Übergewicht und Adipositas daher das Alter und Geschlecht verwendet, um die BMI-Werte mit einer fest definierten Referenzpopulation zu vergleichen. Als Vergleichsmaßstab werden die Perzentil-Referenzwerte nach Kromeyer-Hauschild verwendet, die die Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter (AGA) empfiehlt. Man spricht demnach bei Kindern und Jugendlichen von Übergewicht, wenn der BMI-Wert oberhalb des 90. alters- und geschlechtsspezifischen Perzentils der Referenzpopulation liegt (&gt; P90), das heißt im Bereich derjenigen 10 % der Referenzgruppe mit den höchsten BMI-Werten. Liegt der BMI-Wert oberhalb des 97. Perzentils der Referenzpopulation (also so hoch wie bei den 3 % Kindern bzw. Jugendlichen mit den höchsten BMI-Werten), handelt es sich um Adipositas (&gt; P97). Beispielsweise gelten Mädchen und Jungen im Alter von 3 bis unter 4 Jahren mit einem BMI-Wert von 18,8 kg/m2 als adipös. Die Referenzwerte beruhen auf Angaben zu Körpergröße und Gewicht, die zwischen 1985 und 1998 in verschiedenen Regionen Deutschlands und mit unterschiedlichen Methoden erhoben wurden.
+Die Daten für den Indikator werden vom Robert Koch-Institut (RKI) erhoben. Hierzu lieferte die Studie zur Gesundheit von Kindern und Jugendlichen (KiGGS) für den Zeitraum 2003 bis 2006 die ersten bundesweit repräsentativen Ergebnisse. Vergleichbare Messdaten liegen für den Zeitraum 2014 bis 2017 aus der zweiten Folgeerhebung der KiGGS-Studie vor (KiGGS Welle 2). Um einen geeigneten Datenvergleich zu ermöglichen, wurden die Ergebnisse auf den Stichtag 31.12.2015 der Bevölkerungsfortschreibung standardisiert.
+Für den Zeitraum 2014 bis 2017 wurden 3,9 % der 3- bis 10-Jährigen und 8,0 % der 11- bis 17-Jährigen als adipös eingestuft. Während es bei den 3- bis 10-Jährigen keine Unterschiede zwischen den Geschlechtern gibt, betrug der Anteil bei den 11- bis 17-jährigen Mädchen 7,2 % und bei den Jungen gleichen Alters 8,7 %. Im Zeitraum 2003 bis 2006 lag der Anteil der 3- bis 10-Jährigen mit Adipositas bei 5,2 % und der der 11- bis 17-Jährigen bei 8,3 %. Auch hier waren 3- bis 10-jährige Mädchen und Jungen gleich stark betroffen. Bei den 11- bis 17-Jährigen entsprach dies 8,2 % der Mädchen und 8,4 % der Jungen. Die Adipositasquote bei 3- bis 10-Jährigen hat somit stärker abgenommen als die bei den 11- bis 17-Jährigen. Während die Adipositasquote bei den 11- bis 17-jährigen Mädchen um 1,0 Prozentpunkte sank, stieg sie bei den Jungen gleichen Alters um 0,3 Prozentpunkte leicht an.
+Der Anteil der 11- bis 17-Jährigen mit Übergewicht (&gt; P90) hat sich nicht wesentlich gegenüber 2003 bis 2006 verändert (Rückgang um 0,6 Prozentpunkte auf 12,3 % bei 3- bis 10-Jährigen, Anstieg um 0,6 Prozentpunkte auf 18,7 % bei 11- bis 17-Jährigen).
+Maßgebend bei der Entstehung von Übergewicht sind das Ernährungs- und Bewegungsverhalten, welche wiederum bei der Betrachtung der Ergebnisse in Bezug auf den sozioökonomischen Status (SES) deutliche Unterschiede aufweisen. Die Ergebnisse der KiGGS Welle 2 bestätigen, dass sich 3- bis 17-Jährige mit niedrigem sozioökonomischem Status häufiger als Gleichaltrige mit höherem sozioökonomischem Status ungesund ernähren und seltener Sport treiben. Das Risiko für Übergewicht und Adipositas ist bei 3- bis 17-Jährigen mit niedrigem SES rund 3- bis 4-mal so hoch wie bei der hohen Statusgruppe (jeweils rund 20 % der Studienpopula</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>The Body Mass Index (BMI) is a benchmark that is used to measure excess weight and especially obesity. It is calculated by dividing the body weight in kilograms by the square of an individual’s height in metres. This calculation does not take age-specific and gender-specific differences into account. Nor does it indicate the individual body mass composition. However, obesity and excess weight among children and adolescents are defined by taking account also of age and gender. In order to determine if people suffer from obesity or excess weight, the individual BMI value is compared with a defined comparison group (reference population). The percentile reference values according to Kromeyer-Hauschild as recommended by the “Arbeitsgemeinschaft Adipositas im Kinder- und Jugendalter” are used as a comparative benchmark. According to these values, children and adolescents are considered to be overweight if their BMI value is above the 90th age- and gender-specific percentile of the reference population (&gt; P90). This means that they fall within the range of those 10 % of the reference group with the highest BMI values. A BMI value above the 97th percentile of the reference population (that is, as high as the 3 % of adolescents with the highest BMI values) is classified as obesity (&gt; P97). For example, girls and boys aged three with a BMI of 18.8 kg/m² are considered to be obese. These reference values are based on details of body size and weight that were recorded between 1985 and 1998 in various regions of Germany, using different methods.
+The data for the indicator is gathered by the Robert Koch Institute. The German Health Interview and Examination Survey for Children and Adolescents (KiGGS – referred to as the KiGGS baseline study) for the period 2003 to 2006 delivered the first nationwide representative results. New measurement data is available for the period 2014 to 2017 from the second follow-up survey of the KiGGS study (KiGGS Wave 2). In order to allow the data to be compared in a suitable way, the results were age standardised to the reference date 31 December 2015 of the intercensal population update.
+For the time period 2014 to 2017, 3.9 % of the 3 to 10-year-olds and 8.0 % of the 11 to 17-year-olds were classified as obese. While there were no differences between the sexes in the 3 to 10 years age group, the rates for the 11 to 17-year-olds were 7.2 % for girls and 8.7 % for boys. In the period from 2003 to 2006, the proportion of 3 to 10-year-olds with obesity was about 5.2 %; among the 11 to 17-year olds, it was about 8.3 %. Again, girls and boys in the age from 3 to 10 years were equally affected. The figure for the 11 to 17-year-olds broke down into 8.2 % of the girls and 8.4 % of the boys. The obesity rate has therefore fallen more sharply among 3 to 10-year-olds than in the 11 to 17 age group. While it fell by 1.0 percentage points among girls aged 11 to 17, it showed a slight increase of 0.3 percentage points among boys in that age group.
+The proportion of adolescents suffering from excess weight including obesity (&gt; P90) did not change much compared with the period 2003 – 2006 (decrease by 0.6 percentage points to 12.3 % for 3 to 10-year olds, increase by 0.6 percentage points to 18.7 % for 11 to 17-year-olds).
+Important factors in the development of overweight are dietary and exercise behaviour, which differ – when looking at the results – in terms of socioeconomic status (SES). The results from KiGGS Wave 2 confirm that 3 to 17-year-old children and adolescents with a low socioeconomic status eat unhealthy more often than their peers from socially better-off families and exercise less frequently. The risk of overweight and obesity is about 3 to 4 times higher for children and adolescents with low SES than in the upper status group (about 20 % of the study population).</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>2.2.2</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N8" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -508,6 +1221,79 @@
           <t>Z03_B01_P01_Ib04</t>
         </is>
       </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B01_P01</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>03.1.f</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Adipositasquote von Erwachsenen</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Obesity rate among adults</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der Erwachsenen (ab 18 Jahren) mit Adipositas an der erwachsenen Gesamtbevölkerung an.</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the proportion of adults (aged 18 years and older) suffering from obesity in the total adult population.</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>Adipositas ist maßgeblich beteiligt an der Entstehung von Zivilisationskrankheiten wie Herz-Kreislauf-Erkrankungen, Diabetes oder Gelenkschäden. Neben den gesundheitlichen Folgen wirkt sich Adipositas auch in volkswirtschaftlicher und sozialer Hinsicht belastend aus. Folglich soll der Anteil der Bevölkerung mit Adipositas in Deutschland nicht weiter ansteigen.</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>Excess weight plays a crucial role in the emergence of diseases of civilisation, such as cardiovascular diseases, diabetes and joint injuries. Besides its consequences to health, excess weight is a burden on the national economy and has a negative impact on social life. Consequently, the proportion of the population with obesity in Germany should not increase any further.</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>Ein Richtwert zur Erfassung von Übergewicht und insbesondere Adipositas ist der Body-Mass-Index (BMI), der sich aus dem Verhältnis von Körpergewicht zum Quadrat der Körpergröße (in der Maßeinheit kg/m2) berechnet. Bei dieser Berechnung bleiben Körperbau, alters- und geschlechtsspezifische Unterschiede sowie die individuelle Zusammensetzung der Körpermasse unberücksichtigt. Nach der Klassifikation der Weltgesundheitsorganisation (WHO) gelten Menschen mit einem BMI ab 25 als übergewichtig und ab einem BMI von 30 als adipös.
+Die Daten werden vierjährlich im Rahmen des Mikrozensus des Statistischen Bundesamtes erfragt. Der Mikrozensus als Stichprobenerhebung umfasst 1 % der Gesamtbevölkerung und ist die größte Haushaltsbefragung in Deutschland und Europa. Die Beantwortung der Fragen zur Gesundheit ist freiwillig. Somit basiert der Indikator auf dem Anteil der Bevölkerung, der im Mikrozensus die Fragen zu Körpergewicht und -größe beantwortet hat und einen BMI von 30 und mehr aufweist. Bei Selbstauskunft, wie im Fall des Mikrozensus, wird das Körpergewicht im Vergleich zu gemessenen Werten häufig unterschätzt, die Körpergröße dagegen eher überschätzt. Der berechnete BMI aus Selbstauskunft liegt somit niedriger als aus Messwerten.
+Um Daten für unterschiedliche Jahre und Regionen miteinander vergleichen zu können, ohne dass es zu Verzerrungen aufgrund unterschiedlicher Altersstrukturen kommt, wurden die entsprechenden Daten auf die europäische Bevölkerung von 1990 altersstandardisiert. Da die Fragen zur Gesundheit im Mikrozensus nicht jährlich erhoben werden, wurden die Daten für Jahre ohne Erhebung für die Darstellung der Zeitreihe interpoliert.
+15,4 % der Bevölkerung ab 18 Jahren waren im Jahr 2021 (vorläufige Daten) adipös. Dabei war der Anteil der Männer mit Adipositas (17,3 %) höher als der Anteil der adipösen Frauen (13,4 %). Wohingegen der Anteil im Jahr 1999 noch bei 10,7 % der Bevölkerung lag. Auch damals waren Frauen (10,2 %) etwas weniger von Adipositas betroffen als Männer (11,1 %). Die Adipositasquote bei Erwachsenen ist folglich gestiegen und entwickelt sich damit konträr zum Ziel der Deutschen Nachhaltigkeitsstrategie.
+Weitere 33,7 % der Bevölkerung ab 18 Jahren wiesen im Jahr 2021 einen BMI von 25 bis unter 30 auf. Insgesamt galten damit 49,1 % als übergewichtig (BMI ab 25). Dabei war der Anteil bei den Frauen mit 38,8 % deutlich kleiner als bei den Männern mit 58,7 %.
+Der Anteil der Menschen mit Adipositas steigt mit zunehmendem Lebensalter und geht erst im höheren Alter zurück. Im Jahr 2021 hatten 5,3 % der 20- bis unter 25-jährigen Frauen Adipositas. Bei den 30- bis unter 35-Jährigen waren es bereits 12,5 %. Den höchsten Anteil bei den Frauen erreichte die Altersgruppe der 70- bis unter 75-Jährigen mit 19,9 %. Die Adipositasquote der Männer lag bei den unter 75-Jährigen jeweils höher als bei den gleichaltrigen Frauen und erreichte in den Altersgruppen der 60- bis unter 65-Jährigen mit 23,6 % und der 45- bis unter 50-Jährigen mit 23,5 % die höchsten Anteile. Bei den über 75-Jährigen waren Frauen und Männer mit 16,2 % zu gleichen Teilen adipös.</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Obesity is determined with the help of the Body Mass Index (BMI), which is calculated by dividing the body weight in kilograms by the square of an individual’s height in metres. The BMI is a benchmark that does not take account of the physique, age- and gender-specific differences as well as the individual body mass composition. People with a BMI of 25 and above are classified as “overweight” according to the WHO and those with a BMI of 30 as “obese”.
+The data used for the indicator are based on the microcensus of the Federal Statistical Office. The sample survey is conducted among 1 % of the total population and is the largest household survey in Germany and Europe. The responses to the health questions, which are generally asked every four years, are voluntary. Consequently, the indicator is based on the proportion of the population with a BMI of 30 and higher that also answered the microcensus questions concerning body weight and body size. In the microcensus, self-assessment questions are prone to underestimation of own body weight and overestimation of own body height. Hence, the calculated BMI based on self-assessment is below the BMI based on measurements.
+The corresponding data were standardised relative to the European population of 1990 to allow data from different years and regions to be compared without distortions due to different age structures. Since the questions on health in the microcensus are not asked annually, the interim years in the chart were interpolated.
+In 2021, 15.4 % of the population in Germany over the age of 18 were obese. Here, the share of obese men (17.3 %) was higher than the share of obese women (13.4 %). Before, in 1999, the share of obese persons was only 10.7 % of the population. At that time, the proportion of women (10.2 %) affected by obesity was also slightly lower than that of men (11.1 %). Thus, the obesity rate among adults has increased and is developing contrary to the goal envisioned by the German strategy for sustainable development.
+Another 33.7 % of the population aged 18 and over had a BMI of 25 to under 30 in 2021. In total, 49.1 % were considered to be overweight (BMI 25 and over). The proportion of women (38.8 %) was significantly smaller than that of men (58.7 %).
+The proportion of adults suffering from obesity increases with age, and the trend reverses only among people at a very advanced age. In 2021, 5.3 % of 20 to under 25-year-old women were obese. At the age of 30 to under 35, 12.5 % of the women were obese. The highest proportion of obese women (19.9 %) was found in the age group between 70 and under 75 years of age. The rate of obesity among men was higher among those under 75 than among women of the same age and reached the highest proportions in the age groups 60 to under 65 (23.6 %) and 45 to under 50 (23.5 %). Above 75 years of age, the proportion of obese women is equal to the proportion of obese man (16.2 %).</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N9" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -515,6 +1301,83 @@
           <t>Z03_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>03.2.a</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Emissionen von Luftschadstoffen</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Emissions of air pollutants</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt den Mittelwert der Indizes der nationalen Emissionen der fünf Luftschadstoffe Schwefeldioxid (SO2), Stickstoffoxid (NOx), Ammoniak (NH3), flüchtige organische Verbindungen (NMVOC) und Feinstaub (PM2.5) dar.</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>The indicator presents the mean value of the indices of national emissions for the five air pollutants sulphur dioxide (SO2), nitrogen oxides (NOx), ammonia (NH3), volatile organic compounds (NMVOC) and particulate matter (PM2,5).</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>Luftverunreinigungen beeinträchtigen nicht nur die Gesundheit der Menschen, sondern auch Ökosysteme und Artenvielfalt. Das ungewichtete Mittel der Emissionen bestimmter Luftschadstoffe soll daher bis zum Jahr 2030 um 45 % gegenüber dem Jahr 2005 sinken. Dieses Ziel basiert auf der Verpflichtung Deutschlands gegenüber der Europäischen Union (EU), den Ausstoß der einzelnen Luftschadstoffe bis 2030 wie folgt zu reduzieren: Schwefeldioxid (SO2) um 58 %, Stickstoffoxid (NOx) um 65 %, Ammoniak (NH3) um 29 %, flüchtige organische Verbindungen (NMVOC) um 28 % und Feinstaub (PM2.5) um 43 %.</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>Air pollutants do not only impair human health, but also ecosystems and biodiversity. Therefore, the unweighted mean of emissions of air pollutants should be reduced by 45 % by 2030 compared to 2005. This target is based on the commitment of Germany towards the European Union (EU) to reduce emissions of individual air pollutants by 2030 as follows: SO2 by 58 %, NOx by 65 %, NH3 by 29 %, NMVOC by 28 % and PM2,5 by 43 %.</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>Dieser Indikator fasst als ungewichtetes, arithmetisches Mittel die prozentuale Entwicklung der in Deutschland freigesetzten Emissionen von Schwefeldioxid (SO2), Stickstoffoxid (NOx), Ammoniak (NH3), flüchtigen organischen Verbindungen (NMVOC) und Feinstaub (PM2.5) zusammen. Somit werden Veränderungsraten der einzelnen Luftschadstoffe gleichwertig miteinander verrechnet, auch wenn diese andere Ursachen und andere Wirkungen haben. Damit ist dieser Indikator nur indirekt von der Erfüllung der gegenüber der Europäischen Union (EU) verpflichtenden Emissionsminderungsziele abhängig. Es ist also möglich, dass die Reduktionsziele für den Gesamtindikator erreicht, während die Emissionsminderungsziele für einzelne Schadstoffe verfehlt werden.
+Die Ausgangsdaten, die als Basis für die Berichtspflicht nach der Genfer Luftreinhaltekonvention (CLRTAP) und der National-Emission-Ceilings-(NEC-)Richtlinie dienen, werden jährlich vom Umweltbundesamt berechnet. Von den Umweltökonomischen Gesamtrechnungen (UGR) des Statistischen Bundesamtes werden sie weiter aufbereitet und die einzelnen Emissionen unter anderem nach verschiedenen Produktionsbereichen und privaten Haushalten ausgewiesen.
+Die Emissionen von Luftschadstoffen insgesamt gingen bis zum Jahr 2020 um 34,8 % im Vergleich zu 2005 zurück. Damit bewegte sich der Indikator in die angestrebte Richtung und würde bei gleichbleibender Entwicklung das Ziel für 2030 erreichen. Der Ausstoß der einzelnen Schadstoffe veränderte sich im Zeitraum 2005 bis 2020 dabei unterschiedlich stark. Basierend auf der Entwicklung der letzten Jahre können die Reduktionsziele bis 2030, für die sich Deutschland gegenüber der EU verpflichtet hat, jedoch für alle einzelnen Luftschadstoffe erreicht werden.
+Die Emissionen von flüchtigen organischen Verbindungen (NMVOC), welche vornehmlich beim industriellen Gebrauch von Lösungsmitteln entstehen, konnten im angegebenen Zeitraum mit 30,4 % deutlich reduziert werden.
+Im angegebenen Zeitraum verringerten sich die Emissionen von Feinstaub (PM2.5) um 39,8 %. Der größte Teil der Feinstaub-Emissionen entfiel 2020 auf die Haushalte und Kleinverbraucher mit 26,9 %. 25,9 % stammten von der Industrie. Auf den Verkehr entfielen 26,5 % der Feinstaub-Emissionen und damit 9,3 Prozentpunkte weniger als 2005.
+Die Emissionen von Stickstoffoxiden (NOx) verringerten sich bis 2020, verglichen mit 2005, um 40,1 % und damit in die angestrebte Richtung. Der Hauptanteil an Stickstoffoxiden wurde 2020 vor allem im Verkehr und in der Energiewirtschaft emittiert.
+Die Emissionen von Schwefeldioxid (SO2), welche hauptsächlich in der Energiewirtschaft entstehen, sind im betrachteten Zeitraum um 50,8 % gesunken.
+Die Emissionen von Ammoniak (NH) sind in den Jahren 2019 und 2020 erstmals deutlich unter das Niveau von 2005 gesunken. Im gesamten Betrachtungszeitraum 2005 bis 2020 beläuft sich der Rückgang auf 10,9 %. Von 2005 bis 2018 sind die Ammoniak-Emissionen jedoch zeitweise angestiegen, sodass für den gesamten Zeitraum nur ein leichter Rückgang zu verzeichnen ist. Der kurzzeitige Anstieg zwischen 2005 und 2018 ist hauptsächlich auf die landwirtschaftliche Bodennutzung, unter anderem die Ausbringung von Gärresten aus der Vergärung von Energiepflanzen, zurückzuführen. Landwirtschaftliche Bodennutzung ist für etwa die Hälfte der Ammoniak-Emissionen verantwortlich. Die Emissionen aus dieser Quellgruppe stiegen im Zeitraum 2005 bis 2018 an. Sie sind seit 2016 rückläufig und liegen seit 2019 erstmals unter dem Niveau von 2005.</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>This indicator is an unweighted arithmetic mean and summarizes the percentage development of released emissions in Germany, these are sulphur dioxide (SO2), nitrogen oxides (NOx), ammonia (NH3), volatile organic compounds (NMVOC) and particulate matter (PM2,5). The individual rates of change of the single air pollutants are offset equally against one another, even if the causes and the consequences differ. Thus, this indicator is mere indirectly dependent on the fulfilment of emission reduction targets set by the European Union. Hence, the reduction targets for the indicator might be met, while emission reduction targets for individual air pollutants are missed.
+The data is computed annually by the German Environment Agency using various sources. They serve as a basis for the reporting obligation pursuant to the Geneva Convention and the National Emission Ceilings Directive. The data is further processed within the context of the Federal Statistical Office’s Environmental-Economic Accounts. As a result, emissions are published according to various production sectors and households along with other emitters.
+Emissions of air pollutants overall fell by 34.8 % until 2020 from 2005. The indicator thus moved in the intended direction and will reach the target for 2030 if the development remains the same. Emissions of individual pollutants changed to varying degrees in the period from 2005 to 2020. Based on the development of the preceding years, compliance with the emission reduction targets by 2030 is feasible, to which Germany is committed towards the EU. In fact, Germany might reach the target for every single air pollutant.
+Emissions of volatile organic compounds (NMVOC), which are primarily due to the industrial use of solvents, were significantly reduced by 30.4 % during the specified period.
+In the specified period emissions of particulate matter (PM2,5) have been reduced by 39.8 %. At 26.9 %, the largest proportion of PM2,5 emissions originated from households and small consumers in 2020. The industry sector produced 25.9 % emissions. The transport sector accounted for 26.5 % of PM2,5 emissions in the same year and, thus, decreased by 9.3 percentage points compared to 2005.
+Emissions of nitrogen oxides (NOx) were reduced by 40.1 % until 2020 in comparison to 2005, hence going in the intended direction. In 2020 the main share of nitrogen oxides was emitted mainly by transport and the energy sector.
+Emissions of sulphur dioxide (SO2), which are mainly generated in the energy sector, decreased by 50.8 % in the specified period.
+In 2019 and 2020, the emissions of ammonia (NH) decreased for the first time significantly below 2005 level. During the period under consideration from 2005 to 2020, the decline adds up to 10.9 %. However, ammonia emissions increased temporarily between 2005 and 2018, such that the overall reductions are rather small. Agricultural land use, among others the output of fermentation residues after the fermentation of energy crops, mainly caused the temporary growth of emissions between 2005 and 2018. Agricultural land use is responsible for about half of the ammonia emissions. Emissions from this source increased during the period from 2005 to 2018 and are decreasing since 2016. Since 2019, they are below the value from 2005 for the first time.</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N10" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -522,6 +1385,78 @@
           <t>Z03_B02_P01_Ib02</t>
         </is>
       </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B02_P01</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>03.2.b</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Bevölkerung mit erhöhter PM2,5-Feinstaubexposition</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Share of the population with excessive exposure to PM10</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl an Personen, die an ihrem Wohnort im Jahresmittel einer Exposition von mehr als 20 Mikrogramm (µg) Feinstaub PM10 (Staubteilchen mit einem Durchmesser kleiner 10 Mikrometer) pro Kubikmeter (m³) Luft ausgesetzt waren (nur Hintergrundbelastungen, ohne lokale Quellen).</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of persons who are exposed at their place of residence to an annual average of more than 20 micrograms (µg) of PM10 particulate matter (dust particles with a diameter less than 10 µm) per cubic metre (m³) of air (only background pollution, without local sources).</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>Insbesondere die langfristige Belastung der Menschen mit Feinstaub kann unter anderem zu Erkrankungen der Atemwege und des Herz-Kreislauf-Systems als auch zu einem erhöhten Risiko für Diabetes Mellitus Typ 2 und neurodegenerative Erkrankungen führen. Zum besseren Schutz der Gesundheit soll daher bis zum Jahr 2030 erreicht werden, dass kein Mensch in Deutschland an seinem Wohnort einer Feinstaubkonzentration (PM10) von mehr als 20 Mikrogramm (µg) pro Kubikmeter (m³) Luft im Jahresmittel ausgesetzt ist. Der Richtwert von 20 µg/m³ entspricht den Empfehlungen der Weltgesundheitsorganisation (WHO) und ist deutlich strenger als der in der Europäischen Union (EU) geltende Grenzwert von 40 µg/m³ im Jahresmittel.
+Die EU-Kommission hat am 26. Oktober 2022 einen Vorschlag zur Änderung der Luftqualitäts-Richtlinie (LQ-RL) vorgestellt. Die Grenzwerte der LQ-RL sollen sich dabei künftig stärker an den aktualisierten Leitlinien der WHO orientieren, die im September 2021 veröffentlicht wurden. Derzeit wird der Vorschlag der Kommission auf europäischer Ebene verhandelt. Es ist geplant, den Indikator und seine Ziele für den Bericht 2024 entsprechend anzupassen.</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>Long-term exposure of humans to particulate matter is especially liable to lead to health problems such as respiratory and cardiovascular disorders as well as increasing the risk of type-2 diabetes and neurodegenerative diseases. To better protect their health, by the year 2030 it should consequently be achieved that nobody will be exposed to an annual mean of more than 20 micrograms (µg) of particulate matter PM10 per cubic metre (m3) of air at their place of residence. The guideline value of 20 µg/m³ corresponds to the level recommended by the World Health Organization and is far more stringent than the 40 µg annual mean ceiling that applies in the EU. On 26 October 2022, the European commission proposed amendments to the air quality directive (LQ-RL), such that in the future, boundary values should adjust to the updated guidelines by the World Health Organization published in September 2021. The proposal from the commission is currently debated on European level. The indicator and the targets will be updated accordingly for the 2024 report.</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>Als direkte Quellen von Feinstaub gelten die industrielle Erzeugung von Energie und Wärme, die Landwirtschaft, der Straßenverkehr und das Heizen, insbesondere mit festen Brennstoffen wie zum Beispiel Holz in privaten Kaminen oder Kaminöfen. Feinstaub kann jedoch auch durch sekundäre Partikelbildung infolge chemischer Reaktionen von Vorläufersubstanzen wie zum Beispiel Schwefel- und Stickstoffoxiden, Ammoniak oder Kohlenwasserstoffen entstehen.
+Der in der Luft enthaltene Feinstaub (PM10) wird an insgesamt mehr als 370 Luftmessstationen sowohl in Ballungsgebieten als auch in ländlichen Regionen in Deutschland erfasst. Für den Indikator werden aus methodischen Gründen nur diejenigen Messstationen berücksichtigt, die keinem direkten Feinstaubausstoß aus dem Verkehr oder anderen bedeutsamen lokalen Quellen ausgesetzt sind, da diese nur die punktuell erhöhte („Hot Spots“) und nicht die großflächige Belastung der Luft mit Feinstaub abbilden. Aus einer Kombination von Modellergebnissen mit den erhobenen Messdaten zur sogenannten Hintergrundbelastung wird die Feinstaubkonzentration für die gesamte Fläche Deutschlands ermittelt. In Kombination mit räumlichen Informationen zur Bevölkerungsverteilung lässt sich so die Anzahl der Personen bestimmen, an deren Wohnort im Jahresmittel die Feinstaubbelastung nicht mehr als 20 Mikrogramm pro Kubikmeter Luft beträgt. Somit bildet der Indikator keine flächendeckende Einhaltung des Richtwerts ab, sondern eine auf die Wohnorte der Bevölkerung abseits starker Emissionsquellen für Feinstaub bezogene Einhaltung. Er gibt weder einen Hinweis auf die Höhe der Exposition der Bevölkerung insgesamt noch auf deren Variation im Jahresverlauf. Da bei der Modellrechnung die direkte Belastung aus lokalen Quellen unberücksichtigt bleibt, ist davon auszugehen, dass die tatsächliche Anzahl an Personen mit einer Feinstaubexposition an ihrem Wohnort oberhalb des WHO-Richtwerts höher ist, als dieser Indikator anzeigt. Nicht gesondert betrachtet werden durch diesen Indikator zudem die Belastungen durch kleinere Feinstaubpartikel (PM2.5 und PM0.1).
+Die Feinstaubexposition mit PM10 ist im Zeitraum von 2007 bis 2020 deutlich gesunken. Während im Jahr 2007 die durchschnittliche bevölkerungsgewichtete Feinstaubbelastung noch bei 18,9 µg/m³ Luft lag, betrug sie im Jahr 2020 nur noch etwa 12,3 µg/m³. Im gleichen Zeitraum ist auch die Anzahl der Personen deutlich zurückgegangen, die im Jahresmittel an ihrem Wohnort einer Feinstaubbelastung von mehr als 20 µg PM10/m³ Luft ausgesetzt waren: Im Jahr 2007 waren es 29,7 Millionen Personen, im Jahr 2020 noch rund 400 000 Personen.
+Dabei hat auch das Wetter einen Einfluss auf die gemessene Feinstaubbelastung. Ein Teil des starken Rückgangs ab 2011 beruht vermutlich darauf, dass in den letzten Jahren vergleichsweise wenig austauscharme Wetterlagen in den Wintermonaten auftraten, wobei dieser Effekt seit dem Jahr 2015 stagniert. Je nach Windstärke, -richtung und Lufttemperatur kann Feinstaub einerseits über die Luftströmungen in andere Regionen und Länder transportiert werden oder sich andererseits, bei austauscharmen Wetterlagen, am Ort seiner Entstehung anreichern.
+Wenn sich die durchschnittliche Entwicklung der letzten Jahre weiter fortsetzt, kann das Ziel, die Bevölkerung flächendeckend einer Feinstaubexposition von unter 20 µg PM10/m³ Luft im Jahresmittel auszusetzen, voraussichtlich erreicht werden.</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>Direct sources of particulate matter are the industrial generation of energy and heat, agriculture, road traffic and heating, particularly with solid fuels and more especially with wood in household fireplaces or stoves. Particulate matter, however, can also occur through the formation of secondary particles as a result of chemical reactions with precursors such as sulphur oxide, nitrogen oxides, ammonia and organic carbon.
+The particulate matter (PM10) contained in the air is measured at a total of more than 370 air monitoring sites in both metropolitan and rural areas of Germany. For methodological reasons, the indicator is based only on the readings from the monitoring sites that are not exposed to direct particulate emissions from traffic or to any other significant local sources, because these measure only high localised concentrations (hot spots) and not area-wide particulate air pollution. From a combination of model results with the measured monitoring data on background concentrations, the particulate concentrations for the whole area of Germany are obtained. These concentrations are combined with information on population distribution to determine the number of persons who are exposed to annual mean particulate pollution of more than 20 micrograms per cubic metre of air at their place of residence. Rather than indicating nationwide compliance with the guideline value, the indicator merely shows that the value is not exceeded at the population’s places of residence. Neither does it give any indication of the exposure level of the population in total nor its variation in the course of the year. Since the modelled calculation is based only on measuring stations that are not exposed to direct particular matter emissions from local sources, it may well be assumed that the indicator underestimates the level of pollution. In addition, this indicator makes no provision for the separate analysis of pollution caused by finer particulate matter particles (PM2,5 and PM0,1).
+The last few years from 2007 to 2020 have seen a significant reduction in particulate matter pollution caused by PM10. While in 2007 the average pollution exposure of the population was still 18.9 µg per m³ of air, in 2020 it was just 12.3 µg per m³. During the same period, the number of people exposed to an annual average of more than 20 µg PM10 per m³ of air at their place of residence has also fallen considerably – from around 29.7 million people in 2007 to only around 400,000 people in 2020.
+Weather also influences the measurements of airborne particulate matter. Part of the reason for the sharp drop in 2011 and subsequent years is presumably that there were relatively few instances of temperature inversion in the winter months, although that curve has flattened out since 2015. Depending on wind speed, direction and air temperature, particulate matter may be transported into other regions and countries or else, during inversions, may become more concentrated at its place of origin.
+If the average development of the past few years continues, it is likely that the achieved target of exposing the population nationwide to a background particulate matter pollution of less than 20 micrograms per cubic meter of air on an annual average can be sustained.</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>11.6.2</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N11" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -529,6 +1464,79 @@
           <t>Z03_B03_P01_Ib01</t>
         </is>
       </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>03.3.a</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Beitrag Deutschlands zur globalen Pandemieprävention und -reaktion</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Germany’s contribution to global pandemic prevention and response</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator umfasst Ausgaben bzw. Zusagen Deutschlands für Programme zur globalen Pandemieprävention und -reaktion. Ausgenommen sind hierbei Programme zur Eindämmung der COVID-19-Pandemie. Um die Aussagekraft des Indikators zu verbessern, wird er bis zur nächsten Neuauflage der DNS im Hinblick auf seine Wirkung evaluiert, mit dem Ziel, ihn zu einem Output-Indikator fortzuentwickeln.</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>The indicator covers expenditure and pledges made by Germany for global pandemic prevention and response programmes. It excludes programmes designed to contain the COVID-19 pandemic. To make the indicator more informative, its impact will be assessed by the time of the next edition of the German National Sustainability Strategy with a view to developing it into an output indicator.</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>Die COVID-19-Pandemie hat gezeigt, welche weitreichenden Auswirkungen grenzüberschreitende Gesundheitsgefahren für Menschen und Wirtschaft weltweit haben. Dementsprechend stellt die Unterstützung von Programmen zur Pandemieprävention und -reaktion einen wichtigen Beitrag zur globalen Gesundheit – insbesondere in Ländern des Globalen Südens dar. Ziel ist es daher, Deutschlands Beitrag für die globale Pandemieprävention und -reaktion bis 2030 substanziell gegenüber dem Jahr 2019 zu steigern.</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>The COVID-19 pandemic has shown what far-reaching effects cross-border health hazards have on people and economies throughout the world. Accordingly, supporting pandemic prevention and response programmes is a major contribution to global health, particularly in countries of the Global South. The aim is therefore to increase Germany’s contribution to global pandemic prevention and response substantially from its 2019 level in the period up to 2030.</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten des Indikators stammen aus Sonderauswertungen der entsprechenden Haushaltstitel bzw. den Verpflichtungsermächtigungen des Auswärtigen Amtes (AA), des Bundesministeriums für Bildung und Forschung (BMBF), des Bundesministeriums für Gesundheit (BMG) und des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ). In den Auswertungen wurden Programme berücksichtigt, welche in der Zielsetzung direkt dem Bereich Pandemieprävention und -reaktion zuzurechnen sind oder primär auf die Verbesserung relevanter Kapazitäten in der Gesundheitsversorgung abzielen. Die Programme umfassen u. a. die Bereiche Pandemieprävention und -reaktion der Weltgesundheitsorganisation (WHO), Sanitärwesen, One Health (das heißt in interdisziplinärer Zusammenarbeit von Human- und Tiermedizin mit dem Umweltbereich), Impfinfrastruktur sowie Forschung und Entwicklung im In- und Ausland, sofern die Ergebnisse auch Ländern des Globalen Südens zu Gute kommen.
+Zusätzlich wurden Programme betrachtet, die als Reaktion auf die COVID-19-Pandemie gestartet wurden, wie u. a. Programme und Aktivitäten der WHO, humanitäre Hilfe, Impfstoffentwicklung, Krisenreaktion sowie Soforthilfen und -kredite für die Reaktion des Gesundheitssektors in Ländern des Globalen Südens.
+Bei den Zahlen ist zu beachten, dass eine genaue inhaltliche Abgrenzung von Programmen nicht vollständig möglich ist, da das Themenfeld umfassende Querverbindungen zu einer Vielzahl von weiteren Gesundheitsbereichen besitzt. Somit wird eine Bandbreite an Programmen berücksichtigt, wie z. B. der Beitrag Deutschlands an die WHO für dessen Notfallprogramm bzw. zur flexiblen Anschubfinanzierung von Krisenreaktionen in akuten Gesundheitsnotlagen (Contingency Fund for Emergencies), eine Impfprogrammförderung zur Reduktion von Kindersterblichkeit in der ostafrikanischen Gemeinschaft, die Verbesserung der Trinkwasser- und Sanitärversorgung in Burkina Faso sowie eine Sicherheitskooperation für biologische Bedrohungen. Neben der inhaltlichen Schwerpunktsetzung ist zu beachten, dass ein Teil der Programme allgemein auf die Stärkung globaler Koordinierungs- und Organisationskapazitäten abzielt und damit nicht ausschließlich Ländern des Globalen Südens zukommt.
+Des Weiteren können präventive und reaktive Maßnahmen nicht genau abgegrenzt werden. So können einerseits präventive Kapazitätsstärkung die Reaktion auf eine pandemische Lage unterstützen und andererseits reaktive Maßnahmen einen Beitrag zur langfristigen Kapazitätsstärkung leisten. Um einen Ausreißer in den Zahlen zu vermeiden, der sich aus der Reaktion auf die COVID-19-Pandemie ergibt, sind diese Ausgaben bzw. Zusagen nicht Teil des Indikators, sondern getrennt als Information in der Grafik ausgewiesen.
+Die dargestellten Ausgaben bzw. Zusagen sagen zudem nichts über den Erfolg der Programme aus. Der Indikator stellt einen monetären Beitrag Deutschlands zur Pandemieprävention und -reaktion dar. Zur Wirkung der Beiträge wäre eine weitergehende Evaluierung notwendig. Unter Berücksichtigung der oben genannten Einschränkungen bilden die ermittelten Zahlen daher keinesfalls die deutschen Ausgaben bzw. Zusagen vollständig ab, welche einen gegebenenfalls mittelbaren Einfluss auf das Themenfeld haben.
+Zwischen 2015 bis 2021 stiegen die Ausgaben bzw. Zusagen zur Pandemieprävention und -reaktion von 147,9 Millionen Euro auf 396,7 Millionen Euro (vorläufige Daten) an. Sie lagen damit – entsprechend dem Ziel der Bundesregierung – deutlich über dem Wert von 2019. Die gesondert ausgewiesenen Ausgaben zur Eindämmung der COVID-19-Pandemie lagen in 2021 bei 842,7 Millionen Euro und damit höher als im ersten Jahr der Pandemie (743,7 Millionen Euro).</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>The data for the indicator come from special analyses of the relevant budget headings and commitment appropriations from the Federal Foreign Office (AA), the Federal Ministry of Education and Research (BMBF), the Federal Ministry of Health (BMG) and the Federal Ministry for Economic Cooperation and Development (BMZ). Programmes are taken into account in the analyses whose objectives fall directly under the heading of pandemic prevention and response or who are primarily intended to enhance relevant capabilities in the field of health care. The programmes cover matters such as the pandemic prevention and response functions of the World Health Organization (WHO), sanitation, One Health (that is, in interdisciplinary cooperation between human and veterinary medicine and the environmental sector), vaccination infrastructure and research and development, both at home and abroad, in so far as the R&amp;D findings and innovations also benefit the countries of the Global South. 
+Additionally, programmes launched in response to the COVID-19 pandemic have also been taken into account. The latter include among others WHO programmes and activities, humanitarian aid, vaccine development, crisis response and emergency assistance and loans to help health services in countries of the Global South to respond to the crisis. 
+As regards the figures, it should be noted that it is not possible to draw hard and fast lines between the content of programmes, since the indicator field is closely interlinked with numerous other areas of the health system. The indicator therefore takes account of a range of programmes, such as Germany’s contribution to the WHO to support its emergency programme and to provide flexible initial funding for crisis response measures through the Contingency Fund for Emergencies, support for a vaccination programme for the reduction of child mortality in the East African Community, improvement of drinking water supply and sanitation in Burkina Faso and a biosecurity cooperation programme. Besides the thematic prioritisation, it should also be noted that some of the programmes are focused on general reinforcement of global coordination and organisational capacity and therefore do not exclusively benefit countries of the Global South.
+Nor can a precise line be drawn between preventive and reactive measures. Developing preventive capacity may, for example, enhance responsiveness to a pandemic situation, while reactive measures may contribute to capacity-building in the long term. To avoid a statistical outlier resulting from the response to the COVID-19 pandemic, these expenditure items and pledges are not part of the indicators but are shown separately in the chart.
+The amounts of expenditure and pledges that are displayed, moreover, say nothing about the success of the programmes. The indicator represents Germany’s monetary contribution to pandemic prevention and response. A more extensive assessment would be needed to gauge the impact of that contribution. In view of the foregoing provisos, therefore, the recorded figures are not by any means a full reflection of the German expenditure and pledges that directly or indirectly influence the pandemic prevention and response effort.
+Between 2015 and 2021, expenditure and pledges for pandemic prevention and response rose from EUR 147.9 million to EUR 369.7 million (provisional figure) and were thus - in line with the Federal Government's target - significantly above the 2019 figure. The separately reported expenditures on COVID-19 pandemic containment were 842.7 million euros in 2021, higher than in the first year of the pandemic (743.7 million euros).</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N12" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -536,6 +1544,69 @@
           <t>Z03_B03_P01_Ib02</t>
         </is>
       </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B03_P01</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>03.3.b</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der Länder, die Deutschland bei der Pandemieprävention, -vorsorge und -reaktion (PPR) unterstützt und die im Global Health Security Index (GHSI) Fortschritte gemacht haben, an der Anzahl der Länder, die Deutschland im Bereich PPR unterstützt</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N13" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -543,6 +1614,69 @@
           <t>Z03_B04_P01_Ib01</t>
         </is>
       </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Z03_B04_P01</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>03.4.a,b</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Unterschied in der Lebenserwartung zwischen sozio-ökonomisch deprivierten und wohlhabenden Regionen</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N14" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -550,6 +1684,84 @@
           <t>Z04_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>04.1.a</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Frühe Schul- und Ausbildungsabgängerinnen und -abgänger</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Early school leaversXXX</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil derjenigen 18- bis 24-Jährigen an allen Personen derselben Altersgruppe an, die weder über eine Hochschulzugangsberechtigung wie Abitur oder die Fachhochschulreife noch über eine abgeschlossene Berufsausbildung verfügen und die derzeit nicht an Aus- und Weiterbildungsmaßnahmen teilnehmen.</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the percentage of all people in the 18 to 24 age group who neither possess a university entrance qualification, such as an Abitur or Fachhochschulreife (entrance qualification for universities of applied sciences), nor have completed a course of vocational training and who are not currently undergoing training or continuing education.</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>Das staatliche Bildungssystem und das duale System der Berufsausbildung sind die Eckpfeiler einer zukunftsorientierten Qualifikation für junge Menschen in Deutschland. Fehlende Schul- und Berufsabschlüsse bedeuten ein erhöhtes Armutsrisiko und eine daraus resultierende stärkere Belastung der Sozialsysteme. Für das Jahr 2030 ist das Ziel, diesen Anteil auf 9,5 % zu senken.</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>The federal educational system and the dual system of vocational training are the cornerstones of future-orientated qualifications for young people in Germany. Failure to complete school or vocational training poses a risk of poverty and places a strain on the social welfare systems. The target for 2030 is to lower the percentage of early school leavers to 9.5 %.</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>Hinter dem Begriff „frühe Schulabgängerinnen und Schulabgänger“ verbergen sich nicht die jungen „Überfliegerinnen und Überflieger“, die vor Ende der Regelschulzeit einen Schulabschluss erlangen. Auch ist der Begriff nicht mit Schulabbrecherinnen bzw. Schulabbrechern zu verwechseln. Vielmehr handelt es sich hierbei um Personen im Alter zwischen 18 und 24 Jahren, die weder über eine Hochschulzugangsberechtigung wie Abitur oder die Fachhochschulreife noch über eine abgeschlossene Berufsausbildung verfügen und die derzeit nicht an Aus- und Weiterbildungsmaßnahmen teilnehmen. Das bedeutet, dass auch junge Menschen, die beispielsweise die Haupt- oder die Realschule erfolgreich abgeschlossen haben, sich aber nicht mehr im Bildungsprozess befinden, als frühe Schulabgängerinnen bzw. Schulabgänger gezählt werden.
+Die Angaben stammen aus dem Mikrozensus, dessen jährliche Stichprobenerhebung 1 % der Bevölkerung in Deutschland umfasst. Aufgrund einer umfassenden Neugestaltung des Mikrozensus in 2020 sind die Daten ab diesem Berichtsjahr nur eingeschränkt mit den Daten aus den vorangegangenen Jahren vergleichbar.
+Aus dem Indikator lässt sich nicht ableiten, wann und welche Art von Bildungseinrichtung die Personen zuletzt besucht haben. Ergänzende Informationen bietet die jährliche Schulstatistik, eine koordinierte Länderstatistik, die vom Statistischen Bundesamt veröffentlicht wird.
+Im Jahr 2021 lag der Wert des Indikators bei 11,6 %. Dies entspricht insgesamt 698 000 jungen Menschen ohne Abschluss des Sekundarbereichs II, die sich nicht oder nicht mehr in (Aus-) Bildung oder Weiterbildung befanden. Der Wert des Indikators ist bis 2014 auf 9,5 % gesunken und hatte die für 2030 gesetzte Zielmarke damit bereits erreicht. Seitdem entwickelt sich der Indikator aber wieder entgegen der gewünschten Richtung.
+Bei den geschlechtsspezifischen Quoten für den Indikator gab es zwischen 1999 und 2005 keine systematischen Unterschiede zwischen Frauen und Männern. Seit 2006 ist die Quote für Frauen kontinuierlich niedriger als die für Männer. So lag der Wert für Frauen im Jahr 2021 bei 9,6 % und für Männer bei 13,5 %.
+Laut Schulstatistik haben 2021 insgesamt rund 47 490 junge Menschen (6,2 % der gleichaltrigen Wohnbevölkerung) die Schule ohne einen Hauptschulabschluss verlassen. Dies entspricht im Vergleich zu 1999 einem Rückgang um 43 %. Auch hier ist der Anteil bei jungen Frauen nach wie vor deutlich geringer (4,9 %) als bei jungen Männern (7,5 %).
+Dagegen erreichten im Jahr 2021 16,1 % (122 282) der gleichaltrigen Wohnbevölkerung einen Hauptschulabschluss, 44,1 % (334 137) einen mittleren Abschluss, 33,0 % (263 428) die allgemeine Hochschulreife und 0,1 % (849) die Fachhochschulreife. Im Zeitverlauf seit 1999 zeigen sich bei zwei Abschlussarten besonders starke Veränderungen. So nahm der Anteil der Personen mit Hauptschulabschluss um 10,0 Prozentpunkte ab, während der Anteil der Personen mit allgemeiner Hochschulreife um 8,2 Prozentpunkte anstieg (jeweils bezogen auf die gleichaltrige Bevölkerung).</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>The term “early school leavers” does not refer to the young “high achievers”, who obtain a school leaving certificate before the regular period of schooling ends. Nor should the term be confused with school drop-outs. On the contrary, it refers to people between 18 and 24 years of age who neither have obtained a higher education entrance qualification such as “Abitur” or “Fachhochschulreife” (for universities in general or universities of applied sciences), nor have completed vocational training and who are not attending initial and continuing education/ training programmes. This means that even those young people who, for example, have successfully completed “Hauptschule” or “Realschule” (lower secondary education, ISCED level 2) but are no longer participating in the education process are also counted as early school leavers.
+The information originates from the microcensus, whose annual sample survey covers 1 % of the population in Germany. In 2020, the microcensus had a comprehensive restructuring, such that data from 2020 on is conditionally comparable to preceding years.
+It is not possible to conclude what type of educational institution they last attended and at what time. The annual school statistics, which is a coordinated Länder statistics, provides supplementary information also published by the Federal Statistical Office.
+In 2021, according to provisional results, the indicator value was 11.6 %, i.e. there were a total of 698,000 young people without completed upper secondary education who were not or no longer undergoing (vocational) training or continuing education. The indicator value had decreased to 9.5 % until 2014 and, hence, achieved the target for 2030. From then on, the trend had moved in the wrong direction.
+As for gender-specific indicator rates, there were no systematic differences between men and women for the period between 1999 and 2005. Since 2006, the rate for women has been lower than that for men. The values in 2021, for instance, were 9.6 % for women and 13.5 % for men.
+According to the school statistics, a total of some 47,490 young people, or 6.2 % of the resident population in the relevant age group, left school in 2021 without a certificate of lower secondary education. Compared with 1999, this equates to a reduction by 43 %. By this measure too, the proportion remains markedly lower among young women (4.9 %) than among young men (7.5 %).
+By contrast, 16.1 % (122,282) of the resident population of the same age obtained a certificate of lower secondary education from a Hauptschule in 2021, 44.1 % (334,137) obtained a certificate of intermediate secondary education, 33.0 % (263,428) obtained a general university entrance qualification, and 0.1 % (849) obtained a certificate qualifying them to enter a university of applied sciences. Since 1999, two types of certificates have seen particularly large changes over the course of time. Thus, the share of people with a secondary general school certificate fell by 10.0 percentage points, while the share of people with university entrance qualification rose by 8.2 percentage points (both as a proportion of the population of the same age).</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>45611</v>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -557,6 +1769,84 @@
           <t>Z04_B01_P01_Ib02</t>
         </is>
       </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P01</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>04.1.b</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Akademisch Qualifizierte und beruflich Höherqualifizierte</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Persons with an academic or higher vocational qualification</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der 30- bis 34-Jährigen an, die über einen Abschluss des Tertiärbereichs (Stufen 5 bis 8 der Internationalen Standardklassifikation des Bildungswesens, ISCED 2011) oder einen postsekundaren nicht-tertiären Abschluss (Stufe 4 der ISCED) verfügen.</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>The indicator specifies the proportion of 30 to 34-year-olds who hold a certificate from the tertiary education sector (levels 5 to 8 of the International Standard Classification of Education, ISCED, 2011) or a postsecondary non-tertiary certificate (level 4 of the ISCED).</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>Eine hoch entwickelte Volkswirtschaft wie die deutsche, in der der Dienstleistungssektor und der Bedarf an Wissen und Expertise immer stärker in den Vordergrund rücken, benötigt hoch qualifizierte Arbeitskräfte. Im Rahmen der Fortschreibung der Nationalen Nachhaltigkeitsziele sollen als Zielquote bis 2030 55 % der 30- bis 34-Jährigen über einen tertiären oder postsekundaren nicht-tertiären Abschluss verfügen.</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>Developed economies like Germany’s, in which the service sector and the demand for knowledge and expertise are becoming increasingly important, requires highly qualified workers. According to the updated national sustainable development goals, 55 % of 30 to 34-year-olds are to possess a tertiary or other post-secondary qualification by 2030.</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>Die Bezeichnung des Indikators hängt mit der Tradition der dualen Ausbildungssysteme in Deutschland zusammen. Neben den tertiären Abschlüssen an Hoch-, Fachhoch- und Verwaltungsfachhochschulen, Berufsakademien, Fachschulen und Fachakademien sowie den Meister- und Technikerabschlüssen gibt es bundesweit eine Vielzahl von postsekundaren nicht-tertiären Abschlüssen. Hierzu zählen generell alle abgeschlossenen Berufsausbildungen nach dem Abitur, aber auch Abschlüsse in Gesundheits- und Sozialberufen, wie beispielsweise die Ausbildung zur Medizinisch-technischen Assistenz.
+Die „International Standard Classification of Education (ISCED)“ ermöglicht es, Statistiken und Indikatoren zu Bildungsabschlüssen international zu vergleichen. Als gleichwertig angesehene Abschlüsse werden dabei den gleichen ISCED-Stufen zugeordnet. Der Indikator umfasst daher sowohl die tertiären Abschlüsse entsprechend den Stufen 5 bis 8 der ISCED als auch die postsekundaren nicht-tertiären Abschlüsse der Stufe 4 der ISCED.
+Die Daten für den Indikator stammen aus dem Mikrozensus, dessen jährliche Stichprobenerhebung 1 % der Bevölkerung in Deutschland umfasst. Ergänzende Informationen bietet die Hochschulstatistik, die ebenfalls vom Statistischen Bundesamt erstellt wird.
+Ausgehend von 33,4 % im Jahr 1999 stieg der Wert des Indikators bis zum Jahr 2021 um 19,9 Prozentpunkte auf 53,2 % an. Bei einer Beibehaltung der durchschnittlichen Entwicklung der letzten fünf Berichtsjahre könnte der Zielwert von 55 % für das Jahr 2030 bereits deutlich früher erreicht werden. Das Verhältnis der geschlechtsspezifischen Anteile hat sich im Lauf der Zeit gewandelt: 1999 lag der Wert des Indikators bei Männern noch um 3,8 Prozentpunkte höher als bei Frauen. Im Jahr 2006 lagen beide Geschlechter gleichauf. Seit 2007 ist der Anteil der Frauen mit einem tertiären oder postsekundaren nicht-tertiären Bildungsabschluss höher als der Anteil der Männer und hat mit 57,2 % in 2021 den Zielwert für 2030 von 55 % bereits übertroffen, während der Anteil der Männer (49,6 % in 2021) diesen Wert voraussichtlich erst in einigen Jahren erreichen wird.
+In vielen anderen Ländern gibt es keine postsekundaren nicht-tertiären Abschlüsse. Daher ist die europäische Version des Indikators aus der „Europa 2020“-Strategie der EU enger gefasst und berücksichtigt nur tertiäre Abschlüsse (ISCED-Stufen 5 bis 8).
+Der europäische Indikator erreichte für die EU-Staaten nach einem kontinuierlichen Anstieg seit 2005 im Jahr 2021 insgesamt 41,6 %. Wählt man auch für Deutschland diesen enger gefassten Indikator, so liegt der Wert im Jahr 2021 mit 37,8 % um 3,8 Prozentpunkte unter dem EU-Wert. Im Jahr 2021 ist auch hier der Anteil der Frauen (38,6 %) höher als der Anteil der Männer (37,0 %).
+Die Gesamtzahl der Hochschulabsolventinnen und Hochschulabsolventen im Jahr 2021 betrug 517 944. Das sind mehr als doppelt so viele wie im Jahr 1999. Darunter waren 129 488 Absolventinnen und Absolventen der Ingenieurwissenschaften (dreimal so viele wie 1999) und 54 928 Absolventinnen und Absolventen der Mathematik und Naturwissenschaften (68,8 % mehr als 1999).</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>The name of the indicator is linked to the tradition of the dual education system in Germany. In addition to tertiary degrees from universities, universities of applied sciences, colleges of public administration, vocational and specialised academies as well as master craftsmen’s and technicians’ certificates, there are post-secondary non-tertiary degrees at upper secondary level which are obtained in parallel or consecutively. These include, for example, the “Abitur” (higher education entrance qualification) at evening schools or at two-year full-time vocational schools, the completion of vocational training after the “Abitur” or a previous vocational training.
+The “International Standard Classification of Education (ISCED)” enables international comparisons of statistics and indicators regarding certificates of education. Certificates that are regarded as equivalent are assigned to the same ISCED levels. Therefore, the indicator includes both the tertiary degrees corresponding to levels 5 to 8 of the ISCED as well as the post-secondary non-tertiary degrees corresponding to level 4 of the ISCED.
+The data for the indicator originate from the microcensus, whose annual sample survey covers 1 % of the population. The statistics of higher education provides supplementary information and is also compiled by the Federal Statistical Office.
+Starting at 33.4 % in 1999, the indicator increased by 19.9 percentage points to 53.2 % in 2021. If the average growth rate of the last five reference years is maintained, the target value of 55 % could be achieved considerably earlier than 2030. The relation between the gender-specific percentages has changed over time. In 1999, the indicator for men was 3.8 percentage points higher than for women. In 2006, the values were the same for both sexes. Since 2007, the percentage of women with a tertiary or post-secondary non-tertiary qualification has been higher than that of men and exceeded the target value for 2030 already in year 2021 (57.2 %), while the proportion of men, which was 49.6 % in 2021, would reach the target a good bit later.
+Many other countries do not offer post-secondary non-tertiary education programmes. Therefore, the European version of the indicator from the “Europe 2020” strategy is more narrowly defined and takes only tertiary degrees (ISCED levels 5-8) into account.
+Following a steady increase since 2005, the European indicator reached a total of 41.6 % across the EU-27 states in 2021. If one also uses this more narrowly defined indicator for Germany, the value of 37.8 % obtained for 2021 was more than 3.8 percentage points below the EU value. Furthermore, in 2021, the proportion of women (38.6 %) was higher than that of men (37.0 %).
+The number of university graduates in Germany totalled 517,944 in 2021. This was more than twice as many as in 1999. These included 129,488 engineering graduates (three times as much than in 1999) and 54,928 graduates of mathematics and the natural sciences (68.8 % more than in 1999).</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>45672</v>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -564,6 +1854,69 @@
           <t>Z04_B01_P02_Ib01</t>
         </is>
       </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B01_P02</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>04.1.c</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Schulen mit BNE-Label (Bildung für nachhaltige Entwicklung)</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N17" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -571,6 +1924,84 @@
           <t>Z04_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B02_P01</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>04.2.a,b</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Ganztagsbetreuung für Kinder</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>All-day care provision for children</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der Kinder in Ganztagsbetreuung am Stichtag 1. März an allen Kindern der gleichen Altersgruppe am 31. Dezember des Vorjahres an. Ganztagsbetreuung entspricht dabei einer durchgehenden vertraglich vereinbarten Betreuungszeit von mehr als sieben Stunden pro Betreuungstag; Tagespflege sowie die Betreuung von Schulkindern sind nicht berücksichtigt. Indikator 4.2.a bezieht sich auf die Gruppe der 0- bis 2-jährigen, Indikator 4.2.b auf die der 3- bis 5-jährigen Kinder.</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>This indicator shows children in all-day care on the reference date of 1 March as a proportion of all children in the same age group on 31 December of the previous year. All-day childcare is provided for a contractually agreed, continuous care period of more than seven hours per day; day care in private homes and care of pupils are not included. Indicator 4.2.a refers to the group of 0 to 2-year-old children, indicator 4.2.b to the group of 3 to 5-year-old children.</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>Der Anteil der 0- bis 2-jährigen Kinder, die eine Ganztagsbetreuung besuchen, soll bis zum Jahr 2030 bei mindestens 35 % liegen (4.2.a). Für die 3- bis 5-Jährigen (4.2.b) soll der Anteil bis zum Jahr 2030 auf mindestens 70 % steigen. Eine Erhöhung des Anteils von Kindern in Ganztagsbetreuung ist wünschenswert, da bedarfsgerechte Betreuungsmöglichkeiten die Vereinbarkeit von Familie und Beruf verbessern. Zudem sind sie ein wichtiger Beitrag zur Chancengerechtigkeit, zur Gleichstellung von Frauen und Männern und zur Integration.</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>The proportion of 0 to 2-year-old children attending all-day care is to reach at least 35 % (4.2.a) by 2030. For 3 to 5-year-olds (4.2.b), the proportion is to increase to at least 70 % by 2030. An increase in the proportion of children attending all-day care is desirable because the availability of childcare options that meet the needs of today’s families improve the compatibility of family life and work. They also make an important contribution to equal opportunities, gender equality and integration.</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren geben jeweils den Anteil der Kinder an, für die eine tägliche Betreuungszeit von mehr als sieben Stunden vereinbart wurde. Diese Zeitangabe kann von der tatsächlich in Anspruch genommenen Betreuungsdauer abweichen. Vertraglich vereinbarte Betreuungszeiten von sieben Stunden und weniger, die ebenfalls die Vereinbarkeit von Beruf und Familie verbessern können, sowie weitere Betreuungsformen, zum Beispiel Tagespflege, fließen nicht ein. Darüber hinaus sind für das Themengebiet auch Informationen zu Betreuungsangeboten für Kinder ab sechs Jahren relevant. Entsprechende ergänzende Informationen bieten beispielsweise Daten der Kultusministerkonferenz (siehe letzter Abschnitt).
+Die Angaben zum Indikator stammen aus der jährlichen Statistik über Kinder und tätige Personen in Kindertageseinrichtungen des Statistischen Bundesamtes. Im Jahr 2022 war für 16,8 % der unter 3-Jährigen (Krippenalter) und für 47,0 % der 3- bis 5-Jährigen (Kindergartenalter) eine Ganztagsbetreuung in Kindertageseinrichtungen vereinbart. Somit haben sich die Anteile der ganztags betreuten Kinder unter 3 Jahren seit 2006 fast verdreifacht und unter den 3- bis 5-Jährigen mehr als verdoppelt. Bei beiden Altersgruppen ist der Anstieg allerdings seit etwa 2014 deutlich schwächer ausgeprägt als in den Jahren zuvor, seit 2020 sind die Anteile sogar leicht rückläufig.
+Die absolute Zahl der ganztags in Kindertageseinrichtungen betreuten Kinder unter 6 Jahren lag 2022 bei 1,61 Millionen. Weitere 67 416 Kinder im Alter von unter 6 Jahren wurden ganztägig in öffentlich geförderter Tagespflege betreut und werden somit, wie auch die 5-jährigen Kinder, die bereits zur Schule gehen, nicht vom Indikator erfasst. Darüber hinaus waren 2022 rund 1,46 Millionen Kinder mit einer Betreuungszeit von bis zu sieben Stunden in Teilzeitbetreuung.
+In beiden Altersklassen war die Anzahl an Kindern in der Bevölkerung insgesamt bis 2014 stagnierend bis rückläufig, hat aber als Folge des vermehrten Zuzugs Geflüchteter ab 2015 stark zugenommen. Diese deutlichen Zuwächse spiegeln sich jedoch nicht in der Anzahl der betreuten Kinder wider, die in beiden Altersklassen einen (über 2015 hinweg, bis zur Corona-Pandemie) konstanten Verlauf verzeichnet, was zu dem abgeschwächten Anstieg der Indikatoren geführt hat.
+Mehr als ein Viertel der 2020 in Kindertageseinrichtungen und in öffentlich geförderter Tagespflege betreuten Kinder unter 6 Jahren hatte einen Migrationshintergrund, das heißt, mindestens ein Elternteil war ausländischer Herkunft. Die Betreuungsquote betrug hier 51 %, bei Kindern ohne Migrationshintergrund lag sie bei 71 %.
+Bei der Ganztagsbetreuung in Tageseinrichtungen besteht ein deutliches Gefälle zwischen den alten und neuen Bundesländern. Die höchsten Ganztagsquoten für 0- bis 2-Jährige sind in den neuen Bundesländern sowie in Berlin zu verzeichnen. Die Spanne bewegt sich insgesamt zwischen 50,7 % in Thüringen und 9,5 % in Baden-Württemberg. Bei den 3- bis 5-Jährigen weisen ebenfalls Thüringen mit 91,6 % die höchste und Baden-Württemberg mit 24,1 % die niedrigste Betreuungsquote auf (jeweils 2022).
+Im Hinblick auf die Betreuungsmöglichkeiten für Schulkinder spielen auch Horte und Ganztagsschulen eine wichtige Rolle. 2021 wurden in Kindertageseinrichtungen (Horten) 18 967 Kinder von 5 bis 13 Jahren ganztags und 486 408 Kinder in Teilzeit betreut (die Unterrichtszeit gilt nicht als Betreuungszeit). Der Anteil der Ganztagsschülerinnen und Ganztagsschüler gemessen an allen Schülerinnen und Schülern an allgemeinbildenden Schulen lag im Schuljahr 2020/2021 bei 47,2 %. Hier sind jedoch alle Schulformen und somit auch Schülerinnen und Schüler über 13 Jahren einbezogen. An Grundschulen wurden im gleichen Schuljahr 46,5 % der Kinder ganztags betreut. Im Vergleich zum Jahr 2006 ist die Zahl der Ganztagsschülerinnen und Ganztagsschüler 2021 deutlich gestiegen, und zwar von knapp 1,5 Millionen auf 3,4 Millionen (allgemeinbildende Schulen insgesamt) und von 0,4 Millionen auf 1,</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>The indicators show the proportion of children for whom daily childcare of more than seven hours has been arranged, which may deviate from the actual time spent in childcare. Contractually agreed childcare provision of seven hours and less, which can also improve the compatibility of work and family life, and other types of care, e.g. day care in private homes, are not included. Furthermore, information on childcare services aimed at children aged 6 years and older is also relevant to this topic. Such supplementary information is included, for example, in the data of the Standing Conference of the Ministers of Education and Cultural Affairs of the Länder in the Federal Republic of Germany (see the last paragraph).
+The information of the indicator is provided by the annual statistics on children cared for and persons employed in day care centres, which is compiled by the Federal Statistical Office. In 2022, all-day care in day care centres was arranged for 47.0 % of the 3 to 5-year-old children (kindergarten age). For children under 3 years of age (nursery age) this figure was 16.8 %. As a result, the share of children in all-day care below the age of 3 almost tripled and have more than doubled for the 3 to 5-year-olds since 2006. However, the increase for both indicators is significantly reducing since 2014 and, furthermore, the share of children for both age groups in all-day care is diminishing since 2020.
+The total number of children below the age of six receiving all-day care in day care centres in 2022 was 1.61 million. Another 67,416 children below six years of age were receiving publicly subsidised childminder care; like those five-year-old children who are already at school, they are not covered by the indicator. In addition, in 2022 some 1.46 million children were receiving part-time care of seven hours or less.
+Both age groups reported stagnating or declining total number of children in population until 2014, but the increased migration of refugees significantly increased the number of children since 2015. However, the growing number of refugees had no effect on the number of children in all-day care from 2015 until the pandemic and, hence, the growth of the indicators was weakened.
+In 2020, more than a quarter of the children under six years cared for in day care centres or by publicly supported childminding services had a migrant background, meaning that at least one of the parents was of foreign origin. 51 % of these children were in day care, compared with 71 % of the children without a migrant background.
+With regard to the availability of all-day care provided by facilities, there is a clear gap between the Länder in the east and the Länder in the west of Germany. The highest percentages of 0 to 2-year-olds in all-day care are recorded in the eastern Länder and in Berlin. The values range from 50.7 % in Thuringia to 9.5 % in Baden-Württemberg. For 3 to 5-year-olds, the percentage was also highest in Thuringia at 91.6 % and lowest in Baden-Württemberg at 24.1 % (each 2022).
+When it comes to opportunities of care for pupils, pre and after-school care programmes and all-day schools also play a significant role. In 2021, 18,967 children between 5 and 13 years of age were looked after on an all-day basis in care programmes and 486,408 children part-time (lessons are not regarded as childcare). The percentage of pupils attending all-day schools of all pupils in schools of general education was 47.2 % in the 2020/2021 school year. However, this figure includes pupils from all school types and hence includes also pupils who are older than 13 years. In primary schools, 46.5 % of children received all-day care in that school year. In comparison to 2006, the number of all-day school pupils has increased considerably in 2021, from almost 1.5 million to 3.4 million (in all schools of general education) and from 0.4 million to 1.3 million in the primary schools.</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t>4.2.2</t>
+        </is>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>45561</v>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -578,6 +2009,81 @@
           <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>05.1.a</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Verdienstabstand zwischen Frauen und Männern</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Gender pay gap</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer als Anteil an den durchschnittlichen Bruttostundenverdiensten der Männer.</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the difference between the average gross hourly earnings of women and men expressed as a percentage of the average gross hourly earnings of men.</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgte daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>Differences in pay between men and women in a modern business-oriented society are a sign of social inequality. A narrowing of pay disparities indicates progress on the road to equality. The Federal Government is therefore pursuing the goal of reducing the pay gap to 10 % by 2020 and to maintain the value until 2030.</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Im unbereinigten Gender Pay Gap (GPG) enthalten ist auch der Lohnabstand, der beispielsweise auf unterschiedliche Berufe, Branchen, Qualifikationen oder Erwerbsbiografien von Frauen und Männern zurückzuführen ist.
+Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen (Untergliederung in fünf Gruppen von ungelernt bis Arbeitnehmerinnen und Arbeitnehmer in leitender Stellung), Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap bestimmt. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten sowie den unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der Land- und Forstwirtschaft, Fischerei, der öffentlichen Verwaltung, Verteidigung, Sozialversicherung sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.
+Nach vorläufigen Zahlen verdienten Frauen in den Jahren 2020 und 2021 durchschnittlich 18 % weniger pro Stunde als Männer. Das Ziel, den unbereinigten GPG bis 2020 auf 10 % zu verringern, wurde damit nicht erreicht. Bei Fortsetzung der Entwicklung der letzten fünf Jahre ist zu erwarten, dass das angestrebte Ziel auch bis zum Jahr 2030 nicht erreicht wird.
+Über einen längeren Zeitraum betrachtet, zeigt sich für Deutschland ein langsamer, aber stetiger Rückgang des unbereinigten GPG. Dieser hatte 2012 mit 23 % noch um 5 Prozentpunkte höher gelegen als 2021. Bei Betrachtung der Ergebnisse nach Bundesländern zeigen sich erhebliche Unterschiede: Am höchsten lag der unbereinigte GPG im Jahr 2021 mit 22 % in Baden-Württemberg und Bremen, während er in Brandenburg, Mecklenburg-Vorpommern und Thüringen 5 % betrug.
+Untersuchungen der ursächlichen Faktoren des GPG werden alle vier Jahre auf Basis der detaillierten Ergebnisse der Verdienststrukturerhebung durchgeführt. Derzeit liegen Ergebnisse für das Jahr 2018 vor. Die Faktoren, die die Verdienstunterschiede bestimmen, unterliegen langfristigen strukturellen Veränderungsprozessen und sind damit im Zeitablauf relativ stabil. 71 % des Verdienstunterschieds zwischen Frauen und Männern sind unter anderem darauf zurückzuführen, dass Frauen häufiger in Branchen, Berufen und Leistungsgruppen arbeiten, in denen schlechter bezahlt wird. Auch arbeiten Frauen häufiger als Männer in Minijobs oder in Teilzeit.
+Die verbleibenden 29 % des Verdienstunterschieds entsprechen dem bereinigten GPG von zuletzt 6 % im Jahr 2018. Verglichen mit dem unbereinigten GPG zeigt sich beim bereinigten GPG auf Ebene der Bundesländer ein wesentlich einheitlicheres Bild. Er lag im Jahr 2018 zwischen 4 % (in Berlin) und 7 % (in Baden-Württemberg, Bayern, Bremen, Hamburg und Sachsen).
+Im europäischen Vergleich liegen überwiegend vorläufige Ergebnisse bis zum Jahr 2020 vor. Der unbereinigte GPG lag in Deutschland seit 2010 durchgehend über dem Durchschnitt der Europäischen Union. Von 25 EU-Staaten, für die Daten für das Jahr 2020 vorliegen, weisen nur Lettland mit 22 %, Estland mit 21 % und Österreich mit 19 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %), Rumänien (2 %) und Slowenien (3 %).</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>The indicator presented here shows the unadjusted gender pay gap (GPG). Therefore, it only expresses the relative average gross hourly earnings as a ratio without considering the underlying causes, such as qualification, occupation or a different employment history.
+The data for the indicator is based on the four-yearly structure of earnings survey conducted by the statistical offices of the Länder as a representative sample survey covering a maximum of 60,000 businesses who are obliged to provide the requested information. Based on these data, results are provided by age, educational attainment, performance group, activity, collective agreement, company size class and economic sector, and the adjusted GPG is published. For the interim years, the unadjusted GPG is updated using the rates of change from the quarterly survey of earnings. In the following, the EU definition is used for the adjusted and unadjusted GPG; it excludes employees in “agriculture, forestry and fishing”, “public administration and defence; compulsory social security” and in micro-enterprises.
+In 2020 and 2021, the unadjusted GPG was 18 % on average. The goal to reduce the unadjusted GPG to 10 % by 2020 was missed. Hence, if the trend recorded over the last five years continues, the goal set for 2030 will not be achieved.
+The unadjusted GPG is slowly but steadily declining for Germany long-term. The value in 2012 was 23 % and, thus, 5 percentage points above the value in 2021. The unadjusted GPG varied markedly between the Länder: in 2021, the GPG was highest in Baden-Württemberg and Bremen with 22 %, while being at 5 % for Brandenburg, Mecklenburg Western Pomerania and Thuringia.
+Investigations into the causal factors behind the GPG can be conducted every four years on the basis of the detailed results of the structure of earnings survey. The latest available findings date from 2018. The factors that determine pay differentials are subject to long-term evolution processes and are therefore fairly stable over the course of time. The findings show that structural causes account for 71 % of the GPG, in other words the differences are partly due to the fact that women often work in sectors and occupations where pay rates are low, and they more rarely attain managerial positions. They are also more likely than men to work part-time or to have mini-jobs.
+The remaining 29 % of the pay differential corresponds to the adjusted GPG of 6 % in 2018. Compared with the unadjusted GPG, the adjusted GPG figure is considerably more uniform across the Länder. In 2018, the adjusted gap ranged from 4 % in Berlin to 7 % in Baden-Württemberg, Bavaria, Bremen, Hamburg and Saxony.
+Comparative data for the European Union with mostly provisional results is available until 2020. From 2010 on, the unadjusted GPG in Germany lay considerably above the provisional European Union average. Of the 25 EU states in 2020, only Latvia, with 22 %, Estonia, with 21 %, and Austria, with 19 %, had a higher GPG. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1 %, Romania, with 2 %, and Slovenia, with 3 %.</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t>8.5.1</t>
+        </is>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N19" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -585,6 +2091,83 @@
           <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>05.1.b,c</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Women in management positions in business and in the federal civil service</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes.</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>The indicator 5.1.b shows the share of women on supervisory boards of listed and fully co-determined companies. Indicator 5.1.c shows the percentage of women in management positions in the federal civil service.</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>Frauen sind ebenso qualifiziert wie Männer und dennoch in Führungspositionen der deutschen Wirtschaft, vor allem im Top-Management, unterrepräsentiert. Gleiches gilt auch für den Anteil in Führungspositionen im öffentlichen Dienst des Bundes. Bis zum Jahr 2030 soll daher der Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen auf 30 % erhöht werden. Im öffentlichen Dienst des Bundes soll die gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen gemäß dem am 21. August 2021 in Kraft getretenen zweiten Führungspositionengesetz (FüPoG II) bis zum Jahr 2025 erreicht werden.</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>Women are as highly qualified as men, yet they are under-represented in management positions in German business, particularly at senior management level. The same applies to the percentage of women in management positions in the federal civil service. For this reason, the share of women on supervisory boards of listed and fully co-determined companies is to be increased to 30 % by 2030. Under the bill for a Second Gender Equality (Management Positions) Act, which became effective on 21 August 2021, equal representation of women and men in management positions in the civil service is to be achieved by 2025.</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;i&gt;Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen&lt;/i&gt;&lt;/b&gt;
+Der Indikator erfasst den Anteil von Frauen in Aufsichtsräten von Aktiengesellschaften und Kommanditgesellschaften auf Aktien mit mehr als 2 000 Beschäftigten sowie Europäischen Gesellschaften (SE) und börsennotierten Unternehmen, die paritätisch mitbestimmt sind. Die Veröffentlichungen der börsennotierten und paritätisch mitbestimmten Unternehmen, die vom Verein „Frauen in die Aufsichtsräte“ (FidAR) ausgewertet und in sogenannten Women-on-Board-Indizes (WOB-Indizes) veröffentlicht werden, dienen als Datengrundlage.
+Im Januar 2022 lag der durchschnittliche Frauenanteil in den Aufsichtsräten dieser Unternehmen bei 35,6 % (Januar 2015: 21,3 %). Bereits im Jahr 2018 – zwölf Jahre vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist – wurde der angestrebte Anteil von 30 % erreicht. Mit dem Wert für 2022 wurde allerdings erstmals seit dem Jahr 2015 ein (wenn auch nur leichter) Rückgang des Anteils verzeichnet.
+Gemäß dem Gesetz für die gleichberechtigte Teilhabe von Frauen und Männern in Führungspositionen sind seit dem Jahr 2016 in allen neu gewählten Aufsichtsratspositionen der genannten Unternehmen mindestens 30 % der Aufsichtsratssitze mit Frauen zu besetzen.
+Ein Großteil der Unternehmen in Deutschland und die Mehrzahl der Führungspositionen in der Wirtschaft werden mit der zugrunde gelegten Definition des Indikators nicht betrachtet. Der von der Definition vorgegebene Berichtskreis umfasst aktuell 101 Unternehmen. Die knapp 1 600 von FidAR bisher betrachteten Aufsichtsratsposten stellen bei insgesamt 882 000 Führungskräften gemäß Verdienststrukturerhebung im Jahr 2018 (aktuellere Daten lagen bei Redaktionsschluss noch nicht vor) einen kleinen Ausschnitt der Führungspositionen in der Wirtschaft dar. Die Zahlen verdeutlichen, dass mit der Betrachtung der Aufsichtsgremien lediglich ein Teil der Führungspositionen in einem Unternehmen abgebildet wird.
+Laut Internationaler Standardklassifikation der Berufe (ISCO) sind Führungskräfte alle Personen, die die Gesamtaktivitäten von Unternehmen, Regierungen und anderen Organisationen oder von internen Organisationseinheiten planen, steuern, koordinieren und bewerten sowie Richtlinien, Gesetze, Regeln und Vorschriften überprüfen und bewerten. Dies schließt die Tätigkeiten in Aufsichtsräten mit ein. Wird die ISCO-Klassifikation zugrunde gelegt, waren im Jahr 2018 von den insgesamt 882 000 Führungspositionen in der Wirtschaft 22 % mit Frauen besetzt. Dafür wurden alle Betriebe ab einem sozialversicherungspflichtig Beschäftigten ohne den Wirtschaftsabschnitt O „Öffentliche Verwaltung, Verteidigung; Sozialversicherung“ und teilweise den Wirtschaftsabschnitt P „Erziehung und Unterricht“ betrachtet. Im Vergleich zum Jahr 2014, dem Jahr der vorherigen Verdienststrukturerhebung, ist dies eine Steigerung um 1,2 Prozentpunkte.
+&lt;b&gt;&lt;i&gt;Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes&lt;/i&gt;&lt;/b&gt;
+Bislang dient eine Sonderauswertung der unveröffentlichten Gleichstellungsstatistik des Bundes nach Maßgabe des Bundesgleichstellungsgesetzes (BGleiG) als Datengrundlage für den Indikator. Das Statistische Bundesamt führt seit 2015 im Auftrag des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ) die Gleichstellungsstatistik alle zwei Jahre zum Stichtag 30. Juni des Berichtsjahres durch. Ein erweitertes Monitoring im Zusammenhang mit der Maßnahme IX 1. b der Deutschen Nachhaltigkeitsstrategie und dem zweiten Führungspositionengesetz (FüPoG II) zur Erhöhung der Transparenz wird künftig halbjährliche Daten auch aus den nachgeordneten Dienststellen der unmittelbaren Bundesverwaltung zur Anzahl von Frauen und Männern in Führungspositionen zur Bedienung des Indikators liefern. Der Fokus des Indikators richtet sich auf die Beschäftigten in Führungspositionen aller Dienststellen des Bundes. Einbezogen werden alle Voll- und Teilzeitbeschäftigten sowie</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;This indicator measures the proportion of women on the supervisory boards of listed companies and joint-stock companies with more than 2,000 employees as well as European Companies (SE) and listed companies that are subject to equal co-determination. The data is based on publications of the results of elections at general meetings of shareholders of listed and fully co-determined companies, which are evaluated by the association “Frauen in die Aufsichtsräte” (FidAR) and published in the form of a Women on Board Index (WOB-Index).
+In January 2022, the average proportion of women on the supervisory boards of these companies was 35.6 % (January 2015: 21.3 %). This means that the target share of 30 % was already reached in 2018 – twelve years before the deadline set in the German strategy for sustainable development. However, the share in 2022 slightly decreased for the first time since 2015.
+Provided that the companies complied with the law, this increase was to be expected as the “Act on the Equal Participation of Women and Men in Executive Positions” since 2016 requires at least 30 % of the supervisory board positions to be filled by women in all newly elected supervisory boards of the above-mentioned companies.
+With regard to the results, it should also be noted that the majority of companies in Germany and most of the management positions in the economy are excluded by the underlying definition. On the one hand, the group of reporting entities currently comprises 101 companies according to the definition. On the other hand, the roughly 1,600 supervisory board positions considered by FidAR to date represent only a small portion of management positions in the economy with its 882,000 managers in 2018 according to the structure of earnings survey (more recent data was not available at the time of going to press). These numbers illustrate that only part of the management positions in a company are considered when the coverage is limited to the supervisory bodies.
+According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, control, coordinate and evaluate the overall activities of companies, governments and other organisations or internal organisational units and who review and evaluate guidelines, laws, rules and regulations. This definition includes the activities of supervisory boards. When the ISCO classification is applied, 22 % of the 882,000 management positions in the economy (all companies with more than one employee) were filled by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O “Public administration and defence; compulsory social security” and parts of sector P “Education”. Compared with 2014, the year of the previous structure of earnings survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June of the reporting year, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. For improved transparency, the indicator will receive biannual data from extended monitoring by the measure IX 1.b by the German strategy for sustainable development and the second managements position act (FüPoG II) provided by subordinated departments of the direct federal administration regarding the number of women and men in management positions. The indicator is focused on the employees in management positions in all departmen</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>16.7.1</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>45601</v>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -592,6 +2175,83 @@
           <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P01</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>05.1.d</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Väterbeteiligung beim Elterngeld</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Proportion of fathers receiving parental allowance</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the percentage of children whose fathers receiving parental allowance.</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>Das Elterngeld soll Familien bei einer partnerschaftlichen Aufgabenteilung unterstützen und eine gute Vereinbarkeit von Familie und Beruf für Mütter und Väter erreichen. Besonders mit der Einführung des ElterngeldPlus und des Partnerschaftsbonus soll der gesellschaftliche Wandel geschlechtsstereotyper Rollenbilder von Müttern und Vätern weiter vorangetrieben und letztendlich auch die Gleichstellung am Arbeitsmarkt befördert werden. Die Bundesregierung hat sich deshalb zum Ziel gesetzt den Anteil der Väter, die Elterngeld beziehen, zum Jahr 2030 auf 65 % zu steigern.</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>Parental allowance is intended to assist mothers and fathers in sharing their tasks in a spirit of partnership and in successfully reconciling work and family life. The introduction of parental allowance plus (ElterngeldPlus) and the partnership bonus (Partnerschaftsbonus) in particular are intended to keep driving social change in the stereotypical role models for mothers and fathers and ultimately to promote equality of opportunity in the labour market. For that reason, the German Federal Government has set itself the target of increasing the proportion of fathers receiving parental allowance to 65 % by 2030.</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>Mit dem Bundeselterngeld- und Elternzeitgesetz (BEEG) wurde das Elterngeld als Familienleistung für ab dem 1. Januar 2007 geborene Kinder eingeführt. Anspruchsberechtigte müssen einen Wohnsitz oder gewöhnlichen Aufenthalt in Deutschland haben, mit ihrem Kind in einem Haushalt leben, dieses Kind selbst betreuen und erziehen und dürfen keine bzw. keine volle Erwerbstätigkeit ausüben. Mütter und Väter sind gleichermaßen berechtigt.
+Auch wenn es sich nicht um das leibliche Kind handelt, können Ehemann/Ehefrau bzw. Lebenspartner/Lebenspartnerin der leiblichen Mutter oder des leiblichen Vaters Elterngeld erhalten, wenn sie im gleichen Haushalt leben. In über 99 % der Fälle handelt es sich bei den Leistungsbeziehenden jedoch um die leiblichen Eltern, sodass im Folgenden vereinfacht von Müttern und Vätern die Rede ist.
+Die Väterbeteiligung bildet den Anteil der Kinder ab, bei denen der Vater Elterngeld bezogen hat, im Verhältnis zu allen Kindern eines Geburtsjahrgangs, für die Elterngeld bezogen wurde. Die ausgewiesenen Zahlen basieren hierbei auf abgeschlossenen Elterngeldbezügen für Kinder eines bestimmten Geburtsjahres. Dadurch können die Zahlen erst zwei Jahre nach Ende des jeweiligen Geburtsjahres der Kinder berechnet werden. Für im Jahr 2008 geborene Kinder lag die Väterbeteiligung bei 21,2 % und stieg bis zum Jahr 2019 auf 43,5 % an. Der Anteil der Kinder, deren Mütter Elterngeld bezogen („Mütterbeteiligung“), lag in dem gleichen Zeitraum dagegen erheblich höher und betrug in allen Jahren rund 98 %.
+Zwar stieg die Väterbeteiligung im Zeitverlauf an, die Dauer des durchschnittlichen Elterngeldbezugs der Väter, die Elterngeld bezogen, sank jedoch leicht, von 3,7 Monaten für im Jahr 2008 geborene Kinder auf 3,3 Monate für im Jahr 2019 geborene Kinder.
+Diese zwei Effekte wirkten sich auch auf die Entwicklung der durchschnittlichen Bezugsdauer des Elterngeldes aller Väter, also auch derer, die kein Elterngeld bezogen, aus. Dabei überkompensierte der Anstieg der Väterbeteiligung den Rückgang der Bezugsdauer. Durchschnittlich stieg der Elterngeldbezug aller Väter von 0,8 Monaten für im Jahr 2008 geborene Kinder auf 1,4 Monate für im Jahr 2019 geborene Kinder an. Im Vergleich dazu lag die durchschnittliche Dauer des Elterngeldbezugs aller Mütter bei 11,5 Monaten für im Jahr 2008 geborene Kinder und stieg auf 13,5 Monate im Jahr 2019 an.
+Der Indikator basiert auf Daten der Elterngeldstatistik, in der quartalsweise alle Elterngeldleistungen erfasst werden. Die Zahlen beziehen sich jeweils auf das Geburtsjahr des Kindes, für das die Leistungen bewilligt wurden. Zur Berechnung des Indikators wird die Anzahl der Kinder herangezogen, für die tatsächlich Elterngeld bewilligt wurde, und nicht die Anzahl der in Deutschland geborenen Kinder. Damit soll vermieden werden, dass auch Kinder in die Berechnung miteingehen, für die kein Elterngeldanspruch besteht (zum Beispiel Kinder von ausländischen Schutzsuchenden).
+Bisher ist eine genaue Differenzierung nach Art der Partnerschaft, in der Leistungsberechtigte leben (ob gleichgeschlechtlich oder nicht), auf Basis der Elterngeldstatistik nicht möglich. Deshalb wird für die Berechnung des Indikators vereinfachend angenommen, dass für jedes Kind genau ein Vater leistungsberechtigt ist.
+Die maximale Bezugsdauer des Elterngeldes für vor dem 1. Juli 2015 geborene Kinder betrug 14 Monate. Für Eltern, deren Kinder ab dem 1. Juli 2015 geboren wurden, besteht die Möglichkeit, zwischen dem Bezug von Basiselterngeld und dem Bezug von ElterngeldPlus zu wählen oder beides zu kombinieren und zusätzlich einen Partnerschaftsbonus in Form von zwei, drei oder vier zusätzlichen ElterngeldPlus-Monaten pro Elternteil in Anspruch zu nehmen. Die Bezugsdauer kann sich hierdurch erheblich verlängern.</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.
+Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99 % of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.
+The figure for fathers receiving a share of parental allowance represents the percentage of children whose fathers received parental allowance as a percentage of all children born in a particular year for whom parental allowance was received. The existing numbers are based on completed payments of parental allowances for children of a specific year of birth. As a result, the numbers can only be calculated two years after the end of the respective year of birth. For the children born in 2008, fathers received parental allowance in 21.2 % of cases, and this figure rose to 43.5 % by 2019. The proportion of children whose mothers received parental allowance in the same period was far higher, amounting to about 98 % in every year.
+Although the percentage of fathers receiving parental allowance increased over time, the average period for which they received the allowance declined slightly from 3.7 months for children born in 2008 to 3.3 months for children born in 2019.
+These two effects also impacted on the development of the overall average period for which parental allowance was received by all fathers, i.e. including those who did not receive any allowance. At the same time, the increase in the percentage of fathers receiving the allowance outweighed the decline in the period of receipt. The average period for which fathers in general obtained parental allowance increased from 0.8 of a month for children born in 2008 to 1.4 months for those born in 2019. By comparison, the average period for which mothers in general received parental allowance rose from 11.5 months for children born in 2008 to 13.5 months for those born in 2019.
+The indicator is based on data from the parental allowance statistics, in which all payments of personal allowance are recorded on a quarterly basis. The data relates in each case to the year of birth of the child for whom the allowance has been granted. The figure used to calculate the value of the indicator is the number of children for whom parental allowance was actually granted, not the total number of children born in Germany. This is intended to avoid the inclusion in the calculation of children for whom there is no entitlement to parental allowance, such as the children of foreign asylum-seekers.
+It is not yet possible to differentiate precisely on the basis of the parental allowance statistics between types of partnership in which the eligible persons are living, i.e. whether it is a same-sex partnership. Therefore, for the purpose of calculating the indicator, it is assumed for simplification that exactly one father is entitled to benefits for each child.
+For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N21" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -599,6 +2259,75 @@
           <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Z05_B01_P02</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>05.1.e</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>Vocational qualification of women and girls through German development assistance</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden. Dabei wird in finanzielle (FZ) und technische Zusammenarbeit (TZ) unterschieden.
+Leistungen der TZ sind vor allem Beratung, in begrenztem Umfang auch die Lieferung von Sachgütern, das Erstellen von Anlagen sowie Studien und Gutachten. Zur FZ gehören günstige Kredite, Beteiligungskapital oder Zuschüsse, die nicht zurückgezahlt werden müssen.</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of women and girls in developing and emerging countries who were reached by vocational qualification measures through German development cooperation. The indicator is divided into financial (FZ) and technical cooperation (TZ).
+Services from TZ include consulting, to a limited degree the delivery of material goods, the production of facilities and the implementation of studies and reports. FZ provides favourable loans, venture capital or grants, that do not have to be repaid.</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>Die wirtschaftliche Teilhabe von Frauen und Mädchen in Entwicklungs- und Schwellenländern soll gestärkt werden. Daher soll bis 2030 die Anzahl der durch deutsche Entwicklungszusammenarbeit beruflich qualifizierten Frauen und Mädchen in Entwicklungs- und Schwellenländern sukzessive um ein Drittel gegenüber dem Jahr 2015 erhöht werden. Dies entspricht der von der Bundesregierung im Rahmen des G7-Gipfels im Jahr 2015 eingegangenen Verpflichtung zur Mädchen- und Frauenbildung.</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>The economic participation of girls and women in developing and emerging countries is to be increased. To this end, the number of girls and women in developing and emerging countries who obtain vocational qualifications through German development cooperation is to be gradually increased by one third over the period from 2015 to 2030. The Federal Government as part of the G7 summit is obliged to support girl’s and women’s education since 2015.</t>
+        </is>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>Als Datenquelle werden Informationen vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) zu geförderten Entwicklungsmaßnahmen verwendet, die sich im entsprechenden Berichtsjahr in der Durchführungsphase befanden. Zu diesen Maßnahmen zählen alle kurz-, mittel- und langfristigen formalen und nonformalen Berufsbildungsmaßnahmen in Entwicklungs- und Schwellenländern. Die Maßnahmen werden vollständig durch Mittel des Bundeshaushaltes sowie durch Marktmittel finanziert. Die Datenerhebung erfolgte erstmalig für das Jahr 2015 im Auftrag des BMZ durch die Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ) sowie das Centrum für Evaluation (CeVal GmbH). Die Erhebung wurde 2018 erneut durchgeführt. Ab dem Jahr 2021 werden die Daten alle drei Jahre aus der sogenannten aggregierten Ergebnisberichterstattung der GIZ und der Kreditanstalt für Wiederaufbau (KfW) abgeleitet.
+Im Jahr 2015 wurden rund 355 000 und im Jahr 2018 rund 863 000 Frauen und Mädchen durch berufliche Qualifizierungsmaßnahmen erreicht. Die hohe Anzahl an geförderten Frauen und Mädchen 2018 war vorwiegend durch die Zusammenarbeit mit China geprägt. Bedingt durch die ausgelaufene Zusammenarbeit mit China im Bereich Bildung lag die Anzahl der erreichten Frauen und Mädchen zuletzt bei etwa 80 000 (Jahr 2021). Gegenüber 2015 – dem ersten Jahr der Erhebung – war dies nur gut ein Fünftel an Frauen und Mädchen, die durch deutsche Entwicklungszusammenarbeit in Entwicklungs- und Schwellenländern beruflich qualifiziert wurden. Mit der Anzahl an erreichten Frauen und Mädchen wird jedoch keine Aussage zu Erfolg, Umfang und Qualität der Entwicklungsmaßnahmen getroffen.
+Von den etwa 80 000 Frauen und Mädchen wurden schätzungsweise 79,3 % über die technische Zusammenarbeit (TZ) erreicht; 20,7 % über die finanzielle Zusammenarbeit (FZ). Während die Anzahl der Frauen und Mädchen bei Maßnahmen der TZ ex post erfasst wird, muss die Anzahl bei der FZ im Voraus geschätzt werden. Dadurch kann es zu Überschätzungen und Mehrfachzählungen kommen.</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>Information provided by the Federal Ministry for Economic Cooperation and Development on supported projects that entered the implementation phase in the respective year served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds. The data was collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH (CeVal GmbH). The survey was renewed in 2018. From 2021 on, the data will be derived every three years from the aggregated results reporting provided by GIZ and Kreditanstalt für Wiederaufbau (KfW).
+In 2015 and 2018, 355,000 and 863,000 women and girls were reached by skill development measures, respectively. The high number of supported women and girls in 2018 was predominantly due to the collaboration with China. Expired collaboration in the education section with China caused a decline to 80,000 girls and women, who were reached by skill development measures in 2021. Only a fifth of women and girls were reached by German vocational qualification measures in developing and emerging countries compared to the first year of survey in 2015. However, the indicator does not provide any information on the success, scope and quality of the qualification measures.
+Of the 80,000 women and girls, about 79.3 % were reached by TZ and, accordingly, 20.7 % by FZ. While the number of women and girls are recorded ex-post for TZ measures, the number for FZ has to be estimated in advance. As a consequence, latter is prone to overestimation and multiple counting.</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N22" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -606,6 +2335,81 @@
           <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>06.1.a</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Phosphor in Fließgewässern</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Phosphorus in flowing waters</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil derjenigen Messstellen an, an denen die gewässertypischen Orientierungswerte des guten ökologischen Zustands für Phosphor in Fließgewässern eingehalten werden.</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>The indicator specifies the share of monitoring points at which the water-body typical benchmark values of good ecological status regarding phosphorus in flowing waters are not exceeded.</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>Phosphor gelangt in Deutschland heute etwa je zur Hälfte aus der Landwirtschaft und aus Städten (kommunale Kläranlagen und Regenwasserabläufe) in die Fließgewässer. Es ist neben der Belastung durch Nitrat einer der Gründe, warum es in Flüssen, Seen und Meeren zu einer Überversorgung mit Nährstoffen (Eutrophierung) kommt. Folgen davon sind Algenwachstum, Sauerstoffarmut bis hin zum Fischsterben oder zum Aufkommen giftiger Blaualgen. Daher wurde als Ziel für das Jahr 2030 festgelegt, dass die gewässertypischen Orientierungswerte, die in der Oberflächengewässerverordnung angegeben sind, an allen Messstellen eingehalten oder unterschritten werden.</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>Roughly half of the phosphorous entering flowing waters in Germany today originates from agriculture, and the other half comes from cities (municipal water treatment plants and rainwater run-offs). In addition to nitrate pollution, it is one of the causes of an oversupply of nutrients in rivers, lakes and seas (eutrophication). The consequences of this are algae growth, oxygen depletion all the way to fish kills or the growth of poisonous blue-green algae. For this reason, meeting benchmark values for specific types of water bodies, as specified in the Ordinance on the Protection of Surface Waters, at all monitoring points has been defined as a goal for 2030.</t>
+        </is>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>Phosphor gelangt im Regelfall durch den Eintrag von Phosphaten in Gewässer. Die Phosphorbelastung der Flüsse wird von den Bundesländern im Rahmen der Überwachung zur EG-Wasserrahmenrichtlinie gemessen. Für den Indikator werden die Daten des Überblicksmessnetzes genutzt, das aus etwa 250 Messstellen besteht. Die Messstellen wurden meist in den Hauptströmen der großen Flüsse und an Einmündungen bedeutender Nebengewässer eingerichtet. Die Zusammenstellung der Daten erfolgt durch das Umweltbundesamt nach Angaben der Bund/Länder-Arbeitsgemeinschaft Wasser (LAWA).
+In den Indikator geht ein, ob der jeweils gültige Orientierungswert an einer gegebenen Messstelle im Jahresmittel eingehalten oder unterschritten, jedoch nicht wie weit dieser bei einer Überschreitung verfehlt wurde. Die Angaben zu den einzelnen Messstellen werden zusammengefasst dargestellt. Entsprechend hängt der Wert des Indikators von der Anzahl und der Repräsentativität der Verteilung der Messstellen ab. Seen und andere Stillgewässer sind durch den Indikator nicht abgedeckt.
+Da die Gewässertypen unterschiedlich empfindlich auf Nährstoffe wie Phosphor reagieren, gelten für die Messstellen unterschiedliche Orientierungswerte: Der überwiegende Teil der Fließgewässer hat den Orientierungswert 0,1 Milligramm Phosphor pro Liter. Bei organisch geprägten Flüssen beträgt der Orientierungswert 0,15 Milligramm pro Liter, bei Marschgewässern 0,3 Milligramm pro Liter und bei tidebeeinflussten Übergangsgewässern 0,045 Milligramm pro Liter.
+Im Jahr 2020 lag der Jahresmittelwert bei 41,7 % der Messstellen an Flüssen unter dem Orientierungswert. 52,6 % der Messstellen wiesen mittlere Konzentrationen, das heißt bis zum Doppelten des Orientierungswertes auf, und 2,9 % der Messstellen lagen im Bereich bis zum Vierfachen dieses Wertes (nicht in der Grafik dargestellt). Die übrigen 2,8 % wiesen noch höhere Konzentrationen auf.
+Im Zeitverlauf hat sich der Anteil der Messstellen, die den Orientierungswert einhalten, kontinuierlich erhöht und seit 1990 mehr als verdoppelt. Der Prozentsatz der Messstellen mit Konzentrationen bis zum Doppelten des Orientierungswertes hat sich jedoch im gleichen Zeitraum fast verdreifacht. Im Gegenzug verzeichnete der Anteil von Messstellen mit noch höheren Werten seit Anfang der 1990er-Jahre einen deutlichen Rückgang. Insbesondere die Einführung phosphatfreier Waschmittel und die Einführung von Grenzwerten für die Einleitung von geklärtem Abwasser haben die Belastung deutlich verringert.
+Betrachtet man den durchschnittlichen Verlauf der letzten fünf Jahre, so hat sich der Indikator leicht positiv entwickelt. Das Ziel, den jeweils vorgegebenen Grenzwert an allen Messstellen einzuhalten, wurde weiterhin deutlich verfehlt.
+Die Indikatoren zu Phosphor- und Nitratgehalt (6.1.a und 6.1.b) decken zwei wesentliche Aspekte der Gewässerqualität ab. Daneben gibt es jedoch noch weitere Komponenten, wie zum Beispiel die Ausstattung der Gewässer mit naturnahen Lebensräumen und die Belastung mit Schadstoffen (wie Pflanzenschutzmittel, Metalle, Arzneimittel), die ebenfalls für die Gewässerqualität relevant sind.</t>
+        </is>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>Phosphorous generally enters a body of water through the input of phosphates. The phosphorous pollution of rivers is measured by the Länder as part of the monitoring conducted for the EU Water Framework Directive. The data for the indicator come from the monitoring network, which consists of about 250 monitoring points. In most cases, the monitoring points were installed in the main currents of the large rivers and at the junction of important confluents. The data are compiled by the German Environment Agency based on information from the German Working Group on Water Issues of the Länder and the Federal Government represented by the Federal Environment Ministry (LAWA).
+The indicator shows whether the annual average of the values measured at a particular monitoring point was equal to, or lower than, the benchmark value. However, it does not show by how far the target was surpassed if it was exceeded. The information about the individual monitoring points is presented in a summarised form. Accordingly, the value of the indicator is strongly dependent on the number of monitoring points and the representative status of their distribution. Lakes and other standing waters are not covered by the indicator.
+Since the different bodies of water react with differing levels of sensitivity to nutrients such as phosphorous, the precise benchmark values vary. The vast majority of flowing waters use the benchmark value of 0.1 mg/l of phosphorous. In organic substrate-dominated rivers, the benchmark value is 0.15 mg/l, for marshland streams 0.3 mg/l and for transitional waters influenced by tidal movement 0.045 mg/l.
+In 2020, the annual average of values measured was below the benchmark value at 41.7 % of the monitoring points at rivers. 52.6 % of the monitoring points showed average concentrations of up to twice the benchmark value, while 2.9 % of the monitoring points were in the range of up to four times the benchmark value (not shown in the chart). The remaining 2.8 % showed even higher concentrations.
+When viewed over time, the proportion of monitoring points not exceeding the benchmark value has continuously increased and has doubled since 1990. However, the percentage rate of monitoring points with concentrations of up to twice the benchmark value almost tripled during the same period. Conversely, the share of monitoring points with even higher values has fallen significantly since the early 1990s. The level of pollution has been reduced significantly thanks in particular to the introduction of phosphate-free detergents and the specification of threshold values for the discharge of treated waste water.
+If one examines the average trend of the last five years, the indicator has improved to a minor degree. The goal of not exceeding the specified threshold value at all monitoring points cannot be achieved if the current trend continues.
+The indicators of phosphorous and nitrate levels (6.1.a and 6.1.b) cover two key aspects of water quality. However, there are other, additional components such as the existence of natural habitats around water bodies and the exposure to pollutants (such as pesticides, metals, medicines), all of which are also relevant to water quality.</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>6.3.2</t>
+        </is>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N23" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -613,6 +2417,79 @@
           <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B01_P01</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>06.1.b</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Nitrat im Grundwasser</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Nitrate in groundwater</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der Messstellen an, an denen der Grenzwert von 50 Milligramm pro Liter Nitrat im Grundwasser im Jahresmittel eingehalten wird.</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the share of monitoring points at which the threshold value of 50 mg/l of nitrate in the groundwater is not exceeded on an annual average.</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>Grundwasser ist ein wesentliches Element des Naturhaushaltes. Es ist Teil des Wasserkreislaufs und erfüllt wichtige ökologische Funktionen. Grundwasser ist auch die wichtigste Trinkwasserressource Deutschlands. Erhöhte Nitratgehalte beeinträchtigen jedoch die Ökologie der Gewässer. Der Schwellenwert von 50 Milligramm Nitrat pro Liter im Grundwasser, der in der Grundwasserverordnung sowie der Oberflächengewässerverordnung angegeben ist, soll daher an allen Messstellen bis 2030 eingehalten werden.</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>Groundwater is a key element of the ecosystem. It is part of the water cycle and performs important ecological functions. Groundwater is also Germany’s most important drinking water resource. However, elevated nitrate contents impair the ecology of water bodies. The threshold value of 50 mg/l of nitrate in groundwater, as specified in the Groundwater Ordinance and in the Ordinance on the Protection of Surface Waters, should therefore not be exceeded at any monitoring point by 2030.</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>Der Nitratgehalt im Grundwasser wird von den Bundesländern für die Berichterstattung über den Zustand des Grundwassers in Deutschland an die Europäische Umweltagentur (EUA) erhoben. Die dazu verwendeten Messstellen ergeben zusammen das sogenannte EUA-Messnetz. Das EUA-Messstellennetz umfasst 1 214 Messstellen und bildet damit Deutschland repräsentativ ab. Die Daten werden vom Umweltbundesamt nach Angaben der Bund/Länder-Arbeitsgemeinschaft Wasser (LAWA) zusammengestellt.
+Wie auch der Indikator zum Phosphorgehalt in Fließgewässern gibt dieser Indikator keinen Hinweis auf den Umfang der Grenzwertüber- bzw. -unterschreitung. Der Indikator erfasst an wie vielen aller Messstellen der vorgegebene Schwellenwert eingehalten wurde. Die Nitratbelastung kann an einigen Messstellen stark zurückgegangen sein. Sollte sie jedoch weiterhin oberhalb des Schwellenwertes von 50 Milligramm pro Liter liegen, spiegelt sich die Reduktion nicht im Indikator wider. Gleiches gilt für steigende Nitratbelastungen, die jedoch weiterhin unter dem Grenzwert verbleiben. Ebenso muss bei der Interpretation berücksichtigt werden, dass Maßnahmen zur Verringerung der Nitratbelastung möglicherweise erst verzögert Wirkung zeigen, da die Sickerzeit von der Oberfläche bis in das Grundwasser mehrere Jahre betragen kann.
+Die natürliche Vorbelastung liegt für Nitrat zwischen 0 und maximal 10 Milligramm pro Liter. Gehalte zwischen 10 und 25 Milligramm pro Liter sind Anzeichen einer geringen bis mittleren Belastung. Konzentrationen zwischen 25 und 50 Milligramm pro Liter zeigen eine starke Grundwasserbelastung an. Wird der Schwellenwert der Grundwasserverordnung von 50 Milligramm pro Liter, der auch diesem Indikator zugrunde liegt, überschritten, ist das Grundwasser in einem schlechten chemischen Zustand und kann nicht ohne Aufbereitung als Trinkwasser verwendet werden.
+Im Jahr 2020 wurde der Grenzwert von unter 50 Milligramm pro Liter an Nitrat an 84,1 % aller Messstellen eingehalten. Seit dem Jahr 2008 ist der Anteil der Messstellen, die diesen Grenzwert einhalten, nahezu unverändert. Damit ist das Ziel, den Grenzwert an allen Messstellen einzuhalten, nicht erreicht und auch keine Entwicklung des Indikators in diese Richtung zu erkennen. Umgekehrt wurde im Jahr 2020 der Grenzwert von 50 Milligramm pro Liter an Nitrat an 15,9 % der Grundwassermessstellen des EUA-Messnetzes überschritten. Bei 17,8 % der Messstellen lag der Nitratwert im Bereich zwischen 25 und 50 Milligramm pro Liter, was immer noch eine erhöhte Belastung anzeigt. Auch dieser Anteil blieb über die Jahre nahezu gleich.
+Die Belastung des Grundwassers mit Nitrat entsteht in erster Linie durch Auswaschung von Nitrat aus verschiedenen stickstoffhaltigen Düngemitteln. Dazu gehört neben Wirtschaftsdüngern wie Jauche oder Gülle auch der bei intensivem Ackerbau eingesetzte Mineraldünger. In den letzten Jahren werden darüber hinaus Gärreste, die als Nebenprodukt von Biogasanlagen entstehen, vermehrt als Dünger in der Landwirtschaft eingesetzt. All dies kann bei einer nicht am Bedarf der Pflanzen orientierten Düngung zu höheren Nitratwerten im Grundwasser beitragen. Somit hat die Entwicklung des Indikators 2.1.a „Stickstoffüberschuss der Landwirtschaft“ einen Einfluss auf die Nitratbelastung des Grundwassers.
+Um den konkreten Einfluss der landwirtschaftlichen Nutzung auf die Nitratbelastung der Gewässer zu untersuchen, gibt es eine separate Nitrat-Berichterstattung an die Europäische Union (EU). Für diese Berichterstattung werden aus dem EUA-Messnetz diejenigen Messstellen ausgewählt, in deren Einzugsgebiet die landwirtschaftliche Nutzung dominiert. In diesem speziellen Messnetz liegt die Nitratbelastung dementsprechend über dem Durchschnittswert des Indikators 6.1.b.</t>
+        </is>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>The nitrate content of groundwater is recorded by the Länder for the purpose of reporting the condition of groundwater in Germany to the European Environment Agency (EEA). The monitoring points used for this purpose are combined in the “EEA monitoring network”. The EEA monitoring network comprises a total of 1,214 monitoring sites and provides a representative picture of Germany. The data are summarised by the German Environment Agency based on information from the German Working Group on Water Issues of the Länder and the Federal Government represented by the Federal Environment Ministry (LAWA).
+Like the indicator of phosphorus content in flowing waters, the nitrate indicator does not reveal how far above or below the threshold the readings have been. The indicator merely records how many of all the monitoring sites complied with the prescribed threshold. The nitrate load may have fallen sharply at some monitoring sites. Nevertheless, if the concentration remains above the maximum of 50 mg/l, the reduction will not be reflected in the indicator. The same applies to nitrate loads that have increased but are still below the threshold. The interpretation must also take into account that measures to reduce nitrate pollution may have a delayed effect, since the period of infiltration from the surface to the groundwater can take several years.
+The naturally occurring level of nitrate lies between 0 and 10 mg/l. Concentrations between 10 and 25 mg/l indicate minor to medium loads. Concentrations between 25 and 50 milligrams per liter indicate severe groundwater contamination. Figures above the threshold of 50 mg/l which is set in the Ground Water Ordinance and which also underlies this indicator mean that the groundwater has a poor chemical status and cannot be used as drinking water without treatment.
+In 2020 the target of less than 50 mg of nitrate per litre was met at 84.1 % of all monitoring sites. Since 2008, the percentage of monitoring sites at which this target is met has remained virtually unchanged. This means that the goal of recording concentrations below the threshold at all monitoring sites has not been achieved and that the indicator value is not recognisably moving in that direction. Conversely, in 2020 the nitrate threshold of 50 mg/l was exceeded at 15.9 % of the groundwater monitoring sites in the EEA monitoring network. At 17.8 % of the monitoring sites the nitrate value lay between 25 and 50 mg/l, which still indicates an elevated degree of pollution. This percentage rate also remained virtually unchanged over the years.
+The pollution of groundwater with nitrate is caused primarily by the leaching of nitrate from various nitrogen fertilisers. Besides farmyard manures such as liquid manure and slurry, these also include the mineral fertilisers that are used in intensive crop-farming. The last few years have also seen an increase in the use of digestate, which occurs as a by-product of biogas power plants, as an agricultural fertiliser. All of these things can contribute to higher nitrate values in groundwater if fertilisation is not matched to specific crop requirements. Accordingly, the development of indicator 2.1.a “Nitrogen surplus in agriculture” influences the nitrate load in groundwater.
+In order to measure the actual influence of agricultural activity on the nitrate load of waters, there is a separate system of nitrate reporting to the EU. For this report, the monitoring sites for waters in predominantly agricultural catchment areas are selected from the EEA site network. The nitrate load in that specific part of the monitoring network is therefore above the average for indicator 6.1.b.</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
+          <t>6.3.2</t>
+        </is>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N24" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -620,6 +2497,78 @@
           <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Z06_B02_P01</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>06.2.a,b</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Entwicklungszusammenarbeit für Trinkwasser- und Sanitärversorgung</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Development cooperation for access to drinking water and sanitation</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren stellen die Anzahl der Menschen dar, die im jeweiligen Berichtsjahr direkt durch deutsche Unterstützung Neuzugang oder verbesserten Zugang zu Trinkwasser- (Indikator 6.2.a) und/oder Sanitärversorgung (Indikator 6.2.b) erhalten haben.</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of people in the relevant reference year who obtained first-time or improved access to drinking water (6.2.a) and/or sanitation (6.2.b) as a direct result of German support.</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>Eine unzureichende Versorgung mit Trinkwasser und sanitären Einrichtungen hat weitreichende Auswirkungen auf die Ernährung und die Gesundheit des Menschen. Das Ziel der Bundesregierung ist daher, dass bis zum Jahr 2030 jährlich zehn Millionen Menschen weltweit mit deutscher Unterstützung Zugang zu Trinkwasser- und Sanitärversorgung erhalten. Dieses Ziel wurde ab dem Berichtsjahr 2019 weiter ausdifferenziert: so sollen bis 2030 jährlich sechs Millionen Menschen weltweit mit deutscher Unterstützung direkten Zugang zur Trinkwasserversorgung bzw. vier Millionen Menschen weltweit mit deutscher Unterstützung direkten Zugang zur Sanitärversorgung erhalten.</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>Inadequate provision of drinking water and sanitary facilities has far-reaching consequences for human nutrition and health. The target of the Federal Government is that ten million people worldwide should, with German support, obtain access to drinking water and sanitation each year up to 2030. This target has now been further refined, and now six million people worldwide are to obtain access to drinking water with German support each year until 2030, while four million people in the world are to obtain access to sanitation each year with German support.</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren basieren auf Angaben der Kreditanstalt für Wiederaufbau (KfW) und erfassen nur die durch Förderung von ihr erreichten Menschen. Maßnahmen weiterer Akteure (zum Beispiel Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH, Bundesländer, private Akteure) werden nicht berücksichtigt. Die Indikatoren stützen sich ausschließlich auf Plangrößen für neue Finanzierungszusagen für Projekte im Bereich Trinkwasser- und Sanitärversorgung zum Zeitpunkt der Vorlage des Programmvorschlags an das Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ). Die KfW schätzt die Anzahl an Personen, die zukünftig, das heißt nach Fertigstellung der Bauvorhaben, einen neuen oder verbesserten Zugang zu Trinkwasser- und Sanitärversorgung erhalten haben werden oder von den bereitgestellten Kapazitäten profitieren können. Ob die Menschen tatsächlich erreicht werden, ist erst nach Inbetriebnahme der Infrastrukturen konkret abschätzbar, was hier nicht abgebildet wird. Da eine Person sowohl einen neuen oder verbesserten Zugang zur Trinkwasser- als auch zur Sanitärversorgung erhalten kann, sind Doppelzählungen zwischen beiden Indikatoren und im Zeitablauf möglich. Die von der KfW zugesagten Mittel sind Zuschüsse und Darlehen – finanziert aus dem Bundeshaushalt – sowie am Kapitalmarkt aufgenommene Mittel. Empfänger sind in der Regel Entwicklungs- und Schwellenländer, sodass dieser Indikator in Beziehung zum Indikator 17.1 „Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen“ steht.
+In 2019 wurde die Erhebungsmethodik überarbeitet. Während zuvor direkt (zum Beispiel mittels eines Hausanschlusses) als auch indirekt erreichte Menschen (zum Beispiel die gesamte Bevölkerung eines Landes, das durch ein Sektorreformprogramm unterstützt wird) gezählt wurden, werden seitdem nur direkt erreichte Personen erfasst. So wurden in 2017 19,1 Millionen Menschen (der insgesamt 28,6 Millionen erreichten Menschen) direkt erreicht; in 2018 waren es 15,2 Millionen Menschen (der insgesamt 60,3 Millionen erreichten Menschen). Eine weitere Veränderung liegt in der anteiligen Berücksichtigung der erreichten Menschen entsprechend dem deutschen Finanzierungsanteil von Maßnahmen. So werden Beiträge von anderen Gebern oder Eigenanstrengungen des Empfängerlandes nicht berücksichtigt. Auch werden zum Beispiel keine Energieeffizienzmaßnahmen, Verbesserungen von Betriebsabläufen oder Erneuerungen von Pumpstationen gezählt, da diese nicht unmittelbar zu einer Verbesserung der Versorgung der Zielgruppe führen.
+In den vergangenen Jahren waren die Plangrößen der Menschen, die mithilfe deutscher Unterstützung Zugang zu Trinkwasser- und Sanitärversorgung erlangen sollten, stets oberhalb des gesetzten Ziels von zehn Millionen Menschen. Nach der überarbeiteten Methodik liegt die Plangröße der erreichten Personen für das Jahr 2020 mit Neu- oder verbessertem Zugang zu Trinkwasserversorgung bei 10,9 Millionen Menschen bzw. 1,8 Millionen Menschen für Abwasser- und Sanitärversorgung. Das Ziel des Indikators 6.2.a wurde für das Jahr 2020 folglich erreicht, während der Zielwert zum Indikator 6.2.b deutlich unterschritten wurde. Im Vorjahr waren es hingegen noch über vier Millionen erreichte Menschen im Bereich Sanitärversorgung.
+Die Zusagen durch die KfW im Bereich Wasser- und Sanitärversorgung sowie Abwassermanagement haben sich von 2012 bis 2018 um 26,0 % auf über eine Milliarde Euro erhöht. Diese sind jedoch 2019 und 2020 auf zuletzt 677,1 Millionen Euro zurückgegangen. Im Gegensatz zu den Zusagen verringerten sich die Auszahlungen, die durch die KfW erfolgten, seit 2015 kontinuierlich auf 432,1 Millionen Euro für das Jahr 2020. Ein Grund hierfür liegt im zeitlichen Verzug zwischen Zusagen und Auszahlungen.</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>The indicator is based on data from the Kreditanstalt für Wiederaufbau (KfW) and only measures the number of people reached through its support. Measures taken by other parties, such as the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ), Länder and private aid agencies, are not taken into account. The indicator is based exclusively on the planned scope of new funding commitments for drinking water and sanitation projects at the time of submission of the programme proposal to the Federal Ministry for Economic Cooperation and Development. The KfW assesses the number of people who, following completion of the construction projects, will have obtained first-time or improved access to drinking water and sanitation or will be able to benefit from the constructed facilities. Whether people are actually reached cannot be estimated in practice until the infrastructure has become operational, and this is not what the indicator shows. Since a person may obtain first-time or improved access to both drinking water and sanitation, double counting is possible between the two indicators and between two years. The funding granted by the KfW comprises grants and loans financed from the federal budget and funds raised in the financial markets. The recipients are generally developing and emerging countries, which means that this indicator is related to indicator 17.1 “Official development assistance as a proportion of gross national income”.
+In 2019 the data collection method was revised. Whereas the indicator previously counted people who were reached either directly, e.g. by domestic connections, or indirectly, e.g. the entire population of a country supported by a sectoral reform programme, it now covers only those people who are reached directly. In 2017, for instance, of the total of 28.6 million recorded beneficiaries, 19.1 million were reached directly. In 2018, 15.2 million out of a total of 60.3 million were direct beneficiaries. Another change lies in the fact that the figure is based only on the proportion of beneficiaries who have been reached by German-funded share of measures. Contributions made by other donors and the efforts of the host country itself are not counted. Similarly, no consideration is given to energy-efficiency measures, improvements to operational processes or renewals of pumping stations, since these do not lead directly to improved access for the target group.
+In recent years, the planned numbers of people who were to obtain access to drinking water and sanitation with German support have always been above the target of ten million. Under the revised methodology, the planned numbers of people who were to obtain first-time or improved access in 2020 were about 10.9 million for drinking water and 1.8 million for wastewater and sanitation. The target of the indicator 6.2.a was achieved for the year 2020, however, the target value for indicator 6.2.b was significantly below the intended level. In the preceding year, more than four million people were reached by German support and have received access to sanitation facilities.
+The commitments made by the KfW with regard to drinking water and sanitation rose by 26.0 % from 2012 to 2018 to more than 1 billion euros. In 2019 and 2020, these decreased to 677.1 million euros. By contrast with the commitments, disbursements have steadily declined since 2015 to the most recent figure of 432.1 million euros. One of the main reasons for this lies in the time lag between commitments and payments.</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr">
+        <is>
+          <t>6.a.1</t>
+        </is>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>45674</v>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -627,6 +2576,84 @@
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B01_P01</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>07.1.a,b</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieproduktivität und Primärenergieverbrauch</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>Final energy productivity and primary energy consumption</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator „Endenergieproduktivität“ stellt die Entwicklung der Wertschöpfung je eingesetzte Einheit Endenergie dar. Der Begriff „Endenergie“ bezieht sich dabei auf den Teil der Energie, der energetisch als thermische oder elektrische Energie zur Herstellung von Gütern oder zur Nutzung in den privaten Haushalten zur Verfügung steht.
+Der Indikator „Primärenergieverbrauch“ gibt an, wie viel Energie in einem Land einerseits in den Energiesektoren zur Umwandlung sowie andererseits in der Produktion, den privaten Haushalten und im Verkehr verbraucht wurde.</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>The indicator “Final energy productivity” shows the trend of value added per unit of final energy used. The concept of “final energy” refers to the part of the energy that is used energetically in terms of thermal or electric energy in the production sectors for the manufacturing of goods or by households.
+The indicator ”Primary energy consumption” specifies how much energy was consumed by a country in the energy sectors for conversion purposes on the one hand, and by production activities, transport and households on the other.</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>Die Senkung des Energieverbrauchs durch eine Steigerung der Energieeffizienz ist neben dem Ausbau erneuerbarer Energien die zweite tragende Säule der Energiewende. Ziel ist es, mit möglichst wenig Energie viel wirtschaftliche Leistung zu erreichen. Energieeinsparung schont Klima und Umwelt, trägt zur Verbesserung der Versorgungssicherheit und zur Wettbewerbsfähigkeit der Industrie bei.
+Dem Energiekonzept der Bundesregierung zufolge soll die Endenergieproduktivität in den Jahren 2008 bis 2050 jährlich um 2,1 % bzw. um insgesamt 139 % bis 2050 erhöht werden. Gleichzeitig soll sich der Primärenergieverbrauch bis 2020 um 20 %, bis 2030 um 30 % und bis 2050 um 50 % gegenüber dem Jahr 2008 verringern.</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>Along with the expansion of renewable energies, the reduction of energy consumption through increased energy efficiency represents the second supporting pillar of the energy transition. The goal is to achieve a high level of economic output while using as little energy as possible. Saving energy protects the climate and the environment, it helps to improve the security of supply and the industrial competitiveness.
+According to the Federal Government’s energy concept, final energy productivity is to be increased by 2.1 % annually or 139 % in total in the period 2008 to 2050. At the same time, primary energy consumption is to be reduced by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, compared with 2008.</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>Endenergie- und Primärenergieverbrauch sind direkt miteinander verbunden. Der Endenergieverbrauch ergibt sich aus dem Primärenergieverbrauch abzüglich der Summe aus Umwandlungs-, Fackel- und Leitungsverlusten sowie der statistischen Differenz.
+Der Primärenergieverbrauch ist die Summe aus den im Inland gewonnenen Primärenergieträgern, Vorratsentnahmen und sämtlichen importierten Energieträgern abzüglich der Bevorratung, Energieexporte und Hochseebunkerungen. Wesentliche Grundlage für die Berechnung des Energieverbrauchs sind die Daten der Energiebilanzen der Arbeitsgemeinschaft Energiebilanzen (AGEB), welche um Daten aus weiteren Quellen ergänzt werden.
+Die Endenergieproduktivität gibt an, wie hoch die Wertschöpfung je eingesetzte Einheit Endenergie ist. Sie stellt ein Maß für die Energieeffizienz bei der Herstellung von Gütern und im Energieeinsatz der privaten Haushalte dar. Einschätzungen zur Energieeffizienz in den Umwandlungsbereichen (Wirkungsgrad der Kraftwerke) oder in der Energieübertragung und -speicherung (Beseitigung von Leckagen, bessere Wärmedämmung usw.) lassen sich anhand des Indikators jedoch nicht direkt ableiten.
+Die Endenergieproduktivität hat sich nach vorläufigen Ergebnissen im Zeitraum 2008 bis 2021 um 19,5 % erhöht, was einem durchschnittlichen jährlichen Anstieg von rund 1,4 % entspricht. Somit wird das Ziel eines jährlichen Anstieges von durchschnittlich 2,1 % bis 2050 zum jetzigen Zeitpunkt noch nicht erreicht. Gegenüber dem Vorjahr ist die Energieproduktivität im Jahr 2021 um 0,6 Prozentpunkte gesunken. Bei Fortsetzung der Entwicklung der letzten fünf Jahre wird bis zum Jahr 2050 voraussichtlich eine Erhöhung der Endenergieproduktivität um 73,2 % erreicht. Der Zielwert würde also um 65,8 Prozentpunkte verfehlt. Um das Ziel für 2050 noch erreichen zu können, wäre fortan ein durchschnittlicher jährlicher Anstieg der Endenergieproduktivität um 2,4 % nötig.
+Der Primärenergieverbrauch ist im Jahr 2020 auf 82,7 % gesunken und hat damit das Ziel einer Reduktion um 20 % bis zum Jahr 2020 nicht erreicht. Im Jahr 2021 stieg der Primärenergieverbrauch nach vorläufigen Ergebnissen erneut um 3,6 Prozentpunkte gegenüber 2020 an. Der gesamte Rückgang des Primärenergieverbrauchs im Jahr 2021 gegenüber 2008 beläuft sich somit nur noch auf 13,7 %. Bei einer Fortsetzung der Entwicklung würde die vorgesehene Reduktion des Primärenergieverbrauchs um 30 % bis 2030 nicht erreicht.</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>Final energy consumption and primary energy consumption are directly related to one another. Final energy consumption is primary energy consumption less total losses from transformation, flaring and distribution and the statistical difference.
+Primary energy consumption is the sum of domestically extracted primary energy sources, use of stocks and all imported energy sources minus storage, energy exports and marine bunkers. The main basis for the calculation of energy consumption comprises the data on energy balances from the Energy Balance Association (AGEB), which are supplemented with data from other sources.
+Final energy productivity means how much added value accrues from each unit of final energy used. It constitutes a measurement of energy efficiency in the production of goods and in household energy use. However, estimates of energy efficiency in the transformation process (plant efficiency) or in the transmission of energy (elimination of leakages, improved heat insulation, etc.) cannot be directly inferred from the indicator.
+According to preliminary results, final energy productivity in the period 2008 to 2021 increased by 19.5 %, equating to an average annual increase of 1.4 %. This means that the goal of an annual increase of 2.1 % on average up to 2050 has not yet been achieved. In the year-on-year comparison, energy productivity for 2021 has even fallen by 0.6 percentage points. If the development of the preceding five years continues, the final energy productivity will presumably increase by 73.2 % until 2050. Thus, the target value would be missed by 65.8 percentage points. An average annual increase of final energy production by 2.4 % is required in order to meet the target set for 2050.
+Primary energy consumption decreased to 82.7 % in 2020 and missed the reduction target of 20 % by 2020. According to preliminary results, the primary energy consumption increased in 2021 by 3.6 % percentage points in comparison to 2020. The total reduction of primary energy consumption fell by 13.7 % in the period from 2008 to 2021. If development remains the same as in the previous years, the target value of 30 % by 2030 will not be achieved.</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t>7.3.1</t>
+        </is>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>45674</v>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -634,6 +2661,82 @@
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>07.2.a</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>Share of renewable energies in gross final energy consumption</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator setzt die Erzeugung erneuerbarer Energien in Relation zum Brutto-Endenergieverbrauch. Der Brutto-Endenergieverbrauch umfasst den Energieverbrauch beim Letztverbraucher, die Übertragungsverluste sowie den Eigenverbrauch der Energiegewinnungsbereiche.</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>The indicator expresses the generation of renewable energies relative to gross final energy consumption. Gross final energy consumption covers energy consumption by end consumers and transmission losses as well as the self-consumption of the energy generation sector.</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>Die Reserven fossiler Energieträger wie Öl und Gas sind begrenzt. Darüber hinaus ist ihre Nutzung mit der Emission von Treibhausgasen verbunden. Ein Umstieg auf erneuerbare Energien, die sich als natürliche Energiequellen ständig regenerieren, verringert die energetisch bedingten Emissionen und folglich das Ausmaß des Klimawandels. Zusätzlich werden die Abhängigkeit von Energieimporten und der Ressourcenverbrauch gemindert sowie technische Innovationen gefördert. Ziel der Bundesregierung ist es daher, den Anteil der erneuerbaren Energien am Brutto-Endenergieverbrauch bis zum Jahr 2020 auf 18 %, bis 2030 auf 30 %, bis 2040 auf 45 % und bis 2050 auf 60 % zu erhöhen.</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>The reserves of fossil fuels such as oil and gas are limited, and their use is associated with greenhouse gas emissions. Switching to renewable energies (natural energy sources that constantly regenerate) serves to reduce energy-related emissions and hence the extent of climate change. In addition, dependency on energy imports and the consumption of resources is reduced as well as technical innovations are promoted. For this reason, the goal of the Federal Government is to increase the share of renewable energy in gross final energy consumption to 18 % by 2020, to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050.</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>Bei diesem Indikator werden der aus erneuerbaren Energiequellen erzeugte Strom (unter anderem aus Wasserkraft, Windkraft auf Land und auf See, Solarenergie) und die Wärme (unter anderem aus Geothermie, Biomasse oder biogenen Abfällen) sowie regenerative Kraftstoffe zu allen in Deutschland verbrauchten Energieträgern in Beziehung gesetzt. Dazu zählen neben den erneuerbaren Energien auch importierter Strom und fossile Energieträger wie Braun- und Steinkohle, Öl und Gas.
+Der Indikator wird von der Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat) berechnet. Im Unterschied zur Berichterstattung gemäß der Erneuerbare-Energien-Richtlinie (Richtlinie 2009/28/EG) der Europäischen Union (EU), die aufgrund des jährlich unterschiedlichen Dargebots bei Wasser- und Windkraft einen Durchschnittswert über mehrere Jahre vorsieht, werden für diesen Indikator die tatsächlich erzeugten Strommengen (Wind- und Wasserkraft) berücksichtigt (Energiekonzept der Bundesregierung).
+Bei der Berechnungsmethodik des Indikators ist zu beachten, dass Im- und Exporte von Strom nicht vollumfänglich im Energieverbrauch erneuerbarer Energiequellen berücksichtigt sind, wohingegen diese beim Brutto-Endenergieverbrauch mit eingerechnet werden. Daher kann der Indikator den Anteil der erneuerbaren Energien am Brutto-Endenergieverbrauch je nach Außenhandelssaldo über- oder unterschätzen. Bei einem positiven Netto-Exportsaldo von Strom – wie es seit 2001 der Fall ist – läge demnach der tatsächliche Anteil erneuerbarer Energien unter dem durch den Indikator dargestellten Niveau.
+Das Ziel für das Jahr 2020, einen Anteil von 18 % erneuerbarer Energien am Brutto-Endenergieverbrauch zu erreichen, wurde im Jahr 2020 mit 19,7 % erreicht. Im Jahr 2021 ging der Anteil erneuerbarer Energien allerdings auf 19,2 % zurück und bewegt sich damit in der kurzfristigen Veränderung nicht auf das nächste Ziel – im Jahr 2030 30 % zu erreichen – zu. Im längerfristigen Vergleich seit dem Jahr 2005 hat sich der Wert dieses Indikators von ursprünglich 7,1 % allerdings deutlich erhöht.
+Der Einsatz erneuerbarer Energien variiert je nach Bereich stark. In 2021 betrug der Anteil erneuerbarer Energien am Bruttostromverbrauch 41,1 %, am Endenergieverbrauch für Wärme und Kälte 16,5 % und im Verkehr 6,8 %. Bezogen auf das Jahr 2020 (aktuellere Daten lagen bei Redaktionsschluss noch nicht vor) spielten Biomasse mit einem Anteil von 58,0 % sowie Windkraft mit einem Anteil von 24,0 % am Primärenergieverbrauch aus erneuerbaren Energiequellen die größte Rolle unter den eingesetzten Energieträgern.
+Der Indikator weist Querbezüge zu den Indikatoren 13.1.a „Treibhausgasemissionen“, 3.2.a „Emissionen von Luftschadstoffen“ und 7.2.b „Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch“ auf.</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>For this indicator, the electricity generated from renewable sources, which include hydro power, onshore and offshore wind power and solar power, the heat generated from sources such as geothermal energy, biomass and biogenic waste and the consumption of regenerative motor fuels are presented as a percentage of the energy generated from all sources that is consumed in Germany. Besides renewables, these sources also include imported electricity and fossil fuels such as coal and lignite, oil and gas.
+The indicator is calculated by AGEE-Stat, the Working Group on Renewable Energy Statistics. In contrast to the reporting under the Renewable Energy Directive of the European Union (Directive 2009/28/EC), uses an average value for hydro and wind power over several years to smoothen the effects of varying supply, this indicator takes account of the volumes of electricity actually generated from wind and hydro power (German Government Energy Concept).
+With regard to the method used to calculate the indicator, it should be noted that imports and exports of electricity are not included in full in the consumption of energy from renewable sources, whereas they are factored into gross final energy consumption. Accordingly, the indicator may overstate or understate the ratio of energy from renewable sources to gross final energy consumption, depending on the balance of trade. If there were an export surplus for electricity – as has been the case since 2001 – the actual percentage of renewables in the energy mix would be lower than the level represented by the indicator.
+The intended share of renewable energies in gross final energy consumption for 2020 was achieved by 19.7 %. Thus, the target value of 18 % by 2020 was exceeded. In 2021, the share of renewable energies decreased to 19.2 % and is not heading towards the upcoming target value of 30 % by 2030. However, the indicator shows a significant increase long-term (2005: 7.1 %).
+The use of renewables varies widely between sectors. In 2021, the share accounted for 41.1 % of gross electricity generation, 16.5 % of final energy consumption for heating and cooling and 6.8 % in the transport sector. Among renewable energies, biomass, with a share of 58.0 % and wind power, which accounts for 24.0 %, play the greatest part in primary energy consumption in 2020 (more recent data was not available at the time of going to press).
+The indicator has cross-references to indicators 3.2.a “Emissions of air pollutants”, 7.2.b “Share of electricity from renewable sources in gross electricity consumption” and 13.1.a “Greenhouse gas emissions”.</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t>7.2.1</t>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>45506</v>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -641,6 +2744,82 @@
           <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Z07_B02_P01</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>07.2.b</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch wieder.</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>The indicator reflects the share of electricity from renewable energy sources in gross electricity consumption.</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>Ein Umstieg auf erneuerbare Energien, die sich als natürliche Energiequellen ständig regenerieren, kann den Bedarf an fossilen Energieträgern verringern. Dadurch würde sowohl die Abhängigkeit von Importen konventioneller Energieträger reduziert als auch der Ausstoß energetisch bedingter Emissionen verringert und damit das Ausmaß des Klimawandels eingedämmt. Die Bundesregierung hatte sich daher als Ziel gesetzt, den Anteil des Stroms aus erneuerbaren Energiequellen gemessen am Bruttostromverbrauch bis zum Jahr 2020 auf mindestens 35 % und bis zum Jahr 2030 auf 80 %&lt;sup&gt;1&lt;/sup&gt; zu steigern. Vor dem Jahr 2050 soll der gesamte in Deutschland erzeugte und verbrauchte Strom treibhausgasneutral sein. Das Ziel für 2030 basiert auf der Novelle des Erneuerbare-Energien-Gesetzes (EEG) 2023, nach der das „Erneuerbaren-Ziel“ auf einen höheren Bruttostrombedarf von 680 bis 750 Terawattstunden (TWh) im Jahr 2030 auszurichten ist und wovon 80 % (vorher: 65 %) aus erneuerbaren Energien stammen sollen. Im Jahr 2021 wurden 234 TWh Strom aus erneuerbaren Energien erzeugt. Gemessen am neuen „Erneuerbaren-Ziel“ wurde 2021 somit etwa ein Drittel des Bruttostrombedarfs durch Stromproduktion aus erneuerbaren Energien gedeckt.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung des Zielwertes von 65 % bis 2030 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>Switching to renewable energies (natural energy sources that constantly regenerate) can reduce the demand for fossil fuels. As a result, the dependency on imports of conventional fuels would be reduced, as would energy-related emissions, and hence the extent of climate change would be mitigated. The Federal Government had therefore set itself the aim of increasing the share of electricity from renewable sources in gross electricity consumption to at least 35 % by 2020 and at least 80 %&lt;sup&gt;1&lt;/sup&gt; by 2030. Before 2050, all electricity generated and consumed in Germany is to be greenhouse gas neutral. The target for 2030 is based on the amendment of the Renewable Energy Sources Act (EEG) in 2023, whereby the “renewable target” was realigned to a higher gross electricity consumption from 680 to 750 terawatt hours (TWh) in 2030 and where 80 % (previously 65 %) has to be covered by electricity derived from renewable energy sources. In 2021, 234 TWh electricity was derived from renewable energy sources. According to the amended renewable energy target, a third of gross electricity consumption was covered by electricity from renewable energy in the same year.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target value from 65 % by 2030 according to policy resolution in 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>Die Berechnung des Indikators erfolgt durch die Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat) auf Basis unterschiedlicher amtlicher und nicht amtlicher Quellen. Der Bruttostromverbrauch umfasst die gesamte erzeugte und importierte Strommenge abzüglich des exportierten Stroms. Er setzt sich somit aus der inländischen Stromerzeugung, dem Austauschsaldo über die Landesgrenzen, dem Eigenstromverbrauch der Kraftwerke als auch den Netzverlusten zusammen. Als erneuerbare Energiequellen gelten Windenergie, Wasserkraft, solare Strahlungsenergie, Geothermie und Biomasse einschließlich Biogas, Biomethan, Deponie- und Klärgas sowie der biologisch abbaubare Anteil von Abfällen aus Haushalten und Industrie.
+Das im Energiekonzept der Bundesregierung für 2020 angestrebte Ziel von mindestens 35 % Anteil erneuerbarer Energien am Stromverbrauch ist bereits im Jahr 2017 erreicht worden. Der Anteil ist auch in den Folgejahren bis 2020 weiterhin angestiegen und erreichte 2020 45,2 %. Diese Entwicklung wurde durch gesetzliche Maßnahmen, wie zum Beispiel das Erneuerbare-Energien-Gesetz (EEG), vorangetrieben. Das EEG verpflichtet die Netzbetreiber unter anderem, erneuerbaren Energien bei der Stromeinspeisung Vorrang zu gewähren. Im Jahr 2021 ging der Anteil der erneuerbaren Energien am Stromverbrauch auf 41,1 % zurück und bewegt sich somit kurzfristig nicht mehr auf den nächsten Zielwert für das Jahr 2030 zu. Diese kurzfristige Entwicklung ist durch eine Zunahme des Bruttostromverbrauchs und einen witterungsbedingten Rückgang der Stromerzeugung aus erneuerbaren Energien zu erklären. Allerdings würde auch eine Fortsetzung des bisherigen längerfristigen Trends der vergangenen Jahre nicht ausreichen, das Ziel für das Jahr 2030 zu erreichen. Auch das ehemalige Ziel der Regierung von 65 % Strom aus erneuerbaren Energien bis 2030 würde bei einer Fortschreibung des Trends nicht erreicht werden. Für die Zielerreichung von 80 % bis 2030 wäre ein deutlich höherer jährlicher Zuwachs als im bisherigen langfristigen Schnitt nötig. Ein zu erwartender höherer Strombedarf dürfte die Zielerreichung bis 2030 zusätzlich erschweren.
+Ähnlich wie bei Indikator 7.2.a „Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch“ ist bei der Berechnungsmethodik des Indikators zu beachten, dass der Stromaußenhandel einen direkten Einfluss auf den Nenner des Indikators, nicht aber auf den Zähler hat&lt;sup&gt;1&lt;/sup&gt;.  Unabhängig von der Elektrizitätsproduktion aus erneuerbaren Quellen reduzieren Nettoexporte den Bruttostromverbrauch, während Nettoimporte den Bruttostromverbrauch erhöhen. Deutschland ist seit dem Jahr 2003 zunehmend Nettoexporteur von Elektrizität, wobei der vorläufige Höhepunkt im Jahr 2017 erreicht wurde. Das führt dazu, dass der Indikator den tatsächlichen Anteil erneuerbarer Energien am Bruttostromverbrauch im selben Zeitraum überschätzt.
+Seit dem Jahr 2005 stieg der Anteil erneuerbarer Energien an der Stromerzeugung an, insbesondere durch die zunehmende Nutzung von Windenergie, Biomasse und Photovoltaik. Zwischen 2005 und 2021 stand einer abnehmenden Stromerzeugung aus konventionellen Energieträgern eine um 170 TWh gesteigerte Produktion von Elektrizität aus regenerativen Energiequellen gegenüber. Dabei nahm die Stromerzeugung mittels Windenergie an Land und auf See von 27,8 TWh im Jahr 2005 auf knapp 114 TWh im Jahr 2021 zu. Davon steuerte die Windenergie auf See im Jahr 2021 rund 24,4 TWh bei. Die Stromerzeugung aus Photovoltaik stieg zwischen 2005 und 2021 von 1,3 TWh auf 50,0 TWh. Die Stromerzeugung aus Biomasse hat sich im gleichen Zeitraum auf 50,4 TWh mehr als verdreifacht.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Dies ist ein rein mathematischer Effekt, der keine Korrelation zwischen Austauschsaldo und Bruttostromverbrauch darstellen soll.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>The indicator is calculated by the Working Group on Renewable Energies Statistics (AGEE-Stat) based on different official and unofficial sources. Gross electricity consumption is the sum of all generated and imported electricity minus the amount of exported electricity. It therefore comprises the domestic electricity generation, the balance of exchanges across national borders, the self-consumption of power plants as well as transmission losses. The following are considered to be renewable energy sources: wind energy, hydropower, solar radiation energy, geothermal energy and biomass including biogas, biomethane, landfill gas and gas from purification plants as well as the bio-degradable proportion of waste from households and the industry.
+The target set by the German Government in its energy policy blueprint of at least 35 % share of renewable energies on gross electricity consumption by 2020 was already achieved in 2017. In subsequent years, the share maintained an increase up to 45.2 % by 2020. This development was supported by legal measures, for instance the EEG. The EEG requires, among other things, network operators to give priority feed-in to renewable energy. In 2021, the share of renewable energy on gross energy consumption decreased to 41.1 % and, thus, is not moving into the direction of the target value for 2030 in the short-run. This can be explained by an increment in gross electricity consumption and weather-related decline in electricity production from renewable energy sources. However, even if the past long-term trend of previous years continues, the target for 2030 would be missed. Moreover, the previous target of the Federal Government to derive 65 % of the electricity from renewable resources by 2030 would be missed, if the long-term trend continues. The target of 80 % by 2030 could only be achieved if the annual increment would be significantly higher than the previous long-term average. Further, an expected increase in electricity consumption exacerbates the achievement of the target value by 2030.
+As in the case of indicator 7.2.a “Share of renewable energies in gross final energy consumption”, with regard to the calculation method it should be noted that external trade in electricity directly influences the denominator of the indicator but not the numerator&lt;sup&gt;1&lt;/sup&gt;. Regardless of whether electricity is produced from renewable sources, net exports reduce gross electricity consumption, while net imports increase gross electricity consumption. Since 2003, Germany is a net exporter of electricity and reached the preliminary highest point in 2017. As a consequence, the actual share of renewable energies in gross electricity consumption is overestimated for the respective period.
+Since 2005, the share of renewable energies in electricity generation has risen, particularly because of the increased use of wind power, photovoltaics and biomass. Between 2005 and 2021, declining electricity generation from conventional energy sources was offset by an increase of almost 170 TWh in the production of electricity from renewable sources. In particular, onshore and offshore electricity generation from wind power soared from 27.8 TWh in 2005 to 114 TWh in 2021. Offshore wind farms contributed about 24.4 TWh of the total in 2021. Electricity generation from photovoltaics rose between 2005 and 2021 from 1.3 TWh to 50.0 TWh. Electricity generation from biomass more than trebled in the same period to 50.4 TWh.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;This is a purely mathematical effect and does not refer to a correlation between the exchange balance and gross electricity consumption.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>45601</v>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -648,6 +2827,81 @@
           <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B01_P01</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>08.1</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Gesamtrohstoffproduktivität</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Raw material input productivity</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator Gesamtrohstoffproduktivität setzt den Wert aller an die letzte Verwendung abgegebenen Güter (in Euro, preisbereinigt) in Relation zur Masse der für ihre Produktion im In- und Ausland eingesetzten Rohstoffe (in Tonnen). Die letzte Verwendung umfasst dabei sowohl inländischen Konsum und inländische Investitionen als auch den Export.
+Im Nenner des Indikators werden sowohl aus der Umwelt entnommene abiotische und biotische Rohstoffe berücksichtigt als auch Pflanzenmaterial, das durch die Land- und Forstwirtschaft produziert wurde. In der Grafik sind sowohl der Indikator selbst als auch Zähler und Nenner einzeln dargestellt.</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>The indicator of raw material input productivity compares the value of all goods provided for final use (in euros, price-adjusted) relative to the mass of the raw materials used domestically and abroad for their production (in tonnes). Final use covers domestic consumption and domestic investments as well as exports.
+The denominator of the indicator takes into account abiotic and biotic raw materials from the environment as well as plant materials produced by farming and forestry. In the graph, the development of the indicator itself and of both the numerator and the denominator are traced separately.</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>Die Entnahme von Rohstoffen ist immer mit einer Beeinträchtigung der Natur verbunden. Durch die steigende Nachfrage nach Rohstoffen werden weltweit zunehmend Rohstoffvorkommen in Gebieten erschlossen, die besonders sensibel auf menschliche Einflüsse reagieren. Daher hat sich die Bundesregierung bereits im Deutschen Ressourceneffizienzprogramm (ProgRess) II im Jahr 2016 das Ziel gesetzt, dass die Gesamtrohstoffproduktivität weiterhin steigen soll. In den Jahren 2000 bis 2010 nahm die Gesamtrohstoffproduktivität bereits um durchschnittlich rund 1,6 % jährlich zu. Ein solch positiver Trend soll bis zum Jahr 2030 fortgesetzt werden.</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>The extraction of raw materials always entails some impairment of the natural environment. Owing to the growing demand for raw materials, raw material deposits in all parts of the world are increasingly being extracted in areas that are particularly sensitive to human intervention. For this reason, back in 2016, in the German Resource Efficiency Programme (ProgRess) II, the Federal Government set itself the goal of ensuring a continuing rise in raw material input productivity. In the years 2000 to 2010, raw material input productivity was already increasing at an average rate of around 1.6 % annually. The aim is to maintain this kind of positive trend up to 2030.</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>Zur Berechnung dieses Indikators ist es unter anderem notwendig, die Masse aller Rohstoffe zu ermitteln, die für die Produktion der Importe benötigt wurden. Die Berechnung dieser als Importe in Rohstoffäquivalenten bezeichneten Größe basiert auf einem komplexen Modell, das Daten aus verschiedenen amtlichen und nicht amtlichen Quellen nutzt.
+Durch die monetäre sowie physische Einbeziehung der Importe berücksichtigt der Indikator Wertschöpfung und Rohstoffeinsatz über die gesamte in- und ausländische Produktionskette. Somit wird auch der wirtschaftlichen Verflechtung mit dem Ausland umfassend Rechnung getragen. Der im Indikator abgebildete Rohstoffeinsatz dient nicht allein der inländischen letzten Verwendung, sondern auch dem Export. Er darf daher nicht mit einem Rohstofffußabdruck Deutschlands verwechselt werden.
+Der Indikator umfasst neben nicht erneuerbaren Rohstoffen (mineralische Rohstoffe und fossile Energieträger) auch pflanzliche Erzeugnisse, die von der Land- und Forstwirtschaft produziert werden. Dadurch ergeben sich in geringem Umfang Doppelzählungen: Beispielsweise wird die Masse sowohl eines landwirtschaftlichen Erzeugnisses bei der Ernte als auch des für diese Produktion verwendeten Mineraldüngers erfasst.
+Der Wert des Indikators nahm von 2000 bis 2018 um 26 % zu. Dieser Anstieg rührt insbesondere von den Zuwächsen des Zählers her: Der Wert der letzten Verwendung (inländischer Konsum und inländische Investitionen sowie Exporte) erhöhte sich im Vergleichszeitraum um 46 %. Die inländische Rohstoffentnahme sank zwar zwischen den Jahren 2000 und 2018 moderat; gleichzeitig stieg jedoch die Masse der Importe in Rohstoffäquivalenten an, sodass sich in Summe für den Nenner des Indikators ein Zuwachs um 16 % ergab.
+Inländisch entnommene Rohstoffe sowie Importe werden in zunehmendem Maße auch (wieder) exportiert. Der Nenner des Indikators weist folglich nicht auf eine verstärkte globale Rohstoffentnahme für Konsum und Investitionen in Deutschland hin, sondern spiegelt eine insgesamt intensivere Verflechtung der deutschen Wirtschaft mit dem Ausland wider.
+Das Jahr 2009 ist durch die besondere wirtschaftliche Situation in der europäischen Finanzmarkt- und Wirtschaftskrise als Ausreißer zu betrachten. In den Jahren 2010 und 2011 nahmen Investitionen und Exporte sowie der damit verbundene Rohstoffeinsatz wieder merklich zu, sodass sich die Gesamtrohstoffproduktivität 2011 wieder auf dem Niveau von 2008 befand. Seitdem ist die Gesamtrohstoffproduktivität tendenziell gestiegen, wobei sie zwischenzeitlich auch stagnierte oder leichte Rückgänge verzeichnete. Am aktuellen Rand nahm der Wert des Indikators 2017 um 5 Prozentpunkte gegenüber dem Vorjahr zu, um 2018 einen leichten Rückgang von 1 Prozentpunkt zu registrieren. Insgesamt nahm die Gesamtrohstoffproduktivität im Zeitraum von 2010 bis 2018 um 9 Prozentpunkte zu. Damit lag ihr durchschnittliches jährliches Wachstum bei etwa 0,9 % und somit unter dem Zielpfad der Bundesregierung.</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>To calculate this indicator, it is necessary to determine the mass of all raw materials required to produce the imports. The calculation of this variable, referred to as imports in raw material equivalents, is based on a complex model that employs data from various official and unofficial sources.
+Due to the monetary and physical inclusion of imports, the indicator takes into account the value added and raw material use across the entire production chain both inside and outside of Germany. In this way, the economic interdependence with foreign countries is also taken into account comprehensively. The raw material use mapped in the indicator covers not only domestic final use but also exports. It should therefore not be confused with a resource footprint for Germany.
+The indicator includes not only the raw materials that were considered to be non-renewable, that is, mineral raw materials and fossile fuels, but also plant-based products from farming and forestry activities. This means that double counting occurs to a limited degree. For example, both the mass of an agricultural product at harvest time as well as that of the mineral fertiliser used to produce it are recorded.
+The value of the indicator increased by 26 % from 2000 to 2018. This increase results in particular from the growth of the numerator: the value of the final use (domestic consumption and domestic investments as well as exports) increased by 46 % during the reference period. The removal of domestic raw materials fell moderately between 2000 and 2018; at the same time, however, the mass of imports in raw material equivalents increased, causing a slight increase of 16 % in the indicator’s denominator.
+Domestically extracted raw materials as well as imports are also being exported (again) to an increasing degree. Consequently, the indicator’s denominator does not point to increased global raw material extraction for consumption and investment in Germany, but reflects generally more intensive links between the German economy and the outside world.
+The year 2009 should be considered an outlier due to the exceptional economic situation in the European financial market and economic crisis. In 2010 and 2011, investments and exports, as well as the associated input of raw materials, rose sharply again. This marked a resumption of the trend that had been seen in the period up to 2008. Although raw material input productivity slightly decreased or stagnated at some points in time, the general trend tended to improve. The indicator increased by 5 percentage points in 2017 compared to the preceding year, however, 2018 recorded a slight decline by 1 percentage point. In total, raw material input productivity increased from 2010 to 2018 by 9 percentage points with an average annual growth of 0.9 % and, thus, lies below the target of the Federal Government.</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t>8.4.2</t>
+        </is>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N29" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -655,6 +2909,80 @@
           <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>08.2.a,b</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>Staatsdefizit und strukturelles Defizit</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>Government deficit, structural deficit</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren 8.2.a und 8.2.b setzen den Finanzierungssaldo des Staates und den strukturellen Finanzierungssaldo in Relation zum Bruttoinlandsprodukt (BIP) in jeweiligen Preisen. Der Finanzierungssaldo des Staates berechnet sich aus Staatseinnahmen abzüglich Staatsausgaben in der Abgrenzung der Volkswirtschaftlichen Gesamtrechnungen (VGR). Beim jährlichen strukturellen Saldo handelt es sich um denjenigen Teil des Finanzierungssaldos, der nicht auf konjunkturelle Schwankungen und temporäre Effekte zurückzuführen ist. Ein negativer Finanzierungssaldo wird als Defizit bezeichnet; ein positiver als Überschuss.</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>The indicators 8.2.a and 8.2.b show the financial balance of general government (deficit or surplus) and the structural financial balance as a percentage of gross domestic product (GDP) at current prices. The public financial balance is calculated as government revenue minus government expenditure, measured on a national accounts basis. The annual structural balance refers to the part of the financial balance that is not attributable to cyclical fluctuations and temporary effects. A negative financial balance is known as a deficit; a positive as a surplus.</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>Solide Staatsfinanzen sind ein wichtiger Beitrag zu einer nachhaltigen Finanzpolitik. Eine Politik, die heutige Staatsausgaben übermäßig durch Neuverschuldung finanzieren würde und die Rückzahlung dieser Schulden allein zukünftigen Generationen überließe, wäre nicht tragfähig.
+Entsprechend den Konvergenzkriterien für die Europäische Union (sogenannte Maastricht-Kriterien) soll das jährliche Staatsdefizit weniger als 3 % des BIP betragen. Das strukturelle Defizit soll maximal 0,5 % des Bruttoinlandsprodukts (BIP) betragen. Dies entspricht den Vorgaben des europäischen Stabilitäts- und Wachstumspaktes. Der Grundsatz des strukturell ausgeglichenen Haushalts ist seit 2009 auch im Grundgesetz verankert (Artikel 109, sogenannte Schuldenbremse).</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>Sound public finances are an essential element of a sustainable fiscal policy. A policy that relies too heavily on borrowing to fund current public expenditure and then passes this debt on to future generations is simply not sustainable.
+According to the convergence criteria for the European Union, known as the Maastricht criteria, the annual government deficit should be less than 3 % of GDP. The structural deficit must not exceed 0.5 % of GDP. These are the stipulations of the European Stability and Growth Pact. The guiding principle of the structurally balanced budget has also been enshrined in Germany’s Basic Law since 2009 (Article 109, referred to as the debt brake).</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>Die Berechnung von Bruttoinlandsprodukt (BIP) und Finanzierungssaldo des Staates ist durch das Europäische System Volkswirtschaftlicher Gesamtrechnungen (ESVG) vorgegeben und wird vom Statistischen Bundesamt durchgeführt. Der strukturelle Finanzierungssaldo wird hingegen vom Bundesministerium der Finanzen (BMF) ermittelt. Bei der Berechnung des Finanzierungssaldos werden die Finanzen der Gebietskörperschaften, also von Bund, Ländern und Gemeinden, sowie die Finanzen der Sozialversicherung berücksichtigt.
+Nach der Finanzmarkt- und Wirtschaftskrise 2008/2009 erzielte der Staat erstmals im Jahr 2012 mit 0,3 Milliarden Euro wieder einen Überschuss. Bis 2018 stieg der Finanzierungssaldo schließlich auf 65,6 Milliarden Euro bzw. 1,9 % des BIP an. Im Jahr 2019 betrug der Finanzierungsüberschuss noch 53,2 Milliarden Euro bzw. 1,5 % des BIP (vorläufige Daten). Aufgrund der Corona-Pandemie kam es 2020 und 2021 erneut zu einem Finanzierungsdefizit. Dabei betrug das Defizit 2020 147,6 Miliarden Euro. Seit 1991 entstand nur 1995 ein noch höheres Defizit (178,7 Milliarden Euro). Im europäischen Vergleich lag Deutschland 2021 mit einem Finanzierungsdefizit von 3,7 % des BIP noch unter dem EU-Durchschnitt von 4,6 %. Zwölf Länder wiesen eine geringere Defizitquote als Deutschland auf; 14 eine höhere. Dänemark (+ 3,6 %) und Luxemburg (+ 0,8 %) erwirtschafteten sogar einen Überschuss.
+Auch in 2021 wurde nach vorläufigen Daten ein Defizit von 134,3 Milliarden Euro erzielt. Das Defizit des Bundes betrug dabei 145,9 Milliarden Euro; während die Länder, Gemeinden und die Sozialversicherung einen Überschuss erzielten. Dieser betrug bei den Ländern 2,8 Milliarden Euro, 4,3 Milliarden Euro bei den Sozialversicherungen und 4,6 Milliarden Euro bei den Gemeinden. Insgesamt wies der gesamtstaatliche Haushalt 2021 ein strukturelles Defizit von 2,5 % (vorläufige Daten) des BIP aus. Damit wurden die Ziele für das Staatsdefizit als auch für das strukturelle Defizit in 2021 – wie auch im Vorjahr – nicht eingehalten: Im Jahr 2020 lag das Defizit des Bundes bei 87,4 Milliarden Euro, das der Länder bei 30,9 Milliarden Euro und das der Sozialversicherung bei 34,8 Milliarden Euro. Nur die Gemeinden wiesen 2020 einen Überschuss von 5,5 Milliarden Euro auf.
+Nachdem die Staatseinnahmen 2020 kurzzeitig sanken, stiegen diese 2021 und lagen schließlich 5,9 % höher als noch im Jahr 2019. Die Staatsausgaben stiegen im gleichen Zeitraum jedoch um 18,1 %. Die größte Position auf der Ausgabenseite des Staates umfassten 2021 die monetären Sozialleistungen mit 33,1 % der Ausgaben (610,9 Milliarden Euro). 17,9 % entfielen auf soziale Sachleistungen (330,0 Milliarden Euro). 70,4 % der monetären Sozialleistungen waren der Sozialversicherung zuzuordnen und dort überwiegend der Deutschen Rentenversicherung (340,0 Milliarden Euro); während die Ausgaben für soziale Sachleistungen vorwiegend in der Gesetzlichen Krankenversicherung anfielen (249,9 Milliarden Euro).</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>The method used to calculate GDP and the financial balance of general government is laid down in the European System of National and Regional Accounts (ESA) and is applied by the Federal Statistical Office. The structural financial balance, on the other hand, is determined by the Federal Ministry of Finance. The calculation of government net borrowing takes into account the finances of the public authorities, that is to say the Federal Government, the Länder and local government, and the finances of the social insurance system.
+In 2012, the Government achieved an overall surplus of 0.3 billion euros, which was the first positive balance since the financial and economic crisis of 2008/2009. Financial balance increased to 65.6 billion euros or 1.9 % of GDP until 2018. In 2019, the financial surplus amounted to 53.2 billion euros and 1.5 % of GDP (preliminary data). A financial deficit in 2020 and 2021 emerged in consequence of the COVID-19 pandemic. The deficit in 2020 amounted to 147.6 billion euros. Since 1991, only 1995 had a higher deficit (178.7 billion euros). A European comparison of financial deficits in 2021 reveals that Germany’s negative financial balance of 3.7 % of GDP was below European average of 4.6 %. Twelve countries had a lower deficit ratio than Germany; 14 countries were above. Denmark (+ 3.6 %) and Luxembourg (+ 0.8 %) even generated a financial surplus.
+In 2021, the Government generated an overall deficit of 134.3 billion euros. The federal deficit came to 145.9 billion euros. At the same time, Länder, local governments and social insurance yet again recorded an aggregate surplus. The balances for the Länder (2.8 billion euros), the social insurance fund (4.3 billion euros) and local government (4.6 billion euros) were also positive. The national budget in 2021 showed a structural deficit of 2.5 % of GDP (preliminary data). This meant that the EU convergence criteria for both the government deficit and the structural deficit had not been met in 2021 as previous year: in 2020, the federal deficit was 87.4 billion euros, that of the Länder was 30.9 billion euros and social insurance fund 34.8 billion euros. Only local governments reported a surplus of 5.5 billion euros in 2020.
+In 2020, government revenues decreased for a short time, however, they increased again in 2021 and were 5.9 % above the value in 2019. Government spendings increased by 18.1 % in the same period. The largest item on the expenditure side of the national accounts are social benefits other than social transfers in kind. These accounted for 33.1 % of government spendings (610.9 billion euros). Social benefits in kind accounted for 17.9 % (330.0 billion euros). 70.4 % of social benefits other than social transfers in kind fall under the heading of social insurance, primarily in the form of pensions (340 billion euros); spendings on social benefits in kind predominantly incurred for statutory health insurance (249.9 billion euros).</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>45674</v>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -662,6 +2990,81 @@
           <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B02_P01</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>08.2.c</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Schuldenstand</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>Government debt</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den konsolidierten Bruttoschuldenstand des Staates, das heißt in der Abgrenzung des Maastricht-Vertrages, in Relation zum Bruttoinlandsprodukt (BIP) in jeweiligen Preisen an. Damit dient der Indikator als Maßzahl der Staatsverschuldung.</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the government debt defined in the Maastricht Treaty as a percentage of gross domestic product (GDP) at current prices. The indicator therefore serves as a measure of government debt.</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>Im Stabilitäts- und Wachstumspakt der Europäischen Union (EU) ist der Referenzwert für die maximale Schuldenstandsquote auf 60 % des Bruttoinlandsprodukts (BIP) festgelegt. Dies ist auch die für diesen Bericht relevante nationale Zielwertobergrenze des Indikators.</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>The European Union’s Stability and Growth Pact specifies a reference value of 60 % as the maximum debt-to-GDP ratio. This also is the upper limit of the national target value of the indicator which is relevant for this report.</t>
+        </is>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>Die Schulden des Staates werden von der Bundesbank gemäß Vorgaben des Maastricht-Vertrages zweimal jährlich basierend auf Berechnungen des Statistischen Bundesamtes ermittelt. Das Bruttoinlandsprodukt (BIP) in jeweiligen Preisen wird im Rahmen der Volkswirtschaftlichen Gesamtrechnungen (VGR) im Statistischen Bundesamt berechnet.
+Die Schuldenstandsquote wird sowohl von der Situation der öffentlichen Haushalte als auch von der wirtschaftlichen Entwicklung beeinflusst. Bei gleichbleibenden öffentlichen Schulden sinkt die Schuldenstandsquote daher umso schneller, je stärker das BIP wächst. Andersrum kann die Schuldenstandsquote auch steigen, wenn sich die absoluten Schulden verringern, das BIP aber im gleichen Zeitraum einen stärkeren Rückgang aufweist. Unberücksichtigt ist hingegen die implizite Staatsverschuldung, das heißt die zukünftig zugesicherten, jedoch noch nicht geleisteten Zahlungsverpflichtungen des Staates.
+Die Schuldenstandsquote in Deutschland lag zwischen den Jahren 2003 und 2018 über dem für die Europäische Union (EU) vorgeschriebenen Wert. Nachdem sie aufgrund der Konsolidierung der öffentlichen Haushalte von 67,5 % im Jahr 2005 auf 64,2 % im Jahr 2007 zurückgegangen war, stieg sie bis zum Jahr 2010 auf einen Höchststand von 82,0 % an. Der Anstieg ist im Zusammenhang mit der Finanzmarkt- und Wirtschaftskrise zu sehen. Seit 2012 nahm die Schuldenstandsquote kontinuierlich ab und unterschritt erstmals 2019 mit 58,9 % wieder den Referenzwert des Maastricht-Vertrags in Höhe von 60 %. Infolge der Corona-Pandemie stieg die Schuldenstandsquote wieder deutlich an und lag im Jahr 2020 bei 68,0 % und für das Jahr 2021 bei 68,6 %.
+Im europäischen Vergleich unterschritten 13 EU-Staaten im Jahr 2021 den Referenzwert von 60 %. Im EU-Durchschnitt lag die Schuldenstandsquote für das Jahr 2021 bei 87,9 %. Die höchsten Schuldenstandsquoten wiesen Griechenland (194,5 %) und Italien (150,3 %) auf; die niedrigste Estland mit 17,6 %.
+Während die konsolidierten Schulden des Gesamtstaates seit 1991 kontinuierlich stiegen, verringerten sich diese erstmals im Jahr 2013 und dann seit 2015 kontinuierlich. Im Jahr 2019 lagen die konsolidierten Schulden des öffentlichen Gesamthaushaltes bei 2 047 Milliarden Euro. Bis 2021 stiegen diese infolge der Corona-Pandemie auf 2 472 Milliarden Euro an und erreichten damit den Höchststand seit 1991. Verteilt auf die Bevölkerung Deutschlands ergaben sich für das Jahr 2021 rechnerisch 29 708 Euro Schulden je Einwohnerin bzw. Einwohner; 1991 lag dieser Wert noch bei 7 730 Euro.
+Die nicht konsolidierten Schulden betrugen für das Jahr 2021 2 486 Milliarden Euro. Diese verteilten sich zu 67,0 % auf den Bund, zu 26,7 % auf die Länder und zu 6,3 % auf die Gemeinden. Die Schulden der Sozialversicherung beliefen sich auf 392 Millionen Euro (0,0 %).
+Den Schulden des Staates stehen auf der Aktivseite der Vermögensbilanz die Vermögensgüter (Sach- und Geldvermögen) gegenüber. Nach der Vermögensrechnung des Statistischen Bundesamtes hatten die Sachanlagen im Jahr 2020 einen Vermögenswert (nach Abschreibungen) von 1 509 Milliarden Euro. Die größte Vermögensposition des Staates waren die Bauten (Straßen, Schulen, öffentliche Gebäude) mit 1 284 Milliarden Euro, was über ein Drittel des gesamten Vermögens des Staates ausmachte (34,4 %). Das Geldvermögen betrug 1 555 Milliarden Euro (2020). Darunter bildeten die Wertpapiere den größten Vermögenswert (52,0 %).</t>
+        </is>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>The government debt is determined by the Bundesbank twice annually pursuant to the requirements of the Maastricht Treaty and based on calculations by the Federal Statistical Office. The GDP at current prices is determined by the Federal Statistical Office as part of the national accounts system.
+The debt-to-GDP ratio is influenced by the state of the public budgets and by economic development in general. According to the formula – assuming stable debt – the debt ratio falls faster the stronger GDP growth. On the other hand, the debt-to-GDP ratio can increase, if the GDP shows a stronger decline than the absolute debt in the same period of time. Furthermore, the indicator excludes implicit government debt, which refers to the government’s future payment obligations that are pledged but not yet due.
+Between 2003 and 2018, Germany’s debt-to-GDP ratio was above the prescribed EU-wide reference level. Following budgetary consolidation measures, the ratio fell from 67.5 % in 2005 to 64.2 % in 2007, but then it rose again to peak at 82.0 % in 2010. This increase must be seen in the context of the financial and economic crisis. Since 2012, Germany’s public debt-to-GDP ratio steadily decreased to a value of 58.9 % in 2019 and, thus, dropped below the reference level of 60 % determined by the Maastricht Treaty for the first time. Due to the COVID-19 pandemic, the debt-to-GDP ratio increased significantly and reached 68.0 % in 2020 and 68.6 % in 2021.
+In 2021, the debt-to-GDP ratio of 13 EU-states fell below the reference value of 60 %. The EU-average was 87.9 % in the respective year. The highest debt-to-GDP ratio were measured for Greece (194.5 %) and Italy (150.3 %); the lowest for Estonia (17.6 %).
+Consolidated debt of the state steadily increased since 1991, however, it reduced in 2013 for the first time and constantly decreased from 2015 on. In 2019, the consolidated debt of the overall public budget was 2,047 billion euros. In consequence of the COVID-19 pandemic, the consolidated debt increased to 2,472 billion euros in 2021 and, thus, reached its peak since 1991. Germany’s debt per capita increased in 2021 to 29,708 euros; in 1991, the value was at 7,730 euros.
+Non-consolidated debt amounted to 2,486 billion euros in 2021. Of the total amount of government debt in the respective year, about 67.0 % was federal debt, while some 26.7 % was owed by the Länder and 6.3 % by local government. The debt of the social insurance amounted to 392 million euros (0.0 %).
+In the national balance of assets, the government debt is balanced by its assets – both tangible and financial. According to the national wealth accounts compiled by the Federal Statistical Office, fixed assets were valued (after amortisation) at 1,509 billion euros in 2020. The biggest asset owned by the government is its buildings and structures (roads, schools, public buildings) at a value of 1,284 billion euros, accounting for more than a third of the total assets of the state (34.4 %). The financial assets were valued at 1,555 billion euros (2020). Among them, securities represent the most highly valued asset (52.0 %).</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N31" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -669,6 +3072,78 @@
           <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B03_P01</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>08.3</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation in relation to GDP</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den Anteil der Bruttoanlageinvestitionen am nominalen Bruttoinlandsprodukt, das heißt in jeweiligen Preisen. Dieser Anteil wird auch als Investitionsquote bezeichnet. Die Bruttoanlageinvestitionen umfassen den Zugang (also den Erwerb abzüglich der Veräußerungen ohne Berücksichtigung von Abschreibungen) von Anlagegütern durch gebietsansässige Wirtschaftseinheiten. Anlagegüter sind produzierte Vermögensgüter, die im Produktionsprozess wiederholt oder kontinuierlich länger als ein Jahr eingesetzt werden sollen. Hierzu zählen Bauten (Wohnbauten, Nichtwohnbauten), Ausrüstungen (Maschinen, Fahrzeuge, Geräte einschließlich militärische Waffensysteme) und sonstige Anlagen (Nutztiere und -pflanzungen sowie geistiges Eigentum, wie Investitionen in Forschung und Entwicklung, Software und Datenbanken, Urheberrechte und Suchbohrungen). Eingeschlossen sind auch wesentliche Verbesserungen an vorhandenem Anlagevermögen.</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the share of gross fixed capital formation relative to nominal gross domestic product (which means at current prices). This share is also referred to as the investment ratio. The level of gross fixed capital formation includes additions (that is, acquisitions less disposals without taking into account consumption of fixed capital) of fixed assets by resident economic units. Fixed assets are produced assets that are designed for repeated or continuous use in production processes for longer than a year. These include buildings and structures (dwellings, other buildings and structures), equipment (machinery, vehicles, tools including weapons systems) and other assets (intellectual property such as investments in research and development, computer software and databases, entertainment, literary or artistic originals, mineral exploration and evaluation as well as animal resources and tree, crop and plant resources). Also included are improvements on existing stocks of fixed assets that lead to a significant increase in the value of an asset and/or prolong its useful life.</t>
+        </is>
+      </c>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>Die zukünftige wirtschaftliche Leistungskraft und die Wettbewerbsfähigkeit einer Volkswirtschaft hängen entscheidend von den Investitionen der Unternehmen und des Staates ab. Daher ist das Ziel der Bundesregierung eine angemessene Entwicklung des Anteils der Bruttoanlageinvestitionen am Bruttoinlandsprodukt (BIP).</t>
+        </is>
+      </c>
+      <c r="I32" s="5" t="inlineStr">
+        <is>
+          <t>The future strength and competitiveness of an economy depend crucially on corporate and governmental investments. For this reason, the target of the Federal Government is to promote appropriate development of the ratio of gross fixed capital formation to gross domestic product (GDP).</t>
+        </is>
+      </c>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>Die Bruttoanlageinvestitionen und das Bruttoinlandsprodukt (BIP) werden im Rahmen der Volkswirtschaftlichen Gesamtrechnungen (VGR) vom Statistischen Bundesamt ermittelt. Die Erstellung der VGR folgt international harmonisierten Regeln und Standards, wie dem Europäischen System Volkswirtschaftlicher Gesamtrechnungen (ESVG), und basiert auf allen verfügbaren, relevanten Datenquellen.
+Im Jahr 2021 lag der Anteil der Bruttoanlageinvestitionen am BIP für das gesamte Bundesgebiet bei 21,8 %, preisbereinigt bei 21,0 %. Der Indikator hat sich kurz- und mittelfristig betrachtet in die gewünschte Richtung entwickelt. Seit dem Jahr 2015 (20,0 %) ist ein leichter Anstieg der Quote zu verzeichnen. Mangels einer Definition, was als angemessene Entwicklung gilt, ergibt sich bei Betrachtung der letzten sechs Datenpunkte ein positives Bild. Gegenüber 1991 ist die Investitionsquote jedoch um 3,1 Prozentpunkte und gegenüber 2000 um 1,4 Prozentpunkte niedriger. Preisbereinigt liegt der Anteil der Bruttoanlageinvestitionen am BIP gegenüber 1991 um 1,1 Prozentpunkte zurück. Die Investitionsquote in Deutschland ist seit 1996 durchgehend unterhalb der Investitionsquote für den gesamten OECD-Raum (zuletzt 2020: 22,2 %). Betrug der Abstand zwischen 2001 und 2010 noch durchschnittlich –2,4 Prozentpunkte, so verringerte sich dieser im Zeitraum 2011 bis 2020 auf –1,0. In den Jahren 2015 bis 2021 stiegen die Bruttoanlageinvestitionen kräftig um 29,4 % und erreichten ein Niveau von 783,8 Milliarden Euro. Da der Anstieg des nominalen BIP im selben Zeitraum etwas geringer ausfiel (19,0 %), erhöhte sich die Investitionsquote nur leicht von 20,0 % auf 21,8 %. Das kräftigste nominale Wachstum ergab sich seit dem Jahr 2010 im Bereich der Wohnbauten (+92,6 %), während die Investitionen im Bereich der Nichtwohnbauten (sowohl im Hoch- als auch im Tiefbau) im selben Zeitraum weniger stark anstiegen (+52,7 %) und in den Jahren 2012 und 2015 sogar leicht rückläufig waren. Die Ausrüstungsinvestitionen erhöhten sich um 28,0 %. Im Vergleich zu 1991 verzeichneten demgegenüber die Investitionen in Forschung und Entwicklung sowie in Software und Datenbanken die stärksten Zuwächse. Ihr Volumen hat sich mehr als verdreifacht.
+Die Investitionstätigkeit hat sich im Zeitraum von 1991 bis 2021 stark vom Produzierenden Gewerbe hin zu den Dienstleistungsbereichen verlagert. Während 1991 noch 30,4 % der Anlageinvestitionen von Unternehmen des Produzierenden Gewerbes getätigt wurden, waren es 2021 nur noch 22,4 %. Im Jahr 2021 entfielen auf die Dienstleistungsbereiche 76,3 % der Bruttoanlageinvestitionen; 1991 waren es noch 67,9 %. Der größte investierende Bereich war das Grundstücks- und Wohnungswesen. Auf diesen entfielen im Jahr 2021 allein 33,1 %. Dem Staatssektor, dessen Investitionstätigkeiten verschiedenen Wirtschaftszweigen zugutekommen, wurden für das Jahr 2020 12,4 % bzw. für 2021 11,9 % der gesamtwirtschaftlichen Bruttoanlageinvestitionen zugerechnet.
+Bei Betrachtung nach Bundesländern war für das zuletzt vorliegende Berichtsjahr 2019 die höchste Investitionsquote in Niedersachen mit 27,6 % und die niedrigsten Investitionsquoten in Bremen mit 15,7 % und Nordrhein-Westfalen mit 16,4 % zu verzeichnen.</t>
+        </is>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>The value of gross fixed capital formation and GDP is determined by the Federal Statistical Office as part of national accounts. National accounts are compiled in accordance with harmonised international rules and standards, that is, the European System of Accounts (ESVG), and are based on all available, relevant data sources.
+In 2021, the ratio of gross fixed capital formation to GDP was at 21.8 % for the entire federal territory, price adjusted at 21.0 %. The indicator has moved into the desired direction both in the short and medium term. Since 2015, the quota slightly increased (20.0 %). The lack of a definition for appropriate development causes a positive appearance when considering the last six data points. In comparison, the investment ratio was 3.1 percentage points below the initial value in 1991 as well as 1.4 percentage points lower than in 2000. After price adjustments, the share of gross fixed capital formation relative to GDP is 1.1 percentage points below the value in 1991. Since 1996, the average investment ratio in Germany is lower than the investment ratio for the entire OECD region (2020: 22.2 %). While the difference between 2001 and 2010 was – 2.4 percentage points on average, latter decreased in the period from 2011 to 2020 to – 1.0. In the years from 2015 to 2021, gross fixed capital formation soared by a total of 29.4 %, reaching 783.8 billion euros. Since the increase in nominal GDP was somewhat lower, at 19.0 %, the investment ratio increased slightly from 20.0 % to 21.8 %. With regard to investments in building projects, housing construction has recorded strong nominal growth (+ 92.6 %) since 2010, while the growth of investments in non-residential construction, including civil engineering, in the same period was less pronounced (52.7 %) and even dipped slightly in 2012 and 2015. Equipment investments increased by 28.0 %. The strongest growth since 1991 was recorded for investments in research and development as well as in computer software and databases. Its volume almost tripled.
+The period from 1991 to 2021 witnessed a strong shift in investment activity from industry to the service sector. In 1991, 30.4 % of new fixed capital formation was still being made by enterprises of the industry sector. By 2021, this figure had fallen to just 22.4 %. In 2021, 76.3 % of fixed capital formation was made in the service branches. In 1991, this figure was still 67.9 %. The largest single investment area was that of real estate activities. In 2021 alone, this sector accounted for 33.1 % of all new fixed assets. The general government sector, whose investment activities are spread across various sectors of the economy, accounted for 12.4 % of gross fixed capital formation in 2020 and 11.9 % in 2021.
+Most recent data for the German Länder in 2019 reveals, that the highest investment ratio was measured for Lower Saxony at 27.6 % and the lowest investment ratios were measured for Bremen and North Rhine-Westphalia at 15.7 % and 16.4 %, respectively.</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>45674</v>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -676,6 +3151,84 @@
           <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B04_P01</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>08.4</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>Gross domestic product per capita</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt das preisbereinigte Bruttoinlandsprodukt (BIP) je Einwohnerin bzw. Einwohner in Deutschland auf Basis des Jahres 2015. Das BIP misst den Wert der im Inland erwirtschafteten Leistung; als Einwohnerinnen und Einwohner gelten dabei alle Personen, die in Deutschland ihren ständigen Wohnsitz haben.</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows price-adjusted gross domestic product (GDP) per capita (inhabitants) in Germany at 2015 prices. GDP measures the value of all goods and services produced in the domestic economy; inhabitants means all persons whose permanent residence is in Germany.</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>Zwischen der Entwicklung des Bruttoinlandsprodukts (BIP) und den anderen Indikatoren der Nachhaltigkeitsstrategie gibt es vielfältige Beziehungen. So spielen soziale Faktoren wie die Bevölkerungsstruktur, das Arbeitskräfteangebot, das Bildungssystem sowie der soziale Zusammenhalt in der Gesellschaft eine wichtige Rolle für die internationale Wettbewerbsfähigkeit der Wirtschaft. Das BIP gilt als wichtiger Indikator für Konjunktur und Wachstum einer Volkswirtschaft. Folglich ist das Ziel ein stetiges und angemessenes Wachstum.</t>
+        </is>
+      </c>
+      <c r="I33" s="5" t="inlineStr">
+        <is>
+          <t>Changes in GDP are related in a variety of ways to other indicators included within the strategy for sustainable development. Social factors such as the population structure, the labour supply, the educational system and social cohesion play an important role in society with regard to international economic competitiveness. GDP is regarded as an important indicator of the strength and growth of a national economy, and so the goal is to achieve continuous and appropriate levels of GDP growth.</t>
+        </is>
+      </c>
+      <c r="J33" s="5" t="inlineStr">
+        <is>
+          <t>Im Jahr 2021 lag das preisbereinigte Bruttoinlandsprodukt (BIP) je Einwohnerin und Einwohner bei etwa 38 509 Euro und damit 2,6 % höher als im Vorjahr. Zwischen 1991 und 2021 hat sich das BIP je Einwohnerin und Einwohner preisbereinigt insgesamt um 38,8 % erhöht. Aufgrund der Corona-Pandemie sank jedoch das preisbereinigte BIP je Einwohnerin bzw. Einwohner im Jahr 2020 um 3,8 %. Nur im Jahr 2009 brach das preisbereinigte BIP je Einwohnerin bzw. je Einwohner infolge der weltweiten Finanzmarkt- und Wirtschaftskrise mit einem Rückgang von 5,4 % noch stärker ein. Mangels einer Definition von angemessenem und stetigem Wirtschaftswachstum kann lediglich die durchschnittliche jährliche Veränderung der letzten fünf Jahre betrachtet werden. Diese lag bei 0,7 %. Der Indikator hat sich damit bei längerfristiger Betrachtung in eine positive Richtung entwickelt.
+Bei Betrachtung der Ergebnisse nach Bundesländern wies Mecklenburg-Vorpommern mit rund 26 500 Euro das niedrigste und Hamburg mit etwa 59 700 Euro das höchste reale BIP je Einwohnerin und Einwohner auf.
+Das BIP ist Ausdruck der gesamten im Inland entstandenen Wirtschaftsleistung einer Berichtsperiode. Dabei werden vor allem auf Märkten gehandelte sowie staatliche Waren und Dienstleistungen betrachtet. Das BIP wird vierteljährlich und jährlich vom Statistischen Bundesamt und von den Statistischen Ämtern der Länder nach international harmonisierten Regeln und Standards, wie dem Europäischen System Volkswirtschaftlicher Gesamtrechnungen (ESVG), ermittelt.
+Das BIP ist eine zentrale Größe der Volkswirtschaftlichen Gesamtrechnungen (VGR). Die VGR sind die Zusammenfassung mehrerer Rechnungen, die das wirtschaftliche Geschehen einer Periode darstellen. Die Ergebnisse werden in Form eines geschlossenen Kontensystems ermittelt und in Tabellen dargestellt. Die Berechnungen der VGR wurden zuletzt im Rahmen ihrer General-revision 2019 turnusmäßig überprüft und überarbeitet sowie auf das Referenzjahr 2015 umgestellt. Für das reale BIP ergaben sich dadurch neue Veränderungsraten. Das konjunkturelle Gesamtbild hat sich durch die Revision jedoch nicht verändert.
+Das BIP ist nicht dafür konzipiert, die Gesamtheit aller gesellschaftlichen Aspekte der Wohlfahrtsmessung abzubilden. Um darüber hinaus auch diese zu erfassen, bedarf es weiterer Indikatoren, die speziell für diese Zwecke konstruiert sind. Hierzu zählen unter anderem die Umweltökonomischen Gesamtrechnungen, die die Wechselbeziehungen zwischen Wirtschaft und Umwelt darstellen, oder Indikatoren wie unentgeltliche Arbeit in privaten Haushalten. Auch die Verteilung von Einkommen (und Vermögen) auf unterschiedliche Bevölkerungsgruppen wird vom BIP nicht abgebildet.
+Die Veränderung von Bestandsgrößen wird beim BIP nicht erfasst – mit Ausnahme des Kapitalstocks durch die Berechnung von Investitionen und Abschreibungen. Zentrale wirtschaftliche Größen wie Bestände und Qualitäten des Humankapitals (etwa Bildung, Gesundheit), des Sozialkapitals (etwa Sicherheit, Integration) und des Naturkapitals (etwa Ressourcen, Ökosysteme) bleiben ausgeblendet. Aussagen, ob das BIP und sein Wachstum zur Kapitalerhaltung in einem umfassenden Sinn gedient haben, sind somit nicht möglich. Damit können anhand des BIP keine Aussagen zur Nachhaltigkeit des wirtschaftlichen Wachstums getroffen werden.
+Basis für die Berechnung des BIP je Einwohnerin und Einwohner sind die auf den Zensus 2011 zurückgerechneten und fortgeschriebenen durchschnittlichen Bevölkerungszahlen des Statistischen Bundesamtes.</t>
+        </is>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>In 2021, the price adjusted GDP was 38,509 euros per capita and, thus, 2.6 % higher than in the previous year. Between 1991 and 2021, price-adjusted GDP per head of population increased by a total of 38.8 %. In consequence of the COVID-19 pandemic, the price adjusted GDP per head of population decreased in 2020 by 3.8 %. Only in 2009, price adjusted per capita GDP fell by 5.4 % as a result of the global financial and economic crisis and, thus, decreased to a larger extent. The absent definition for appropriate and continuous economic growth causes the consideration of the average annual change for the preceding five years. These was 0.7 %. Therefore, the indicator developed in a positive direction long-term.
+Considering the results of the German Länder, Mecklenburg Western Pomerania had the lowest (26,500 euros) and Hamburg had the highest (59,700 euros) real GDP per capita.
+GDP expresses the value of total economic output produced within the country in a reference period. It focuses primarily on market goods and services and public goods and services. The value of GDP is determined quarterly and annually by the Federal Statistical Office and the statistical offices of the Länder on the basis of internationally harmonised rules and standards, such as the European System of National and Regional Accounts (ESA).
+GDP is a key variable in the national accounts. The national accounts are the consolidation of several accounts that portray the economic activity of a given period. The results are recorded in the form of a closed sequence of accounts and presented in tables. The national accounts calculations were last reviewed and revised in 2019 as part of their periodic major revision, and the reference year was changed to 2015. This resulted in new rates of change for real gross domestic product as a whole. The overall economic picture, however, has remained largely unchanged.
+GDP is not designed to portray all of the social aspects that can be included in a measurement of overall well-being. If these variables are to be measured too, Additional indicators are needed that are specifically designed for these purposes. This includes e.g. environmental economic accounts that portray the interactions between the economy and the environment and indicators showing, for example, the volume of unpaid work in households. Furthermore, the distribution of income and assets among different population groups is not shown by GDP either.
+Stock changes are not reflected in GDP, except in the case of capital stock resulting from the calculation of investments and depreciation. Key economic variables like quantities and qualities of human capital, such as education and health, of social capital, such as security and integration, and of natural capital, such as resources and ecosystems, are not factored into GDP. It is therefore impossible to conclude whether GDP and its growth have served to preserve capital in the fullest sense. This means that GDP cannot be used to gauge the sustainability of economic growth.
+The basis for the calculation of per capita GDP comprise the average population figures interpolated and extrapolated by the Federal Statistical Office from the 2011 census data.</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t>8.1.1</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>45539</v>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -683,6 +3236,78 @@
           <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B05_P01</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>08.5.a,b</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Erwerbstätigenquote</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>Employment rate</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren geben die Anteile der Erwerbstätigen im Alter von 20 bis 64 Jahren (8.5.a) und im Alter von 60 bis 64 Jahren (8.5.b) jeweils gemessen an der Gesamtbevölkerung derselben Altersklasse an.</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr">
+        <is>
+          <t>The indicators specify the proportion of persons in employment aged between 20 and 64 years (8.5.a) and aged between 60 and 64 years (8.5.b), measured in each case as a share of the total population of the same age group.</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>Aufgrund des demografischen Wandels kann es langfristig zu einem Mangel an Fachkräften in Deutschland kommen. Gleichzeitig droht eine zunehmende Unterfinanzierung der sozialen Sicherungssysteme. Das vorhandene Arbeitskräftepotenzial ist daher künftig besser auszuschöpfen. Die Erwerbstätigenquote, das heißt der Anteil der Erwerbstätigen an der Bevölkerung im erwerbsfähigen Alter (20- bis 64-Jährige), soll bis zum Jahr 2030 auf 78 % erhöht werden. Außerdem ist es das Ziel der Bundesregierung, dass bis 2030 die Erwerbstätigenquote der Älteren (60- bis 64-Jährige) 60 % beträgt.</t>
+        </is>
+      </c>
+      <c r="I34" s="5" t="inlineStr">
+        <is>
+          <t>Due to demographic changes, there could be a shortage of professionals in Germany in the long run. At the same time, the social security system is threatened by an increasing shortage of funds. The available labour force potential must therefore be more effectively utilised in the future. The employment rate, that is, the share of persons in employment in the working-age population (20 to 64 years of age) should be increased to 78 % by 2030. In addition, the goal of the Federal Government is to achieve an employment rate of 60 % among older people (60 to 64 years of age) by 2030.</t>
+        </is>
+      </c>
+      <c r="J34" s="5" t="inlineStr">
+        <is>
+          <t>Datenquelle der Indikatoren ist die EU-Arbeitskräfteerhebung, die in Deutschland in den Mikrozensus integriert ist. Die Arbeitskräfteerhebung findet unterjährig statt und wird von der europäischen Statistikbehörde Eurostat zunächst zu Quartalsergebnissen zusammengefasst und anschließend zu Jahresdurchschnittswerten verdichtet. Sie deckt die in privaten Haushalten lebende Bevölkerung ab, schließt jedoch Personen in Gemeinschaftsunterkünften aus. Die im Rahmen der Arbeitskräfteerhebung betrachtete erwerbstätige Bevölkerung besteht aus Personen im Alter ab 15 Jahren, die während der Referenzwoche mindestens eine Stunde eine Tätigkeit gegen Entgelt ausgeübt haben oder als unbezahlt mithelfende Familienangehörige tätig waren. Eingeschlossen sind auch Personen, die nur vorübergehend nicht gearbeitet haben, weil sie zum Beispiel wegen Urlaub oder Krankheit abwesend waren. Zu beachten ist, dass es im Zeitablauf bei der Arbeitskräfteerhebung (zum Beispiel Anpassung an Ergebnisse des Zensus 2011) und mit der Neuregelung des Mikrozensus 2020 Änderungen gab, die Einfluss auf die zeitliche Vergleichbarkeit der dargestellten Zeitreihen haben.
+Die Erwerbstätigenquote insgesamt (20- bis 64-Jährige) stieg von 68,7 % im Jahr 2000 um 10,9 Prozentpunkte auf 79,6 % im Jahr 2021. Der Zielwert von 78,0 % für 2030 wird bereits seit 2015 erreicht. Die Erwerbstätigenquote bei den Älteren (60- bis 64-Jährige) nahm deutlich von 19,6 % im Jahr 2000 um 41,5 Prozentpunkte auf 61,1 % im Jahr 2021 zu. Die Quote der Männer in dieser Altersgruppe hatte sich dabei um 38,5 Prozentpunkte auf 65,7 % mehr als verdoppelt. Die Quote der Frauen verfünffachte sich sogar fast von 12,1 auf 56,7 %. Der angestrebte Anteil von 60 % bei Älteren wird seit 2018 jeweils erreicht und damit ebenfalls vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist.
+Die Erwerbstätigenquoten von Frauen und Männern insgesamt entwickelten sich seit 2000 in dieselbe Richtung, jedoch in unterschiedlichem Umfang. Die Quote stieg bei den 20- bis 64-jährigen Männern im betrachteten Zeitraum um 6,7 Prozentpunkte auf 83,2 %, bei den Frauen dagegen um 15,2 Prozentpunkte auf 75,9 % und damit deutlich stärker, aber auch von einem niedrigeren Niveau aus. Bei einer Bewertung des Anstiegs der Erwerbstätigenquote der Frauen ist zu berücksichtigen, dass die Erhöhung der Quote mit einer Zunahme der Teilzeitbeschäftigung einherging. Im Jahr 2000 waren 61,5 % der Frauen in Vollzeit und 38,5 % in Teilzeit tätig. Im Jahr 2021 lagen die Anteile bei 52,3 % in Vollzeit und 47,7 % in Teilzeit. Im Vergleich dazu reduzierte sich der Anteil der Männer, die in Vollzeit tätig sind, von 95,7 % im Jahr 2000 auf 89,8 % in 2021.
+Bei einer Differenzierung der Erwerbstätigenquote nach Altersgruppen zeigten sich unterschiedliche Tendenzen. Bei der Gruppe der 20- bis 24-Jährigen erhöhte sich die Erwerbstätigenquote von 2000 bis 2021 nur marginal um 2,4 Prozentpunkte auf 67,2 %. In der Altersgruppe der 25- bis 59-Jährigen stieg diese hingegen um 7,7 Prozentpunkte auf 83,9 %. Das geringere Erwerbsniveau in der Altersgruppe der 20- bis 24-Jährigen ist bedingt durch Ausbildungszeiten an Schulen und Hochschulen, wodurch sich der Eintritt in das Berufsleben verschiebt.</t>
+        </is>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>The Statistical Office of the European Union Eurostat conducts the labour force survey on an infra-annual basis. Eurostat summarises the data to form quarterly results and then consolidates them to create annual average values. It covers the population living in private households, but does not include people living in collective accommodation. The economically active population covered by the labour force survey consists of persons aged 15 and over who performed an activity for remuneration for at least one hour during the reference week or who worked as unpaid family workers. Also included are persons who temporarily did not work because they were absent, for example due to holidays or illness. It should be noted that there have been changes over time in the Labor Force Survey that affect the comparability of the time series presented over time (e.g. adjustment to results of the 2011 census, revision of the 2020 Microcensus).
+The total employment rate (20 to 64-year-olds) rose by 10.9 percentage points from 68.7 % in 2000 to 79.6 % in 2021. Thus, the target value of 78.0 % for 2030 has already been achieved from 2015 on. The employment rate among older people (60 to 64-year-olds) rose by 41.5 percentage points from 19.6 % in 2000 to 61.1 % in 2021. The employment rate for men in that age group had more than doubled, rising by 38.5 percentage points to 65.7 %. The rate for women even increased almost fivefold from 12.1 % to 56.7 %. Hence, the targeted 60 % employment rate for older people was likewise reached since 2018 ahead of the deadline set in the German strategy for sustainable development.
+The overall employment rates for women and men have developed in the same direction since 2000 but at different rates. The rate for 20 to 64-year-old men rose in the period under review by 6.7 percentage points to 83.2 %, whereas in the case of women it rose by 15.2 percentage points to 75.9 %, which was a far more rapid rise, albeit from a lower starting point. When assessing the increase in the employment rate for women, it should be taken into account that this growth was accompanied by an increase in part-time employment. In the year 2000, 61.5 % of employed women worked full-time, while 38.5 % worked part-time. In 2021, 52.3 % and 47.7 % of employed women worked full-time and part-time, respectively. By way of comparison, the proportion of the male workforce in full-time employment dropped from 95.7 % in 2000 to 89.8 % in 2021.
+A breakdown into age groups shows diverse employment rate trends. Among 20 to 24-year-olds, the rate rose from 2000 to 2021 by 2.4 percentage points to 67.2 %. Among 25- to 59-year-olds, by contrast, the employment rate rose to 83.9 %, an increase of 7.7 percentage points. The lower employment rates of 20 to 24 year-olds is also related to the average duration of education at school and university, which postpones entry into working life.</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
+        <is>
+          <t>8.5.2</t>
+        </is>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>45672</v>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -690,6 +3315,73 @@
           <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Z08_B06_P01</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>08.6</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Mitglieder des Textilbündnisses</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>Members of the Textiles Partnership</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl der Mitglieder des Bündnisses für nachhaltige Textilien (Textilbündnis). Dem Textilbündnis gehören ordentliche, beratende und assoziierte Mitglieder an. Ordentliche Mitglieder werden weiter in die sogenannten Akteursgruppen Wirtschaft (Unternehmen sowie Initiativen und Verbände), Gewerkschaften, Nichtregierungsorganisationen, Standardorganisationen sowie Bundesregierung unterschieden. Eine Standardorganisation ist eine Organisation, die nicht kommerzielle Standards für nachhaltige Textilien anbietet oder entwickelt. Die Mitgliedschaft im Textilbündnis ist freiwillig und erfolgt durch Eintritt.</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of members of the Partnership for Sustainable Textiles (Textiles Partnership). The Textiles Partnership comprises ordinary, advisory and associate members. The ordinary membership is subdivided into what are known as stakeholder groups: the businesses (initiatives and associations), unions, non-governmental organisations, standards organisations and the German Federal Government. A standards organisation is a body that offers or develops non-commercial standards for sustainable textiles. Membership of the Textiles Partnership is voluntary and is obtained by application.</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>Die Multi-Stakeholder-Initiative „Bündnis für nachhaltige Textilien“ wurde im Herbst 2014 gegründet. Das Textilbündnis strebt an, die sozialen, ökologischen und ökonomischen Rahmenbedingungen in den Produktionsländern zu verbessern. Daher soll die Anzahl der Mitglieder des Textilbündnisses bis 2030 signifikant gesteigert werden.</t>
+        </is>
+      </c>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>The Partnership for Sustainable Textiles is a multi-stakeholder initiative that was founded in 2014. The Textiles Partnership aims to improve the underlying social, ecological and economic conditions in the producer countries. Membership numbers should therefore be increased significantly by 2030.</t>
+        </is>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>Das Textilbündnis wurde im Oktober 2014 als Reaktion auf tödliche Unfälle in Textilfabriken gegründet. Der Indikator bildet die Anzahl der Mitglieder des Textilbündnisses ab. Als Multi-Stakeholder-Initiative gehören dem Textilbündnis nicht nur Unternehmen an. Aufbauend auf gemeinsam definierten Bündniszielen verpflichtete sich jedes Unternehmen mit seinem Beitritt zum Textilbündnis dazu, Maßnahmen für eine kontinuierliche Verbesserung der Bedingungen und zur Verfolgung der sozialen und ökologischen Bündnisziele in seiner gesamten Lieferkette umzusetzen.
+In seinem Gründungsjahr 2014 sind dem Textilbündnis 59 Mitglieder beigetreten, darunter 26 Unternehmen. Bis Ende 2016 hat sich die Anzahl der Mitglieder mit einem Höchststand von 188 Mitgliedern mehr als verdreifacht, darunter waren 133 Unternehmen. Seit Einführung der verpflichtenden Erstellung von Maßnahmenplänen (Roadmaps) im Jahr 2017 gab es sowohl Ausschlüsse als auch mehrere Austritte aus dem Textilbündnis. So wurden einerseits Mitglieder ausgeschlossen, die ihren Berichtspflichten nicht nachgekommen sind. Andererseits sind Mitglieder mit Verweis auf den Aufwand oder unzureichende Relevanz ausgetreten. Ende Dezember 2021 belief sich die Anzahl der Mitglieder auf insgesamt 123. Von den ursprünglich 59 Gründungsmitgliedern (Zeitraum Oktober bis Dezember 2014) waren bis Ende Dezember 2021 noch 26 Mitglied im Textilbündnis, wobei die Bundesregierung gegenüber 2014 nur noch als ein statt drei Mitglieder gezählt wird. Im Durchschnitt der letzten fünf Jahre hat sich die Anzahl der Mitglieder in eine negative Richtung entwickelt.
+Ende Dezember 2021 waren 69 der 123 Mitglieder (56 %) als Unternehmen klassifiziert, wobei acht ihren Hauptsitz nicht in Deutschland hatten. Im Jahr zuvor waren unter den 136 Mitgliedern noch 85 Unternehmen. Bei diesem Rückgang ist zu beachten, dass seit 2020 die Unternehmen des Textilbündnisses verpflichtet sind, ihrer Verantwortung zur Umsetzung der Sorgfaltspflichten entlang der Lieferkette nachzukommen. Dies beinhaltet die Analyse und Priorisierung von sozialen und ökologischen Risiken in der Lieferkette sowie die Ableitung von Zielen und Maßnahmen zur Vermeidung oder Minderung dieser Risiken. Alle zwei Jahre müssen die Mitgliedsunternehmen über den Stand der Umsetzung der Sorgfaltspflichten berichten. Die Mitgliedschaft im Textilbündnis bedeutet nicht, dass die Akteure und vor allem die Unternehmen schwerpunktmäßig im Bereich Textilien und/oder Bekleidung wirtschaftlich aktiv waren. Nur gut zwei Drittel der 61 Mitgliedsunternehmen mit Sitz in Deutschland waren gemäß dem statistischen Unternehmensregister (URS) des Statistischen Bundesamtes im Jahr 2020 hauptsächlich im Bereich Herstellung, Einzel- oder Großhandel von Textilien bzw. Bekleidung tätig. Diese erwirtschafteten 2020 einen Umsatz von etwa 16,1 Milliarden Euro. Im Vergleich dazu betrug 2020 laut den Handelsstatistiken des Statistischen Bundesamtes der Gesamtumsatz des Einzelhandels 635,2 Milliarden Euro und der Gesamtumsatz des Großhandels 1 363,0 Milliarden Euro. Davon wurden durch Unternehmen, die schwerpunktmäßig dem Einzel- oder Großhandel zugeordnet waren, etwa 4,1 % mit den Waren Bekleidung, Textilien sowie Vorhänge und Gardinen (ohne Schuhe, Lederwaren und Teppiche) erwirtschaftet.</t>
+        </is>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>The Partnership for Sustainable Textiles was established in October 2014 in response to fatal accidents in textile factories. The indicator shows the number of members of the Textiles Partnership. Being a multi-stakeholder initiative, the Textiles Partnership has more than just business enterprises in its ranks. On the basis of jointly defined Partnership objectives, each company, by joining the Textiles Partnership, pledges to implement measures for continuous improvement of conditions and for compliance with social and environmental objectives of the Partnership throughout the company’s supply chain.
+In its founding year of 2014, 59 members joined the Textiles Partnership, including 26 companies. The end of 2016 saw membership reach its peak, having more than trebled to 188, including 133 companies. Since the introduction of the compulsory plans of action (Roadmaps) in 2017, however, there have been expulsions and several withdrawals from the Textiles Partnership. On the one hand, some members were expelled for non-fulfilment of their reporting obligations. On the other hand, some members withdrew, citing compliance costs or insufficient relevance. Thus, total membership stood at 123 at the end of December 2021. Of the original 59 founding members that joined in the period from October to December 2014, there were still 26 in the Partnership at the end of December 2021, whereby the Federal Government counts as one member instead of three in comparison to 2014. Over that five-year period there was an overall downward trend in the number of members.
+At the end of December 2021, 69 out of 123 members (56 %) were classified as companies; eight of them did not have their registered office in Germany. The Textiles Partnership consisted of 85 companies out of the 136 members in the preceding year. This decline reflects, that companies who are member in Textiles Partnership were obliged in 2020 for implementation of due diligence along the supply chain. This includes the analysis and prioritisation of social and ecological risks in the supply chain as well as the derivation of targets and measures for mitigation or reduction of these risks. Member companies have to report about the status of implementation of due diligence every other year. If a company is a member of the Textiles Partnership, this does not necessarily mean that its main economic activity is in the field of textiles and/or clothing manufacture. According to the statistical business register of the Federal Statistical Office in 2020, only about two thirds of 61 member companies operated primarily in the manufacture, wholesaling or retailing of textiles and/or clothing. Their aggregate turnover in 2020 amounted to 16.1 billion euros. According to the trade statistics of the Federal Statistical Office, total retail turnover for the whole of 2020 amounted to 635.2 billion euros, while total wholesale turnover came to 1,363.0 billion euros. About 4.1 % of these amounts were earned by companies primarily assigned to the wholesale and retail sector through sales of clothing, textiles and curtains, excluding footwear, leather goods and carpets.</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N35" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -697,6 +3389,82 @@
           <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>09.1.a</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>Private and public expenditure on research and development</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Ausgaben für Forschung und Entwicklung (FuE) von Wirtschaft, Staat und Hochschulen in Relation zum Bruttoinlandsprodukt (BIP).</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the expenditure on research and development by businesses, general government and institutions of higher education in relation to gross domestic product (GDP).</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>Die Ausgaben für Forschung und Entwicklung (FuE) sind eine wichtige, wenn auch nicht die alleinige Bestimmungsgröße für das Innovationstempo einer Volkswirtschaft. Je höher die Ausgaben sind, desto größer ist die Wahrscheinlichkeit für eine dynamischere Entwicklung der Produktivität, ein stärkeres Wirtschaftswachstum und eine verbesserte Wettbewerbsfähigkeit. Die Bundesregierung wird alle Möglichkeiten ausschöpfen, um das politische Ziel zu erreichen, die privaten und öffentlichen Ausgaben für Forschung und Entwicklung – eine wichtige Bestimmungsgröße für das Innovationstempo einer Volkswirtschaft – bis 2025 auf mindestens 3,5 % des Bruttoinlandsprodukts (BIP) jährlich zu erhöhen.</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="inlineStr">
+        <is>
+          <t>Expenditure on research and development (R&amp;D) is an important, although not the only determinant of an economy’s rate of innovation. The higher the expenditure, the higher the probability of more dynamic gains in productivity, the stronger economic growth and the more competitiveness is improved. The Federal Government has therefore set itself the goal of ensuring that private and public expenditure on research and development – a major determinant for the innovation rate of an economy – increases to at least an annual 3.5 % of gross domestic product by 2025.</t>
+        </is>
+      </c>
+      <c r="J36" s="5" t="inlineStr">
+        <is>
+          <t>Forschung und Entwicklung (FuE) sind wissenschaftliche Tätigkeiten und werden definiert als schöpferische und systematische Arbeiten zur Erweiterung des Wissensstandes – einschließlich des Wissens über die Menschheit, die Kultur und die Gesellschaft – und zur Entwicklung neuer Anwendungen auf Basis des vorhandenen Wissens. Um FuE gegenüber verwandten Tätigkeiten abzugrenzen, wird als Hauptkriterium geprüft, ob ein nennenswertes Element von Neuheit oder Weiterentwicklung vorhanden ist.
+Der Anteil der FuE-Ausgaben am Bruttoinlandsprodukt (BIP) wird jährlich vom Statistischen Bundesamt ermittelt. Die gesamten Ausgaben für FuE setzen sich aus den Ausgaben der Sektoren Staat (einschließlich privater Forschungseinrichtungen ohne Erwerbszweck), Hochschulen und Wirtschaft zusammen. Die Erhebungen und Berechnungen folgen den methodischen Empfehlungen des Frascati-Handbuchs der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD) zu Statistiken über FuE, wodurch die internationale Vergleichbarkeit sichergestellt ist.
+Im Jahr 2020 lagen die gesamten FuE-Ausgaben in Deutschland bei 106,6 Milliarden Euro. Dies entsprach einem Anteil von 3,1 % am BIP. Damit lag der Wert 0,4 Prozentpunkte unterhalb des gesetzten Zielwertes von jährlich mindestens 3,5 % des BIP bis 2025. Bei Fortsetzung der bisherigen Entwicklung wird das anvisierte Ziel verfehlt.
+Seit dem Jahr 2000 ist der Anteil der FuE-Ausgaben am BIP in Deutschland um 0,7 Prozentpunkte gestiegen. Insgesamt verdoppelten sich die FuE-Ausgaben seit 2000. Gegenüber dem Vorjahr 2019 sanken jedoch die FuE-Ausgaben im ersten Corona-Jahr um 3,4 Milliarden Euro. Dieser Rückgang beschränkt sich allerdings vollständig auf den Wirtschaftssektor, während in den anderen beiden Sektoren Anstiege zu verzeichnen waren.
+Im Jahr 2020 entfiel der weitaus größte Teil der FuE-Ausgaben in Deutschland mit 66,6 % auf die Wirtschaft, mit 18,7 % auf die Hochschulen und mit 14,6 % auf staatliche und private Forschungseinrichtungen ohne Erwerbszweck. Das Personal in FuE umfasste dabei geschätzt 733 831 Personen (in Vollzeitäquivalenten), wobei jeweils nur der im Bereich FuE geleistete Anteil der Arbeitszeit berücksichtigt wurde. Das Personal ist zu 63,7 % der Wirtschaft, zu 20,7 % den Hochschulen und zu 15,6 % den staatlichen und privaten Forschungseinrichtungen ohne Erwerbszweck zuzurechnen.
+Im internationalen Vergleich der OECD-Mitgliedstaaten lag Deutschland 2020 mit 3,1 % knapp vor Dänemark mit 3,0 % und Finnland mit 2,9 % sowie über dem Durchschnitt der EU-27-Region von 2,2 % und dem OECD-Durchschnitt von 2,7 % des BIP. Acht Staaten, wie zum Beispiel Schweden (3,5 %) oder Japan (3,3 %), lagen hingegen vor Deutschland. Im nationalen Vergleich lag Baden-Württemberg mit zuletzt 5,7 % (Jahr 2020) weit vor den übrigen Bundesländern; gefolgt von Bremen mit 3,7 % und Bayern mit 3,4 % des BIP.</t>
+        </is>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>Research and development (R&amp;D) are scientific activities and are defined as creative and systematic work to expand the level of knowledge – including knowledge of humankind, culture and society – and the development of new applications based on the existing knowledge. The main criterion applied to differentiate between R&amp;D and related activities is whether the activity involves an appreciable element of newness or further development.
+The share of research and development expenditure in the gross domestic product (GDP) is determined annually by the Federal Statistical Office. Overall expenditure on research and development comprises expenditure by general government (including non-profit private research institutions), institutions of higher education, and businesses. The surveys and calculations adhere to the recommended methodologies of the Frascati Manual of the OECD on statistics about R&amp;D, which also enable international comparisons.
+Overall R&amp;D expenditure in Germany in 2020 amounted to 106.6 billion euros, equivalent to 3.1 % of GDP. Hence, the indicator was 0.4 percentage points below the annual target of 3.5 % of GDP by 2025. If the past development continues, it can be assumed that the target value will not be reached.
+Since 2000, the share of R&amp;D in relation to GDP in Germany has increased by about 0.7 percentage points. Compared to 2000, the expenditures for R&amp;D have doubled. Compared to the preceding year 2019, the expenditure for R&amp;D activities decreased in the first year of the COVID-19 pandemic by 3.4 billion euros. However, this decline is completely limited to the economic sector and, in fact, the other two sectors recorded increments.
+In 2020, businesses accounted for the by far largest share of R&amp;D expenditure in Germany at around 66.6 %, with 18.7 % spent by institutions of higher education and a further 14.6 % by both public and private non-profit research institutions. Staff employed in R&amp;D comprised around 733,831 full-time equivalents, a figure that includes only the share of their working hours actually spent on R&amp;D work. Some 63.7 % of the staff work in businesses, 20.7 % in institutions of higher education and 15.6 % in public and private non-profit research institutions.
+In an international comparison among OECD member states, Germany reached 3.1 % in 2020 and was ahead of Denmark (3.0 %) and Finland (2.9 %), further, Germany exceeds the value of the EU 27 region with its 2.2 % and the OECD average of 2.7 % of GDP. Eight States, for instance Sweden (3.5 %) or Japan (3.3 %), were ahead of Germany. On a national level, Baden-Württemberg at 5.7 % (year 2020) was far ahead of other German Länder, followed by Bremen at 3.7 % and Bavaria at 3.4 % of GDP.</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t>9.5.1</t>
+        </is>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>45537</v>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -704,6 +3472,82 @@
           <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Z09_B01_P01</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>09.1.b</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>Breitbandausbau</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>Rollout of broadband</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Entwicklung der technisch verlegten Breitbandverfügbarkeit bei den Haushalten in Deutschland für Gigabit-Anschlüsse (≥ 1 000 Mbit/s) über reine Glasfasernetze (FTTB/H), Kabelfernsehen (CATV) und alle leitungsgebundenen Technologien.</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the development of broadband availability for households in Germany in terms of the technology installed, with separate figures for gigabit connections (≥ 1,000 Mbps) using fully fibre-optic networks (FTTB/H), cable television (CATV) and other types of wired technology.</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>Der flächendeckende Ausbau mit Gigabit-Netzen bis 2025 ist ein wesentliches Ziel der Bundesregierung. Neben der Steigerung der internationalen Wettbewerbsfähigkeit sollen über den Ausbau der Breitbandverfügbarkeit mit Gigabit-Geschwindigkeit gleichwertige Lebensbedingungen in Deutschland ermöglicht werden. Für die Erreichung dieser Ziele sollen neben dem vorwiegend privatwirtschaftlich erfolgenden Ausbau auch staatliche Fördermaßnahmen den Ausbau in unwirtschaftlichen Gebieten unterstützen.</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>The nationwide roll-out of gigabit networks by 2025 is one of the German Government’s key objectives. In addition to enhancing international competitiveness, the expansion of broadband availability with gigabit speeds is intended to facilitate the convergence of living standards across Germany. To achieve these aims, the predominantly private sector roll-out is to be supported by public funding schemes in unprofitable areas.</t>
+        </is>
+      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator erfasst die Breitbandverfügbarkeit bei Haushalten in Deutschland für eine Geschwindigkeit von mindestens 1 000 Mbit/s im Downstream über die leitungsgebundenen Technologien Glasfaser (FTTB/H) und Kabelfernsehen (CATV). Die Zahlen werden im Auftrag des Bundesministeriums für Digitales und Verkehr (BMDV) erhoben und im Breitbandatlas des Bundes veröffentlicht.
+Mit Stand Mitte 2021 sind Glasfaseranschlüsse (FTTB/H) mit einer Leistung von über 1 000 Mbit/s in 15,4 % der Haushalte in Deutschland verfügbar. Zwischen den Jahren 2015 und 2021 ist die Breitbandverfügbarkeit für 1 000 Mbit/s für FTTB/H um 8,7 Prozentpunkte angestiegen. Damit hat sich die Verfügbarkeit mehr als verdoppelt (+130 %). Im Zeitraum Ende 2018 bis Mitte 2021 hat sich der Anteil der Haushalte mit den entsprechenden Anschlüssen über CATV von 23,7 auf 56,5 % erhöht. Die Verfügbarkeit hat sich somit ebenfalls mehr als verdoppelt (+ 138 %). Damit stehen Mitte 2021 gigabitfähige Anschlüsse für insgesamt 62,1 % der Haushalte zur Verfügung.
+Die Breitbandverfügbarkeit im Gigabit-Bereich über alle Technologien konzentriert sich besonders auf städtische Gebiete. Dort haben im Jahr 2021 78,4 % der Haushalte einen Gigabit-Anschluss. In ländlich geprägten Gebieten ist der Anteil mit 22,9 % deutlich geringer. Wird dabei die Verteilung der Technologie betrachtet, haben Mitte 2021 75,1 % der Haushalte in städtischen und 12,8 % der Haushalte in ländlichen Gebieten einen Gigabit-Anschluss über CATV. Ein Gigabit-Anschluss über Glasfaser steht 18,6 % der Haushalte in städtischen und 11,3 % der Haushalte in ländlichen Räumen zur Verfügung.
+Eine unterschiedliche Verfügbarkeit zwischen städtischen und ländlichen Gebieten zeigt sich ebenfalls bei den Bundesländern. Den höchsten Anteil von Haushalten mit Gigabit-Anschlüssen über alle Technologien eines Flächenbundeslandes erreicht Schleswig-Holstein mit 79,7 % im Jahr 2021, gefolgt von Niedersachsen mit 66,8 %. Den geringsten Anteil von Haushalten mit Gigabit-Anschlüssen über alle Technologien eines Flächenbundeslandes verzeichnet Sachsen-Anhalt mit 26,0 %, nach Brandenburg mit 29,4 %. Im Vergleich liegt die Verfügbarkeit in den drei Stadtstaaten Berlin, Bremen und Hamburg bei über 90 % und damit sogar noch deutlich über dem Wert für die städtischen Gebiete bundesweit.
+Grundlage für die Unterteilung in städtische und ländliche Gebiete ist bei diesem Indikator ausschließlich die Bevölkerungsdichte. Die Angaben zur Breitbandverfügbarkeit stammen von mehr als 150 Telekommunikationsunternehmen (TKU), die nach deren aktuellen Versorgungsdaten befragt werden. Diese Daten werden zur Wahrung von Betriebs- und Geschäftsgeheimnissen der TKU auf Ebene von 250 x 250 Meter-Rasterzellen (ab 2022 100 x 100 Meter) aggregiert und nach sieben Bandbreitenklassen gruppiert. Während dabei reine Glasfasernetze mit über 1 000 Mbit/s bereits seit Ende 2015 betrachtet werden, erfolgt eine detailliertere Betrachtung der Klasse aufgrund von technischen Entwicklungen erst seit Ende 2018.
+Methodisch ist zu beachten, dass die Daten zur Breitbandverfügbarkeit von den TKU, bis zur Novellierung des Telekommunikationsgesetzes zum 1. Dezember 2021, auf freiwilliger Basis bereitgestellt wurden. Des Weiteren beziehen sich die angegebenen Verfügbarkeiten auf die verlegte Technik der TKU. Die tatsächlich nutzbare Breitbandverfügbarkeit vor Ort ist davon zu unterscheiden. Weiterführende Informationen zum Thema Breitbandmessung finden sich im Jahresbericht der Bundesnetzagentur.</t>
+        </is>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>The indicator measures the availability of broadband to households in Germany at downstream speeds of at least 1,000 Mbps, or one gigabit per second, using wired technology – fibre optics (FTTB/H) and cable television (CATV). The figures are collated on behalf of the Federal Ministry of Transport and Digital Infrastructure and published on the Government’s Broadband Atlas.
+As of the middle of 2021, fully fibre-optic internet connections (FTTB/H) capable of more than 1,000 Mbps were available in 15.4 % of households in Germany. Between 2015 and 2021, the availability of 1,000 Mbps FTTB/H broadband rose by 8.7 percentage points. In other words, it more than doubled, increasing by + 130 %. From the end of 2018 to the middle of 2021, the proportion of households with equally rapid connections using CATV grew from 23.7 % to 56.5 %. This is also more than double, equating to a + 138 % increase. Altogether, 62.1 % of households had gigabit-capable connections available as of mid-2021.
+For all technologies, the provision of gigabit broadband is concentrated particularly in urban areas, where some 78.4 % of households had gigabit-speed internet access as of 2021. That figure is markedly lower for areas of a rural character, at 22.9 % in 2021. To consider the distribution of the different technologies, 75.1 % of urban and 12.8 % of rural households had gigabit connections via CATV in mid-2021, while gigabit-capable fibre broadband was available to 18.6 % of households in urban areas and 11.3 % of those in rural areas.
+Differences in availability between urban and more rural areas are also discernible among the Länder. Of all the Länder that are not city states, Schleswig-Holstein has the highest level of gigabit-speed provision using any technology in 2021, at 79.7 % of all households, followed by Lower Saxony on 66.8 %. At the other end of the scale, 26 % of households in Saxony-Anhalt can say the same, with Brandenburg the next-lowest at 29.4 %. In contrast, provision of gigabit-speed broadband is markedly higher than 90 % in the three city states, Berlin, Bremen and Hamburg.
+The foundation for the distinction between urban and rural areas is solely the population density for this indicator. The information about gigabit broadband are collected from more than 150 telecommunications companies in Germany. They are asked about their current provision. To preserve the companies’ business and trade secrets, the resultant data are aggregated into a grid of 250-metre by 250-metre cells (from 2022: 100x100 metre) and grouped according to seven classes of broadband. Although full-fibre networks with speeds of over 1,000 Mbps have been included in observations since the end of 2015, that class has only been studied in detail since the end of 2018 in light of the latest technological advances.
+Methodologically, it should be noted that the telecom companies provide their data on broadband availability on a voluntary basis until the revision of the Telecommunications Act on 1 December 2021. Furthermore, the figures for availability refer to the technology that telecom companies have installed, as opposed to the actually usable broadband capacity in the area. Additional information on broadband measurement can be found in the annual report of the Bundesnetzagentur, Germany’s federal networks agency.</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="inlineStr">
+        <is>
+          <t>17.6.1</t>
+        </is>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>45672</v>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -711,6 +3555,80 @@
           <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B01_P01</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>Foreign school graduates</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den Anteil ausländischer Schulabsolvierender in Prozent aller ausländischen Schulabgehenden und Schulabsolvierenden eines Jahrgangs. Als Absolvierende gelten hierbei Personen, die die allgemeinbildenden Schulen mit mindestens einem Hauptschulabschluss verlassen, während Abgehende diejenigen Personen meint, die die Schule ohne Schulabschluss verlassen.</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the proportion of foreign school graduates as a percentage of all foreign school leavers within a school year. In this case, the term “graduates” refers to people who leave general education schools with at least a secondary general school certificate.</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>Die Integration der in Deutschland lebenden Ausländerinnen und Ausländer ist eine wichtige Voraussetzung für den sozialen Zusammenhalt unserer Gesellschaft. Grundbedingung für eine erfolgreiche Integration ist eine ausreichende schulische Qualifizierung, die berufliche Ausbildungs- und Erwerbsmöglichkeiten eröffnet. Ziel der Bundesregierung ist es daher, bis zum Jahr 2030 den Anteil ausländischer Schulabsolvierender zu erhöhen und den Anteil an die Quote deutscher Schulabsolvierender anzugleichen.</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="inlineStr">
+        <is>
+          <t>The integration of foreigners living in Germany is an important prerequisite for cohesion within our society. A basic prerequisite for successful integration is the acquisition of sufficient qualifications at school to open up further educational and employment opportunities later on. The goal of the Federal Government is therefore to increase the share of foreign school graduates who obtain at least a secondary general school certificate and to bring this share into line with the corresponding rate for German school graduates by 2030.</t>
+        </is>
+      </c>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>Datengrundlage des Indikators bilden die Schulstatistiken der einzelnen Bundesländer. Dabei handelt es sich in der Regel um Totalerhebungen mit Auskunftspflicht. Ihre Zusammenfassung zum Bundesergebnis erfolgt durch das Statistische Bundesamt auf Grundlage des von der Kultusministerkonferenz erstellten Definitionenkatalogs. Die Aggregation der Länderergebnisse zum Bundesergebnis wird beeinträchtigt durch die unterschiedliche Bildungspolitik der Länder, zum Beispiel bei Versetzungsregeln oder der Einrichtung von Bildungsgängen im Bereich der beruflichen Schulen. Dies kann auch durch formale Regelungen der jeweiligen Zuordnungen nur zum Teil kompensiert werden.
+Absolvierende sind Schülerinnen und Schüler, die die jeweilige Schulart mit Abschluss verlassen haben. Eingeschlossen werden Schülerinnen und Schüler, die zu einer anderen allgemeinbildenden Schulart gewechselt sind, um einen zusätzlichen Abschluss zu erwerben. Zudem gelten als Ausländerin oder Ausländer alle Personen, die nicht Deutsche im Sinne des Artikel 116 Absatz 1 Grundgesetz (GG) sind, das heißt die deutsche Staatsangehörigkeit nicht besitzen. Dazu zählen auch Staatenlose und Personen mit ungeklärter Staatsangehörigkeit. Deutsche, die zugleich eine weitere Staatsangehörigkeit besitzen, zählen nicht zur ausländischen Bevölkerung.
+Im Jahr 2021 lag der Anteil der ausländischen Schulabsolvierenden, gemessen an allen ausländischen Schulabgehenden und Schulabsolvierenden, bei 84,3 %. Damit hat sich der Anteil gegenüber dem Vorjahreswert verschlechtert. Betrachtet man die geschlechtsspezifischen Anteile, so lag der Anteil der ausländischen Absolventinnen bei 87,4 %, während der Anteil der Absolventen mit 81,6 % geringer ausfiel. Der Anteil deutscher Schulabsolvierender lag zuletzt bei 94,9 % und ist somit annähernd stabil. Der Abstand zwischen dem Anteil ausländischer gegenüber dem deutscher Schulabsolvierender war in 2013 mit 6,1 Prozentpunkten auf dem bislang niedrigsten Stand, hat sich aber in Anschluss an die Flüchtlingskrise 2015/2016 wieder deutlich erhöht und ist sogar auf über den Wert von vor 20 Jahren angestiegen (11,9 Prozentpunkte in 1996 und 13,0 Prozentpunkte in 2017). Nachdem sich der Abstand in 2020 wieder verringert hat, lag er zuletzt bei 10,6 Prozentpunkten in 2021.
+Das Ziel, den Anteil ausländischer Schulabsolvierender, die mindestens einen Hauptschulabschluss erreichen, zu erhöhen, wurde in 2021 also ebenso verfehlt wie das Ziel, den Anteil an die Quote deutscher Schulabsolvierender anzugleichen.
+Betrachtet man neben den reinen Anteilen auch die Niveaus der erreichten Abschlüsse, so lässt sich feststellen, dass 30,7 % der ausländischen Schulabsolvierenden allgemeinbildender Schulen des Jahrgangs 2021 einen Hauptschulabschluss erwarben, 39,9 % beendeten die Schule mit einem mittleren Abschluss und 13,7 % erreichten die Fachhochschulreife oder die allgemeine Hochschulreife. Bei den deutschen Schulabsolvierenden erwarben 14,3 % einen Hauptschulabschluss, 43,9 % einen mittleren Abschluss und 36,7 % die Fachhochschulreife oder die allgemeine Hochschulreife. Insbesondere bei den höheren Bildungsabschlüssen sind demnach die ausländischen Jugendlichen im Vergleich zu den deutschen deutlich unterrepräsentiert.</t>
+        </is>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>The school statistics, compiled by the individual Länder, form the data basis for this indicator. These statistics are generally derived from a complete count with an obligation to provide information. The Federal Statistical Office combines them to create a federal result based on the catalogue of definitions compiled by the Standing Conference of the Ministers of Education. The aggregation of the Länder results into the federal result is influenced by the different education policies of the Länder, for example, with regard to admission rules, in setting up courses of education in the area of vocational schools. This can only be partially offset by formal regulations for the respective allocations.
+Graduates are pupils who have left the respective type of school with a school certificate. Included are pupils who have changed to another type of general education school in order to obtain an additional certificate. Furthermore, foreigners are defined as all persons who are not German within the meaning of Article 116 (1) of the Basic Law, i.e. who do not hold the German citizenship. This also includes persons who are stateless and persons with undetermined citizenship. Germans who also hold another citizenship are not included in the foreign population.
+In 2021, the proportion of all foreign school leavers who obtained at least a lower secondary school leaving certificate was 84.3 %. This represents a decrease compared with the previous year. If one splits the figures by gender, female foreign school leavers graduated at a rate of 87.4 %, while the proportion was lower among their male counterparts, at 81.6 %. The proportion of German school leavers obtaining at least a lower secondary school leaving certificate has remained fairly stable, most recently recorded as 94.9 %. The gap between the share of foreign and German pupils graduating from school was at 6.1 percentage points on the lowest level in 2013, however, the migration of refugees in 2015/2016 caused a significant increase and even exceeded the value 20 years ago (11.9 percentage points in 1996 and 13.0 percentage points in 2017). After a decline in 2020, the gap increased to 10.6 percentage points in 2021.
+Both, the target to increase the share of foreign school leavers with at least a secondary general school certificate and to reduce the gap between German and foreign pupils graduating from school, were missed in 2021.
+To break the figures down by types of certificate obtained, 30.7 % of foreign pupils who graduated from general schools achieved a lower secondary school leaving certificate in 2021, while 39.9 % completed their schooling with an intermediate secondary school leaving certificate and 13.7 % gained university-entrance qualifications. Among German school graduates, 14.3 % received a lower secondary school leaving certificate, 43.9 % gained an intermediate secondary school leaving certificate and 36.7 % earned university-entrance qualifications. This leaves young foreigners considerably under-represented in comparison to Germans, especially when it comes to the higher-level school leaving certificates.</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>45601</v>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -718,6 +3636,77 @@
           <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>Z10_B02_P01</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>Gini coefficient of income after social transfers</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt die Verteilung des verfügbaren Äquivalenzeinkommens mittels Gini-Koeffizienten dar.</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the distribution of equivalised disposable income per person using Gini coefficients.</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>Ungleichheit in der Einkommens- und Vermögensverteilung ist ein grundsätzlich akzeptierter Bestandteil einer dynamischen Marktwirtschaft. Allerdings muss die Einkommens- und Vermögensspreizung moderat und die soziale Teilhabe aller gewährleistet bleiben. Durch entsprechende Rahmenbedingungen sowie zielgerichtete Umverteilung von Einkommen mittels Steuern und Sozialleistungen soll erreicht werden, dass der Gini-Koeffizient des verfügbaren Äquivalenzeinkommens bis 2030 unterhalb des EU-Wertes liegt.</t>
+        </is>
+      </c>
+      <c r="I39" s="5" t="inlineStr">
+        <is>
+          <t>Inequality in income and wealth distribution is a generally accepted component of a dynamic market economy. However, the income and wealth gap must remain moderate and social inclusion be guaranteed for all. The goal is to keep the Gini coefficient of equivalised disposable income below the EU average until 2030 by means of suitable framework conditions as well as a targeted re-distribution of income through taxes and social benefits.</t>
+        </is>
+      </c>
+      <c r="J39" s="5" t="inlineStr">
+        <is>
+          <t>Der Gini-Koeffizient ist ein Maß der relativen Ungleichheit und kann einen Wert zwischen null und eins annehmen. Im Falle der Gleichverteilung ergibt sich für den Gini-Koeffizienten ein Wert von null und im Falle der Konzentration des gesamten Einkommens auf nur eine Person ein Wert von eins. Ein Gini-Koeffizient von eins gibt somit die Situation bei maximaler Ungleichverteilung an. Je kleiner der Gini-Koeffizient, umso gleichmäßiger ist das Einkommen verteilt.
+Das Äquivalenzeinkommen ist ein bedarfsgewichtetes Einkommen und somit ein Wert, der sich aus dem Gesamteinkommen eines Haushalts und der Anzahl und dem Alter der in diesem Haushalt lebenden Personen ergibt. Mithilfe einer Äquivalenzskala werden die Einkommen nach Haushaltsgröße und -zusammensetzung gewichtet. Dadurch werden die Einkommen von Personen, die in unterschiedlich großen Haushalten leben, vergleichbar, da in größeren Haushalten Einspareffekte (Economies of Scale) auftreten (zum Beispiel durch gemeinsame Nutzung von Wohnraum oder Haushaltsgeräten). Das verfügbare Äquivalenzeinkommen ist das Gesamteinkommen (einschließlich Sozialtransfers) eines Haushalts nach Steuern und anderen Abzügen und somit das Einkommen, das für Ausgaben und Sparen zur Verfügung steht. Abzugrenzen davon ist das Äquivalenzeinkommen vor Sozialleistungen, bei dem das verfügbare Einkommen ohne eventuelle Sozialtransfers (zum Beispiel Arbeitslosengeld oder Wohnbeihilfe) betrachtet wird, sowie das Markteinkommen, das sich vor Steuern, Sozialabgaben und Sozialleistungen errechnet. Bei allen betrachteten Einkommen wird nicht unterschieden, welche Quellen zur Einkommenserzielung dienen (zum Beispiel  Arbeitslohn, Mieteinkünfte oder Kapitalerträge).
+Die Daten zum Äquivalenzeinkommen stammen aus der europaweit harmonisierten jährlichen Statistik über Einkommen und Lebensbedingungen (EU-SILC), die im Erhebungsjahr 2020 aufgrund der zunehmenden Anforderungen an die Daten hinsichtlich der Aktualität und Bereitstellung tiefer regionaler Ergebnisse mit weitreichenden methodischen Änderungen in den Mikrozensus integriert wurde. Dadurch sind die Ergebnisse ab 2020 nicht mit denen der vorherigen Erhebungsjahre vergleichbar. Der Gini-Koeffizient des Markteinkommens wird nicht aus EU-SILC berechnet, sodass hierfür auf die Angaben aus dem Sozio-oekonomischen Panel (SOEP) des Deutschen Instituts für Wirtschaftsforschung (DIW) zurückgegriffen wird. Bei den erhobenen Daten wird methodisch kompensiert (und das macht sie international vergleichbar), dass Haushalte mit hohem Einkommen bzw. großem Vermögen in freiwilligen Stichprobenerhebungen häufig unterrepräsentiert sind.
+Wie in den vergangenen Jahren entsprach der Gini-Koeffizient des verfügbaren Äquivalenzeinkommens für Deutschland (2021: 0,309) nahezu dem Wert für die Europäische Union (EU) (2021: 0,301), das heißt, es gab nur geringe Unterschiede in der Einkommensverteilung zwischen Deutschland und der EU. Dennoch lag auch im Jahr 2021 der Gini-Koeffizient des verfügbaren Äquivalenzeinkommens oberhalb des entsprechenden Wertes der EU, sodass das Ziel der Bundesregierung nicht erfüllt wurde. Der Gini-Koeffizient des verfügbaren Äquivalenzeinkommens lag klar unter dem Gini-Koeffizienten des Äquivalenzeinkommens vor Sozialleistungen (0,309 zu 0,376). Erwartungsgemäß lag der Gini-Koeffizient des Markteinkommens deutlich höher (0,497 in 2019), was bestätigt, dass Sozialleistungen, -versicherungen und Steuern in Deutschland erheblich zum Abbau von Ungleichheiten beim verfügbaren Einkommen beitragen.
+Betrachtet man dagegen den Gini-Koeffizienten des Vermögens in Deutschland, der aus dem „Household Finance and Consumption Survey“ (HFCS) stammt, der unregelmäßig von der Europäischen Zentralbank (EZB) durchgeführt wird, zeigt sich eine deutlich ungleichmäßigere Verteilung. Im Jahr 2017 lag der entsprechende Gini-Koeffizient bei 0,739 und damit weit über den Werten zur Einkommensverteilung. Im Jahr 2017 lag der Wert für die Eurozone bei 0,695 und somit niedriger al</t>
+        </is>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>The Gini coefficient is a statistical measure of income inequality. It has a value between 0 and 1. The value 0 means that every person has exactly the same income whereas the value 1 indicates that only one person receives all the income, thereby representing a situation of maximum income inequality. Hence, the smaller the Gini-coefficient, the more evenly is the income distributed.
+The equivalised income is a value derived from the total income of a household and the number and age of the people living from this income. With the help of an equivalence scale, the incomes are weighted according to household size and composition, as the shared use of living space and household appliances results in savings (Economies of Scale). With the equivalised income then allocated equally to each household member, it becomes possible to compare people’s incomes independently of age or household size. A household’s equivalised disposable income is the income, including social transfers, which remains after taxes and other deductions, and is therefore the income available for spending and saving. A distinction must be made between this measure and equivalised income before social transfers, which looks at disposable income without any possible welfare payments, such as unemployment benefit or housing assistance, or market income, which is calculated before taxes, social contributions and social benefits. In none of these ways of looking at income is a differentiation made between the sources of income, i.e. whether it takes the form of wages, rental income or capital gains.
+The data used to calculate equivalised income come from the annual harmonised European statistics on income and living conditions (EU SILC) and are incorporated with extensive methodological changes into the microcensus due to increasing requirements on data with respect to actuality and provision of more detailed regional results in survey year 2020. Thus, the results from 2020 on are not comparable with previous years. Since EU-SILC is not yet drawn upon to calculate a Gini coefficient for market income, data from the German Socio-Economic Panel (SOEP) of the German Institute for Economic Research are used for this purpose. The fact that households with high income and extensive assets are under-represented in voluntary sample surveys is methodologically compensated for.
+As in previous years, the Gini coefficient of the equivalised disposable income for Germany (2021: 0.309) almost equals that for the European Union (2021: 0.301). Thus, there are no significant differences in income distribution between Germany and Europe. In 2021, the Gini-coefficient of equivalised disposable income was above the respective value of the EU, such that the target of the Federal Government was missed. Furthermore, the Gini coefficient of the equivalised disposable income is well below the Gini coefficient of the equivalised disposable income before social benefits without pensions (0.309 as compared with 0.376). As expected, the Gini coefficient of market income was even higher at 0.497 (2019). In Germany, social benefits, social insurance and taxes thus contribute considerably to reducing inequalities in disposable income.
+The wealth distribution figures for Germany are taken from the Household Finance and Consumption Survey (HFCS) conducted on an irregular basis by the European Central Bank and show a clear uneven distribution. Turning to the corresponding Gini coefficient (2017: 0.739), wealth in Germany is much less evenly distributed than income. The gap to the respective European value (Eurozone 2017: 0.695) is substantial and the European value is lower than the value for Germany. However, the impression of there being a disproportionately high wealth inequality is qualified by several factors not covered by the Gini coefficient. For instance, the evaluation of wealth does not take into account future pension entitlements. In addition, due to the stricter protection of tenant</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t>10.2.1</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>10.4.2</t>
+        </is>
+      </c>
+      <c r="N39" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -725,6 +3714,77 @@
           <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>11.1.a</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>Expansion of settlement and transport area</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den durchschnittlichen täglichen Anstieg der Siedlungs- und Verkehrsfläche in Hektar pro Tag.</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the average daily expansion of the area used for settlement and transport infrastructure in hectares per day.</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>Fläche ist eine begrenzte Ressource. Um ihre Nutzung konkurrieren beispielsweise Land- und Forstwirtschaft, Siedlung und Verkehr, Naturschutz, Rohstoffabbau und Energieerzeugung. Die Inanspruchnahme zusätzlicher Flächen für Siedlungs- und Verkehrszwecke soll bis zum Jahr 2030 auf durchschnittlich unter 30 Hektar pro Tag begrenzt werden. Bis zum Jahr 2050 wird eine Flächenkreislaufwirtschaft angestrebt. Das heißt, es sollen netto keine weiteren Flächen für Siedlungs- und Verkehrszwecke beansprucht werden.</t>
+        </is>
+      </c>
+      <c r="I40" s="5" t="inlineStr">
+        <is>
+          <t>Land is a limited resource. It is subject to competition from various interests, including agriculture and forestry, settlement and transport, nature conservation, resource extraction and energy generation. The development of additional land for settlement and transport purposes is to be limited to an average of less than 30 hectares per day by 2030. The goal is to establish a closed-loop land-use regime by 2050, meaning that, in net terms, no additional area will be developed for the purposes of settlement or transport.</t>
+        </is>
+      </c>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>Siedlungs- und Verkehrsfläche ist nicht gleichzusetzen mit versiegelter Fläche. Zur Siedlungsfläche zählen die Nutzungsarten Wohnbaufläche, Industrie- und Gewerbefläche, öffentliche Einrichtungen sowie Erholungsfläche und Friedhöfe. Unter die Siedlungsfläche fallen auch die Flächen für Bergbaubetrieb und Tagebau (sogenanntes Abbauland). Diese werden für die Berechnung dieses Indikators jedoch nicht mit einbezogen, da sie langfristig betrachtet wieder einer anderen Nutzung (zum Beispiel als Bergbaufolgelandschaft) zugeführt werden. Die Verkehrsfläche setzt sich aus den vier Unterarten Straßen- und Wegeverkehr, Bahn-, Flug- und Schiffsverkehr zusammen. Dementsprechend bezieht sich der Indikator nicht allein auf die versiegelte Fläche, sondern erfasst auch unbebaute und nicht versiegelte Flächen. Dazu gehören beispielsweise auch Hausgärten, Parks und Grünanlagen. Nach Berechnungen der Umweltökonomischen Gesamtrechnungen der Länder wird der Versiegelungsanteil der Siedlungs- und Verkehrsfläche im Länderdurchschnitt auf 45 % geschätzt (2020).
+Der Indikator geht aus der Flächenerhebung nach Art der tatsächlichen Nutzung (kurz: amtliche Flächenstatistik) hervor, die wiederum auf den Daten des amtlichen Liegenschaftskatasters der Länder beruht. Im Liegenschaftskataster ist es in den vergangenen Jahren teilweise zur Neuzuordnung von Flächen gekommen, denen keine realen Nutzungsänderungen zugrunde lagen. Um den hieraus resultierenden Effekt auszugleichen, wird ein gleitender Vierjahresdurchschnitt abgebildet, der sich aus dem aktuellen Berichtsjahr und den drei vorangegangenen Jahren errechnet. Zudem wurde im Jahr 2016 die Umstellung vom alten auf den neuen Nutzungsartenkatalog vollendet, was sich auch auf die amtliche Flächenstatistik auswirkte, sodass die Vergleichbarkeit der Daten von 2016 mit den Vorjahren eingeschränkt ist. Aus diesem Grund entfällt für den Indikatorwert in 2016 auch eine Unterteilung in die einzelnen Nutzungsartengruppen innerhalb der Siedlungs- und Verkehrsfläche.
+Im Zeitraum von 2000 bis 2020 wurden 6 257 Quadratkilometer in Siedlungs- und Verkehrsfläche umgewandelt. Dies entspricht mehr als der doppelten Fläche des Saarlandes. Den Großteil machte dabei mit 85 % die Umwandlung in Siedlungsfläche aus, während die Verkehrsfläche 15 % der umgewandelten Fläche in Anspruch nahm.
+Der gleitende Vierjahresdurchschnitt für neu in Anspruch genommene Flächen für Siedlungs- und Verkehrszwecke ist seit Beginn der Zeitreihe bis zum Jahr 2019 kontinuierlich gesunken. In diesem Jahr lag der gleitende Vierjahresdurchschnitt bei 52 Hektar pro Tag und stieg im Jahr 2020 auf 54 Hektar pro Tag an. Auch bei der Betrachtung der einzelnen Berichtsjahre nahm die neu in Anspruch genommene Fläche für Siedlungs- und Verkehrszwecke im Jahr 2019 mit 45 Hektar pro Tag den niedrigsten Wert an. Seitdem ist dieser Wert wieder angestiegen, auf 58 Hektar pro Tag im Jahr 2020.
+Im Jahr 2020 betrug die Siedlungs- und Verkehrsfläche insgesamt 50 196 Quadratkilometer und machte damit 14 % der gesamten Fläche Deutschlands aus. Die größten Flächenarten in Deutschland sind mit 180 934 Quadratkilometern die Landwirtschaftsfläche (51 %), gefolgt von der Waldfläche mit 106 666 Quadratkilometern (30 %). Zwischen 2016 und 2020 erhöhte sich die Siedlungs- und Verkehrsfläche um 942 Quadratkilometer. Im gleichen Zeitraum verringerte sich die Landwirtschaftsfläche um 1 703 Quadratkilometer, während sich die Waldfläche um 496 Quadratkilometer erhöhte. Somit ist davon auszugehen, dass der Anstieg der Siedlungs- und Verkehrsfläche im Wesentlichen zulasten von Landwirtschaftsflächen erfolgte.</t>
+        </is>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>Settlement and transport area should not be equated with sealed land. Settlement land includes areas used for residential building, industry and commerce, public facilities, recreational amenities or cemeteries. It also covers land used for surface or sub-surface mining. However, mining land is not counted in the calculations for this indicator, as it ends up being reclaimed for other uses in the long term (e.g. as renaturalised post-mining landscapes). Transport area is made up of four subcategories: road transport, rail, aviation and shipping. The indicator therefore refers not only to sealed areas but also to undeveloped and unsealed land. These include, for example, domestic gardens, parks and other green spaces. As calculated in the environmental economic accounts compiled by the Länder, the sealed share of their settlement and transport area is estimated at 45 % on average (2020).
+The indicator is derived from the area survey by type of actual use (official land-use statistics), which in turn is based on data from the official land register maintained by the Länder. Some areas of land have been reclassified in the official land register in recent years without any actual change in the way they are used. To balance out the effect this has on the statistics for any particular year, a four-year moving average is also shown, averaging out the year in question and the three preceding years. Moreover, the switch from the old to the new land-use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. It is for this reason that the overall indicator value for 2016 is also not subdivided into types of settlement or transport use.
+From 2000 to 2020, 6,257 km² of land was converted into settlement and transport area. This is equivalent to more than twice the area of Saarland. The majority, 85 %, was converted into settlement land, while 15 % went to accommodate transport infrastructure.
+The four-year moving average of previously undeveloped areas newly converted to settlement or transport area continuously decreased throughout the time series until 2019. This year, the four-year moving average was at 52 hectares per day and increased to 54 hectares per day in 2020. Considered for each reporting year separately, the value for new settlement or transport area was lowest in 2019, at 45 hectares per day. The figure has risen again since then, to 58 hectares per day in 2020.
+In 2020, the area of settlement or transport use amounted to 50,196 km², or 14 % of the total area of Germany. The largest land types in Germany are agricultural land at 180,934 km² (51 %) followed by woodland at 106,666 km² (30 %). Settlement and transport area grew by 942 km² between 2016 and 2020. Agricultural land shrank by 1,703 km² during the same period, while woodland grew by 496 km². It can therefore be assumed that the increase in settlement and transport area was primarily at the expense of agricultural land.</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>11.3.1</t>
+        </is>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N40" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -732,6 +3792,77 @@
           <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>11.1.b</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>Freiraumverlust</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>Loss of open space area</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt als gleitender Vierjahresdurchschnitt die jährliche Veränderung der Freiraumfläche in Quadratmetern je Einwohnerin und Einwohner dar.</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>The indicator represents the annual change in the per capita open space area in square metres as a four-year moving average.</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>Freiraumflächen sollen für die land- und forstwirtschaftliche Nutzung, als Kultur- und Naturlandschaften sowie als Erholungsräume erhalten bleiben. Daher soll der Rückgang der Freiraumflächen je Einwohnerin und Einwohner reduziert werden. Vermindert sich der Freiraumverlust, so gibt das Hinweise auf einen Erfolg von Maßnahmen, die die Innenentwicklung stärken und so Agrar-, Wald- und Gewässerflächen für die Land- und Forstwirtschaft, den Naturschutz sowie für die Erholung der Bevölkerung schonen.</t>
+        </is>
+      </c>
+      <c r="I41" s="5" t="inlineStr">
+        <is>
+          <t>Open space areas should be preserved for agricultural and forestry use, as cultural and natural landscapes as well as recreation areas. For this reason, the decline in the per capita open space area should be reduced. A reduction in the loss of open space area indicates the success of measures to strengthen inner development and thereby conserve agricultural, wooded and water areas for agriculture and forestry, nature conservation and recreational use by the population.</t>
+        </is>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>Als Freiraumflächen werden Vegetationsflächen (zum Beispiel Ackerland, Weideland oder Waldflächen), sowie Abbauflächen und Wasserflächen bezeichnet. Freiraumflächen sind begrifflich abzugrenzen von Freiflächen im Siedlungsbereich, wie beispielsweise Friedhöfen, Gärten, Parks oder Freizeitanlagen, die zwar weitestgehend unbebaut sind, aber prinzipiell zur Siedlungs- und Verkehrsfläche zählen. Werden also bisher von Bebauung freigehaltene Siedlungsflächen bebaut, spiegelt sich dies weder in diesem Indikator 11.1.b zum „Freiraumverlust“ noch im Indikator 11.1.a „Anstieg der Siedlungs- und Verkehrsfläche“ wider.
+Im betrachteten Zeitraum verringerte sich der Freiraumverlust pro Kopf im Bundesdurchschnitt. Waren es im gleitenden Vierjahresmittel 2001 bis 2004 noch etwa 5 Quadratmeter je Einwohnerin und Einwohner, so sind es im aktuellen Vierjahresmittel 2017 bis 2020 nur noch rund 3 Quadratmeter.
+Bei gleicher Tendenz zeigen sich zwischen ländlichen und nicht ländlichen Räumen deutliche Unterschiede im Ausmaß der Veränderung. So reduzierte sich der Freiraumverlust in ländlichen Räumen je Einwohnerin und Einwohner von 7,4 auf 4,5 Quadratmeter pro Jahr. In den nicht ländlichen Räumen ging er von 1,8 auf 0,7 Quadratmeter zurück. Hierbei ist zu berücksichtigen, dass es in nicht ländlichen Kreisen und kreisfreien Städten erheblich weniger Freiraumflächen wie Wälder oder Landwirtschaftsflächen gibt als in ländlichen Räumen. Zudem verläuft die Bevölkerungsentwicklung unterschiedlich und wirkt sich entsprechend auf den Indikator aus: Während ländliche Regionen im betrachteten Zeitraum überwiegend einen Rückgang der Bevölkerung verzeichneten, stieg die Einwohnerzahl in nicht ländlichen Regionen insgesamt etwas an.
+Datengrundlagen des Indikators sind die Bevölkerungszahlen und die Flächenerhebung nach Art der tatsächlichen Nutzung des Statistischen Bundesamtes. Da zu seiner Berechnung Bevölkerungsdaten auf regionaler Ebene herangezogen werden, gab es durch den Zensus 2011 einen Sprung in den Zeitreihen. Daneben kam es im amtlichen Liegenschaftskataster der Länder in den vergangenen Jahren teilweise zur Neuzuordnung von Flächennutzungen ohne reale Änderung in der Landschaft. Um diese Effekte zu glätten und den langfristigen Trend herauszustellen, wird ein gleitender Vierjahresdurchschnitt abgebildet, der die Daten der jeweiligen Jahre und der drei vorangegangenen Jahre mittelt. Zudem wurde im Jahr 2016 die Umstellung des alten auf den neuen Nutzungsartenkatalog vollendet, was sich auch auf die amtliche Flächenstatistik auswirkte, sodass die Vergleichbarkeit der Daten von 2016 mit den Vorjahren eingeschränkt ist. Aus diesem Grund ist die Entwicklung des Indikators für das Jahr 2016 in der Grafik nur in gestrichelter Form abgebildet.
+Die Unterscheidung zwischen „ländlich“ und „nicht ländlich“ basiert auf einer Typisierung des Thünen-Instituts. Das Institut ordnet Landkreisen und kreisfreien Städten – auf Basis von räumlichen Merkmalen wie „Siedlungsdichte“ und „Anteil land- und forstwirtschaftlicher Fläche“ – einen Grad an „Ländlichkeit“ zu. Somit bezieht sich diese Typisierung auf die Kreisebene und nicht auf kleinere räumliche Einheiten wie Städte und Dörfer.</t>
+        </is>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>Open space area includes areas of vegetation, such as arable land, pasture and woodland, as well as mining land and bodies of water. A distinction is made between open space proper and open areas within settlement zones, such as cemeteries, gardens, parks and recreational amenities, which, although largely undeveloped, are generally considered part of settlement and transport area. As a result, if previously undeveloped parts of settlement land are built on, this is neither reflected in this indicator 11.1.b “Loss of open space area” nor in the indicator 11.1.a “Expansion of settlement and transport area”.
+In the period under review, the national average for per capita loss of open space area went down. Whereas the four-year moving average for 2001-2004 was still around 5 m2 per capita, the current four-year moving average for 2017-2020 reveals a figure of just 3 m2.
+Although subject to a similar trend, significant differences can be observed between rural and non-rural areas in terms of the degree of change. The loss of per capita open space area per inhabitant in rural areas contracted from 7.4 to 4.5 m2 per year. In non-rural areas, it fell from 1.8 m2 to 0.7 m2. In this context, it important to remember that non-rural districts and district-free cities have much less open space, such as forest or farmland, than rural areas do. Demographic trends also differ, and the indicator reflects those disparities, with rural areas mostly seeing their populations shrink during the period under review, while population numbers in non-rural areas rose slightly overall.
+The data sources for the indicator are the population figures and the area survey by type of actual use compiled by the Federal Statistical Office. Since population data at regional level are used for the associated calculations, the 2011 census caused a jump in the time series. Moreover, some areas of land have been reclassified in the official land register maintained by the Länder in recent years, without any actual change to the landscape. To smooth out these effects and depict the long-term trend, a four-year moving average is shown, averaging out the figures for each year with those for the three preceding years. Additionally, the switch from the old to the new land use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. This is why the development of the indicator for 2016 is only shown as a broken outline in the graph.
+The distinction between rural and non-rural is based on a classification used by the Thünen Institute. The institute ascribes a degree of rurality to districts and district-free cities on the basis of geographical characteristics such as settlement density and share of farmland and woodland. The classification is thus applied to whole districts rather than to smaller entities like towns or villages.</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>11.3.1</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N41" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -739,6 +3870,81 @@
           <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B01_P01</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>11.1.c</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Siedlungsdichte</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Density of settlements</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Entwicklung der Bevölkerung je Quadratkilometer Siedlungs- und Verkehrsfläche im Vergleich zum Basisjahr 2000.</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>Taking 2000 as a base year, the indicator shows the development of population numbers per square kilometre of settlement or transport area.</t>
+        </is>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator „Siedlungsdichte“ gibt Hinweise auf die Effizienz der Siedlungsflächennutzung. Ziel der Bundesregierung ist es, durch flächensparende Maßnahmen beim Neubau und bei der Innenentwicklung, wie der Reduzierung von Wohnungs- und Gewerbeleerstand sowie Nachverdichtungen und Erhöhung der Baudichte, der Verringerung der Siedlungsdichte entgegenzuwirken.</t>
+        </is>
+      </c>
+      <c r="I42" s="5" t="inlineStr">
+        <is>
+          <t>The density of settlements indicator provides information about the efficiency of settlement land use. The goal of the Federal Government is to counteract the reduction in settlement density by implementing space-saving measures for all new construction, brownfield development, reduction of residential and commercial vacancy, and densification or dedensification of built-up areas.</t>
+        </is>
+      </c>
+      <c r="J42" s="5" t="inlineStr">
+        <is>
+          <t>Bei der Siedlungsdichte wird die Einwohnerzahl ins Verhältnis zur Siedlungs- und Verkehrsfläche gesetzt, im Gegensatz zur Bevölkerungsdichte, wo die Gesamtfläche die Bezugsgröße ist.
+Zur Siedlungsfläche zählen dabei neben Wohnbauflächen auch Flächen besonderer funktionaler Prägung (zum Beispiel Krankenhäuser oder Schulen), Industrie- und Gewerbeflächen, Flächen mit gemischter Nutzung (zum Beispiel an Einkaufsstraßen) sowie Sport-, Freizeit- und Erholungsflächen. Sowohl Veränderungen der Einwohnerzahl als auch Veränderungen bei der Ausdehnung der Siedlungs- und Verkehrsflächen haben Einfluss auf den Wert der Siedlungsdichte.
+Die Siedlungsdichte unterscheidet sich zwischen ländlichem und nicht ländlichem Raum erheblich: Auf einem Quadratkilometer Siedlungs- und Verkehrsfläche leben in nicht ländlichen Kreistypen durchschnittlich 3 337 Menschen, in ländlichen rund 1 197 (Stand: 2020). In Städten werden dabei die Wohnbauflächen oft wesentlich dichter und auch mehrstöckiger bebaut als in ländlichen Regionen, wo eine lockerere Bebauung mit größeren, unversiegelten Flächenanteilen, wie zum Beispiel Hausgärten, vorherrscht.
+Von 2000 bis 2009 nahm die Siedlungsdichte sowohl in ländlichen als auch in nicht ländlichen Regionen kontinuierlich ab. Dabei war in nicht ländlichen Regionen der absolute Rückgang etwas geringer als in den ländlichen Regionen. Bedingt durch die deutlich geringere Siedlungsdichte in den ländlichen Regionen fiel der Rückgang dort relativ betrachtet mit 11 % stärker aus als in den nicht ländlichen Regionen mit 4 %. In den nicht ländlichen Räumen ist die Siedlungsdichte seit dem Jahr 2011 wieder angestiegen. Somit werden die Siedlungs- und Verkehrsflächen in eher städtisch geprägten Räumen wieder effizienter genutzt als in den Jahren zuvor.
+Werden die Entwicklungen der Einwohnerzahl und der Siedlungs- und Verkehrsfläche einzeln betrachtet, so zeigen sich deutliche Unterschiede zwischen ländlichen und nicht ländlichen Regionen. Zwischen 2000 und 2020 stieg die Siedlungs- und Verkehrsfläche sowohl in ländlichen als auch in nicht ländlichen Regionen an, allerdings mit 15,9 bzw. 8,8 % in unterschiedlichem Umfang. Nachdem die Bevölkerungszahl in den ländlichen Regionen Anfang des Jahrtausends noch leicht anstieg, verringerte sie sich danach bis 2012 um rund 2,6 %, um dann bis 2020 wieder um 2,1 % zu steigen. In den nicht ländlichen Regionen hingegen stieg die Einwohnerzahl sowohl zwischen 2000 und 2010 (um 1,7 %) als auch zwischen 2011 und 2020 (um 5,6 %) an. Die Auswirkungen der Inanspruchnahme zusätzlicher Siedlungs- und Verkehrsflächen wurden deshalb in ländlichen Regionen durch den Rückgang der Bevölkerungszahl verstärkt.
+Datengrundlagen des Indikators sind die Bevölkerungszahlen und die Flächenerhebung nach Art der tatsächlichen Nutzung des Statistischen Bundesamtes. Bei den Bevölkerungsdaten ergab sich durch den Zensus 2011 ein Sprung in den Zeitreihen. Daneben kam es im amtlichen Liegenschaftskataster der Länder in den vergangenen Jahren teilweise zur Neuzuordnung von Flächennutzungen, denen keine realen Nutzungsänderungen zugrunde lagen. Zudem wurde im Jahr 2016 die Umstellung des alten auf den neuen Nutzungsartenkatalog vollendet, was sich auch auf die amtliche Flächenstatistik auswirkte, sodass die Vergleichbarkeit der Daten von 2016 mit den Vorjahren eingeschränkt ist. Um die Daten dennoch vergleichen zu können, wurden die jeweiligen Werte ausgehend vom Zensus 2011 und der Veränderung der Flächenerhebung im Jahr 2016 zurückgerechnet.
+Die Unterscheidung zwischen „ländlich“ und „nicht ländlich“ basiert auf einer Typisierung des Thünen-Instituts. Das Institut ordnet Landkreisen und kreisfreien Städten – auf Basis von räumlichen Merkmalen wie „Siedlungsdichte“, „Anteil land- und forstwirtschaftlicher Fläche“ und der Erreichbarkeit großer Zentren – einen Grad an „Ländlichkeit“ zu. Somit bezieht sich diese Typisierung auf die Kreisebene und nicht auf kleinere räumliche Einheiten wie Städte und Dörfer. Nach dies</t>
+        </is>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>Settlement density looks at the number of inhabitants in relation to the amount of settlement and transport area – in contrast to population density, which is based on the entire land area.
+Apart from residential building land, settlement land includes areas of special functional character (such as hospitals and schools), industrial and commercial land, mixed-use land (such as shopping streets), and areas for sports, leisure and recreation. Changes in the number of inhabitants and changes in the extent of settlement and transport area both affect figures for the density of settlements.
+Settlement density varies considerably between rural and non-rural areas, with the figures for 2020 showing an average of 3,337 people per square kilometre of settlement and transport area in non-rural districts but around 1,197 in rural districts. Residential building land in towns and cities is frequently much more densely developed, and with more multiple-floor buildings, than in rural regions, where more scattered development incorporating larger unsealed areas such as domestic gardens is prevalent.
+From 2000 to 2009, there was a steady decline in settlement density in both rural and nonrural regions. The reduction in absolute terms is slightly smaller in non-rural areas than in rural regions. In relative terms, given the distinctly lower settlement density in rural areas, the reduction was considerably greater there, at 11 %, than the 4 % reduction observed in non-rural areas. Settlement density in non-rural regions been rising again since 2011. This shows that settlement and transport area in relatively urban areas is being used more efficiently than in previous years.
+Looking at the trends in population numbers and settlement and transport area separately reveals marked differences between rural and non-rural regions. Between 2000 and 2020, the amount of settlement and transport area in both rural and non-rural regions increased, though to differing extents – by 15.9 % and 8.8 % respectively. After rising slightly at the beginning of the century, the rural population then shrank by approximately 2.6 % until 2012 before increasing again by 2.1 % by 2020. In contrast, the population in non-rural regions grew by 1.7 % between 2000 and 2010 and again, by 5.6 %, between 2011 and 2020. The effects that the development of additional settlement and transport area had on the indicator were therefore amplified in rural regions by the declining population numbers there.
+The data sources for this indicator are the population figures and the area survey by type of actual use compiled by the Federal Statistical Office. In the population numbers, the 2011 census caused a jump in the time series. Some areas of land have moreover been reclassified in the official land register maintained by the Länder in recent years, without any actual change in the way they are used. Additionally, the switch from the old to the new land-use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. So that comparisons can nevertheless be drawn, the relevant values were extrapolated on the basis of the 2011 census and the 2016 reform of the land-use survey.
+The distinction between rural and non-rural is based on a classification used by the Thünen Institute. The institute ascribes a degree of rurality to districts and district-free cities on the basis of geographical characteristics such as settlement density, share of farmland and woodland, and the accessibility of urban centres. The classification is thus applied to whole districts rather than to smaller entities like towns or villages. In 2020, 43 % and 57 % of the population lived in non-rural and rural areas by this definition, respectively.</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="inlineStr">
+        <is>
+          <t>11.3.1</t>
+        </is>
+      </c>
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N42" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -746,6 +3952,89 @@
           <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>11.2.a</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieverbrauch im Güterverkehr</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>Final energy consumption in goods transport</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt die Entwicklung des Endenergieverbrauchs für den Transport von Gütern im Inland in der Binnenschifffahrt, im Eisenbahn- und im Straßengüterverkehr dar.</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
+        <is>
+          <t>Final energy consumption in goods transport represents the energy consumption for the carriage of goods within Germany via inland shipping, by rail and by road.</t>
+        </is>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>Der Verkehr bringt eine Reihe von Problemen mit sich. So beeinträchtigen etwa Lärm und Luftschadstoffe die Lebensqualität insbesondere in Städten und verkehrsbedingte Emissionen tragen zum Klimawandel bei. Der Ausstoß von schädlichen Treibhausgasen (THG) steht in engem Zusammenhang mit der im Verkehr verbrauchten Energie.
+Ziel ist es den Endenergieverbrauch im Güterverkehr bis zum Jahr 2030 um 15 bis 20 % gegenüber 2005 zu senken.</t>
+        </is>
+      </c>
+      <c r="I43" s="5" t="inlineStr">
+        <is>
+          <t>Transport creates a range of problems. For instance, noise and air pollution impair quality of life, especially in cities, and traffic-related emissions contribute to climate change. The emission of harmful greenhouse gases is closely linked to the energy consumed for transport purposes.
+The aim is to reduce final energy consumption in goods transport by 15 to 20 % by 2030 compared to 2005.</t>
+        </is>
+      </c>
+      <c r="J43" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten zum Endenergieverbrauch im Inland werden der Transport-Emission-Model (TREMOD-)Datenbank des Instituts für Energie- und Umweltforschung (ifeu) entnommen. TREMOD ist ein Modell zur Bewertung von Verkehrsemissionen. Die Daten enthalten die Treibstoffverbräuche innerhalb Deutschlands unabhängig vom Ort der Betankung. Als Endenergie wird der direkt im Verkehr genutzte Teil der Energie bezeichnet. Die Umwandlungsverluste während der Herstellung der Kraftstoffe sowie eventuelle Leitungsverluste bleiben hierbei unberücksichtigt.
+Die Beförderungsleistungen des Güterverkehrs zur Berechnung des spezifischen Energieverbrauchs in diesem Sektor stammen auch aus TREMOD. Dabei wird der Güterverkehr über den Luftweg nicht mit einbezogen, da er vergleichsweise sehr gering ist.
+Der Indikator zum Endenergieverbrauch im Güterverkehr bezieht sich definitionsgemäß auf den Verbrauch im Inland. Die Einflüsse der zunehmenden Auslandsverflechtung der deutschen Wirtschaft im Rahmen der Globalisierung werden nur unzureichend wiedergegeben.
+Neben dem Energieverbrauch wird ergänzend auch die Energieeffizienz dargestellt, also der Energieverbrauch je Tonnenkilometer. Die Anzahl der Tonnenkilometer gibt Aufschluss darüber, inwieweit sich die Verkehrsleistung, also die transportierte Menge in Tonnen je gefahrenen Kilometer, ändert.
+Der Endenergieverbrauch in der Güterbeförderung ist im Jahr 2020 gegenüber 2005 – entgegen dem angestrebten Ziel der Bundesregierung – um 1,8 % angestiegen. Er hat damit einen Anteil von 28,7 %&lt;sup&gt;1&lt;/sup&gt; am gesamten Endenergieverbrauch des Verkehrs erreicht. Der starke Anstieg ist vor allem dem Gütertransport auf der Straße zuzuschreiben. Der Endenergieverbrauch im Straßengüterverkehr hat in diesem Zeitraum um 3,8 % zugenommen, während bei der Bahn und der Binnenschifffahrt der Verbrauch deutlich reduziert wurde (–17,9 bzw. –32,7 %).
+Im gleichen Zeitraum hat sich die Güterbeförderungsleistung um 15,9 % erhöht. Bei vergleichbarem Energieverbrauch in den Jahren 2005 und 2020 konnte dadurch eine deutliche Effizienzsteigerung um 12,2 % in diesem Zeitraum erreicht werden.
+Während der Wirtschaftskrise von 2009 ist die preisbereinigte Bruttowertschöpfung im Verarbeitenden Gewerbe mit knapp 20 % besonders stark zurückgegangen. Dieser starke Einbruch wirkte sich insbesondere auf den Verkehrssektor aus, da dieser unmittelbar auf die Zu- und Abnahme der Warenproduktion reagiert. Die daraus resultierende geringere Auslastung der Transportkapazitäten erklärt den leichten Anstieg des durchschnittlichen Energieverbrauchs je Tonnenkilometer, obwohl der absolute Energieverbrauch insgesamt während der Krisenjahre stark zurückging.
+Nach der Krise hat sich die Transportbranche schnell wieder erholt und die Beförderungsleistung lag schon im Jahr 2010 45 Milliarden Tonnenkilometer über dem Wert von 2005. Im Jahr 2015 wurde das Vorkrisenniveau aus dem Jahr 2008 überschritten. Die Steigerung setzte sich mit 12 % bis zum Jahr 2019 gegenüber 2010 fort. Gleichzeitig stieg der Energieverbrauch jedoch nur um 4,3 %, was zu einer Effizienzsteigerung in diesem Zeitraum von 6,9 % führte. Im ersten Pandemiejahr zeigt sich eine Umkehr der Entwicklung. So reduzierte sich 2020 gegenüber 2019 der Energieverbrauch um 3,2 % und das Transportaufkommen um 4,3 %. Die Auswirkungen der Pandemie waren damit allerdings beim Gütertransport nicht so gravierend wie beim Personenverkehr (siehe Indikator 11.2.b). Der vergleichsweise geringere Rückgang des Energieverbrauchs führte zudem zu einer leichten Verschlechterung der Effizienz um 1,2 %.
+So kommt es am aktuellen Rand zwar bezüglich des Indikators an sich zu einer günstigen Entwicklung, zugleich nahm aber der Verbrauch je Tonnenkilometer zu.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Die Summe der Anteile von Güterverkehr (Indikator 11.2.a) und Personenverkehr (Indikator 11.2.b) am gesamten Endenergieverbrauch durch den Verkehr ergeben zusammen nicht 100 %. Diese Abweichung ist durch unterschiedliche Abgrenzungen der Energieverbrä</t>
+        </is>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>The data regarding domestic final energy consumption originates from the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. TREMOD is a model for evaluating transport emissions. The data record fuel consumption within Germany irrespective of where refuelling takes place. “Final energy” refers to that part of the total energy used that is directly consumed in transport. It does not cover the conversion losses that arise during the production of fuels or any pipeline losses that may occur.
+TREMOD also supplies the goods transport volumes which are used to calculate the specific energy consumption of this sector. Air freight transport is not included, as it accounts for negligibly small volumes.
+By definition, the indicator for final energy consumption in goods transport refers to consumption within Germany. It gives only an inadequate reflection of the German economy’s increasingly complex international ties in a globalised world.
+The energy-consumption data presented here is supplemented by energy efficiency, or energy consumed per tonne-kilometre. The number of tonne-kilometres provides information about the extent to which transport intensity or the distance per transported tonne changes.
+Contrary to the Federal Government’s target, final energy consumption for the carriage of goods was 1.8 % higher in 2020 compared with 2005. Goods thereby accounted for 28.7 %&lt;sup&gt;1&lt;/sup&gt; of total final energy consumption in the transport sector. The sharp increase can be attributed primarily to freight transport by road. Final energy consumption in road goods transport increased by 3.8 % during this period, while consumption for rail and inland shipping was significantly reduced (– 17.9 % and – 32.7 % respectively).
+During the same period, goods transport volumes increased by 15.9 %. In conjunction with comparable energy consumption in 2005 and 2020, this means a significant increase in efficiency of 12.2 % during that time.
+During the economic crisis of 2009, price-adjusted gross value added in the manufacturing industry suffered a particularly sharp decline of just under 20 %. This heavy loss particularly affected the transport sector, which reacts directly to increases and falls in the production of goods. The resultant decrease in the utilisation of transport capacity explains why average energy consumption per tonne-kilometre rose slightly despite the sharp fall in overall energy consumption in absolute terms during the crisis years.
+After the crisis, the transportation industry has recovered fastly and the transportation volume already increased in 2010 above the value in 2005 by 45 billion tonne-kilometres. The pre-crisis level from 2008 was exceeded in 2015. The development continued and increased by 12 % until 2019 compared to the value in 2010. Simultaneously, the energy consumption increased only slightly by 4.3 %, which caused an increase in efficiency by 6.9 % in this period. However, the development reversed during the first year of pandemic. In 2020, energy consumption and transportation volume reduced by 3.2 % and 4.3 %, respectively, compared to pre-pandemic level in 2019, whereby the pandemic affected goods transport not as severe as passenger transport (see indicator 11.2.b). Further, the comparably small decrease in energy consumption caused a slight deterioration in efficiency by 1.2 %.
+This is why the latest trend of the indicator presents a beneficial development, although the consumption per tonne-kilometre also increased.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;The sum of shares of goods transport (indicator 11.2.a) and passenger transport (indicator 11.2.b) in proportion to total final energy consumption in transport do not add up to 100 %. This discrepancy is caused by different definitions of energy consumption in passenger and goods transport (domestic consumption; source: TREMOD) and total final energy consumption in traffic (domestic sales; source: AG Energiebila</t>
+        </is>
+      </c>
+      <c r="L43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N43" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -753,6 +4042,85 @@
           <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>11.2.b</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Endenergieverbrauch im Personenverkehr</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Final energy consumption in passenger transport</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt die Entwicklung des Endenergieverbrauchs durch die Beförderung von Personen mit der Bahn, im Luft- und Straßenverkehr (öffentlicher und Individualverkehr) im Inland dar.</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="inlineStr">
+        <is>
+          <t>Final energy consumption in passenger transport represents the energy consumption for the carriage of people within Germany by rail, by air and by road (public and private transport).</t>
+        </is>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>Der Verkehr bringt eine Reihe von Herausforderungen mit sich. So beeinträchtigen etwa Lärm und Luftschadstoffe die Lebensqualität insbesondere in Städten und verkehrsbedingte Emissionen tragen zum Klimawandel bei. Der Ausstoß von schädlichen Treibhausgasen (THG) steht im Zusammenhang mit der im Verkehr verbrauchten Energie.
+Ziel ist es, den Endenergieverbrauch im Personenverkehr bis zum Jahr 2030 um 15 bis 20 % zu senken.</t>
+        </is>
+      </c>
+      <c r="I44" s="5" t="inlineStr">
+        <is>
+          <t>Transport brings with it a range of challenges. For instance, noise and air pollution impair quality of life, especially in cities, and traffic-related emissions contribute to climate change. The emission of harmful greenhouse gases is linked to the energy consumed for transport purposes.
+The aim is to reduce final energy consumption in passenger transport by 15 to 20% by 2030.</t>
+        </is>
+      </c>
+      <c r="J44" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten zum Endenergieverbrauch im Inland werden der Transport-Emission-Model-(TREMOD-)Datenbank des Instituts für Energie- und Umweltforschung (ifeu) entnommen. TREMOD ist ein Modell zur Bewertung von Verkehrsemissionen. Die Daten enthalten die Kraftstoffverbräuche im Zusammenhang mit dem Personenverkehr innerhalb Deutschlands – unabhängig vom Ort der Betankung – nach dem Verbrauchskonzept. Endenergie bezeichnet dabei den direkt im Verkehr genutzten Teil der Energie, lässt also die Umwandlungsverluste während der Herstellung der Kraftstoffe sowie eventuelle Leitungsverluste unberücksichtigt.
+Die Personenbeförderungsleistung gibt die Anzahl der zurückgelegten Personenkilometer an. Sie wird zur Berechnung des spezifischen Energieverbrauchs in diesem Sektor verwendet und stammt auch aus TREMOD. Im Luftverkehr werden nur die Inlandsflüge (nationaler Luftverkehr) berücksichtigt. Internationale Flüge vom und in das Bundesgebiet bleiben unberücksichtigt. Auch die Personenbeförderung in der Schifffahrt wird nicht einbezogen.
+27,2 % des gesamten Endenergieverbrauches sind dem Verkehr zuzurechnen. Hieran hat der Personenverkehr einen Anteil von 65,3 %&lt;sup&gt;1&lt;/sup&gt;. Einsparungen beim Endenergieverbrauch im Personenverkehr wirken sich daher merklich auf den gesamten Energieverbrauch in Deutschland aus. Die Anzahl der Personenkilometer gibt Aufschluss darüber, inwieweit sich die Beförderungsleistung (Änderung der Fahrgast-/Fluggastzahlen je gefahrenen Kilometer) ändert. Ergänzend wird neben dem Endenergieverbrauch auch die Energieeffizienz im Personenverkehr, gemessen als Endenergieverbrauch je Personenkilometer, betrachtet.
+Im Zeitraum 2005 bis 2020 veringerte sich der Endenergieverbrauch im Personenverkehr insgesamt um 14,5 % und entwickelte sich damit aktuell in die richtige Richtung zu seinem Ziel in der Deutschen Nachhaltigkeitsstrategie.
+Auch die Anzahl der zurückgelegten Personenkilometer zwischen 2005 und 2020 verringerte sich um 14,3 %, sodass der Energieverbrauch je Personenkilometer im gleichen Zeitraum, bezogen auf alle Verkehrsträger, nur geringfügig um 0,2 % auf 1,63 Megajoule pro Personenkilometer&lt;sup&gt;2&lt;/sup&gt; anstieg. Somit konnte die Effizienz im Personenverkehr nicht gesteigert werden. Dies liegt hauptsächlich an der COVID-19-Pandemie, durch die die Mobilität der Menschen stark eingeschränkt war. Sowohl bei den Eisenbahnen als auch im Straßen- und Luftverkehr verringerten sich der Energieverbrauch und die Beförderungsleistung. Dies führte zu einer geringen Effizienzsteigerung im Straßenverkehr um 1,1 %, während die Effizienz bei den Eisenbahnen um 13,7 % und im Luftverkehr um 56,7 % sank. Dieser Effizienzrückgang im Eisenbahn- und Luftverkehr ist auf die geringere Auslastung von Zügen und Flugzeugen durch die COVID-19-Pandemie zurückzuführen.
+Der motorisierte Individualverkehr mit Pkw und Zweirädern hatte im Jahr 2020 einen Anteil von 86,1 % an der gesamten Personenbeförderungsleistung. Im Jahr 2019 lag dieser bei 80,3 %. Er lässt sich in verschiedene Kategorien unterteilen. Der Berufsverkehr (Pendler- und Geschäftsfahrten) hatte im Jahr 2019 (aktuellere Daten lagen bei Redaktionsschluss noch nicht vor) mit 36,6 % den größten Anteil, gefolgt vom Freizeitverkehr mit 30,9 %. Der Einkaufsverkehr hatte einen Anteil von 17,5 %. Die verschiedenen Fahrtzwecke haben sich seit 2005 unterschiedlich entwickelt. Insbesondere die beruflich bedingten Fahrten haben deutlich zugenommen (+ 19,0 %), während die Fahrten für Freizeit (– 8,9 %) und Einkauf (– 2,1 %) abgenommen haben.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Die Summe der Anteile von Güterverkehr (Indikator 11.2.a) und Personenverkehr (Indikator 11.2.b.) am gesamten Endenergieverbrauch durch den Verkehr ergeben zusammen nicht 100 %. Diese Abweichung ist durch unterschiedliche Abgrenzungen der Energieverbräuche im Personen- und Güterverkehr (Inlandsverbrauch; Quelle: TREMOD) und des gesamten Endenergieverbrauchs im Verkehr (Inlandsabsatz; Quelle: AG Energiebilanzen) bedingt.
+&lt;sup&gt;2&lt;/sup&gt;Zur </t>
+        </is>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>The data regarding domestic final energy consumption originates from the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. TREMOD is a model for evaluating transport emissions. The data record fuel consumption associated with passenger transport within Germany, irrespective of where refuelling takes place (in accordance with the principle of actual final consumption). “Final energy” refers to that part of the total energy used that is directly consumed in transport, so it excludes conversion losses that arise during the production of fuels as well as any pipeline losses that may occur.
+The volume of passenger transport is expressed in terms of the number of passenger-kilometres travelled. Provided by TREMOD, this figure is used to calculate the specific level of energy consumption in this sector. In the aviation statistics, only domestic flights are taken into account. International flights departing from or landing in German territory are not counted. Nor is waterborne passenger transport included.
+Some 27.2 % of overall final energy consumption can be attributed to transport. Of this, 65.3 %&lt;sup&gt;1&lt;/sup&gt; is accounted for by passenger transport. Savings in final energy consumption in passenger transport therefore have a marked effect on total energy consumption in Germany. The number of passenger-kilometres provides information about the extent to which transport intensity (changes of rail or air passenger numbers per kilometres travelled) changes. In addition to final energy consumption, the indicator also examines energy efficiency in passenger transport, measured in terms of energy consumption per passenger-kilometre.
+Final energy consumption in passenger transport decreased by a total of 14.5 % in the period from 2005 to 2020. Thus, final energy consumption in passenger transport is currently developing in a direction which supports the goal of the German strategy for sustainable development.
+Also the number of passenger-kilometres covered decreased by 14.3 % between 2005 and 2020, such that energy consumption in all forms of transport increased only slightly by 0.2 % to 1.63 megajoules per passenger-kilometre&lt;sup&gt;2&lt;/sup&gt; during the same period. Consequently, efficiency in passenger transport could not be increased. This is essentially because of major restrictions to mobility during the COVID-19 pandemic. Both energy consumption and transportation volume reduced for rail, air and road transport. Thus, the road transport slightly increased in efficiency by 1.1 %, while efficiency in rail and air transport decreased by 13.7 % and 56.7 %, respectively. The decline in efficiency for rail and air transport can be attributed to lesser train and airplane occupancy during the COVID-19 pandemic.
+Private motorised transport by car or two-wheeled vehicle accounted for 86.1 % of total passenger transport volumes in 2020. Its share in 2019 was 80.3 %. It can be subdivided into various categories. In 2019 (more recent figures not yet available), work-related transport, i.e. commuter traffic and business travel, accounted for the largest share, at 36.6 %, followed by recreational transport at 30.9 %. Travel for shopping accounted for 17.5 %. These purpose-based categories of transport have developed differently since 2005. Work-related travel in particularly has increased significantly (+ 19.0 %), while journeys for recreation or shopping have declined (- 8.9 % and - 2.1 % respectively).
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;The sum of shares of goods transport (indicator 11.2.a) and passenger transport (indicator 11.2.b) in proportion to total final energy consumption in transport do not add up to 100 %. This discrepancy is caused by different definitions of energy consumption in passenger and goods transport (domestic consumption; source: TREMOD) and total final energy consumption in traffic (domestic sales; source: AG Energiebilanzen).
+&lt;sup&gt;2&lt;/sup&gt;For a better understanding: the heatin</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N44" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -760,6 +4128,80 @@
           <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B02_P01</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>11.2.c</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln
+</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Accessibility of medium-sized and large cities by public transport</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator weist die bevölkerungsgewichtete durchschnittliche Reisezeit mit öffentlichen Verkehrsmitteln zum nächsten Mittel- oder Oberzentrum aus.</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows population-weighted average travel times to the nearest medium-sized or large city by public transport.</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>Mobilität ist ein wichtiger Faktor, um Menschen soziale Teilhabe zu ermöglichen. Entsprechend sollten Raum und Verkehr so gestaltet werden, dass für die gesamte Bevölkerung gute Mobilitätsangebote und eine entsprechende Anbindung an Mittel- oder Oberzentren vorhanden sind. Ziel der Bundesregierung ist es daher, die durchschnittliche Reisezeit mit öffentlichen Verkehrsmitteln zum nächsten Mittel- oder Oberzentrum zu verringern.</t>
+        </is>
+      </c>
+      <c r="I45" s="5" t="inlineStr">
+        <is>
+          <t>Mobility is a key factor in enabling people to participate in society. Accordingly, urban development and transport should be designed to provide good mobility services and suitable connections to medium-sized or major cities for the entire population. Therefore, the goal of the Federal Government is to shorten the average amount of time it takes people to travel to their nearest medium-sized or major city by public transport.</t>
+        </is>
+      </c>
+      <c r="J45" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator wird vom Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR) berechnet. Als öffentliche Verkehrsmittel werden Verkehrsangebote definiert, die jede Person nach Entrichtung der jeweiligen Gebühren benutzen kann. Flexible Bedienformen wie zum Beispiel Anrufbusse, die ohne feste Haltestellen und Fahrpläne auf Anforderung verkehren, werden hierbei nicht berücksichtigt.
+Ein Vergleich zwischen den Werten des Indikators von 2012 und 2020 zeigt, dass sich die bevölkerungsgewichtete durchschnittliche Reisezeit zum nächsten Mittel- oder Oberzentrum in diesem Zeitraum von 23,5 auf 20,6 Minuten verkürzt hat. Dies entspricht einer Verringerung um 12,3 %.
+Seit dem Jahr 2012 hat sich jedoch die Zahl der Mittel- und Oberzentren von 1 010 auf 1 112 im Jahr 2020 erhöht. Dies ist insbesondere auf die zusätzliche Ausweisung von Mittelzentren in Bayern zurückzuführen. Inwiefern diese Neuausweisung mit einer tatsächlichen Verbesserung des Versorgungsangebotes der Orte einhergeht, kann hier nicht beurteilt werden. Die Zunahme der Mittel- und Oberzentren trug jedoch wesentlich zu einer Senkung der durchschnittlichen Reisezeit bei. Bei einer Berechnung der durchschnittlichen Reisezeit, bei der die Mittel- und Oberzentren des Jahres 2012 über den gesamten Zeitverlauf als Basis genutzt werden, ergibt sich eine Verkürzung der Reisezeit von 23,5 Minuten im Jahr 2012 auf 21,3 Minuten im Jahr 2020. Dies entspricht lediglich einer Verringerung der Reisezeit von 9,4 % gegenüber dem Jahr 2012.
+Als Datengrundlage dienen Fahrplandaten der Deutschen Bahn, von Verkehrsverbünden sowie zahlreiche weitere Fahrpläne. Aus den Fahrplandaten wurden für etwa 260 000 Haltestellen die kürzesten Fahrzeiten in das nächste Mittel- oder Oberzentrum während der morgendlichen Hauptverkehrszeit ermittelt. Dieser Zeitraum ist je nach Berichtsjahr unterschiedlich definiert. Wurden 2012 Verbindungen mit einer Ankunftszeit zwischen sechs und neun Uhr berücksichtigt, waren es 2016 und 2018 solche mit einer Ankunftszeit zwischen acht und zwölf Uhr. Für 2020 wurde der Ankunftszeitraum auf den Zeitraum sechs bis zwölf Uhr ausgedehnt.
+Auch weil noch nicht alle Nahverkehrspläne vollständig in die verwendete Datenbank integriert wurden, sind die Werte zwischen den Berichtsjahren nicht ohne Einschränkungen vergleichbar. Zudem gibt der Indikator nur Auskunft über die geplanten Reisezeiten ins nächste Zentrum gemäß der Fahrpläne und bezieht Verspätungen und Verbindungsausfälle nicht in die Berechnung mit ein. Die Häufigkeit eines Verkehrsangebotes ins nächstgelegene Mittel- oder Oberzentrum bleibt zudem ebenso außer Betracht wie die Wegezeit zur bzw. von der Haltestelle. Zudem basiert dieser Indikator auf den Fahrplandaten – somit bleiben Verspätungen oder auch Ausfälle unberücksichtigt.
+Die Einstufung eines Ortes als Mittel- oder Oberzentrum bestimmt sich nach der Ausstattung des Ortes mit Versorgungsangeboten an Waren, Dienstleistungen und Infrastruktur, die in den umgebenden Unterzentren nicht zur Verfügung stehen. Hierzu zählen unter anderem Facharztpraxen, Krankenhäuser, kulturelle Angebote sowie weiterführende Schulen und Hochschulen. In jedem Mittel- oder Oberzentrum, insbesondere in Großstädten, wurde nur ein Zielpunkt (Stadtzentrum) bestimmt. Die Zielhaltestellen wurden im Umkreis von einem Kilometer um den Zielpunkt gewählt und die schnellste Verbindung von der Starthaltestelle dorthin gesucht. Mithilfe kleinräumiger Bevölkerungsdaten des Statistischen Bundesamtes wurde dann ein bevölkerungsgewichteter Mittelwert der Reisezeit für Deutschland ermittelt.</t>
+        </is>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>The indicator is computed by the Federal Institute for Research on Building, Urban Affairs and Spatial Development. Public means of transport are defined as transport services that anyone can use on payment of the relevant fees. Flexible forms of operation, such as on-call buses that operate on demand without fixed stopping points and timetables, are not taken into account.
+Comparing the indicator values for 2012 and 2020 shows that the population-weighted average travel time to the nearest medium-sized or major city fell from 23.5 to 20.6 minutes during that period. This equates to a reduction of 12.3 %.
+However, the number of medium-sized and major cities grew from 1,010 in 2012 to 1,112 in 2020. Much of this growth can be traced to the designation of additional urban centres as medium-sized cities in Bavaria. It is beyond the purview of this report to assess whether that change of status reflects an actual improvement in the provision available in those cities. Nonetheless, the increase in medium-sized and major cities notably helped reduce the average travel time required to reach one. If the average travel time for each reporting year is calculated on the basis of only those intermediate and major cities which existed in 2012, it is found to have decreased from 23.5 minutes in 2012 to 21.3 minutes in 2020. This equates to a reduction in travel time of only 9.4 % in relation to 2012.
+The data for these calculations were taken from the timetables of Deutsche Bahn, various networks and numerous other transport providers. With the help of the timetable data, the travel times to the nearest intermediate or major city during peak morning traffic times were determined for about 260,000 stops. This period is defined differently across the reporting years. Whereas connections with arrival times between 6 a.m. and 9 a.m. were taken into account in 2012, the figures for 2016 and 2018 refer to connections with arrival times between 8 a.m. and 12 noon. For 2020, the arrival time was expanded to a period from 6 a.m. to 12 noon.
+Not least because not all local transport schedules had been fully incorporated into the database used, the values for the different reporting years cannot be compared without caveats. Moreover, the indicator provides information about the scheduled travel time to the next centre and does not account for delays or cancellations in its calculations. Therefore, the frequency of transport services to the nearest intermediate or major city is ignored, as is travel time to and from the stopping point. Furthermore, this indicator is based on timetable data – which means that delays or even cancellations are not taken into account.
+The classification of an urban centre as a medium-size or large city is determined according to the availability of goods, services and infrastructure that are not available in the surrounding regional towns. These include, among other things, specialist medical practices, hospitals, cultural facilities as well as secondary schools and institutions of higher education. In each intermediate or large city, especially in large cities, only one location in the city centre was designated as the destination. The destination stops were selected within a radius of one kilometre around that destination point, and the quickest connection from each departure stop to that point was sought. A population-weighted average value of the travel time for Germany was then determined with the help of small-scale population data from the Federal Statistical Office.</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>11.2.1</t>
+        </is>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N45" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -767,6 +4209,79 @@
           <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B03_P01</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Überlastung durch Wohnkosten</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Housing cost overload</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den Anteil der Personen, die in Haushalten leben, welche mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben. Ausgaben für Wohnen sind dabei die Nettokaltmiete, Nebenkosten, Energiekosten und Ausgaben für Wasserversorgung sowie bei Wohneigentum werterhaltende Investitionen und Zinszahlungen für Kredite.</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the share of people living in households where more than 40 % of disposable household income is spent on housing. Housing costs comprise rent and ancillary charges, energy costs and water bills as well as, in the case of home ownership, investments to maintain the value of a property and interest payments on associated loans.</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>Hohe Wohnkosten führen dazu, dass Haushalte in ihren übrigen Konsumentscheidungen eingeschränkt werden. Ausgaben für Wohnen von mehr als 40 % des verfügbaren Haushaltseinkommens werden als Überlastung angesehen. Der Anteil der Personen, die in Haushalten leben, die mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben, soll deshalb bis zum Jahr 2030 auf 13 % gesenkt werden.</t>
+        </is>
+      </c>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>High housing costs place restrictions on households with regard to their other consumption choices. Housing expenses amounting to more than 40 % of disposable household income are considered to be excessive. The share of people who live in households where more than 40 % of disposable household income is spent on housing is therefore to be reduced to 13 % by 2030.</t>
+        </is>
+      </c>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator setzt die Ausgaben für Wohnen in Relation zum verfügbaren Haushaltseinkommen. Erhält ein Haushalt Wohngeld oder vergleichbare Sozialleistungen (zum Beispiel Leistungen für Unterkunft und Heizung der Grundsicherung) werden diese bei der Berechnung des Indikators berücksichtigt. Diese Sozialleistungen werden nicht dem Einkommen zugeschlagen, sondern von den Wohnkosten abgezogen, sodass die Wohnkostenbelastung von Haushalten, die auf wohnungsbezogene Sozialleistungen angewiesen sind, reduziert wird bzw. gegen null geht.
+Der Kauf einer selbst genutzten Immobilie wird nicht zu den Ausgaben für Wohnen gezählt, ebenso wie weitere Ausgaben für Maßnahmen, die den Wert einer Immobilie steigern. Allerdings ist eine Abgrenzung von den werterhaltenden Ausgaben, die zu den Ausgaben für Wohnen zählen, nicht immer eindeutig möglich. Diese Schwierigkeiten in der Erfassung der exakten Wohnkosten sollten bei der Interpretation der Ergebnisse berücksichtigt werden. Auch berücksichtigt der Indikator keine zusätzlichen, mit dem Wohnort verbundenen Ausgaben. So werden beispielsweise Ausgaben für Fahrten zwischen Wohnort und Arbeitsstelle nicht berücksichtigt, obwohl die Schwelle von 40 % möglicherweise nur aufgrund des arbeitsplatzfernen Wohnens unterschritten wird.
+Durch die Festlegung des Schwellenwertes von „40 % des verfügbaren Haushaltseinkommens“ gibt der Indikator keinen Hinweis auf die durchschnittlichen Wohnkosten. Wenn sich Cluster in der Nähe dieser Grenze ergeben, können diese im Zeitverlauf bereits durch eine geringfügige Änderung des Verhältnisses von Einkommen zu Ausgaben für Wohnen zu größeren Veränderungen des Indikators führen.
+Die Daten zur Wohnkostenüberbelastung stammen aus der europaweit harmonisierten jährlichen Statistik über Einkommen und Lebensbedingungen (EU-SILC), die im Erhebungsjahr 2020 aufgrund der zunehmenden Anforderungen an die Daten hinsichtlich der Aktualität und Bereitstellung tiefer regionaler Ergebnisse mit weitreichenden methodischen Änderungen in den Mikrozensus als Unterstichprobe integriert wurde. Dadurch sind die Ergebnisse ab 2020 nicht mit denen der vorherigen Erhebungsjahre vergleichbar.
+Insgesamt hat sich der Indikator bis zum Jahr 2019 in Richtung des Zielwertes von 13 % entwickelt: Nach einem anfänglichen Anstieg ist der Indikator zwischen 2010 und 2019 von 14,5 auf 13,9 % gesunken. Ab dem Jahr 2020 liegen die Werte auf einem deutlich niedrigeren Niveau als in den Vorjahren. Ein Vergleich dieser Ergebnisse mit denen vor 2020 ist allerdings aufgrund der bereits erwähnten umfangreichen methodischen Änderungen in der Erhebung sowie deren Aufbereitung nicht möglich.
+Der Indikator besitzt nur eingeschränkte Aussagekraft bezüglich der eigentlichen Wohnsituation und des verfügbaren Einkommens, denn es werden durch die Berechnungsweise auch einkommensstarke Haushalte mit hohen Ausgaben für Wohnen als überlastet angezeigt. Die Daten belegen allerdings, dass besonders die armutsgefährdete Bevölkerung, das heißt Personen, die über weniger als 60 % des Medians der Äquivalenzeinkommen der Bevölkerung verfügen, von einer Überlastung durch Wohnkosten betroffen ist. Der Anteil der durch Wohnkosten Überlasteten lag unter den Armutsgefährdeten zwischen 2010 (42,2 %) und 2019 (48,3 %) insgesamt auf einem sehr hohen Niveau. Die Anteile bei den nicht Armutsgefährdeten waren dagegen deutlich geringer (2010: 9,4 % und 2019: 8,0 %). Bei beiden Personengruppen zeigt sich im Zeitverlauf die gleiche Entwicklung wie bei der Zeitreihe insgesamt.</t>
+        </is>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>The indicator expresses housing costs relative to disposable household income. If a household is receiving housing benefits or comparable social benefits, such as social-security payments for accommodation and heating, these are also included in the calculations. These social benefits are not added to the income amount but are deducted from the housing costs, so that the burden of housing expenses on households that rely on housing-related social benefits is reduced or almost nullified.
+The purchase of an owner-occupied property is not included in the expenditure on housing. Other spending on measures to enhance the value of a property should not be taken into account either. However, it is not always possible to clearly differentiate between these and value-maintaining expenditures that are considered as housing expenditure. Therefore, some simplifying assumptions must be made. Moreover, the indicator also does not take into account any additional expenditure associated with the place of residence. For instance, expenditure on travelling from the place of residence to the workplace is not taken into account, although it is possible that the threshold of 40 % is not reached only due to the fact that the place of residence is far away from work.
+By defining the threshold value as “40 % of disposable household income”, the indicator provides no information about average housing costs. If clusters emerge close to this threshold, they can cause major changes in the indicator over time even if there is only a small change in the ratio of income and housing expenditure.
+The initial data for the indicator originate from the Europe-wide harmonised statistics on income and living conditions (EU-SILC). In survey year 2020, the data was integrated with extensive methodological changes as a subsample into the microcensus due to increasing requirements on data with respect to actuality and provision of more detailed regional results in survey year 2020. Thus, the results from 2020 on are not comparable with previous years.
+Overall, the indicator developed in the direction of the target value at 13 % until 2019: after an initial growth, the indicator declined from 14.5 % in 2010 to 13.9 % in 2019. As of 2020 the values are significantly below the level of previous years. However, the comparison with results before 2020 is due to the already mentioned extensive methodological changes in data collection and processing unfeasible.
+With regard to the actual housing situation and disposable income, the indicator provides only a limited amount of meaningful information. After all, the calculation method means that households with high incomes and high expenditure on housing also appear to be overburdened. Meanwhile, the data show that it is people at risk of poverty – that is, those with less than 60 % of the median equivalised income for the population – who are particularly affected by excessive housing costs. Some 42.2 % of people at risk of poverty were overburdened by housing costs in 2010, rising to 48.3 % by 2019. In total, the values are on a high level. In contrast, excessive housing costs affected a markedly smaller proportion of people considered not at risk of poverty. The 2019 figure of 8.0 % was lower than the 9.4 % recorded in 2010. Both groups develop in the same direction as the overall trend of the time series.</t>
+        </is>
+      </c>
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t>11.1.1</t>
+        </is>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N46" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -774,6 +4289,77 @@
           <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Z11_B04_P01</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>11.4</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>Number of objects in the German Digital Library</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl der Objekte, die in der Deutschen Digitalen Bibliothek (DDB) vernetzt sind.</t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of objects in the network of the German Digital Library, or Deutsche Digitale Bibliothek (DDB).</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>In der Deutschen Digitalen Bibliothek (DDB) werden die digitalen Angebote der deutschen Kultur- und Wissenseinrichtungen zentral miteinander vernetzt und online zugänglich gemacht. Die Deutsche Digitale Bibliothek eröffnet dadurch Wissenschaft und kulturinteressierten Nutzerinnen und Nutzern gleichermaßen einen zeitgemäßen und niederschwelligen Zugang. Der Indikator ist somit Gradmesser für die digitale Zugänglichmachung des Kultur- und Wissenserbes in Deutschland. Ziel ist es, die Anzahl der in der Deutschen Digitalen Bibliothek verzeichneten Objekte bis 2030 auf 50 Millionen zu steigern.</t>
+        </is>
+      </c>
+      <c r="I47" s="5" t="inlineStr">
+        <is>
+          <t>The German Digital Library connects and provides online access in one place to the digital holdings of Germany’s cultural institutions and repositories of learning. It thereby makes them easily accessible, in an up-to-date manner, to scholars and anyone else interested in culture. As such, the indicator is a useful gauge of the extent to which our shared heritage of culture and learning has been rendered digitally accessible in Germany. The goal is to increase the number of objects available via the German Digital Library to 50 million by 2030.</t>
+        </is>
+      </c>
+      <c r="J47" s="5" t="inlineStr">
+        <is>
+          <t>Die Deutsche Digitale Bibliothek (DDB) ist eine Plattform zur Vernetzung der digitalen Angebote von Institutionen wie Archiven, Bibliotheken und Museen. Sie wird von einem Netzwerk aus Kultur- und Wissenseinrichtungen des Bundes, der Länder und der Kommunen verwaltet.
+Finanziert wird sie gemeinsam vom Bund und von den Ländern. Die DDB hält die digitalen Bestände in der Regel nicht selbst vor, sondern stellt lediglich eine Verlinkung zu den Objekten bei den Partnereinrichtungen bereit. Für die Stabilität dieser Verlinkung sind die Partnereinrichtungen verantwortlich. Die Anzahl der Partnereinrichtungen, die Daten für die DDB bereitstellen, beläuft sich auf 448 (Stand: Mai 2020). Dabei machen Museen mit 183 und Archive mit 174 Einrichtungen den Großteil der Partnereinrichtungen aus.
+Die Online-Plattform der DDB ist seit dem Jahr 2012 zugänglich und beinhaltete in diesem Jahr Verlinkungen zu 5,6 Millionen Objekten. Bis zum Ende des ersten Halbjahres 2022 stieg diese Zahl auf 42,3 Millionen Objekte an. Bei Fortsetzung der bisherigen Entwicklung könnte das Ziel von 50 Millionen verlinkten Objekten für das Jahr 2030 erreicht werden. Bei Objekten, die durch Bibliotheken bereitgestellt werden, kann es sich in einigen Fällen um Objekte des gleichen Inhalts handeln, wenn beispielsweise die gleichen Ausgaben eines Buches mit der DDB verlinkt werden. In diesem Fall werden diese zwei Verlinkungen separat gezählt.
+Seit dem Jahr 2015 kann unterschieden werden, ob es sich bei einem verknüpften Objekt um ein Objekt mit oder ohne Digitalisat handelt. Bei Objekten mit Digitalisat kann über die Verlinkung auf dem Portal der DDB auf das digitalisierte Abbild eines Objektes, wie beispielsweise eines Buches, einer Urkunde oder eines Gemäldes zugegriffen werden. Bei Objekten ohne Digitalisat stehen dagegen lediglich Erschließungsinformationen zu einem Objekt zur Verfügung. Bei einem Gemälde umfassen diese beispielsweise Angaben zu der Künstlerin oder dem Künstler, dem Jahr der Entstehung und dem Ort der Verwahrung des Bildes. Somit ist der Informationsgehalt bei Objekten mit Digitalisat deutlich höher als bei Objekten, zu denen ausschließlich Erschließungsinformationen angeboten werden.
+Zum Ende des Jahres 2015 verfügten 6,3 Millionen Objekte über ein Digitalisat und diese Zahl stieg bis zum Ende des ersten Halbjahres 2022 auf 14,9 Millionen an. Auch der prozentuale Anteil der Objekte mit Digitalisat an der Gesamtzahl der verknüpften Objekte stieg in diesem Zeitraum von 34,5 % im Jahr 2015 auf 35,2 % zum Ende des ersten Halbjahres 2022. Den Großteil der verknüpften digitalisierten Objekte machten zum Ende des ersten Halbjahres 2022 Textobjekte aus (61,8 %), gefolgt von Bildobjekten (34,9 %) und sonstigen Medien (2,8 %). Audio- und Videodateien machten dagegen mit 0,3 bzw. 0,2 % nur einen sehr geringen Anteil der digitalisierten Objekte in der DDB aus.</t>
+        </is>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>The German Digital Library is a platform created to connect the digital holdings of institutions like archives, libraries and museums. It is managed by a network of such repositories of culture and learning from the Federal Government, the Länder and local-authorities. 
+It is jointly funded by the Federal Government and the Länder. Most of the digital materials are held not by the German Digital Library itself but by partner institutions, while the DDB only hosts links to those objects. The partner institutions are responsible for the stability of the connection. As of May 2020, the number of partner institutions making data available for the German Digital Library had reached 448. The majority are museums or archives – 183 and 174 of them respectively.
+The German Digital Library online platform has been accessible since 2012, at which point it hosted links to 5.6 million objects. By the middle of 2022, that number had risen to 42.3 million. If the trend continues as it has to date, the target of 50 million by 2030 could be achieved. Some of the objects made available by libraries may repeat the same content; for example, two libraries might post links in the German Digital Library to the same edition of a book. In such cases, the two links are counted separately.
+Since 2015, it has been possible to differentiate between objects with and without digitised media. For those with digitised content, the German Digital Library link gives direct access to the digitised reproduction of the book, certificate, painting or other object in question. For objects without digitised media, on the other hand, the links lead only to information about them. The link pertaining to a painting, for instance, will provide information about who painted it, what year it is from and where it is kept. Objects with digitised media thus provide a good deal more information than those for which only metadata are made available.
+There were 6.3 million objects with digitised media at the end of 2015, rising to 14.9 million by the middle of 2022. Objects with digitised media also increased as a proportion of all the objects linked to in the German Digital Library, rising from around 34.5 % in 2015 to around 35.2 % by mid-2022. At the end of the first half of 2022, the majority of digitised objects available via the Library were texts (61.8 %), followed by pictures (34.9 %) and other media (2.8 %). In contrast, audio and video recordings made up only a very small proportion of digitised Library objects, at 0.3 % and 0.2 % respectively.</t>
+        </is>
+      </c>
+      <c r="L47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N47" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -781,6 +4367,75 @@
           <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>12.1.a</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>Market share of products certified by publicly managed eco-labelling schemes</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden. Zu den Umweltzeichen und Produkten gehören Energieverbrauchskennzeichnungen bei Personenkraftwagen (Pkw), Haushaltsgroßgeräten, Leuchtmitteln und Fernsehern, Bio-Siegel bei Lebensmitteln sowie Blauer Engel bei Hygienepapieren, Wasch- und Reinigungsmitteln.</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr">
+        <is>
+          <t>The indicator measures the market share of products with voluntary or mandatory eco-labels, whose awarding procedures are stipulated by governmental bodies. The eco-labels and products comprise energy labels for cars, large household appliances, light bulbs and televisions, organic labels for foodstuff and Blue Angel for sanitary paper, detergents and cleaning supplies.</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>Private Haushalte können direkt und indirekt nachhaltig konsumieren. Einerseits beeinflusst ihre Einkaufsentscheidung ihre eigene Umweltbilanz, da energieeffiziente Fahrzeuge oder gedämmte Häuser in ihrer Nutzung weniger Energie benötigen und einen geringeren Ausstoß von Treibhausgasen verursachen. Andererseits können die Verbraucherinnen und Verbraucher Produkte erwerben, die auf besonders nachhaltige Weise hergestellt wurden. Ziel der Bundesregierung ist es daher, den Marktanteil von Produkten mit staatlichen Umweltzeichen bis 2030 auf 34 % zu erhöhen.</t>
+        </is>
+      </c>
+      <c r="I48" s="5" t="inlineStr">
+        <is>
+          <t>Private households can engage in sustainable consumption both directly and indirectly. Not only do their purchasing decisions influence their own ongoing impact on the environment, as energy-efficient vehicles or insulated homes require less energy to use and lead to lower emissions of greenhouse gases, but consumers can also purchase products that have been manufactured in particularly sustainable ways. The aim of the Federal Government is therefore to increase the market share of products certified by publicly managed ecolabelling schemes to 34 % by 2030.</t>
+        </is>
+      </c>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>Zwischen 2012 und 2019 stieg der Marktanteil von Produkten mit staatlichen Umweltzeichen von 3,6 auf 7,9 %. Dies entspricht einem Umsatz von insgesamt 26,5 Milliarden Euro im Jahr 2019. Der höchste Wert wurde 2016 mit 8,6 % erreicht. 2017 und 2018 ist der Anteil im Vergleich zum Vorjahr gesunken, während der Anteil 2019 wieder leicht stieg. Der Indikator folgt im Wesentlichen der Entwicklung auf dem Pkw-Markt. Der Marktanteil von A+-Pkw war von 14 % (2016) auf 9,6 % (2018) zurückgegangen und ist 2019 auf 10,0 % leicht gestiegen. Zuletzt entwickelte sich der Indikator zwar in die angestrebte Richtung, jedoch wird ohne eine deutliche Steigerung des Marktanteils das Ziel bis zum Jahr 2030 erheblich verfehlt.
+Die Daten zum Indikator stammen vom Umweltbundesamt (UBA). Das UBA verwendet zur Berechnung des Indikators Informationen aus diversen Quellen, wie zum Beispiel von der Gesellschaft für Konsumforschung. Der Indikator setzt sich aus den Marktanteilen von Produkten zusammen, welche entweder die höchste EU-Energieverbrauchskennzeichnung (EU-EVK) innerhalb ihrer Geräteklasse aufweisen oder mit einem der folgenden Umweltzeichen zertifiziert sind: EU-Ecolabel, EU-Bio-Siegel oder Blauer Engel. Die EU-EVK adressiert primär Energieverbrauch und Treibhausgasemissionen, während die anderen drei Umweltzeichen auch andere Umweltbelastungen wie Pestizideinsatz und gefährliche Abwässer berücksichtigen. Der Indikator soll abbilden, ob umweltfreundliche Produktvarianten konventionelle Produktvarianten im Markt ersetzen. Betrachtet wird dabei nur eine Auswahl an Produktgruppen, weil unter anderem nur begrenzt Daten zu Umsätzen von Produkten mit Nachhaltigkeitskennzeichen verfügbar sind. Zudem sollen Doppelzählungen ausgeschlossen werden.
+Der Indikator deckt die Konsumfelder Wohnen, Mobilität und Ernährung ab. Es werden Haushaltsgeräte wie Kühlgeräte, Waschmaschinen, Fernseh- und Klimageräte betrachtet. Weiterhin werden Leucht-, Lebensmittel, Hygienepapier, Wasch- und Reinigungsmittel und Pkw erfasst. Da die Märkte der einzelnen Produktgruppen unterschiedlich groß sind, werden die Marktanteile der Produkte mit staatlichen Umweltzeichen mit dem Umsatzvolumen des jeweiligen Gesamtmarktes gewichtet, um Verzerrungen zu vermeiden. Außerdem können auf diese Weise die Ausgaben für umweltfreundliche Produkte in Beziehung zu den Gesamtausgaben der privaten Haushalte gesetzt werden.
+Eine Gewichtung der Marktanteile nach Umweltrelevanz der jeweiligen Produktgruppen ist nicht möglich, da die Umweltzeichen verschiedene Kategorien (Energieverbrauch, Treibhausgasemissionen, Materialbedarf) adressieren, die nicht aufgerechnet werden können. Daher lässt sich eine allumfassende Bewertung über mehrere Umweltkategorien – im Sinne eines Umweltfußabdrucks der Produktgruppen – nicht darstellen. Der Indikator erfasst zudem nur die neu in den Verkehr gebrachten Güter in Relation zum Gesamtmarkt. Somit berücksichtigt er nicht, inwieweit die höhere Effizienz der Geräte zu einer Verhaltensänderung der Konsumenten führt und gegebenenfalls zu einem erhöhten Konsum (sogenannter Rebound-Effekt). Er beschreibt zudem den Marktanteil auf Basis von Umsätzen. Bedingt durch Preisunterschiede zwischen Produkten mit und ohne entsprechende Umweltsiegel lässt er keine Rückschlüsse auf deren Anzahl zu. Folglich kann eine Änderung des Indikatorwertes auch auf Preisänderungen in einer Produktgruppe zurückzuführen sein.</t>
+        </is>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>Between 2012 and 2019, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6 % to 7.9 %. This is equivalent to a turnover of 26.5 billion euros in 2019. The highest value was measured in 2016 at 8.6 %. The indicator value sank in 2017 and 2018 relative to the previous year, whereby the share slightly increased in 2019. Basically, the indicator follows the trend of the car market. The market share of A + cars decreased from 14 % (2016) to 9.6 % (2018) and increased again in 2019 (10.0 %). The trend of the indicator developed in the right direction but unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.
+The data used for this indicator comes from the German Environment Agency (UBA). The UBA utilizes information from various sources for the calculation of the indicator, for example from the consumer research institute. The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups is examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.
+The indicator encompasses consumption in the fields of home life, mobility and nutrition. Household appliances such as refrigerators, washing machines, televisions and vacuum cleaners are assessed, as are light bulbs, foodstuffs, sanitary paper, detergents and cars. Since the markets for the individual product groups are of different sizes, the market shares are weighted according to the total turnover of the market in question. This is intended to prevent the indicator being distorted by products which have high shares of small niche markets. Furthermore, this means expenditure on environmentally friendly products can be considered in relation to the total expenditure of private households.
+It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N48" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -788,6 +4443,86 @@
           <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B01_P01</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>12.1.b</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>Global environmental impact by private household consumption</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Rohstoffeinsatz, Energieverbrauch und der Ausstoß von Kohlendioxid (CO2) im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>The impact caused to the environment around the world by private household consumption is shown here by three indicators. They are domestic and foreign energy consumption, emissions of carbon dioxide (CO2) and the use of raw materials in connection with the production and use of all goods destined for the consumption of private households in Germany.</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>Private Haushalte haben durch Konsumaktivitäten einen wesentlichen Anteil am Ressourcenverbrauch einer Volkswirtschaft. Dieser Verbrauch erstreckt sich jedoch nicht nur auf das Inland, sondern findet durch die Produktion importierter Güter auch indirekt im Ausland statt. Der Indikator gibt daher Aufschluss über die globale Umweltinanspruchnahme durch Konsumaktivitäten privater Haushalte. Mit einer Minderung beispielsweise des Energieverbrauchs werden Ressourcen im In- und Ausland eingespart und klimaschädliche Kohlendioxidemissionen vermieden. Ziel der Bundesregierung ist es, die Umweltinanspruchnahme in Zusammenhang mit den Konsumaktivitäten privater Haushalte in allen drei Bereichen kontinuierlich zu reduzieren.</t>
+        </is>
+      </c>
+      <c r="I49" s="5" t="inlineStr">
+        <is>
+          <t>Through their spending habits, private households are responsible for a significant proportion of an economy’s consumption of resources. That consumption occurs not only within the country in question but also indirectly includes the consumption which is involved in the production of imported goods. The indicator therefore provides information about the impact being done to the environment on a global scale as a result of private household consumption. Reducing energy consumption, for example, will conserve resources both domestically and abroad and prevent environmentally harmful carbon dioxide emissions. The intention of the Federal Government is to continuously cut the environmental impact that occurs in connection with private household consumption in all three areas.</t>
+        </is>
+      </c>
+      <c r="J49" s="5" t="inlineStr">
+        <is>
+          <t>Das Konsumverhalten privater Haushalte hat verschiedene Auswirkungen auf die Umwelt, sowohl national als auch durch Spill-over-Effekte auf die Umwelt im Ausland. Der Indikator stellt für den inländischen Konsum drei der verantwortlichen Einflussfaktoren, nämlich den Rohstoffeinsatz, den Energieverbrauch und die CO2-Emissionen sowohl im In- als auch im Ausland dar. Die zugehörigen Daten werden in den Umweltökonomischen Gesamtrechnungen (UGR) aus verschiedenen amtlichen und nichtamtlichen Quellen errechnet.
+Ressourcen können direkt oder indirekt durch Haushalte konsumiert werden. Der Einsatz von Erdgas, etwa zum Heizen, oder von Kraftstoff im Straßenverkehr, aber auch der Verzehr von Nahrung zählen zum direkten Konsum. Zudem werden Ressourcen auch während des gesamten Herstellungsprozesses von Konsumgütern und ihres Transports im In- und Ausland in den Gütern gebunden oder verbraucht. Der Konsum erfolgt dann indirekt bei Erwerb und Nutzung dieser Güter durch inländische private Haushalte. Beide Arten des Konsums werden mit dem vorliegenden Indikator erfasst und für Rohstoffe, Energie und CO2 dargestellt.
+Rohstoffeinsatz, Energieverbrauch und CO2-Ausstoß sind eng miteinander verbunden. Der stoffliche Einsatz von Kohle, Öl oder Gas in Kraftwerken und Heizungen zur Produktion von Strom und Wärme ist gleichzeitig ein Verbrauch von Energie. Zudem zieht das Verbrennen von Energieträgern in der Regel auch den Ausstoß von CO2 nach sich.
+Der Einsatz von Rohstoffen umfasst jedoch nicht nur Energieträger. Dies wird auch in den Zeitreihen offenbar: Während die Daten für Energieverbrauch und Emissionen einen wellenförmigen, insgesamt rückläufigen Verlauf aufweisen, ist diese Entwicklung für den Rohstoffeinsatz weniger markant. In den Rohstoffeinsatz fließen nämlich neben abiotischen Rohstoffen, zu denen neben Energieträgern beispielsweise auch andere mineralische Rohstoffe wie Sand oder Salze gehören, auch erneuerbare Rohstoffe wie land- und forstwirtschaftliche Erzeugnisse ein. Während der Einsatz von abiotischen Rohstoffen bis 2014 gesunken, seitdem jedoch kontinuierlich wieder gestiegen ist, gibt es im Bereich der landwirtschaftlichen Erzeugnisse eine gegenläufige Entwicklung. Dies führte für den Zeitraum 2010 bis 2015 insgesamt zu einem leichten Rückgang um 2 %. Nach einem Anstieg im Jahr 2016 hat sich der Rohstoffeinsatz 2017 und 2018 wieder auf das Niveau von 2010 eingependelt.
+Im Zeitraum 2010 bis 2017 verzeichnete der Energieverbrauch dagegen einen Rückgang um 6 %.
+Verluste, die bei der Erzeugung von Strom und Fernwärme für den Konsum privater Haushalte anfallen, sind dabei im indirekten Verbrauch berücksichtigt. Der Energieverbrauch lässt sich in die Bedarfsfelder Wohnen, Mobilität, Ernährung, sonstige Produkte und Dienstleistungen gliedern. Der Bereich Wohnen machte im Jahr 2017 mit insgesamt rund 3 343 Petajoule (35 % des Gesamtverbrauchs der privaten Haushalte) den größten Teil aus.
+Die CO2-Emissionen zeigen eine ähnliche Entwicklung. Die überwiegenden Mengen an Emissionen entstehen bereits indirekt bei der Produktion der Konsumgüter im In- und Ausland und nicht erst beim Konsum der Güter selbst. Insgesamt betrugen die CO2-Emissionen durch den Konsum privater Haushalte im Jahr 2017 678 Millionen Tonnen. Dabei lag das Verhältnis zwischen direkten und indirekten Emissionen bei rund 1:2. Zwischen 2010 und 2017 sanken die direkten CO2-Emissionen um 6 % und der Emissionsgehalt der Konsumgüter um 9 %. Daraus ergibt sich insgesamt ein Rückgang der direkten und indirekten CO2-Emissionen privater Haushalte um 8 %.
+Dieser Indikator weist Querbezüge zum Indikator 8.1 „Gesamtrohstoffproduktivität“ auf.</t>
+        </is>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>The consumption behaviour of private households has different consequences for the environment of national and international countries, whereby latter is particularly affected by spill-over effects. This indicator reflects three of the factors behind this impact, namely energy consumption, CO2 emissions and the use of raw materials for Germany and foreign countries. The relevant data are collated in the environmental economic accounts of a range of governmental and non-governmental sources.
+Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.
+The use of raw materials, energy consumption and CO2 emissions are closely interconnected. To use coal, oil and gas – material resources – in power plants and boilers to produce electricity and heat is simultaneously to consume energy. As a rule, the burning of fuels also results in the emission of CO2.
+However, the use of raw materials is not restricted to fuels. This is clear from the time series in the graph: while the data for energy consumption and emissions follow a fluctuating but generally downwards trend, the change in the use of raw materials is less marked. That factor is made up both of abiotic resources, which include other mineral resources like sand and salts as well as fuels, and of renewable resources like the products of farming and forestry. While the use of abiotic resources was decreasing until 2014 and increasing from then on, there are contrary developments in the area of agricultural products. This resulted in a slight overall reduction of 2 % between 2010 and 2015. Although rising in 2016, the use of raw materials reached the level of 2010 in the two subsequent years 2017 and 2018.
+In contrast, energy consumption went down by 6 % during the period from 2010 to 2017.
+Energy loss incurred during the generation of electricity and district heat for consumption by private households is counted as indirect consumption. Energy consumption can be split according to the different fields in which it occurs, namely home life, transport, food, other products and services. At around 3,343 petajoules in total, home life accounted for the largest proportion, 35 % of private household consumption, in 2017.
+A similar trend can be seen in CO2 emissions. The vast majority of emissions are generated indirectly, during the manufacturing process of consumer goods in Germany and abroad, rather than during the actual consumption of the goods. The total CO2 emissions caused by private household consumption in 2017 amounted to 678 million tonnes. The ratio of direct to indirect emissions was around 1:2. Between 2010 and 2017, direct CO2 emissions fell by 6 %, while the emissions footprint of consumer goods fell by 9 %. In total, the direct and indirect CO2 emissions caused by private household consumption decreased by 8 %.
+This indicator can be usefully cross-referenced with indicator 8.1 on “raw material input productivity”.</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>45565</v>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -795,6 +4530,79 @@
           <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B02_P01</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Umweltmanagement EMAS</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>EMAS eco-management</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl der in Deutschland für das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) registrierten Standorte sowohl deutscher als auch ausländischer Organisationen.</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of locations in Germany registered with EMAS, the Eco-Management and Audit Scheme, for German as well as foreign organisations.</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>Klimawandel, Energiewende und Ressourcenknappheit stellen Unternehmen vor neue Herausforderungen mit der Folge, dass sie ihre betriebswirtschaftlichen Abläufe, Strukturen und Produkte entsprechend umwelt- und ressourcenschonend gestalten müssen. Das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) bietet ein Konzept für einen systematischen betrieblichen Umweltschutz und ist mit dem Anspruch verbunden, die Umweltleistung des Organisationsstandortes stetig zu verbessern. Deshalb lautet das Ziel, bis zum Jahr 2030 insgesamt 5 000 Organisationsstandorte für das Umweltmanagement EMAS auszuweisen.</t>
+        </is>
+      </c>
+      <c r="I50" s="5" t="inlineStr">
+        <is>
+          <t>Climate change, the energy transition and scarcity of resources are presenting companies with new challenges that are forcing them to reconfigure their business processes, structures and products along environmentally responsible and resource-saving lines. EMAS offers a strategy for organisations to pursue systematic environmental protection, with the ultimate aim of steadily improving their locations’ environmental performance. The goal is therefore to identify a total of 5,000 organisation premises for registration with EMAS by 2030.</t>
+        </is>
+      </c>
+      <c r="J50" s="5" t="inlineStr">
+        <is>
+          <t>Das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) ist ein freiwilliges Instrument der Europäischen Union (EU), das Organisationen jeder Größe und Branche dabei unterstützt, ihre Umweltleistung kontinuierlich zu verbessern. Eine EMAS-Zertifizierung impliziert dabei nicht, dass eine Organisation oder ihre Produkte per se umweltfreundlicher als vergleichbare Organisationen bzw. Produkte ist bzw. sind. Mit EMAS ist eine Umweltberichtspflicht (sogenannte Umwelterklärung) verbunden. Diese beinhaltet die Berichterstattung zu den wesentlichen Umweltauswirkungen des betreffenden Unternehmens sowie die Datenbereitstellung zu den Themenfeldern Energie, Emissionen, Material, Wasser, Abfall und Flächenverbrauch bezüglich biologischer Vielfalt. Die Umwelterklärung muss von den Organisationen jährlich – seit 2010 von kleinen und mittleren Unternehmen auf Antrag zweijährlich – aktualisiert werden. Die öffentliche Umwelterklärung sowie weitere interne Dokumente werden von unabhängigen, staatlich zugelassenen Umweltgutachterinnen und Umweltgutachtern geprüft. Die Prüfung ist regelmäßig und dabei spätestens alle drei Jahre zu wiederholen. Organisationen, welche die Überprüfung erfolgreich bestehen und bei denen keine Umweltrechtsverstöße oder Beschwerden vorliegen, werden in das EMAS-Register eingetragen. Für die Qualitätssicherung ist der Umweltgutachterausschuss (UGA)&lt;sup&gt;1&lt;/sup&gt; zuständig. EMAS-Organisationen und -Standorte werden durch die zuständige Industrie- und Handelskammer (IHK) oder Handwerkskammer registriert und in einer öffentlich zugänglichen Datenbank beim Deutschen Industrie- und Handelskammertag (DIHK) gespeichert.
+Methodisch ist zu beachten, dass im EMAS-Register die Anzahl der Registrierungen abgebildet wird. Teilnehmenden Organisationen steht es frei, unter einer Organisationsregistrierung mehrere Standorte aufzunehmen (Sammelregistrierung) oder Standorte einzeln registrieren zu lassen. Einige Organisationen haben zum Teil auch ihre ausländischen Standorte in Deutschland registrieren lassen. Diese befinden sich ebenfalls im EMAS-Register, sind jedoch bei der hier ausgewiesenen Anzahl der EMAS-Standorte nicht enthalten.
+Im Jahr 2021 waren in Deutschland 2 290 EMAS-Standorte registriert. Dies entspricht einer Erhöhung um 17,0 % gegenüber 2005. Betrachtet man die Entwicklung der letzten fünf Jahre, so hat sich der Indikator im Durchschnitt leicht in Richtung des Ziels entwickelt. Bei gleichbleibender Entwicklung würde das Ziel für 2030 allerdings deutlich verfehlt werden.
+Die Anzahl der Beschäftigten in den registrierten Organisationen betrug im Jahr 2021 insgesamt 911 042 Personen. Dies entsprach einem Rückgang um 5,2 % gegenüber 2005.
+Die 2 290 in Deutschland registrierten EMAS-Standorte (2021) gehörten zu insgesamt 1 115 Organisationen. Die Zahl der deutschen Organisationen ist gegenüber 2005 um 25,2 % gesunken. Darüber hinaus waren sie sehr heterogen auf das Bundesgebiet verteilt. Die meisten waren in Baden-Württemberg (330) und Bayern (296) angesiedelt, gefolgt von Nordrhein-Westfalen (99). In Mecklenburg-Vorpommern gab es dagegen nur eine registrierte Organisation. 39,4 % der deutschen Organisationen gehörten dem Verarbeitenden Gewerbe, 8,2 % der Erbringung von sonstigen Dienstleistungen, 8,0 % dem Bereich Erziehung und Unterricht, 6,2 % den Bereichen Wasserversorgung, Abwasser- und Abfallentsorgung und Beseitigung von Umweltverschmutzungen sowie 6,1 % dem Gastgewerbe an. Zu beachten ist, dass die Organisationen teilweise mehreren Wirtschaftsbereichen zugeordnet sind.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Der Umweltgutachterausschuss (UGA) ist ein unabhängiges Beratungsgremium des Bundesministeriums für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz (BMUV).&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>EMAS is a voluntary instrument of the European Union that helps organisations of any size and in any sector to continuously improve their environmental performance. Having EMAS certification does not automatically mean that organisations or their products are more environmentally friendly than comparable organisations and products. EMAS involves a reporting obligation requiring organisations to submit environmental statements. These statements include reporting on the main environmental impacts of the organisation in question as well as data pertaining to energy and material efficiency, emissions, water, waste and use of land/biodiversity. Organisations have to update their environmental statements annually, with the exception introduced in 2010 that small and medium-sized enterprises can apply to do so every two years instead. The environmental statement, which is public, and various additional internal documents are inspected by independent, licensed environmental verifiers. The verification must be repeated on a regular basis, no less than every three years. Organisations that pass the verification process and have no breaches of environmental regulations or complaints to answer for are added to the EMAS register. The German EMAS Advisory Board&lt;sup&gt;1&lt;/sup&gt; is responsible for quality assurance. EMAS organisations and locations are registered by the responsible chambers of industry and commerce and stored in a publicly accessible database at the Association of German Chambers of Commerce and Industry.
+In terms of methodology, it should be noted that the EMAS register shows the number of registrations. Participating organisations are free to include several locations under a single organisation registration (corporate registration) or to have their locations registered individually. Some organisations have had their sites abroad registered in Germany. These are present in the EMAS register, but they are not included in the number of EMAS locations recorded here.
+In 2021, there were 2,290 EMAS locations registered in Germany. This equates to an increase of 17 % compared with 2005. Considered over the last five years, the indicator has been gradually moving in the direction of the target. Nevertheless, if that trend continues unchanged, the goal for 2030 will not be achieved.
+The registered organisations employed a total of 911,042 people in 2021. This equates to an decline of 5.2 % compared with 2005.
+The 2,290 EMAS locations on the register in 2021 belong to 1,115 German organisations. The number of German organisations had shrunk by 25.2 % since 2005. Furthermore, those organisations were very well spread throughout the country. The majority were based in Baden-Württemberg (330) and Bavaria (296), followed by North Rhine-Westphalia (99). In contrast, there was just one registered organisation in Mecklenburg-Western Pomerania. Divided by sector, the distribution was as follows: 39.4 % of the German organisations represented the manufacturing industry, 8.2 % miscellaneous services, 8.0 % the education sector, 6.2 % areas of water supply, waste water and waste disposal and removal of environmental pollution as well as 6.1 % the hospitality industry. It should be noted that some of the organisations belong to more than one sector.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;The EMAS Advisory Board is an independent advisory body of the Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="L50" s="4" t="inlineStr">
+        <is>
+          <t>12.6.1</t>
+        </is>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N50" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -802,6 +4610,93 @@
           <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Z12_B03_P01</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>12.3.a,b</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Nachhaltige Beschaffung</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>Sustainable procurement</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren zeigen Nachhaltigkeit in der Beschaffung exemplarisch anhand der Teilbereiche Papier sowie CO2-Emissionen von Kraftfahrzeugen (Kfz). Beide Indikatoren werden als Indizes mit dem Basisjahr 2015 dargestellt.
+Der Indikator 12.3.a „Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung“ bildet den Anteil von Papier mit dem Umweltsiegel Blauer Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung ab. Dabei wird ab dem Berichtsjahr 2018 ausschließlich nichtfarbiges DIN-A4-Druck- und Kopierpapier erfasst.
+Der Indikator 12.3.b „CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand“ setzt die CO2-Emissionen ins Verhältnis zu den entsprechenden Fahrleistungen.</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>These indicators show sustainability in procurement through the examples of paper and the CO2 emissions of motor vehicles. Each is depicted as an index using 2015 as its base year.
+Indicator 12.3.a ”Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration” measures what proportion of total paper procured for the direct federal administration is certified with the Blue Angel ecolabel. Since reporting year 2018, only non-coloured A4-sized printer and copier paper is recorded.
+Indicator 12.3.b “CO2 emissions of publicity owned vehicles by distance travelled” shows the CO2 emissions of publicly owned vehicles in relation to the distances they travel.</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>Der Themenbereich „Nachhaltige Beschaffung“ ist sehr komplex. Hier werden exemplarisch produktspezifische Indikatoren betrachtet. Während für den Anteil von Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung ein Wert von 95 % bis zum Jahr 2020 anvisiert ist, soll das Verhältnis von CO2-Emissionen je Fahrleistungen zukünftig weiter sinken. Die öffentliche Hand hat einen wesentlichen Anteil an der Nachfrage von Produkten und Dienstleistungen. Die Ausrichtung der öffentlichen Beschaffung am Leitprinzip der Nachhaltigkeit und die Stärkung von Nachhaltigkeitskriterien bei der öffentlichen Beschaffung sollen daher als Hebel für die Steigerung des Angebots nachhaltiger Produkte wirken. Ziel der Bundesregierung ist es, Nachhaltigkeit in der öffentlichen Beschaffung generell zu stärken.</t>
+        </is>
+      </c>
+      <c r="I51" s="5" t="inlineStr">
+        <is>
+          <t>Sustainable procurement is a very complex topic. Product-specific indicators are examined here as examples. While the proportion of paper bearing the Blue Angel ecolabel is supposed to reach 95 % of the direct federal administration’s total paper use by 2020, the ratio of CO2 emissions to distance travelled is supposed to continue sinking. The public sector accounts for a considerable share of demand for products and services. It is therefore aimed that establishing sustainable development as a guiding principle of public procurement and reinforcing sustainability criteria within public procurement will serve as a lever to increase provision of sustainable products. The Federal Government’s aim is to strengthen sustainability across public procurement generally.</t>
+        </is>
+      </c>
+      <c r="J51" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;i&gt;Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Die Daten für die Berechnung des Anteils von Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung werden durch das Monitoring des Maßnahmenprogramms Nachhaltigkeit erhoben, das vom Bundeskanzleramt durchgeführt und von der Kompetenzstelle für nachhaltige Beschaffung (KNB) beim Beschaffungsamt des BMI (BeschA) unterstützt wird. Der Blaue Engel ist ein Umweltzeichen für umweltschonende Produkte und Dienstleistungen. Bezogen auf Papier bedeutet dieses Siegel, dass die Papierfasern zu 100 Prozent aus Altpapier gewonnen werden und dass bei der Herstellung auf schädliche Chemikalien oder optische Aufheller verzichtet wird.
+Der Anteil des Papiers mit Blauem Engel ist von 2015 bis 2020 nach vorläufigen Daten um rund 113 % gestiegen. Im Jahr 2015 betrug der Anteil 45 % am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung und erreichte 2020 einen Wert von rund 96 %. Dies entspricht einer Zunahme um 112,9 % (Indexwert = 212,9). Somit folgt der Indikator der Zielsetzung des Maßnahmenprogramms Nachhaltigkeit, den Anteil des Einsatzes von Papier mit dem Blauen Engel auf 95 % bis 2020 zu steigern. Der Gesamtpapierverbrauch sank im Jahr 2020 im Vergleich zum Vorjahr um 14,1 % (von rund 993 Millionen auf rund 852 Millionen Blatt Papier). Für den Zeitraum zwischen 2015 und 2020 betrug die Reduktion des Gesamtpapierverbrauchs insgesamt 33,4 %.
+Bei dem Zeitvergleich ist zu beachten, dass es im Jahr 2018 eine methodische Anpassung bei der Definition von Papier gab. Ab dem Berichtsjahr 2018 wird ausschließlich nicht farbiges DIN-A4-Druck- und Kopierpapier erfasst. Somit kann der Rückgang des Gesamtpapierverbrauchs zum Teil auf die methodische Änderung zurückzuführen sein.
+Generell ist bei diesem Indikator zu beachten, dass die Aussagekraft der Verwendung von Papier mit Blauem Engel für den Gesamtkomplex „Nachhaltige Beschaffung“ eher gering ist. Denn Papier weist lediglich einen kleinen Anteil am monetären Gesamtvolumen der Beschaffung der öffentlichen Hand auf.
+&lt;b&gt;&lt;i&gt;CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Die Daten für die Kfz der öffentlichen Hand werden von den Umweltökonomischen Gesamtrechnungen (UGR) des Statistischen Bundesamtes unter Zuhilfenahme der TREMOD-Datenbank (Transport-Emission-Model) des Instituts für Energie- und Umweltforschung (ifeu) bereitgestellt. Die öffentliche Hand umfasst Bund, Länder, Gemeinden und Gemeindeverbände, Polizei, Bundesgrenzschutz, Feuerschutz und -wehren.
+Aufgrund einer Vielzahl methodischer Änderungen im Jahr 2016 sind die Ergebnisse ab 2017 nureingeschränkt mit den Vorjahren vergleichbar.
+Betrachtet man im Vergleich zu den Kfz der öffentlichen Hand die Kfz der unmittelbaren Bundesverwaltung, betrugen im Jahr 2020 deren durchschnittlichen CO2-Emissionen 223,6 Gramm CO2 je gefahrenen Kilometer.
+Die unmittelbare Bundesverwaltung umfasst die eigenen, aber rechtlich unselbstständigen zentralen oder nachgeordneten Behörden des Bundes. Die Daten für die CO2-Emissionen je Fahrleistungen der Kfz der unmittelbaren Bundesverwaltung stammen vom Umweltbundesamt (UBA). Wie bei den Angaben zu den Kfz der öffentlichen Hand werden bei der unmittelbaren Bundesverwaltung ebenfalls alle Kfz bis zu einem Gewicht von 3,5 Tonnen berücksichtigt, allerdings nicht die leichten Nutzfahrzeuge dieser Klasse.
+Zwischen 2015 und 2017 stieg der Anteil der neu angeschafften Kfz der unmittelbaren Bundesverwaltung, deren Emissionswerte kleiner als 50 Gramm CO2 je Kilometer betrugen, am Gesamtvolumen der neu beschafften Kfz von 2,6 auf 4,1 %. Im Jahr 2018 fiel der Anteil auf 3,3 %. Nach vorläufigen Zahlen sank der Wert im Jahr 2019 weiter und lag bei 2,4 % stieg jedoch im Jahr 2020 auf 8,5 %.
+Der hier betrachtete Indikator bezieht sich ausschließlich auf den Umweltaspekt der Nachhaltigkeit. Zudem werden nur diejenigen CO2-Emissionen berücksichtigt, die im B</t>
+        </is>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;&lt;i&gt;Paper with Blue Angel certification as a proportion of the direct federal administration’s total paper consumption&lt;/i&gt;&lt;/b&gt;
+The data used to calculate the proportion of Blue Angel-certified paper in the direct federal administration’s total paper consumption are collated through the monitoring of the Programme of Sustainability Measures being conducted by the Federal Chancellery and supported by the Centre of Excellence for Sustainable Procurement at the Procurement Office of the Federal Ministry of the Interior. The Blue Angel is an ecolabel for environmentally friendly products and services. When awarded to paper, it means that 100 % of the paper fibres were recovered from wastepaper and that no harmful chemicals or bleaching agents were used in the production process.
+According to the preliminary data, the proportion of Blue Angel-certified paper rose by around 113 % between 2015 and 2020. In 2015, 45 % of all the paper used by the direct federal administration bore the Blue Angel label; that figure had risen to 96 % by 2020. This equates to an increase of 112.9 % (or an index value of 212.9). The indicator is thus in line with the target set in the Programme of Sustainability Measures to raise the use of paper with the Blue Angel label to 95 % by 2020. Total paper consumption decreased in 2020 by 14.1 % compared to previous year (from about 993 to 852 million sheet of paper), resulting in a 33.4 % reduction in total paper consumption between 2015 and 2020.
+When comparing the data over time, it should be noted that there was a change in methodology in 2018 regarding the definition of paper. Since the 2018 reporting year, only non-coloured A4-sized printer and copier paper has been included in the data. The reduction in total paper use can in part be traced to this methodological change.
+More generally, it should be noted that the use of Blue Angel-certified paper has limited relevance in terms of sustainable procurement overall, as paper accounts for a small proportion of the total financial volumes involved in procurement for the public sector.
+&lt;b&gt;&lt;i&gt;CO2 emissions of motor vehicles of the public sector mileage&lt;/i&gt;&lt;/b&gt;
+The data on publicly owned vehicles are provided by the environmental economic accounts compiled by the Federal Statistical Office using the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. The public sector comprises the Federal Government, the Länder and municipalities, the police, the Federal Border Police and the fire services.
+Due to methodological changes in 2016, the comparability of the data is limited.
+If, instead of looking at publicly owned vehicles, one focuses on vehicles owned by the direct federal administration, average CO2 emissions amounted to 223.6 grams per kilometre travelled in 2020.
+The direct federal administration encompasses Federal Government’s own central and subordinate authorities, which are legally dependent. The data on CO2 emissions per kilometre travelled for vehicles owned by the direct federal administration are provided by German Environment Agency. As for the data on publicly owned vehicles, the direct federal administration figures count all passenger vehicles weighing up to 3.5 tonnes but not light commercial vehicles within that class.
+Between 2015 and 2017, the proportion of vehicles newly acquired for the direct federal administration that produced emissions lower than 50 grams CO2 per kilometre rose from 2.6 % to 4.1 % of all newly purchased vehicles. That share fell back to 3.3 % in 2018. The provisional data show it falling further in 2019, to 2.4 %, however, the value increased to 8.5 % in 2020.
+The indicator under consideration here relates only to the environmental aspect of sustainability. Moreover, it only covers the CO2 emissions released during the vehicles’ operation. Looking at their entire life-cycle costs, there are more greenhouse-gas emissions, occurring during the processes</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>12.7.1</t>
+        </is>
+      </c>
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N51" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -809,6 +4704,86 @@
           <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P01</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>13.1.a</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Treibhausgasemissionen</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>Greenhouse gas emissions</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt den Index der Emissionen folgender Treibhausgase (Stoffe oder Stoffgruppen, in CO2-Äquivalenten): Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC), perfluorierte Kohlenwasserstoffe (FKW/PFC) sowie Schwefelhexafluorid (SF6).</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the index of emissions of the following greenhouse gases (substances or substance groups) in CO2 equivalents: carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), nitrogen trifluoride (NF3), hydrofluorocarbons (H-FKW/HFC), perfluorocarbons (FKW/PFC) and sulphur hexafluoride (SF6).</t>
+        </is>
+      </c>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>Die globale Durchschnittstemperatur auf der Erdoberfläche steigt aufgrund der zunehmenden Konzentration von Kohlendioxid (CO2) und anderen Treibhausgasen (THG) in der Atmosphäre kontinuierlich an. Ziel der Bundesregierung ist es daher, bis zum Jahr 2030 die Treibhausgasemissionen in Deutschland um mindestens 65 % und bis zum Jahr 2040 um mindestens 88 % gegenüber 1990 zu senken. Das Ziel bis zum Jahr 2020 war eine Reduktion der Treibhausgasemissionen um 40 %. Bis zum Jahr 2045 soll die Treibhausgasneutralität erreicht werden.&lt;sup&gt;1&lt;/sup&gt;
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung der Zielwerte von mindestens 55 % bis 2030 gegenüber 1990 und Erreichung der Treibhausgasneutralität bis 2050 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="I52" s="5" t="inlineStr">
+        <is>
+          <t>The global average temperature on the surface of the Earth is continuously rising due to the increasing concentration of carbon dioxide and other greenhouse gases in the atmosphere. The Federal Government therefore aims to lower greenhouse gas emissions in Germany by at least 65 % by 2030 and by at least 88 % by 2040 compared with 1990. The target was to achieve a reduction of greenhouse gas emissions at 40 % by 2020. The intention is to achieve greenhouse gas neutrality by 2045&lt;sup&gt;1&lt;/sup&gt;.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target values of at least 55 % by 2030 compared to 1990 level and achievement of greenhouse gas neutrality by 2050 according to policy resolution 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>Die kurzwelligen Sonnenstrahlen werden von den verschiedenen Treibhausgasen (THG) in der Atmosphäre transmittiert und von der Erdoberfläche als langwellige Wärmestrahlung reflektiert. Die THG absorbieren und emittieren die von der Erde ausgehende Infrarotstrahlung in unterschiedlichen Wellenbereichen, mit unterschiedlicher Intensität und haben eine unterschiedliche Verweilzeit in der Atmosphäre. Daher tragen die Konzentrationen der einzelnen THG in unterschiedlichem Maße zum Treibhauseffekt bei. Um die Wirkung der Emissionen von verschiedenen THG dennoch vergleichen und zusammenfassen zu können, wird versucht ihre Wirkung auf die globale Erwärmung mittels „CO2-Äquivalenten“ zu beziffern. Durch die Zusammenfassung sind jedoch die Entwicklungen der THG im Einzelnen nicht ersichtlich, da die negative Entwicklung des einen THG durch die positive Entwicklung eines anderen THG überlagert werden kann.
+Die Daten werden jährlich durch das Umweltbundesamt (UBA) im Rahmen der Berichterstattung unter der Klimarahmenkonvention der Vereinten Nationen (UNFCCC: United Nations Framework Convention on Climate Change) dem Pariser Übereinkommen&lt;sup&gt;1&lt;/sup&gt; und dem Bundes-Klimaschutzgesetz (KSG) zur Verfügung gestellt. Die Emissionsermittlung und -berichterstattung unterliegt einem umfassenden Qualitätsmanagement.
+Die Berechnung erfolgt nach dem Verursacher- und Territorialkonzept. Für alle THG und Luftschadstoffe wurden somit alle relevanten Emissionsquellen innerhalb Deutschlands ermittelt. Für diese Quellen wurde untersucht, wie hoch die Emissionen unter bestimmten Voraussetzungen sind. Daraus resultiert ein spezifischer Emissionsfaktor, der durch Multiplikation mit den Aktivitätsdaten der Quelle die Emissionsmenge ergibt.
+Zu beachten ist, dass der Indikator gemäß Kyoto-Protokoll nicht die CO2-Emissionen aus Landnutzung, Landnutzungsänderungen und Forstwirtschaft ausweist. Auch die Seeschifffahrt und der internationale Flugverkehr werden bei der Berechnung nicht berücksichtigt.
+Betrachtet man die Entwicklung der Jahre 2015 bis 2021, so hat sich der Indikator nicht stabil entwickelt. Im Jahr 2015 und 2016 stiegen die Emissionswerte von THG jeweils geringfügig um 0,3 Prozentpunkte an. Seit dem Jahr 2017 sanken diese jedoch deutlich, 2017 um 1,3, 2018 um 2,8, 2019 um 4,1 und 2020 um 5,7 Prozentpunkte. Das Ziel für 2020 – eine Reduktion um 40 % gegenüber 2008 – konnte somit mit einer Reduktion um 41,3 % erreicht werden. Dies ist insbesondere auf Rückgänge im Verkehr und in der Industrieproduktion während der Corona-Pandemie zurückzuführen. Im Jahr 2021 sind die Treibhausgasemissionen wieder um 2,6 Prozentpunkte angestiegen. Langfristig zeigt sich nach den vorläufigen Emissionsdaten laut KSG im Jahr 2021 ein Rückgang um insgesamt 38,7 % gegenüber 1990. Bei Fortsetzung der Entwicklung der letzten fünf Berichtsjahre ist das Erreichen des Ziels für 2030 – eine Reduktion um 65 % gegenüber 1990 – nicht möglich. Auch das ehemalige Ziel der Regierung einer Reduktion der Treibhausgasemissionen um 55 % bis 2030 würde bei einer Fortschreibung des Trends nicht erreicht werden.
+Den weitaus größten Anteil am gesamten Ausstoß von THG hatte 2021 das Kohlendioxid mit 88,6 %, im Jahr 1990 waren es 84,7 %. Methan trug zuletzt mit 6,3 %, Lachgas mit 3,6 % und die fluorierten Treibhausgase als Summe mit 1,5 % bei. Der mit Abstand größte Teil der CO2-Emissionen entsteht bei der Gewinnung von Strom und Wärme. Methan und Lachgas entweichen hauptsächlich in der landwirtschaftlichen Produktion.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt; Das Kyoto-Protokoll ist Ende 2020 abgelaufen. Für die Zeit nach 2020 einigten sich die Vertragsparteien der Klimarahmenkonvention auf ein neues Abkommen, das Pariser Übereinkommen, das das Kyoto-Protokoll ersetzt.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>Short-wavelength sun rays are transmitted by various atmospheric greenhouse gases and reflected by the earth’s surface as long-wavelength thermal radiation. Greenhouse gases absorb and emit infrared radiation from the earth in different wave ranges with varying intensity, and have different residence time in the atmosphere. Hence, the effects of greenhouse gases are subject to their concentration in the atmosphere and contribute to a variable extent to the greenhouse effect. To summarise the various greenhouse gases into a single index, they are each expressed in “CO2 equivalents”, which means that they are converted into the quantity of CO2 that would have a comparable impact on global warming. Because of cumulation, however, the development of the individual greenhouse gases cannot be determined. A negative development of one greenhouse gas can for instance be concealed by a positive development of another greenhouse gas.
+The data is provided annually by the German Environment Agency as part of the reporting required under the United Nations Framework Convention on Climate Change (UNFCCC), the Paris Agreement&lt;sup&gt;1&lt;/sup&gt; and the Federal Climate Change Act. The measuring and reporting of emissions is subject to a comprehensive quality-management regime.
+The emissions are calculated in accordance with the territoriality or production principle. The largest emitters of greenhouse gases and air pollutants within Germany were therefore identified, and the quantity of their emissions under certain circumstances was investigated. A specific emissions factor derived from those findings was then multiplied by the emitter’s activity data to arrive at the overall quantity of emissions.
+It should be noted that, in accordance with the Kyoto Protocol, the indicator does not show carbon dioxide emissions arising from land use, land-use change and forestry. Maritime shipping and international aviation are also excluded from the calculation.
+Looking at developments between 2015 and 2021, it is clear that the indicator has not progressed in a stable manner. In 2015 and 2016, greenhouse-gas emissions rose slightly by 0.3 percentage points. Since 2017, however, they have sunk noticeably, by 1.3 percentage points in 2017, 2.8 percentage points in 2018, 4.1 percentage points in 2019 and 5.7 percentage points in 2020. The targeted reduction of 40 % by 2020 in comparison to 2008 was achieved at 41.3 %. Particularly, the changes can be attributed to the consequences from the COVID-19 pandemic due to the decline in traffic and industrial output. However, greenhouse gas emissions increased by 2.6 % in 2021. According to provisional emission data by the Federal Climate Change Act on long-term development, emissions reduced by 38.7 % in 2021 compared to 1990. If the development continues according to the preceding five years, the goal to reduce emissions by 65 % by 2030 compared to 1990 will be missed. Further, the former goal of the Federal Government would also be missed in the case of continuation of the trend, that is, a reduction of greenhouse gas emissions by 55 % by 2030. 
+By far the greatest share of total greenhouse-gases in 2021 was carbon dioxide, at 88.6 %, compared with 84.7 % in 1990. Most recently, methane accounted for 6.3 % of the total, with nitrous oxide on 3.6 % and the sum of fluorinated greenhouse gases on 1.5 %. By far the largest proportion of CO2 emissions arise from the generation of electricity and heat. Methane and nitrous oxide are emitted primarily by agricultural production.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Kyoto Protocol has expired at the end of 2020. From 2020 on, contracting parties of the UNFCCC committed to the Paris Agreement in lieu of the Kyoto Protocol.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
+        <is>
+          <t>13.2.2</t>
+        </is>
+      </c>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>45603</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -816,6 +4791,77 @@
           <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Z13_B01_P02</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>13.1.b</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator umfasst die Finanzierung von Maßnahmen zur Reduktion von Treibhausgasen (THG), zur Anpassung an den Klimawandel sowie klimarelevante Maßnahmen zum Erhalt der Biodiversität und zum Waldschutz (Projekte zum Schutz, zu nachhaltiger Nutzung und Wiederaufforstung von Wald im Rahmen des REDD+-Regelwerks). Die Maßnahmen erfolgen vorrangig in Entwicklungs- und Schwellenländern und werden aus deutschen Haushaltsmitteln (seit 2017 einschließlich der Schenkungsäquivalente von Entwicklungskrediten) finanziert.</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="inlineStr">
+        <is>
+          <t>This indicator covers the financing of measures to reduce greenhouse gases, adapt to climate change and/or take climate-related action to preserve biodiversity and protect forests (specifically, projects for the conservation and sustainable management of forests as well as reforestation within the REDD+ framework). The measures chiefly take place in developing and emerging countries and are financed using German budget funds (including grant elements of development loans since 2017).</t>
+        </is>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>Absicht der Bundesregierung ist es, ihre internationale Klimafinanzierung bis 2025 auf sechs Milliarden Euro&lt;sup&gt;1&lt;/sup&gt; aus Haushaltsmitteln zu erhöhen und somit den Sollwert von zwei Milliarden Euro des Jahres 2014 zu verdreifachen. In den Entscheidungen, welche das Klimaabkommen von Paris begleiteten, wurde die Zusage der Industrieländer von 2009 bekräftigt, ab dem Jahr 2020 bis 2025 gemeinsam 100 Milliarden US-Dollar aus öffentlichen und durch öffentliche Mittel mobilisierten privaten Quellen für den Klimaschutz und die Anpassung an den Klimawandel in Entwicklungsländern bereitzustellen.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung des Zieljahres und -wertes von vier Milliarden Euro bis 2020 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="I53" s="5" t="inlineStr">
+        <is>
+          <t>The Federal Government’s aim is to raise its contribution to international climate finance to 6 billion euros&lt;sup&gt;1&lt;/sup&gt; from public funds and grant elements of development loans by 2025, thereby trebling the target value for 2014, which was 2 billion euros. In the decisions contained in the Addendum to the Paris Agreement, the industrialised countries reaffirmed their 2009 commitment to collectively provide 100 billion US-dollar from public funds and from private sources mobilised by public funds, every year from 2020 to 2025, for mitigation and adaptation to climate change in developing countries.
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target year and target value from 4 billion euros by 2020 according to policy resolution 2022.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="J53" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten des Indikators sind der Berichterstattung zur EU-Verordnung über ein System für die Überwachung von Treibhausgasen (THG) entnommen. Datenquelle der jährlich erhobenen Daten ist das Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ), das in diesem Kontext auch über die Klimafinanzierung anderer Bundesministerien berichtet. Dabei werden für die Berechnung der Ausgaben für bilaterale Klimafinanzierung die Zusagen, für multilaterale Klimafinanzierung sowie für Beiträge zu Energie- und Klimafonds die tatsächlichen Auszahlungen zugrunde gelegt. Der Indikator beinhaltet darüber hinaus die anteilig zuzurechnende Klimafinanzierung, welche sich aus deren Beiträgen zu multilateralen Fonds bei Entwicklungsbanken ergibt. Sofern die Klimafinanzierung schwerpunktmäßig Entwicklungsländern zugutekommt, ist sie Teil der öffentlichen Entwicklungsausgaben (siehe Indikator 17.1 „Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen“).&lt;br&gt;Im Jahr 2021 wurden aus deutschen Haushaltsmitteln 5,34 Milliarden Euro für die internationale Klimafinanzierung zur Reduzierung von Treibhausgasen und zur Anpassung an den Klimawandel zugesagt bzw. bereitgestellt. Im Vergleich zum Vorjahr, in dem die Klimafinanzierung 5,09 Milliarden Euro betrug, ist ein Anstieg um 4,9 % zu verzeichnen. Das Ziel des Indikators von sechs Milliarden Euro bis zum Jahr 2025 wird bei Fortführung der bisherigen Entwicklung voraussichtlich erreicht. Das ursprüngliche Ziel – von vier Milliarden Euro bis zum Jahr 2020 – wurde bereits 2019 mit Zahlungen in Höhe von 4,34 Milliarden Euro erreicht. 36 % der Klimafinanzierungsmittel flossen 2021 in die Emissionsminderung und 33 % in die Anpassung an den Klimawandel. Mit den verbleibenden 30 % wurden bereichsübergreifende Projekte finanziert. Da die bereichsübergreifenden Projekte gleichermaßen minderungs- als auch anpassungsrelevant sind, ergibt sich nach Aufteilung dieser, dass – wie in den Jahren zuvor – auch 2021 mehr Mittel für Minderungsvorhaben (51 %) als für Anpassungsvorhaben (49 %) aufgewendet wurden.&lt;br&gt;Über multilaterale Kanäle wurden 18 % (971 Millionen Euro) der Klimafinanzierung im Jahr 2021 bereitgestellt. Davon können Deutschland 268 Millionen Euro auf Basis der klimarelevanten Anteile der deutschen Beiträge zu den multilateralen Entwicklungsbanken, der Globalen Umweltfazilität und dem Internationalen Fonds für landwirtschaftliche Entwicklung zugerechnet werden. Die verbleibenden 703 Millionen Euro stellt Deutschland über multilaterale Einrichtungen und Beiträge für internationale Klimafonds bereit.&lt;br&gt;Neben der öffentlichen Klimafinanzierung aus Haushaltsmitteln stellen die Kreditanstalt für Wiederaufbau (KfW) und die Deutsche Entwicklungsgesellschaft (DEG) ebenfalls klimabezogene Kredite und andere Finanzierungen aus Marktmitteln bereit. Diese stellen die „mobilisierte öffentliche Klimafinanzierung“ dar und sind nicht im Indikator enthalten. Im Jahr 2021 umfassten die so mobilisierten Ressourcen rund 2,59 Milliarden Euro im Vergleich zu 2,55 Milliarden Euro aus dem Vorjahr. Auch hier wurden mehr Mittel für Minderungsvorhaben (58 %) als für Anpassungsvorhaben (42 %) aufgewendet.</t>
+        </is>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>The data for this indicator is derived from reporting carried out under the EU Regulation on a mechanism for monitoring greenhouse gases. The source of the annually collected data is the Federal Ministry for Economic Cooperation and Development, which also reports in this context on climate finance from other federal ministries. In the case of bilateral climate finance, expenditure is calculated on the basis of funds allocated; in the case of multilateral climate finance and contributions to energy and climate funds, it is calculated on the basis of funds actually paid. The indicator also includes climate finance that is attributed to donors pro rata on the basis of their contributions to multilateral funds managed by development banks. As climate finance primarily benefits developing countries, it is considered to be part of official development expenditure (see indicator 17.1 “Official development assistance as a proportion of gross national income”).
+In 2021, Germany committed or provided 5.34 billion euros in public funds for international climate finance for the reduction of greenhouse gases and adaptation to climate change. Compared with the previous year, when climate finance amounted to 5.09 billion euros, this represents an increase of 4.9 %. The target for 2025 – to reach 6 billion euros – will most likely be achieved if the development continues. The previous target – to reach 4 billion euros by 2020 – was already achieved in 2019 at 4.34 billion euros. In 2021, 36 % of climate finance went to fund projects to reduce emissions, while 33 % went towards adaptation to climate change. The remaining 30 % was used to finance horizontal measures. As the horizontal measures serve both the reduction and adaptation efforts, the final split in 2021, as in previous years, shows more funds being used for emissions reduction (51 %) than for adaptation (49 %).
+18 % of climate finance, or 971 million euros, was provided through multilateral channels in 2021. 268 million euros of that can be attributed to Germany on the basis of the climate-related shares of Germany’s contributions to multilateral development banks, the Global Environment Facility and the International Fund for Agricultural Development. Germany provides the remaining 703 million euros through multilateral institutions and contributions to international climate funds.
+In addition to official climate finance from public funds, Kreditanstalt für Wiederaufbau (KfW) and DEG (Deutsche Investitions- und Entwicklungsgesellschaft) also provide climate-related loans with funds from the market. These represent mobilised public climate finance and are not included in the indicator. In 2021, the resources mobilised in this way amounted to approximately 2.59 billion euros, compared with 2.55 billion euros the previous year. Here too, more funding went towards emissions reduction (58 %) than adaptation (42 %).</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>13.a.1</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>45562</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -823,6 +4869,77 @@
           <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>14.1.a</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Stickstoffeintrag über die Zuflüsse in die Nord- und Ostsee</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>Nitrogen input via the inflows into the North and Baltic Seas</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren geben den gleitenden, abflussgewichteten Durchschnitt der letzten fünf Jahre der Stickstoffkonzentrationen in Milligramm (mg) Stickstoff pro Liter (l) Wasserabfluss von Flüssen in die Nord- und Ostsee an.&lt;sup&gt;1&lt;/sup&gt;
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Für die Nordsee sind dies die Flüsse Eider, Elbe, Ems, Weser, Rhein, Treene, Aarlau, Bongsieler Kanal und Miele. Für die Ostsee sind dies die Peene, Trave, Warnow, Langballigau, Füsinger Au, Koseler Au, Schwentine, Kossau, Goddesdorfer Au, Oldenburger Graben, Aalbeck, Schwartau, Lippingau, Hagener Au, Barthe, Duvenbaek, Hellbach, Maurine, Recknitz, Ryck, Stepenitz, Uecker, Wallensteingraben und Zarow.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="inlineStr">
+        <is>
+          <t>The indicators show the moving discharge-weighted five-year average of nitrogen concentrations in milligrams (mg) of nitrogen per litre (l) of water discharged from rivers into the North Sea and the Baltic Sea.&lt;sup&gt;1&lt;/sup&gt;
+&lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Regarding the North Sea, these are the following rivers: Eider, Elbe, Ems, Weser, Rhein, Treene, Aarlau, Bongsieler Kanal and Miele. As far as the Baltic Sea is concerned, these are the following rivers: Peene, Trave, Warnow, Langballigau, Füsinger Au, Koseler Au, Schwentine, Kossau, Goddesdorfer Au, Oldenburger Graben, Aalbeck, Schwartau, Lippingau, Hagener Au, Barthe, Duvenbaek, Hellbach, Maurine, Recknitz, Ryck, Stepenitz, Uecker, Wallensteingraben and Zarow.&lt;/small&gt;</t>
+        </is>
+      </c>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t>Hohe Konzentrationen von Stickstoff in den Meeren können zu Eutrophierungseffekten wie Sauerstoffmangel und dadurch zum Verlust an Biodiversität und zur Zerstörung von Fisch-Aufzugsgebieten führen. Daher soll der Eintrag von Stickstoff unter 2,8 mg Stickstoff pro Liter Abfluss für die in die Nordsee einmündenden Flüsse und unter 2,6 mg Stickstoff pro Liter für die in die Ostsee einmündenden Flüsse liegen. Dies entspricht den im Rahmen der Umsetzung der Wasserrahmenrichtlinie (WRRL) vereinbarten Bewirtschaftungszielen der Oberflächengewässerverordnung (OGewV) sowie den Zielen der Meeresstrategie-Rahmenrichtlinie (MSRL) und des Ostseeaktionsplans.</t>
+        </is>
+      </c>
+      <c r="I54" s="5" t="inlineStr">
+        <is>
+          <t>High concentrations of nitrogen in the seas can lead to eutrophication effects such as oxygen depletion, the loss of biodiversity and to the destruction of fish spawning grounds. Therefore, the input of nitrogen should stay below 2.8 mg nitrogen per litre discharge for the rivers flowing into the North Sea and below 2.6 mg/l for the rivers flowing into the Baltic Sea. This aligns with the management targets of the Ordinance on the Protection of Surface Waters (OGewV), which were agreed in implementation of the Water Framework Directive, as well as with those of the Marine Strategy Framework Directive and the Baltic Sea Action Plan.</t>
+        </is>
+      </c>
+      <c r="J54" s="5" t="inlineStr">
+        <is>
+          <t>Eine Hauptursache für den Stickstoffeintrag über die Zuflüsse in Nord- und Ostsee ist der Stickstoffüberschuss in der Landwirtschaft, der in Indikator 2.1.a gemessen wird. Neben Stickstoff führt auch Phosphor zur Eutrophierung. Die Phosphorbelastung der Flüsse wird in Indikator 6.1.a separat betrachtet.&lt;br&gt;Berechnungsgrundlage für diesen Indikator bilden einerseits Messdaten zu Stickstoffkonzentrationen, andererseits Messdaten zum Wasserabfluss kleiner und großer Nord- und Ostseezuflüsse, die das Umweltbundesamt (UBA) nach Angaben der Bundesländer bzw. Flussgebietsgemeinschaften zusammenstellt. Dabei werden auch kleinere Flüsse berücksichtigt, die nicht direkt in die Nord- bzw. Ostsee, sondern in einen größeren Fluss münden. Hier sind die Messstellen so gewählt, dass jeweils die Daten der letzten Messstellen vor dem Zusammenfließen beider Flüsse berücksichtigt werden. Berücksichtigt wird darüber hinaus auch der Rhein, der nicht in Deutschland mündet. Hier werden die Werte an dem Punkt gemessen, wo der Rhein Deutschland verlässt (Messstelle bei Kleve, Ortsteil Bimmen).&lt;br&gt;Die Stickstoffkonzentrationen der einzelnen Flüsse werden abflussgewichtet gemittelt, sodass große Flüsse mit großen Wasserabflussmengen den Durchschnitt stärker beeinflussen als kleine Flüsse. Damit einzelne Extremereignisse wie Hochwasser oder Dürre, die punktuell zu sehr hohen oder sehr niedrigen Stickstoffeinträgen führen, die Darstellung der Entwicklung nicht verzerren, werden die Werte als gleitender Fünfjahresdurchschnitt betrachtet.&lt;br&gt;Die abflussgewichtete Stickstoffkonzentration über alle Nord- und Ostseezuflüsse zeigt seit Beginn der Zeitreihe einen abnehmenden Trend, wobei der Rückgang der Konzentrationen in der Nordsee ausgeprägter als in der Ostsee ist. Im Mittel 2016 bis 2020 wiesen die Nordseezuflüsse eine Konzentration von 2,8 mg/l auf und erreichten damit gemeinsam erstmals den Zielwert. Die Zuflüsse der Ostsee erreichten im gleichen Zeitraum eine Konzentration von 3,1 mg/l und lagen damit deutlich über der Obergrenze von 2,6 mg/l.&lt;br&gt;Im Unterschied zum aggregierten Indikator 14.1.a „Stickstoffeintrag über die Zuflüsse in Nord- und Ostsee“ ist es zum Erreichen eines guten Zustandes gemäß der OGewV jedoch erforderlich, dass jeder einzelne Fluss den Bewirtschaftungszielwert einhält. Dies wird derzeit weder für die Nord- noch für die Ostsee erreicht.&lt;br&gt;Von den großen Ostseezuflüssen Peene, Trave und Warnow erreichte nur die Warnow 2016 bis 2020 den Bewirtschaftungszielwert. Für Peene und Trave zeigte sich jedoch ein leichter Rückgang der Fünfjahresdurchschnitte der Konzentrationen von 0,1 mg/l. Bei den kleinen Ostseezuflüssen lagen die Stickstoffkonzentrationen im Fünfjahresdurchschnitt mit bis zu 5,9 mg/l teilweise noch um ein Vielfaches über dem Bewirtschaftungszielwert, der nur von einem Viertel der kleinen Flüsse erreicht wurde.&lt;br&gt;Bei den Nordseezuflüssen erreichte 2016 bis 2020 nur der Rhein den Bewirtschaftungszielwert und war daher hauptverantwortlich für das gemeinsame, abflussgewichtete Erreichen des Zielwerts. Mit Ausnahme der Elbe waren die Fünfjahresdurchschnitte der Konzentrationen für alle großen Nordseezuflüsse (Ems, Weser, Rhein und Eider) mit Abnahmen von 0,1 bis 0,2 mg/l rückläufig. Bei den kleinen Nordseezuflüssen lagen die Stickstoffkonzentrationen im Fünfjahresdurchschnitt im Zeitraum 2016 bis 2020 zwischen 2,6 bis 3,5 mg/l und wiesen auch hier einen leichten Rückgang auf.</t>
+        </is>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>One of the main causes of nitrogen inputs reaching the North and Baltic Seas via inflows is nitrogen surplus in agriculture, which is measured in indicator 2.1.a. Like nitrogen, phosphorus also leads to eutrophication. Phosphorus pollution in rivers is examined separately in indicator 6.1.a.
+The calculations for this indicator use monitoring data on nitrogen concentrations and on the discharge volumes of small and major rivers flowing into the North and Baltic Seas, which the German Environment Agency collates as reported by the Länder and by river basin commissions. Data is also included for smaller rivers which do not flow directly into the North or Baltic Sea but are tributaries to larger rivers. In these cases, the data for each river are taken from its last monitoring site before the confluence. The Rhine is also included in the figures, even though its estuary is not in Germany. The data for the Rhine were recorded at the point where it leaves Germany (monitoring site at Bimmen, Kleve).
+The nitrogen concentrations for each river are weighted for discharge volume, so that major rivers which discharge large qualities of water have a greater influence on the average that smaller ones. To prevent the graph being distorted by single extreme events like floods or droughts, which can result in anomalously very high or very low nitrogen inputs, the values are depicted as a five-year moving average.
+The average nitrogen concentration for all North and Baltic Sea inflows, weighted for discharge volume, has followed a downward trend since the beginning of the time series, with the reduction in concentration more marked for the North Sea than the Baltic. The 2016-2020 average for the North Sea inflows was a concentration of 2.8 mg/l and reached jointly the target value for the first time. For rivers flowing into the Baltic Sea, the average concentration was 3.1 mg/l for the same period and, thus, exceeded the upper limit of 2.6 mg/l.
+In contrast to the aggregated indicator 14.1.a “Nitrogen inputs via the inflows into the North and Baltic Seas”, each river by itself has to meet the management target to achieve good quality, as defined by the Ordinance on the Protection of Surface Waters. The target is neither achieved for the North Sea nor the Baltic Sea.
+Of the three major inflows into the Baltic Sea, the Peene, the Trave and the Warnow, only the latter had already reached the management target by 2016-2020. Nevertheless, Peene and Trave showed a small reduction in concentration across the five-year averages by 0.1 mg/l. In some of the smaller Baltic Sea inflows, concentrations of nitrogen are still several times higher than the management target, with values of up to 5.9 mg/l, and the target was only reached by a quarter of the smaller Baltic Sea inflows.
+Of the North Sea inflows, only the Rhine met the management target in the period 2016 to 2020, and, hence, was mainly responsible for the joint achievement of the weighted for discharge volume target value. The five-year averages of nitrogen concentrations decreased for all major North Sea inflows (Ems, Weser, Rhein and Eider) by 0.1 to 0.2 mg/l, except for the Elbe. A slight decline was also measured by the five-year averages of nitrogen concentrations for the small North Sea inflows. Accordingly, the values were between 2.6 mg/l and 3.5 mg/l in the period from 2016-2020.</t>
+        </is>
+      </c>
+      <c r="L54" s="4" t="inlineStr">
+        <is>
+          <t>14.1.1</t>
+        </is>
+      </c>
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N54" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -830,6 +4947,75 @@
           <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Z14_B01_P01</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>14.1.b</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den Anteil der nachhaltig bewirtschafteten Fischbestände an der Zahl der gesamten bewirtschafteten Fischbestände in Nord- und Ostsee an. Dies erfolgt nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz), dem Ansatz des höchstmöglichen Dauerertrags.</t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the sustainably managed fish stocks (according to the Maximum Sustainable Yield [MSY] approach) as a proportion of the total of managed fish stocks in the North and the Baltic Sea.</t>
+        </is>
+      </c>
+      <c r="H55" s="5" t="inlineStr">
+        <is>
+          <t>Die biologische Vielfalt ist die Grundlage für das Leben der Menschen. Nur wenn das Naturkapital – etwa in Form von Fischbeständen in Nord- und Ostsee – geschützt und erhalten wird, kann es auch künftigen Generationen lebenswichtige Ökosystemleistungen erbringen.&lt;br&gt;Das Ziel des Indikators ist es, den Erreichungsgrad des in der Verordnung über die Gemeinsame Fischereipolitik festgelegten Ziels zu beschreiben, nach dem bis 2020 alle wirtschaftlich genutzten Fischbestände nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz) nachhaltig zu bewirtschaften sind.</t>
+        </is>
+      </c>
+      <c r="I55" s="5" t="inlineStr">
+        <is>
+          <t>Biological diversity is fundamental to all human life. Only if the natural capital – for example, in the form of fish stocks in the North and the Baltic Sea – is protected and preserved it can also provide future generations with critical ecosystem services.
+The target of the indicator is to describe the extent to which the goal defined in the Regulation on the Common Fisheries Policy has been achieved. The goal states that all fish stocks used for economic purposes have to be sustainably managed in accordance with the MSY approach by 2020.</t>
+        </is>
+      </c>
+      <c r="J55" s="5" t="inlineStr">
+        <is>
+          <t>Nicht alle Fischbestände werden in Bezug auf ihre nachhaltige Bewirtschaftung untersucht. Daher ist die Zahl der Fischbestände, die nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz) nachhaltig bewirtschaftet werden, auch immer in Relation zu den Fischbeständen insgesamt zu sehen. Eine Ausweitung der Untersuchungen auf möglichst viele Bestände wird zwar angestrebt, bedingt durch die hohen Kosten dieser Untersuchungen ist aber davon auszugehen, dass eine Erfassung sämtlicher, auch ökonomisch wenig relevanter bzw. wenig befischter Bestände nicht realistisch ist. Wirtschaftlich genutzt werden nach derzeitigen Schätzungen in der Nordsee 58 und in der Ostsee 20 Fischbestände. Die Zahl der nach dem MSY-Ansatz untersuchten Bestände beträgt momentan für die Ostsee acht; für die Nordsee werden derzeit 22 Bestände berücksichtigt. Damit wird nur gut ein Drittel aller bewirtschafteten Bestände vollständig analytisch auf nachhaltige Bewirtschaftung untersucht. Alle anderen Bestände, für die nicht ausreichend Daten zur Verfügung stehen, um sie nach der MSY-Methode zu untersuchen, bleiben bei diesem Indikator unberücksichtigt.&lt;br&gt;Ein Bestand gilt dann als „nachhaltig bewirtschaftet“, wenn die tatsächliche Fangmenge pro Jahr und Fischbestand die auf dem MSY-Ansatz basierende, wissenschaftlich empfohlene Menge nicht überschreitet bzw. den Vorgaben eines langfristigen Managementplanes, der dem MSY-Ansatz folgend als nachhaltig bewertet ist, entspricht. Als „Fischbestand“ wird dabei eine sich eigenständig reproduzierende Population einer Fischart bezeichnet. Eine spezifische Art kann somit mehrere Bestände und je nach Bestand auch unterschiedliche Richtwerte für die Fangmenge aufweisen. In der Regel wird jedem Bestand, entsprechend seiner vorherigen Entwicklung, ein Richtwert zugewiesen.&lt;br&gt;Die Richtwerte für die bewirtschafteten Bestände werden durch den Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea) berechnet. Die Datenerhebung zur Berechnung des Indikators deckt die gesamte Nord- und Ostsee ab. Eine Abgrenzung der Werte für deutsche Territorialgewässer und die deutsche ausschließliche Wirtschaftszone ist dementsprechend nicht möglich.&lt;br&gt;Die jährliche Berechnung der nachhaltigen Fangmengen nach dem MSY-Ansatz basiert auf stochastischen Vorhersagen, die auf Berechnungen zur historischen Bestandsentwicklung aufsetzen. Informationen zu angelandeten Fischmengen basieren auf gemeldeten Fängen. Daraus gezogene Stichproben geben Aufschluss über die demografischen Parameter des Bestandes, etwa Alter und Größe. Als weitere wichtige Informationsquelle für den Zustand von Beständen dienen fischereiunabhängige, wissenschaftliche Erhebungen auf Forschungsschiffen. Die Zeitreihe wird jährlich neu geschätzt und die betrachteten Fischarten gegebenenfalls für die gesamte Zeitreihe aktualisiert, wodurch sich auch die Indikatorwerte vergangener Jahre ändern können.&lt;br&gt;Der Anteil der nachhaltig befischten Bestände an der Zahl der nach dem MSY-Ansatz untersuchten Bestände belief sich im Jahr 2020 für Nord- und Ostsee insgesamt auf 60,0 %. Für die Nordsee betrug dieser Anteil 59,1 % und für die Ostsee 62,5 %. Betrachtet man die Entwicklung zwischen den Jahren 2015 und 2020, ist der Verlauf insgesamt positiv. Das Ziel, dass alle wirtschaftlich genutzten Fischbestände nach dem MSY-Ansatz nachhaltig bis 2020 bewirtschaftet werden, konnte nicht erreicht werden.&lt;br&gt;Die Einschätzung des Indikators gestaltet sich schwierig, da er neben der Entwicklung der Bestände selbst auch durch die Auswahl der zu betrachtenden Bestände beeinflusst wird. So kann die Bemessungsgrundlage jedes Jahr variieren, was einen Vergleich der einzelnen Jahre untereinander erschwert. Zusätzlich gelten die empfohlenen Fangmengen staatenübergreifend und können nur indirekt durch die Bemühungen eines einzelnen Staates erfüllt werden.</t>
+        </is>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>Not all fish stocks are examined with reference to their sustainable management. Therefore, the number of fish stocks that are sustainably managed based on the MSY approach should always be viewed in relation to overall fish stocks. Although an expansion of the investigation to include as many stocks as possible is desirable, the high cost of these investigations means that the prospect of recording all stocks, even those that are economically less relevant and less fished, is unrealistic. Based on current estimates, a total of 58 fish stocks in the North Sea and 20 stocks in the Baltic Sea are used for economic purposes. The number of stocks examined using the MSY approach is currently eight in the Baltic Sea and 22 in the North Sea. This means that only a third of all managed stocks are fully analysed with respect to sustainable management. All other stocks for which the data available are not sufficient for analysis according to the MSY method are not included in this indicator.
+A stock is considered to be “sustainably managed” if the actual amount of fish caught per year and the fish stock do not exceed the scientifically recommended amount based on the MSY approach, or if they comply with the requirements of a long-term management plan assessed as sustainable according to the MSY approach. In this context, a “fish stock“ is defined as an independently reproducing population of a specific species of fish. A specific species can therefore have multiple stocks and, depending on the stock, can also have different guideline values regarding the amount of fish caught. As a rule, each stock is assigned a guideline value according to its previous development.
+The guideline values for the managed stocks are calculated by the International Council for the Exploration of the Sea. Data is collected for the whole North and Baltic Sea in order to calculate the indicator. Accordingly, a distinction between the values for German territorial waters and the exclusive economic zone for Germany is not feasible.
+The annual calculation of the amounts of fish caught sustainably according to the MSY approach is based on stochastic predictions, which use calculations of historical stock trends. Information about fish quantities landed is based on reported catches. Samples taken from this provide insights into the demographic parameters of the population, such as age and size. Other important sources of information on the state of fish stocks are scientific surveys conducted on research vessels that are independent of the fishing industry. Indicator values of previous years are subject to retrospective changes due to new estimates on an annual basis for the time series and updates with regards to the relevant fish species.
+In 2020, the sustainably managed stocks of fish accounted for 60.0 % of the total stocks examined in accordance with the MSY approach in the North Sea and the Baltic Sea. The relevant proportions were 59.1 % in the North Sea and 62.5 % in the Baltic Sea. Regarding the development between 2015 and 2020, the overall progress was positive. The target to sustainably manage economically relevant fish stocks according to the MSY approach was missed.
+It is difficult to assess the indicator because it is influenced in addition to the development of the stocks, also by the selection of stocks to be considered. Thus, the basis of assessment can vary from year to year, which makes it difficult to compare the results of individual years. In addition, the recommended amounts of fish caught apply across countries and therefore can only be fulfilled indirectly by the efforts of a single country alone.</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>14.4.1</t>
+        </is>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N55" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -837,6 +5023,84 @@
           <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B01_P01</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>15.1</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>Artenvielfalt und Landschaftsqualität</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>Biodiversity and landscape quality</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Bestandsentwicklung für 51 ausgewählte Vogelarten in Form eines Index.</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the population development for 51 selected bird species in the form of an index.</t>
+        </is>
+      </c>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>Eine große Artenvielfalt an Tieren und Pflanzen ist eine wesentliche Voraussetzung für einen leistungsfähigen Naturhaushalt und bildet eine wichtige Lebensgrundlage des Menschen. Um die Artenvielfalt und gleichzeitig die Lebensqualität des Menschen zu erhalten, ist das vorläufige Ziel der Bundesregierung ein Indexwert von 100 bis zum Jahr 2030 – ursprünglich sollte dieser Zielwert bereits bis 2015 erreicht werden. Derzeit wird der Indikator auf Basis neuer Erkenntnisse überarbeitet und zukünftig in angepasster Form für die Berichterstattung verwendet werden.</t>
+        </is>
+      </c>
+      <c r="I56" s="5" t="inlineStr">
+        <is>
+          <t>Having a wide variety of animal and plant species is a fundamental prerequisite for a healthy natural environment and an important foundation for human life. To preserve biodiversity and simultaneously safeguard quality of life for humans, the provisional goal of the Federal Government is an index value of 100 by 2030 – a target that was originally meant to be achieved by 2015. This target value is currently being reviewed as part of a research project and may be amended in future on the basis of new findings.</t>
+        </is>
+      </c>
+      <c r="J56" s="5" t="inlineStr">
+        <is>
+          <t>Neben Vögeln sind auch andere Arten auf eine Landschaft mit intakten, nachhaltig genutzten Lebensräumen angewiesen, sodass der Indikator indirekt auch die Entwicklung zahlreicher weiterer Arten in der Landschaft und die Nachhaltigkeit der Landnutzung abbildet.
+Der Berechnung des Indikators liegt die Entwicklung der Bestände von 51 Vogelarten zugrunde, die die wichtigsten Landschafts- und Lebensraumtypen in Deutschland repräsentieren: je zehn Arten für die Teilindikatoren zu Agrarland, Siedlungen, Binnengewässern, Küsten und Meeren sowie elf Arten für Wälder. Aufgrund einer unsicheren Datenlage wird derzeit der Landschaftstyp der Alpen nicht berücksichtigt.
+Die Bestandsgröße je Art wird jährlich aus den Ergebnissen von Programmen des Vogelmonitorings vom Dachverband Deutscher Avifaunisten (DDA) in Zusammenarbeit mit dem Bundesamt für Naturschutz (BfN) berechnet und in Relation zur Größe des Bestandszielwerts gesetzt. Der Bestandszielwert wurde durch ein Expertengremium für jede Vogelart – ursprünglich für das Jahr 2015 – festgelegt. Die historischen Werte für 1970 und 1975 sind rekonstruiert.
+Für jeden Teilindikator wird der arithmetische Mittelwert der Zielerreichungsgrade über alle 10 bzw. 11 ausgewählten Vogelarten gebildet. Der Gesamtindikator errechnet sich aus einer gewichteten Summierung der Teilindikatoren. Die Gewichtung bezieht sich dabei auf den Anteil des jeweiligen Hauptlebensraum- bzw. Landschaftstyps an der Fläche Deutschlands. Die Zielwerte für die Teilindikatoren und den Gesamtindikator wurden vorläufig unverändert auf das Zieljahr 2030 übertragen.
+Der Wert des Indikators für Artenvielfalt und Landschaftsqualität lag im Jahr 1990 deutlich unter den Werten, die für die Jahre 1970 und 1975 rekonstruiert wurden. In den letzten zehn Berichtsjahren (2006 bis 2016) stagnierte der Wert des Indikators und lag im Jahr 2016 bei 70,5 % des Zielwerts, verglichen mit 70,2 % im Jahr 2006. Bei gleichbleibender Entwicklung wird das Ziel für das Jahr 2030 nicht erreicht werden.
+Im gleichen Zeitraum haben sich die Teilindikatoren für die einzelnen Lebensraumtypen allerdings unterschiedlich entwickelt. Die Teilindikatoren des Agrarlandes (2016: 60,5 % des Zielwerts) sowie der Küsten und Meere (2016: 58,0 % des Zielwerts) zeigten in den letzten zehn Berichtsjahren einen Abwärtstrend. Hier betrugen die Werte der Teilindikatoren im Jahr 2006 68,0 % des Zielwerts für das Agrarland und 63,2 % des Zielwerts für die Küsten und Meere.
+Im Gegensatz dazu haben sich die Teilindikatoren für Wälder, Siedlungen und Binnengewässer in den letzten zehn Berichtsjahren positiv entwickelt. So betrug 2016 der Teilindikator für Wälder 87,5 % des Zielwerts im Vergleich zu 78,6 % im Jahr 2006. Bei dem Teilindikator Siedlungen stieg der Wert von 65,1 % im Jahr 2006 auf 75,5 % im Jahr 2016 an. Der Teilindikator Binnengewässer stieg auf 75,0 % des Zielwerts im Jahr 2016 an, im Vergleich zu einem Wert von 63,1 % im Jahr 2006.</t>
+        </is>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>Other species besides birds rely on landscapes with intact, sustainably used habitats, which means that the indicator also indirectly reflects the development of many other species in the landscape and the sustainability of land use.
+The calculations for this indicator are based on changes in the populations of 51 bird species, which together represent the most important types of landscape and habitat in Germany: ten species each for the sub-indicators farmland, settlements, inland waters, and coasts and seas, as well as eleven species for forests. The Alpine landscape is not currently taken into account, because of uncertainty of data.
+The population size of each species is calculated annually from the results of bird-monitoring programmes by the Federation of German Avifaunists in cooperation with the Federal Agency for Nature Conservation and is expressed in relation to the target population size. The target value for each species is defined by a panel of experts – initially for 2015. The historical values for 1970 and 1975 are reconstructed.
+Each sub-indicator represents the arithmetic mean of the degrees of success achieved across the 10 or 11 selected avian species. The overall indicator is derived from a weighted summation of the sub-indicators. The weighting relates to the proportion of German territory which each main habitat or landscape type covers. On a provisional basis, the target values for the sub-indicators and the overall indicator have been applied unchanged to the 2030 target year.
+In 1990, the indicator for biodiversity and landscape quality was significantly lower than the reconstructed values for 1970 and 1975. The indicator value stagnated over the last ten reporting years (2006-2016), reaching 70.5 % of the target value in 2016 compared with 70.2 % in 2006. If this trend continues, the goal for 2030 will not be achieved.
+During the same period, however, the sub-indicators for the various types of habitat did not follow uniform trajectories. The farmland and coasts and seas sub-indicators fell during the last ten reporting years, to 60.5 % and 58.0 % of their target values in 2016 respectively. The equivalent values in 2006 were 68.0 % for farmland and 63.2 % for coasts and seas.
+In contrast, the forest, settlement and inland-waters sub-indicators moved in a positive direction over the last ten reporting years. The forest sub-indicator reached 87.5 % of its target value in 2016, compared with 78.6 % in 2006. The settlement sub-indicator rose from 65.1 % in 2006 to 75.5 % in 2016. The figure for inland waters was 75.0 % of the target value in 2016, compared with 63.1 % in 2006.</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t>15.5.1</t>
+        </is>
+      </c>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <v>45548</v>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -844,6 +5108,79 @@
           <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P01</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>15.2</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophierung der Ökosysteme</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>Eutrophication of ecosystems</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt den Anteil der Fläche empfindlicher Ökosysteme dar, bei der die ökologischen Belastungsgrenzen (Critical Loads) durch atmosphärische Stickstoffeinträge überschritten wurden, gemessen an der gesamten bewerteten Fläche empfindlicher Ökosysteme.</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the sensitive ecosystem area where the critical ecological loads have been exceeded due to atmospheric nitrogen inputs, as a proportion of the total assessed sensitive ecosystem area.</t>
+        </is>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>Die ökologischen Belastungsgrenzen sind ein Maß für die Empfindlichkeit eines Ökosystems gegenüber dem Eintrag eines Schadstoffs. Liegen die Einträge von Luftschadstoffen unter diesen Belastungsgrenzen (Critical Loads), ist nach heutigem Stand des Wissens nicht mit schädlichen Wirkungen auf Struktur und Funktion eines Ökosystems zu rechnen. Fast die Hälfte aller Farn- und Blütenpflanzen, die in Deutschland in der Roten Liste aufgeführt werden, sind durch Nährstoffeinträge gefährdet. Bis zum Jahr 2030 soll der Flächenanteil mit erhöhtem Stickstoffeintrag um 35 % gegenüber 2005 reduziert werden. Dies entspricht einer Senkung auf 52 % der bewerteten Fläche empfindlicher Ökosysteme.</t>
+        </is>
+      </c>
+      <c r="I57" s="5" t="inlineStr">
+        <is>
+          <t>The critical ecological loads are a measure of the sensitivity of an ecosystem to the input of a pollutant. If the inputs of air pollutants remain below these critical loads, no harmful effects on the structure and functioning of an ecosystem are to be expected according to the current state of knowledge. Almost half of the ferns and flowering plants that are included in the Red List in Germany are endangered by nutrient inputs. By 2030, the share of land with an elevated input of nitrogen is to be reduced by 35 % compared with 2005. This would be a reduction to 52 % of the total ecosystem area under assessment.</t>
+        </is>
+      </c>
+      <c r="J57" s="5" t="inlineStr">
+        <is>
+          <t>Stickstoff, der gebunden in Ammoniak und Stickoxiden in die Atmosphäre gelangt, kann gasförmig, in Regen gelöst oder als Bestandteil des Feinstaubs in Ökosysteme eingetragen werden. Die Emissionen von Ammoniak und Stickoxiden werden als Teil des Indikators 3.2.a „Emissionen von Luftschadstoffen“ dargestellt und deren Entwicklung beeinflusst direkt die Eutrophierung der Ökosysteme. Als empfindliche Ökosysteme, die in die Berechnung des Indikators eingehen, werden Wälder, natürliches Grünland, Moore, Sümpfe und Heiden betrachtet.
+Durch einen übermäßigen Eintrag von Stickstoffverbindungen aus der Luft in Land-Ökosysteme können Nährstoffungleichgewichte entstehen. Infolge des geänderten Nährstoffangebots ändert sich zum Beispiel die Artenzusammensetzung: Organismen, die stickstoffarme Standorte bevorzugen, werden zugunsten stickstoffliebender Arten verdrängt. Außerdem können viele Pflanzen durch die Veränderung der Nährstoffverfügbarkeit anfälliger gegenüber Frost, Dürre und Schädlingen werden. Auswirkungen eines übermäßigen Stickstoffeintrages treten oft erst einige Jahre später auf. Ebenso sind positive Effekte aufgrund geminderten Eintrages erst nach längerer Zeit zu erkennen.
+Zur Bewertung der Stickstoffeinträge werden ökosystemspezifische Belastungsgrenzen ermittelt, bei deren Einhaltung nach heutigem Wissensstand Strukturen und Funktionen sowie die Artengemeinschaften eines Ökosystems geschützt sind. Insgesamt werden auf diese Weise etwa elf Millionen Hektar, das heißt nahezu ein Drittel der Fläche Deutschlands, bewertet.
+Im Jahr 2019 wurden in Deutschland auf 69 % der Fläche aller bewerteten empfindlichen Ökosysteme die Belastungsgrenzen für schädlichen Stickstoffeintrag überschritten. Besonders hoch sind Überschreitungen in Teilen Norddeutschlands, da hier durch die Landwirtschaft große Mengen reaktiver Stickstoffverbindungen freigesetzt werden.
+Zwischen dem Jahr 2000 und 2015 konnte der Anteil der Flächen, auf denen die Belastungsgrenzen für Stickstoff überschritten wurden, um 15 Prozentpunkte gesenkt werden. Im Folgejahr stieg der Indikator wieder leicht an, um bis zum Jahr 2019 erneut auf den Wert des Jahres 2011 zu sinken. Somit hat sich der Anteil der Flächen, auf denen die Belastungsgrenzen für Stickstoff überschritten wurden, seit dem Jahr 2015 nicht weiter verringert.
+Die Berechnung des Indikators wird vom Umweltbundesamt (UBA) vorgenommen und basiert auf zwei Datensätzen. Der erste Datensatz ist der Critical-Load-Datensatz, der vom UBA für die internationale Berichterstattung im Rahmen der Genfer Luftreinhaltekonvention (CLRTAP) bereitgestellt wird. Grundlagen zur Ermittlung dieses Datensatzes sind unter anderem die Bodenübersichtskarte Deutschlands, die Karte der jährlichen mittleren Sickerwasserrate in den Boden, die Karte der Landnutzungsverteilung sowie Klimadaten Deutschlands. Der zweite Datensatz beinhaltet eine Zeitreihe der Stickstoffeinträge in Deutschland und wurde im Rahmen des PINETI-IV-Projektes (Pollutant INput and EcosysTem Impact) berechnet.</t>
+        </is>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>Nitrogen, which escapes into the atmosphere bonded in ammonia and nitrogen oxides, can be introduced into ecosystems in gaseous form, dissolved in rain, or as a component of particulate matter. Emissions of ammonia and nitrogen oxides are depicted as part of indicator 3.2.a on emissions of air pollutants, and developments in that area directly affect the eutrophication of ecosystems. The sensitive ecosystems covered in the calculations for this indicator are forests, natural grassland, wetlands, marshes and heathland.
+Excessive inputs of nitrogen compounds from the air into land ecosystems can result in nutrient imbalances. The alterations in nutrient availability can lead, for example, to changes in the species composition of an ecosystem, with organisms which prefer nitrogen-poor locations being displaced by nitrogen-loving species. Meanwhile, many plants can be rendered vulnerable to frost, drought and pests by changes in nutrient availability. The effects of excessive nitrogen inputs often take several years to manifest themselves. Likewise, the positive effects of reduced inputs will become apparent only after an extended period.
+For the purposes of evaluating nitrogen inputs, ecosystem-specific critical loads are determined which represent the saturation points below which, based on the latest knowledge available, the structures, functions and biological communities of an ecosystem remain protected. In total, around 11 million hectares, almost one third of the entire area of Germany, are assessed in this way.
+In 2019, the critical loads for harmful nitrogen inputs were exceeded on 69 % of the area of all the sensitive ecosystems assessed in Germany. Excesses were particularly high in parts of northern Germany, where agricultural activity releases large quantities of reactive nitrogen compounds.
+Between 2000 and 2015, the proportion of areas in which critical loads for nitrogen were exceeded was reduced by 15 percentage points. The indicator rose again slightly in the subsequent year before returning to the 2011 level by 2019. The share of land where nitrogen was in excess of the critical load has thus not fallen any further since 2015.
+The calculations for this indicator are produced by the German Environment Agency and derived from two data sets. The first of these is the critical-load data set, which the German Environment Agency provides for the purposes of international reporting under the aegis of the Geneva Convention on Long-Range Transboundary Air Pollution (CLRTAP). The tools used to determine that data set include the soil overview map of Germany, the map showing average annual rates of percolation into the soil, the map of land-use distribution and climatological data for Germany. The second data set comprises a time series of nitrogen inputs in Germany and was compiled as part of the PINETI IV (Pollutant INput and EcosysTem Impact) project.</t>
+        </is>
+      </c>
+      <c r="L57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N57" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -851,6 +5188,79 @@
           <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Z15_B02_P02</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>15.3.a,b</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Erhalt bzw. Wiederaufbau von Wäldern unter REDD+ sowie internationaler Bodenschutz</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>Preservation or restoration of forests under REDD+ and international soil protection</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator 15.3.a zeigt die leistungsbasierten Nettoentwicklungsausgaben Deutschlands an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation). REDD+ ist ein internationales Konzept, welches Regierungen und lokale Gemeinschaften in Entwicklungsländern finanziell dafür belohnt, dass sie die Entwaldung und damit Emissionen nachweislich reduzieren. Die ausgezahlten Beträge orientieren sich am Umfang der ermittelten Emissionsreduktion bzw. des zusätzlich gespeicherten Kohlenstoffes.
+Der Indikator 15.3.b umfasst die bilateralen Bruttoentwicklungsausgaben Deutschlands im Zusammenhang mit der Umsetzung des Übereinkommens der Vereinten Nationen (VN) zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern.</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="inlineStr">
+        <is>
+          <t>Indicator 15.3.a shows the results-based payments by Germany to developing and emerging countries for the verified preservation or restoration of forests under the REDD+ rulebook (Reducing Emissions from Deforestation and Forest Degradation). REDD+ is an international concept which financially rewards governments and local communities in developing countries for reducing deforestation and thereby demonstrably cutting emissions. Contributions are paid in line with the scale of the emissions reduction measured or the amount of additional carbon sequestered.
+Indicator 15.3.b covers Germany’s gross bilateral development expenditure in connection with the implementation of the UN Convention to Combat Desertification in developing and emerging countries.</t>
+        </is>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>Die Vermeidung von Entwaldung und Walddegradierung (Schädigung), eine nachhaltige Waldbewirtschaftung sowie der Wiederaufbau von Wäldern und Aufforstung tragen mittelbar und unmittelbar zum Erhalt biologischer Vielfalt, zur Boden-, Wasser-, und Luftqualität, zur Verminderung von Bodenerosion, zur Minderung des CO2-Ausstoßes und zur Speicherung von Kohlenstoff sowie zur Erhaltung wichtiger Entwicklungs- und Einkommensperspektiven für Waldländer bei. Ziel ist es, die Zahlungen unter dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation) bis zum Jahr 2030 zu steigern. Gesunde Böden sind eine wesentliche, nicht bzw. schwer erneuerbare natürliche Ressource. Sie spielen eine Schlüsselrolle bei der Nahrungsmittelproduktion, der Verringerung der Auswirkungen häufiger und extremer Wetterereignisse, dem Erhalt der biologischen Vielfalt und der Bereitstellung wesentlicher Ökosystemleistungen. Ziel ist es daher, Deutschlands Beitrag für den internationalen Bodenschutz bis 2030 zu steigern. Auf internationaler Ebene ist die Desertifikationsbekämpfung neben den Themen Biodiversität und Klimawandel ein Ziel der drei Rio-Konventionen.</t>
+        </is>
+      </c>
+      <c r="I58" s="5" t="inlineStr">
+        <is>
+          <t>Preventing deforestation and forest degradation (damage), managing forests sustainably, restoring forests and creating new woodland all directly and indirectly help to maintain biodiversity, improve soil, water and air quality, reduce soil erosion, cut CO2 emissions, sequester carbon, and safeguard important prospects of development and income-generation for forest-rich countries. The aim is to keep increasing payments under the REDD+ rulebook until 2030. Healthy soils are an essential natural resource that is extremely difficult if not impossible to renew. They play a pivotal role in food production, the mitigation of the effects of frequent and extreme weather events, the conservation of biodiversity and the provision of essential ecosystem services. The goal is therefore to continuously increase Germany’s contribution to international soil protection until 2030. At the international level, combating desertification is one of the topics of the three Rio Conventions, alongside biodiversity and climate change.</t>
+        </is>
+      </c>
+      <c r="J58" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator 15.3.a basiert auf dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation) und wird jährlich seit 2008 erfasst. Datenquellen für den Indikator sind die Finanzberichte des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) sowie des Bundesministeriums für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz (BMUV). Doppelzählungen werden hierbei durch die verpflichtende Einrichtung eines Registers vermieden.
+Der Indikator entwickelte sich im Verlauf der letzten fünf Jahre insgesamt positiv. Im Zeitraum von 2009 bis 2017 stiegen die leistungsbasierten Nettoausgaben von 3,0 Millionen auf 68,0 Millionen Euro. Für das Jahr 2019 umfassten die Ausgaben noch 63,5 Millionen Euro. Im Jahr 2020 betrugen diese jedoch 24,2 Millionen Euro und damit weniger als die Hälfte des Vorjahres. Diese Mittel flossen nahezu vollständig in das multilaterale Programm „Green Climate Fund (GCF) Pilot Programme for REDD+“. Die meisten anderen Programme sind mittlerweile ausgelaufen. Den Auszahlungen gehen üblicherweise Zusagen voraus. Die Gesamtzusagen für internationalen Walderhalt beliefen sich für das Jahr 2020 auf 301,6 Millionen Euro. Die ansteigende Entwaldung in den letzten Jahren in den wichtigsten Partnerländern des Amazonasgebietes macht neue Zusagen für leistungsbasierte Zahlungen unter dem REDD+-Regelwerk schwierig.
+Grundlage für den Indikator 15.3.b sind die Statistiken der Leistungen der deutschen Entwicklungszusammenarbeit des Statistischen Bundesamtes, die im Auftrag des BMZ erstellt werden. Ein Vorhaben ist hier relevant, wenn es darauf abzielt, die Wüstenbildung zu bekämpfen oder die Auswirkungen von Dürre durch die Vermeidung oder Verringerung der Bodendegradation, die Sanierung von degradiertem Land oder die Rekultivierung von Wüstengebieten zu mildern. Die ausgezahlten Mittel geben jedoch keinen Hinweis auf die tatsächliche Entwicklung der Bodenqualität.
+Die Bruttoentwicklungsausgaben zur Bekämpfung von Desertifikation weltweit sind seit 2009 stark gestiegen. Der Indikator zeigt insgesamt eine positive Entwicklung, wenn auch in 2020 erstmals seit 2014 ein Rückgang verzeichnet wurde. Zuletzt lagen die Bruttoausgaben für das Jahr 2020 bei 703,5 Millionen Euro und damit fast 18-mal höher als im Jahr 2009. Die zugesagten Mittel entwickelten sich in ähnlicher Weise. Zuletzt betrugen sie 938,1 Millionen Euro.
+Entwicklungsausgaben unter dem REDD+-Regelwerk sowie im Rahmen der VN-Wüstenkonvention sind Teil der Klimafinanzierung (Indikator 13.1.b) sowie der ODA-Quote (Indikator 17.1).</t>
+        </is>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>Indicator 15.3.a is based on the rulebook for reducing emissions from deforestation and forest degradation, or REDD+. The data have been collected annually since 2008. The data sources for the indicator are the financial reports compiled by the Federal Ministry for Economic Cooperation and Development and the Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection. Duplicate counting is avoided by means of the mandatory establishment of a register.
+The overall trend of the five preceding years is positive. During the 2009-2017 reporting period, results-based payments rose from 3.0 million euros to 68.0 million euros. In 2019, payments were at 63.5 million euros, however, in 2020 payments decreased to less than half of the previous year (24.2 million euros). The funds were almost completely paid to the multilateral program “Green Climate Fund (GCF) Pilot Programme for REDD+”. Most of the other projects are finalised in the meantime. Generally, committed funds precede payments. The total number of committed funds for international forest conservation were at 301.6 million euros in 2020. The advancing deforestation in the most important partner countries in the Amazon region in the last few years aggravate issuance of new confirmations for results-based payments under the REDD+ rulebook.
+The data source for indicator 15.3.b is the statistics on German official development assistance which are compiled by the Federal Statistical Office on behalf of the Federal Ministry for Economic Cooperation and Development. Relevant projects are any which target to combat desertification or to mitigate the effects of droughts by preventing or reducing soil degradation, restoring degraded land or recultivating desert regions. However, the amounts paid give no indication as to the actual development of soil quality.
+Gross development expenditure to combat desertification worldwide rose strongly in the reporting period starting in 2009. The indicator has developed positively with regard to the target set, although latter decreased in 2020 for the first time since 2014. Gross expenditure was most recently recorded at 703.5 million euros for 2020, an 18 fold increase on the equivalent figure for 2009. A similar trend is discernible in the funds committed, which were most recently recorded at 938.1 million euros.
+Development spending under the REDD+ rulebook and in the context of the UNCCD is part of climate finance (indicator 13.1.b) and of official development assistance (indicator 17.1).</t>
+        </is>
+      </c>
+      <c r="L58" s="4" t="inlineStr">
+        <is>
+          <t>15.a.1</t>
+        </is>
+      </c>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>15.b.1</t>
+        </is>
+      </c>
+      <c r="N58" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -858,6 +5268,81 @@
           <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B01_P01</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>16.1</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>Straftaten</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>Criminal offences</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl der Straftaten, die der Polizei angezeigt werden, je 100 000 Einwohnerinnen und Einwohner.</t>
+        </is>
+      </c>
+      <c r="G59" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of criminal offences reported to the police per 100,000 inhabitants.</t>
+        </is>
+      </c>
+      <c r="H59" s="5" t="inlineStr">
+        <is>
+          <t>Ein sicheres Umfeld, in dem die Bürgerinnen und Bürger ohne Angst vor Willkür und Kriminalität leben können, ist eine wesentliche Voraussetzung für eine nachhaltige Entwicklung. Deshalb soll die Anzahl der erfassten Straftaten je 100 000 Einwohnerinnen und Einwohner bis zum Jahr 2030 unter 6 500 sinken.</t>
+        </is>
+      </c>
+      <c r="I59" s="5" t="inlineStr">
+        <is>
+          <t>A safe environment in which people can live without fear of lawlessness and crime is an essential prerequisite for sustainable development. The target is therefore to bring the number of recorded criminal offences per 100,000 inhabitants down to less than 6,500 by 2030.</t>
+        </is>
+      </c>
+      <c r="J59" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator beinhaltet alle in der Polizeilichen Kriminalstatistik (PKS) erfassten Straftaten. Dies sind bei der Polizei angezeigte und durch sie endbearbeitete Straftaten, solange es sich nicht um Staatsschutz-, Verkehrsdelikte oder Ordnungswidrigkeiten handelt.
+Straftaten, die außerhalb der Bundesrepublik Deutschland begangen wurden, sind ebenso wenig enthalten wie Delikte, die nicht zum Aufgabenbereich der Polizei gehören (zum Beispiel Finanz- und Steuerdelikte) bzw. unmittelbar bei der Staatsanwaltschaft angezeigt und ausschließlich von ihr bearbeitet werden (zum Beispiel Delikte im Zusammenhang mit einer Falschaussage vor Gericht).
+Die PKS-Veröffentlichungen werden jährlich auf der Basis von Daten der Landeskriminalämter und des Bundeskriminalamts (BKA) erstellt. Um Zeitvergleiche ab 1993 zu ermöglichen, werden zur Berechnung des Indikators für die gesamte Zeitreihe die (zurückgerechneten) Bevölkerungszahlen auf Grundlage des Zensus 2011 verwendet. Allerdings ergeben sich dadurch Differenzen zu den veröffentlichten Daten der PKS vor 2013.
+Veränderungen in der PKS lassen nicht immer auf tatsächliche Veränderungen schließen, denn die Statistik erfasst nur das sogenannte Hellfeld – also die der Polizei offiziell bekannt gewordene Kriminalität. Aufgrund fehlender statistischer Daten kann das sogenannte Dunkelfeld – die der Polizei offiziell nicht bekannt gewordene Kriminalität – in der PKS nicht abgebildet werden. Die Anzeigequote von Straftaten wurde jedoch im Rahmen der Deutschen Viktimisierungssurveys in den Jahren 2012 und 2017 untersucht. Dabei lässt sich für die in der Befragung untersuchten Straftaten keine statistisch signifikante Veränderung des Anteils der angezeigten Straftaten zwischen den Jahren 2012 und 2017 feststellen.
+Im Jahr 2021 lag die Anzahl der Straftaten bei 6 070 je 100 000 Einwohnerinnen und Einwohner. Der Zielwert für das Jahr 2030 von unter 6 500 Straftaten ist damit bereits zum zweiten Mal in Folge vorzeitig unterschritten worden. Zwischen 1993 und 2021 sank der Indikator um 27,3 %. Dabei handelte es sich jedoch nicht um eine kontinuierliche Entwicklung. So kam es beispielsweise von 2000 bis 2004 zu einem Anstieg, dem ein leichter Rückgang bis 2010 folgte. Die große Zahl der Menschen, die ab dem Jahr 2015 als Flüchtlinge und Schutzsuchende nach Deutschland gekommen sind, spiegelt sich auch in der PKS wider. So sind im Jahr 2016 ausländerrechtliche Verstöße (zum Beispiel illegale Einreise) im Vergleich zu 2014 um 211,8 % angestiegen. Bereits 2018 lag dieser Wert wieder auf dem Niveau von 2014, ist seitdem nahezu konstant geblieben und machte 2021 nur noch 2,9 % aller Straftaten aus. Die Gesamtzahl der polizeilich registrierten Straftaten lag 2021 bei insgesamt 5,0 Millionen und damit niedriger als in den Vorjahren.
+Von allen in der PKS 2021 abgebildeten Straftaten entfielen 1,1 % auf den Bereich Wohnungseinbruchsdiebstahl, 2,4 % auf gefährliche und schwere Körperverletzung und 15,7 % auf Betrug. Zwischen 2016 und 2021 gingen die Wohnungseinbruchsdiebstähle um 64,1 %, die Fälle von gefährlicher und schwerer Körperverletzung um 12,6 % und die Betrugsfälle um 11,7 % zurück.
+2021 betrug die Aufklärungsquote aller polizeilich registrierten Delikte 58,7 % und lag damit in etwa auf Vorjahresniveau. Dabei gibt es deutliche Unterschiede je nach Art der Straftat. So lag die Aufklärungsquote beim Wohnungseinbruchsdiebstahl nur bei 19,5 %. Bei Betrugsdelikten wurden dagegen 63,3 % und bei gefährlicher und schwerer Körperverletzung 83,9 % aller angezeigten Straftaten aufgeklärt. Die vergleichsweise geringe Aufklärungsquote bei Wohnungseinbruchsdiebstahl hängt mit einer hohen Anzeigebereitschaft bei vergleichsweise selten vorliegenden konkreten Anhaltspunkten zur Täterschaft zusammen. Dies steht in deutlichem Gegensatz zur Situation bei Betrugs- und Körperverletzungsdelikten. Diese Straftaten weisen eine hohe Aufklärungsquote auf, weil der Polizei die Tatverdächtigen meist bereits bei der Anzeigenerstattu</t>
+        </is>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>The indicator covers all criminal offences recorded in the Police Crime Statistics. These are criminal offences reported to and fully processed by the police, except offences against the security of the state, traffic offences and administrative offences.
+Criminal offences committed outside the Federal Republic of Germany are not included, nor are offences that are not within the remit of the police, such as financial and tax offences, or are reported directly to and processed by the public prosecution office, such as offences relating to false testimony in court.
+The Police Crime Statistics publications are compiled annually based on the data available from the Land Criminal Police Offices and the Federal Criminal Police Office. To calculate the number of criminal offences per 100,000 inhabitants, (extrapolated) population figures based on the 2011 census are used for the entire time series. This methodology allows comparisons over time to be made from 1993 onwards. It should be noted that this results in discrepancies in relation to the Police Crime Statistics data published prior to 2013.
+Changes in the Police Crime Statistics do not always reflect actual changes, as the statistics cover only that proportion of criminal activity that officially comes to the attention of the police. Since there is no statistical data on offences which go unreported, such crimes cannot be reflected in the Police Crime Statistics. However, the proportion of reported versus unreported crime was investigated in 2012 and 2017 by means of the German Victim Survey. For the offences dealt with in the survey, no statistically significant change in reporting rates was found between 2012 and 2017.
+The number of offences was 6,070 per 100,000 inhabitants in 2021. Thus, the target value for 2030 of less than 6,500 criminal offences was achieved ahead of time for the second time in a row. The indicator fell by 27.3 % between 1993 and 2021. This trajectory, however, has not been continuous. For instance, it increased from 2000 to 2004, before entering a slight decline which continued until 2010. The large number of people who entered Germany as refugees and asylum-seekers from 2015 on is also reflected in the Police Crime Statistics, with violation of the legislation concerning foreigners (e.g. illegal entry) soaring by 211.8 % in 2016 compared with 2014. Such offences had fallen drastically by 2021, though, when they made up only 2.9 % of all criminal offences. Even when violations of the legislation concerning foreigners are accounted for, the total number of criminal offences registered by the police was lower in 2021 than in previous years (5.0 million).
+In 2021, domestic burglaries accounted for 1.1 %, fraud for 15.7 %, and dangerous and serious bodily injury for 2.4 %. Between 2016 and 2021, the incidence of domestic burglary fell by 64.1 %, fraud fell by 11.7 % and cases of dangerous and serious bodily injury fell by 12.6 %.
+The success rate for solving cases was 58.7 % of all offences registered by the police in 2021, roughly the same as in the previous year. There were significant differences, however, depending on the type of criminal offence. For domestic burglary, for example, the rate of cases solved was only 19.5 %. By contrast, 63.3 % of fraud offences and 83.9 % of cases of serious and grievous bodily harm cases were cleared up. The comparatively low success rate for domestic burglary is related to a high rate of reporting combined with the comparatively infrequent existence of solid leads pointing to the perpetrators. This is in sharp contrast to cases of fraud and bodily injury. These crimes have high clear-up rates because, in most cases, the identity of the suspect becomes known to the police as the crime is reported.</t>
+        </is>
+      </c>
+      <c r="L59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N59" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -865,6 +5350,75 @@
           <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B02_P01</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator zeigt die Anzahl der in Afrika, Ost- und Südosteuropa, Lateinamerika und Asien mit deutscher finanzieller Unterstützung durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen. Nicht enthalten sind Projekte, die über Fonds internationaler Organisationen finanziert werden, die von Deutschland finanziell unterstützt werden.</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the number of projects to secure, register and destroy small arms and light weapons (SALW) carried out in Africa, Eastern and South-Eastern Europe, Latin America and Asia with German financial support. Not included are projects that will be managed through funds by international organizations that are financially supported by Germany.</t>
+        </is>
+      </c>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>Ohne Frieden kann es keine nachhaltige Entwicklung geben und ohne nachhaltige Entwicklung keinen Frieden – dies betont die Agenda 2030 für nachhaltige Entwicklung in ihrer Präambel. Mit den vom Indikator erfassten Maßnahmen leistet Deutschland in einem konkreten Teilbereich einen Beitrag zur Friedenssicherung. Ziel ist, dass jährlich mindestens 15 Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland durchgeführt werden.</t>
+        </is>
+      </c>
+      <c r="I60" s="5" t="inlineStr">
+        <is>
+          <t>There can be no sustainable development without peace and no peace without sustainable development – this is emphasised in the preamble to the 2030 Agenda for sustainable development. With the measures recorded by the indicator, Germany is making a contribution towards peacekeeping in a concrete subcategory. The set target is to have at least 15 projects to secure, register and destroy small arms and light weapons carried out by Germany each year.</t>
+        </is>
+      </c>
+      <c r="J60" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten der hier dargestellten Zeitreihe stammen vom Auswärtigen Amt (AA); die Projekte sind jedoch nicht ausschließlich durch das AA finanziert. Vom Volumen und Inhalt unterscheiden sich die gezählten Projekte erheblich. Projekte mit Laufzeiten von mehr als einem Jahr werden dabei mehrfach ausgewiesen. Zudem sagt die Anzahl der durchgeführten Projekte nichts über deren Erfolg aus. Somit ist eine richtungssichere Interpretation in Hinblick auf Umfang und Erfolg der Maßnahmen schwierig.
+Nach der aktuellen Auswertung stieg die Anzahl der jährlich durchgeführten Projekte von acht im Jahr 2006 auf 38 im Jahr 2021. Das Ziel von mindestens 15 Projekten jährlich wurde im Jahr 2012 erstmals erfüllt. Mit Ausnahme des Jahres 2013 wurde das Ziel auch in den Folgejahren erreicht oder sogar übertroffen. Die regionalen Schwerpunkte des deutschen Engagements lagen in Nord-, West- und Ostafrika, dem westlichen Balkan und der Ukraine. Weitere Projekte wurden in Lateinamerika und der Karibik unterstützt.
+Im jährlichen Jahresabrüstungsbericht der Bundesregierung werden Projekte mit der Zielsetzung „Kontrolle von Kleinwaffen und leichten Waffen“ sowie deren Finanzierung aufgelistet. Ihre Anzahl weicht bis einschließlich 2018 von den zum Indikator gemeldeten Zahlen ab. Ein Grund hierfür kann in der Schwerpunktsetzung der Projekte liegen.
+Die Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD) veröffentlicht ebenfalls ausführliche Zahlen zu Projekten zur „Wiedereingliederung; Bekämpfung von Handfeuerwaffen und leichten Waffen“ (Förderbereichsschlüssel: 15240). Würde dem Indikator die Anzahl der Projekte nach dem genannten OECD-Förderbereichsschlüssel zugrunde gelegt, so wäre das gesetzte Ziel von jährlich mindestens 15 Projekten im Jahr 2006 sowie seit 2016 erreicht worden. Im Jahr 2020 waren 25 Projekte schwerpunktmäßig dem Förderbereichsschlüssel 15240 zugeordnet. Davon wurden 19 durch das AA und sechs vom Bundesministerium der Finanzen (BMF) finanziert. Die Projekte umfassen jedoch auch Maßnahmen wie die Wiedereingliederung von ehemaligen Kämpferinnen und Kämpfern bewaffneter Gruppen in das gesellschaftliche Leben. Ohne diese Wiedereingliederungsmaßnahmen fiele die Anzahl der Projekte, die ausschließlich oder überwiegend der Bekämpfung von Handfeuerwaffen und leichten Waffen dienen, geringer aus.</t>
+        </is>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>The data of the depicted time series is provided by the Federal Foreign Office, however, the reported projects are not financed exclusively by the Federal Foreign Office, but in part with third-party funds as well. Considered projects significantly differ with respect to volume and content. Projects with run-times longer than one year were counted more than once. Notably, the number of projects carried out says nothing about their scale or their level of success. Consequently, a directionally safe interpretation regarding scope and success of the measures is challenging. 
+According to the current evaluation, the number of projects undertaken each year increased from 8 in 2006 to 38 in 2021. Thus the goal of Germany being involved in a minimum of 15 projects would have been achieved in 2012 for the first time. Except for 2013, the level would have been reached or even exceeded in subsequent years, too. According to the Federal Foreign Office, the regional focus of German efforts was on North, East and West Africa, the western Balkans and Ukraine. Other projects supported were in Latin America and the Caribbean.
+The German Federal Government’s Annual Disarmament Report contains a list of projects with the objective of SALW control, alongside their sources of funding. Their number differs from those reported for this indicator up to and including 2018. One reason for this may be the particular focus of individual projects, which affects whether they are taken into account.
+In accordance with the guidelines on statistical reporting issued by its Development Assistance Committee, the Organisation for Economic Co-operation and Development (OECD) also publishes detailed figures on projects for reintegration and SALW control (CRS Purpose Code 15240). If the indicator were based on the number of projects counted in the above-mentioned OECD category, the target of at least 15 projects would have been reached in 2006 and every year since 2016. In 2020, the OECD counted 25 projects. Among these, 19 were funded by the Federal Foreign Office and, accordingly, 6 projects were funded by the Federal Ministry of Finance. However, those projects also included measures for reintegrating former combatants from armed groups into society. Without such reintegration projects, the number of project exclusively or chiefly intended to combat SALW would be lower.</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t>16.4.2</t>
+        </is>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N60" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -872,6 +5426,77 @@
           <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Z16_B03_P01</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>16.3.a,b</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perception Index in Deutschland sowie in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>Corruption Perceptions Index in Germany and in partner countries for German development cooperation</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>Die Indikatoren geben den Corruption Perception Index (CPI) von Transparency International für Deutschland (16.3.a) sowie die Anzahl der Partnerländer der deutschen Entwicklungszusammenarbeit, deren CPI sich im Vergleich zum Jahr 2012 verbessert hat (16.3.b), wieder. Der CPI misst, wie stark Korruption im öffentlichen Sektor in einem Land wahrgenommen wird.</t>
+        </is>
+      </c>
+      <c r="G61" s="5" t="inlineStr">
+        <is>
+          <t>The indicators provide the Corruption Perceptions Index (CPI) from Transparency International for Germany (16.3.a) as well as the number of partner countries of German development assistance whose CPI has improved compared with 2012 (16.3.b). The CPI measures how strongly corruption in the public sector is perceived in a country.</t>
+        </is>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>Bis 2030 wird eine weitere Verbesserung des Corruption Perception Index (CPI) für Deutschland angestrebt. Zudem soll sich auch der CPI der Mehrzahl der Partnerländer der deutschen Entwicklungszusammenarbeit verbessern. Basisjahr ist dabei jeweils das Jahr 2012.</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>A further improvement of the CPI for Germany is targeted for 2030. In addition, the CPI in the majority of partner countries involved in German development assistance should also improve. The base year in each case is 2012.</t>
+        </is>
+      </c>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>Die Studie zum Corruption Perception Index (CPI) von Transparency International ist die die meisten Länder umfassende Übersichtsstudie zur wahrgenommenen Korruption im öffentlichen Sektor. Bei dem CPI handelt es sich um einen Kompositindikator, der je Land unterschiedliche Experten- sowie Unternehmensbefragungen zur Wahrnehmung von Korruption im öffentlichen Sektor zusammenführt. Abhängig von den jeweiligen Befragungen können dabei unterschiedliche Verständnisse von Korruption zugrunde liegen. Die Ergebnisse dieser Befragungen können auch von den Kenntnissen des Wertes des CPI oder anderer ihm zugrunde liegender Teilstudien der vorherigen Jahre selbst beeinflusst werden. Zudem wechseln die Quellen für die Berechnung des CPI im Zeitablauf. In den Index werden Länder mit einbezogen, zu denen mindestens drei ausgewählte Befragungen vorliegen. Das Joint Research Centre (JRC) der Europäischen Kommission weist in seiner Analyse des CPI darauf hin, dass bei der Interpretation der Ergebnisse die jeweilige statistische Signifikanz der Veränderung mitbetrachtet werden sollte und selbst bei statistisch signifikanten Unterschieden die Ergebnisse dieses Indikators mit Vorsicht zu interpretieren seien. Seine Vergleichbarkeit ist somit sowohl über die Zeit als auch zwischen den Ländern stark eingeschränkt.
+Deutschland hat sich im Vergleich von 79 Punkten im Jahr 2012 auf 80 Punkte im Jahr 2021 verbessert. Dieser Wert hat sich gegenüber 2017 um einen Punkt verschlechtert, sodass Deutschland auf dem zehnten Platz des Rankings steht. Dabei ist diese Veränderung gegenüber 2012 nicht als statistisch signifikant (bei einem Signifikanzniveau von 5 %) anzusehen.
+Auch das Statistische Bundesamt erhebt im Rahmen der Zufriedenheitsbefragung zu behördlichen Dienstleistungen Daten zum Thema Korruption. Nach dieser Befragung hatten im Jahr 2021 3,9 % der Bevölkerung während ihres Kontakts mit öffentlichen Einrichtungen den Eindruck, dass Beschäftigte des öffentlichen Dienstes bestechlich wären. Bei der entsprechenden Umfrage unter Unternehmen hatten 4,0 % der Unternehmen diesen Eindruck.
+Die Polizeiliche Kriminalstatistik (PKS) erfasst alle der Polizei bekannt gewordenen strafrechtlichen Sachverhalte. Im Jahr 2021 wurden 712 Fälle von Vorteilsannahme, Vorteilsgewährung sowie Bestechlichkeit und Bestechung im öffentlichen Sektor erfasst. Zudem werden in der PKS auch Fälle von Bestechlichkeit und Bestechung im geschäftlichen Verkehr sowie sogenannte Begleitdelikte der Korruption wie zum Beispiel Betrugs- und Untreuehandlungen, Urkundenfälschung, wettbewerbsbeschränkende Absprachen bei Ausschreibungen, Strafvereitelung, Falschbeurkundung im Amt und Verletzung des Dienstgeheimnisses ausgewiesen.
+In Bezug auf die deutsche Entwicklungszusammenarbeit haben sich im Jahr 2021 im Vergleich zum Jahr 2012 insgesamt 48 der 87 durch den CPI bewerteten Partnerländer verbessert. Die Anzahl der sich positiv entwickelnden Partnerländer ist im betrachteten Zeitraum bis 2016 jedes Jahr gestiegen. Im Jahr 2018 ist die Anzahl leicht zurückgegangen und stieg in den Folgejahren wieder an. Eine statistisch signifikante Verbesserung (bei einem Signifikanzniveau von 5 %) wiesen in 2021 gegenüber 2012 31 Partnerländer der deutschen Entwicklungszusammenarbeit auf, im Vergleich dazu waren es 2014 sechs Partnerländer.</t>
+        </is>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>The study on CPI conducted by Transparency International is the most comprehensive overview study on perceived public sector corruption. The CPI is a composite indicator that is based on various expert and corporate surveys regarding the perception of corruption in the public sector. Depending on the survey, underlying definitions of corruption may differ, and the sources used for calculations may change over time. The results of these surveys are prone to distortions due to information about prior CPI values or results from similar studies. The index includes all countries for which at least three selected surveys are available. In its analysis of the CPI, the Joint Research Centre of the European Commission points out that, the statistical significance of the change must also be examined when the results are interpreted and that even in the case of statistically significant differences, the results of this indicator should be interpreted with caution. Hence, comparison over time and among countries is limited.
+Compared to 2012, Germany’s score improved from 79 to 80 points in 2021. This value has worsen in comparison to 2017, which means that Germany comes to tenth place in the ranking. Though, compared with 2012, this change should not be viewed as statistically significant (at a significance level of 5 %).
+The Federal Statistical Office also gathers information on the topic of corruption as part of its satisfaction survey on official services. According to this survey, during their contact with public authorities 3.9 % of the population had the impression in 2021 that public service employees were susceptible to corruption. In the corresponding survey of companies, 4.0 % of companies had the impression that public service employees were open to corruption.
+The Police Crime Statistics record all criminal matters that become known to the police. In 2021, 712 cases of accepting/granting a benefit as well as taking/offering a bribe were recorded in the public sector. Furthermore, the Police Crime Statistics also list cases where bribes were taken or offered in commercial practice as well as concomitant offences of corruption such as fraud and breach of trust, document forgery, agreements in restriction of competition upon invitations to tender, obstruction of punishment, false certification in public office and violation of official secrecy.
+With reference to German official development assistance, 48 of the 87 partner countries evaluated by the CPI scored better in 2021 compared with 2012. In the review period, the number of partner countries developing in a positive direction has increased each year up to 2016. Their number decreased slightly in 2018 and increased again in the subsequent years. As many as 31 partner countries of German development assistance reported a statistically significant improvement (at a significance level of 5 %) in 2021 compared with 2012. In 2014, six partner countries had reported a significant improvement.</t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t>16.5.1</t>
+        </is>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t>16.5.2</t>
+        </is>
+      </c>
+      <c r="N61" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -879,6 +5504,82 @@
           <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B01_P01</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen
+</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Official development assistance as a proportion of gross national income
+</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator stellt die ODA-Quote dar. Diese umfasst den Anteil der öffentlichen Entwicklungsausgaben (Official Development Assistance, ODA) im Verhältnis zum Bruttonationaleinkommen (BNE). Seit 2018 erfolgt die Berechnung nach der Zuschussäquivalent-Methode.</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows public expenditure on official development assistance (ODA) as a percentage of gross national income (GNI). Since 2018, it has been calculated using the grant-equivalent method.</t>
+        </is>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>Mit ihrer Entwicklungszusammenarbeit tragen die Geber dazu bei, die weltweite Armut zu mindern, humanitäre Notlagen zu lindern, den Frieden zu sichern, Demokratie zu verwirklichen sowie die Globalisierung gerecht zu gestalten und die Umwelt zu schützen. Um dieser Verantwortung gerecht zu werden, bekennt sich die Bundesregierung zum ursprünglich 1970 von der Generalversammlung der Vereinten Nationen (VN) festgelegten Ziel, den Anteil der öffentlichen Entwicklungsausgaben (Official Development Assistance, ODA) am Bruttonationaleinkommen (BNE) (ODA-Quote) auf 0,7 % zu steigern. Zielsetzung des Indikators in der Deutschen Nachhaltigkeitsstrategie ist, dieses Ziel für Deutschland spätestens bis zum Jahr 2030 zu erreichen.</t>
+        </is>
+      </c>
+      <c r="I62" s="5" t="inlineStr">
+        <is>
+          <t>Through their development cooperation, donor countries play a role in reducing global poverty, preventing humanitarian need, safeguarding peace, achieving democracy, making globalisation fair and protecting the environment. To live up to that responsibility, the Federal Government has committed itself to the target, originally set by the UN General Assembly in 1970, of raising its ODA expenditure to 0.7 % of its GNI. For the indicator maintained in the German strategy for sustainable development, the aim is to reach that target by the year 2030.</t>
+        </is>
+      </c>
+      <c r="J62" s="5" t="inlineStr">
+        <is>
+          <t>Datengrundlage des Indikators sind die Statistiken der Entwicklungszusammenarbeit, die im Auftrag des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) vom Statistischen Bundesamt erstellt werden. Die Anrechenbarkeit einer Leistung als öffentliche Entwicklungsausgabe (ODA) ist durch Richtlinien des Entwicklungsausschusses der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development – Development Assistance Commitee, OECD-DAC) definiert. ODA sind öffentliche Leistungen, die zu günstigen (konzessionären) Bedingungen mit dem Ziel der Förderung der wirtschaftlichen und sozialen Entwicklung von Entwicklungsländern vergeben werden. Zur ODA zählen vor allem Ausgaben für die finanzielle und technische Zusammenarbeit mit Entwicklungsländern, humanitäre Hilfe sowie Beiträge für Entwicklungszusammenarbeit an multilaterale Institutionen, wie zum Beispiel die Vereinten Nationen (VN), die Europäische Union (EU), die Weltbankgruppe oder regionale Entwicklungsbanken. Darüber hinaus sind unter bestimmten Voraussetzungen Ausgaben für Friedensmissionen, Schuldenerleichterungen sowie bestimmte Ausgaben im Geberland, wie Studienplatzkosten für Studierende aus Entwicklungsländern, Flüchtlingskosten im Inland oder Ausgaben für entwicklungsspezifische Forschung, ODA-anrechenbar. Die Liste der Länder, die ODA empfangen können, wird vom OECD-DAC definiert. Sie umfasst die am wenigsten entwickelten Länder (Least Developed Countries, LDCs) sowie weitere Länder mit niedrigem und mittlerem Bruttonationaleinkommen (BNE) pro Kopf. Die Liste wird regelmäßig aktualisiert, sodass Länder in die Liste aufgenommen werden als auch herausfallen.
+2018 fand eine Änderung der Bewertung für Schuldeninstrumente (Darlehen, Anleihen und Schuldenerleichterungen) statt, bei der das bisherige Brutto-Netto-Prinzip durch die Zuschussäquivalent-Methode abgelöst wurde. Bei dieser Methode wird der Zuschussanteil eines Schuldeninstruments unter anderem aus Zinssatz und Laufzeit ermittelt, und nur er wird angerechnet. Durch die neue Bewertungsmethode soll beispielsweise die Vergleichbarkeit von Darlehen und Zuschüssen gewährleistet werden.
+Die ODA Deutschlands betrugen 2021 27,3 Milliarden Euro (vorläufige Ergebnisse) und lagen damit höher als noch 2020 (25,2 Milliarden Euro). Der ODA-Anteil am deutschen BNE lag in 2021 bei 0,74 % (2020: 0,73 %). Das Ziel von 0,70 % wurde 2020 und 2021 erreicht. Im Vergleich dazu beliefen sich die Netto-ODA-Leistungen (bis 2017 gültige Berechnungsmethode) im Jahr 2021 auf rund 26,6 Milliarden Euro. Während sich das BNE gegenüber 2010 um das Anderthalbfache erhöhte, haben sich die Netto-ODA-Leistungen im gleichen Zeitraum fast verdreifacht.
+Im internationalen Vergleich war Deutschland 2021 absolut gesehen erneut zweitgrößter Geber hinter den USA und vor Japan (vorläufige Ergebnisse). Die ODA-Quote der USA lag mit 0,18 % jedoch unter dem Durchschnitt der DAC-Mitgliedsländer von 0,33 %. Im Hinblick auf die ODA-Quote lag Deutschland auf Platz 4 der damals 29 DAC-Mitgliedsländer. Das internationale Ziel von 0,70 % erreichten nach vorläufigen Ergebnissen 2021 ebenfalls die DAC-Länder Luxemburg (0,99 %), Norwegen (0,93 %), Schweden (0,92 %) und Dänemark (0,70 %).
+Neben der öffentlichen Entwicklungszusammenarbeit werden auch von privater Seite Eigenmittel, zum Beispiel von Kirchen, Stiftungen und Verbänden, aufgewendet. Hierbei handelt es sich insbesondere um Beiträge und Spenden. Diese private Entwicklungszusammenarbeit, die nicht ODA-relevant ist, belief sich 2020 auf 1,3 Milliarden Euro, was einem Anteil von 0,04 % am BNE entsprach. Private Direktinvestitionen in den Entwicklungsländern betrugen 1,9 Milliarden Euro im Jahr 2020.</t>
+        </is>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>The data on which the indicator is based are the statistics on German official development assistance which are compiled by the Federal Statistical Office on behalf of the Federal Ministry for Economic Cooperation and Development. Whether a flow is counted as ODA is determined by guidelines issued by the OECD Development Assistance Committee (DAC). ODA comprises public funds spent in order to advance the economic and social development of developing countries. It primarily includes expenditure for financial and technical cooperation with developing countries, humanitarian aid and development-cooperation contributions to multilateral institutions such as the United Nations, the European Union, the World Bank or regional development banks. Under certain conditions, spending on peace missions, debt relief and certain items of development expenditure in the donor country – such as tuition costs for students from developing countries, domestic spending on refugees and funding for development-related research – can also be counted as ODA. The DAC also defines the list of developing countries eligible for ODA. This includes the least developed countries (LDCs) as well as other countries with low and medium per capita GNI. The list is consistently updated, such that changes in the indicator may therefore be the result of one or more countries being added to or removed from the list.
+In 2018, there was a change in the way ODA loans (i.e. loans, bonds and debt reliefs) are evaluated, in that the previous net-flows principle was replaced by the grant-equivalent method. In this method, only the grant element of an ODA loan is determined by the interest rate and duration, among others, and is counted as ODA. The intention behind the new methodology is to make ODA grants and ODA loans comparable.
+As calculated using the new method, Germany’s ODA came to 27.3 billion euros (provisional results) in 2021, slightly higher than the 25.2 billion euros recorded for 2020. ODA in 2021 accounted for 0.74 % of Germany’s GNI (2020: 0.73 %). Hence, the target of 0.70 % was reached in 2020 and 2021. For comparison, net ODA spending (using the evaluation method that was standard until 2017) came to around 26.6 billion euros in 2021. While the GNI increased by a factor of 1.5 compared to 2010, net ODA trebled in the same period.
+On the international scale, in 2021 Germany was once again the second-largest contributor in absolute terms, after the United States and ahead of Japan (provisional figures). However, the ODA-ratio for the United States was at 0.18 % below the average of the DAC countries (0.33 %). Germany had the fourth-highest ODA:GNI ratio among the 29 members of the DAC. According to the provisional figures for 2021, the international target of 0.70 % was met by four DAC countries: Luxembourg (0.99 %), Norway (0.93 %), Sweden (0.92 %), and Denmark (0.70 %).
+In addition to official development cooperation, private funds are also provided by such organisations as churches, foundations and associations. These chiefly take the form of contributions and donations. This private development cooperation, which does not affect the ODA figures, amounted to 1.3 billion euros in 2020, the equivalent of a 0.04 % share of GNI. Private direct investment in developing countries came to 1.9 billion euros in 2020.</t>
+        </is>
+      </c>
+      <c r="L62" s="4" t="inlineStr">
+        <is>
+          <t>17.2.1</t>
+        </is>
+      </c>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7">
+        <v>45672</v>
+      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -886,12 +5587,164 @@
           <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B02_P01</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>Number of students and researchers from developing countries and least developed countries per year</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator erfasst die Anzahl der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern pro Jahr bzw. Semester. Hierbei wird die Anzahl der Studierenden und Forschenden aus den am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) gesondert ausgewiesen.</t>
+        </is>
+      </c>
+      <c r="G63" s="5" t="inlineStr">
+        <is>
+          <t>The indicator records the number of students and researchers from developing and emerging countries per year or semester. Here, the number of students and researchers from the least developed countries (LDCs) is listed separately.</t>
+        </is>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>Wissen ist nicht nur auf nationaler Ebene, sondern auch im globalen Maßstab ein zentraler Treiber nachhaltiger Entwicklung. Die Stärkung des internationalen Wissensaustauschs durch Deutschland ist hierfür eine wichtige Maßnahme. Ziel der Bundesregierung war es deshalb, die Summe der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern von 2015 bis 2020 um 10 % zu steigern und die Anzahl anschließend zu verstetigen.</t>
+        </is>
+      </c>
+      <c r="I63" s="5" t="inlineStr">
+        <is>
+          <t>Knowledge is a key driver of sustainable development not only at national level but also in global terms. The strengthening of the international exchange of knowledge by Germany is an important measure in this context. For this reason, the target of the Federal Government is to increase the total number of students and researchers from developing and emerging countries by 10 % from 2015 until 2020 and to stabilise the number at the same level thereafter.</t>
+        </is>
+      </c>
+      <c r="J63" s="5" t="inlineStr">
+        <is>
+          <t>Datengrundlage des Indikators sind die Studierendenstatistik und die Statistik des Hochschulpersonals des Statistischen Bundesamtes. Beides sind Vollerhebungen auf der Basis der Verwaltungsdaten der Hochschulen. Der Indikator umfasst die Studierenden im Wintersemester des jeweiligen Jahres. Die Forschenden werden zum Stichtag 1. Dezember erhoben. Unter Forschenden wird hierbei das haupt- und nebenberufliche wissenschaftliche Personal an deutschen Hochschulen (ohne studentische Hilfskräfte) verstanden. Promotionsstudierende, die als Studierende an einer Hochschule immatrikuliert sind und zugleich als wissenschaftliches Personal arbeiten, können zu Doppelzählungen im Indikator führen.
+Die Gesamtzahl aller Studierenden und Forschenden aus Entwicklungs- und Schwellenländern an deutschen Hochschulen im Jahr 2021 betrug rund 316 Tausend. Mit 91,9 % machten dabei die Studierenden den weitaus größeren Anteil am Wert des Indikators aus.
+Im Wintersemester 2021/22 waren 290 453 Studierende aus Entwicklungs- und Schwellenländern an deutschen Hochschulen eingeschrieben. Das entspricht 9,9 % aller Immatrikulierten. Die Anzahl der Studierenden aus Entwicklungs- und Schwellenländern ist seit 2005/06 (134 462 Studierende) stetig gestiegen – nur im Wintersemester 2007/08 gab es einen Rückgang. Der Anstieg im Wintersemester 2021/22 im Vergleich zum Vorjahr (rund 275 Tausend Studierende im Wintersemester 2020/21) lag bei 5,6 %. Im Wintersemester 2021/22 kamen 17 113 Studierende aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) und somit 13,7 % mehr als im Vorjahressemester.
+Von den Studierenden aus Entwicklungs- und Schwellenländern kamen 43 629 aus China, 36 575 aus der Türkei sowie 34 134 aus Indien. Insgesamt waren 41,6 % der Studierenden aus Entwicklungs- und Schwellenländern Studentinnen. Während aus den europäischen (54,2 %) und amerikanischen (50,4 %) Entwicklungs- und Schwellenländern etwa gleich viele Frauen und Männer in Deutschland studieren, liegt der Frauenanteil bei den Studierenden aus afrikanischen Entwicklungs- und Schwellenländern bei lediglich 32,8 %. Unter den Studierenden aus LDCs (weltweit) war der Frauenanteil mit 28,4 % noch geringer.
+Im Jahr 2021 waren rund 26 000 Forscherinnen und Forscher aus Entwicklungs- und Schwellenländern Teil des wissenschaftlichen Personals an deutschen Hochschulen. Damit machten diese einen Anteil von 6,0 % am gesamten wissenschaftlichen Personal an deutschen Hochschulen aus. Der Anteil von Forschenden aus Entwicklungs- und Schwellenländern ist damit deutlich geringer als der Anteil unter den Studierenden. Im Vergleich zum Vorjahr ist ihre Anzahl um 10,6 % gestiegen, seit 2005 hat sie sich mehr als vervierfacht. 924 Forschende kamen im Jahr 2021 aus LDCs (0,2 % des gesamten wissenschaftlichen Personals). Im Vorjahr waren es 838 Forschende.
+Bei allen oben genannten Werten und Vergleichen mit den jeweiligen Vorjahren ist zu beachten, dass sich Änderungen in den Daten auch durch eine geänderte Zuordnung von Ländern zur Gruppe der LDCs oder Schwellen- und Entwicklungsländer ergeben können.
+Das angestrebte Ziel, die Summe der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern um 10 % gegenüber dem Jahr 2015 (215 000) zu steigern, wurde bereits im Jahr 2017 übertroffen und auch die angestrebte Verstetigung der Anzahl wird seitdem erreicht.</t>
+        </is>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>The data basis of the indicator is the statistics of students and the statistics of higher education staff conducted by the Federal Statistical Office. Both are complete surveys based on the administrative data of the institutions of higher education. The indicator includes the students in the winter semester of each year. However, the researchers are covered on the reference date of 1st of December. Researchers in this context are defined as academic personnel at German institutions of higher education in primary and secondary employment (excluding student assistants). Doctoral candidates who are enrolled as students at an institution of higher education and who are also working as member of the academic personnel may be counted twice by the indicator.
+The total number of all students and researchers from developing and emerging countries at German institutions of higher education was about 316,000 in 2021. With 91.9 %, students by far accounted for the largest share of the indicator value.
+In the winter semester of 2021/22, 290,453 students from developing and emerging countries were enrolled in German institutions of higher education. This corresponds to 9.9 % of all enrollees. The number of students from developing and emerging countries has increased steadily since 2005/06 (134,462 students) – the only decline recorded was during winter semester of 2007/08. The increase in the winter semester of 2021/22 was around 5.6 % compared to the previous year (about 275,000 students in the winter semester of 2020/21). In the winter semester of 2021/22, a total of 17,113 students came from LDCs, 13.7 % more than in the previous year.
+Of the students from developing and emerging countries, 43,629 came from China, 36,575 from Turkey and 34,134 from India. In total, 41.6 % of them were female. Whereas the European (54.2 %) and American (50.4 %) developing and emerging countries send roughly equal numbers of women and men to study in Germany, less than a third of students from African developing and emerging countries are women (32.8 %). The proportion of women among students from LDCs (worldwide) was even lower (28.4 %).
+In 2021, 26,000 researchers from developing and emerging countries were part of the academic personnel at German institutions of higher education. They accounted for 6.0 % of all academic staff at German institutions of higher education. The proportion of people from developing and emerging countries was thus markedly smaller among researchers than among students. Their numbers increased by 10.6 % compared to the previous year and have more than quadrupled since 2005. A total of 924 researchers came from LDCs in 2021 (0.2 % of all academic staff). The equivalent figure for the previous year was 838, so there was a slight reduction.
+It should be considered, that a change of countries included into either the group of LDCs or developing and emerging countries might also result in changes of the aforementioned values. Thus, it is difficult to compare these values with previous years.
+The target of raising the number of students and researchers from developing and emerging countries by 10 % compared to the 215,000 recorded for 2015 was already achieved in 2017. From there, the intended steady increase is also reached in subsequent years.</t>
+        </is>
+      </c>
+      <c r="L63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7">
+        <v>45548</v>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Z17_B03_P01</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>Imports from least developed countries</t>
+        </is>
+      </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>Der Indikator gibt den wertmäßigen Anteil der Einfuhren bzw. Importe aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) an den gesamten Einfuhren nach Deutschland an.</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="inlineStr">
+        <is>
+          <t>The indicator shows the imports from the least developed countries (LDCs) as a proportion of all imports to Germany, measured in euros.</t>
+        </is>
+      </c>
+      <c r="H64" s="5" t="inlineStr">
+        <is>
+          <t>Für eine globale nachhaltige Entwicklung ist es wichtig, die Handelschancen der Entwicklungs- und Schwellenländer zu verbessern. Entwicklungs- und Schwellenländer benötigen ein offenes und faires Handelssystem, um sowohl Rohstoffe als auch verarbeitete Produkte auf dem Weltmarkt anzubieten. Die Bundesregierung hat daher als Ziel festgelegt, dass sich der Anteil der Einfuhren aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) zwischen den Jahren 2014 und 2030 verdoppeln soll.</t>
+        </is>
+      </c>
+      <c r="I64" s="5" t="inlineStr">
+        <is>
+          <t>To promote global sustainable development, it is important to improve trading opportunities of developing and emerging countries. Developing and emerging countries need an open and fair trading system that will allow them to offer raw materials as well as processed products on the world market. The Federal Government has therefore set itself the target of doubling the proportion of imports from LDCs between the years 2014 and 2030.</t>
+        </is>
+      </c>
+      <c r="J64" s="5" t="inlineStr">
+        <is>
+          <t>Die Daten zu Einfuhren Deutschlands werden von der Außenhandelsstatistik des Statistischen Bundesamtes zusammengestellt. Dabei wird neben dem Herkunftsland der importierten Waren sowie deren Wert und Gewicht auch die Art der Ware detailliert erfasst. Ausgeschlossen ist in der Außenhandelsstatistik der Bereich Dienstleistungen.
+Die Einordnung der verschiedenen Länder als LDC wird anhand der Liste der Empfänger öffentlicher Entwicklungsgelder des Ausschusses für Entwicklungszusammenarbeit der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD-DAC) vorgenommen. Für den Indikator werden die im jeweiligen Jahr gültigen Einstufungen gemäß OECD-DAC zugrunde gelegt. Ändert sich also der Status eines Landes, so wirkt sich das auf den Indikator aus, auch wenn der Wert der Einfuhren aus diesem Land unverändert geblieben ist.
+Bedingt durch Reimporte sind auch Mehrfachzählungen im Zähler und Nenner des Indikators nicht auszuschließen. Zu berücksichtigen ist ferner, dass die Importe aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) im Verhältnis zu den gesamten deutschen Importen betrachtet werden. Somit hängt der Wert des Indikators nicht nur von der absoluten Höhe der Importe aus LDCs ab, sondern auch vom Wert aller Importe eines Jahres. Neben den gesamten Einfuhren aus LDCs wird in der Grafik gesondert auch der Anteil von weiterverarbeiteten Produkten dargestellt. Damit soll zumindest in gewissem Umfang der Frage Rechnung getragen werden, ob Deutschland aus den LDCs hauptsächlich die Ausgangsstoffe für industriell erzeugte Produkte bezieht oder ob die LDCs selbst am Fertigungsprozess und an dessen Wertschöpfung teilhaben. Unter weiterverarbeiteten Produkten sind alle Waren zusammengefasst, die in der Gliederung nach Warengruppen und -untergruppen der Ernährungs- und der Gewerblichen Wirtschaft (EGW) nicht als Rohstoffe eingestuft werden. Entsprechend fallen aus der Natur gewonnene, nicht oder kaum bearbeitete Waren, wie Erdöl, Erze, Rundholz oder pflanzliche Spinnstoffe, nicht darunter. Hingegen zählen etwa Getreide, Gemüse, lebende Tiere, Fleisch und Milch zu den weiterverarbeiteten Produkten.
+Der Anteil der Einfuhren aus LDCs an den gesamten Einfuhren Deutschlands lag 2021 nach vorläufigen Berechnungen bei 1,03 % bzw. 12,4 Milliarden Euro. Dies bedeutet eine Steigerung um 44,5 % gegenüber 2014, als der Anteil noch bei 0,71 % lag. Der Anteil der Einfuhren von weiterverarbeiteten Produkten aus LDCs stieg zwischen 2014 und 2021 um 38,7 %. Er belief sich im Jahr 2021 auf 0,91 % der gesamten Einfuhren nach Deutschland (2014: 0,66 %). Dies entsprach einem Wert von rund 11,0 Milliarden Euro. Trotz eines kontinuierlichen Anstiegs seit 2014 ist bei Fortschreibung der Veränderungen der letzten fünf Jahre davon auszugehen, dass das Ziel verfehlt werden wird.
+Eine genauere Analyse der Einfuhren nach Herkunftsländern zeigt, dass ein Großteil der Einfuhren aus LDCs 2021 aus Bangladesch (57,3 %) und Kambodscha (12,6 %) stammten. Werden nicht nur die LDCs, sondern alle Entwicklungs- und Schwellenländer betrachtet, so betrug im Jahr 2021 ihr Anteil an den gesamten Einfuhren nach Deutschland 23,7 %, wobei der Anteil weiterverarbeiteter Güter bei 22,1 % lag. Nicht nur unter den Entwicklungs- und Schwellenländern, sondern auch insgesamt spielte China die größte Rolle. Allein der Anteil der Importe aus China an allen deutschen Importen (1 203,2 Milliarden Euro) betrug 2021 11,8 %, wobei es sich hierbei wertmäßig zu 99,6 % um weiterverarbeitete Produkte handelte. Erst auf den Plätzen zwei und drei folgten die Niederlande (8,8 %) und die USA (6,0 %) als wichtigste Handelspartner bei den Einfuhren.</t>
+        </is>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>Information about imports to Germany is compiled from the foreign trade statistics of the Federal Statistical Office. In this case, the type of the imported goods is also recorded in detail in addition to their country of origin, their value and weight. The service sector is excluded from foreign trade statistics.
+The various countries are classified as LDCs based on the list of recipients of official development assistance kept by the Development Assistance Committee (DAC) of the Organisation for Economic Cooperation and Development (OECD). The classifications valid in the respective year according to the OECD-DAC are used for this indicator. If the status of a country changes, this will impact the indicator even if the value of imports from this country remains unchanged.
+Due to reimports, duplicate counting in the numerator and denominator of the indicator cannot be excluded. The fact that the imports from LDCs are viewed in relation to all German imports must also be taken into account. This means that the value of the indicator depends not only on the absolute quantity of imports from LDCs, but also on the value of all imports. Alongside Germany’s total imports from LDCs, the indicator also shows what share is made up of processed products. The intention here is to address the question, at least to some extent, as to whether Germany mainly uses LDCs as sources of basic materials for industrially produced goods or whether the LDCs themselves have a stake in the manufacturing process and the associated value creation. These include all goods not classified as raw materials in the classification according to product groups of the food and industrial economy (EGW). The term thus does not encompass products extracted from nature and not or hardly processed, such as petroleum, ores, timber in the rough or vegetable textile fibres. Conversely, cereals, vegetables, live animals, meat and milk are classified as processed products.
+Imports from LDCs as a proportion of all imports to Germany was 1.03 % or 12.4 billion euros in 2021 (provisional results). This is an increase of more than 44.5 % compared with 2014, when the share was just 0.71 %. The share of imports of processed products from LDCs increased even more sharply between 2014 and 2021 (+ 38.7 %). In 2021, It has reached 0.91 % of total imports to Germany (2014: 0.66 %), which equates to a value of around 11.0 billion euros. Despite the steady increase from 2014 on, if the development of the last five years continues, it can be assumed that the target will be missed.
+Closer analysis of the various countries of origin reveals that the largest amount of Germany’s imports from LDCs in 2021 came from Bangladesh (57.3 %) or Cambodia (12.6 %). If one looks not only at the LDCs but at all developing and emerging countries, their share of total imports to Germany in 2021 was 23.7 %, and processed products from those countries accounted for 22.1 %. China plays the most important role among all developing and emerging countries. Of all German imports in 2021, 1,203.2 billion euros or 11.8 % came from China alone, with processed goods making up 99.6 %. Netherlands (8.8 %) and the United States (6.0 %) are the second and third most important trading partners concerning imports, respectively.</t>
+        </is>
+      </c>
+      <c r="L64" s="4" t="inlineStr">
+        <is>
+          <t>17.11.1</t>
+        </is>
+      </c>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7">
+        <v>45593</v>
       </c>
     </row>
   </sheetData>

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Share of the population with excessive exposure to PM10</t>
+          <t>XXXShare of the population with excessive exposure to PM10</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
@@ -2006,50 +2006,120 @@
     <row outlineLevel="0" r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
+          <t>Z04_B03_P01_Ib01</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B03_P01</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>04.3.a</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Weiterbildungsbeteiligung</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>XXXWeiterbildungsbeteiligung</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
           <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>05.1.a</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Gender pay gap</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer als Anteil an den durchschnittlichen Bruttostundenverdiensten der Männer.</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the difference between the average gross hourly earnings of women and men expressed as a percentage of the average gross hourly earnings of men.</t>
         </is>
       </c>
-      <c r="H19" s="5" t="inlineStr">
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgte daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
         </is>
       </c>
-      <c r="I19" s="5" t="inlineStr">
+      <c r="I20" s="5" t="inlineStr">
         <is>
           <t>Differences in pay between men and women in a modern business-oriented society are a sign of social inequality. A narrowing of pay disparities indicates progress on the road to equality. The Federal Government is therefore pursuing the goal of reducing the pay gap to 10 % by 2020 and to maintain the value until 2030.</t>
         </is>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Im unbereinigten Gender Pay Gap (GPG) enthalten ist auch der Lohnabstand, der beispielsweise auf unterschiedliche Berufe, Branchen, Qualifikationen oder Erwerbsbiografien von Frauen und Männern zurückzuführen ist.
 Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen (Untergliederung in fünf Gruppen von ungelernt bis Arbeitnehmerinnen und Arbeitnehmer in leitender Stellung), Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap bestimmt. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten sowie den unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der Land- und Forstwirtschaft, Fischerei, der öffentlichen Verwaltung, Verteidigung, Sozialversicherung sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.
@@ -2060,7 +2130,7 @@
 Im europäischen Vergleich liegen überwiegend vorläufige Ergebnisse bis zum Jahr 2020 vor. Der unbereinigte GPG lag in Deutschland seit 2010 durchgehend über dem Durchschnitt der Europäischen Union. Von 25 EU-Staaten, für die Daten für das Jahr 2020 vorliegen, weisen nur Lettland mit 22 %, Estland mit 21 % und Österreich mit 19 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %), Rumänien (2 %) und Slowenien (3 %).</t>
         </is>
       </c>
-      <c r="K19" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>The indicator presented here shows the unadjusted gender pay gap (GPG). Therefore, it only expresses the relative average gross hourly earnings as a ratio without considering the underlying causes, such as qualification, occupation or a different employment history.
 The data for the indicator is based on the four-yearly structure of earnings survey conducted by the statistical offices of the Länder as a representative sample survey covering a maximum of 60,000 businesses who are obliged to provide the requested information. Based on these data, results are provided by age, educational attainment, performance group, activity, collective agreement, company size class and economic sector, and the adjusted GPG is published. For the interim years, the unadjusted GPG is updated using the rates of change from the quarterly survey of earnings. In the following, the EU definition is used for the adjusted and unadjusted GPG; it excludes employees in “agriculture, forestry and fishing”, “public administration and defence; compulsory social security” and in micro-enterprises.
@@ -2071,67 +2141,67 @@
 Comparative data for the European Union with mostly provisional results is available until 2020. From 2010 on, the unadjusted GPG in Germany lay considerably above the provisional European Union average. Of the 25 EU states in 2020, only Latvia, with 22 %, Estonia, with 21 %, and Austria, with 19 %, had a higher GPG. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1 %, Romania, with 2 %, and Slovenia, with 3 %.</t>
         </is>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="L20" s="4" t="inlineStr">
         <is>
           <t>8.5.1</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N19" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>05.1.b,c</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Women in management positions in business and in the federal civil service</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen. Der Indikator 5.1.c zeigt den Anteil von Frauen in Führungspositionen im öffentlichen Dienst des Bundes.</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>The indicator 5.1.b shows the share of women on supervisory boards of listed and fully co-determined companies. Indicator 5.1.c shows the percentage of women in management positions in the federal civil service.</t>
         </is>
       </c>
-      <c r="H20" s="5" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>Frauen sind ebenso qualifiziert wie Männer und dennoch in Führungspositionen der deutschen Wirtschaft, vor allem im Top-Management, unterrepräsentiert. Gleiches gilt auch für den Anteil in Führungspositionen im öffentlichen Dienst des Bundes. Bis zum Jahr 2030 soll daher der Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen auf 30 % erhöht werden. Im öffentlichen Dienst des Bundes soll die gleichberechtigte Teilhabe von Frauen und Männern in Leitungsfunktionen gemäß dem am 21. August 2021 in Kraft getretenen zweiten Führungspositionengesetz (FüPoG II) bis zum Jahr 2025 erreicht werden.</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I21" s="5" t="inlineStr">
         <is>
           <t>Women are as highly qualified as men, yet they are under-represented in management positions in German business, particularly at senior management level. The same applies to the percentage of women in management positions in the federal civil service. For this reason, the share of women on supervisory boards of listed and fully co-determined companies is to be increased to 30 % by 2030. Under the bill for a Second Gender Equality (Management Positions) Act, which became effective on 21 August 2021, equal representation of women and men in management positions in the civil service is to be achieved by 2025.</t>
         </is>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>&lt;b&gt;&lt;i&gt;Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch mitbestimmten Unternehmen&lt;/i&gt;&lt;/b&gt;
 Der Indikator erfasst den Anteil von Frauen in Aufsichtsräten von Aktiengesellschaften und Kommanditgesellschaften auf Aktien mit mehr als 2 000 Beschäftigten sowie Europäischen Gesellschaften (SE) und börsennotierten Unternehmen, die paritätisch mitbestimmt sind. Die Veröffentlichungen der börsennotierten und paritätisch mitbestimmten Unternehmen, die vom Verein „Frauen in die Aufsichtsräte“ (FidAR) ausgewertet und in sogenannten Women-on-Board-Indizes (WOB-Indizes) veröffentlicht werden, dienen als Datengrundlage.
@@ -2143,7 +2213,7 @@
 Bislang dient eine Sonderauswertung der unveröffentlichten Gleichstellungsstatistik des Bundes nach Maßgabe des Bundesgleichstellungsgesetzes (BGleiG) als Datengrundlage für den Indikator. Das Statistische Bundesamt führt seit 2015 im Auftrag des Bundesministeriums für Familie, Senioren, Frauen und Jugend (BMFSFJ) die Gleichstellungsstatistik alle zwei Jahre zum Stichtag 30. Juni des Berichtsjahres durch. Ein erweitertes Monitoring im Zusammenhang mit der Maßnahme IX 1. b der Deutschen Nachhaltigkeitsstrategie und dem zweiten Führungspositionengesetz (FüPoG II) zur Erhöhung der Transparenz wird künftig halbjährliche Daten auch aus den nachgeordneten Dienststellen der unmittelbaren Bundesverwaltung zur Anzahl von Frauen und Männern in Führungspositionen zur Bedienung des Indikators liefern. Der Fokus des Indikators richtet sich auf die Beschäftigten in Führungspositionen aller Dienststellen des Bundes. Einbezogen werden alle Voll- und Teilzeitbeschäftigten sowie</t>
         </is>
       </c>
-      <c r="K20" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>&lt;b&gt;&lt;i&gt;Percentage of women on supervisory boards of listed and fully co-determined companies&lt;/i&gt;&lt;/b&gt;&lt;br&gt;This indicator measures the proportion of women on the supervisory boards of listed companies and joint-stock companies with more than 2,000 employees as well as European Companies (SE) and listed companies that are subject to equal co-determination. The data is based on publications of the results of elections at general meetings of shareholders of listed and fully co-determined companies, which are evaluated by the association “Frauen in die Aufsichtsräte” (FidAR) and published in the form of a Women on Board Index (WOB-Index).
 In January 2022, the average proportion of women on the supervisory boards of these companies was 35.6 % (January 2015: 21.3 %). This means that the target share of 30 % was already reached in 2018 – twelve years before the deadline set in the German strategy for sustainable development. However, the share in 2022 slightly decreased for the first time since 2015.
@@ -2152,70 +2222,70 @@
 According to the International Standard Classification of Occupations (ISCO), managers are all persons who plan, control, coordinate and evaluate the overall activities of companies, governments and other organisations or internal organisational units and who review and evaluate guidelines, laws, rules and regulations. This definition includes the activities of supervisory boards. When the ISCO classification is applied, 22 % of the 882,000 management positions in the economy (all companies with more than one employee) were filled by women in 2018. This figure is reached by considering all businesses with at least one employee for whom compulsory social insurance contributions are payable, excluding entities in sector O “Public administration and defence; compulsory social security” and parts of sector P “Education”. Compared with 2014, the year of the previous structure of earnings survey, this represents an increase of 1.2 percentage points.&lt;br&gt;&lt;b&gt;&lt;i&gt;Percentage of women in management positions in the federal civil service&lt;/i&gt;&lt;/b&gt;&lt;br&gt;The data basis for this indicator comprises the internal gender equality statistics collected by all offices of the federal government pursuant to the Federal Gender Equality Act. Since 2015, these statistics have been compiled every second year, updated to 30 June of the reporting year, by the Federal Statistical Office on behalf of the Federal Ministry for Family Affairs, Senior Citizens, Women and Youth. For improved transparency, the indicator will receive biannual data from extended monitoring by the measure IX 1.b by the German strategy for sustainable development and the second managements position act (FüPoG II) provided by subordinated departments of the direct federal administration regarding the number of women and men in management positions. The indicator is focused on the employees in management positions in all departmen</t>
         </is>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>16.7.1</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
         <v>45601</v>
       </c>
     </row>
-    <row outlineLevel="0" r="21">
-      <c r="A21" s="4" t="inlineStr">
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01_Ib03</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>05.1.d</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>Väterbeteiligung beim Elterngeld</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Proportion of fathers receiving parental allowance</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil der Kinder an, deren Väter Elterngeld bezogen haben.</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the percentage of children whose fathers receiving parental allowance.</t>
         </is>
       </c>
-      <c r="H21" s="5" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>Das Elterngeld soll Familien bei einer partnerschaftlichen Aufgabenteilung unterstützen und eine gute Vereinbarkeit von Familie und Beruf für Mütter und Väter erreichen. Besonders mit der Einführung des ElterngeldPlus und des Partnerschaftsbonus soll der gesellschaftliche Wandel geschlechtsstereotyper Rollenbilder von Müttern und Vätern weiter vorangetrieben und letztendlich auch die Gleichstellung am Arbeitsmarkt befördert werden. Die Bundesregierung hat sich deshalb zum Ziel gesetzt den Anteil der Väter, die Elterngeld beziehen, zum Jahr 2030 auf 65 % zu steigern.</t>
         </is>
       </c>
-      <c r="I21" s="5" t="inlineStr">
+      <c r="I22" s="5" t="inlineStr">
         <is>
           <t>Parental allowance is intended to assist mothers and fathers in sharing their tasks in a spirit of partnership and in successfully reconciling work and family life. The introduction of parental allowance plus (ElterngeldPlus) and the partnership bonus (Partnerschaftsbonus) in particular are intended to keep driving social change in the stereotypical role models for mothers and fathers and ultimately to promote equality of opportunity in the labour market. For that reason, the German Federal Government has set itself the target of increasing the proportion of fathers receiving parental allowance to 65 % by 2030.</t>
         </is>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>Mit dem Bundeselterngeld- und Elternzeitgesetz (BEEG) wurde das Elterngeld als Familienleistung für ab dem 1. Januar 2007 geborene Kinder eingeführt. Anspruchsberechtigte müssen einen Wohnsitz oder gewöhnlichen Aufenthalt in Deutschland haben, mit ihrem Kind in einem Haushalt leben, dieses Kind selbst betreuen und erziehen und dürfen keine bzw. keine volle Erwerbstätigkeit ausüben. Mütter und Väter sind gleichermaßen berechtigt.
 Auch wenn es sich nicht um das leibliche Kind handelt, können Ehemann/Ehefrau bzw. Lebenspartner/Lebenspartnerin der leiblichen Mutter oder des leiblichen Vaters Elterngeld erhalten, wenn sie im gleichen Haushalt leben. In über 99 % der Fälle handelt es sich bei den Leistungsbeziehenden jedoch um die leiblichen Eltern, sodass im Folgenden vereinfacht von Müttern und Vätern die Rede ist.
@@ -2227,7 +2297,7 @@
 Die maximale Bezugsdauer des Elterngeldes für vor dem 1. Juli 2015 geborene Kinder betrug 14 Monate. Für Eltern, deren Kinder ab dem 1. Juli 2015 geboren wurden, besteht die Möglichkeit, zwischen dem Bezug von Basiselterngeld und dem Bezug von ElterngeldPlus zu wählen oder beides zu kombinieren und zusätzlich einen Partnerschaftsbonus in Form von zwei, drei oder vier zusätzlichen ElterngeldPlus-Monaten pro Elternteil in Anspruch zu nehmen. Die Bezugsdauer kann sich hierdurch erheblich verlängern.</t>
         </is>
       </c>
-      <c r="K21" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>The Federal Parental Allowance and Parental Leave Act (Bundeselterngeld- und Elternzeitgesetz) introduced parental allowance as a family benefit in respect of children born on or after 1 January 2007. To be eligible, claimants must have a permanent or common residence in Germany, live in the same household as their child, look after and bring up that child themselves and not engage in paid employment or, as the case may be, in full-time paid employment. Mothers and fathers are equally entitled.
 Even if the child is not his or her natural child, the spouse or civil partner of the natural mother or father may receive parental allowance if both spouses or partners live in the same household. In more than 99 % of cases, however, the beneficiaries are the biological parents, so that in the following simplified reference is made to mothers and fathers.
@@ -2239,143 +2309,143 @@
 For children born before 1 July 2015, the maximum period for which parental allowance could be received was 14 months. Parents whose children were born on or after 1 July 2015 are able to choose between basic parental allowance, parental allowance plus or a combination of both and can also obtain an additional partnership bonus in the form of four extra monthly payments of parental allowance plus. As a result, the period of receipt can be considerably extended.</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M21" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N21" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P02_Ib01</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P02</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>05.1.e</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>Berufliche Qualifizierung von Frauen und Mädchen durch deutsche entwicklungspolitische Zusammenarbeit</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Vocational qualification of women and girls through German development assistance</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt die Anzahl der Frauen und Mädchen in Entwicklungs- und Schwellenländern an, die durch berufliche Qualifizierungsmaßnahmen deutscher entwicklungspolitischer Zusammenarbeit erreicht wurden. Dabei wird in finanzielle (FZ) und technische Zusammenarbeit (TZ) unterschieden.
 Leistungen der TZ sind vor allem Beratung, in begrenztem Umfang auch die Lieferung von Sachgütern, das Erstellen von Anlagen sowie Studien und Gutachten. Zur FZ gehören günstige Kredite, Beteiligungskapital oder Zuschüsse, die nicht zurückgezahlt werden müssen.</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of women and girls in developing and emerging countries who were reached by vocational qualification measures through German development cooperation. The indicator is divided into financial (FZ) and technical cooperation (TZ).
 Services from TZ include consulting, to a limited degree the delivery of material goods, the production of facilities and the implementation of studies and reports. FZ provides favourable loans, venture capital or grants, that do not have to be repaid.</t>
         </is>
       </c>
-      <c r="H22" s="5" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t>Die wirtschaftliche Teilhabe von Frauen und Mädchen in Entwicklungs- und Schwellenländern soll gestärkt werden. Daher soll bis 2030 die Anzahl der durch deutsche Entwicklungszusammenarbeit beruflich qualifizierten Frauen und Mädchen in Entwicklungs- und Schwellenländern sukzessive um ein Drittel gegenüber dem Jahr 2015 erhöht werden. Dies entspricht der von der Bundesregierung im Rahmen des G7-Gipfels im Jahr 2015 eingegangenen Verpflichtung zur Mädchen- und Frauenbildung.</t>
         </is>
       </c>
-      <c r="I22" s="5" t="inlineStr">
+      <c r="I23" s="5" t="inlineStr">
         <is>
           <t>The economic participation of girls and women in developing and emerging countries is to be increased. To this end, the number of girls and women in developing and emerging countries who obtain vocational qualifications through German development cooperation is to be gradually increased by one third over the period from 2015 to 2030. The Federal Government as part of the G7 summit is obliged to support girl’s and women’s education since 2015.</t>
         </is>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>Als Datenquelle werden Informationen vom Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) zu geförderten Entwicklungsmaßnahmen verwendet, die sich im entsprechenden Berichtsjahr in der Durchführungsphase befanden. Zu diesen Maßnahmen zählen alle kurz-, mittel- und langfristigen formalen und nonformalen Berufsbildungsmaßnahmen in Entwicklungs- und Schwellenländern. Die Maßnahmen werden vollständig durch Mittel des Bundeshaushaltes sowie durch Marktmittel finanziert. Die Datenerhebung erfolgte erstmalig für das Jahr 2015 im Auftrag des BMZ durch die Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ) sowie das Centrum für Evaluation (CeVal GmbH). Die Erhebung wurde 2018 erneut durchgeführt. Ab dem Jahr 2021 werden die Daten alle drei Jahre aus der sogenannten aggregierten Ergebnisberichterstattung der GIZ und der Kreditanstalt für Wiederaufbau (KfW) abgeleitet.
 Im Jahr 2015 wurden rund 355 000 und im Jahr 2018 rund 863 000 Frauen und Mädchen durch berufliche Qualifizierungsmaßnahmen erreicht. Die hohe Anzahl an geförderten Frauen und Mädchen 2018 war vorwiegend durch die Zusammenarbeit mit China geprägt. Bedingt durch die ausgelaufene Zusammenarbeit mit China im Bereich Bildung lag die Anzahl der erreichten Frauen und Mädchen zuletzt bei etwa 80 000 (Jahr 2021). Gegenüber 2015 – dem ersten Jahr der Erhebung – war dies nur gut ein Fünftel an Frauen und Mädchen, die durch deutsche Entwicklungszusammenarbeit in Entwicklungs- und Schwellenländern beruflich qualifiziert wurden. Mit der Anzahl an erreichten Frauen und Mädchen wird jedoch keine Aussage zu Erfolg, Umfang und Qualität der Entwicklungsmaßnahmen getroffen.
 Von den etwa 80 000 Frauen und Mädchen wurden schätzungsweise 79,3 % über die technische Zusammenarbeit (TZ) erreicht; 20,7 % über die finanzielle Zusammenarbeit (FZ). Während die Anzahl der Frauen und Mädchen bei Maßnahmen der TZ ex post erfasst wird, muss die Anzahl bei der FZ im Voraus geschätzt werden. Dadurch kann es zu Überschätzungen und Mehrfachzählungen kommen.</t>
         </is>
       </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>Information provided by the Federal Ministry for Economic Cooperation and Development on supported projects that entered the implementation phase in the respective year served as a data source. The measures taken into account include all short-, medium- and long-term formal and non-formal vocational training measures in developing and emerging countries. The measures are financed entirely by funds from the federal budget and from market funds. The data was collected for the first time in 2015 on behalf of the Ministry of Development by the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH and Centrum für Evaluation GmbH (CeVal GmbH). The survey was renewed in 2018. From 2021 on, the data will be derived every three years from the aggregated results reporting provided by GIZ and Kreditanstalt für Wiederaufbau (KfW).
 In 2015 and 2018, 355,000 and 863,000 women and girls were reached by skill development measures, respectively. The high number of supported women and girls in 2018 was predominantly due to the collaboration with China. Expired collaboration in the education section with China caused a decline to 80,000 girls and women, who were reached by skill development measures in 2021. Only a fifth of women and girls were reached by German vocational qualification measures in developing and emerging countries compared to the first year of survey in 2015. However, the indicator does not provide any information on the success, scope and quality of the qualification measures.
 Of the 80,000 women and girls, about 79.3 % were reached by TZ and, accordingly, 20.7 % by FZ. While the number of women and girls are recorded ex-post for TZ measures, the number for FZ has to be estimated in advance. As a consequence, latter is prone to overestimation and multiple counting.</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M22" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N22" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>Z06_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Z06_B01_P01</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>06.1.a</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>Phosphor in Fließgewässern</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Phosphorus in flowing waters</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil derjenigen Messstellen an, an denen die gewässertypischen Orientierungswerte des guten ökologischen Zustands für Phosphor in Fließgewässern eingehalten werden.</t>
         </is>
       </c>
-      <c r="G23" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>The indicator specifies the share of monitoring points at which the water-body typical benchmark values of good ecological status regarding phosphorus in flowing waters are not exceeded.</t>
         </is>
       </c>
-      <c r="H23" s="5" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>Phosphor gelangt in Deutschland heute etwa je zur Hälfte aus der Landwirtschaft und aus Städten (kommunale Kläranlagen und Regenwasserabläufe) in die Fließgewässer. Es ist neben der Belastung durch Nitrat einer der Gründe, warum es in Flüssen, Seen und Meeren zu einer Überversorgung mit Nährstoffen (Eutrophierung) kommt. Folgen davon sind Algenwachstum, Sauerstoffarmut bis hin zum Fischsterben oder zum Aufkommen giftiger Blaualgen. Daher wurde als Ziel für das Jahr 2030 festgelegt, dass die gewässertypischen Orientierungswerte, die in der Oberflächengewässerverordnung angegeben sind, an allen Messstellen eingehalten oder unterschritten werden.</t>
         </is>
       </c>
-      <c r="I23" s="5" t="inlineStr">
+      <c r="I24" s="5" t="inlineStr">
         <is>
           <t>Roughly half of the phosphorous entering flowing waters in Germany today originates from agriculture, and the other half comes from cities (municipal water treatment plants and rainwater run-offs). In addition to nitrate pollution, it is one of the causes of an oversupply of nutrients in rivers, lakes and seas (eutrophication). The consequences of this are algae growth, oxygen depletion all the way to fish kills or the growth of poisonous blue-green algae. For this reason, meeting benchmark values for specific types of water bodies, as specified in the Ordinance on the Protection of Surface Waters, at all monitoring points has been defined as a goal for 2030.</t>
         </is>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>Phosphor gelangt im Regelfall durch den Eintrag von Phosphaten in Gewässer. Die Phosphorbelastung der Flüsse wird von den Bundesländern im Rahmen der Überwachung zur EG-Wasserrahmenrichtlinie gemessen. Für den Indikator werden die Daten des Überblicksmessnetzes genutzt, das aus etwa 250 Messstellen besteht. Die Messstellen wurden meist in den Hauptströmen der großen Flüsse und an Einmündungen bedeutender Nebengewässer eingerichtet. Die Zusammenstellung der Daten erfolgt durch das Umweltbundesamt nach Angaben der Bund/Länder-Arbeitsgemeinschaft Wasser (LAWA).
 In den Indikator geht ein, ob der jeweils gültige Orientierungswert an einer gegebenen Messstelle im Jahresmittel eingehalten oder unterschritten, jedoch nicht wie weit dieser bei einer Überschreitung verfehlt wurde. Die Angaben zu den einzelnen Messstellen werden zusammengefasst dargestellt. Entsprechend hängt der Wert des Indikators von der Anzahl und der Repräsentativität der Verteilung der Messstellen ab. Seen und andere Stillgewässer sind durch den Indikator nicht abgedeckt.
@@ -2386,7 +2456,7 @@
 Die Indikatoren zu Phosphor- und Nitratgehalt (6.1.a und 6.1.b) decken zwei wesentliche Aspekte der Gewässerqualität ab. Daneben gibt es jedoch noch weitere Komponenten, wie zum Beispiel die Ausstattung der Gewässer mit naturnahen Lebensräumen und die Belastung mit Schadstoffen (wie Pflanzenschutzmittel, Metalle, Arzneimittel), die ebenfalls für die Gewässerqualität relevant sind.</t>
         </is>
       </c>
-      <c r="K23" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>Phosphorous generally enters a body of water through the input of phosphates. The phosphorous pollution of rivers is measured by the Länder as part of the monitoring conducted for the EU Water Framework Directive. The data for the indicator come from the monitoring network, which consists of about 250 monitoring points. In most cases, the monitoring points were installed in the main currents of the large rivers and at the junction of important confluents. The data are compiled by the German Environment Agency based on information from the German Working Group on Water Issues of the Länder and the Federal Government represented by the Federal Environment Ministry (LAWA).
 The indicator shows whether the annual average of the values measured at a particular monitoring point was equal to, or lower than, the benchmark value. However, it does not show by how far the target was surpassed if it was exceeded. The information about the individual monitoring points is presented in a summarised form. Accordingly, the value of the indicator is strongly dependent on the number of monitoring points and the representative status of their distribution. Lakes and other standing waters are not covered by the indicator.
@@ -2397,67 +2467,67 @@
 The indicators of phosphorous and nitrate levels (6.1.a and 6.1.b) cover two key aspects of water quality. However, there are other, additional components such as the existence of natural habitats around water bodies and the exposure to pollutants (such as pesticides, metals, medicines), all of which are also relevant to water quality.</t>
         </is>
       </c>
-      <c r="L23" s="4" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>6.3.2</t>
         </is>
       </c>
-      <c r="M23" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N23" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N24" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Z06_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Z06_B01_P01</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>06.1.b</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>Nitrat im Grundwasser</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Nitrate in groundwater</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil der Messstellen an, an denen der Grenzwert von 50 Milligramm pro Liter Nitrat im Grundwasser im Jahresmittel eingehalten wird.</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the share of monitoring points at which the threshold value of 50 mg/l of nitrate in the groundwater is not exceeded on an annual average.</t>
         </is>
       </c>
-      <c r="H24" s="5" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t>Grundwasser ist ein wesentliches Element des Naturhaushaltes. Es ist Teil des Wasserkreislaufs und erfüllt wichtige ökologische Funktionen. Grundwasser ist auch die wichtigste Trinkwasserressource Deutschlands. Erhöhte Nitratgehalte beeinträchtigen jedoch die Ökologie der Gewässer. Der Schwellenwert von 50 Milligramm Nitrat pro Liter im Grundwasser, der in der Grundwasserverordnung sowie der Oberflächengewässerverordnung angegeben ist, soll daher an allen Messstellen bis 2030 eingehalten werden.</t>
         </is>
       </c>
-      <c r="I24" s="5" t="inlineStr">
+      <c r="I25" s="5" t="inlineStr">
         <is>
           <t>Groundwater is a key element of the ecosystem. It is part of the water cycle and performs important ecological functions. Groundwater is also Germany’s most important drinking water resource. However, elevated nitrate contents impair the ecology of water bodies. The threshold value of 50 mg/l of nitrate in groundwater, as specified in the Groundwater Ordinance and in the Ordinance on the Protection of Surface Waters, should therefore not be exceeded at any monitoring point by 2030.</t>
         </is>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>Der Nitratgehalt im Grundwasser wird von den Bundesländern für die Berichterstattung über den Zustand des Grundwassers in Deutschland an die Europäische Umweltagentur (EUA) erhoben. Die dazu verwendeten Messstellen ergeben zusammen das sogenannte EUA-Messnetz. Das EUA-Messstellennetz umfasst 1 214 Messstellen und bildet damit Deutschland repräsentativ ab. Die Daten werden vom Umweltbundesamt nach Angaben der Bund/Länder-Arbeitsgemeinschaft Wasser (LAWA) zusammengestellt.
 Wie auch der Indikator zum Phosphorgehalt in Fließgewässern gibt dieser Indikator keinen Hinweis auf den Umfang der Grenzwertüber- bzw. -unterschreitung. Der Indikator erfasst an wie vielen aller Messstellen der vorgegebene Schwellenwert eingehalten wurde. Die Nitratbelastung kann an einigen Messstellen stark zurückgegangen sein. Sollte sie jedoch weiterhin oberhalb des Schwellenwertes von 50 Milligramm pro Liter liegen, spiegelt sich die Reduktion nicht im Indikator wider. Gleiches gilt für steigende Nitratbelastungen, die jedoch weiterhin unter dem Grenzwert verbleiben. Ebenso muss bei der Interpretation berücksichtigt werden, dass Maßnahmen zur Verringerung der Nitratbelastung möglicherweise erst verzögert Wirkung zeigen, da die Sickerzeit von der Oberfläche bis in das Grundwasser mehrere Jahre betragen kann.
@@ -2467,7 +2537,7 @@
 Um den konkreten Einfluss der landwirtschaftlichen Nutzung auf die Nitratbelastung der Gewässer zu untersuchen, gibt es eine separate Nitrat-Berichterstattung an die Europäische Union (EU). Für diese Berichterstattung werden aus dem EUA-Messnetz diejenigen Messstellen ausgewählt, in deren Einzugsgebiet die landwirtschaftliche Nutzung dominiert. In diesem speziellen Messnetz liegt die Nitratbelastung dementsprechend über dem Durchschnittswert des Indikators 6.1.b.</t>
         </is>
       </c>
-      <c r="K24" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>The nitrate content of groundwater is recorded by the Länder for the purpose of reporting the condition of groundwater in Germany to the European Environment Agency (EEA). The monitoring points used for this purpose are combined in the “EEA monitoring network”. The EEA monitoring network comprises a total of 1,214 monitoring sites and provides a representative picture of Germany. The data are summarised by the German Environment Agency based on information from the German Working Group on Water Issues of the Länder and the Federal Government represented by the Federal Environment Ministry (LAWA).
 Like the indicator of phosphorus content in flowing waters, the nitrate indicator does not reveal how far above or below the threshold the readings have been. The indicator merely records how many of all the monitoring sites complied with the prescribed threshold. The nitrate load may have fallen sharply at some monitoring sites. Nevertheless, if the concentration remains above the maximum of 50 mg/l, the reduction will not be reflected in the indicator. The same applies to nitrate loads that have increased but are still below the threshold. The interpretation must also take into account that measures to reduce nitrate pollution may have a delayed effect, since the period of infiltration from the surface to the groundwater can take several years.
@@ -2477,67 +2547,67 @@
 In order to measure the actual influence of agricultural activity on the nitrate load of waters, there is a separate system of nitrate reporting to the EU. For this report, the monitoring sites for waters in predominantly agricultural catchment areas are selected from the EEA site network. The nitrate load in that specific part of the monitoring network is therefore above the average for indicator 6.1.b.</t>
         </is>
       </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="L25" s="4" t="inlineStr">
         <is>
           <t>6.3.2</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N24" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N25" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>Z06_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Z06_B02_P01</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>06.2.a,b</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>Entwicklungszusammenarbeit für Trinkwasser- und Sanitärversorgung</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Development cooperation for access to drinking water and sanitation</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren stellen die Anzahl der Menschen dar, die im jeweiligen Berichtsjahr direkt durch deutsche Unterstützung Neuzugang oder verbesserten Zugang zu Trinkwasser- (Indikator 6.2.a) und/oder Sanitärversorgung (Indikator 6.2.b) erhalten haben.</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of people in the relevant reference year who obtained first-time or improved access to drinking water (6.2.a) and/or sanitation (6.2.b) as a direct result of German support.</t>
         </is>
       </c>
-      <c r="H25" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>Eine unzureichende Versorgung mit Trinkwasser und sanitären Einrichtungen hat weitreichende Auswirkungen auf die Ernährung und die Gesundheit des Menschen. Das Ziel der Bundesregierung ist daher, dass bis zum Jahr 2030 jährlich zehn Millionen Menschen weltweit mit deutscher Unterstützung Zugang zu Trinkwasser- und Sanitärversorgung erhalten. Dieses Ziel wurde ab dem Berichtsjahr 2019 weiter ausdifferenziert: so sollen bis 2030 jährlich sechs Millionen Menschen weltweit mit deutscher Unterstützung direkten Zugang zur Trinkwasserversorgung bzw. vier Millionen Menschen weltweit mit deutscher Unterstützung direkten Zugang zur Sanitärversorgung erhalten.</t>
         </is>
       </c>
-      <c r="I25" s="5" t="inlineStr">
+      <c r="I26" s="5" t="inlineStr">
         <is>
           <t>Inadequate provision of drinking water and sanitary facilities has far-reaching consequences for human nutrition and health. The target of the Federal Government is that ten million people worldwide should, with German support, obtain access to drinking water and sanitation each year up to 2030. This target has now been further refined, and now six million people worldwide are to obtain access to drinking water with German support each year until 2030, while four million people in the world are to obtain access to sanitation each year with German support.</t>
         </is>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren basieren auf Angaben der Kreditanstalt für Wiederaufbau (KfW) und erfassen nur die durch Förderung von ihr erreichten Menschen. Maßnahmen weiterer Akteure (zum Beispiel Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) GmbH, Bundesländer, private Akteure) werden nicht berücksichtigt. Die Indikatoren stützen sich ausschließlich auf Plangrößen für neue Finanzierungszusagen für Projekte im Bereich Trinkwasser- und Sanitärversorgung zum Zeitpunkt der Vorlage des Programmvorschlags an das Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ). Die KfW schätzt die Anzahl an Personen, die zukünftig, das heißt nach Fertigstellung der Bauvorhaben, einen neuen oder verbesserten Zugang zu Trinkwasser- und Sanitärversorgung erhalten haben werden oder von den bereitgestellten Kapazitäten profitieren können. Ob die Menschen tatsächlich erreicht werden, ist erst nach Inbetriebnahme der Infrastrukturen konkret abschätzbar, was hier nicht abgebildet wird. Da eine Person sowohl einen neuen oder verbesserten Zugang zur Trinkwasser- als auch zur Sanitärversorgung erhalten kann, sind Doppelzählungen zwischen beiden Indikatoren und im Zeitablauf möglich. Die von der KfW zugesagten Mittel sind Zuschüsse und Darlehen – finanziert aus dem Bundeshaushalt – sowie am Kapitalmarkt aufgenommene Mittel. Empfänger sind in der Regel Entwicklungs- und Schwellenländer, sodass dieser Indikator in Beziehung zum Indikator 17.1 „Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen“ steht.
 In 2019 wurde die Erhebungsmethodik überarbeitet. Während zuvor direkt (zum Beispiel mittels eines Hausanschlusses) als auch indirekt erreichte Menschen (zum Beispiel die gesamte Bevölkerung eines Landes, das durch ein Sektorreformprogramm unterstützt wird) gezählt wurden, werden seitdem nur direkt erreichte Personen erfasst. So wurden in 2017 19,1 Millionen Menschen (der insgesamt 28,6 Millionen erreichten Menschen) direkt erreicht; in 2018 waren es 15,2 Millionen Menschen (der insgesamt 60,3 Millionen erreichten Menschen). Eine weitere Veränderung liegt in der anteiligen Berücksichtigung der erreichten Menschen entsprechend dem deutschen Finanzierungsanteil von Maßnahmen. So werden Beiträge von anderen Gebern oder Eigenanstrengungen des Empfängerlandes nicht berücksichtigt. Auch werden zum Beispiel keine Energieeffizienzmaßnahmen, Verbesserungen von Betriebsabläufen oder Erneuerungen von Pumpstationen gezählt, da diese nicht unmittelbar zu einer Verbesserung der Versorgung der Zielgruppe führen.
@@ -2545,7 +2615,7 @@
 Die Zusagen durch die KfW im Bereich Wasser- und Sanitärversorgung sowie Abwassermanagement haben sich von 2012 bis 2018 um 26,0 % auf über eine Milliarde Euro erhöht. Diese sind jedoch 2019 und 2020 auf zuletzt 677,1 Millionen Euro zurückgegangen. Im Gegensatz zu den Zusagen verringerten sich die Auszahlungen, die durch die KfW erfolgten, seit 2015 kontinuierlich auf 432,1 Millionen Euro für das Jahr 2020. Ein Grund hierfür liegt im zeitlichen Verzug zwischen Zusagen und Auszahlungen.</t>
         </is>
       </c>
-      <c r="K25" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>The indicator is based on data from the Kreditanstalt für Wiederaufbau (KfW) and only measures the number of people reached through its support. Measures taken by other parties, such as the Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ), Länder and private aid agencies, are not taken into account. The indicator is based exclusively on the planned scope of new funding commitments for drinking water and sanitation projects at the time of submission of the programme proposal to the Federal Ministry for Economic Cooperation and Development. The KfW assesses the number of people who, following completion of the construction projects, will have obtained first-time or improved access to drinking water and sanitation or will be able to benefit from the constructed facilities. Whether people are actually reached cannot be estimated in practice until the infrastructure has become operational, and this is not what the indicator shows. Since a person may obtain first-time or improved access to both drinking water and sanitation, double counting is possible between the two indicators and between two years. The funding granted by the KfW comprises grants and loans financed from the federal budget and funds raised in the financial markets. The recipients are generally developing and emerging countries, which means that this indicator is related to indicator 17.1 “Official development assistance as a proportion of gross national income”.
 In 2019 the data collection method was revised. Whereas the indicator previously counted people who were reached either directly, e.g. by domestic connections, or indirectly, e.g. the entire population of a country supported by a sectoral reform programme, it now covers only those people who are reached directly. In 2017, for instance, of the total of 28.6 million recorded beneficiaries, 19.1 million were reached directly. In 2018, 15.2 million out of a total of 60.3 million were direct beneficiaries. Another change lies in the fact that the figure is based only on the proportion of beneficiaries who have been reached by German-funded share of measures. Contributions made by other donors and the efforts of the host country itself are not counted. Similarly, no consideration is given to energy-efficiency measures, improvements to operational processes or renewals of pumping stations, since these do not lead directly to improved access for the target group.
@@ -2553,74 +2623,74 @@
 The commitments made by the KfW with regard to drinking water and sanitation rose by 26.0 % from 2012 to 2018 to more than 1 billion euros. In 2019 and 2020, these decreased to 677.1 million euros. By contrast with the commitments, disbursements have steadily declined since 2015 to the most recent figure of 432.1 million euros. One of the main reasons for this lies in the time lag between commitments and payments.</t>
         </is>
       </c>
-      <c r="L25" s="4" t="inlineStr">
+      <c r="L26" s="4" t="inlineStr">
         <is>
           <t>6.a.1</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
         <v>45674</v>
       </c>
     </row>
-    <row outlineLevel="0" r="26">
-      <c r="A26" s="4" t="inlineStr">
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>Z07_B01_P01</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>07.1.a,b</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>Endenergieproduktivität und Primärenergieverbrauch</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Final energy productivity and primary energy consumption</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Der Indikator „Endenergieproduktivität“ stellt die Entwicklung der Wertschöpfung je eingesetzte Einheit Endenergie dar. Der Begriff „Endenergie“ bezieht sich dabei auf den Teil der Energie, der energetisch als thermische oder elektrische Energie zur Herstellung von Gütern oder zur Nutzung in den privaten Haushalten zur Verfügung steht.
 Der Indikator „Primärenergieverbrauch“ gibt an, wie viel Energie in einem Land einerseits in den Energiesektoren zur Umwandlung sowie andererseits in der Produktion, den privaten Haushalten und im Verkehr verbraucht wurde.</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>The indicator “Final energy productivity” shows the trend of value added per unit of final energy used. The concept of “final energy” refers to the part of the energy that is used energetically in terms of thermal or electric energy in the production sectors for the manufacturing of goods or by households.
 The indicator ”Primary energy consumption” specifies how much energy was consumed by a country in the energy sectors for conversion purposes on the one hand, and by production activities, transport and households on the other.</t>
         </is>
       </c>
-      <c r="H26" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>Die Senkung des Energieverbrauchs durch eine Steigerung der Energieeffizienz ist neben dem Ausbau erneuerbarer Energien die zweite tragende Säule der Energiewende. Ziel ist es, mit möglichst wenig Energie viel wirtschaftliche Leistung zu erreichen. Energieeinsparung schont Klima und Umwelt, trägt zur Verbesserung der Versorgungssicherheit und zur Wettbewerbsfähigkeit der Industrie bei.
 Dem Energiekonzept der Bundesregierung zufolge soll die Endenergieproduktivität in den Jahren 2008 bis 2050 jährlich um 2,1 % bzw. um insgesamt 139 % bis 2050 erhöht werden. Gleichzeitig soll sich der Primärenergieverbrauch bis 2020 um 20 %, bis 2030 um 30 % und bis 2050 um 50 % gegenüber dem Jahr 2008 verringern.</t>
         </is>
       </c>
-      <c r="I26" s="5" t="inlineStr">
+      <c r="I27" s="5" t="inlineStr">
         <is>
           <t>Along with the expansion of renewable energies, the reduction of energy consumption through increased energy efficiency represents the second supporting pillar of the energy transition. The goal is to achieve a high level of economic output while using as little energy as possible. Saving energy protects the climate and the environment, it helps to improve the security of supply and the industrial competitiveness.
 According to the Federal Government’s energy concept, final energy productivity is to be increased by 2.1 % annually or 139 % in total in the period 2008 to 2050. At the same time, primary energy consumption is to be reduced by 20 % by 2020, by 30 % by 2030, and by 50 % by 2050, compared with 2008.</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>Endenergie- und Primärenergieverbrauch sind direkt miteinander verbunden. Der Endenergieverbrauch ergibt sich aus dem Primärenergieverbrauch abzüglich der Summe aus Umwandlungs-, Fackel- und Leitungsverlusten sowie der statistischen Differenz.
 Der Primärenergieverbrauch ist die Summe aus den im Inland gewonnenen Primärenergieträgern, Vorratsentnahmen und sämtlichen importierten Energieträgern abzüglich der Bevorratung, Energieexporte und Hochseebunkerungen. Wesentliche Grundlage für die Berechnung des Energieverbrauchs sind die Daten der Energiebilanzen der Arbeitsgemeinschaft Energiebilanzen (AGEB), welche um Daten aus weiteren Quellen ergänzt werden.
@@ -2629,7 +2699,7 @@
 Der Primärenergieverbrauch ist im Jahr 2020 auf 82,7 % gesunken und hat damit das Ziel einer Reduktion um 20 % bis zum Jahr 2020 nicht erreicht. Im Jahr 2021 stieg der Primärenergieverbrauch nach vorläufigen Ergebnissen erneut um 3,6 Prozentpunkte gegenüber 2020 an. Der gesamte Rückgang des Primärenergieverbrauchs im Jahr 2021 gegenüber 2008 beläuft sich somit nur noch auf 13,7 %. Bei einer Fortsetzung der Entwicklung würde die vorgesehene Reduktion des Primärenergieverbrauchs um 30 % bis 2030 nicht erreicht.</t>
         </is>
       </c>
-      <c r="K26" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>Final energy consumption and primary energy consumption are directly related to one another. Final energy consumption is primary energy consumption less total losses from transformation, flaring and distribution and the statistical difference.
 Primary energy consumption is the sum of domestically extracted primary energy sources, use of stocks and all imported energy sources minus storage, energy exports and marine bunkers. The main basis for the calculation of energy consumption comprises the data on energy balances from the Energy Balance Association (AGEB), which are supplemented with data from other sources.
@@ -2638,70 +2708,70 @@
 Primary energy consumption decreased to 82.7 % in 2020 and missed the reduction target of 20 % by 2020. According to preliminary results, the primary energy consumption increased in 2021 by 3.6 % percentage points in comparison to 2020. The total reduction of primary energy consumption fell by 13.7 % in the period from 2008 to 2021. If development remains the same as in the previous years, the target value of 30 % by 2030 will not be achieved.</t>
         </is>
       </c>
-      <c r="L26" s="4" t="inlineStr">
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t>7.3.1</t>
         </is>
       </c>
-      <c r="M26" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N26" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
         <v>45674</v>
       </c>
     </row>
-    <row outlineLevel="0" r="27">
-      <c r="A27" s="4" t="inlineStr">
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>07.2.a</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>Anteil erneuerbarer Energien am Brutto-Endenergieverbrauch</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Share of renewable energies in gross final energy consumption</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Der Indikator setzt die Erzeugung erneuerbarer Energien in Relation zum Brutto-Endenergieverbrauch. Der Brutto-Endenergieverbrauch umfasst den Energieverbrauch beim Letztverbraucher, die Übertragungsverluste sowie den Eigenverbrauch der Energiegewinnungsbereiche.</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>The indicator expresses the generation of renewable energies relative to gross final energy consumption. Gross final energy consumption covers energy consumption by end consumers and transmission losses as well as the self-consumption of the energy generation sector.</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>Die Reserven fossiler Energieträger wie Öl und Gas sind begrenzt. Darüber hinaus ist ihre Nutzung mit der Emission von Treibhausgasen verbunden. Ein Umstieg auf erneuerbare Energien, die sich als natürliche Energiequellen ständig regenerieren, verringert die energetisch bedingten Emissionen und folglich das Ausmaß des Klimawandels. Zusätzlich werden die Abhängigkeit von Energieimporten und der Ressourcenverbrauch gemindert sowie technische Innovationen gefördert. Ziel der Bundesregierung ist es daher, den Anteil der erneuerbaren Energien am Brutto-Endenergieverbrauch bis zum Jahr 2020 auf 18 %, bis 2030 auf 30 %, bis 2040 auf 45 % und bis 2050 auf 60 % zu erhöhen.</t>
         </is>
       </c>
-      <c r="I27" s="5" t="inlineStr">
+      <c r="I28" s="5" t="inlineStr">
         <is>
           <t>The reserves of fossil fuels such as oil and gas are limited, and their use is associated with greenhouse gas emissions. Switching to renewable energies (natural energy sources that constantly regenerate) serves to reduce energy-related emissions and hence the extent of climate change. In addition, dependency on energy imports and the consumption of resources is reduced as well as technical innovations are promoted. For this reason, the goal of the Federal Government is to increase the share of renewable energy in gross final energy consumption to 18 % by 2020, to 30 % by 2030, to 45 % by 2040 and to 60 % by 2050.</t>
         </is>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>Bei diesem Indikator werden der aus erneuerbaren Energiequellen erzeugte Strom (unter anderem aus Wasserkraft, Windkraft auf Land und auf See, Solarenergie) und die Wärme (unter anderem aus Geothermie, Biomasse oder biogenen Abfällen) sowie regenerative Kraftstoffe zu allen in Deutschland verbrauchten Energieträgern in Beziehung gesetzt. Dazu zählen neben den erneuerbaren Energien auch importierter Strom und fossile Energieträger wie Braun- und Steinkohle, Öl und Gas.
 Der Indikator wird von der Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat) berechnet. Im Unterschied zur Berichterstattung gemäß der Erneuerbare-Energien-Richtlinie (Richtlinie 2009/28/EG) der Europäischen Union (EU), die aufgrund des jährlich unterschiedlichen Dargebots bei Wasser- und Windkraft einen Durchschnittswert über mehrere Jahre vorsieht, werden für diesen Indikator die tatsächlich erzeugten Strommengen (Wind- und Wasserkraft) berücksichtigt (Energiekonzept der Bundesregierung).
@@ -2711,7 +2781,7 @@
 Der Indikator weist Querbezüge zu den Indikatoren 13.1.a „Treibhausgasemissionen“, 3.2.a „Emissionen von Luftschadstoffen“ und 7.2.b „Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch“ auf.</t>
         </is>
       </c>
-      <c r="K27" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>For this indicator, the electricity generated from renewable sources, which include hydro power, onshore and offshore wind power and solar power, the heat generated from sources such as geothermal energy, biomass and biogenic waste and the consumption of regenerative motor fuels are presented as a percentage of the energy generated from all sources that is consumed in Germany. Besides renewables, these sources also include imported electricity and fossil fuels such as coal and lignite, oil and gas.
 The indicator is calculated by AGEE-Stat, the Working Group on Renewable Energy Statistics. In contrast to the reporting under the Renewable Energy Directive of the European Union (Directive 2009/28/EC), uses an average value for hydro and wind power over several years to smoothen the effects of varying supply, this indicator takes account of the volumes of electricity actually generated from wind and hydro power (German Government Energy Concept).
@@ -2721,72 +2791,72 @@
 The indicator has cross-references to indicators 3.2.a “Emissions of air pollutants”, 7.2.b “Share of electricity from renewable sources in gross electricity consumption” and 13.1.a “Greenhouse gas emissions”.</t>
         </is>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="L28" s="4" t="inlineStr">
         <is>
           <t>7.2.1</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N27" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
         <v>45506</v>
       </c>
     </row>
-    <row outlineLevel="0" r="28">
-      <c r="A28" s="4" t="inlineStr">
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01_Ib02</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>Z07_B02_P01</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>07.2.b</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Share of electricity from renewable energy sources in gross electricity consumption</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil des Stroms aus erneuerbaren Energiequellen am Bruttostromverbrauch wieder.</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>The indicator reflects the share of electricity from renewable energy sources in gross electricity consumption.</t>
         </is>
       </c>
-      <c r="H28" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>Ein Umstieg auf erneuerbare Energien, die sich als natürliche Energiequellen ständig regenerieren, kann den Bedarf an fossilen Energieträgern verringern. Dadurch würde sowohl die Abhängigkeit von Importen konventioneller Energieträger reduziert als auch der Ausstoß energetisch bedingter Emissionen verringert und damit das Ausmaß des Klimawandels eingedämmt. Die Bundesregierung hatte sich daher als Ziel gesetzt, den Anteil des Stroms aus erneuerbaren Energiequellen gemessen am Bruttostromverbrauch bis zum Jahr 2020 auf mindestens 35 % und bis zum Jahr 2030 auf 80 %&lt;sup&gt;1&lt;/sup&gt; zu steigern. Vor dem Jahr 2050 soll der gesamte in Deutschland erzeugte und verbrauchte Strom treibhausgasneutral sein. Das Ziel für 2030 basiert auf der Novelle des Erneuerbare-Energien-Gesetzes (EEG) 2023, nach der das „Erneuerbaren-Ziel“ auf einen höheren Bruttostrombedarf von 680 bis 750 Terawattstunden (TWh) im Jahr 2030 auszurichten ist und wovon 80 % (vorher: 65 %) aus erneuerbaren Energien stammen sollen. Im Jahr 2021 wurden 234 TWh Strom aus erneuerbaren Energien erzeugt. Gemessen am neuen „Erneuerbaren-Ziel“ wurde 2021 somit etwa ein Drittel des Bruttostrombedarfs durch Stromproduktion aus erneuerbaren Energien gedeckt.
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung des Zielwertes von 65 % bis 2030 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="I28" s="5" t="inlineStr">
+      <c r="I29" s="5" t="inlineStr">
         <is>
           <t>Switching to renewable energies (natural energy sources that constantly regenerate) can reduce the demand for fossil fuels. As a result, the dependency on imports of conventional fuels would be reduced, as would energy-related emissions, and hence the extent of climate change would be mitigated. The Federal Government had therefore set itself the aim of increasing the share of electricity from renewable sources in gross electricity consumption to at least 35 % by 2020 and at least 80 %&lt;sup&gt;1&lt;/sup&gt; by 2030. Before 2050, all electricity generated and consumed in Germany is to be greenhouse gas neutral. The target for 2030 is based on the amendment of the Renewable Energy Sources Act (EEG) in 2023, whereby the “renewable target” was realigned to a higher gross electricity consumption from 680 to 750 terawatt hours (TWh) in 2030 and where 80 % (previously 65 %) has to be covered by electricity derived from renewable energy sources. In 2021, 234 TWh electricity was derived from renewable energy sources. According to the amended renewable energy target, a third of gross electricity consumption was covered by electricity from renewable energy in the same year.
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target value from 65 % by 2030 according to policy resolution in 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>Die Berechnung des Indikators erfolgt durch die Arbeitsgruppe Erneuerbare Energien-Statistik (AGEE-Stat) auf Basis unterschiedlicher amtlicher und nicht amtlicher Quellen. Der Bruttostromverbrauch umfasst die gesamte erzeugte und importierte Strommenge abzüglich des exportierten Stroms. Er setzt sich somit aus der inländischen Stromerzeugung, dem Austauschsaldo über die Landesgrenzen, dem Eigenstromverbrauch der Kraftwerke als auch den Netzverlusten zusammen. Als erneuerbare Energiequellen gelten Windenergie, Wasserkraft, solare Strahlungsenergie, Geothermie und Biomasse einschließlich Biogas, Biomethan, Deponie- und Klärgas sowie der biologisch abbaubare Anteil von Abfällen aus Haushalten und Industrie.
 Das im Energiekonzept der Bundesregierung für 2020 angestrebte Ziel von mindestens 35 % Anteil erneuerbarer Energien am Stromverbrauch ist bereits im Jahr 2017 erreicht worden. Der Anteil ist auch in den Folgejahren bis 2020 weiterhin angestiegen und erreichte 2020 45,2 %. Diese Entwicklung wurde durch gesetzliche Maßnahmen, wie zum Beispiel das Erneuerbare-Energien-Gesetz (EEG), vorangetrieben. Das EEG verpflichtet die Netzbetreiber unter anderem, erneuerbaren Energien bei der Stromeinspeisung Vorrang zu gewähren. Im Jahr 2021 ging der Anteil der erneuerbaren Energien am Stromverbrauch auf 41,1 % zurück und bewegt sich somit kurzfristig nicht mehr auf den nächsten Zielwert für das Jahr 2030 zu. Diese kurzfristige Entwicklung ist durch eine Zunahme des Bruttostromverbrauchs und einen witterungsbedingten Rückgang der Stromerzeugung aus erneuerbaren Energien zu erklären. Allerdings würde auch eine Fortsetzung des bisherigen längerfristigen Trends der vergangenen Jahre nicht ausreichen, das Ziel für das Jahr 2030 zu erreichen. Auch das ehemalige Ziel der Regierung von 65 % Strom aus erneuerbaren Energien bis 2030 würde bei einer Fortschreibung des Trends nicht erreicht werden. Für die Zielerreichung von 80 % bis 2030 wäre ein deutlich höherer jährlicher Zuwachs als im bisherigen langfristigen Schnitt nötig. Ein zu erwartender höherer Strombedarf dürfte die Zielerreichung bis 2030 zusätzlich erschweren.
@@ -2795,7 +2865,7 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Dies ist ein rein mathematischer Effekt, der keine Korrelation zwischen Austauschsaldo und Bruttostromverbrauch darstellen soll.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="K28" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>The indicator is calculated by the Working Group on Renewable Energies Statistics (AGEE-Stat) based on different official and unofficial sources. Gross electricity consumption is the sum of all generated and imported electricity minus the amount of exported electricity. It therefore comprises the domestic electricity generation, the balance of exchanges across national borders, the self-consumption of power plants as well as transmission losses. The following are considered to be renewable energy sources: wind energy, hydropower, solar radiation energy, geothermal energy and biomass including biogas, biomethane, landfill gas and gas from purification plants as well as the bio-degradable proportion of waste from households and the industry.
 The target set by the German Government in its energy policy blueprint of at least 35 % share of renewable energies on gross electricity consumption by 2020 was already achieved in 2017. In subsequent years, the share maintained an increase up to 45.2 % by 2020. This development was supported by legal measures, for instance the EEG. The EEG requires, among other things, network operators to give priority feed-in to renewable energy. In 2021, the share of renewable energy on gross energy consumption decreased to 41.1 % and, thus, is not moving into the direction of the target value for 2030 in the short-run. This can be explained by an increment in gross electricity consumption and weather-related decline in electricity production from renewable energy sources. However, even if the past long-term trend of previous years continues, the target for 2030 would be missed. Moreover, the previous target of the Federal Government to derive 65 % of the electricity from renewable resources by 2030 would be missed, if the long-term trend continues. The target of 80 % by 2030 could only be achieved if the annual increment would be significantly higher than the previous long-term average. Further, an expected increase in electricity consumption exacerbates the achievement of the target value by 2030.
@@ -2804,72 +2874,72 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;This is a purely mathematical effect and does not refer to a correlation between the exchange balance and gross electricity consumption.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="L28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M28" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N28" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
         <v>45601</v>
       </c>
     </row>
-    <row outlineLevel="0" r="29">
-      <c r="A29" s="4" t="inlineStr">
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>Z08_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>Z08_B01_P01</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>08.1</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>Gesamtrohstoffproduktivität</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>Raw material input productivity</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Der Indikator Gesamtrohstoffproduktivität setzt den Wert aller an die letzte Verwendung abgegebenen Güter (in Euro, preisbereinigt) in Relation zur Masse der für ihre Produktion im In- und Ausland eingesetzten Rohstoffe (in Tonnen). Die letzte Verwendung umfasst dabei sowohl inländischen Konsum und inländische Investitionen als auch den Export.
 Im Nenner des Indikators werden sowohl aus der Umwelt entnommene abiotische und biotische Rohstoffe berücksichtigt als auch Pflanzenmaterial, das durch die Land- und Forstwirtschaft produziert wurde. In der Grafik sind sowohl der Indikator selbst als auch Zähler und Nenner einzeln dargestellt.</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>The indicator of raw material input productivity compares the value of all goods provided for final use (in euros, price-adjusted) relative to the mass of the raw materials used domestically and abroad for their production (in tonnes). Final use covers domestic consumption and domestic investments as well as exports.
 The denominator of the indicator takes into account abiotic and biotic raw materials from the environment as well as plant materials produced by farming and forestry. In the graph, the development of the indicator itself and of both the numerator and the denominator are traced separately.</t>
         </is>
       </c>
-      <c r="H29" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>Die Entnahme von Rohstoffen ist immer mit einer Beeinträchtigung der Natur verbunden. Durch die steigende Nachfrage nach Rohstoffen werden weltweit zunehmend Rohstoffvorkommen in Gebieten erschlossen, die besonders sensibel auf menschliche Einflüsse reagieren. Daher hat sich die Bundesregierung bereits im Deutschen Ressourceneffizienzprogramm (ProgRess) II im Jahr 2016 das Ziel gesetzt, dass die Gesamtrohstoffproduktivität weiterhin steigen soll. In den Jahren 2000 bis 2010 nahm die Gesamtrohstoffproduktivität bereits um durchschnittlich rund 1,6 % jährlich zu. Ein solch positiver Trend soll bis zum Jahr 2030 fortgesetzt werden.</t>
         </is>
       </c>
-      <c r="I29" s="5" t="inlineStr">
+      <c r="I30" s="5" t="inlineStr">
         <is>
           <t>The extraction of raw materials always entails some impairment of the natural environment. Owing to the growing demand for raw materials, raw material deposits in all parts of the world are increasingly being extracted in areas that are particularly sensitive to human intervention. For this reason, back in 2016, in the German Resource Efficiency Programme (ProgRess) II, the Federal Government set itself the goal of ensuring a continuing rise in raw material input productivity. In the years 2000 to 2010, raw material input productivity was already increasing at an average rate of around 1.6 % annually. The aim is to maintain this kind of positive trend up to 2030.</t>
         </is>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>Zur Berechnung dieses Indikators ist es unter anderem notwendig, die Masse aller Rohstoffe zu ermitteln, die für die Produktion der Importe benötigt wurden. Die Berechnung dieser als Importe in Rohstoffäquivalenten bezeichneten Größe basiert auf einem komplexen Modell, das Daten aus verschiedenen amtlichen und nicht amtlichen Quellen nutzt.
 Durch die monetäre sowie physische Einbeziehung der Importe berücksichtigt der Indikator Wertschöpfung und Rohstoffeinsatz über die gesamte in- und ausländische Produktionskette. Somit wird auch der wirtschaftlichen Verflechtung mit dem Ausland umfassend Rechnung getragen. Der im Indikator abgebildete Rohstoffeinsatz dient nicht allein der inländischen letzten Verwendung, sondern auch dem Export. Er darf daher nicht mit einem Rohstofffußabdruck Deutschlands verwechselt werden.
@@ -2879,7 +2949,7 @@
 Das Jahr 2009 ist durch die besondere wirtschaftliche Situation in der europäischen Finanzmarkt- und Wirtschaftskrise als Ausreißer zu betrachten. In den Jahren 2010 und 2011 nahmen Investitionen und Exporte sowie der damit verbundene Rohstoffeinsatz wieder merklich zu, sodass sich die Gesamtrohstoffproduktivität 2011 wieder auf dem Niveau von 2008 befand. Seitdem ist die Gesamtrohstoffproduktivität tendenziell gestiegen, wobei sie zwischenzeitlich auch stagnierte oder leichte Rückgänge verzeichnete. Am aktuellen Rand nahm der Wert des Indikators 2017 um 5 Prozentpunkte gegenüber dem Vorjahr zu, um 2018 einen leichten Rückgang von 1 Prozentpunkt zu registrieren. Insgesamt nahm die Gesamtrohstoffproduktivität im Zeitraum von 2010 bis 2018 um 9 Prozentpunkte zu. Damit lag ihr durchschnittliches jährliches Wachstum bei etwa 0,9 % und somit unter dem Zielpfad der Bundesregierung.</t>
         </is>
       </c>
-      <c r="K29" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>To calculate this indicator, it is necessary to determine the mass of all raw materials required to produce the imports. The calculation of this variable, referred to as imports in raw material equivalents, is based on a complex model that employs data from various official and unofficial sources.
 Due to the monetary and physical inclusion of imports, the indicator takes into account the value added and raw material use across the entire production chain both inside and outside of Germany. In this way, the economic interdependence with foreign countries is also taken into account comprehensively. The raw material use mapped in the indicator covers not only domestic final use but also exports. It should therefore not be confused with a resource footprint for Germany.
@@ -2889,69 +2959,69 @@
 The year 2009 should be considered an outlier due to the exceptional economic situation in the European financial market and economic crisis. In 2010 and 2011, investments and exports, as well as the associated input of raw materials, rose sharply again. This marked a resumption of the trend that had been seen in the period up to 2008. Although raw material input productivity slightly decreased or stagnated at some points in time, the general trend tended to improve. The indicator increased by 5 percentage points in 2017 compared to the preceding year, however, 2018 recorded a slight decline by 1 percentage point. In total, raw material input productivity increased from 2010 to 2018 by 9 percentage points with an average annual growth of 0.9 % and, thus, lies below the target of the Federal Government.</t>
         </is>
       </c>
-      <c r="L29" s="4" t="inlineStr">
+      <c r="L30" s="4" t="inlineStr">
         <is>
           <t>8.4.2</t>
         </is>
       </c>
-      <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N29" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N30" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>08.2.a,b</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>Staatsdefizit und strukturelles Defizit</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Government deficit, structural deficit</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren 8.2.a und 8.2.b setzen den Finanzierungssaldo des Staates und den strukturellen Finanzierungssaldo in Relation zum Bruttoinlandsprodukt (BIP) in jeweiligen Preisen. Der Finanzierungssaldo des Staates berechnet sich aus Staatseinnahmen abzüglich Staatsausgaben in der Abgrenzung der Volkswirtschaftlichen Gesamtrechnungen (VGR). Beim jährlichen strukturellen Saldo handelt es sich um denjenigen Teil des Finanzierungssaldos, der nicht auf konjunkturelle Schwankungen und temporäre Effekte zurückzuführen ist. Ein negativer Finanzierungssaldo wird als Defizit bezeichnet; ein positiver als Überschuss.</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>The indicators 8.2.a and 8.2.b show the financial balance of general government (deficit or surplus) and the structural financial balance as a percentage of gross domestic product (GDP) at current prices. The public financial balance is calculated as government revenue minus government expenditure, measured on a national accounts basis. The annual structural balance refers to the part of the financial balance that is not attributable to cyclical fluctuations and temporary effects. A negative financial balance is known as a deficit; a positive as a surplus.</t>
         </is>
       </c>
-      <c r="H30" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>Solide Staatsfinanzen sind ein wichtiger Beitrag zu einer nachhaltigen Finanzpolitik. Eine Politik, die heutige Staatsausgaben übermäßig durch Neuverschuldung finanzieren würde und die Rückzahlung dieser Schulden allein zukünftigen Generationen überließe, wäre nicht tragfähig.
 Entsprechend den Konvergenzkriterien für die Europäische Union (sogenannte Maastricht-Kriterien) soll das jährliche Staatsdefizit weniger als 3 % des BIP betragen. Das strukturelle Defizit soll maximal 0,5 % des Bruttoinlandsprodukts (BIP) betragen. Dies entspricht den Vorgaben des europäischen Stabilitäts- und Wachstumspaktes. Der Grundsatz des strukturell ausgeglichenen Haushalts ist seit 2009 auch im Grundgesetz verankert (Artikel 109, sogenannte Schuldenbremse).</t>
         </is>
       </c>
-      <c r="I30" s="5" t="inlineStr">
+      <c r="I31" s="5" t="inlineStr">
         <is>
           <t>Sound public finances are an essential element of a sustainable fiscal policy. A policy that relies too heavily on borrowing to fund current public expenditure and then passes this debt on to future generations is simply not sustainable.
 According to the convergence criteria for the European Union, known as the Maastricht criteria, the annual government deficit should be less than 3 % of GDP. The structural deficit must not exceed 0.5 % of GDP. These are the stipulations of the European Stability and Growth Pact. The guiding principle of the structurally balanced budget has also been enshrined in Germany’s Basic Law since 2009 (Article 109, referred to as the debt brake).</t>
         </is>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>Die Berechnung von Bruttoinlandsprodukt (BIP) und Finanzierungssaldo des Staates ist durch das Europäische System Volkswirtschaftlicher Gesamtrechnungen (ESVG) vorgegeben und wird vom Statistischen Bundesamt durchgeführt. Der strukturelle Finanzierungssaldo wird hingegen vom Bundesministerium der Finanzen (BMF) ermittelt. Bei der Berechnung des Finanzierungssaldos werden die Finanzen der Gebietskörperschaften, also von Bund, Ländern und Gemeinden, sowie die Finanzen der Sozialversicherung berücksichtigt.
 Nach der Finanzmarkt- und Wirtschaftskrise 2008/2009 erzielte der Staat erstmals im Jahr 2012 mit 0,3 Milliarden Euro wieder einen Überschuss. Bis 2018 stieg der Finanzierungssaldo schließlich auf 65,6 Milliarden Euro bzw. 1,9 % des BIP an. Im Jahr 2019 betrug der Finanzierungsüberschuss noch 53,2 Milliarden Euro bzw. 1,5 % des BIP (vorläufige Daten). Aufgrund der Corona-Pandemie kam es 2020 und 2021 erneut zu einem Finanzierungsdefizit. Dabei betrug das Defizit 2020 147,6 Miliarden Euro. Seit 1991 entstand nur 1995 ein noch höheres Defizit (178,7 Milliarden Euro). Im europäischen Vergleich lag Deutschland 2021 mit einem Finanzierungsdefizit von 3,7 % des BIP noch unter dem EU-Durchschnitt von 4,6 %. Zwölf Länder wiesen eine geringere Defizitquote als Deutschland auf; 14 eine höhere. Dänemark (+ 3,6 %) und Luxemburg (+ 0,8 %) erwirtschafteten sogar einen Überschuss.
@@ -2959,7 +3029,7 @@
 Nachdem die Staatseinnahmen 2020 kurzzeitig sanken, stiegen diese 2021 und lagen schließlich 5,9 % höher als noch im Jahr 2019. Die Staatsausgaben stiegen im gleichen Zeitraum jedoch um 18,1 %. Die größte Position auf der Ausgabenseite des Staates umfassten 2021 die monetären Sozialleistungen mit 33,1 % der Ausgaben (610,9 Milliarden Euro). 17,9 % entfielen auf soziale Sachleistungen (330,0 Milliarden Euro). 70,4 % der monetären Sozialleistungen waren der Sozialversicherung zuzuordnen und dort überwiegend der Deutschen Rentenversicherung (340,0 Milliarden Euro); während die Ausgaben für soziale Sachleistungen vorwiegend in der Gesetzlichen Krankenversicherung anfielen (249,9 Milliarden Euro).</t>
         </is>
       </c>
-      <c r="K30" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>The method used to calculate GDP and the financial balance of general government is laid down in the European System of National and Regional Accounts (ESA) and is applied by the Federal Statistical Office. The structural financial balance, on the other hand, is determined by the Federal Ministry of Finance. The calculation of government net borrowing takes into account the finances of the public authorities, that is to say the Federal Government, the Länder and local government, and the finances of the social insurance system.
 In 2012, the Government achieved an overall surplus of 0.3 billion euros, which was the first positive balance since the financial and economic crisis of 2008/2009. Financial balance increased to 65.6 billion euros or 1.9 % of GDP until 2018. In 2019, the financial surplus amounted to 53.2 billion euros and 1.5 % of GDP (preliminary data). A financial deficit in 2020 and 2021 emerged in consequence of the COVID-19 pandemic. The deficit in 2020 amounted to 147.6 billion euros. Since 1991, only 1995 had a higher deficit (178.7 billion euros). A European comparison of financial deficits in 2021 reveals that Germany’s negative financial balance of 3.7 % of GDP was below European average of 4.6 %. Twelve countries had a lower deficit ratio than Germany; 14 countries were above. Denmark (+ 3.6 %) and Luxembourg (+ 0.8 %) even generated a financial surplus.
@@ -2967,70 +3037,70 @@
 In 2020, government revenues decreased for a short time, however, they increased again in 2021 and were 5.9 % above the value in 2019. Government spendings increased by 18.1 % in the same period. The largest item on the expenditure side of the national accounts are social benefits other than social transfers in kind. These accounted for 33.1 % of government spendings (610.9 billion euros). Social benefits in kind accounted for 17.9 % (330.0 billion euros). 70.4 % of social benefits other than social transfers in kind fall under the heading of social insurance, primarily in the form of pensions (340 billion euros); spendings on social benefits in kind predominantly incurred for statutory health insurance (249.9 billion euros).</t>
         </is>
       </c>
-      <c r="L30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M30" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
+      <c r="L31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
         <v>45674</v>
       </c>
     </row>
-    <row outlineLevel="0" r="31">
-      <c r="A31" s="4" t="inlineStr">
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01_Ib02</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Z08_B02_P01</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>08.2.c</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>Schuldenstand</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>Government debt</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den konsolidierten Bruttoschuldenstand des Staates, das heißt in der Abgrenzung des Maastricht-Vertrages, in Relation zum Bruttoinlandsprodukt (BIP) in jeweiligen Preisen an. Damit dient der Indikator als Maßzahl der Staatsverschuldung.</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the government debt defined in the Maastricht Treaty as a percentage of gross domestic product (GDP) at current prices. The indicator therefore serves as a measure of government debt.</t>
         </is>
       </c>
-      <c r="H31" s="5" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>Im Stabilitäts- und Wachstumspakt der Europäischen Union (EU) ist der Referenzwert für die maximale Schuldenstandsquote auf 60 % des Bruttoinlandsprodukts (BIP) festgelegt. Dies ist auch die für diesen Bericht relevante nationale Zielwertobergrenze des Indikators.</t>
         </is>
       </c>
-      <c r="I31" s="5" t="inlineStr">
+      <c r="I32" s="5" t="inlineStr">
         <is>
           <t>The European Union’s Stability and Growth Pact specifies a reference value of 60 % as the maximum debt-to-GDP ratio. This also is the upper limit of the national target value of the indicator which is relevant for this report.</t>
         </is>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>Die Schulden des Staates werden von der Bundesbank gemäß Vorgaben des Maastricht-Vertrages zweimal jährlich basierend auf Berechnungen des Statistischen Bundesamtes ermittelt. Das Bruttoinlandsprodukt (BIP) in jeweiligen Preisen wird im Rahmen der Volkswirtschaftlichen Gesamtrechnungen (VGR) im Statistischen Bundesamt berechnet.
 Die Schuldenstandsquote wird sowohl von der Situation der öffentlichen Haushalte als auch von der wirtschaftlichen Entwicklung beeinflusst. Bei gleichbleibenden öffentlichen Schulden sinkt die Schuldenstandsquote daher umso schneller, je stärker das BIP wächst. Andersrum kann die Schuldenstandsquote auch steigen, wenn sich die absoluten Schulden verringern, das BIP aber im gleichen Zeitraum einen stärkeren Rückgang aufweist. Unberücksichtigt ist hingegen die implizite Staatsverschuldung, das heißt die zukünftig zugesicherten, jedoch noch nicht geleisteten Zahlungsverpflichtungen des Staates.
@@ -3041,7 +3111,7 @@
 Den Schulden des Staates stehen auf der Aktivseite der Vermögensbilanz die Vermögensgüter (Sach- und Geldvermögen) gegenüber. Nach der Vermögensrechnung des Statistischen Bundesamtes hatten die Sachanlagen im Jahr 2020 einen Vermögenswert (nach Abschreibungen) von 1 509 Milliarden Euro. Die größte Vermögensposition des Staates waren die Bauten (Straßen, Schulen, öffentliche Gebäude) mit 1 284 Milliarden Euro, was über ein Drittel des gesamten Vermögens des Staates ausmachte (34,4 %). Das Geldvermögen betrug 1 555 Milliarden Euro (2020). Darunter bildeten die Wertpapiere den größten Vermögenswert (52,0 %).</t>
         </is>
       </c>
-      <c r="K31" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>The government debt is determined by the Bundesbank twice annually pursuant to the requirements of the Maastricht Treaty and based on calculations by the Federal Statistical Office. The GDP at current prices is determined by the Federal Statistical Office as part of the national accounts system.
 The debt-to-GDP ratio is influenced by the state of the public budgets and by economic development in general. According to the formula – assuming stable debt – the debt ratio falls faster the stronger GDP growth. On the other hand, the debt-to-GDP ratio can increase, if the GDP shows a stronger decline than the absolute debt in the same period of time. Furthermore, the indicator excludes implicit government debt, which refers to the government’s future payment obligations that are pledged but not yet due.
@@ -3052,67 +3122,67 @@
 In the national balance of assets, the government debt is balanced by its assets – both tangible and financial. According to the national wealth accounts compiled by the Federal Statistical Office, fixed assets were valued (after amortisation) at 1,509 billion euros in 2020. The biggest asset owned by the government is its buildings and structures (roads, schools, public buildings) at a value of 1,284 billion euros, accounting for more than a third of the total assets of the state (34.4 %). The financial assets were valued at 1,555 billion euros (2020). Among them, securities represent the most highly valued asset (52.0 %).</t>
         </is>
       </c>
-      <c r="L31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M31" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N31" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N32" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>Z08_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>Z08_B03_P01</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>08.3</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>Verhältnis der Bruttoanlageinvestitionen zum BIP</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>Gross fixed capital formation in relation to GDP</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Anteil der Bruttoanlageinvestitionen am nominalen Bruttoinlandsprodukt, das heißt in jeweiligen Preisen. Dieser Anteil wird auch als Investitionsquote bezeichnet. Die Bruttoanlageinvestitionen umfassen den Zugang (also den Erwerb abzüglich der Veräußerungen ohne Berücksichtigung von Abschreibungen) von Anlagegütern durch gebietsansässige Wirtschaftseinheiten. Anlagegüter sind produzierte Vermögensgüter, die im Produktionsprozess wiederholt oder kontinuierlich länger als ein Jahr eingesetzt werden sollen. Hierzu zählen Bauten (Wohnbauten, Nichtwohnbauten), Ausrüstungen (Maschinen, Fahrzeuge, Geräte einschließlich militärische Waffensysteme) und sonstige Anlagen (Nutztiere und -pflanzungen sowie geistiges Eigentum, wie Investitionen in Forschung und Entwicklung, Software und Datenbanken, Urheberrechte und Suchbohrungen). Eingeschlossen sind auch wesentliche Verbesserungen an vorhandenem Anlagevermögen.</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the share of gross fixed capital formation relative to nominal gross domestic product (which means at current prices). This share is also referred to as the investment ratio. The level of gross fixed capital formation includes additions (that is, acquisitions less disposals without taking into account consumption of fixed capital) of fixed assets by resident economic units. Fixed assets are produced assets that are designed for repeated or continuous use in production processes for longer than a year. These include buildings and structures (dwellings, other buildings and structures), equipment (machinery, vehicles, tools including weapons systems) and other assets (intellectual property such as investments in research and development, computer software and databases, entertainment, literary or artistic originals, mineral exploration and evaluation as well as animal resources and tree, crop and plant resources). Also included are improvements on existing stocks of fixed assets that lead to a significant increase in the value of an asset and/or prolong its useful life.</t>
         </is>
       </c>
-      <c r="H32" s="5" t="inlineStr">
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t>Die zukünftige wirtschaftliche Leistungskraft und die Wettbewerbsfähigkeit einer Volkswirtschaft hängen entscheidend von den Investitionen der Unternehmen und des Staates ab. Daher ist das Ziel der Bundesregierung eine angemessene Entwicklung des Anteils der Bruttoanlageinvestitionen am Bruttoinlandsprodukt (BIP).</t>
         </is>
       </c>
-      <c r="I32" s="5" t="inlineStr">
+      <c r="I33" s="5" t="inlineStr">
         <is>
           <t>The future strength and competitiveness of an economy depend crucially on corporate and governmental investments. For this reason, the target of the Federal Government is to promote appropriate development of the ratio of gross fixed capital formation to gross domestic product (GDP).</t>
         </is>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>Die Bruttoanlageinvestitionen und das Bruttoinlandsprodukt (BIP) werden im Rahmen der Volkswirtschaftlichen Gesamtrechnungen (VGR) vom Statistischen Bundesamt ermittelt. Die Erstellung der VGR folgt international harmonisierten Regeln und Standards, wie dem Europäischen System Volkswirtschaftlicher Gesamtrechnungen (ESVG), und basiert auf allen verfügbaren, relevanten Datenquellen.
 Im Jahr 2021 lag der Anteil der Bruttoanlageinvestitionen am BIP für das gesamte Bundesgebiet bei 21,8 %, preisbereinigt bei 21,0 %. Der Indikator hat sich kurz- und mittelfristig betrachtet in die gewünschte Richtung entwickelt. Seit dem Jahr 2015 (20,0 %) ist ein leichter Anstieg der Quote zu verzeichnen. Mangels einer Definition, was als angemessene Entwicklung gilt, ergibt sich bei Betrachtung der letzten sechs Datenpunkte ein positives Bild. Gegenüber 1991 ist die Investitionsquote jedoch um 3,1 Prozentpunkte und gegenüber 2000 um 1,4 Prozentpunkte niedriger. Preisbereinigt liegt der Anteil der Bruttoanlageinvestitionen am BIP gegenüber 1991 um 1,1 Prozentpunkte zurück. Die Investitionsquote in Deutschland ist seit 1996 durchgehend unterhalb der Investitionsquote für den gesamten OECD-Raum (zuletzt 2020: 22,2 %). Betrug der Abstand zwischen 2001 und 2010 noch durchschnittlich –2,4 Prozentpunkte, so verringerte sich dieser im Zeitraum 2011 bis 2020 auf –1,0. In den Jahren 2015 bis 2021 stiegen die Bruttoanlageinvestitionen kräftig um 29,4 % und erreichten ein Niveau von 783,8 Milliarden Euro. Da der Anstieg des nominalen BIP im selben Zeitraum etwas geringer ausfiel (19,0 %), erhöhte sich die Investitionsquote nur leicht von 20,0 % auf 21,8 %. Das kräftigste nominale Wachstum ergab sich seit dem Jahr 2010 im Bereich der Wohnbauten (+92,6 %), während die Investitionen im Bereich der Nichtwohnbauten (sowohl im Hoch- als auch im Tiefbau) im selben Zeitraum weniger stark anstiegen (+52,7 %) und in den Jahren 2012 und 2015 sogar leicht rückläufig waren. Die Ausrüstungsinvestitionen erhöhten sich um 28,0 %. Im Vergleich zu 1991 verzeichneten demgegenüber die Investitionen in Forschung und Entwicklung sowie in Software und Datenbanken die stärksten Zuwächse. Ihr Volumen hat sich mehr als verdreifacht.
@@ -3120,7 +3190,7 @@
 Bei Betrachtung nach Bundesländern war für das zuletzt vorliegende Berichtsjahr 2019 die höchste Investitionsquote in Niedersachen mit 27,6 % und die niedrigsten Investitionsquoten in Bremen mit 15,7 % und Nordrhein-Westfalen mit 16,4 % zu verzeichnen.</t>
         </is>
       </c>
-      <c r="K32" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>The value of gross fixed capital formation and GDP is determined by the Federal Statistical Office as part of national accounts. National accounts are compiled in accordance with harmonised international rules and standards, that is, the European System of Accounts (ESVG), and are based on all available, relevant data sources.
 In 2021, the ratio of gross fixed capital formation to GDP was at 21.8 % for the entire federal territory, price adjusted at 21.0 %. The indicator has moved into the desired direction both in the short and medium term. Since 2015, the quota slightly increased (20.0 %). The lack of a definition for appropriate development causes a positive appearance when considering the last six data points. In comparison, the investment ratio was 3.1 percentage points below the initial value in 1991 as well as 1.4 percentage points lower than in 2000. After price adjustments, the share of gross fixed capital formation relative to GDP is 1.1 percentage points below the value in 1991. Since 1996, the average investment ratio in Germany is lower than the investment ratio for the entire OECD region (2020: 22.2 %). While the difference between 2001 and 2010 was – 2.4 percentage points on average, latter decreased in the period from 2011 to 2020 to – 1.0. In the years from 2015 to 2021, gross fixed capital formation soared by a total of 29.4 %, reaching 783.8 billion euros. Since the increase in nominal GDP was somewhat lower, at 19.0 %, the investment ratio increased slightly from 20.0 % to 21.8 %. With regard to investments in building projects, housing construction has recorded strong nominal growth (+ 92.6 %) since 2010, while the growth of investments in non-residential construction, including civil engineering, in the same period was less pronounced (52.7 %) and even dipped slightly in 2012 and 2015. Equipment investments increased by 28.0 %. The strongest growth since 1991 was recorded for investments in research and development as well as in computer software and databases. Its volume almost tripled.
@@ -3128,70 +3198,70 @@
 Most recent data for the German Länder in 2019 reveals, that the highest investment ratio was measured for Lower Saxony at 27.6 % and the lowest investment ratios were measured for Bremen and North Rhine-Westphalia at 15.7 % and 16.4 %, respectively.</t>
         </is>
       </c>
-      <c r="L32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M32" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N32" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
         <v>45674</v>
       </c>
     </row>
-    <row outlineLevel="0" r="33">
-      <c r="A33" s="4" t="inlineStr">
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>Z08_B04_P01_Ib01</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>Z08_B04_P01</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>08.4</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>Bruttoinlandsprodukt je Einwohnerin und Einwohner</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Gross domestic product per capita</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt das preisbereinigte Bruttoinlandsprodukt (BIP) je Einwohnerin bzw. Einwohner in Deutschland auf Basis des Jahres 2015. Das BIP misst den Wert der im Inland erwirtschafteten Leistung; als Einwohnerinnen und Einwohner gelten dabei alle Personen, die in Deutschland ihren ständigen Wohnsitz haben.</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>The indicator shows price-adjusted gross domestic product (GDP) per capita (inhabitants) in Germany at 2015 prices. GDP measures the value of all goods and services produced in the domestic economy; inhabitants means all persons whose permanent residence is in Germany.</t>
         </is>
       </c>
-      <c r="H33" s="5" t="inlineStr">
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t>Zwischen der Entwicklung des Bruttoinlandsprodukts (BIP) und den anderen Indikatoren der Nachhaltigkeitsstrategie gibt es vielfältige Beziehungen. So spielen soziale Faktoren wie die Bevölkerungsstruktur, das Arbeitskräfteangebot, das Bildungssystem sowie der soziale Zusammenhalt in der Gesellschaft eine wichtige Rolle für die internationale Wettbewerbsfähigkeit der Wirtschaft. Das BIP gilt als wichtiger Indikator für Konjunktur und Wachstum einer Volkswirtschaft. Folglich ist das Ziel ein stetiges und angemessenes Wachstum.</t>
         </is>
       </c>
-      <c r="I33" s="5" t="inlineStr">
+      <c r="I34" s="5" t="inlineStr">
         <is>
           <t>Changes in GDP are related in a variety of ways to other indicators included within the strategy for sustainable development. Social factors such as the population structure, the labour supply, the educational system and social cohesion play an important role in society with regard to international economic competitiveness. GDP is regarded as an important indicator of the strength and growth of a national economy, and so the goal is to achieve continuous and appropriate levels of GDP growth.</t>
         </is>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>Im Jahr 2021 lag das preisbereinigte Bruttoinlandsprodukt (BIP) je Einwohnerin und Einwohner bei etwa 38 509 Euro und damit 2,6 % höher als im Vorjahr. Zwischen 1991 und 2021 hat sich das BIP je Einwohnerin und Einwohner preisbereinigt insgesamt um 38,8 % erhöht. Aufgrund der Corona-Pandemie sank jedoch das preisbereinigte BIP je Einwohnerin bzw. Einwohner im Jahr 2020 um 3,8 %. Nur im Jahr 2009 brach das preisbereinigte BIP je Einwohnerin bzw. je Einwohner infolge der weltweiten Finanzmarkt- und Wirtschaftskrise mit einem Rückgang von 5,4 % noch stärker ein. Mangels einer Definition von angemessenem und stetigem Wirtschaftswachstum kann lediglich die durchschnittliche jährliche Veränderung der letzten fünf Jahre betrachtet werden. Diese lag bei 0,7 %. Der Indikator hat sich damit bei längerfristiger Betrachtung in eine positive Richtung entwickelt.
 Bei Betrachtung der Ergebnisse nach Bundesländern wies Mecklenburg-Vorpommern mit rund 26 500 Euro das niedrigste und Hamburg mit etwa 59 700 Euro das höchste reale BIP je Einwohnerin und Einwohner auf.
@@ -3202,7 +3272,7 @@
 Basis für die Berechnung des BIP je Einwohnerin und Einwohner sind die auf den Zensus 2011 zurückgerechneten und fortgeschriebenen durchschnittlichen Bevölkerungszahlen des Statistischen Bundesamtes.</t>
         </is>
       </c>
-      <c r="K33" s="5" t="inlineStr">
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>In 2021, the price adjusted GDP was 38,509 euros per capita and, thus, 2.6 % higher than in the previous year. Between 1991 and 2021, price-adjusted GDP per head of population increased by a total of 38.8 %. In consequence of the COVID-19 pandemic, the price adjusted GDP per head of population decreased in 2020 by 3.8 %. Only in 2009, price adjusted per capita GDP fell by 5.4 % as a result of the global financial and economic crisis and, thus, decreased to a larger extent. The absent definition for appropriate and continuous economic growth causes the consideration of the average annual change for the preceding five years. These was 0.7 %. Therefore, the indicator developed in a positive direction long-term.
 Considering the results of the German Länder, Mecklenburg Western Pomerania had the lowest (26,500 euros) and Hamburg had the highest (59,700 euros) real GDP per capita.
@@ -3213,70 +3283,70 @@
 The basis for the calculation of per capita GDP comprise the average population figures interpolated and extrapolated by the Federal Statistical Office from the 2011 census data.</t>
         </is>
       </c>
-      <c r="L33" s="4" t="inlineStr">
+      <c r="L34" s="4" t="inlineStr">
         <is>
           <t>8.1.1</t>
         </is>
       </c>
-      <c r="M33" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
         <v>45539</v>
       </c>
     </row>
-    <row outlineLevel="0" r="34">
-      <c r="A34" s="4" t="inlineStr">
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>Z08_B05_P01_Ib01</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>Z08_B05_P01</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>08.5.a,b</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>Erwerbstätigenquote</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>Employment rate</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren geben die Anteile der Erwerbstätigen im Alter von 20 bis 64 Jahren (8.5.a) und im Alter von 60 bis 64 Jahren (8.5.b) jeweils gemessen an der Gesamtbevölkerung derselben Altersklasse an.</t>
         </is>
       </c>
-      <c r="G34" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>The indicators specify the proportion of persons in employment aged between 20 and 64 years (8.5.a) and aged between 60 and 64 years (8.5.b), measured in each case as a share of the total population of the same age group.</t>
         </is>
       </c>
-      <c r="H34" s="5" t="inlineStr">
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t>Aufgrund des demografischen Wandels kann es langfristig zu einem Mangel an Fachkräften in Deutschland kommen. Gleichzeitig droht eine zunehmende Unterfinanzierung der sozialen Sicherungssysteme. Das vorhandene Arbeitskräftepotenzial ist daher künftig besser auszuschöpfen. Die Erwerbstätigenquote, das heißt der Anteil der Erwerbstätigen an der Bevölkerung im erwerbsfähigen Alter (20- bis 64-Jährige), soll bis zum Jahr 2030 auf 78 % erhöht werden. Außerdem ist es das Ziel der Bundesregierung, dass bis 2030 die Erwerbstätigenquote der Älteren (60- bis 64-Jährige) 60 % beträgt.</t>
         </is>
       </c>
-      <c r="I34" s="5" t="inlineStr">
+      <c r="I35" s="5" t="inlineStr">
         <is>
           <t>Due to demographic changes, there could be a shortage of professionals in Germany in the long run. At the same time, the social security system is threatened by an increasing shortage of funds. The available labour force potential must therefore be more effectively utilised in the future. The employment rate, that is, the share of persons in employment in the working-age population (20 to 64 years of age) should be increased to 78 % by 2030. In addition, the goal of the Federal Government is to achieve an employment rate of 60 % among older people (60 to 64 years of age) by 2030.</t>
         </is>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>Datenquelle der Indikatoren ist die EU-Arbeitskräfteerhebung, die in Deutschland in den Mikrozensus integriert ist. Die Arbeitskräfteerhebung findet unterjährig statt und wird von der europäischen Statistikbehörde Eurostat zunächst zu Quartalsergebnissen zusammengefasst und anschließend zu Jahresdurchschnittswerten verdichtet. Sie deckt die in privaten Haushalten lebende Bevölkerung ab, schließt jedoch Personen in Gemeinschaftsunterkünften aus. Die im Rahmen der Arbeitskräfteerhebung betrachtete erwerbstätige Bevölkerung besteht aus Personen im Alter ab 15 Jahren, die während der Referenzwoche mindestens eine Stunde eine Tätigkeit gegen Entgelt ausgeübt haben oder als unbezahlt mithelfende Familienangehörige tätig waren. Eingeschlossen sind auch Personen, die nur vorübergehend nicht gearbeitet haben, weil sie zum Beispiel wegen Urlaub oder Krankheit abwesend waren. Zu beachten ist, dass es im Zeitablauf bei der Arbeitskräfteerhebung (zum Beispiel Anpassung an Ergebnisse des Zensus 2011) und mit der Neuregelung des Mikrozensus 2020 Änderungen gab, die Einfluss auf die zeitliche Vergleichbarkeit der dargestellten Zeitreihen haben.
 Die Erwerbstätigenquote insgesamt (20- bis 64-Jährige) stieg von 68,7 % im Jahr 2000 um 10,9 Prozentpunkte auf 79,6 % im Jahr 2021. Der Zielwert von 78,0 % für 2030 wird bereits seit 2015 erreicht. Die Erwerbstätigenquote bei den Älteren (60- bis 64-Jährige) nahm deutlich von 19,6 % im Jahr 2000 um 41,5 Prozentpunkte auf 61,1 % im Jahr 2021 zu. Die Quote der Männer in dieser Altersgruppe hatte sich dabei um 38,5 Prozentpunkte auf 65,7 % mehr als verdoppelt. Die Quote der Frauen verfünffachte sich sogar fast von 12,1 auf 56,7 %. Der angestrebte Anteil von 60 % bei Älteren wird seit 2018 jeweils erreicht und damit ebenfalls vor der in der Deutschen Nachhaltigkeitsstrategie gesetzten Frist.
@@ -3284,7 +3354,7 @@
 Bei einer Differenzierung der Erwerbstätigenquote nach Altersgruppen zeigten sich unterschiedliche Tendenzen. Bei der Gruppe der 20- bis 24-Jährigen erhöhte sich die Erwerbstätigenquote von 2000 bis 2021 nur marginal um 2,4 Prozentpunkte auf 67,2 %. In der Altersgruppe der 25- bis 59-Jährigen stieg diese hingegen um 7,7 Prozentpunkte auf 83,9 %. Das geringere Erwerbsniveau in der Altersgruppe der 20- bis 24-Jährigen ist bedingt durch Ausbildungszeiten an Schulen und Hochschulen, wodurch sich der Eintritt in das Berufsleben verschiebt.</t>
         </is>
       </c>
-      <c r="K34" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>The Statistical Office of the European Union Eurostat conducts the labour force survey on an infra-annual basis. Eurostat summarises the data to form quarterly results and then consolidates them to create annual average values. It covers the population living in private households, but does not include people living in collective accommodation. The economically active population covered by the labour force survey consists of persons aged 15 and over who performed an activity for remuneration for at least one hour during the reference week or who worked as unpaid family workers. Also included are persons who temporarily did not work because they were absent, for example due to holidays or illness. It should be noted that there have been changes over time in the Labor Force Survey that affect the comparability of the time series presented over time (e.g. adjustment to results of the 2011 census, revision of the 2020 Microcensus).
 The total employment rate (20 to 64-year-olds) rose by 10.9 percentage points from 68.7 % in 2000 to 79.6 % in 2021. Thus, the target value of 78.0 % for 2030 has already been achieved from 2015 on. The employment rate among older people (60 to 64-year-olds) rose by 41.5 percentage points from 19.6 % in 2000 to 61.1 % in 2021. The employment rate for men in that age group had more than doubled, rising by 38.5 percentage points to 65.7 %. The rate for women even increased almost fivefold from 12.1 % to 56.7 %. Hence, the targeted 60 % employment rate for older people was likewise reached since 2018 ahead of the deadline set in the German strategy for sustainable development.
@@ -3292,144 +3362,144 @@
 A breakdown into age groups shows diverse employment rate trends. Among 20 to 24-year-olds, the rate rose from 2000 to 2021 by 2.4 percentage points to 67.2 %. Among 25- to 59-year-olds, by contrast, the employment rate rose to 83.9 %, an increase of 7.7 percentage points. The lower employment rates of 20 to 24 year-olds is also related to the average duration of education at school and university, which postpones entry into working life.</t>
         </is>
       </c>
-      <c r="L34" s="4" t="inlineStr">
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>8.5.2</t>
         </is>
       </c>
-      <c r="M34" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
         <v>45672</v>
       </c>
     </row>
-    <row outlineLevel="0" r="35">
-      <c r="A35" s="4" t="inlineStr">
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>Z08_B06_P01_Ib01</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>Z08_B06_P01</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>08.6</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>Mitglieder des Textilbündnisses</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>Members of the Textiles Partnership</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Anzahl der Mitglieder des Bündnisses für nachhaltige Textilien (Textilbündnis). Dem Textilbündnis gehören ordentliche, beratende und assoziierte Mitglieder an. Ordentliche Mitglieder werden weiter in die sogenannten Akteursgruppen Wirtschaft (Unternehmen sowie Initiativen und Verbände), Gewerkschaften, Nichtregierungsorganisationen, Standardorganisationen sowie Bundesregierung unterschieden. Eine Standardorganisation ist eine Organisation, die nicht kommerzielle Standards für nachhaltige Textilien anbietet oder entwickelt. Die Mitgliedschaft im Textilbündnis ist freiwillig und erfolgt durch Eintritt.</t>
         </is>
       </c>
-      <c r="G35" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of members of the Partnership for Sustainable Textiles (Textiles Partnership). The Textiles Partnership comprises ordinary, advisory and associate members. The ordinary membership is subdivided into what are known as stakeholder groups: the businesses (initiatives and associations), unions, non-governmental organisations, standards organisations and the German Federal Government. A standards organisation is a body that offers or develops non-commercial standards for sustainable textiles. Membership of the Textiles Partnership is voluntary and is obtained by application.</t>
         </is>
       </c>
-      <c r="H35" s="5" t="inlineStr">
+      <c r="H36" s="5" t="inlineStr">
         <is>
           <t>Die Multi-Stakeholder-Initiative „Bündnis für nachhaltige Textilien“ wurde im Herbst 2014 gegründet. Das Textilbündnis strebt an, die sozialen, ökologischen und ökonomischen Rahmenbedingungen in den Produktionsländern zu verbessern. Daher soll die Anzahl der Mitglieder des Textilbündnisses bis 2030 signifikant gesteigert werden.</t>
         </is>
       </c>
-      <c r="I35" s="5" t="inlineStr">
+      <c r="I36" s="5" t="inlineStr">
         <is>
           <t>The Partnership for Sustainable Textiles is a multi-stakeholder initiative that was founded in 2014. The Textiles Partnership aims to improve the underlying social, ecological and economic conditions in the producer countries. Membership numbers should therefore be increased significantly by 2030.</t>
         </is>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>Das Textilbündnis wurde im Oktober 2014 als Reaktion auf tödliche Unfälle in Textilfabriken gegründet. Der Indikator bildet die Anzahl der Mitglieder des Textilbündnisses ab. Als Multi-Stakeholder-Initiative gehören dem Textilbündnis nicht nur Unternehmen an. Aufbauend auf gemeinsam definierten Bündniszielen verpflichtete sich jedes Unternehmen mit seinem Beitritt zum Textilbündnis dazu, Maßnahmen für eine kontinuierliche Verbesserung der Bedingungen und zur Verfolgung der sozialen und ökologischen Bündnisziele in seiner gesamten Lieferkette umzusetzen.
 In seinem Gründungsjahr 2014 sind dem Textilbündnis 59 Mitglieder beigetreten, darunter 26 Unternehmen. Bis Ende 2016 hat sich die Anzahl der Mitglieder mit einem Höchststand von 188 Mitgliedern mehr als verdreifacht, darunter waren 133 Unternehmen. Seit Einführung der verpflichtenden Erstellung von Maßnahmenplänen (Roadmaps) im Jahr 2017 gab es sowohl Ausschlüsse als auch mehrere Austritte aus dem Textilbündnis. So wurden einerseits Mitglieder ausgeschlossen, die ihren Berichtspflichten nicht nachgekommen sind. Andererseits sind Mitglieder mit Verweis auf den Aufwand oder unzureichende Relevanz ausgetreten. Ende Dezember 2021 belief sich die Anzahl der Mitglieder auf insgesamt 123. Von den ursprünglich 59 Gründungsmitgliedern (Zeitraum Oktober bis Dezember 2014) waren bis Ende Dezember 2021 noch 26 Mitglied im Textilbündnis, wobei die Bundesregierung gegenüber 2014 nur noch als ein statt drei Mitglieder gezählt wird. Im Durchschnitt der letzten fünf Jahre hat sich die Anzahl der Mitglieder in eine negative Richtung entwickelt.
 Ende Dezember 2021 waren 69 der 123 Mitglieder (56 %) als Unternehmen klassifiziert, wobei acht ihren Hauptsitz nicht in Deutschland hatten. Im Jahr zuvor waren unter den 136 Mitgliedern noch 85 Unternehmen. Bei diesem Rückgang ist zu beachten, dass seit 2020 die Unternehmen des Textilbündnisses verpflichtet sind, ihrer Verantwortung zur Umsetzung der Sorgfaltspflichten entlang der Lieferkette nachzukommen. Dies beinhaltet die Analyse und Priorisierung von sozialen und ökologischen Risiken in der Lieferkette sowie die Ableitung von Zielen und Maßnahmen zur Vermeidung oder Minderung dieser Risiken. Alle zwei Jahre müssen die Mitgliedsunternehmen über den Stand der Umsetzung der Sorgfaltspflichten berichten. Die Mitgliedschaft im Textilbündnis bedeutet nicht, dass die Akteure und vor allem die Unternehmen schwerpunktmäßig im Bereich Textilien und/oder Bekleidung wirtschaftlich aktiv waren. Nur gut zwei Drittel der 61 Mitgliedsunternehmen mit Sitz in Deutschland waren gemäß dem statistischen Unternehmensregister (URS) des Statistischen Bundesamtes im Jahr 2020 hauptsächlich im Bereich Herstellung, Einzel- oder Großhandel von Textilien bzw. Bekleidung tätig. Diese erwirtschafteten 2020 einen Umsatz von etwa 16,1 Milliarden Euro. Im Vergleich dazu betrug 2020 laut den Handelsstatistiken des Statistischen Bundesamtes der Gesamtumsatz des Einzelhandels 635,2 Milliarden Euro und der Gesamtumsatz des Großhandels 1 363,0 Milliarden Euro. Davon wurden durch Unternehmen, die schwerpunktmäßig dem Einzel- oder Großhandel zugeordnet waren, etwa 4,1 % mit den Waren Bekleidung, Textilien sowie Vorhänge und Gardinen (ohne Schuhe, Lederwaren und Teppiche) erwirtschaftet.</t>
         </is>
       </c>
-      <c r="K35" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>The Partnership for Sustainable Textiles was established in October 2014 in response to fatal accidents in textile factories. The indicator shows the number of members of the Textiles Partnership. Being a multi-stakeholder initiative, the Textiles Partnership has more than just business enterprises in its ranks. On the basis of jointly defined Partnership objectives, each company, by joining the Textiles Partnership, pledges to implement measures for continuous improvement of conditions and for compliance with social and environmental objectives of the Partnership throughout the company’s supply chain.
 In its founding year of 2014, 59 members joined the Textiles Partnership, including 26 companies. The end of 2016 saw membership reach its peak, having more than trebled to 188, including 133 companies. Since the introduction of the compulsory plans of action (Roadmaps) in 2017, however, there have been expulsions and several withdrawals from the Textiles Partnership. On the one hand, some members were expelled for non-fulfilment of their reporting obligations. On the other hand, some members withdrew, citing compliance costs or insufficient relevance. Thus, total membership stood at 123 at the end of December 2021. Of the original 59 founding members that joined in the period from October to December 2014, there were still 26 in the Partnership at the end of December 2021, whereby the Federal Government counts as one member instead of three in comparison to 2014. Over that five-year period there was an overall downward trend in the number of members.
 At the end of December 2021, 69 out of 123 members (56 %) were classified as companies; eight of them did not have their registered office in Germany. The Textiles Partnership consisted of 85 companies out of the 136 members in the preceding year. This decline reflects, that companies who are member in Textiles Partnership were obliged in 2020 for implementation of due diligence along the supply chain. This includes the analysis and prioritisation of social and ecological risks in the supply chain as well as the derivation of targets and measures for mitigation or reduction of these risks. Member companies have to report about the status of implementation of due diligence every other year. If a company is a member of the Textiles Partnership, this does not necessarily mean that its main economic activity is in the field of textiles and/or clothing manufacture. According to the statistical business register of the Federal Statistical Office in 2020, only about two thirds of 61 member companies operated primarily in the manufacture, wholesaling or retailing of textiles and/or clothing. Their aggregate turnover in 2020 amounted to 16.1 billion euros. According to the trade statistics of the Federal Statistical Office, total retail turnover for the whole of 2020 amounted to 635.2 billion euros, while total wholesale turnover came to 1,363.0 billion euros. About 4.1 % of these amounts were earned by companies primarily assigned to the wholesale and retail sector through sales of clothing, textiles and curtains, excluding footwear, leather goods and carpets.</t>
         </is>
       </c>
-      <c r="L35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M35" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N35" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N36" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>Z09_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>Z09_B01_P01</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>09.1.a</t>
         </is>
       </c>
-      <c r="D36" s="4" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>Private und öffentliche Ausgaben für Forschung und Entwicklung</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr">
         <is>
           <t>Private and public expenditure on research and development</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Ausgaben für Forschung und Entwicklung (FuE) von Wirtschaft, Staat und Hochschulen in Relation zum Bruttoinlandsprodukt (BIP).</t>
         </is>
       </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the expenditure on research and development by businesses, general government and institutions of higher education in relation to gross domestic product (GDP).</t>
         </is>
       </c>
-      <c r="H36" s="5" t="inlineStr">
+      <c r="H37" s="5" t="inlineStr">
         <is>
           <t>Die Ausgaben für Forschung und Entwicklung (FuE) sind eine wichtige, wenn auch nicht die alleinige Bestimmungsgröße für das Innovationstempo einer Volkswirtschaft. Je höher die Ausgaben sind, desto größer ist die Wahrscheinlichkeit für eine dynamischere Entwicklung der Produktivität, ein stärkeres Wirtschaftswachstum und eine verbesserte Wettbewerbsfähigkeit. Die Bundesregierung wird alle Möglichkeiten ausschöpfen, um das politische Ziel zu erreichen, die privaten und öffentlichen Ausgaben für Forschung und Entwicklung – eine wichtige Bestimmungsgröße für das Innovationstempo einer Volkswirtschaft – bis 2025 auf mindestens 3,5 % des Bruttoinlandsprodukts (BIP) jährlich zu erhöhen.</t>
         </is>
       </c>
-      <c r="I36" s="5" t="inlineStr">
+      <c r="I37" s="5" t="inlineStr">
         <is>
           <t>Expenditure on research and development (R&amp;D) is an important, although not the only determinant of an economy’s rate of innovation. The higher the expenditure, the higher the probability of more dynamic gains in productivity, the stronger economic growth and the more competitiveness is improved. The Federal Government has therefore set itself the goal of ensuring that private and public expenditure on research and development – a major determinant for the innovation rate of an economy – increases to at least an annual 3.5 % of gross domestic product by 2025.</t>
         </is>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>Forschung und Entwicklung (FuE) sind wissenschaftliche Tätigkeiten und werden definiert als schöpferische und systematische Arbeiten zur Erweiterung des Wissensstandes – einschließlich des Wissens über die Menschheit, die Kultur und die Gesellschaft – und zur Entwicklung neuer Anwendungen auf Basis des vorhandenen Wissens. Um FuE gegenüber verwandten Tätigkeiten abzugrenzen, wird als Hauptkriterium geprüft, ob ein nennenswertes Element von Neuheit oder Weiterentwicklung vorhanden ist.
 Der Anteil der FuE-Ausgaben am Bruttoinlandsprodukt (BIP) wird jährlich vom Statistischen Bundesamt ermittelt. Die gesamten Ausgaben für FuE setzen sich aus den Ausgaben der Sektoren Staat (einschließlich privater Forschungseinrichtungen ohne Erwerbszweck), Hochschulen und Wirtschaft zusammen. Die Erhebungen und Berechnungen folgen den methodischen Empfehlungen des Frascati-Handbuchs der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD) zu Statistiken über FuE, wodurch die internationale Vergleichbarkeit sichergestellt ist.
@@ -3439,7 +3509,7 @@
 Im internationalen Vergleich der OECD-Mitgliedstaaten lag Deutschland 2020 mit 3,1 % knapp vor Dänemark mit 3,0 % und Finnland mit 2,9 % sowie über dem Durchschnitt der EU-27-Region von 2,2 % und dem OECD-Durchschnitt von 2,7 % des BIP. Acht Staaten, wie zum Beispiel Schweden (3,5 %) oder Japan (3,3 %), lagen hingegen vor Deutschland. Im nationalen Vergleich lag Baden-Württemberg mit zuletzt 5,7 % (Jahr 2020) weit vor den übrigen Bundesländern; gefolgt von Bremen mit 3,7 % und Bayern mit 3,4 % des BIP.</t>
         </is>
       </c>
-      <c r="K36" s="5" t="inlineStr">
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>Research and development (R&amp;D) are scientific activities and are defined as creative and systematic work to expand the level of knowledge – including knowledge of humankind, culture and society – and the development of new applications based on the existing knowledge. The main criterion applied to differentiate between R&amp;D and related activities is whether the activity involves an appreciable element of newness or further development.
 The share of research and development expenditure in the gross domestic product (GDP) is determined annually by the Federal Statistical Office. Overall expenditure on research and development comprises expenditure by general government (including non-profit private research institutions), institutions of higher education, and businesses. The surveys and calculations adhere to the recommended methodologies of the Frascati Manual of the OECD on statistics about R&amp;D, which also enable international comparisons.
@@ -3449,70 +3519,70 @@
 In an international comparison among OECD member states, Germany reached 3.1 % in 2020 and was ahead of Denmark (3.0 %) and Finland (2.9 %), further, Germany exceeds the value of the EU 27 region with its 2.2 % and the OECD average of 2.7 % of GDP. Eight States, for instance Sweden (3.5 %) or Japan (3.3 %), were ahead of Germany. On a national level, Baden-Württemberg at 5.7 % (year 2020) was far ahead of other German Länder, followed by Bremen at 3.7 % and Bavaria at 3.4 % of GDP.</t>
         </is>
       </c>
-      <c r="L36" s="4" t="inlineStr">
+      <c r="L37" s="4" t="inlineStr">
         <is>
           <t>9.5.1</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N36" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7">
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
         <v>45537</v>
       </c>
     </row>
-    <row outlineLevel="0" r="37">
-      <c r="A37" s="4" t="inlineStr">
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>Z09_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>Z09_B01_P01</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>09.1.b</t>
         </is>
       </c>
-      <c r="D37" s="4" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>Breitbandausbau</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>Rollout of broadband</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Entwicklung der technisch verlegten Breitbandverfügbarkeit bei den Haushalten in Deutschland für Gigabit-Anschlüsse (≥ 1 000 Mbit/s) über reine Glasfasernetze (FTTB/H), Kabelfernsehen (CATV) und alle leitungsgebundenen Technologien.</t>
         </is>
       </c>
-      <c r="G37" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the development of broadband availability for households in Germany in terms of the technology installed, with separate figures for gigabit connections (≥ 1,000 Mbps) using fully fibre-optic networks (FTTB/H), cable television (CATV) and other types of wired technology.</t>
         </is>
       </c>
-      <c r="H37" s="5" t="inlineStr">
+      <c r="H38" s="5" t="inlineStr">
         <is>
           <t>Der flächendeckende Ausbau mit Gigabit-Netzen bis 2025 ist ein wesentliches Ziel der Bundesregierung. Neben der Steigerung der internationalen Wettbewerbsfähigkeit sollen über den Ausbau der Breitbandverfügbarkeit mit Gigabit-Geschwindigkeit gleichwertige Lebensbedingungen in Deutschland ermöglicht werden. Für die Erreichung dieser Ziele sollen neben dem vorwiegend privatwirtschaftlich erfolgenden Ausbau auch staatliche Fördermaßnahmen den Ausbau in unwirtschaftlichen Gebieten unterstützen.</t>
         </is>
       </c>
-      <c r="I37" s="5" t="inlineStr">
+      <c r="I38" s="5" t="inlineStr">
         <is>
           <t>The nationwide roll-out of gigabit networks by 2025 is one of the German Government’s key objectives. In addition to enhancing international competitiveness, the expansion of broadband availability with gigabit speeds is intended to facilitate the convergence of living standards across Germany. To achieve these aims, the predominantly private sector roll-out is to be supported by public funding schemes in unprofitable areas.</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t>Der Indikator erfasst die Breitbandverfügbarkeit bei Haushalten in Deutschland für eine Geschwindigkeit von mindestens 1 000 Mbit/s im Downstream über die leitungsgebundenen Technologien Glasfaser (FTTB/H) und Kabelfernsehen (CATV). Die Zahlen werden im Auftrag des Bundesministeriums für Digitales und Verkehr (BMDV) erhoben und im Breitbandatlas des Bundes veröffentlicht.
 Mit Stand Mitte 2021 sind Glasfaseranschlüsse (FTTB/H) mit einer Leistung von über 1 000 Mbit/s in 15,4 % der Haushalte in Deutschland verfügbar. Zwischen den Jahren 2015 und 2021 ist die Breitbandverfügbarkeit für 1 000 Mbit/s für FTTB/H um 8,7 Prozentpunkte angestiegen. Damit hat sich die Verfügbarkeit mehr als verdoppelt (+130 %). Im Zeitraum Ende 2018 bis Mitte 2021 hat sich der Anteil der Haushalte mit den entsprechenden Anschlüssen über CATV von 23,7 auf 56,5 % erhöht. Die Verfügbarkeit hat sich somit ebenfalls mehr als verdoppelt (+ 138 %). Damit stehen Mitte 2021 gigabitfähige Anschlüsse für insgesamt 62,1 % der Haushalte zur Verfügung.
@@ -3522,7 +3592,7 @@
 Methodisch ist zu beachten, dass die Daten zur Breitbandverfügbarkeit von den TKU, bis zur Novellierung des Telekommunikationsgesetzes zum 1. Dezember 2021, auf freiwilliger Basis bereitgestellt wurden. Des Weiteren beziehen sich die angegebenen Verfügbarkeiten auf die verlegte Technik der TKU. Die tatsächlich nutzbare Breitbandverfügbarkeit vor Ort ist davon zu unterscheiden. Weiterführende Informationen zum Thema Breitbandmessung finden sich im Jahresbericht der Bundesnetzagentur.</t>
         </is>
       </c>
-      <c r="K37" s="5" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t>The indicator measures the availability of broadband to households in Germany at downstream speeds of at least 1,000 Mbps, or one gigabit per second, using wired technology – fibre optics (FTTB/H) and cable television (CATV). The figures are collated on behalf of the Federal Ministry of Transport and Digital Infrastructure and published on the Government’s Broadband Atlas.
 As of the middle of 2021, fully fibre-optic internet connections (FTTB/H) capable of more than 1,000 Mbps were available in 15.4 % of households in Germany. Between 2015 and 2021, the availability of 1,000 Mbps FTTB/H broadband rose by 8.7 percentage points. In other words, it more than doubled, increasing by + 130 %. From the end of 2018 to the middle of 2021, the proportion of households with equally rapid connections using CATV grew from 23.7 % to 56.5 %. This is also more than double, equating to a + 138 % increase. Altogether, 62.1 % of households had gigabit-capable connections available as of mid-2021.
@@ -3532,70 +3602,70 @@
 Methodologically, it should be noted that the telecom companies provide their data on broadband availability on a voluntary basis until the revision of the Telecommunications Act on 1 December 2021. Furthermore, the figures for availability refer to the technology that telecom companies have installed, as opposed to the actually usable broadband capacity in the area. Additional information on broadband measurement can be found in the annual report of the Bundesnetzagentur, Germany’s federal networks agency.</t>
         </is>
       </c>
-      <c r="L37" s="4" t="inlineStr">
+      <c r="L38" s="4" t="inlineStr">
         <is>
           <t>17.6.1</t>
         </is>
       </c>
-      <c r="M37" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N37" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7">
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
         <v>45672</v>
       </c>
     </row>
-    <row outlineLevel="0" r="38">
-      <c r="A38" s="4" t="inlineStr">
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>Z10_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>Z10_B01_P01</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>10.1</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>Ausländische Schulabsolventinnen und Schulabsolventen</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>Foreign school graduates</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Anteil ausländischer Schulabsolvierender in Prozent aller ausländischen Schulabgehenden und Schulabsolvierenden eines Jahrgangs. Als Absolvierende gelten hierbei Personen, die die allgemeinbildenden Schulen mit mindestens einem Hauptschulabschluss verlassen, während Abgehende diejenigen Personen meint, die die Schule ohne Schulabschluss verlassen.</t>
         </is>
       </c>
-      <c r="G38" s="5" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the proportion of foreign school graduates as a percentage of all foreign school leavers within a school year. In this case, the term “graduates” refers to people who leave general education schools with at least a secondary general school certificate.</t>
         </is>
       </c>
-      <c r="H38" s="5" t="inlineStr">
+      <c r="H39" s="5" t="inlineStr">
         <is>
           <t>Die Integration der in Deutschland lebenden Ausländerinnen und Ausländer ist eine wichtige Voraussetzung für den sozialen Zusammenhalt unserer Gesellschaft. Grundbedingung für eine erfolgreiche Integration ist eine ausreichende schulische Qualifizierung, die berufliche Ausbildungs- und Erwerbsmöglichkeiten eröffnet. Ziel der Bundesregierung ist es daher, bis zum Jahr 2030 den Anteil ausländischer Schulabsolvierender zu erhöhen und den Anteil an die Quote deutscher Schulabsolvierender anzugleichen.</t>
         </is>
       </c>
-      <c r="I38" s="5" t="inlineStr">
+      <c r="I39" s="5" t="inlineStr">
         <is>
           <t>The integration of foreigners living in Germany is an important prerequisite for cohesion within our society. A basic prerequisite for successful integration is the acquisition of sufficient qualifications at school to open up further educational and employment opportunities later on. The goal of the Federal Government is therefore to increase the share of foreign school graduates who obtain at least a secondary general school certificate and to bring this share into line with the corresponding rate for German school graduates by 2030.</t>
         </is>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t>Datengrundlage des Indikators bilden die Schulstatistiken der einzelnen Bundesländer. Dabei handelt es sich in der Regel um Totalerhebungen mit Auskunftspflicht. Ihre Zusammenfassung zum Bundesergebnis erfolgt durch das Statistische Bundesamt auf Grundlage des von der Kultusministerkonferenz erstellten Definitionenkatalogs. Die Aggregation der Länderergebnisse zum Bundesergebnis wird beeinträchtigt durch die unterschiedliche Bildungspolitik der Länder, zum Beispiel bei Versetzungsregeln oder der Einrichtung von Bildungsgängen im Bereich der beruflichen Schulen. Dies kann auch durch formale Regelungen der jeweiligen Zuordnungen nur zum Teil kompensiert werden.
 Absolvierende sind Schülerinnen und Schüler, die die jeweilige Schulart mit Abschluss verlassen haben. Eingeschlossen werden Schülerinnen und Schüler, die zu einer anderen allgemeinbildenden Schulart gewechselt sind, um einen zusätzlichen Abschluss zu erwerben. Zudem gelten als Ausländerin oder Ausländer alle Personen, die nicht Deutsche im Sinne des Artikel 116 Absatz 1 Grundgesetz (GG) sind, das heißt die deutsche Staatsangehörigkeit nicht besitzen. Dazu zählen auch Staatenlose und Personen mit ungeklärter Staatsangehörigkeit. Deutsche, die zugleich eine weitere Staatsangehörigkeit besitzen, zählen nicht zur ausländischen Bevölkerung.
@@ -3604,7 +3674,7 @@
 Betrachtet man neben den reinen Anteilen auch die Niveaus der erreichten Abschlüsse, so lässt sich feststellen, dass 30,7 % der ausländischen Schulabsolvierenden allgemeinbildender Schulen des Jahrgangs 2021 einen Hauptschulabschluss erwarben, 39,9 % beendeten die Schule mit einem mittleren Abschluss und 13,7 % erreichten die Fachhochschulreife oder die allgemeine Hochschulreife. Bei den deutschen Schulabsolvierenden erwarben 14,3 % einen Hauptschulabschluss, 43,9 % einen mittleren Abschluss und 36,7 % die Fachhochschulreife oder die allgemeine Hochschulreife. Insbesondere bei den höheren Bildungsabschlüssen sind demnach die ausländischen Jugendlichen im Vergleich zu den deutschen deutlich unterrepräsentiert.</t>
         </is>
       </c>
-      <c r="K38" s="5" t="inlineStr">
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t>The school statistics, compiled by the individual Länder, form the data basis for this indicator. These statistics are generally derived from a complete count with an obligation to provide information. The Federal Statistical Office combines them to create a federal result based on the catalogue of definitions compiled by the Standing Conference of the Ministers of Education. The aggregation of the Länder results into the federal result is influenced by the different education policies of the Länder, for example, with regard to admission rules, in setting up courses of education in the area of vocational schools. This can only be partially offset by formal regulations for the respective allocations.
 Graduates are pupils who have left the respective type of school with a school certificate. Included are pupils who have changed to another type of general education school in order to obtain an additional certificate. Furthermore, foreigners are defined as all persons who are not German within the meaning of Article 116 (1) of the Basic Law, i.e. who do not hold the German citizenship. This also includes persons who are stateless and persons with undetermined citizenship. Germans who also hold another citizenship are not included in the foreign population.
@@ -3613,70 +3683,70 @@
 To break the figures down by types of certificate obtained, 30.7 % of foreign pupils who graduated from general schools achieved a lower secondary school leaving certificate in 2021, while 39.9 % completed their schooling with an intermediate secondary school leaving certificate and 13.7 % gained university-entrance qualifications. Among German school graduates, 14.3 % received a lower secondary school leaving certificate, 43.9 % gained an intermediate secondary school leaving certificate and 36.7 % earned university-entrance qualifications. This leaves young foreigners considerably under-represented in comparison to Germans, especially when it comes to the higher-level school leaving certificates.</t>
         </is>
       </c>
-      <c r="L38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M38" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N38" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
+      <c r="L39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
         <v>45601</v>
       </c>
     </row>
-    <row outlineLevel="0" r="39">
-      <c r="A39" s="4" t="inlineStr">
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>Z10_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>Z10_B02_P01</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>10.2</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>Gini-Koeffizient des Einkommens nach Sozialtransfers</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
         <is>
           <t>Gini coefficient of income after social transfers</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt die Verteilung des verfügbaren Äquivalenzeinkommens mittels Gini-Koeffizienten dar.</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the distribution of equivalised disposable income per person using Gini coefficients.</t>
         </is>
       </c>
-      <c r="H39" s="5" t="inlineStr">
+      <c r="H40" s="5" t="inlineStr">
         <is>
           <t>Ungleichheit in der Einkommens- und Vermögensverteilung ist ein grundsätzlich akzeptierter Bestandteil einer dynamischen Marktwirtschaft. Allerdings muss die Einkommens- und Vermögensspreizung moderat und die soziale Teilhabe aller gewährleistet bleiben. Durch entsprechende Rahmenbedingungen sowie zielgerichtete Umverteilung von Einkommen mittels Steuern und Sozialleistungen soll erreicht werden, dass der Gini-Koeffizient des verfügbaren Äquivalenzeinkommens bis 2030 unterhalb des EU-Wertes liegt.</t>
         </is>
       </c>
-      <c r="I39" s="5" t="inlineStr">
+      <c r="I40" s="5" t="inlineStr">
         <is>
           <t>Inequality in income and wealth distribution is a generally accepted component of a dynamic market economy. However, the income and wealth gap must remain moderate and social inclusion be guaranteed for all. The goal is to keep the Gini coefficient of equivalised disposable income below the EU average until 2030 by means of suitable framework conditions as well as a targeted re-distribution of income through taxes and social benefits.</t>
         </is>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>Der Gini-Koeffizient ist ein Maß der relativen Ungleichheit und kann einen Wert zwischen null und eins annehmen. Im Falle der Gleichverteilung ergibt sich für den Gini-Koeffizienten ein Wert von null und im Falle der Konzentration des gesamten Einkommens auf nur eine Person ein Wert von eins. Ein Gini-Koeffizient von eins gibt somit die Situation bei maximaler Ungleichverteilung an. Je kleiner der Gini-Koeffizient, umso gleichmäßiger ist das Einkommen verteilt.
 Das Äquivalenzeinkommen ist ein bedarfsgewichtetes Einkommen und somit ein Wert, der sich aus dem Gesamteinkommen eines Haushalts und der Anzahl und dem Alter der in diesem Haushalt lebenden Personen ergibt. Mithilfe einer Äquivalenzskala werden die Einkommen nach Haushaltsgröße und -zusammensetzung gewichtet. Dadurch werden die Einkommen von Personen, die in unterschiedlich großen Haushalten leben, vergleichbar, da in größeren Haushalten Einspareffekte (Economies of Scale) auftreten (zum Beispiel durch gemeinsame Nutzung von Wohnraum oder Haushaltsgeräten). Das verfügbare Äquivalenzeinkommen ist das Gesamteinkommen (einschließlich Sozialtransfers) eines Haushalts nach Steuern und anderen Abzügen und somit das Einkommen, das für Ausgaben und Sparen zur Verfügung steht. Abzugrenzen davon ist das Äquivalenzeinkommen vor Sozialleistungen, bei dem das verfügbare Einkommen ohne eventuelle Sozialtransfers (zum Beispiel Arbeitslosengeld oder Wohnbeihilfe) betrachtet wird, sowie das Markteinkommen, das sich vor Steuern, Sozialabgaben und Sozialleistungen errechnet. Bei allen betrachteten Einkommen wird nicht unterschieden, welche Quellen zur Einkommenserzielung dienen (zum Beispiel  Arbeitslohn, Mieteinkünfte oder Kapitalerträge).
@@ -3685,7 +3755,7 @@
 Betrachtet man dagegen den Gini-Koeffizienten des Vermögens in Deutschland, der aus dem „Household Finance and Consumption Survey“ (HFCS) stammt, der unregelmäßig von der Europäischen Zentralbank (EZB) durchgeführt wird, zeigt sich eine deutlich ungleichmäßigere Verteilung. Im Jahr 2017 lag der entsprechende Gini-Koeffizient bei 0,739 und damit weit über den Werten zur Einkommensverteilung. Im Jahr 2017 lag der Wert für die Eurozone bei 0,695 und somit niedriger al</t>
         </is>
       </c>
-      <c r="K39" s="5" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>The Gini coefficient is a statistical measure of income inequality. It has a value between 0 and 1. The value 0 means that every person has exactly the same income whereas the value 1 indicates that only one person receives all the income, thereby representing a situation of maximum income inequality. Hence, the smaller the Gini-coefficient, the more evenly is the income distributed.
 The equivalised income is a value derived from the total income of a household and the number and age of the people living from this income. With the help of an equivalence scale, the incomes are weighted according to household size and composition, as the shared use of living space and household appliances results in savings (Economies of Scale). With the equivalised income then allocated equally to each household member, it becomes possible to compare people’s incomes independently of age or household size. A household’s equivalised disposable income is the income, including social transfers, which remains after taxes and other deductions, and is therefore the income available for spending and saving. A distinction must be made between this measure and equivalised income before social transfers, which looks at disposable income without any possible welfare payments, such as unemployment benefit or housing assistance, or market income, which is calculated before taxes, social contributions and social benefits. In none of these ways of looking at income is a differentiation made between the sources of income, i.e. whether it takes the form of wages, rental income or capital gains.
@@ -3694,67 +3764,67 @@
 The wealth distribution figures for Germany are taken from the Household Finance and Consumption Survey (HFCS) conducted on an irregular basis by the European Central Bank and show a clear uneven distribution. Turning to the corresponding Gini coefficient (2017: 0.739), wealth in Germany is much less evenly distributed than income. The gap to the respective European value (Eurozone 2017: 0.695) is substantial and the European value is lower than the value for Germany. However, the impression of there being a disproportionately high wealth inequality is qualified by several factors not covered by the Gini coefficient. For instance, the evaluation of wealth does not take into account future pension entitlements. In addition, due to the stricter protection of tenant</t>
         </is>
       </c>
-      <c r="L39" s="4" t="inlineStr">
+      <c r="L40" s="4" t="inlineStr">
         <is>
           <t>10.2.1</t>
         </is>
       </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="M40" s="4" t="inlineStr">
         <is>
           <t>10.4.2</t>
         </is>
       </c>
-      <c r="N39" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="N40" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>11.1.a</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>Anstieg der Siedlungs- und Verkehrsfläche</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>Expansion of settlement and transport area</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den durchschnittlichen täglichen Anstieg der Siedlungs- und Verkehrsfläche in Hektar pro Tag.</t>
         </is>
       </c>
-      <c r="G40" s="5" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the average daily expansion of the area used for settlement and transport infrastructure in hectares per day.</t>
         </is>
       </c>
-      <c r="H40" s="5" t="inlineStr">
+      <c r="H41" s="5" t="inlineStr">
         <is>
           <t>Fläche ist eine begrenzte Ressource. Um ihre Nutzung konkurrieren beispielsweise Land- und Forstwirtschaft, Siedlung und Verkehr, Naturschutz, Rohstoffabbau und Energieerzeugung. Die Inanspruchnahme zusätzlicher Flächen für Siedlungs- und Verkehrszwecke soll bis zum Jahr 2030 auf durchschnittlich unter 30 Hektar pro Tag begrenzt werden. Bis zum Jahr 2050 wird eine Flächenkreislaufwirtschaft angestrebt. Das heißt, es sollen netto keine weiteren Flächen für Siedlungs- und Verkehrszwecke beansprucht werden.</t>
         </is>
       </c>
-      <c r="I40" s="5" t="inlineStr">
+      <c r="I41" s="5" t="inlineStr">
         <is>
           <t>Land is a limited resource. It is subject to competition from various interests, including agriculture and forestry, settlement and transport, nature conservation, resource extraction and energy generation. The development of additional land for settlement and transport purposes is to be limited to an average of less than 30 hectares per day by 2030. The goal is to establish a closed-loop land-use regime by 2050, meaning that, in net terms, no additional area will be developed for the purposes of settlement or transport.</t>
         </is>
       </c>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>Siedlungs- und Verkehrsfläche ist nicht gleichzusetzen mit versiegelter Fläche. Zur Siedlungsfläche zählen die Nutzungsarten Wohnbaufläche, Industrie- und Gewerbefläche, öffentliche Einrichtungen sowie Erholungsfläche und Friedhöfe. Unter die Siedlungsfläche fallen auch die Flächen für Bergbaubetrieb und Tagebau (sogenanntes Abbauland). Diese werden für die Berechnung dieses Indikators jedoch nicht mit einbezogen, da sie langfristig betrachtet wieder einer anderen Nutzung (zum Beispiel als Bergbaufolgelandschaft) zugeführt werden. Die Verkehrsfläche setzt sich aus den vier Unterarten Straßen- und Wegeverkehr, Bahn-, Flug- und Schiffsverkehr zusammen. Dementsprechend bezieht sich der Indikator nicht allein auf die versiegelte Fläche, sondern erfasst auch unbebaute und nicht versiegelte Flächen. Dazu gehören beispielsweise auch Hausgärten, Parks und Grünanlagen. Nach Berechnungen der Umweltökonomischen Gesamtrechnungen der Länder wird der Versiegelungsanteil der Siedlungs- und Verkehrsfläche im Länderdurchschnitt auf 45 % geschätzt (2020).
 Der Indikator geht aus der Flächenerhebung nach Art der tatsächlichen Nutzung (kurz: amtliche Flächenstatistik) hervor, die wiederum auf den Daten des amtlichen Liegenschaftskatasters der Länder beruht. Im Liegenschaftskataster ist es in den vergangenen Jahren teilweise zur Neuzuordnung von Flächen gekommen, denen keine realen Nutzungsänderungen zugrunde lagen. Um den hieraus resultierenden Effekt auszugleichen, wird ein gleitender Vierjahresdurchschnitt abgebildet, der sich aus dem aktuellen Berichtsjahr und den drei vorangegangenen Jahren errechnet. Zudem wurde im Jahr 2016 die Umstellung vom alten auf den neuen Nutzungsartenkatalog vollendet, was sich auch auf die amtliche Flächenstatistik auswirkte, sodass die Vergleichbarkeit der Daten von 2016 mit den Vorjahren eingeschränkt ist. Aus diesem Grund entfällt für den Indikatorwert in 2016 auch eine Unterteilung in die einzelnen Nutzungsartengruppen innerhalb der Siedlungs- und Verkehrsfläche.
@@ -3763,7 +3833,7 @@
 Im Jahr 2020 betrug die Siedlungs- und Verkehrsfläche insgesamt 50 196 Quadratkilometer und machte damit 14 % der gesamten Fläche Deutschlands aus. Die größten Flächenarten in Deutschland sind mit 180 934 Quadratkilometern die Landwirtschaftsfläche (51 %), gefolgt von der Waldfläche mit 106 666 Quadratkilometern (30 %). Zwischen 2016 und 2020 erhöhte sich die Siedlungs- und Verkehrsfläche um 942 Quadratkilometer. Im gleichen Zeitraum verringerte sich die Landwirtschaftsfläche um 1 703 Quadratkilometer, während sich die Waldfläche um 496 Quadratkilometer erhöhte. Somit ist davon auszugehen, dass der Anstieg der Siedlungs- und Verkehrsfläche im Wesentlichen zulasten von Landwirtschaftsflächen erfolgte.</t>
         </is>
       </c>
-      <c r="K40" s="5" t="inlineStr">
+      <c r="K41" s="5" t="inlineStr">
         <is>
           <t>Settlement and transport area should not be equated with sealed land. Settlement land includes areas used for residential building, industry and commerce, public facilities, recreational amenities or cemeteries. It also covers land used for surface or sub-surface mining. However, mining land is not counted in the calculations for this indicator, as it ends up being reclaimed for other uses in the long term (e.g. as renaturalised post-mining landscapes). Transport area is made up of four subcategories: road transport, rail, aviation and shipping. The indicator therefore refers not only to sealed areas but also to undeveloped and unsealed land. These include, for example, domestic gardens, parks and other green spaces. As calculated in the environmental economic accounts compiled by the Länder, the sealed share of their settlement and transport area is estimated at 45 % on average (2020).
 The indicator is derived from the area survey by type of actual use (official land-use statistics), which in turn is based on data from the official land register maintained by the Länder. Some areas of land have been reclassified in the official land register in recent years without any actual change in the way they are used. To balance out the effect this has on the statistics for any particular year, a four-year moving average is also shown, averaging out the year in question and the three preceding years. Moreover, the switch from the old to the new land-use classification system was completed in 2016, which affected the official land-use statistics such that the data for 2016 are not directly comparable to those for previous years. It is for this reason that the overall indicator value for 2016 is also not subdivided into types of settlement or transport use.
@@ -3772,67 +3842,67 @@
 In 2020, the area of settlement or transport use amounted to 50,196 km², or 14 % of the total area of Germany. The largest land types in Germany are agricultural land at 180,934 km² (51 %) followed by woodland at 106,666 km² (30 %). Settlement and transport area grew by 942 km² between 2016 and 2020. Agricultural land shrank by 1,703 km² during the same period, while woodland grew by 496 km². It can therefore be assumed that the increase in settlement and transport area was primarily at the expense of agricultural land.</t>
         </is>
       </c>
-      <c r="L40" s="4" t="inlineStr">
+      <c r="L41" s="4" t="inlineStr">
         <is>
           <t>11.3.1</t>
         </is>
       </c>
-      <c r="M40" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N40" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N41" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>11.1.b</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>Freiraumverlust</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t>Loss of open space area</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt als gleitender Vierjahresdurchschnitt die jährliche Veränderung der Freiraumfläche in Quadratmetern je Einwohnerin und Einwohner dar.</t>
         </is>
       </c>
-      <c r="G41" s="5" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>The indicator represents the annual change in the per capita open space area in square metres as a four-year moving average.</t>
         </is>
       </c>
-      <c r="H41" s="5" t="inlineStr">
+      <c r="H42" s="5" t="inlineStr">
         <is>
           <t>Freiraumflächen sollen für die land- und forstwirtschaftliche Nutzung, als Kultur- und Naturlandschaften sowie als Erholungsräume erhalten bleiben. Daher soll der Rückgang der Freiraumflächen je Einwohnerin und Einwohner reduziert werden. Vermindert sich der Freiraumverlust, so gibt das Hinweise auf einen Erfolg von Maßnahmen, die die Innenentwicklung stärken und so Agrar-, Wald- und Gewässerflächen für die Land- und Forstwirtschaft, den Naturschutz sowie für die Erholung der Bevölkerung schonen.</t>
         </is>
       </c>
-      <c r="I41" s="5" t="inlineStr">
+      <c r="I42" s="5" t="inlineStr">
         <is>
           <t>Open space areas should be preserved for agricultural and forestry use, as cultural and natural landscapes as well as recreation areas. For this reason, the decline in the per capita open space area should be reduced. A reduction in the loss of open space area indicates the success of measures to strengthen inner development and thereby conserve agricultural, wooded and water areas for agriculture and forestry, nature conservation and recreational use by the population.</t>
         </is>
       </c>
-      <c r="J41" s="5" t="inlineStr">
+      <c r="J42" s="5" t="inlineStr">
         <is>
           <t>Als Freiraumflächen werden Vegetationsflächen (zum Beispiel Ackerland, Weideland oder Waldflächen), sowie Abbauflächen und Wasserflächen bezeichnet. Freiraumflächen sind begrifflich abzugrenzen von Freiflächen im Siedlungsbereich, wie beispielsweise Friedhöfen, Gärten, Parks oder Freizeitanlagen, die zwar weitestgehend unbebaut sind, aber prinzipiell zur Siedlungs- und Verkehrsfläche zählen. Werden also bisher von Bebauung freigehaltene Siedlungsflächen bebaut, spiegelt sich dies weder in diesem Indikator 11.1.b zum „Freiraumverlust“ noch im Indikator 11.1.a „Anstieg der Siedlungs- und Verkehrsfläche“ wider.
 Im betrachteten Zeitraum verringerte sich der Freiraumverlust pro Kopf im Bundesdurchschnitt. Waren es im gleitenden Vierjahresmittel 2001 bis 2004 noch etwa 5 Quadratmeter je Einwohnerin und Einwohner, so sind es im aktuellen Vierjahresmittel 2017 bis 2020 nur noch rund 3 Quadratmeter.
@@ -3841,7 +3911,7 @@
 Die Unterscheidung zwischen „ländlich“ und „nicht ländlich“ basiert auf einer Typisierung des Thünen-Instituts. Das Institut ordnet Landkreisen und kreisfreien Städten – auf Basis von räumlichen Merkmalen wie „Siedlungsdichte“ und „Anteil land- und forstwirtschaftlicher Fläche“ – einen Grad an „Ländlichkeit“ zu. Somit bezieht sich diese Typisierung auf die Kreisebene und nicht auf kleinere räumliche Einheiten wie Städte und Dörfer.</t>
         </is>
       </c>
-      <c r="K41" s="5" t="inlineStr">
+      <c r="K42" s="5" t="inlineStr">
         <is>
           <t>Open space area includes areas of vegetation, such as arable land, pasture and woodland, as well as mining land and bodies of water. A distinction is made between open space proper and open areas within settlement zones, such as cemeteries, gardens, parks and recreational amenities, which, although largely undeveloped, are generally considered part of settlement and transport area. As a result, if previously undeveloped parts of settlement land are built on, this is neither reflected in this indicator 11.1.b “Loss of open space area” nor in the indicator 11.1.a “Expansion of settlement and transport area”.
 In the period under review, the national average for per capita loss of open space area went down. Whereas the four-year moving average for 2001-2004 was still around 5 m2 per capita, the current four-year moving average for 2017-2020 reveals a figure of just 3 m2.
@@ -3850,67 +3920,67 @@
 The distinction between rural and non-rural is based on a classification used by the Thünen Institute. The institute ascribes a degree of rurality to districts and district-free cities on the basis of geographical characteristics such as settlement density and share of farmland and woodland. The classification is thus applied to whole districts rather than to smaller entities like towns or villages.</t>
         </is>
       </c>
-      <c r="L41" s="4" t="inlineStr">
+      <c r="L42" s="4" t="inlineStr">
         <is>
           <t>11.3.1</t>
         </is>
       </c>
-      <c r="M41" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N41" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N42" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01_Ib03</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>Z11_B01_P01</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>11.1.c</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>Siedlungsdichte</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>Density of settlements</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Entwicklung der Bevölkerung je Quadratkilometer Siedlungs- und Verkehrsfläche im Vergleich zum Basisjahr 2000.</t>
         </is>
       </c>
-      <c r="G42" s="5" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Taking 2000 as a base year, the indicator shows the development of population numbers per square kilometre of settlement or transport area.</t>
         </is>
       </c>
-      <c r="H42" s="5" t="inlineStr">
+      <c r="H43" s="5" t="inlineStr">
         <is>
           <t>Der Indikator „Siedlungsdichte“ gibt Hinweise auf die Effizienz der Siedlungsflächennutzung. Ziel der Bundesregierung ist es, durch flächensparende Maßnahmen beim Neubau und bei der Innenentwicklung, wie der Reduzierung von Wohnungs- und Gewerbeleerstand sowie Nachverdichtungen und Erhöhung der Baudichte, der Verringerung der Siedlungsdichte entgegenzuwirken.</t>
         </is>
       </c>
-      <c r="I42" s="5" t="inlineStr">
+      <c r="I43" s="5" t="inlineStr">
         <is>
           <t>The density of settlements indicator provides information about the efficiency of settlement land use. The goal of the Federal Government is to counteract the reduction in settlement density by implementing space-saving measures for all new construction, brownfield development, reduction of residential and commercial vacancy, and densification or dedensification of built-up areas.</t>
         </is>
       </c>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="J43" s="5" t="inlineStr">
         <is>
           <t>Bei der Siedlungsdichte wird die Einwohnerzahl ins Verhältnis zur Siedlungs- und Verkehrsfläche gesetzt, im Gegensatz zur Bevölkerungsdichte, wo die Gesamtfläche die Bezugsgröße ist.
 Zur Siedlungsfläche zählen dabei neben Wohnbauflächen auch Flächen besonderer funktionaler Prägung (zum Beispiel Krankenhäuser oder Schulen), Industrie- und Gewerbeflächen, Flächen mit gemischter Nutzung (zum Beispiel an Einkaufsstraßen) sowie Sport-, Freizeit- und Erholungsflächen. Sowohl Veränderungen der Einwohnerzahl als auch Veränderungen bei der Ausdehnung der Siedlungs- und Verkehrsflächen haben Einfluss auf den Wert der Siedlungsdichte.
@@ -3921,7 +3991,7 @@
 Die Unterscheidung zwischen „ländlich“ und „nicht ländlich“ basiert auf einer Typisierung des Thünen-Instituts. Das Institut ordnet Landkreisen und kreisfreien Städten – auf Basis von räumlichen Merkmalen wie „Siedlungsdichte“, „Anteil land- und forstwirtschaftlicher Fläche“ und der Erreichbarkeit großer Zentren – einen Grad an „Ländlichkeit“ zu. Somit bezieht sich diese Typisierung auf die Kreisebene und nicht auf kleinere räumliche Einheiten wie Städte und Dörfer. Nach dies</t>
         </is>
       </c>
-      <c r="K42" s="5" t="inlineStr">
+      <c r="K43" s="5" t="inlineStr">
         <is>
           <t>Settlement density looks at the number of inhabitants in relation to the amount of settlement and transport area – in contrast to population density, which is based on the entire land area.
 Apart from residential building land, settlement land includes areas of special functional character (such as hospitals and schools), industrial and commercial land, mixed-use land (such as shopping streets), and areas for sports, leisure and recreation. Changes in the number of inhabitants and changes in the extent of settlement and transport area both affect figures for the density of settlements.
@@ -3932,69 +4002,69 @@
 The distinction between rural and non-rural is based on a classification used by the Thünen Institute. The institute ascribes a degree of rurality to districts and district-free cities on the basis of geographical characteristics such as settlement density, share of farmland and woodland, and the accessibility of urban centres. The classification is thus applied to whole districts rather than to smaller entities like towns or villages. In 2020, 43 % and 57 % of the population lived in non-rural and rural areas by this definition, respectively.</t>
         </is>
       </c>
-      <c r="L42" s="4" t="inlineStr">
+      <c r="L43" s="4" t="inlineStr">
         <is>
           <t>11.3.1</t>
         </is>
       </c>
-      <c r="M42" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N42" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N43" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>11.2.a</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>Endenergieverbrauch im Güterverkehr</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
         <is>
           <t>Final energy consumption in goods transport</t>
         </is>
       </c>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt die Entwicklung des Endenergieverbrauchs für den Transport von Gütern im Inland in der Binnenschifffahrt, im Eisenbahn- und im Straßengüterverkehr dar.</t>
         </is>
       </c>
-      <c r="G43" s="5" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>Final energy consumption in goods transport represents the energy consumption for the carriage of goods within Germany via inland shipping, by rail and by road.</t>
         </is>
       </c>
-      <c r="H43" s="5" t="inlineStr">
+      <c r="H44" s="5" t="inlineStr">
         <is>
           <t>Der Verkehr bringt eine Reihe von Problemen mit sich. So beeinträchtigen etwa Lärm und Luftschadstoffe die Lebensqualität insbesondere in Städten und verkehrsbedingte Emissionen tragen zum Klimawandel bei. Der Ausstoß von schädlichen Treibhausgasen (THG) steht in engem Zusammenhang mit der im Verkehr verbrauchten Energie.
 Ziel ist es den Endenergieverbrauch im Güterverkehr bis zum Jahr 2030 um 15 bis 20 % gegenüber 2005 zu senken.</t>
         </is>
       </c>
-      <c r="I43" s="5" t="inlineStr">
+      <c r="I44" s="5" t="inlineStr">
         <is>
           <t>Transport creates a range of problems. For instance, noise and air pollution impair quality of life, especially in cities, and traffic-related emissions contribute to climate change. The emission of harmful greenhouse gases is closely linked to the energy consumed for transport purposes.
 The aim is to reduce final energy consumption in goods transport by 15 to 20 % by 2030 compared to 2005.</t>
         </is>
       </c>
-      <c r="J43" s="5" t="inlineStr">
+      <c r="J44" s="5" t="inlineStr">
         <is>
           <t>Die Daten zum Endenergieverbrauch im Inland werden der Transport-Emission-Model (TREMOD-)Datenbank des Instituts für Energie- und Umweltforschung (ifeu) entnommen. TREMOD ist ein Modell zur Bewertung von Verkehrsemissionen. Die Daten enthalten die Treibstoffverbräuche innerhalb Deutschlands unabhängig vom Ort der Betankung. Als Endenergie wird der direkt im Verkehr genutzte Teil der Energie bezeichnet. Die Umwandlungsverluste während der Herstellung der Kraftstoffe sowie eventuelle Leitungsverluste bleiben hierbei unberücksichtigt.
 Die Beförderungsleistungen des Güterverkehrs zur Berechnung des spezifischen Energieverbrauchs in diesem Sektor stammen auch aus TREMOD. Dabei wird der Güterverkehr über den Luftweg nicht mit einbezogen, da er vergleichsweise sehr gering ist.
@@ -4008,7 +4078,7 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Die Summe der Anteile von Güterverkehr (Indikator 11.2.a) und Personenverkehr (Indikator 11.2.b) am gesamten Endenergieverbrauch durch den Verkehr ergeben zusammen nicht 100 %. Diese Abweichung ist durch unterschiedliche Abgrenzungen der Energieverbrä</t>
         </is>
       </c>
-      <c r="K43" s="5" t="inlineStr">
+      <c r="K44" s="5" t="inlineStr">
         <is>
           <t>The data regarding domestic final energy consumption originates from the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. TREMOD is a model for evaluating transport emissions. The data record fuel consumption within Germany irrespective of where refuelling takes place. “Final energy” refers to that part of the total energy used that is directly consumed in transport. It does not cover the conversion losses that arise during the production of fuels or any pipeline losses that may occur.
 TREMOD also supplies the goods transport volumes which are used to calculate the specific energy consumption of this sector. Air freight transport is not included, as it accounts for negligibly small volumes.
@@ -4022,69 +4092,69 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;The sum of shares of goods transport (indicator 11.2.a) and passenger transport (indicator 11.2.b) in proportion to total final energy consumption in transport do not add up to 100 %. This discrepancy is caused by different definitions of energy consumption in passenger and goods transport (domestic consumption; source: TREMOD) and total final energy consumption in traffic (domestic sales; source: AG Energiebila</t>
         </is>
       </c>
-      <c r="L43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M43" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N43" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="L44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N44" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib02</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>11.2.b</t>
         </is>
       </c>
-      <c r="D44" s="4" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>Endenergieverbrauch im Personenverkehr</t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
         <is>
           <t>Final energy consumption in passenger transport</t>
         </is>
       </c>
-      <c r="F44" s="5" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt die Entwicklung des Endenergieverbrauchs durch die Beförderung von Personen mit der Bahn, im Luft- und Straßenverkehr (öffentlicher und Individualverkehr) im Inland dar.</t>
         </is>
       </c>
-      <c r="G44" s="5" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>Final energy consumption in passenger transport represents the energy consumption for the carriage of people within Germany by rail, by air and by road (public and private transport).</t>
         </is>
       </c>
-      <c r="H44" s="5" t="inlineStr">
+      <c r="H45" s="5" t="inlineStr">
         <is>
           <t>Der Verkehr bringt eine Reihe von Herausforderungen mit sich. So beeinträchtigen etwa Lärm und Luftschadstoffe die Lebensqualität insbesondere in Städten und verkehrsbedingte Emissionen tragen zum Klimawandel bei. Der Ausstoß von schädlichen Treibhausgasen (THG) steht im Zusammenhang mit der im Verkehr verbrauchten Energie.
 Ziel ist es, den Endenergieverbrauch im Personenverkehr bis zum Jahr 2030 um 15 bis 20 % zu senken.</t>
         </is>
       </c>
-      <c r="I44" s="5" t="inlineStr">
+      <c r="I45" s="5" t="inlineStr">
         <is>
           <t>Transport brings with it a range of challenges. For instance, noise and air pollution impair quality of life, especially in cities, and traffic-related emissions contribute to climate change. The emission of harmful greenhouse gases is linked to the energy consumed for transport purposes.
 The aim is to reduce final energy consumption in passenger transport by 15 to 20% by 2030.</t>
         </is>
       </c>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>Die Daten zum Endenergieverbrauch im Inland werden der Transport-Emission-Model-(TREMOD-)Datenbank des Instituts für Energie- und Umweltforschung (ifeu) entnommen. TREMOD ist ein Modell zur Bewertung von Verkehrsemissionen. Die Daten enthalten die Kraftstoffverbräuche im Zusammenhang mit dem Personenverkehr innerhalb Deutschlands – unabhängig vom Ort der Betankung – nach dem Verbrauchskonzept. Endenergie bezeichnet dabei den direkt im Verkehr genutzten Teil der Energie, lässt also die Umwandlungsverluste während der Herstellung der Kraftstoffe sowie eventuelle Leitungsverluste unberücksichtigt.
 Die Personenbeförderungsleistung gibt die Anzahl der zurückgelegten Personenkilometer an. Sie wird zur Berechnung des spezifischen Energieverbrauchs in diesem Sektor verwendet und stammt auch aus TREMOD. Im Luftverkehr werden nur die Inlandsflüge (nationaler Luftverkehr) berücksichtigt. Internationale Flüge vom und in das Bundesgebiet bleiben unberücksichtigt. Auch die Personenbeförderung in der Schifffahrt wird nicht einbezogen.
@@ -4096,7 +4166,7 @@
 &lt;sup&gt;2&lt;/sup&gt;Zur </t>
         </is>
       </c>
-      <c r="K44" s="5" t="inlineStr">
+      <c r="K45" s="5" t="inlineStr">
         <is>
           <t>The data regarding domestic final energy consumption originates from the TREMOD (Transport Emissions Estimation Model) database at the Institute for Energy and Environmental Research. TREMOD is a model for evaluating transport emissions. The data record fuel consumption associated with passenger transport within Germany, irrespective of where refuelling takes place (in accordance with the principle of actual final consumption). “Final energy” refers to that part of the total energy used that is directly consumed in transport, so it excludes conversion losses that arise during the production of fuels as well as any pipeline losses that may occur.
 The volume of passenger transport is expressed in terms of the number of passenger-kilometres travelled. Provided by TREMOD, this figure is used to calculate the specific level of energy consumption in this sector. In the aviation statistics, only domestic flights are taken into account. International flights departing from or landing in German territory are not counted. Nor is waterborne passenger transport included.
@@ -4108,68 +4178,68 @@
 &lt;sup&gt;2&lt;/sup&gt;For a better understanding: the heatin</t>
         </is>
       </c>
-      <c r="L44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M44" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N44" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N45" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01_Ib03</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>Z11_B02_P01</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>11.2.c</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>Erreichbarkeit von Mittel- und Oberzentren mit öffentlichen Verkehrsmitteln
 </t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>Accessibility of medium-sized and large cities by public transport</t>
         </is>
       </c>
-      <c r="F45" s="5" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>Der Indikator weist die bevölkerungsgewichtete durchschnittliche Reisezeit mit öffentlichen Verkehrsmitteln zum nächsten Mittel- oder Oberzentrum aus.</t>
         </is>
       </c>
-      <c r="G45" s="5" t="inlineStr">
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>The indicator shows population-weighted average travel times to the nearest medium-sized or large city by public transport.</t>
         </is>
       </c>
-      <c r="H45" s="5" t="inlineStr">
+      <c r="H46" s="5" t="inlineStr">
         <is>
           <t>Mobilität ist ein wichtiger Faktor, um Menschen soziale Teilhabe zu ermöglichen. Entsprechend sollten Raum und Verkehr so gestaltet werden, dass für die gesamte Bevölkerung gute Mobilitätsangebote und eine entsprechende Anbindung an Mittel- oder Oberzentren vorhanden sind. Ziel der Bundesregierung ist es daher, die durchschnittliche Reisezeit mit öffentlichen Verkehrsmitteln zum nächsten Mittel- oder Oberzentrum zu verringern.</t>
         </is>
       </c>
-      <c r="I45" s="5" t="inlineStr">
+      <c r="I46" s="5" t="inlineStr">
         <is>
           <t>Mobility is a key factor in enabling people to participate in society. Accordingly, urban development and transport should be designed to provide good mobility services and suitable connections to medium-sized or major cities for the entire population. Therefore, the goal of the Federal Government is to shorten the average amount of time it takes people to travel to their nearest medium-sized or major city by public transport.</t>
         </is>
       </c>
-      <c r="J45" s="5" t="inlineStr">
+      <c r="J46" s="5" t="inlineStr">
         <is>
           <t>Der Indikator wird vom Bundesinstitut für Bau-, Stadt- und Raumforschung (BBSR) berechnet. Als öffentliche Verkehrsmittel werden Verkehrsangebote definiert, die jede Person nach Entrichtung der jeweiligen Gebühren benutzen kann. Flexible Bedienformen wie zum Beispiel Anrufbusse, die ohne feste Haltestellen und Fahrpläne auf Anforderung verkehren, werden hierbei nicht berücksichtigt.
 Ein Vergleich zwischen den Werten des Indikators von 2012 und 2020 zeigt, dass sich die bevölkerungsgewichtete durchschnittliche Reisezeit zum nächsten Mittel- oder Oberzentrum in diesem Zeitraum von 23,5 auf 20,6 Minuten verkürzt hat. Dies entspricht einer Verringerung um 12,3 %.
@@ -4179,7 +4249,7 @@
 Die Einstufung eines Ortes als Mittel- oder Oberzentrum bestimmt sich nach der Ausstattung des Ortes mit Versorgungsangeboten an Waren, Dienstleistungen und Infrastruktur, die in den umgebenden Unterzentren nicht zur Verfügung stehen. Hierzu zählen unter anderem Facharztpraxen, Krankenhäuser, kulturelle Angebote sowie weiterführende Schulen und Hochschulen. In jedem Mittel- oder Oberzentrum, insbesondere in Großstädten, wurde nur ein Zielpunkt (Stadtzentrum) bestimmt. Die Zielhaltestellen wurden im Umkreis von einem Kilometer um den Zielpunkt gewählt und die schnellste Verbindung von der Starthaltestelle dorthin gesucht. Mithilfe kleinräumiger Bevölkerungsdaten des Statistischen Bundesamtes wurde dann ein bevölkerungsgewichteter Mittelwert der Reisezeit für Deutschland ermittelt.</t>
         </is>
       </c>
-      <c r="K45" s="5" t="inlineStr">
+      <c r="K46" s="5" t="inlineStr">
         <is>
           <t>The indicator is computed by the Federal Institute for Research on Building, Urban Affairs and Spatial Development. Public means of transport are defined as transport services that anyone can use on payment of the relevant fees. Flexible forms of operation, such as on-call buses that operate on demand without fixed stopping points and timetables, are not taken into account.
 Comparing the indicator values for 2012 and 2020 shows that the population-weighted average travel time to the nearest medium-sized or major city fell from 23.5 to 20.6 minutes during that period. This equates to a reduction of 12.3 %.
@@ -4189,67 +4259,67 @@
 The classification of an urban centre as a medium-size or large city is determined according to the availability of goods, services and infrastructure that are not available in the surrounding regional towns. These include, among other things, specialist medical practices, hospitals, cultural facilities as well as secondary schools and institutions of higher education. In each intermediate or large city, especially in large cities, only one location in the city centre was designated as the destination. The destination stops were selected within a radius of one kilometre around that destination point, and the quickest connection from each departure stop to that point was sought. A population-weighted average value of the travel time for Germany was then determined with the help of small-scale population data from the Federal Statistical Office.</t>
         </is>
       </c>
-      <c r="L45" s="4" t="inlineStr">
+      <c r="L46" s="4" t="inlineStr">
         <is>
           <t>11.2.1</t>
         </is>
       </c>
-      <c r="M45" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N45" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N46" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>Z11_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>Z11_B03_P01</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>11.3</t>
         </is>
       </c>
-      <c r="D46" s="4" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>Überlastung durch Wohnkosten</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>Housing cost overload</t>
         </is>
       </c>
-      <c r="F46" s="5" t="inlineStr">
+      <c r="F47" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Anteil der Personen, die in Haushalten leben, welche mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben. Ausgaben für Wohnen sind dabei die Nettokaltmiete, Nebenkosten, Energiekosten und Ausgaben für Wasserversorgung sowie bei Wohneigentum werterhaltende Investitionen und Zinszahlungen für Kredite.</t>
         </is>
       </c>
-      <c r="G46" s="5" t="inlineStr">
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the share of people living in households where more than 40 % of disposable household income is spent on housing. Housing costs comprise rent and ancillary charges, energy costs and water bills as well as, in the case of home ownership, investments to maintain the value of a property and interest payments on associated loans.</t>
         </is>
       </c>
-      <c r="H46" s="5" t="inlineStr">
+      <c r="H47" s="5" t="inlineStr">
         <is>
           <t>Hohe Wohnkosten führen dazu, dass Haushalte in ihren übrigen Konsumentscheidungen eingeschränkt werden. Ausgaben für Wohnen von mehr als 40 % des verfügbaren Haushaltseinkommens werden als Überlastung angesehen. Der Anteil der Personen, die in Haushalten leben, die mehr als 40 % ihres verfügbaren Haushaltseinkommens für Wohnen ausgeben, soll deshalb bis zum Jahr 2030 auf 13 % gesenkt werden.</t>
         </is>
       </c>
-      <c r="I46" s="5" t="inlineStr">
+      <c r="I47" s="5" t="inlineStr">
         <is>
           <t>High housing costs place restrictions on households with regard to their other consumption choices. Housing expenses amounting to more than 40 % of disposable household income are considered to be excessive. The share of people who live in households where more than 40 % of disposable household income is spent on housing is therefore to be reduced to 13 % by 2030.</t>
         </is>
       </c>
-      <c r="J46" s="5" t="inlineStr">
+      <c r="J47" s="5" t="inlineStr">
         <is>
           <t>Der Indikator setzt die Ausgaben für Wohnen in Relation zum verfügbaren Haushaltseinkommen. Erhält ein Haushalt Wohngeld oder vergleichbare Sozialleistungen (zum Beispiel Leistungen für Unterkunft und Heizung der Grundsicherung) werden diese bei der Berechnung des Indikators berücksichtigt. Diese Sozialleistungen werden nicht dem Einkommen zugeschlagen, sondern von den Wohnkosten abgezogen, sodass die Wohnkostenbelastung von Haushalten, die auf wohnungsbezogene Sozialleistungen angewiesen sind, reduziert wird bzw. gegen null geht.
 Der Kauf einer selbst genutzten Immobilie wird nicht zu den Ausgaben für Wohnen gezählt, ebenso wie weitere Ausgaben für Maßnahmen, die den Wert einer Immobilie steigern. Allerdings ist eine Abgrenzung von den werterhaltenden Ausgaben, die zu den Ausgaben für Wohnen zählen, nicht immer eindeutig möglich. Diese Schwierigkeiten in der Erfassung der exakten Wohnkosten sollten bei der Interpretation der Ergebnisse berücksichtigt werden. Auch berücksichtigt der Indikator keine zusätzlichen, mit dem Wohnort verbundenen Ausgaben. So werden beispielsweise Ausgaben für Fahrten zwischen Wohnort und Arbeitsstelle nicht berücksichtigt, obwohl die Schwelle von 40 % möglicherweise nur aufgrund des arbeitsplatzfernen Wohnens unterschritten wird.
@@ -4259,7 +4329,7 @@
 Der Indikator besitzt nur eingeschränkte Aussagekraft bezüglich der eigentlichen Wohnsituation und des verfügbaren Einkommens, denn es werden durch die Berechnungsweise auch einkommensstarke Haushalte mit hohen Ausgaben für Wohnen als überlastet angezeigt. Die Daten belegen allerdings, dass besonders die armutsgefährdete Bevölkerung, das heißt Personen, die über weniger als 60 % des Medians der Äquivalenzeinkommen der Bevölkerung verfügen, von einer Überlastung durch Wohnkosten betroffen ist. Der Anteil der durch Wohnkosten Überlasteten lag unter den Armutsgefährdeten zwischen 2010 (42,2 %) und 2019 (48,3 %) insgesamt auf einem sehr hohen Niveau. Die Anteile bei den nicht Armutsgefährdeten waren dagegen deutlich geringer (2010: 9,4 % und 2019: 8,0 %). Bei beiden Personengruppen zeigt sich im Zeitverlauf die gleiche Entwicklung wie bei der Zeitreihe insgesamt.</t>
         </is>
       </c>
-      <c r="K46" s="5" t="inlineStr">
+      <c r="K47" s="5" t="inlineStr">
         <is>
           <t>The indicator expresses housing costs relative to disposable household income. If a household is receiving housing benefits or comparable social benefits, such as social-security payments for accommodation and heating, these are also included in the calculations. These social benefits are not added to the income amount but are deducted from the housing costs, so that the burden of housing expenses on households that rely on housing-related social benefits is reduced or almost nullified.
 The purchase of an owner-occupied property is not included in the expenditure on housing. Other spending on measures to enhance the value of a property should not be taken into account either. However, it is not always possible to clearly differentiate between these and value-maintaining expenditures that are considered as housing expenditure. Therefore, some simplifying assumptions must be made. Moreover, the indicator also does not take into account any additional expenditure associated with the place of residence. For instance, expenditure on travelling from the place of residence to the workplace is not taken into account, although it is possible that the threshold of 40 % is not reached only due to the fact that the place of residence is far away from work.
@@ -4269,67 +4339,67 @@
 With regard to the actual housing situation and disposable income, the indicator provides only a limited amount of meaningful information. After all, the calculation method means that households with high incomes and high expenditure on housing also appear to be overburdened. Meanwhile, the data show that it is people at risk of poverty – that is, those with less than 60 % of the median equivalised income for the population – who are particularly affected by excessive housing costs. Some 42.2 % of people at risk of poverty were overburdened by housing costs in 2010, rising to 48.3 % by 2019. In total, the values are on a high level. In contrast, excessive housing costs affected a markedly smaller proportion of people considered not at risk of poverty. The 2019 figure of 8.0 % was lower than the 9.4 % recorded in 2010. Both groups develop in the same direction as the overall trend of the time series.</t>
         </is>
       </c>
-      <c r="L46" s="4" t="inlineStr">
+      <c r="L47" s="4" t="inlineStr">
         <is>
           <t>11.1.1</t>
         </is>
       </c>
-      <c r="M46" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N46" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="47">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N47" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>Z11_B04_P01_Ib01</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>Z11_B04_P01</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>11.4</t>
         </is>
       </c>
-      <c r="D47" s="4" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>Zahl der Objekte in der Deutschen Digitalen Bibliothek</t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>Number of objects in the German Digital Library</t>
         </is>
       </c>
-      <c r="F47" s="5" t="inlineStr">
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Anzahl der Objekte, die in der Deutschen Digitalen Bibliothek (DDB) vernetzt sind.</t>
         </is>
       </c>
-      <c r="G47" s="5" t="inlineStr">
+      <c r="G48" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of objects in the network of the German Digital Library, or Deutsche Digitale Bibliothek (DDB).</t>
         </is>
       </c>
-      <c r="H47" s="5" t="inlineStr">
+      <c r="H48" s="5" t="inlineStr">
         <is>
           <t>In der Deutschen Digitalen Bibliothek (DDB) werden die digitalen Angebote der deutschen Kultur- und Wissenseinrichtungen zentral miteinander vernetzt und online zugänglich gemacht. Die Deutsche Digitale Bibliothek eröffnet dadurch Wissenschaft und kulturinteressierten Nutzerinnen und Nutzern gleichermaßen einen zeitgemäßen und niederschwelligen Zugang. Der Indikator ist somit Gradmesser für die digitale Zugänglichmachung des Kultur- und Wissenserbes in Deutschland. Ziel ist es, die Anzahl der in der Deutschen Digitalen Bibliothek verzeichneten Objekte bis 2030 auf 50 Millionen zu steigern.</t>
         </is>
       </c>
-      <c r="I47" s="5" t="inlineStr">
+      <c r="I48" s="5" t="inlineStr">
         <is>
           <t>The German Digital Library connects and provides online access in one place to the digital holdings of Germany’s cultural institutions and repositories of learning. It thereby makes them easily accessible, in an up-to-date manner, to scholars and anyone else interested in culture. As such, the indicator is a useful gauge of the extent to which our shared heritage of culture and learning has been rendered digitally accessible in Germany. The goal is to increase the number of objects available via the German Digital Library to 50 million by 2030.</t>
         </is>
       </c>
-      <c r="J47" s="5" t="inlineStr">
+      <c r="J48" s="5" t="inlineStr">
         <is>
           <t>Die Deutsche Digitale Bibliothek (DDB) ist eine Plattform zur Vernetzung der digitalen Angebote von Institutionen wie Archiven, Bibliotheken und Museen. Sie wird von einem Netzwerk aus Kultur- und Wissenseinrichtungen des Bundes, der Länder und der Kommunen verwaltet.
 Finanziert wird sie gemeinsam vom Bund und von den Ländern. Die DDB hält die digitalen Bestände in der Regel nicht selbst vor, sondern stellt lediglich eine Verlinkung zu den Objekten bei den Partnereinrichtungen bereit. Für die Stabilität dieser Verlinkung sind die Partnereinrichtungen verantwortlich. Die Anzahl der Partnereinrichtungen, die Daten für die DDB bereitstellen, beläuft sich auf 448 (Stand: Mai 2020). Dabei machen Museen mit 183 und Archive mit 174 Einrichtungen den Großteil der Partnereinrichtungen aus.
@@ -4338,7 +4408,7 @@
 Zum Ende des Jahres 2015 verfügten 6,3 Millionen Objekte über ein Digitalisat und diese Zahl stieg bis zum Ende des ersten Halbjahres 2022 auf 14,9 Millionen an. Auch der prozentuale Anteil der Objekte mit Digitalisat an der Gesamtzahl der verknüpften Objekte stieg in diesem Zeitraum von 34,5 % im Jahr 2015 auf 35,2 % zum Ende des ersten Halbjahres 2022. Den Großteil der verknüpften digitalisierten Objekte machten zum Ende des ersten Halbjahres 2022 Textobjekte aus (61,8 %), gefolgt von Bildobjekten (34,9 %) und sonstigen Medien (2,8 %). Audio- und Videodateien machten dagegen mit 0,3 bzw. 0,2 % nur einen sehr geringen Anteil der digitalisierten Objekte in der DDB aus.</t>
         </is>
       </c>
-      <c r="K47" s="5" t="inlineStr">
+      <c r="K48" s="5" t="inlineStr">
         <is>
           <t>The German Digital Library is a platform created to connect the digital holdings of institutions like archives, libraries and museums. It is managed by a network of such repositories of culture and learning from the Federal Government, the Länder and local-authorities. 
 It is jointly funded by the Federal Government and the Länder. Most of the digital materials are held not by the German Digital Library itself but by partner institutions, while the DDB only hosts links to those objects. The partner institutions are responsible for the stability of the connection. As of May 2020, the number of partner institutions making data available for the German Digital Library had reached 448. The majority are museums or archives – 183 and 174 of them respectively.
@@ -4347,67 +4417,67 @@
 There were 6.3 million objects with digitised media at the end of 2015, rising to 14.9 million by the middle of 2022. Objects with digitised media also increased as a proportion of all the objects linked to in the German Digital Library, rising from around 34.5 % in 2015 to around 35.2 % by mid-2022. At the end of the first half of 2022, the majority of digitised objects available via the Library were texts (61.8 %), followed by pictures (34.9 %) and other media (2.8 %). In contrast, audio and video recordings made up only a very small proportion of digitised Library objects, at 0.3 % and 0.2 % respectively.</t>
         </is>
       </c>
-      <c r="L47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M47" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N47" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="L48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N48" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>12.1.a</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>Marktanteil von Produkten mit staatlichen Umweltzeichen</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>Market share of products certified by publicly managed eco-labelling schemes</t>
         </is>
       </c>
-      <c r="F48" s="5" t="inlineStr">
+      <c r="F49" s="5" t="inlineStr">
         <is>
           <t>Der Indikator misst den Marktanteil von Produkten mit freiwilligen oder verpflichtenden Umweltzeichen, deren Vergabegrundlagen von staatlichen Organen festgelegt werden. Zu den Umweltzeichen und Produkten gehören Energieverbrauchskennzeichnungen bei Personenkraftwagen (Pkw), Haushaltsgroßgeräten, Leuchtmitteln und Fernsehern, Bio-Siegel bei Lebensmitteln sowie Blauer Engel bei Hygienepapieren, Wasch- und Reinigungsmitteln.</t>
         </is>
       </c>
-      <c r="G48" s="5" t="inlineStr">
+      <c r="G49" s="5" t="inlineStr">
         <is>
           <t>The indicator measures the market share of products with voluntary or mandatory eco-labels, whose awarding procedures are stipulated by governmental bodies. The eco-labels and products comprise energy labels for cars, large household appliances, light bulbs and televisions, organic labels for foodstuff and Blue Angel for sanitary paper, detergents and cleaning supplies.</t>
         </is>
       </c>
-      <c r="H48" s="5" t="inlineStr">
+      <c r="H49" s="5" t="inlineStr">
         <is>
           <t>Private Haushalte können direkt und indirekt nachhaltig konsumieren. Einerseits beeinflusst ihre Einkaufsentscheidung ihre eigene Umweltbilanz, da energieeffiziente Fahrzeuge oder gedämmte Häuser in ihrer Nutzung weniger Energie benötigen und einen geringeren Ausstoß von Treibhausgasen verursachen. Andererseits können die Verbraucherinnen und Verbraucher Produkte erwerben, die auf besonders nachhaltige Weise hergestellt wurden. Ziel der Bundesregierung ist es daher, den Marktanteil von Produkten mit staatlichen Umweltzeichen bis 2030 auf 34 % zu erhöhen.</t>
         </is>
       </c>
-      <c r="I48" s="5" t="inlineStr">
+      <c r="I49" s="5" t="inlineStr">
         <is>
           <t>Private households can engage in sustainable consumption both directly and indirectly. Not only do their purchasing decisions influence their own ongoing impact on the environment, as energy-efficient vehicles or insulated homes require less energy to use and lead to lower emissions of greenhouse gases, but consumers can also purchase products that have been manufactured in particularly sustainable ways. The aim of the Federal Government is therefore to increase the market share of products certified by publicly managed ecolabelling schemes to 34 % by 2030.</t>
         </is>
       </c>
-      <c r="J48" s="5" t="inlineStr">
+      <c r="J49" s="5" t="inlineStr">
         <is>
           <t>Zwischen 2012 und 2019 stieg der Marktanteil von Produkten mit staatlichen Umweltzeichen von 3,6 auf 7,9 %. Dies entspricht einem Umsatz von insgesamt 26,5 Milliarden Euro im Jahr 2019. Der höchste Wert wurde 2016 mit 8,6 % erreicht. 2017 und 2018 ist der Anteil im Vergleich zum Vorjahr gesunken, während der Anteil 2019 wieder leicht stieg. Der Indikator folgt im Wesentlichen der Entwicklung auf dem Pkw-Markt. Der Marktanteil von A+-Pkw war von 14 % (2016) auf 9,6 % (2018) zurückgegangen und ist 2019 auf 10,0 % leicht gestiegen. Zuletzt entwickelte sich der Indikator zwar in die angestrebte Richtung, jedoch wird ohne eine deutliche Steigerung des Marktanteils das Ziel bis zum Jahr 2030 erheblich verfehlt.
 Die Daten zum Indikator stammen vom Umweltbundesamt (UBA). Das UBA verwendet zur Berechnung des Indikators Informationen aus diversen Quellen, wie zum Beispiel von der Gesellschaft für Konsumforschung. Der Indikator setzt sich aus den Marktanteilen von Produkten zusammen, welche entweder die höchste EU-Energieverbrauchskennzeichnung (EU-EVK) innerhalb ihrer Geräteklasse aufweisen oder mit einem der folgenden Umweltzeichen zertifiziert sind: EU-Ecolabel, EU-Bio-Siegel oder Blauer Engel. Die EU-EVK adressiert primär Energieverbrauch und Treibhausgasemissionen, während die anderen drei Umweltzeichen auch andere Umweltbelastungen wie Pestizideinsatz und gefährliche Abwässer berücksichtigen. Der Indikator soll abbilden, ob umweltfreundliche Produktvarianten konventionelle Produktvarianten im Markt ersetzen. Betrachtet wird dabei nur eine Auswahl an Produktgruppen, weil unter anderem nur begrenzt Daten zu Umsätzen von Produkten mit Nachhaltigkeitskennzeichen verfügbar sind. Zudem sollen Doppelzählungen ausgeschlossen werden.
@@ -4415,7 +4485,7 @@
 Eine Gewichtung der Marktanteile nach Umweltrelevanz der jeweiligen Produktgruppen ist nicht möglich, da die Umweltzeichen verschiedene Kategorien (Energieverbrauch, Treibhausgasemissionen, Materialbedarf) adressieren, die nicht aufgerechnet werden können. Daher lässt sich eine allumfassende Bewertung über mehrere Umweltkategorien – im Sinne eines Umweltfußabdrucks der Produktgruppen – nicht darstellen. Der Indikator erfasst zudem nur die neu in den Verkehr gebrachten Güter in Relation zum Gesamtmarkt. Somit berücksichtigt er nicht, inwieweit die höhere Effizienz der Geräte zu einer Verhaltensänderung der Konsumenten führt und gegebenenfalls zu einem erhöhten Konsum (sogenannter Rebound-Effekt). Er beschreibt zudem den Marktanteil auf Basis von Umsätzen. Bedingt durch Preisunterschiede zwischen Produkten mit und ohne entsprechende Umweltsiegel lässt er keine Rückschlüsse auf deren Anzahl zu. Folglich kann eine Änderung des Indikatorwertes auch auf Preisänderungen in einer Produktgruppe zurückzuführen sein.</t>
         </is>
       </c>
-      <c r="K48" s="5" t="inlineStr">
+      <c r="K49" s="5" t="inlineStr">
         <is>
           <t>Between 2012 and 2019, the market share of products certified by publicly managed ecolabelling schemes increased from 3.6 % to 7.9 %. This is equivalent to a turnover of 26.5 billion euros in 2019. The highest value was measured in 2016 at 8.6 %. The indicator value sank in 2017 and 2018 relative to the previous year, whereby the share slightly increased in 2019. Basically, the indicator follows the trend of the car market. The market share of A + cars decreased from 14 % (2016) to 9.6 % (2018) and increased again in 2019 (10.0 %). The trend of the indicator developed in the right direction but unless the trend is reversed and the market share is considerably increased, Germany will fall short of the 2030 target.
 The data used for this indicator comes from the German Environment Agency (UBA). The UBA utilizes information from various sources for the calculation of the indicator, for example from the consumer research institute. The indicator is made up of the market share of products which either bear the highest category of EU energy label within their class or are certified by the EU Ecolabel, the Euro-leaf organic logo or the German Blue Angel. The EU energy label primarily addresses energy consumption and greenhouse gas emissions, while the other three ecolabels also take into account other threats to the environment such as pesticide use and harmful wastewater. The indicator is intended to show whether environmentally friendly product variants are replacing conventional ones in the market. Only a selection of product groups is examined, in part because limited data are available on turnover for products bearing sustainability labels. This also makes it possible to avoid certain products being counted more than once.
@@ -4423,67 +4493,67 @@
 It is not possible to weight the market shares according to the market relevance of the respective product groups because the environmental labels address different categories (energy consumption, greenhouse gas emissions, material demand) that cannot be balanced against one another. This also makes it impossible to set out the environmental footprint, or comprehensive evaluation taking in several environmental categories, of each product group. Moreover, the indicator only covers goods newly brought into circulation in relation to the market as a whole. It thereby gives no indication as to whether the enhanced efficiency of an appliance results in a change in consumer behaviour and perhaps to an increase in consumption – the rebound effect. It also describes the market share on the basis of turnover. Given the price differences between products with and without the relevant ecolabels, this means no conclusions can be drawn about their numbers. It follows that a change in the indicator value might have been caused by price alterations within a product group.</t>
         </is>
       </c>
-      <c r="L48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M48" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N48" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N49" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>Z12_B01_P01</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>12.1.b</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>Globale Umweltinanspruchnahme durch den Konsum privater Haushalte</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>Global environmental impact by private household consumption</t>
         </is>
       </c>
-      <c r="F49" s="5" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>Die globale Beanspruchung der Umwelt durch den Konsum privater Haushalte wird hier durch drei Indikatoren dargestellt. Das sind im Einzelnen der in- und ausländische Rohstoffeinsatz, Energieverbrauch und der Ausstoß von Kohlendioxid (CO2) im Zusammenhang mit der Produktion und dem Verbrauch aller Güter für die Konsumaktivitäten inländischer privater Haushalte.</t>
         </is>
       </c>
-      <c r="G49" s="5" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>The impact caused to the environment around the world by private household consumption is shown here by three indicators. They are domestic and foreign energy consumption, emissions of carbon dioxide (CO2) and the use of raw materials in connection with the production and use of all goods destined for the consumption of private households in Germany.</t>
         </is>
       </c>
-      <c r="H49" s="5" t="inlineStr">
+      <c r="H50" s="5" t="inlineStr">
         <is>
           <t>Private Haushalte haben durch Konsumaktivitäten einen wesentlichen Anteil am Ressourcenverbrauch einer Volkswirtschaft. Dieser Verbrauch erstreckt sich jedoch nicht nur auf das Inland, sondern findet durch die Produktion importierter Güter auch indirekt im Ausland statt. Der Indikator gibt daher Aufschluss über die globale Umweltinanspruchnahme durch Konsumaktivitäten privater Haushalte. Mit einer Minderung beispielsweise des Energieverbrauchs werden Ressourcen im In- und Ausland eingespart und klimaschädliche Kohlendioxidemissionen vermieden. Ziel der Bundesregierung ist es, die Umweltinanspruchnahme in Zusammenhang mit den Konsumaktivitäten privater Haushalte in allen drei Bereichen kontinuierlich zu reduzieren.</t>
         </is>
       </c>
-      <c r="I49" s="5" t="inlineStr">
+      <c r="I50" s="5" t="inlineStr">
         <is>
           <t>Through their spending habits, private households are responsible for a significant proportion of an economy’s consumption of resources. That consumption occurs not only within the country in question but also indirectly includes the consumption which is involved in the production of imported goods. The indicator therefore provides information about the impact being done to the environment on a global scale as a result of private household consumption. Reducing energy consumption, for example, will conserve resources both domestically and abroad and prevent environmentally harmful carbon dioxide emissions. The intention of the Federal Government is to continuously cut the environmental impact that occurs in connection with private household consumption in all three areas.</t>
         </is>
       </c>
-      <c r="J49" s="5" t="inlineStr">
+      <c r="J50" s="5" t="inlineStr">
         <is>
           <t>Das Konsumverhalten privater Haushalte hat verschiedene Auswirkungen auf die Umwelt, sowohl national als auch durch Spill-over-Effekte auf die Umwelt im Ausland. Der Indikator stellt für den inländischen Konsum drei der verantwortlichen Einflussfaktoren, nämlich den Rohstoffeinsatz, den Energieverbrauch und die CO2-Emissionen sowohl im In- als auch im Ausland dar. Die zugehörigen Daten werden in den Umweltökonomischen Gesamtrechnungen (UGR) aus verschiedenen amtlichen und nichtamtlichen Quellen errechnet.
 Ressourcen können direkt oder indirekt durch Haushalte konsumiert werden. Der Einsatz von Erdgas, etwa zum Heizen, oder von Kraftstoff im Straßenverkehr, aber auch der Verzehr von Nahrung zählen zum direkten Konsum. Zudem werden Ressourcen auch während des gesamten Herstellungsprozesses von Konsumgütern und ihres Transports im In- und Ausland in den Gütern gebunden oder verbraucht. Der Konsum erfolgt dann indirekt bei Erwerb und Nutzung dieser Güter durch inländische private Haushalte. Beide Arten des Konsums werden mit dem vorliegenden Indikator erfasst und für Rohstoffe, Energie und CO2 dargestellt.
@@ -4495,7 +4565,7 @@
 Dieser Indikator weist Querbezüge zum Indikator 8.1 „Gesamtrohstoffproduktivität“ auf.</t>
         </is>
       </c>
-      <c r="K49" s="5" t="inlineStr">
+      <c r="K50" s="5" t="inlineStr">
         <is>
           <t>The consumption behaviour of private households has different consequences for the environment of national and international countries, whereby latter is particularly affected by spill-over effects. This indicator reflects three of the factors behind this impact, namely energy consumption, CO2 emissions and the use of raw materials for Germany and foreign countries. The relevant data are collated in the environmental economic accounts of a range of governmental and non-governmental sources.
 Resources may be consumed by households directly or indirectly. Direct consumption might be the use of gas for heating, fuel for transport or food to eat. Resources are also tied up or consumed at every stage of the process of manufacturing and transporting consumer goods both within Germany and abroad. All of that counts as indirect consumption by German private households when they buy and use those goods. Both types of consumption are included in the present indicator, the environmental impact represented in terms of energy, raw materials and CO2.
@@ -4507,70 +4577,70 @@
 This indicator can be usefully cross-referenced with indicator 8.1 on “raw material input productivity”.</t>
         </is>
       </c>
-      <c r="L49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M49" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N49" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7">
+      <c r="L50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
         <v>45565</v>
       </c>
     </row>
-    <row outlineLevel="0" r="50">
-      <c r="A50" s="4" t="inlineStr">
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>Z12_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>Z12_B02_P01</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>12.2</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>Umweltmanagement EMAS</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
         <is>
           <t>EMAS eco-management</t>
         </is>
       </c>
-      <c r="F50" s="5" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Anzahl der in Deutschland für das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) registrierten Standorte sowohl deutscher als auch ausländischer Organisationen.</t>
         </is>
       </c>
-      <c r="G50" s="5" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of locations in Germany registered with EMAS, the Eco-Management and Audit Scheme, for German as well as foreign organisations.</t>
         </is>
       </c>
-      <c r="H50" s="5" t="inlineStr">
+      <c r="H51" s="5" t="inlineStr">
         <is>
           <t>Klimawandel, Energiewende und Ressourcenknappheit stellen Unternehmen vor neue Herausforderungen mit der Folge, dass sie ihre betriebswirtschaftlichen Abläufe, Strukturen und Produkte entsprechend umwelt- und ressourcenschonend gestalten müssen. Das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) bietet ein Konzept für einen systematischen betrieblichen Umweltschutz und ist mit dem Anspruch verbunden, die Umweltleistung des Organisationsstandortes stetig zu verbessern. Deshalb lautet das Ziel, bis zum Jahr 2030 insgesamt 5 000 Organisationsstandorte für das Umweltmanagement EMAS auszuweisen.</t>
         </is>
       </c>
-      <c r="I50" s="5" t="inlineStr">
+      <c r="I51" s="5" t="inlineStr">
         <is>
           <t>Climate change, the energy transition and scarcity of resources are presenting companies with new challenges that are forcing them to reconfigure their business processes, structures and products along environmentally responsible and resource-saving lines. EMAS offers a strategy for organisations to pursue systematic environmental protection, with the ultimate aim of steadily improving their locations’ environmental performance. The goal is therefore to identify a total of 5,000 organisation premises for registration with EMAS by 2030.</t>
         </is>
       </c>
-      <c r="J50" s="5" t="inlineStr">
+      <c r="J51" s="5" t="inlineStr">
         <is>
           <t>Das Umweltmanagementsystem EMAS (Eco-Management and Audit Scheme) ist ein freiwilliges Instrument der Europäischen Union (EU), das Organisationen jeder Größe und Branche dabei unterstützt, ihre Umweltleistung kontinuierlich zu verbessern. Eine EMAS-Zertifizierung impliziert dabei nicht, dass eine Organisation oder ihre Produkte per se umweltfreundlicher als vergleichbare Organisationen bzw. Produkte ist bzw. sind. Mit EMAS ist eine Umweltberichtspflicht (sogenannte Umwelterklärung) verbunden. Diese beinhaltet die Berichterstattung zu den wesentlichen Umweltauswirkungen des betreffenden Unternehmens sowie die Datenbereitstellung zu den Themenfeldern Energie, Emissionen, Material, Wasser, Abfall und Flächenverbrauch bezüglich biologischer Vielfalt. Die Umwelterklärung muss von den Organisationen jährlich – seit 2010 von kleinen und mittleren Unternehmen auf Antrag zweijährlich – aktualisiert werden. Die öffentliche Umwelterklärung sowie weitere interne Dokumente werden von unabhängigen, staatlich zugelassenen Umweltgutachterinnen und Umweltgutachtern geprüft. Die Prüfung ist regelmäßig und dabei spätestens alle drei Jahre zu wiederholen. Organisationen, welche die Überprüfung erfolgreich bestehen und bei denen keine Umweltrechtsverstöße oder Beschwerden vorliegen, werden in das EMAS-Register eingetragen. Für die Qualitätssicherung ist der Umweltgutachterausschuss (UGA)&lt;sup&gt;1&lt;/sup&gt; zuständig. EMAS-Organisationen und -Standorte werden durch die zuständige Industrie- und Handelskammer (IHK) oder Handwerkskammer registriert und in einer öffentlich zugänglichen Datenbank beim Deutschen Industrie- und Handelskammertag (DIHK) gespeichert.
 Methodisch ist zu beachten, dass im EMAS-Register die Anzahl der Registrierungen abgebildet wird. Teilnehmenden Organisationen steht es frei, unter einer Organisationsregistrierung mehrere Standorte aufzunehmen (Sammelregistrierung) oder Standorte einzeln registrieren zu lassen. Einige Organisationen haben zum Teil auch ihre ausländischen Standorte in Deutschland registrieren lassen. Diese befinden sich ebenfalls im EMAS-Register, sind jedoch bei der hier ausgewiesenen Anzahl der EMAS-Standorte nicht enthalten.
@@ -4580,7 +4650,7 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Der Umweltgutachterausschuss (UGA) ist ein unabhängiges Beratungsgremium des Bundesministeriums für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz (BMUV).&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="K50" s="5" t="inlineStr">
+      <c r="K51" s="5" t="inlineStr">
         <is>
           <t>EMAS is a voluntary instrument of the European Union that helps organisations of any size and in any sector to continuously improve their environmental performance. Having EMAS certification does not automatically mean that organisations or their products are more environmentally friendly than comparable organisations and products. EMAS involves a reporting obligation requiring organisations to submit environmental statements. These statements include reporting on the main environmental impacts of the organisation in question as well as data pertaining to energy and material efficiency, emissions, water, waste and use of land/biodiversity. Organisations have to update their environmental statements annually, with the exception introduced in 2010 that small and medium-sized enterprises can apply to do so every two years instead. The environmental statement, which is public, and various additional internal documents are inspected by independent, licensed environmental verifiers. The verification must be repeated on a regular basis, no less than every three years. Organisations that pass the verification process and have no breaches of environmental regulations or complaints to answer for are added to the EMAS register. The German EMAS Advisory Board&lt;sup&gt;1&lt;/sup&gt; is responsible for quality assurance. EMAS organisations and locations are registered by the responsible chambers of industry and commerce and stored in a publicly accessible database at the Association of German Chambers of Commerce and Industry.
 In terms of methodology, it should be noted that the EMAS register shows the number of registrations. Participating organisations are free to include several locations under a single organisation registration (corporate registration) or to have their locations registered individually. Some organisations have had their sites abroad registered in Germany. These are present in the EMAS register, but they are not included in the number of EMAS locations recorded here.
@@ -4590,71 +4660,71 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;The EMAS Advisory Board is an independent advisory body of the Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="L50" s="4" t="inlineStr">
+      <c r="L51" s="4" t="inlineStr">
         <is>
           <t>12.6.1</t>
         </is>
       </c>
-      <c r="M50" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N50" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N51" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>Z12_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>Z12_B03_P01</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>12.3.a,b</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>Nachhaltige Beschaffung</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t>Sustainable procurement</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren zeigen Nachhaltigkeit in der Beschaffung exemplarisch anhand der Teilbereiche Papier sowie CO2-Emissionen von Kraftfahrzeugen (Kfz). Beide Indikatoren werden als Indizes mit dem Basisjahr 2015 dargestellt.
 Der Indikator 12.3.a „Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung“ bildet den Anteil von Papier mit dem Umweltsiegel Blauer Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung ab. Dabei wird ab dem Berichtsjahr 2018 ausschließlich nichtfarbiges DIN-A4-Druck- und Kopierpapier erfasst.
 Der Indikator 12.3.b „CO2-Emissionen je Fahrleistungen der Kfz der öffentlichen Hand“ setzt die CO2-Emissionen ins Verhältnis zu den entsprechenden Fahrleistungen.</t>
         </is>
       </c>
-      <c r="G51" s="5" t="inlineStr">
+      <c r="G52" s="5" t="inlineStr">
         <is>
           <t>These indicators show sustainability in procurement through the examples of paper and the CO2 emissions of motor vehicles. Each is depicted as an index using 2015 as its base year.
 Indicator 12.3.a ”Paper bearing the Blue Angel label as a proportion of the total paper consumption of the direct federal administration” measures what proportion of total paper procured for the direct federal administration is certified with the Blue Angel ecolabel. Since reporting year 2018, only non-coloured A4-sized printer and copier paper is recorded.
 Indicator 12.3.b “CO2 emissions of publicity owned vehicles by distance travelled” shows the CO2 emissions of publicly owned vehicles in relation to the distances they travel.</t>
         </is>
       </c>
-      <c r="H51" s="5" t="inlineStr">
+      <c r="H52" s="5" t="inlineStr">
         <is>
           <t>Der Themenbereich „Nachhaltige Beschaffung“ ist sehr komplex. Hier werden exemplarisch produktspezifische Indikatoren betrachtet. Während für den Anteil von Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung ein Wert von 95 % bis zum Jahr 2020 anvisiert ist, soll das Verhältnis von CO2-Emissionen je Fahrleistungen zukünftig weiter sinken. Die öffentliche Hand hat einen wesentlichen Anteil an der Nachfrage von Produkten und Dienstleistungen. Die Ausrichtung der öffentlichen Beschaffung am Leitprinzip der Nachhaltigkeit und die Stärkung von Nachhaltigkeitskriterien bei der öffentlichen Beschaffung sollen daher als Hebel für die Steigerung des Angebots nachhaltiger Produkte wirken. Ziel der Bundesregierung ist es, Nachhaltigkeit in der öffentlichen Beschaffung generell zu stärken.</t>
         </is>
       </c>
-      <c r="I51" s="5" t="inlineStr">
+      <c r="I52" s="5" t="inlineStr">
         <is>
           <t>Sustainable procurement is a very complex topic. Product-specific indicators are examined here as examples. While the proportion of paper bearing the Blue Angel ecolabel is supposed to reach 95 % of the direct federal administration’s total paper use by 2020, the ratio of CO2 emissions to distance travelled is supposed to continue sinking. The public sector accounts for a considerable share of demand for products and services. It is therefore aimed that establishing sustainable development as a guiding principle of public procurement and reinforcing sustainability criteria within public procurement will serve as a lever to increase provision of sustainable products. The Federal Government’s aim is to strengthen sustainability across public procurement generally.</t>
         </is>
       </c>
-      <c r="J51" s="5" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
         <is>
           <t>&lt;b&gt;&lt;i&gt;Anteil Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung&lt;/i&gt;&lt;/b&gt;&lt;br&gt;Die Daten für die Berechnung des Anteils von Papier mit Blauem Engel am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung werden durch das Monitoring des Maßnahmenprogramms Nachhaltigkeit erhoben, das vom Bundeskanzleramt durchgeführt und von der Kompetenzstelle für nachhaltige Beschaffung (KNB) beim Beschaffungsamt des BMI (BeschA) unterstützt wird. Der Blaue Engel ist ein Umweltzeichen für umweltschonende Produkte und Dienstleistungen. Bezogen auf Papier bedeutet dieses Siegel, dass die Papierfasern zu 100 Prozent aus Altpapier gewonnen werden und dass bei der Herstellung auf schädliche Chemikalien oder optische Aufheller verzichtet wird.
 Der Anteil des Papiers mit Blauem Engel ist von 2015 bis 2020 nach vorläufigen Daten um rund 113 % gestiegen. Im Jahr 2015 betrug der Anteil 45 % am Gesamtpapierverbrauch der unmittelbaren Bundesverwaltung und erreichte 2020 einen Wert von rund 96 %. Dies entspricht einer Zunahme um 112,9 % (Indexwert = 212,9). Somit folgt der Indikator der Zielsetzung des Maßnahmenprogramms Nachhaltigkeit, den Anteil des Einsatzes von Papier mit dem Blauen Engel auf 95 % bis 2020 zu steigern. Der Gesamtpapierverbrauch sank im Jahr 2020 im Vergleich zum Vorjahr um 14,1 % (von rund 993 Millionen auf rund 852 Millionen Blatt Papier). Für den Zeitraum zwischen 2015 und 2020 betrug die Reduktion des Gesamtpapierverbrauchs insgesamt 33,4 %.
@@ -4668,7 +4738,7 @@
 Der hier betrachtete Indikator bezieht sich ausschließlich auf den Umweltaspekt der Nachhaltigkeit. Zudem werden nur diejenigen CO2-Emissionen berücksichtigt, die im B</t>
         </is>
       </c>
-      <c r="K51" s="5" t="inlineStr">
+      <c r="K52" s="5" t="inlineStr">
         <is>
           <t>&lt;b&gt;&lt;i&gt;Paper with Blue Angel certification as a proportion of the direct federal administration’s total paper consumption&lt;/i&gt;&lt;/b&gt;
 The data used to calculate the proportion of Blue Angel-certified paper in the direct federal administration’s total paper consumption are collated through the monitoring of the Programme of Sustainability Measures being conducted by the Federal Chancellery and supported by the Centre of Excellence for Sustainable Procurement at the Procurement Office of the Federal Ministry of the Interior. The Blue Angel is an ecolabel for environmentally friendly products and services. When awarded to paper, it means that 100 % of the paper fibres were recovered from wastepaper and that no harmful chemicals or bleaching agents were used in the production process.
@@ -4684,69 +4754,69 @@
 The indicator under consideration here relates only to the environmental aspect of sustainability. Moreover, it only covers the CO2 emissions released during the vehicles’ operation. Looking at their entire life-cycle costs, there are more greenhouse-gas emissions, occurring during the processes</t>
         </is>
       </c>
-      <c r="L51" s="4" t="inlineStr">
+      <c r="L52" s="4" t="inlineStr">
         <is>
           <t>12.7.1</t>
         </is>
       </c>
-      <c r="M51" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N51" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N52" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>Z13_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>Z13_B01_P01</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>13.1.a</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>Treibhausgasemissionen</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t>Greenhouse gas emissions</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Index der Emissionen folgender Treibhausgase (Stoffe oder Stoffgruppen, in CO2-Äquivalenten): Kohlendioxid (CO2), Methan (CH4), Lachgas (N2O), Stickstofftrifluorid (NF3), teilhalogenierte Fluorkohlenwasserstoffe (H-FKW/HFC), perfluorierte Kohlenwasserstoffe (FKW/PFC) sowie Schwefelhexafluorid (SF6).</t>
         </is>
       </c>
-      <c r="G52" s="5" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the index of emissions of the following greenhouse gases (substances or substance groups) in CO2 equivalents: carbon dioxide (CO2), methane (CH4), nitrous oxide (N2O), nitrogen trifluoride (NF3), hydrofluorocarbons (H-FKW/HFC), perfluorocarbons (FKW/PFC) and sulphur hexafluoride (SF6).</t>
         </is>
       </c>
-      <c r="H52" s="5" t="inlineStr">
+      <c r="H53" s="5" t="inlineStr">
         <is>
           <t>Die globale Durchschnittstemperatur auf der Erdoberfläche steigt aufgrund der zunehmenden Konzentration von Kohlendioxid (CO2) und anderen Treibhausgasen (THG) in der Atmosphäre kontinuierlich an. Ziel der Bundesregierung ist es daher, bis zum Jahr 2030 die Treibhausgasemissionen in Deutschland um mindestens 65 % und bis zum Jahr 2040 um mindestens 88 % gegenüber 1990 zu senken. Das Ziel bis zum Jahr 2020 war eine Reduktion der Treibhausgasemissionen um 40 %. Bis zum Jahr 2045 soll die Treibhausgasneutralität erreicht werden.&lt;sup&gt;1&lt;/sup&gt;
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung der Zielwerte von mindestens 55 % bis 2030 gegenüber 1990 und Erreichung der Treibhausgasneutralität bis 2050 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="I52" s="5" t="inlineStr">
+      <c r="I53" s="5" t="inlineStr">
         <is>
           <t>The global average temperature on the surface of the Earth is continuously rising due to the increasing concentration of carbon dioxide and other greenhouse gases in the atmosphere. The Federal Government therefore aims to lower greenhouse gas emissions in Germany by at least 65 % by 2030 and by at least 88 % by 2040 compared with 1990. The target was to achieve a reduction of greenhouse gas emissions at 40 % by 2020. The intention is to achieve greenhouse gas neutrality by 2045&lt;sup&gt;1&lt;/sup&gt;.
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target values of at least 55 % by 2030 compared to 1990 level and achievement of greenhouse gas neutrality by 2050 according to policy resolution 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="J52" s="5" t="inlineStr">
+      <c r="J53" s="5" t="inlineStr">
         <is>
           <t>Die kurzwelligen Sonnenstrahlen werden von den verschiedenen Treibhausgasen (THG) in der Atmosphäre transmittiert und von der Erdoberfläche als langwellige Wärmestrahlung reflektiert. Die THG absorbieren und emittieren die von der Erde ausgehende Infrarotstrahlung in unterschiedlichen Wellenbereichen, mit unterschiedlicher Intensität und haben eine unterschiedliche Verweilzeit in der Atmosphäre. Daher tragen die Konzentrationen der einzelnen THG in unterschiedlichem Maße zum Treibhauseffekt bei. Um die Wirkung der Emissionen von verschiedenen THG dennoch vergleichen und zusammenfassen zu können, wird versucht ihre Wirkung auf die globale Erwärmung mittels „CO2-Äquivalenten“ zu beziffern. Durch die Zusammenfassung sind jedoch die Entwicklungen der THG im Einzelnen nicht ersichtlich, da die negative Entwicklung des einen THG durch die positive Entwicklung eines anderen THG überlagert werden kann.
 Die Daten werden jährlich durch das Umweltbundesamt (UBA) im Rahmen der Berichterstattung unter der Klimarahmenkonvention der Vereinten Nationen (UNFCCC: United Nations Framework Convention on Climate Change) dem Pariser Übereinkommen&lt;sup&gt;1&lt;/sup&gt; und dem Bundes-Klimaschutzgesetz (KSG) zur Verfügung gestellt. Die Emissionsermittlung und -berichterstattung unterliegt einem umfassenden Qualitätsmanagement.
@@ -4757,7 +4827,7 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt; Das Kyoto-Protokoll ist Ende 2020 abgelaufen. Für die Zeit nach 2020 einigten sich die Vertragsparteien der Klimarahmenkonvention auf ein neues Abkommen, das Pariser Übereinkommen, das das Kyoto-Protokoll ersetzt.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="K52" s="5" t="inlineStr">
+      <c r="K53" s="5" t="inlineStr">
         <is>
           <t>Short-wavelength sun rays are transmitted by various atmospheric greenhouse gases and reflected by the earth’s surface as long-wavelength thermal radiation. Greenhouse gases absorb and emit infrared radiation from the earth in different wave ranges with varying intensity, and have different residence time in the atmosphere. Hence, the effects of greenhouse gases are subject to their concentration in the atmosphere and contribute to a variable extent to the greenhouse effect. To summarise the various greenhouse gases into a single index, they are each expressed in “CO2 equivalents”, which means that they are converted into the quantity of CO2 that would have a comparable impact on global warming. Because of cumulation, however, the development of the individual greenhouse gases cannot be determined. A negative development of one greenhouse gas can for instance be concealed by a positive development of another greenhouse gas.
 The data is provided annually by the German Environment Agency as part of the reporting required under the United Nations Framework Convention on Climate Change (UNFCCC), the Paris Agreement&lt;sup&gt;1&lt;/sup&gt; and the Federal Climate Change Act. The measuring and reporting of emissions is subject to a comprehensive quality-management regime.
@@ -4768,77 +4838,77 @@
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Kyoto Protocol has expired at the end of 2020. From 2020 on, contracting parties of the UNFCCC committed to the Paris Agreement in lieu of the Kyoto Protocol.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="L52" s="4" t="inlineStr">
+      <c r="L53" s="4" t="inlineStr">
         <is>
           <t>13.2.2</t>
         </is>
       </c>
-      <c r="M52" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N52" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7">
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
         <v>45603</v>
       </c>
     </row>
-    <row outlineLevel="0" r="53">
-      <c r="A53" s="4" t="inlineStr">
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>Z13_B01_P02_Ib01</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>Z13_B01_P02</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>13.1.b</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>Internationale Klimafinanzierung zur Reduktion von Treibhausgasen und zur Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t>International climate finance for the reduction of greenhouse gases and adaptation to climate change</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>Der Indikator umfasst die Finanzierung von Maßnahmen zur Reduktion von Treibhausgasen (THG), zur Anpassung an den Klimawandel sowie klimarelevante Maßnahmen zum Erhalt der Biodiversität und zum Waldschutz (Projekte zum Schutz, zu nachhaltiger Nutzung und Wiederaufforstung von Wald im Rahmen des REDD+-Regelwerks). Die Maßnahmen erfolgen vorrangig in Entwicklungs- und Schwellenländern und werden aus deutschen Haushaltsmitteln (seit 2017 einschließlich der Schenkungsäquivalente von Entwicklungskrediten) finanziert.</t>
         </is>
       </c>
-      <c r="G53" s="5" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>This indicator covers the financing of measures to reduce greenhouse gases, adapt to climate change and/or take climate-related action to preserve biodiversity and protect forests (specifically, projects for the conservation and sustainable management of forests as well as reforestation within the REDD+ framework). The measures chiefly take place in developing and emerging countries and are financed using German budget funds (including grant elements of development loans since 2017).</t>
         </is>
       </c>
-      <c r="H53" s="5" t="inlineStr">
+      <c r="H54" s="5" t="inlineStr">
         <is>
           <t>Absicht der Bundesregierung ist es, ihre internationale Klimafinanzierung bis 2025 auf sechs Milliarden Euro&lt;sup&gt;1&lt;/sup&gt; aus Haushaltsmitteln zu erhöhen und somit den Sollwert von zwei Milliarden Euro des Jahres 2014 zu verdreifachen. In den Entscheidungen, welche das Klimaabkommen von Paris begleiteten, wurde die Zusage der Industrieländer von 2009 bekräftigt, ab dem Jahr 2020 bis 2025 gemeinsam 100 Milliarden US-Dollar aus öffentlichen und durch öffentliche Mittel mobilisierten privaten Quellen für den Klimaschutz und die Anpassung an den Klimawandel in Entwicklungsländern bereitzustellen.
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Anpassung des Zieljahres und -wertes von vier Milliarden Euro bis 2020 gemäß Grundsatzbeschluss 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="I53" s="5" t="inlineStr">
+      <c r="I54" s="5" t="inlineStr">
         <is>
           <t>The Federal Government’s aim is to raise its contribution to international climate finance to 6 billion euros&lt;sup&gt;1&lt;/sup&gt; from public funds and grant elements of development loans by 2025, thereby trebling the target value for 2014, which was 2 billion euros. In the decisions contained in the Addendum to the Paris Agreement, the industrialised countries reaffirmed their 2009 commitment to collectively provide 100 billion US-dollar from public funds and from private sources mobilised by public funds, every year from 2020 to 2025, for mitigation and adaptation to climate change in developing countries.
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Adjustment of the target year and target value from 4 billion euros by 2020 according to policy resolution 2022.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="J53" s="5" t="inlineStr">
+      <c r="J54" s="5" t="inlineStr">
         <is>
           <t>Die Daten des Indikators sind der Berichterstattung zur EU-Verordnung über ein System für die Überwachung von Treibhausgasen (THG) entnommen. Datenquelle der jährlich erhobenen Daten ist das Bundesministerium für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ), das in diesem Kontext auch über die Klimafinanzierung anderer Bundesministerien berichtet. Dabei werden für die Berechnung der Ausgaben für bilaterale Klimafinanzierung die Zusagen, für multilaterale Klimafinanzierung sowie für Beiträge zu Energie- und Klimafonds die tatsächlichen Auszahlungen zugrunde gelegt. Der Indikator beinhaltet darüber hinaus die anteilig zuzurechnende Klimafinanzierung, welche sich aus deren Beiträgen zu multilateralen Fonds bei Entwicklungsbanken ergibt. Sofern die Klimafinanzierung schwerpunktmäßig Entwicklungsländern zugutekommt, ist sie Teil der öffentlichen Entwicklungsausgaben (siehe Indikator 17.1 „Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen“).&lt;br&gt;Im Jahr 2021 wurden aus deutschen Haushaltsmitteln 5,34 Milliarden Euro für die internationale Klimafinanzierung zur Reduzierung von Treibhausgasen und zur Anpassung an den Klimawandel zugesagt bzw. bereitgestellt. Im Vergleich zum Vorjahr, in dem die Klimafinanzierung 5,09 Milliarden Euro betrug, ist ein Anstieg um 4,9 % zu verzeichnen. Das Ziel des Indikators von sechs Milliarden Euro bis zum Jahr 2025 wird bei Fortführung der bisherigen Entwicklung voraussichtlich erreicht. Das ursprüngliche Ziel – von vier Milliarden Euro bis zum Jahr 2020 – wurde bereits 2019 mit Zahlungen in Höhe von 4,34 Milliarden Euro erreicht. 36 % der Klimafinanzierungsmittel flossen 2021 in die Emissionsminderung und 33 % in die Anpassung an den Klimawandel. Mit den verbleibenden 30 % wurden bereichsübergreifende Projekte finanziert. Da die bereichsübergreifenden Projekte gleichermaßen minderungs- als auch anpassungsrelevant sind, ergibt sich nach Aufteilung dieser, dass – wie in den Jahren zuvor – auch 2021 mehr Mittel für Minderungsvorhaben (51 %) als für Anpassungsvorhaben (49 %) aufgewendet wurden.&lt;br&gt;Über multilaterale Kanäle wurden 18 % (971 Millionen Euro) der Klimafinanzierung im Jahr 2021 bereitgestellt. Davon können Deutschland 268 Millionen Euro auf Basis der klimarelevanten Anteile der deutschen Beiträge zu den multilateralen Entwicklungsbanken, der Globalen Umweltfazilität und dem Internationalen Fonds für landwirtschaftliche Entwicklung zugerechnet werden. Die verbleibenden 703 Millionen Euro stellt Deutschland über multilaterale Einrichtungen und Beiträge für internationale Klimafonds bereit.&lt;br&gt;Neben der öffentlichen Klimafinanzierung aus Haushaltsmitteln stellen die Kreditanstalt für Wiederaufbau (KfW) und die Deutsche Entwicklungsgesellschaft (DEG) ebenfalls klimabezogene Kredite und andere Finanzierungen aus Marktmitteln bereit. Diese stellen die „mobilisierte öffentliche Klimafinanzierung“ dar und sind nicht im Indikator enthalten. Im Jahr 2021 umfassten die so mobilisierten Ressourcen rund 2,59 Milliarden Euro im Vergleich zu 2,55 Milliarden Euro aus dem Vorjahr. Auch hier wurden mehr Mittel für Minderungsvorhaben (58 %) als für Anpassungsvorhaben (42 %) aufgewendet.</t>
         </is>
       </c>
-      <c r="K53" s="5" t="inlineStr">
+      <c r="K54" s="5" t="inlineStr">
         <is>
           <t>The data for this indicator is derived from reporting carried out under the EU Regulation on a mechanism for monitoring greenhouse gases. The source of the annually collected data is the Federal Ministry for Economic Cooperation and Development, which also reports in this context on climate finance from other federal ministries. In the case of bilateral climate finance, expenditure is calculated on the basis of funds allocated; in the case of multilateral climate finance and contributions to energy and climate funds, it is calculated on the basis of funds actually paid. The indicator also includes climate finance that is attributed to donors pro rata on the basis of their contributions to multilateral funds managed by development banks. As climate finance primarily benefits developing countries, it is considered to be part of official development expenditure (see indicator 17.1 “Official development assistance as a proportion of gross national income”).
 In 2021, Germany committed or provided 5.34 billion euros in public funds for international climate finance for the reduction of greenhouse gases and adaptation to climate change. Compared with the previous year, when climate finance amounted to 5.09 billion euros, this represents an increase of 4.9 %. The target for 2025 – to reach 6 billion euros – will most likely be achieved if the development continues. The previous target – to reach 4 billion euros by 2020 – was already achieved in 2019 at 4.34 billion euros. In 2021, 36 % of climate finance went to fund projects to reduce emissions, while 33 % went towards adaptation to climate change. The remaining 30 % was used to finance horizontal measures. As the horizontal measures serve both the reduction and adaptation efforts, the final split in 2021, as in previous years, shows more funds being used for emissions reduction (51 %) than for adaptation (49 %).
@@ -4846,77 +4916,77 @@
 In addition to official climate finance from public funds, Kreditanstalt für Wiederaufbau (KfW) and DEG (Deutsche Investitions- und Entwicklungsgesellschaft) also provide climate-related loans with funds from the market. These represent mobilised public climate finance and are not included in the indicator. In 2021, the resources mobilised in this way amounted to approximately 2.59 billion euros, compared with 2.55 billion euros the previous year. Here too, more funding went towards emissions reduction (58 %) than adaptation (42 %).</t>
         </is>
       </c>
-      <c r="L53" s="4" t="inlineStr">
+      <c r="L54" s="4" t="inlineStr">
         <is>
           <t>13.a.1</t>
         </is>
       </c>
-      <c r="M53" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N53" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7">
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
         <v>45562</v>
       </c>
     </row>
-    <row outlineLevel="0" r="54">
-      <c r="A54" s="4" t="inlineStr">
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>14.1.a</t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>Stickstoffeintrag über die Zuflüsse in die Nord- und Ostsee</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t>Nitrogen input via the inflows into the North and Baltic Seas</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren geben den gleitenden, abflussgewichteten Durchschnitt der letzten fünf Jahre der Stickstoffkonzentrationen in Milligramm (mg) Stickstoff pro Liter (l) Wasserabfluss von Flüssen in die Nord- und Ostsee an.&lt;sup&gt;1&lt;/sup&gt;
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Für die Nordsee sind dies die Flüsse Eider, Elbe, Ems, Weser, Rhein, Treene, Aarlau, Bongsieler Kanal und Miele. Für die Ostsee sind dies die Peene, Trave, Warnow, Langballigau, Füsinger Au, Koseler Au, Schwentine, Kossau, Goddesdorfer Au, Oldenburger Graben, Aalbeck, Schwartau, Lippingau, Hagener Au, Barthe, Duvenbaek, Hellbach, Maurine, Recknitz, Ryck, Stepenitz, Uecker, Wallensteingraben und Zarow.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="G54" s="5" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>The indicators show the moving discharge-weighted five-year average of nitrogen concentrations in milligrams (mg) of nitrogen per litre (l) of water discharged from rivers into the North Sea and the Baltic Sea.&lt;sup&gt;1&lt;/sup&gt;
 &lt;small&gt;&lt;sup&gt;1&lt;/sup&gt;Regarding the North Sea, these are the following rivers: Eider, Elbe, Ems, Weser, Rhein, Treene, Aarlau, Bongsieler Kanal and Miele. As far as the Baltic Sea is concerned, these are the following rivers: Peene, Trave, Warnow, Langballigau, Füsinger Au, Koseler Au, Schwentine, Kossau, Goddesdorfer Au, Oldenburger Graben, Aalbeck, Schwartau, Lippingau, Hagener Au, Barthe, Duvenbaek, Hellbach, Maurine, Recknitz, Ryck, Stepenitz, Uecker, Wallensteingraben and Zarow.&lt;/small&gt;</t>
         </is>
       </c>
-      <c r="H54" s="5" t="inlineStr">
+      <c r="H55" s="5" t="inlineStr">
         <is>
           <t>Hohe Konzentrationen von Stickstoff in den Meeren können zu Eutrophierungseffekten wie Sauerstoffmangel und dadurch zum Verlust an Biodiversität und zur Zerstörung von Fisch-Aufzugsgebieten führen. Daher soll der Eintrag von Stickstoff unter 2,8 mg Stickstoff pro Liter Abfluss für die in die Nordsee einmündenden Flüsse und unter 2,6 mg Stickstoff pro Liter für die in die Ostsee einmündenden Flüsse liegen. Dies entspricht den im Rahmen der Umsetzung der Wasserrahmenrichtlinie (WRRL) vereinbarten Bewirtschaftungszielen der Oberflächengewässerverordnung (OGewV) sowie den Zielen der Meeresstrategie-Rahmenrichtlinie (MSRL) und des Ostseeaktionsplans.</t>
         </is>
       </c>
-      <c r="I54" s="5" t="inlineStr">
+      <c r="I55" s="5" t="inlineStr">
         <is>
           <t>High concentrations of nitrogen in the seas can lead to eutrophication effects such as oxygen depletion, the loss of biodiversity and to the destruction of fish spawning grounds. Therefore, the input of nitrogen should stay below 2.8 mg nitrogen per litre discharge for the rivers flowing into the North Sea and below 2.6 mg/l for the rivers flowing into the Baltic Sea. This aligns with the management targets of the Ordinance on the Protection of Surface Waters (OGewV), which were agreed in implementation of the Water Framework Directive, as well as with those of the Marine Strategy Framework Directive and the Baltic Sea Action Plan.</t>
         </is>
       </c>
-      <c r="J54" s="5" t="inlineStr">
+      <c r="J55" s="5" t="inlineStr">
         <is>
           <t>Eine Hauptursache für den Stickstoffeintrag über die Zuflüsse in Nord- und Ostsee ist der Stickstoffüberschuss in der Landwirtschaft, der in Indikator 2.1.a gemessen wird. Neben Stickstoff führt auch Phosphor zur Eutrophierung. Die Phosphorbelastung der Flüsse wird in Indikator 6.1.a separat betrachtet.&lt;br&gt;Berechnungsgrundlage für diesen Indikator bilden einerseits Messdaten zu Stickstoffkonzentrationen, andererseits Messdaten zum Wasserabfluss kleiner und großer Nord- und Ostseezuflüsse, die das Umweltbundesamt (UBA) nach Angaben der Bundesländer bzw. Flussgebietsgemeinschaften zusammenstellt. Dabei werden auch kleinere Flüsse berücksichtigt, die nicht direkt in die Nord- bzw. Ostsee, sondern in einen größeren Fluss münden. Hier sind die Messstellen so gewählt, dass jeweils die Daten der letzten Messstellen vor dem Zusammenfließen beider Flüsse berücksichtigt werden. Berücksichtigt wird darüber hinaus auch der Rhein, der nicht in Deutschland mündet. Hier werden die Werte an dem Punkt gemessen, wo der Rhein Deutschland verlässt (Messstelle bei Kleve, Ortsteil Bimmen).&lt;br&gt;Die Stickstoffkonzentrationen der einzelnen Flüsse werden abflussgewichtet gemittelt, sodass große Flüsse mit großen Wasserabflussmengen den Durchschnitt stärker beeinflussen als kleine Flüsse. Damit einzelne Extremereignisse wie Hochwasser oder Dürre, die punktuell zu sehr hohen oder sehr niedrigen Stickstoffeinträgen führen, die Darstellung der Entwicklung nicht verzerren, werden die Werte als gleitender Fünfjahresdurchschnitt betrachtet.&lt;br&gt;Die abflussgewichtete Stickstoffkonzentration über alle Nord- und Ostseezuflüsse zeigt seit Beginn der Zeitreihe einen abnehmenden Trend, wobei der Rückgang der Konzentrationen in der Nordsee ausgeprägter als in der Ostsee ist. Im Mittel 2016 bis 2020 wiesen die Nordseezuflüsse eine Konzentration von 2,8 mg/l auf und erreichten damit gemeinsam erstmals den Zielwert. Die Zuflüsse der Ostsee erreichten im gleichen Zeitraum eine Konzentration von 3,1 mg/l und lagen damit deutlich über der Obergrenze von 2,6 mg/l.&lt;br&gt;Im Unterschied zum aggregierten Indikator 14.1.a „Stickstoffeintrag über die Zuflüsse in Nord- und Ostsee“ ist es zum Erreichen eines guten Zustandes gemäß der OGewV jedoch erforderlich, dass jeder einzelne Fluss den Bewirtschaftungszielwert einhält. Dies wird derzeit weder für die Nord- noch für die Ostsee erreicht.&lt;br&gt;Von den großen Ostseezuflüssen Peene, Trave und Warnow erreichte nur die Warnow 2016 bis 2020 den Bewirtschaftungszielwert. Für Peene und Trave zeigte sich jedoch ein leichter Rückgang der Fünfjahresdurchschnitte der Konzentrationen von 0,1 mg/l. Bei den kleinen Ostseezuflüssen lagen die Stickstoffkonzentrationen im Fünfjahresdurchschnitt mit bis zu 5,9 mg/l teilweise noch um ein Vielfaches über dem Bewirtschaftungszielwert, der nur von einem Viertel der kleinen Flüsse erreicht wurde.&lt;br&gt;Bei den Nordseezuflüssen erreichte 2016 bis 2020 nur der Rhein den Bewirtschaftungszielwert und war daher hauptverantwortlich für das gemeinsame, abflussgewichtete Erreichen des Zielwerts. Mit Ausnahme der Elbe waren die Fünfjahresdurchschnitte der Konzentrationen für alle großen Nordseezuflüsse (Ems, Weser, Rhein und Eider) mit Abnahmen von 0,1 bis 0,2 mg/l rückläufig. Bei den kleinen Nordseezuflüssen lagen die Stickstoffkonzentrationen im Fünfjahresdurchschnitt im Zeitraum 2016 bis 2020 zwischen 2,6 bis 3,5 mg/l und wiesen auch hier einen leichten Rückgang auf.</t>
         </is>
       </c>
-      <c r="K54" s="5" t="inlineStr">
+      <c r="K55" s="5" t="inlineStr">
         <is>
           <t>One of the main causes of nitrogen inputs reaching the North and Baltic Seas via inflows is nitrogen surplus in agriculture, which is measured in indicator 2.1.a. Like nitrogen, phosphorus also leads to eutrophication. Phosphorus pollution in rivers is examined separately in indicator 6.1.a.
 The calculations for this indicator use monitoring data on nitrogen concentrations and on the discharge volumes of small and major rivers flowing into the North and Baltic Seas, which the German Environment Agency collates as reported by the Länder and by river basin commissions. Data is also included for smaller rivers which do not flow directly into the North or Baltic Sea but are tributaries to larger rivers. In these cases, the data for each river are taken from its last monitoring site before the confluence. The Rhine is also included in the figures, even though its estuary is not in Germany. The data for the Rhine were recorded at the point where it leaves Germany (monitoring site at Bimmen, Kleve).
@@ -4927,73 +4997,73 @@
 Of the North Sea inflows, only the Rhine met the management target in the period 2016 to 2020, and, hence, was mainly responsible for the joint achievement of the weighted for discharge volume target value. The five-year averages of nitrogen concentrations decreased for all major North Sea inflows (Ems, Weser, Rhein and Eider) by 0.1 to 0.2 mg/l, except for the Elbe. A slight decline was also measured by the five-year averages of nitrogen concentrations for the small North Sea inflows. Accordingly, the values were between 2.6 mg/l and 3.5 mg/l in the period from 2016-2020.</t>
         </is>
       </c>
-      <c r="L54" s="4" t="inlineStr">
+      <c r="L55" s="4" t="inlineStr">
         <is>
           <t>14.1.1</t>
         </is>
       </c>
-      <c r="M54" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N54" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N55" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>Z14_B01_P01</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>14.1.b</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>Anteil der nachhaltig befischten Fischbestände in Nord- und Ostsee</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t>Share of sustainably fished stocks of fish in the North and Baltic Seas</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den Anteil der nachhaltig bewirtschafteten Fischbestände an der Zahl der gesamten bewirtschafteten Fischbestände in Nord- und Ostsee an. Dies erfolgt nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz), dem Ansatz des höchstmöglichen Dauerertrags.</t>
         </is>
       </c>
-      <c r="G55" s="5" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the sustainably managed fish stocks (according to the Maximum Sustainable Yield [MSY] approach) as a proportion of the total of managed fish stocks in the North and the Baltic Sea.</t>
         </is>
       </c>
-      <c r="H55" s="5" t="inlineStr">
+      <c r="H56" s="5" t="inlineStr">
         <is>
           <t>Die biologische Vielfalt ist die Grundlage für das Leben der Menschen. Nur wenn das Naturkapital – etwa in Form von Fischbeständen in Nord- und Ostsee – geschützt und erhalten wird, kann es auch künftigen Generationen lebenswichtige Ökosystemleistungen erbringen.&lt;br&gt;Das Ziel des Indikators ist es, den Erreichungsgrad des in der Verordnung über die Gemeinsame Fischereipolitik festgelegten Ziels zu beschreiben, nach dem bis 2020 alle wirtschaftlich genutzten Fischbestände nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz) nachhaltig zu bewirtschaften sind.</t>
         </is>
       </c>
-      <c r="I55" s="5" t="inlineStr">
+      <c r="I56" s="5" t="inlineStr">
         <is>
           <t>Biological diversity is fundamental to all human life. Only if the natural capital – for example, in the form of fish stocks in the North and the Baltic Sea – is protected and preserved it can also provide future generations with critical ecosystem services.
 The target of the indicator is to describe the extent to which the goal defined in the Regulation on the Common Fisheries Policy has been achieved. The goal states that all fish stocks used for economic purposes have to be sustainably managed in accordance with the MSY approach by 2020.</t>
         </is>
       </c>
-      <c r="J55" s="5" t="inlineStr">
+      <c r="J56" s="5" t="inlineStr">
         <is>
           <t>Nicht alle Fischbestände werden in Bezug auf ihre nachhaltige Bewirtschaftung untersucht. Daher ist die Zahl der Fischbestände, die nach dem Maximum-Sustainable-Yield-Ansatz (MSY-Ansatz) nachhaltig bewirtschaftet werden, auch immer in Relation zu den Fischbeständen insgesamt zu sehen. Eine Ausweitung der Untersuchungen auf möglichst viele Bestände wird zwar angestrebt, bedingt durch die hohen Kosten dieser Untersuchungen ist aber davon auszugehen, dass eine Erfassung sämtlicher, auch ökonomisch wenig relevanter bzw. wenig befischter Bestände nicht realistisch ist. Wirtschaftlich genutzt werden nach derzeitigen Schätzungen in der Nordsee 58 und in der Ostsee 20 Fischbestände. Die Zahl der nach dem MSY-Ansatz untersuchten Bestände beträgt momentan für die Ostsee acht; für die Nordsee werden derzeit 22 Bestände berücksichtigt. Damit wird nur gut ein Drittel aller bewirtschafteten Bestände vollständig analytisch auf nachhaltige Bewirtschaftung untersucht. Alle anderen Bestände, für die nicht ausreichend Daten zur Verfügung stehen, um sie nach der MSY-Methode zu untersuchen, bleiben bei diesem Indikator unberücksichtigt.&lt;br&gt;Ein Bestand gilt dann als „nachhaltig bewirtschaftet“, wenn die tatsächliche Fangmenge pro Jahr und Fischbestand die auf dem MSY-Ansatz basierende, wissenschaftlich empfohlene Menge nicht überschreitet bzw. den Vorgaben eines langfristigen Managementplanes, der dem MSY-Ansatz folgend als nachhaltig bewertet ist, entspricht. Als „Fischbestand“ wird dabei eine sich eigenständig reproduzierende Population einer Fischart bezeichnet. Eine spezifische Art kann somit mehrere Bestände und je nach Bestand auch unterschiedliche Richtwerte für die Fangmenge aufweisen. In der Regel wird jedem Bestand, entsprechend seiner vorherigen Entwicklung, ein Richtwert zugewiesen.&lt;br&gt;Die Richtwerte für die bewirtschafteten Bestände werden durch den Internationalen Rat für Meeresforschung (International Council for the Exploration of the Sea) berechnet. Die Datenerhebung zur Berechnung des Indikators deckt die gesamte Nord- und Ostsee ab. Eine Abgrenzung der Werte für deutsche Territorialgewässer und die deutsche ausschließliche Wirtschaftszone ist dementsprechend nicht möglich.&lt;br&gt;Die jährliche Berechnung der nachhaltigen Fangmengen nach dem MSY-Ansatz basiert auf stochastischen Vorhersagen, die auf Berechnungen zur historischen Bestandsentwicklung aufsetzen. Informationen zu angelandeten Fischmengen basieren auf gemeldeten Fängen. Daraus gezogene Stichproben geben Aufschluss über die demografischen Parameter des Bestandes, etwa Alter und Größe. Als weitere wichtige Informationsquelle für den Zustand von Beständen dienen fischereiunabhängige, wissenschaftliche Erhebungen auf Forschungsschiffen. Die Zeitreihe wird jährlich neu geschätzt und die betrachteten Fischarten gegebenenfalls für die gesamte Zeitreihe aktualisiert, wodurch sich auch die Indikatorwerte vergangener Jahre ändern können.&lt;br&gt;Der Anteil der nachhaltig befischten Bestände an der Zahl der nach dem MSY-Ansatz untersuchten Bestände belief sich im Jahr 2020 für Nord- und Ostsee insgesamt auf 60,0 %. Für die Nordsee betrug dieser Anteil 59,1 % und für die Ostsee 62,5 %. Betrachtet man die Entwicklung zwischen den Jahren 2015 und 2020, ist der Verlauf insgesamt positiv. Das Ziel, dass alle wirtschaftlich genutzten Fischbestände nach dem MSY-Ansatz nachhaltig bis 2020 bewirtschaftet werden, konnte nicht erreicht werden.&lt;br&gt;Die Einschätzung des Indikators gestaltet sich schwierig, da er neben der Entwicklung der Bestände selbst auch durch die Auswahl der zu betrachtenden Bestände beeinflusst wird. So kann die Bemessungsgrundlage jedes Jahr variieren, was einen Vergleich der einzelnen Jahre untereinander erschwert. Zusätzlich gelten die empfohlenen Fangmengen staatenübergreifend und können nur indirekt durch die Bemühungen eines einzelnen Staates erfüllt werden.</t>
         </is>
       </c>
-      <c r="K55" s="5" t="inlineStr">
+      <c r="K56" s="5" t="inlineStr">
         <is>
           <t>Not all fish stocks are examined with reference to their sustainable management. Therefore, the number of fish stocks that are sustainably managed based on the MSY approach should always be viewed in relation to overall fish stocks. Although an expansion of the investigation to include as many stocks as possible is desirable, the high cost of these investigations means that the prospect of recording all stocks, even those that are economically less relevant and less fished, is unrealistic. Based on current estimates, a total of 58 fish stocks in the North Sea and 20 stocks in the Baltic Sea are used for economic purposes. The number of stocks examined using the MSY approach is currently eight in the Baltic Sea and 22 in the North Sea. This means that only a third of all managed stocks are fully analysed with respect to sustainable management. All other stocks for which the data available are not sufficient for analysis according to the MSY method are not included in this indicator.
 A stock is considered to be “sustainably managed” if the actual amount of fish caught per year and the fish stock do not exceed the scientifically recommended amount based on the MSY approach, or if they comply with the requirements of a long-term management plan assessed as sustainable according to the MSY approach. In this context, a “fish stock“ is defined as an independently reproducing population of a specific species of fish. A specific species can therefore have multiple stocks and, depending on the stock, can also have different guideline values regarding the amount of fish caught. As a rule, each stock is assigned a guideline value according to its previous development.
@@ -5003,67 +5073,67 @@
 It is difficult to assess the indicator because it is influenced in addition to the development of the stocks, also by the selection of stocks to be considered. Thus, the basis of assessment can vary from year to year, which makes it difficult to compare the results of individual years. In addition, the recommended amounts of fish caught apply across countries and therefore can only be fulfilled indirectly by the efforts of a single country alone.</t>
         </is>
       </c>
-      <c r="L55" s="4" t="inlineStr">
+      <c r="L56" s="4" t="inlineStr">
         <is>
           <t>14.4.1</t>
         </is>
       </c>
-      <c r="M55" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N55" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="56">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N56" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>Z15_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>Z15_B01_P01</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>15.1</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>Artenvielfalt und Landschaftsqualität</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t>Biodiversity and landscape quality</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Bestandsentwicklung für 51 ausgewählte Vogelarten in Form eines Index.</t>
         </is>
       </c>
-      <c r="G56" s="5" t="inlineStr">
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the population development for 51 selected bird species in the form of an index.</t>
         </is>
       </c>
-      <c r="H56" s="5" t="inlineStr">
+      <c r="H57" s="5" t="inlineStr">
         <is>
           <t>Eine große Artenvielfalt an Tieren und Pflanzen ist eine wesentliche Voraussetzung für einen leistungsfähigen Naturhaushalt und bildet eine wichtige Lebensgrundlage des Menschen. Um die Artenvielfalt und gleichzeitig die Lebensqualität des Menschen zu erhalten, ist das vorläufige Ziel der Bundesregierung ein Indexwert von 100 bis zum Jahr 2030 – ursprünglich sollte dieser Zielwert bereits bis 2015 erreicht werden. Derzeit wird der Indikator auf Basis neuer Erkenntnisse überarbeitet und zukünftig in angepasster Form für die Berichterstattung verwendet werden.</t>
         </is>
       </c>
-      <c r="I56" s="5" t="inlineStr">
+      <c r="I57" s="5" t="inlineStr">
         <is>
           <t>Having a wide variety of animal and plant species is a fundamental prerequisite for a healthy natural environment and an important foundation for human life. To preserve biodiversity and simultaneously safeguard quality of life for humans, the provisional goal of the Federal Government is an index value of 100 by 2030 – a target that was originally meant to be achieved by 2015. This target value is currently being reviewed as part of a research project and may be amended in future on the basis of new findings.</t>
         </is>
       </c>
-      <c r="J56" s="5" t="inlineStr">
+      <c r="J57" s="5" t="inlineStr">
         <is>
           <t>Neben Vögeln sind auch andere Arten auf eine Landschaft mit intakten, nachhaltig genutzten Lebensräumen angewiesen, sodass der Indikator indirekt auch die Entwicklung zahlreicher weiterer Arten in der Landschaft und die Nachhaltigkeit der Landnutzung abbildet.
 Der Berechnung des Indikators liegt die Entwicklung der Bestände von 51 Vogelarten zugrunde, die die wichtigsten Landschafts- und Lebensraumtypen in Deutschland repräsentieren: je zehn Arten für die Teilindikatoren zu Agrarland, Siedlungen, Binnengewässern, Küsten und Meeren sowie elf Arten für Wälder. Aufgrund einer unsicheren Datenlage wird derzeit der Landschaftstyp der Alpen nicht berücksichtigt.
@@ -5074,7 +5144,7 @@
 Im Gegensatz dazu haben sich die Teilindikatoren für Wälder, Siedlungen und Binnengewässer in den letzten zehn Berichtsjahren positiv entwickelt. So betrug 2016 der Teilindikator für Wälder 87,5 % des Zielwerts im Vergleich zu 78,6 % im Jahr 2006. Bei dem Teilindikator Siedlungen stieg der Wert von 65,1 % im Jahr 2006 auf 75,5 % im Jahr 2016 an. Der Teilindikator Binnengewässer stieg auf 75,0 % des Zielwerts im Jahr 2016 an, im Vergleich zu einem Wert von 63,1 % im Jahr 2006.</t>
         </is>
       </c>
-      <c r="K56" s="5" t="inlineStr">
+      <c r="K57" s="5" t="inlineStr">
         <is>
           <t>Other species besides birds rely on landscapes with intact, sustainably used habitats, which means that the indicator also indirectly reflects the development of many other species in the landscape and the sustainability of land use.
 The calculations for this indicator are based on changes in the populations of 51 bird species, which together represent the most important types of landscape and habitat in Germany: ten species each for the sub-indicators farmland, settlements, inland waters, and coasts and seas, as well as eleven species for forests. The Alpine landscape is not currently taken into account, because of uncertainty of data.
@@ -5085,70 +5155,70 @@
 In contrast, the forest, settlement and inland-waters sub-indicators moved in a positive direction over the last ten reporting years. The forest sub-indicator reached 87.5 % of its target value in 2016, compared with 78.6 % in 2006. The settlement sub-indicator rose from 65.1 % in 2006 to 75.5 % in 2016. The figure for inland waters was 75.0 % of the target value in 2016, compared with 63.1 % in 2006.</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="L57" s="4" t="inlineStr">
         <is>
           <t>15.5.1</t>
         </is>
       </c>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N56" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7">
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" s="7">
         <v>45548</v>
       </c>
     </row>
-    <row outlineLevel="0" r="57">
-      <c r="A57" s="4" t="inlineStr">
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P01</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>15.2</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>Eutrophierung der Ökosysteme</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t>Eutrophication of ecosystems</t>
         </is>
       </c>
-      <c r="F57" s="5" t="inlineStr">
+      <c r="F58" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt den Anteil der Fläche empfindlicher Ökosysteme dar, bei der die ökologischen Belastungsgrenzen (Critical Loads) durch atmosphärische Stickstoffeinträge überschritten wurden, gemessen an der gesamten bewerteten Fläche empfindlicher Ökosysteme.</t>
         </is>
       </c>
-      <c r="G57" s="5" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the sensitive ecosystem area where the critical ecological loads have been exceeded due to atmospheric nitrogen inputs, as a proportion of the total assessed sensitive ecosystem area.</t>
         </is>
       </c>
-      <c r="H57" s="5" t="inlineStr">
+      <c r="H58" s="5" t="inlineStr">
         <is>
           <t>Die ökologischen Belastungsgrenzen sind ein Maß für die Empfindlichkeit eines Ökosystems gegenüber dem Eintrag eines Schadstoffs. Liegen die Einträge von Luftschadstoffen unter diesen Belastungsgrenzen (Critical Loads), ist nach heutigem Stand des Wissens nicht mit schädlichen Wirkungen auf Struktur und Funktion eines Ökosystems zu rechnen. Fast die Hälfte aller Farn- und Blütenpflanzen, die in Deutschland in der Roten Liste aufgeführt werden, sind durch Nährstoffeinträge gefährdet. Bis zum Jahr 2030 soll der Flächenanteil mit erhöhtem Stickstoffeintrag um 35 % gegenüber 2005 reduziert werden. Dies entspricht einer Senkung auf 52 % der bewerteten Fläche empfindlicher Ökosysteme.</t>
         </is>
       </c>
-      <c r="I57" s="5" t="inlineStr">
+      <c r="I58" s="5" t="inlineStr">
         <is>
           <t>The critical ecological loads are a measure of the sensitivity of an ecosystem to the input of a pollutant. If the inputs of air pollutants remain below these critical loads, no harmful effects on the structure and functioning of an ecosystem are to be expected according to the current state of knowledge. Almost half of the ferns and flowering plants that are included in the Red List in Germany are endangered by nutrient inputs. By 2030, the share of land with an elevated input of nitrogen is to be reduced by 35 % compared with 2005. This would be a reduction to 52 % of the total ecosystem area under assessment.</t>
         </is>
       </c>
-      <c r="J57" s="5" t="inlineStr">
+      <c r="J58" s="5" t="inlineStr">
         <is>
           <t>Stickstoff, der gebunden in Ammoniak und Stickoxiden in die Atmosphäre gelangt, kann gasförmig, in Regen gelöst oder als Bestandteil des Feinstaubs in Ökosysteme eingetragen werden. Die Emissionen von Ammoniak und Stickoxiden werden als Teil des Indikators 3.2.a „Emissionen von Luftschadstoffen“ dargestellt und deren Entwicklung beeinflusst direkt die Eutrophierung der Ökosysteme. Als empfindliche Ökosysteme, die in die Berechnung des Indikators eingehen, werden Wälder, natürliches Grünland, Moore, Sümpfe und Heiden betrachtet.
 Durch einen übermäßigen Eintrag von Stickstoffverbindungen aus der Luft in Land-Ökosysteme können Nährstoffungleichgewichte entstehen. Infolge des geänderten Nährstoffangebots ändert sich zum Beispiel die Artenzusammensetzung: Organismen, die stickstoffarme Standorte bevorzugen, werden zugunsten stickstoffliebender Arten verdrängt. Außerdem können viele Pflanzen durch die Veränderung der Nährstoffverfügbarkeit anfälliger gegenüber Frost, Dürre und Schädlingen werden. Auswirkungen eines übermäßigen Stickstoffeintrages treten oft erst einige Jahre später auf. Ebenso sind positive Effekte aufgrund geminderten Eintrages erst nach längerer Zeit zu erkennen.
@@ -5158,7 +5228,7 @@
 Die Berechnung des Indikators wird vom Umweltbundesamt (UBA) vorgenommen und basiert auf zwei Datensätzen. Der erste Datensatz ist der Critical-Load-Datensatz, der vom UBA für die internationale Berichterstattung im Rahmen der Genfer Luftreinhaltekonvention (CLRTAP) bereitgestellt wird. Grundlagen zur Ermittlung dieses Datensatzes sind unter anderem die Bodenübersichtskarte Deutschlands, die Karte der jährlichen mittleren Sickerwasserrate in den Boden, die Karte der Landnutzungsverteilung sowie Klimadaten Deutschlands. Der zweite Datensatz beinhaltet eine Zeitreihe der Stickstoffeinträge in Deutschland und wurde im Rahmen des PINETI-IV-Projektes (Pollutant INput and EcosysTem Impact) berechnet.</t>
         </is>
       </c>
-      <c r="K57" s="5" t="inlineStr">
+      <c r="K58" s="5" t="inlineStr">
         <is>
           <t>Nitrogen, which escapes into the atmosphere bonded in ammonia and nitrogen oxides, can be introduced into ecosystems in gaseous form, dissolved in rain, or as a component of particulate matter. Emissions of ammonia and nitrogen oxides are depicted as part of indicator 3.2.a on emissions of air pollutants, and developments in that area directly affect the eutrophication of ecosystems. The sensitive ecosystems covered in the calculations for this indicator are forests, natural grassland, wetlands, marshes and heathland.
 Excessive inputs of nitrogen compounds from the air into land ecosystems can result in nutrient imbalances. The alterations in nutrient availability can lead, for example, to changes in the species composition of an ecosystem, with organisms which prefer nitrogen-poor locations being displaced by nitrogen-loving species. Meanwhile, many plants can be rendered vulnerable to frost, drought and pests by changes in nutrient availability. The effects of excessive nitrogen inputs often take several years to manifest themselves. Likewise, the positive effects of reduced inputs will become apparent only after an extended period.
@@ -5168,69 +5238,69 @@
 The calculations for this indicator are produced by the German Environment Agency and derived from two data sets. The first of these is the critical-load data set, which the German Environment Agency provides for the purposes of international reporting under the aegis of the Geneva Convention on Long-Range Transboundary Air Pollution (CLRTAP). The tools used to determine that data set include the soil overview map of Germany, the map showing average annual rates of percolation into the soil, the map of land-use distribution and climatological data for Germany. The second data set comprises a time series of nitrogen inputs in Germany and was compiled as part of the PINETI IV (Pollutant INput and EcosysTem Impact) project.</t>
         </is>
       </c>
-      <c r="L57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M57" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N57" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="58">
-      <c r="A58" s="4" t="inlineStr">
+      <c r="L58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N58" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P02_Ib01</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>Z15_B02_P02</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>15.3.a,b</t>
         </is>
       </c>
-      <c r="D58" s="4" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>Erhalt bzw. Wiederaufbau von Wäldern unter REDD+ sowie internationaler Bodenschutz</t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr">
         <is>
           <t>Preservation or restoration of forests under REDD+ and international soil protection</t>
         </is>
       </c>
-      <c r="F58" s="5" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>Der Indikator 15.3.a zeigt die leistungsbasierten Nettoentwicklungsausgaben Deutschlands an Entwicklungs- und Schwellenländer für den nachgewiesenen Erhalt bzw. Wiederaufbau von Wäldern unter dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation). REDD+ ist ein internationales Konzept, welches Regierungen und lokale Gemeinschaften in Entwicklungsländern finanziell dafür belohnt, dass sie die Entwaldung und damit Emissionen nachweislich reduzieren. Die ausgezahlten Beträge orientieren sich am Umfang der ermittelten Emissionsreduktion bzw. des zusätzlich gespeicherten Kohlenstoffes.
 Der Indikator 15.3.b umfasst die bilateralen Bruttoentwicklungsausgaben Deutschlands im Zusammenhang mit der Umsetzung des Übereinkommens der Vereinten Nationen (VN) zur Bekämpfung der Wüstenbildung in Entwicklungs- und Schwellenländern.</t>
         </is>
       </c>
-      <c r="G58" s="5" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>Indicator 15.3.a shows the results-based payments by Germany to developing and emerging countries for the verified preservation or restoration of forests under the REDD+ rulebook (Reducing Emissions from Deforestation and Forest Degradation). REDD+ is an international concept which financially rewards governments and local communities in developing countries for reducing deforestation and thereby demonstrably cutting emissions. Contributions are paid in line with the scale of the emissions reduction measured or the amount of additional carbon sequestered.
 Indicator 15.3.b covers Germany’s gross bilateral development expenditure in connection with the implementation of the UN Convention to Combat Desertification in developing and emerging countries.</t>
         </is>
       </c>
-      <c r="H58" s="5" t="inlineStr">
+      <c r="H59" s="5" t="inlineStr">
         <is>
           <t>Die Vermeidung von Entwaldung und Walddegradierung (Schädigung), eine nachhaltige Waldbewirtschaftung sowie der Wiederaufbau von Wäldern und Aufforstung tragen mittelbar und unmittelbar zum Erhalt biologischer Vielfalt, zur Boden-, Wasser-, und Luftqualität, zur Verminderung von Bodenerosion, zur Minderung des CO2-Ausstoßes und zur Speicherung von Kohlenstoff sowie zur Erhaltung wichtiger Entwicklungs- und Einkommensperspektiven für Waldländer bei. Ziel ist es, die Zahlungen unter dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation) bis zum Jahr 2030 zu steigern. Gesunde Böden sind eine wesentliche, nicht bzw. schwer erneuerbare natürliche Ressource. Sie spielen eine Schlüsselrolle bei der Nahrungsmittelproduktion, der Verringerung der Auswirkungen häufiger und extremer Wetterereignisse, dem Erhalt der biologischen Vielfalt und der Bereitstellung wesentlicher Ökosystemleistungen. Ziel ist es daher, Deutschlands Beitrag für den internationalen Bodenschutz bis 2030 zu steigern. Auf internationaler Ebene ist die Desertifikationsbekämpfung neben den Themen Biodiversität und Klimawandel ein Ziel der drei Rio-Konventionen.</t>
         </is>
       </c>
-      <c r="I58" s="5" t="inlineStr">
+      <c r="I59" s="5" t="inlineStr">
         <is>
           <t>Preventing deforestation and forest degradation (damage), managing forests sustainably, restoring forests and creating new woodland all directly and indirectly help to maintain biodiversity, improve soil, water and air quality, reduce soil erosion, cut CO2 emissions, sequester carbon, and safeguard important prospects of development and income-generation for forest-rich countries. The aim is to keep increasing payments under the REDD+ rulebook until 2030. Healthy soils are an essential natural resource that is extremely difficult if not impossible to renew. They play a pivotal role in food production, the mitigation of the effects of frequent and extreme weather events, the conservation of biodiversity and the provision of essential ecosystem services. The goal is therefore to continuously increase Germany’s contribution to international soil protection until 2030. At the international level, combating desertification is one of the topics of the three Rio Conventions, alongside biodiversity and climate change.</t>
         </is>
       </c>
-      <c r="J58" s="5" t="inlineStr">
+      <c r="J59" s="5" t="inlineStr">
         <is>
           <t>Der Indikator 15.3.a basiert auf dem REDD+-Regelwerk (Reducing Emissions from Deforestation and Forest Degradation) und wird jährlich seit 2008 erfasst. Datenquellen für den Indikator sind die Finanzberichte des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) sowie des Bundesministeriums für Umwelt, Naturschutz, nukleare Sicherheit und Verbraucherschutz (BMUV). Doppelzählungen werden hierbei durch die verpflichtende Einrichtung eines Registers vermieden.
 Der Indikator entwickelte sich im Verlauf der letzten fünf Jahre insgesamt positiv. Im Zeitraum von 2009 bis 2017 stiegen die leistungsbasierten Nettoausgaben von 3,0 Millionen auf 68,0 Millionen Euro. Für das Jahr 2019 umfassten die Ausgaben noch 63,5 Millionen Euro. Im Jahr 2020 betrugen diese jedoch 24,2 Millionen Euro und damit weniger als die Hälfte des Vorjahres. Diese Mittel flossen nahezu vollständig in das multilaterale Programm „Green Climate Fund (GCF) Pilot Programme for REDD+“. Die meisten anderen Programme sind mittlerweile ausgelaufen. Den Auszahlungen gehen üblicherweise Zusagen voraus. Die Gesamtzusagen für internationalen Walderhalt beliefen sich für das Jahr 2020 auf 301,6 Millionen Euro. Die ansteigende Entwaldung in den letzten Jahren in den wichtigsten Partnerländern des Amazonasgebietes macht neue Zusagen für leistungsbasierte Zahlungen unter dem REDD+-Regelwerk schwierig.
@@ -5239,7 +5309,7 @@
 Entwicklungsausgaben unter dem REDD+-Regelwerk sowie im Rahmen der VN-Wüstenkonvention sind Teil der Klimafinanzierung (Indikator 13.1.b) sowie der ODA-Quote (Indikator 17.1).</t>
         </is>
       </c>
-      <c r="K58" s="5" t="inlineStr">
+      <c r="K59" s="5" t="inlineStr">
         <is>
           <t>Indicator 15.3.a is based on the rulebook for reducing emissions from deforestation and forest degradation, or REDD+. The data have been collected annually since 2008. The data sources for the indicator are the financial reports compiled by the Federal Ministry for Economic Cooperation and Development and the Federal Ministry for the Environment, Nature Conservation, Nuclear Safety and Consumer Protection. Duplicate counting is avoided by means of the mandatory establishment of a register.
 The overall trend of the five preceding years is positive. During the 2009-2017 reporting period, results-based payments rose from 3.0 million euros to 68.0 million euros. In 2019, payments were at 63.5 million euros, however, in 2020 payments decreased to less than half of the previous year (24.2 million euros). The funds were almost completely paid to the multilateral program “Green Climate Fund (GCF) Pilot Programme for REDD+”. Most of the other projects are finalised in the meantime. Generally, committed funds precede payments. The total number of committed funds for international forest conservation were at 301.6 million euros in 2020. The advancing deforestation in the most important partner countries in the Amazon region in the last few years aggravate issuance of new confirmations for results-based payments under the REDD+ rulebook.
@@ -5248,67 +5318,67 @@
 Development spending under the REDD+ rulebook and in the context of the UNCCD is part of climate finance (indicator 13.1.b) and of official development assistance (indicator 17.1).</t>
         </is>
       </c>
-      <c r="L58" s="4" t="inlineStr">
+      <c r="L59" s="4" t="inlineStr">
         <is>
           <t>15.a.1</t>
         </is>
       </c>
-      <c r="M58" s="4" t="inlineStr">
+      <c r="M59" s="4" t="inlineStr">
         <is>
           <t>15.b.1</t>
         </is>
       </c>
-      <c r="N58" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="N59" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>Z16_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>Z16_B01_P01</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>16.1</t>
         </is>
       </c>
-      <c r="D59" s="4" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>Straftaten</t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr">
         <is>
           <t>Criminal offences</t>
         </is>
       </c>
-      <c r="F59" s="5" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Anzahl der Straftaten, die der Polizei angezeigt werden, je 100 000 Einwohnerinnen und Einwohner.</t>
         </is>
       </c>
-      <c r="G59" s="5" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of criminal offences reported to the police per 100,000 inhabitants.</t>
         </is>
       </c>
-      <c r="H59" s="5" t="inlineStr">
+      <c r="H60" s="5" t="inlineStr">
         <is>
           <t>Ein sicheres Umfeld, in dem die Bürgerinnen und Bürger ohne Angst vor Willkür und Kriminalität leben können, ist eine wesentliche Voraussetzung für eine nachhaltige Entwicklung. Deshalb soll die Anzahl der erfassten Straftaten je 100 000 Einwohnerinnen und Einwohner bis zum Jahr 2030 unter 6 500 sinken.</t>
         </is>
       </c>
-      <c r="I59" s="5" t="inlineStr">
+      <c r="I60" s="5" t="inlineStr">
         <is>
           <t>A safe environment in which people can live without fear of lawlessness and crime is an essential prerequisite for sustainable development. The target is therefore to bring the number of recorded criminal offences per 100,000 inhabitants down to less than 6,500 by 2030.</t>
         </is>
       </c>
-      <c r="J59" s="5" t="inlineStr">
+      <c r="J60" s="5" t="inlineStr">
         <is>
           <t>Der Indikator beinhaltet alle in der Polizeilichen Kriminalstatistik (PKS) erfassten Straftaten. Dies sind bei der Polizei angezeigte und durch sie endbearbeitete Straftaten, solange es sich nicht um Staatsschutz-, Verkehrsdelikte oder Ordnungswidrigkeiten handelt.
 Straftaten, die außerhalb der Bundesrepublik Deutschland begangen wurden, sind ebenso wenig enthalten wie Delikte, die nicht zum Aufgabenbereich der Polizei gehören (zum Beispiel Finanz- und Steuerdelikte) bzw. unmittelbar bei der Staatsanwaltschaft angezeigt und ausschließlich von ihr bearbeitet werden (zum Beispiel Delikte im Zusammenhang mit einer Falschaussage vor Gericht).
@@ -5319,7 +5389,7 @@
 2021 betrug die Aufklärungsquote aller polizeilich registrierten Delikte 58,7 % und lag damit in etwa auf Vorjahresniveau. Dabei gibt es deutliche Unterschiede je nach Art der Straftat. So lag die Aufklärungsquote beim Wohnungseinbruchsdiebstahl nur bei 19,5 %. Bei Betrugsdelikten wurden dagegen 63,3 % und bei gefährlicher und schwerer Körperverletzung 83,9 % aller angezeigten Straftaten aufgeklärt. Die vergleichsweise geringe Aufklärungsquote bei Wohnungseinbruchsdiebstahl hängt mit einer hohen Anzeigebereitschaft bei vergleichsweise selten vorliegenden konkreten Anhaltspunkten zur Täterschaft zusammen. Dies steht in deutlichem Gegensatz zur Situation bei Betrugs- und Körperverletzungsdelikten. Diese Straftaten weisen eine hohe Aufklärungsquote auf, weil der Polizei die Tatverdächtigen meist bereits bei der Anzeigenerstattu</t>
         </is>
       </c>
-      <c r="K59" s="5" t="inlineStr">
+      <c r="K60" s="5" t="inlineStr">
         <is>
           <t>The indicator covers all criminal offences recorded in the Police Crime Statistics. These are criminal offences reported to and fully processed by the police, except offences against the security of the state, traffic offences and administrative offences.
 Criminal offences committed outside the Federal Republic of Germany are not included, nor are offences that are not within the remit of the police, such as financial and tax offences, or are reported directly to and processed by the public prosecution office, such as offences relating to false testimony in court.
@@ -5330,67 +5400,67 @@
 The success rate for solving cases was 58.7 % of all offences registered by the police in 2021, roughly the same as in the previous year. There were significant differences, however, depending on the type of criminal offence. For domestic burglary, for example, the rate of cases solved was only 19.5 %. By contrast, 63.3 % of fraud offences and 83.9 % of cases of serious and grievous bodily harm cases were cleared up. The comparatively low success rate for domestic burglary is related to a high rate of reporting combined with the comparatively infrequent existence of solid leads pointing to the perpetrators. This is in sharp contrast to cases of fraud and bodily injury. These crimes have high clear-up rates because, in most cases, the identity of the suspect becomes known to the police as the crime is reported.</t>
         </is>
       </c>
-      <c r="L59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M59" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N59" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="60">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N60" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>Z16_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>Z16_B02_P01</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>16.2</t>
         </is>
       </c>
-      <c r="D60" s="4" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr">
         <is>
           <t>Anzahl der in betroffenen Weltregionen durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland</t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t>Number of projects to secure, register and destroy small arms and light weapons carried out by Germany in affected regions of the world</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt die Anzahl der in Afrika, Ost- und Südosteuropa, Lateinamerika und Asien mit deutscher finanzieller Unterstützung durchgeführten Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen. Nicht enthalten sind Projekte, die über Fonds internationaler Organisationen finanziert werden, die von Deutschland finanziell unterstützt werden.</t>
         </is>
       </c>
-      <c r="G60" s="5" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the number of projects to secure, register and destroy small arms and light weapons (SALW) carried out in Africa, Eastern and South-Eastern Europe, Latin America and Asia with German financial support. Not included are projects that will be managed through funds by international organizations that are financially supported by Germany.</t>
         </is>
       </c>
-      <c r="H60" s="5" t="inlineStr">
+      <c r="H61" s="5" t="inlineStr">
         <is>
           <t>Ohne Frieden kann es keine nachhaltige Entwicklung geben und ohne nachhaltige Entwicklung keinen Frieden – dies betont die Agenda 2030 für nachhaltige Entwicklung in ihrer Präambel. Mit den vom Indikator erfassten Maßnahmen leistet Deutschland in einem konkreten Teilbereich einen Beitrag zur Friedenssicherung. Ziel ist, dass jährlich mindestens 15 Projekte zur Sicherung, Registrierung und Zerstörung von Kleinwaffen und leichten Waffen durch Deutschland durchgeführt werden.</t>
         </is>
       </c>
-      <c r="I60" s="5" t="inlineStr">
+      <c r="I61" s="5" t="inlineStr">
         <is>
           <t>There can be no sustainable development without peace and no peace without sustainable development – this is emphasised in the preamble to the 2030 Agenda for sustainable development. With the measures recorded by the indicator, Germany is making a contribution towards peacekeeping in a concrete subcategory. The set target is to have at least 15 projects to secure, register and destroy small arms and light weapons carried out by Germany each year.</t>
         </is>
       </c>
-      <c r="J60" s="5" t="inlineStr">
+      <c r="J61" s="5" t="inlineStr">
         <is>
           <t>Die Daten der hier dargestellten Zeitreihe stammen vom Auswärtigen Amt (AA); die Projekte sind jedoch nicht ausschließlich durch das AA finanziert. Vom Volumen und Inhalt unterscheiden sich die gezählten Projekte erheblich. Projekte mit Laufzeiten von mehr als einem Jahr werden dabei mehrfach ausgewiesen. Zudem sagt die Anzahl der durchgeführten Projekte nichts über deren Erfolg aus. Somit ist eine richtungssichere Interpretation in Hinblick auf Umfang und Erfolg der Maßnahmen schwierig.
 Nach der aktuellen Auswertung stieg die Anzahl der jährlich durchgeführten Projekte von acht im Jahr 2006 auf 38 im Jahr 2021. Das Ziel von mindestens 15 Projekten jährlich wurde im Jahr 2012 erstmals erfüllt. Mit Ausnahme des Jahres 2013 wurde das Ziel auch in den Folgejahren erreicht oder sogar übertroffen. Die regionalen Schwerpunkte des deutschen Engagements lagen in Nord-, West- und Ostafrika, dem westlichen Balkan und der Ukraine. Weitere Projekte wurden in Lateinamerika und der Karibik unterstützt.
@@ -5398,7 +5468,7 @@
 Die Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD) veröffentlicht ebenfalls ausführliche Zahlen zu Projekten zur „Wiedereingliederung; Bekämpfung von Handfeuerwaffen und leichten Waffen“ (Förderbereichsschlüssel: 15240). Würde dem Indikator die Anzahl der Projekte nach dem genannten OECD-Förderbereichsschlüssel zugrunde gelegt, so wäre das gesetzte Ziel von jährlich mindestens 15 Projekten im Jahr 2006 sowie seit 2016 erreicht worden. Im Jahr 2020 waren 25 Projekte schwerpunktmäßig dem Förderbereichsschlüssel 15240 zugeordnet. Davon wurden 19 durch das AA und sechs vom Bundesministerium der Finanzen (BMF) finanziert. Die Projekte umfassen jedoch auch Maßnahmen wie die Wiedereingliederung von ehemaligen Kämpferinnen und Kämpfern bewaffneter Gruppen in das gesellschaftliche Leben. Ohne diese Wiedereingliederungsmaßnahmen fiele die Anzahl der Projekte, die ausschließlich oder überwiegend der Bekämpfung von Handfeuerwaffen und leichten Waffen dienen, geringer aus.</t>
         </is>
       </c>
-      <c r="K60" s="5" t="inlineStr">
+      <c r="K61" s="5" t="inlineStr">
         <is>
           <t>The data of the depicted time series is provided by the Federal Foreign Office, however, the reported projects are not financed exclusively by the Federal Foreign Office, but in part with third-party funds as well. Considered projects significantly differ with respect to volume and content. Projects with run-times longer than one year were counted more than once. Notably, the number of projects carried out says nothing about their scale or their level of success. Consequently, a directionally safe interpretation regarding scope and success of the measures is challenging. 
 According to the current evaluation, the number of projects undertaken each year increased from 8 in 2006 to 38 in 2021. Thus the goal of Germany being involved in a minimum of 15 projects would have been achieved in 2012 for the first time. Except for 2013, the level would have been reached or even exceeded in subsequent years, too. According to the Federal Foreign Office, the regional focus of German efforts was on North, East and West Africa, the western Balkans and Ukraine. Other projects supported were in Latin America and the Caribbean.
@@ -5406,67 +5476,67 @@
 In accordance with the guidelines on statistical reporting issued by its Development Assistance Committee, the Organisation for Economic Co-operation and Development (OECD) also publishes detailed figures on projects for reintegration and SALW control (CRS Purpose Code 15240). If the indicator were based on the number of projects counted in the above-mentioned OECD category, the target of at least 15 projects would have been reached in 2006 and every year since 2016. In 2020, the OECD counted 25 projects. Among these, 19 were funded by the Federal Foreign Office and, accordingly, 6 projects were funded by the Federal Ministry of Finance. However, those projects also included measures for reintegrating former combatants from armed groups into society. Without such reintegration projects, the number of project exclusively or chiefly intended to combat SALW would be lower.</t>
         </is>
       </c>
-      <c r="L60" s="4" t="inlineStr">
+      <c r="L61" s="4" t="inlineStr">
         <is>
           <t>16.4.2</t>
         </is>
       </c>
-      <c r="M60" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N60" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N61" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>Z16_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>Z16_B03_P01</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>16.3.a,b</t>
         </is>
       </c>
-      <c r="D61" s="4" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
         <is>
           <t>Corruption Perception Index in Deutschland sowie in den Partnerländern der deutschen Entwicklungszusammenarbeit</t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t>Corruption Perceptions Index in Germany and in partner countries for German development cooperation</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t>Die Indikatoren geben den Corruption Perception Index (CPI) von Transparency International für Deutschland (16.3.a) sowie die Anzahl der Partnerländer der deutschen Entwicklungszusammenarbeit, deren CPI sich im Vergleich zum Jahr 2012 verbessert hat (16.3.b), wieder. Der CPI misst, wie stark Korruption im öffentlichen Sektor in einem Land wahrgenommen wird.</t>
         </is>
       </c>
-      <c r="G61" s="5" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr">
         <is>
           <t>The indicators provide the Corruption Perceptions Index (CPI) from Transparency International for Germany (16.3.a) as well as the number of partner countries of German development assistance whose CPI has improved compared with 2012 (16.3.b). The CPI measures how strongly corruption in the public sector is perceived in a country.</t>
         </is>
       </c>
-      <c r="H61" s="5" t="inlineStr">
+      <c r="H62" s="5" t="inlineStr">
         <is>
           <t>Bis 2030 wird eine weitere Verbesserung des Corruption Perception Index (CPI) für Deutschland angestrebt. Zudem soll sich auch der CPI der Mehrzahl der Partnerländer der deutschen Entwicklungszusammenarbeit verbessern. Basisjahr ist dabei jeweils das Jahr 2012.</t>
         </is>
       </c>
-      <c r="I61" s="5" t="inlineStr">
+      <c r="I62" s="5" t="inlineStr">
         <is>
           <t>A further improvement of the CPI for Germany is targeted for 2030. In addition, the CPI in the majority of partner countries involved in German development assistance should also improve. The base year in each case is 2012.</t>
         </is>
       </c>
-      <c r="J61" s="5" t="inlineStr">
+      <c r="J62" s="5" t="inlineStr">
         <is>
           <t>Die Studie zum Corruption Perception Index (CPI) von Transparency International ist die die meisten Länder umfassende Übersichtsstudie zur wahrgenommenen Korruption im öffentlichen Sektor. Bei dem CPI handelt es sich um einen Kompositindikator, der je Land unterschiedliche Experten- sowie Unternehmensbefragungen zur Wahrnehmung von Korruption im öffentlichen Sektor zusammenführt. Abhängig von den jeweiligen Befragungen können dabei unterschiedliche Verständnisse von Korruption zugrunde liegen. Die Ergebnisse dieser Befragungen können auch von den Kenntnissen des Wertes des CPI oder anderer ihm zugrunde liegender Teilstudien der vorherigen Jahre selbst beeinflusst werden. Zudem wechseln die Quellen für die Berechnung des CPI im Zeitablauf. In den Index werden Länder mit einbezogen, zu denen mindestens drei ausgewählte Befragungen vorliegen. Das Joint Research Centre (JRC) der Europäischen Kommission weist in seiner Analyse des CPI darauf hin, dass bei der Interpretation der Ergebnisse die jeweilige statistische Signifikanz der Veränderung mitbetrachtet werden sollte und selbst bei statistisch signifikanten Unterschieden die Ergebnisse dieses Indikators mit Vorsicht zu interpretieren seien. Seine Vergleichbarkeit ist somit sowohl über die Zeit als auch zwischen den Ländern stark eingeschränkt.
 Deutschland hat sich im Vergleich von 79 Punkten im Jahr 2012 auf 80 Punkte im Jahr 2021 verbessert. Dieser Wert hat sich gegenüber 2017 um einen Punkt verschlechtert, sodass Deutschland auf dem zehnten Platz des Rankings steht. Dabei ist diese Veränderung gegenüber 2012 nicht als statistisch signifikant (bei einem Signifikanzniveau von 5 %) anzusehen.
@@ -5475,7 +5545,7 @@
 In Bezug auf die deutsche Entwicklungszusammenarbeit haben sich im Jahr 2021 im Vergleich zum Jahr 2012 insgesamt 48 der 87 durch den CPI bewerteten Partnerländer verbessert. Die Anzahl der sich positiv entwickelnden Partnerländer ist im betrachteten Zeitraum bis 2016 jedes Jahr gestiegen. Im Jahr 2018 ist die Anzahl leicht zurückgegangen und stieg in den Folgejahren wieder an. Eine statistisch signifikante Verbesserung (bei einem Signifikanzniveau von 5 %) wiesen in 2021 gegenüber 2012 31 Partnerländer der deutschen Entwicklungszusammenarbeit auf, im Vergleich dazu waren es 2014 sechs Partnerländer.</t>
         </is>
       </c>
-      <c r="K61" s="5" t="inlineStr">
+      <c r="K62" s="5" t="inlineStr">
         <is>
           <t>The study on CPI conducted by Transparency International is the most comprehensive overview study on perceived public sector corruption. The CPI is a composite indicator that is based on various expert and corporate surveys regarding the perception of corruption in the public sector. Depending on the survey, underlying definitions of corruption may differ, and the sources used for calculations may change over time. The results of these surveys are prone to distortions due to information about prior CPI values or results from similar studies. The index includes all countries for which at least three selected surveys are available. In its analysis of the CPI, the Joint Research Centre of the European Commission points out that, the statistical significance of the change must also be examined when the results are interpreted and that even in the case of statistically significant differences, the results of this indicator should be interpreted with caution. Hence, comparison over time and among countries is limited.
 Compared to 2012, Germany’s score improved from 79 to 80 points in 2021. This value has worsen in comparison to 2017, which means that Germany comes to tenth place in the ranking. Though, compared with 2012, this change should not be viewed as statistically significant (at a significance level of 5 %).
@@ -5484,69 +5554,69 @@
 With reference to German official development assistance, 48 of the 87 partner countries evaluated by the CPI scored better in 2021 compared with 2012. In the review period, the number of partner countries developing in a positive direction has increased each year up to 2016. Their number decreased slightly in 2018 and increased again in the subsequent years. As many as 31 partner countries of German development assistance reported a statistically significant improvement (at a significance level of 5 %) in 2021 compared with 2012. In 2014, six partner countries had reported a significant improvement.</t>
         </is>
       </c>
-      <c r="L61" s="4" t="inlineStr">
+      <c r="L62" s="4" t="inlineStr">
         <is>
           <t>16.5.1</t>
         </is>
       </c>
-      <c r="M61" s="4" t="inlineStr">
+      <c r="M62" s="4" t="inlineStr">
         <is>
           <t>16.5.2</t>
         </is>
       </c>
-      <c r="N61" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="62">
-      <c r="A62" s="4" t="inlineStr">
+      <c r="N62" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>Z17_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>Z17_B01_P01</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>17.1</t>
         </is>
       </c>
-      <c r="D62" s="4" t="inlineStr">
+      <c r="D63" s="4" t="inlineStr">
         <is>
           <t>Anteil öffentlicher Entwicklungsausgaben am Bruttonationaleinkommen
 </t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
         <is>
           <t>Official development assistance as a proportion of gross national income
 </t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>Der Indikator stellt die ODA-Quote dar. Diese umfasst den Anteil der öffentlichen Entwicklungsausgaben (Official Development Assistance, ODA) im Verhältnis zum Bruttonationaleinkommen (BNE). Seit 2018 erfolgt die Berechnung nach der Zuschussäquivalent-Methode.</t>
         </is>
       </c>
-      <c r="G62" s="5" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr">
         <is>
           <t>The indicator shows public expenditure on official development assistance (ODA) as a percentage of gross national income (GNI). Since 2018, it has been calculated using the grant-equivalent method.</t>
         </is>
       </c>
-      <c r="H62" s="5" t="inlineStr">
+      <c r="H63" s="5" t="inlineStr">
         <is>
           <t>Mit ihrer Entwicklungszusammenarbeit tragen die Geber dazu bei, die weltweite Armut zu mindern, humanitäre Notlagen zu lindern, den Frieden zu sichern, Demokratie zu verwirklichen sowie die Globalisierung gerecht zu gestalten und die Umwelt zu schützen. Um dieser Verantwortung gerecht zu werden, bekennt sich die Bundesregierung zum ursprünglich 1970 von der Generalversammlung der Vereinten Nationen (VN) festgelegten Ziel, den Anteil der öffentlichen Entwicklungsausgaben (Official Development Assistance, ODA) am Bruttonationaleinkommen (BNE) (ODA-Quote) auf 0,7 % zu steigern. Zielsetzung des Indikators in der Deutschen Nachhaltigkeitsstrategie ist, dieses Ziel für Deutschland spätestens bis zum Jahr 2030 zu erreichen.</t>
         </is>
       </c>
-      <c r="I62" s="5" t="inlineStr">
+      <c r="I63" s="5" t="inlineStr">
         <is>
           <t>Through their development cooperation, donor countries play a role in reducing global poverty, preventing humanitarian need, safeguarding peace, achieving democracy, making globalisation fair and protecting the environment. To live up to that responsibility, the Federal Government has committed itself to the target, originally set by the UN General Assembly in 1970, of raising its ODA expenditure to 0.7 % of its GNI. For the indicator maintained in the German strategy for sustainable development, the aim is to reach that target by the year 2030.</t>
         </is>
       </c>
-      <c r="J62" s="5" t="inlineStr">
+      <c r="J63" s="5" t="inlineStr">
         <is>
           <t>Datengrundlage des Indikators sind die Statistiken der Entwicklungszusammenarbeit, die im Auftrag des Bundesministeriums für wirtschaftliche Zusammenarbeit und Entwicklung (BMZ) vom Statistischen Bundesamt erstellt werden. Die Anrechenbarkeit einer Leistung als öffentliche Entwicklungsausgabe (ODA) ist durch Richtlinien des Entwicklungsausschusses der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (Organisation for Economic Co-operation and Development – Development Assistance Commitee, OECD-DAC) definiert. ODA sind öffentliche Leistungen, die zu günstigen (konzessionären) Bedingungen mit dem Ziel der Förderung der wirtschaftlichen und sozialen Entwicklung von Entwicklungsländern vergeben werden. Zur ODA zählen vor allem Ausgaben für die finanzielle und technische Zusammenarbeit mit Entwicklungsländern, humanitäre Hilfe sowie Beiträge für Entwicklungszusammenarbeit an multilaterale Institutionen, wie zum Beispiel die Vereinten Nationen (VN), die Europäische Union (EU), die Weltbankgruppe oder regionale Entwicklungsbanken. Darüber hinaus sind unter bestimmten Voraussetzungen Ausgaben für Friedensmissionen, Schuldenerleichterungen sowie bestimmte Ausgaben im Geberland, wie Studienplatzkosten für Studierende aus Entwicklungsländern, Flüchtlingskosten im Inland oder Ausgaben für entwicklungsspezifische Forschung, ODA-anrechenbar. Die Liste der Länder, die ODA empfangen können, wird vom OECD-DAC definiert. Sie umfasst die am wenigsten entwickelten Länder (Least Developed Countries, LDCs) sowie weitere Länder mit niedrigem und mittlerem Bruttonationaleinkommen (BNE) pro Kopf. Die Liste wird regelmäßig aktualisiert, sodass Länder in die Liste aufgenommen werden als auch herausfallen.
 2018 fand eine Änderung der Bewertung für Schuldeninstrumente (Darlehen, Anleihen und Schuldenerleichterungen) statt, bei der das bisherige Brutto-Netto-Prinzip durch die Zuschussäquivalent-Methode abgelöst wurde. Bei dieser Methode wird der Zuschussanteil eines Schuldeninstruments unter anderem aus Zinssatz und Laufzeit ermittelt, und nur er wird angerechnet. Durch die neue Bewertungsmethode soll beispielsweise die Vergleichbarkeit von Darlehen und Zuschüssen gewährleistet werden.
@@ -5555,7 +5625,7 @@
 Neben der öffentlichen Entwicklungszusammenarbeit werden auch von privater Seite Eigenmittel, zum Beispiel von Kirchen, Stiftungen und Verbänden, aufgewendet. Hierbei handelt es sich insbesondere um Beiträge und Spenden. Diese private Entwicklungszusammenarbeit, die nicht ODA-relevant ist, belief sich 2020 auf 1,3 Milliarden Euro, was einem Anteil von 0,04 % am BNE entsprach. Private Direktinvestitionen in den Entwicklungsländern betrugen 1,9 Milliarden Euro im Jahr 2020.</t>
         </is>
       </c>
-      <c r="K62" s="5" t="inlineStr">
+      <c r="K63" s="5" t="inlineStr">
         <is>
           <t>The data on which the indicator is based are the statistics on German official development assistance which are compiled by the Federal Statistical Office on behalf of the Federal Ministry for Economic Cooperation and Development. Whether a flow is counted as ODA is determined by guidelines issued by the OECD Development Assistance Committee (DAC). ODA comprises public funds spent in order to advance the economic and social development of developing countries. It primarily includes expenditure for financial and technical cooperation with developing countries, humanitarian aid and development-cooperation contributions to multilateral institutions such as the United Nations, the European Union, the World Bank or regional development banks. Under certain conditions, spending on peace missions, debt relief and certain items of development expenditure in the donor country – such as tuition costs for students from developing countries, domestic spending on refugees and funding for development-related research – can also be counted as ODA. The DAC also defines the list of developing countries eligible for ODA. This includes the least developed countries (LDCs) as well as other countries with low and medium per capita GNI. The list is consistently updated, such that changes in the indicator may therefore be the result of one or more countries being added to or removed from the list.
 In 2018, there was a change in the way ODA loans (i.e. loans, bonds and debt reliefs) are evaluated, in that the previous net-flows principle was replaced by the grant-equivalent method. In this method, only the grant element of an ODA loan is determined by the interest rate and duration, among others, and is counted as ODA. The intention behind the new methodology is to make ODA grants and ODA loans comparable.
@@ -5564,70 +5634,70 @@
 In addition to official development cooperation, private funds are also provided by such organisations as churches, foundations and associations. These chiefly take the form of contributions and donations. This private development cooperation, which does not affect the ODA figures, amounted to 1.3 billion euros in 2020, the equivalent of a 0.04 % share of GNI. Private direct investment in developing countries came to 1.9 billion euros in 2020.</t>
         </is>
       </c>
-      <c r="L62" s="4" t="inlineStr">
+      <c r="L63" s="4" t="inlineStr">
         <is>
           <t>17.2.1</t>
         </is>
       </c>
-      <c r="M62" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N62" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O62" s="7">
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7">
         <v>45672</v>
       </c>
     </row>
-    <row outlineLevel="0" r="63">
-      <c r="A63" s="4" t="inlineStr">
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>Z17_B02_P01_Ib01</t>
         </is>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>Z17_B02_P01</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>17.2</t>
         </is>
       </c>
-      <c r="D63" s="4" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr">
         <is>
           <t>Anzahl der Studierenden und Forschenden aus Entwicklungsländern sowie aus am wenigsten entwickelten Ländern pro Jahr</t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>Number of students and researchers from developing countries and least developed countries per year</t>
         </is>
       </c>
-      <c r="F63" s="5" t="inlineStr">
+      <c r="F64" s="5" t="inlineStr">
         <is>
           <t>Der Indikator erfasst die Anzahl der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern pro Jahr bzw. Semester. Hierbei wird die Anzahl der Studierenden und Forschenden aus den am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) gesondert ausgewiesen.</t>
         </is>
       </c>
-      <c r="G63" s="5" t="inlineStr">
+      <c r="G64" s="5" t="inlineStr">
         <is>
           <t>The indicator records the number of students and researchers from developing and emerging countries per year or semester. Here, the number of students and researchers from the least developed countries (LDCs) is listed separately.</t>
         </is>
       </c>
-      <c r="H63" s="5" t="inlineStr">
+      <c r="H64" s="5" t="inlineStr">
         <is>
           <t>Wissen ist nicht nur auf nationaler Ebene, sondern auch im globalen Maßstab ein zentraler Treiber nachhaltiger Entwicklung. Die Stärkung des internationalen Wissensaustauschs durch Deutschland ist hierfür eine wichtige Maßnahme. Ziel der Bundesregierung war es deshalb, die Summe der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern von 2015 bis 2020 um 10 % zu steigern und die Anzahl anschließend zu verstetigen.</t>
         </is>
       </c>
-      <c r="I63" s="5" t="inlineStr">
+      <c r="I64" s="5" t="inlineStr">
         <is>
           <t>Knowledge is a key driver of sustainable development not only at national level but also in global terms. The strengthening of the international exchange of knowledge by Germany is an important measure in this context. For this reason, the target of the Federal Government is to increase the total number of students and researchers from developing and emerging countries by 10 % from 2015 until 2020 and to stabilise the number at the same level thereafter.</t>
         </is>
       </c>
-      <c r="J63" s="5" t="inlineStr">
+      <c r="J64" s="5" t="inlineStr">
         <is>
           <t>Datengrundlage des Indikators sind die Studierendenstatistik und die Statistik des Hochschulpersonals des Statistischen Bundesamtes. Beides sind Vollerhebungen auf der Basis der Verwaltungsdaten der Hochschulen. Der Indikator umfasst die Studierenden im Wintersemester des jeweiligen Jahres. Die Forschenden werden zum Stichtag 1. Dezember erhoben. Unter Forschenden wird hierbei das haupt- und nebenberufliche wissenschaftliche Personal an deutschen Hochschulen (ohne studentische Hilfskräfte) verstanden. Promotionsstudierende, die als Studierende an einer Hochschule immatrikuliert sind und zugleich als wissenschaftliches Personal arbeiten, können zu Doppelzählungen im Indikator führen.
 Die Gesamtzahl aller Studierenden und Forschenden aus Entwicklungs- und Schwellenländern an deutschen Hochschulen im Jahr 2021 betrug rund 316 Tausend. Mit 91,9 % machten dabei die Studierenden den weitaus größeren Anteil am Wert des Indikators aus.
@@ -5638,7 +5708,7 @@
 Das angestrebte Ziel, die Summe der Studierenden und Forschenden aus Entwicklungs- und Schwellenländern um 10 % gegenüber dem Jahr 2015 (215 000) zu steigern, wurde bereits im Jahr 2017 übertroffen und auch die angestrebte Verstetigung der Anzahl wird seitdem erreicht.</t>
         </is>
       </c>
-      <c r="K63" s="5" t="inlineStr">
+      <c r="K64" s="5" t="inlineStr">
         <is>
           <t>The data basis of the indicator is the statistics of students and the statistics of higher education staff conducted by the Federal Statistical Office. Both are complete surveys based on the administrative data of the institutions of higher education. The indicator includes the students in the winter semester of each year. However, the researchers are covered on the reference date of 1st of December. Researchers in this context are defined as academic personnel at German institutions of higher education in primary and secondary employment (excluding student assistants). Doctoral candidates who are enrolled as students at an institution of higher education and who are also working as member of the academic personnel may be counted twice by the indicator.
 The total number of all students and researchers from developing and emerging countries at German institutions of higher education was about 316,000 in 2021. With 91.9 %, students by far accounted for the largest share of the indicator value.
@@ -5649,70 +5719,70 @@
 The target of raising the number of students and researchers from developing and emerging countries by 10 % compared to the 215,000 recorded for 2015 was already achieved in 2017. From there, the intended steady increase is also reached in subsequent years.</t>
         </is>
       </c>
-      <c r="L63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M63" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N63" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O63" s="7">
+      <c r="L64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7">
         <v>45548</v>
       </c>
     </row>
-    <row outlineLevel="0" r="64">
-      <c r="A64" s="4" t="inlineStr">
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01_Ib01</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>Z17_B03_P01</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>17.3</t>
         </is>
       </c>
-      <c r="D64" s="4" t="inlineStr">
+      <c r="D65" s="4" t="inlineStr">
         <is>
           <t>Einfuhren aus am wenigsten entwickelten Ländern</t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr">
+      <c r="E65" s="4" t="inlineStr">
         <is>
           <t>Imports from least developed countries</t>
         </is>
       </c>
-      <c r="F64" s="5" t="inlineStr">
+      <c r="F65" s="5" t="inlineStr">
         <is>
           <t>Der Indikator gibt den wertmäßigen Anteil der Einfuhren bzw. Importe aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) an den gesamten Einfuhren nach Deutschland an.</t>
         </is>
       </c>
-      <c r="G64" s="5" t="inlineStr">
+      <c r="G65" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the imports from the least developed countries (LDCs) as a proportion of all imports to Germany, measured in euros.</t>
         </is>
       </c>
-      <c r="H64" s="5" t="inlineStr">
+      <c r="H65" s="5" t="inlineStr">
         <is>
           <t>Für eine globale nachhaltige Entwicklung ist es wichtig, die Handelschancen der Entwicklungs- und Schwellenländer zu verbessern. Entwicklungs- und Schwellenländer benötigen ein offenes und faires Handelssystem, um sowohl Rohstoffe als auch verarbeitete Produkte auf dem Weltmarkt anzubieten. Die Bundesregierung hat daher als Ziel festgelegt, dass sich der Anteil der Einfuhren aus am wenigsten entwickelten Ländern (Least Developed Countries, LDCs) zwischen den Jahren 2014 und 2030 verdoppeln soll.</t>
         </is>
       </c>
-      <c r="I64" s="5" t="inlineStr">
+      <c r="I65" s="5" t="inlineStr">
         <is>
           <t>To promote global sustainable development, it is important to improve trading opportunities of developing and emerging countries. Developing and emerging countries need an open and fair trading system that will allow them to offer raw materials as well as processed products on the world market. The Federal Government has therefore set itself the target of doubling the proportion of imports from LDCs between the years 2014 and 2030.</t>
         </is>
       </c>
-      <c r="J64" s="5" t="inlineStr">
+      <c r="J65" s="5" t="inlineStr">
         <is>
           <t>Die Daten zu Einfuhren Deutschlands werden von der Außenhandelsstatistik des Statistischen Bundesamtes zusammengestellt. Dabei wird neben dem Herkunftsland der importierten Waren sowie deren Wert und Gewicht auch die Art der Ware detailliert erfasst. Ausgeschlossen ist in der Außenhandelsstatistik der Bereich Dienstleistungen.
 Die Einordnung der verschiedenen Länder als LDC wird anhand der Liste der Empfänger öffentlicher Entwicklungsgelder des Ausschusses für Entwicklungszusammenarbeit der Organisation für wirtschaftliche Zusammenarbeit und Entwicklung (OECD-DAC) vorgenommen. Für den Indikator werden die im jeweiligen Jahr gültigen Einstufungen gemäß OECD-DAC zugrunde gelegt. Ändert sich also der Status eines Landes, so wirkt sich das auf den Indikator aus, auch wenn der Wert der Einfuhren aus diesem Land unverändert geblieben ist.
@@ -5721,7 +5791,7 @@
 Eine genauere Analyse der Einfuhren nach Herkunftsländern zeigt, dass ein Großteil der Einfuhren aus LDCs 2021 aus Bangladesch (57,3 %) und Kambodscha (12,6 %) stammten. Werden nicht nur die LDCs, sondern alle Entwicklungs- und Schwellenländer betrachtet, so betrug im Jahr 2021 ihr Anteil an den gesamten Einfuhren nach Deutschland 23,7 %, wobei der Anteil weiterverarbeiteter Güter bei 22,1 % lag. Nicht nur unter den Entwicklungs- und Schwellenländern, sondern auch insgesamt spielte China die größte Rolle. Allein der Anteil der Importe aus China an allen deutschen Importen (1 203,2 Milliarden Euro) betrug 2021 11,8 %, wobei es sich hierbei wertmäßig zu 99,6 % um weiterverarbeitete Produkte handelte. Erst auf den Plätzen zwei und drei folgten die Niederlande (8,8 %) und die USA (6,0 %) als wichtigste Handelspartner bei den Einfuhren.</t>
         </is>
       </c>
-      <c r="K64" s="5" t="inlineStr">
+      <c r="K65" s="5" t="inlineStr">
         <is>
           <t>Information about imports to Germany is compiled from the foreign trade statistics of the Federal Statistical Office. In this case, the type of the imported goods is also recorded in detail in addition to their country of origin, their value and weight. The service sector is excluded from foreign trade statistics.
 The various countries are classified as LDCs based on the list of recipients of official development assistance kept by the Development Assistance Committee (DAC) of the Organisation for Economic Cooperation and Development (OECD). The classifications valid in the respective year according to the OECD-DAC are used for this indicator. If the status of a country changes, this will impact the indicator even if the value of imports from this country remains unchanged.
@@ -5730,20 +5800,20 @@
 Closer analysis of the various countries of origin reveals that the largest amount of Germany’s imports from LDCs in 2021 came from Bangladesh (57.3 %) or Cambodia (12.6 %). If one looks not only at the LDCs but at all developing and emerging countries, their share of total imports to Germany in 2021 was 23.7 %, and processed products from those countries accounted for 22.1 %. China plays the most important role among all developing and emerging countries. Of all German imports in 2021, 1,203.2 billion euros or 11.8 % came from China alone, with processed goods making up 99.6 %. Netherlands (8.8 %) and the United States (6.0 %) are the second and third most important trading partners concerning imports, respectively.</t>
         </is>
       </c>
-      <c r="L64" s="4" t="inlineStr">
+      <c r="L65" s="4" t="inlineStr">
         <is>
           <t>17.11.1</t>
         </is>
       </c>
-      <c r="M64" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N64" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O64" s="7">
+      <c r="M65" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N65" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7">
         <v>45593</v>
       </c>
     </row>

--- a/Tab_4a_Indikatorenblätter.xlsx
+++ b/Tab_4a_Indikatorenblätter.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2076,50 +2076,120 @@
     <row outlineLevel="0" r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
+          <t>Z04_B03_P01_Ib02</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Z04_B03_P01</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>04.3.b</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Anteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>XXXAnteil der 17 bis 18-Jährigen mit (angestrebter) Studienberechtigung</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
           <t>Z05_B01_P01_Ib01</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>05.1.a</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>Verdienstabstand zwischen Frauen und Männern</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Gender pay gap</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Der Indikator zeigt den Unterschied zwischen den durchschnittlichen Bruttostundenverdiensten der Frauen und der Männer als Anteil an den durchschnittlichen Bruttostundenverdiensten der Männer.</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>The indicator shows the difference between the average gross hourly earnings of women and men expressed as a percentage of the average gross hourly earnings of men.</t>
         </is>
       </c>
-      <c r="H20" s="5" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>Lohnunterschiede zwischen Frauen und Männern sind in modernen Erwerbsgesellschaften ein Zeichen für soziale Ungleichheit. Die Verringerung der Lohnunterschiede ist ein Indikator für Fortschritte auf dem Weg zur Gleichstellung. Die Bundesregierung verfolgte daher das Ziel, bis zum Jahr 2020 den Verdienstabstand auf 10 % zu verringern und dieses bis 2030 beizubehalten.</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
+      <c r="I21" s="5" t="inlineStr">
         <is>
           <t>Differences in pay between men and women in a modern business-oriented society are a sign of social inequality. A narrowing of pay disparities indicates progress on the road to equality. The Federal Government is therefore pursuing the goal of reducing the pay gap to 10 % by 2020 and to maintain the value until 2030.</t>
         </is>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>Der hier dargestellte Indikator zeigt den unbereinigten geschlechtsspezifischen Verdienstabstand (unadjusted gender pay gap). Er setzt dafür ausschließlich die durchschnittlichen Bruttostundenverdienste ins Verhältnis zueinander. Im unbereinigten Gender Pay Gap (GPG) enthalten ist auch der Lohnabstand, der beispielsweise auf unterschiedliche Berufe, Branchen, Qualifikationen oder Erwerbsbiografien von Frauen und Männern zurückzuführen ist.
 Datengrundlage des Indikators bildet die vierjährliche Verdienststrukturerhebung, die von den Statistischen Ämtern der Länder als repräsentative Stichprobenerhebung mit Auskunftspflicht bei insgesamt maximal 60 000 Betrieben durchgeführt wird. Auf Basis dieser Daten werden Ergebnisse nach Alter, Bildungsniveau, Leistungsgruppen (Untergliederung in fünf Gruppen von ungelernt bis Arbeitnehmerinnen und Arbeitnehmer in leitender Stellung), Tätigkeit, Tarifbindung, Unternehmensgrößenklassen und Wirtschaftsabschnitten berechnet und der bereinigte Gender Pay Gap bestimmt. Für die Zwischenjahre wird der unbereinigte GPG mit den Veränderungsraten aus der vierteljährlichen Verdiensterhebung fortgeschrieben. Für den bereinigten sowie den unbereinigten GPG wird die EU-Abgrenzung zugrunde gelegt, wonach Beschäftigte der Land- und Forstwirtschaft, Fischerei, der öffentlichen Verwaltung, Verteidigung, Sozialversicherung sowie Beschäftigte in Kleinstbetrieben unberücksichtigt bleiben.
@@ -2130,7 +2200,7 @@
 Im europäischen Vergleich liegen überwiegend vorläufige Ergebnisse bis zum Jahr 2020 vor. Der unbereinigte GPG lag in Deutschland seit 2010 durchgehend über dem Durchschnitt der Europäischen Union. Von 25 EU-Staaten, für die Daten für das Jahr 2020 vorliegen, weisen nur Lettland mit 22 %, Estland mit 21 % und Österreich mit 19 % einen noch höheren geschlechtsspezifischen Verdienstunterschied auf. Die Staaten mit den EU-weit geringsten geschlechtsspezifischen Unterschieden im Bruttostundenverdienst waren Luxemburg (1 %), Rumänien (2 %) und Slowenien (3 %).</t>
         </is>
       </c>
-      <c r="K20" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>The indicator presented here shows the unadjusted gender pay gap (GPG). Therefore, it only expresses the relative average gross hourly earnings as a ratio without considering the underlying causes, such as qualification, occupation or a different employment history.
 The data for the indicator is based on the four-yearly structure of earnings survey conducted by the statistical offices of the Länder as a representative sample survey covering a maximum of 60,000 businesses who are obliged to provide the requested information. Based on these data, results are provided by age, educational attainment, performance group, activity, collective agreement, company size class and economic sector, and the adjusted GPG is published. For the interim years, the unadjusted GPG is updated using the rates of change from the quarterly survey of earnings. In the following, the EU definition is used for the adjusted and unadjusted GPG; it excludes employees in “agriculture, forestry and fishing”, “public administration and defence; compulsory social security” and in micro-enterprises.
@@ -2141,67 +2211,67 @@
 Comparative data for the European Union with mostly provisional results is available until 2020. From 2010 on, the unadjusted GPG in Germany lay considerably above the provisional European Union average. Of the 25 EU states in 2020, only Latvia, with 22 %, Estonia, with 21 %, and Austria, with 19 %, had a higher GPG. The countries with the lowest gender differentials in gross hourly pay were Luxembourg, with 1 %, Romania, with 2 %, and Slovenia, with 3 %.</t>
         </is>
       </c>
-      <c r="L20" s="4" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>8.5.1</t>
         </is>
       </c>
-      <c r="M20" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01_Ib02</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Z05_B01_P01</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>05.1.b,c</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>Frauen in Führungspositionen in der Wirtschaft sowie im öffentlichen Dienst des Bundes</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Women in management positions in business and in the federal civil service</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Der Indikator 5.1.b zeigt den Anteil von Frauen in Aufsichtsräten der börsennotierten und paritätisch